--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1581.5377217844</v>
+        <v>733.82419949063</v>
       </c>
       <c r="C2">
-        <v>31.9845742629359</v>
+        <v>49.9002803798373</v>
       </c>
       <c r="D2">
-        <v>49.3097874357063</v>
+        <v>78.53445524097231</v>
       </c>
       <c r="E2">
-        <v>46.9764186629503</v>
+        <v>75.157863465746</v>
       </c>
       <c r="F2">
-        <v>16.2924148128081</v>
+        <v>23.8974957134831</v>
       </c>
       <c r="G2">
-        <v>8.908900520158101</v>
+        <v>15.4477111643294</v>
       </c>
       <c r="H2">
-        <v>10.4144569990699</v>
+        <v>22.2995398544603</v>
       </c>
       <c r="I2">
-        <v>13.682605852927</v>
+        <v>17.8948689456002</v>
       </c>
       <c r="J2">
-        <v>56.1290633613663</v>
+        <v>77.9033631619435</v>
       </c>
       <c r="K2">
-        <v>12.2886991760854</v>
+        <v>24.3184902821065</v>
       </c>
       <c r="L2">
-        <v>29.8095789022128</v>
+        <v>39.441951810988</v>
       </c>
       <c r="M2">
-        <v>43.374396149559</v>
+        <v>52.2385322234494</v>
       </c>
       <c r="N2">
-        <v>30.6318510484792</v>
+        <v>29.6126207816938</v>
       </c>
       <c r="O2">
-        <v>1192.74096549782</v>
+        <v>1888.70981739331</v>
       </c>
       <c r="P2">
-        <v>25.9010754395009</v>
+        <v>36.447135502863</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>261.56380768353</v>
+        <v>121.196443764827</v>
       </c>
       <c r="C3">
-        <v>1.21169982030272</v>
+        <v>8.06643074347031</v>
       </c>
       <c r="D3">
-        <v>0.0400588725854665</v>
+        <v>0.169257171954066</v>
       </c>
       <c r="E3">
-        <v>1.52262868619243</v>
+        <v>1.16630964620415</v>
       </c>
       <c r="F3">
-        <v>10.9025246392768</v>
+        <v>13.7790581488881</v>
       </c>
       <c r="G3">
-        <v>0.770280171085055</v>
+        <v>0.191013562166079</v>
       </c>
       <c r="H3">
-        <v>0.0204236194922381</v>
+        <v>0.315690448118063</v>
       </c>
       <c r="I3">
-        <v>0.312016400264853</v>
+        <v>0.331410270756615</v>
       </c>
       <c r="J3">
-        <v>0.665378715069739</v>
+        <v>0.680532827563745</v>
       </c>
       <c r="K3">
-        <v>0.787264719236097</v>
+        <v>0.120374406598289</v>
       </c>
       <c r="L3">
-        <v>0.186375291619683</v>
+        <v>0.151601790819486</v>
       </c>
       <c r="M3">
-        <v>0.734565135238855</v>
+        <v>1.02893951150947</v>
       </c>
       <c r="N3">
-        <v>0.764842132701164</v>
+        <v>0.949319946514255</v>
       </c>
       <c r="O3">
-        <v>310.982217794003</v>
+        <v>397.041034282546</v>
       </c>
       <c r="P3">
-        <v>2.9528752664979</v>
+        <v>14.2758280419218</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1740.04107045458</v>
+        <v>835.78005865519</v>
       </c>
       <c r="C4">
-        <v>16.1225188782745</v>
+        <v>13.0352313137361</v>
       </c>
       <c r="D4">
-        <v>3.12707039411049</v>
+        <v>3.668441164762</v>
       </c>
       <c r="E4">
-        <v>19.9705578763008</v>
+        <v>23.4642922225391</v>
       </c>
       <c r="F4">
-        <v>13.9871874347052</v>
+        <v>12.6447566221947</v>
       </c>
       <c r="G4">
-        <v>9.277821865715771</v>
+        <v>9.35835811508637</v>
       </c>
       <c r="H4">
-        <v>11.4681386379647</v>
+        <v>11.1925900053389</v>
       </c>
       <c r="I4">
-        <v>9.25602220519411</v>
+        <v>15.2757499508483</v>
       </c>
       <c r="J4">
-        <v>25.0345390027381</v>
+        <v>33.1586501388357</v>
       </c>
       <c r="K4">
-        <v>9.51206233918672</v>
+        <v>11.1050392066015</v>
       </c>
       <c r="L4">
-        <v>66.3712627436411</v>
+        <v>78.0559506088247</v>
       </c>
       <c r="M4">
-        <v>59.5557965540866</v>
+        <v>65.8362369500374</v>
       </c>
       <c r="N4">
-        <v>27.4985158537745</v>
+        <v>36.8667333478246</v>
       </c>
       <c r="O4">
-        <v>1631.45174843883</v>
+        <v>2522.36041931367</v>
       </c>
       <c r="P4">
-        <v>22.4139476791525</v>
+        <v>50.2043650287313</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>1004.64884137746</v>
+        <v>418.118935543231</v>
       </c>
       <c r="C5">
-        <v>61.1166328389342</v>
+        <v>85.4516158553422</v>
       </c>
       <c r="D5">
-        <v>10.916991395287</v>
+        <v>20.4221750105777</v>
       </c>
       <c r="E5">
-        <v>35.393147557842</v>
+        <v>53.8721560902653</v>
       </c>
       <c r="F5">
-        <v>3.15217368984155</v>
+        <v>3.94812364555095</v>
       </c>
       <c r="G5">
-        <v>14.3002664206581</v>
+        <v>12.2177207992849</v>
       </c>
       <c r="H5">
-        <v>11.9203243580803</v>
+        <v>14.8520555581977</v>
       </c>
       <c r="I5">
-        <v>6.14867204347851</v>
+        <v>9.978435619379111</v>
       </c>
       <c r="J5">
-        <v>18.9108970394839</v>
+        <v>32.3153445634252</v>
       </c>
       <c r="K5">
-        <v>12.3723024296353</v>
+        <v>23.5536991521761</v>
       </c>
       <c r="L5">
-        <v>14.5780624313087</v>
+        <v>21.6760094087689</v>
       </c>
       <c r="M5">
-        <v>19.0598532960951</v>
+        <v>25.622865144128</v>
       </c>
       <c r="N5">
-        <v>13.7689440887776</v>
+        <v>21.2836081660743</v>
       </c>
       <c r="O5">
-        <v>642.393281053986</v>
+        <v>1094.61281645209</v>
       </c>
       <c r="P5">
-        <v>30.1832056588861</v>
+        <v>69.3546287832274</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>10269.9007869681</v>
+        <v>5622.76123947241</v>
       </c>
       <c r="C6">
-        <v>133.361504433797</v>
+        <v>186.780439667999</v>
       </c>
       <c r="D6">
-        <v>118.184355618249</v>
+        <v>201.249922864997</v>
       </c>
       <c r="E6">
-        <v>216.651026434584</v>
+        <v>174.536566498881</v>
       </c>
       <c r="F6">
-        <v>34.9223662923596</v>
+        <v>30.6827962198848</v>
       </c>
       <c r="G6">
-        <v>88.38788891142551</v>
+        <v>110.78260912186</v>
       </c>
       <c r="H6">
-        <v>56.7981079938377</v>
+        <v>78.62526113043771</v>
       </c>
       <c r="I6">
-        <v>47.9621446456696</v>
+        <v>54.527935322139</v>
       </c>
       <c r="J6">
-        <v>162.622699511492</v>
+        <v>193.204791809968</v>
       </c>
       <c r="K6">
-        <v>96.6026241902848</v>
+        <v>117.757617513434</v>
       </c>
       <c r="L6">
-        <v>566.869971129323</v>
+        <v>587.584857382195</v>
       </c>
       <c r="M6">
-        <v>233.72735375654</v>
+        <v>285.587820938315</v>
       </c>
       <c r="N6">
-        <v>208.523751047623</v>
+        <v>296.138194908767</v>
       </c>
       <c r="O6">
-        <v>10075.7780414124</v>
+        <v>14457.0936622876</v>
       </c>
       <c r="P6">
-        <v>213.131164940387</v>
+        <v>332.323675696995</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1139.89141342992</v>
+        <v>514.120965068122</v>
       </c>
       <c r="C7">
-        <v>18.1974745033043</v>
+        <v>33.1034363315671</v>
       </c>
       <c r="D7">
-        <v>3.93299000738383</v>
+        <v>2.41999442717114</v>
       </c>
       <c r="E7">
-        <v>24.1643725624057</v>
+        <v>22.183069421996</v>
       </c>
       <c r="F7">
-        <v>26.7376265396851</v>
+        <v>17.796763815445</v>
       </c>
       <c r="G7">
-        <v>14.3686332048218</v>
+        <v>10.7976748757564</v>
       </c>
       <c r="H7">
-        <v>8.113538503136949</v>
+        <v>8.121910221153611</v>
       </c>
       <c r="I7">
-        <v>5.69392883544863</v>
+        <v>9.27862911863811</v>
       </c>
       <c r="J7">
-        <v>18.7532548278615</v>
+        <v>21.570781558152</v>
       </c>
       <c r="K7">
-        <v>10.2242366234942</v>
+        <v>13.6604300751312</v>
       </c>
       <c r="L7">
-        <v>62.1260079806291</v>
+        <v>55.5368901451948</v>
       </c>
       <c r="M7">
-        <v>17.6360325133783</v>
+        <v>19.6955081036033</v>
       </c>
       <c r="N7">
-        <v>24.4567355737116</v>
+        <v>26.5391313679467</v>
       </c>
       <c r="O7">
-        <v>1457.66028352702</v>
+        <v>2105.85675819696</v>
       </c>
       <c r="P7">
-        <v>48.926606062476</v>
+        <v>43.6693590884605</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>973.623674435768</v>
+        <v>444.359352601956</v>
       </c>
       <c r="C8">
-        <v>7.3631180500882</v>
+        <v>10.0523931735484</v>
       </c>
       <c r="D8">
-        <v>7.37593171572286</v>
+        <v>11.1982814947046</v>
       </c>
       <c r="E8">
-        <v>25.8253467084459</v>
+        <v>22.8774693504731</v>
       </c>
       <c r="F8">
-        <v>0.62898887596743</v>
+        <v>2.07555810057511</v>
       </c>
       <c r="G8">
-        <v>29.9425418715887</v>
+        <v>39.7472430722633</v>
       </c>
       <c r="H8">
-        <v>5.33809147445301</v>
+        <v>9.627554677916359</v>
       </c>
       <c r="I8">
-        <v>2.5102463331857</v>
+        <v>2.43989560193479</v>
       </c>
       <c r="J8">
-        <v>54.370283613852</v>
+        <v>62.8002240960481</v>
       </c>
       <c r="K8">
-        <v>20.2758234691839</v>
+        <v>25.0541654062612</v>
       </c>
       <c r="L8">
-        <v>46.2338618737217</v>
+        <v>47.5902351605206</v>
       </c>
       <c r="M8">
-        <v>56.8193737061926</v>
+        <v>62.1467453532704</v>
       </c>
       <c r="N8">
-        <v>16.5737402874559</v>
+        <v>19.1318148132924</v>
       </c>
       <c r="O8">
-        <v>1086.47813790598</v>
+        <v>1576.66410265993</v>
       </c>
       <c r="P8">
-        <v>4.59955242001663</v>
+        <v>6.69215810852597</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>373.20078948583</v>
+        <v>114.970213389289</v>
       </c>
       <c r="C9">
-        <v>7.70929829639227</v>
+        <v>14.7450570458459</v>
       </c>
       <c r="D9">
-        <v>2.14550347765843</v>
+        <v>3.30155918819265</v>
       </c>
       <c r="E9">
-        <v>6.98851750285266</v>
+        <v>8.59294744815689</v>
       </c>
       <c r="F9">
-        <v>2.16602939869456</v>
+        <v>2.41832950208195</v>
       </c>
       <c r="G9">
-        <v>20.845793361699</v>
+        <v>28.3532435226405</v>
       </c>
       <c r="H9">
-        <v>2.05536446421162</v>
+        <v>2.8471432883237</v>
       </c>
       <c r="I9">
-        <v>0.612792542946085</v>
+        <v>2.1440736402694</v>
       </c>
       <c r="J9">
-        <v>2.26579014291939</v>
+        <v>4.67996809451343</v>
       </c>
       <c r="K9">
-        <v>1.63645388857323</v>
+        <v>3.64755656227547</v>
       </c>
       <c r="L9">
-        <v>4.48565136608336</v>
+        <v>5.18483865056374</v>
       </c>
       <c r="M9">
-        <v>6.05426823265774</v>
+        <v>12.3129279880394</v>
       </c>
       <c r="N9">
-        <v>5.40823120012069</v>
+        <v>6.61765385628408</v>
       </c>
       <c r="O9">
-        <v>306.170539928319</v>
+        <v>482.672020383254</v>
       </c>
       <c r="P9">
-        <v>5.83276732138836</v>
+        <v>10.7633504782189</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>6180.69477877763</v>
+        <v>2808.67997820643</v>
       </c>
       <c r="C10">
-        <v>52.6004929433771</v>
+        <v>62.7407301396451</v>
       </c>
       <c r="D10">
-        <v>15.2136715674004</v>
+        <v>22.5499115863881</v>
       </c>
       <c r="E10">
-        <v>91.6632396365744</v>
+        <v>67.9917286611125</v>
       </c>
       <c r="F10">
-        <v>9.334575408324611</v>
+        <v>15.793365225027</v>
       </c>
       <c r="G10">
-        <v>28.151049676915</v>
+        <v>27.3820286190114</v>
       </c>
       <c r="H10">
-        <v>22.6128896563211</v>
+        <v>19.1401057171794</v>
       </c>
       <c r="I10">
-        <v>25.2517242832383</v>
+        <v>34.0751575685373</v>
       </c>
       <c r="J10">
-        <v>43.697266304552</v>
+        <v>65.76101328914299</v>
       </c>
       <c r="K10">
-        <v>27.9808886620887</v>
+        <v>35.6954000795708</v>
       </c>
       <c r="L10">
-        <v>78.0259399559171</v>
+        <v>114.642558178186</v>
       </c>
       <c r="M10">
-        <v>83.4641059673142</v>
+        <v>109.701552112175</v>
       </c>
       <c r="N10">
-        <v>66.1937832212155</v>
+        <v>93.88077590810011</v>
       </c>
       <c r="O10">
-        <v>5346.1588581908</v>
+        <v>8543.708898200061</v>
       </c>
       <c r="P10">
-        <v>49.7658186984529</v>
+        <v>99.2989721339749</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2577.49594980172</v>
+        <v>1184.35872613863</v>
       </c>
       <c r="C11">
-        <v>69.230726719546</v>
+        <v>72.33046072582761</v>
       </c>
       <c r="D11">
-        <v>84.1843642990433</v>
+        <v>167.493242258815</v>
       </c>
       <c r="E11">
-        <v>107.659237950752</v>
+        <v>106.664544929154</v>
       </c>
       <c r="F11">
-        <v>17.7482723507068</v>
+        <v>7.68732654312514</v>
       </c>
       <c r="G11">
-        <v>28.9581620177727</v>
+        <v>32.3232349788983</v>
       </c>
       <c r="H11">
-        <v>22.2276236735259</v>
+        <v>19.177762631076</v>
       </c>
       <c r="I11">
-        <v>17.2634615960762</v>
+        <v>18.7450316193759</v>
       </c>
       <c r="J11">
-        <v>42.2228803262402</v>
+        <v>77.2501473033674</v>
       </c>
       <c r="K11">
-        <v>25.9004954299154</v>
+        <v>32.3650070458522</v>
       </c>
       <c r="L11">
-        <v>47.0717895626495</v>
+        <v>62.5689401004457</v>
       </c>
       <c r="M11">
-        <v>67.6494109384205</v>
+        <v>60.6652770136464</v>
       </c>
       <c r="N11">
-        <v>53.9928416299306</v>
+        <v>49.0129323328176</v>
       </c>
       <c r="O11">
-        <v>2462.37051487504</v>
+        <v>3776.4019286108</v>
       </c>
       <c r="P11">
-        <v>37.3080121118307</v>
+        <v>33.807535109006</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>487.656352728808</v>
+        <v>195.963961626827</v>
       </c>
       <c r="C12">
-        <v>5.55155307889259</v>
+        <v>7.34862664726543</v>
       </c>
       <c r="D12">
-        <v>2.76091071008083</v>
+        <v>3.76965469672186</v>
       </c>
       <c r="E12">
-        <v>2.22315540306143</v>
+        <v>1.09320342107801</v>
       </c>
       <c r="F12">
-        <v>0.682980803773687</v>
+        <v>0.491217410197306</v>
       </c>
       <c r="G12">
-        <v>0.5306176717253021</v>
+        <v>0.55637609015693</v>
       </c>
       <c r="H12">
-        <v>0.5158079985692881</v>
+        <v>0.652081698708748</v>
       </c>
       <c r="I12">
-        <v>1.36564623849312</v>
+        <v>1.65138024944073</v>
       </c>
       <c r="J12">
-        <v>0.269267659667335</v>
+        <v>1.10632799774904</v>
       </c>
       <c r="K12">
-        <v>0.207349271937438</v>
+        <v>0.330996849118331</v>
       </c>
       <c r="L12">
-        <v>0.917302718989651</v>
+        <v>0.517801937998871</v>
       </c>
       <c r="M12">
-        <v>3.39839386861324</v>
+        <v>3.53267339338554</v>
       </c>
       <c r="N12">
-        <v>3.67493730504898</v>
+        <v>4.38901484091441</v>
       </c>
       <c r="O12">
-        <v>513.235602289324</v>
+        <v>734.5212168834109</v>
       </c>
       <c r="P12">
-        <v>13.2912261407732</v>
+        <v>28.7908507386134</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>486.316933128764</v>
+        <v>173.482852143367</v>
       </c>
       <c r="C13">
-        <v>20.7927997169253</v>
+        <v>31.2523103415826</v>
       </c>
       <c r="D13">
-        <v>1.73290487498502</v>
+        <v>2.36497529435132</v>
       </c>
       <c r="E13">
-        <v>21.9596650570797</v>
+        <v>18.068079286921</v>
       </c>
       <c r="F13">
-        <v>0.19189275756439</v>
+        <v>3.2899325438643</v>
       </c>
       <c r="G13">
-        <v>4.86475944280963</v>
+        <v>5.56653694742908</v>
       </c>
       <c r="H13">
-        <v>0.0566087600812886</v>
+        <v>2.33517442637154</v>
       </c>
       <c r="I13">
-        <v>1.90863547684818</v>
+        <v>1.10966554396446</v>
       </c>
       <c r="J13">
-        <v>4.82588809594294</v>
+        <v>7.59532018723423</v>
       </c>
       <c r="K13">
-        <v>4.67159448184237</v>
+        <v>3.53630835852877</v>
       </c>
       <c r="L13">
-        <v>16.4483265276506</v>
+        <v>24.1917756422561</v>
       </c>
       <c r="M13">
-        <v>1.13726381680228</v>
+        <v>1.96525472462045</v>
       </c>
       <c r="N13">
-        <v>6.67616841274431</v>
+        <v>8.312901492311481</v>
       </c>
       <c r="O13">
-        <v>388.826252372563</v>
+        <v>637.389825707058</v>
       </c>
       <c r="P13">
-        <v>46.7556793590706</v>
+        <v>60.9899931754194</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3624.78280734903</v>
+        <v>1761.79414841552</v>
       </c>
       <c r="C14">
-        <v>91.8069082638476</v>
+        <v>110.961415640811</v>
       </c>
       <c r="D14">
-        <v>17.5883283606114</v>
+        <v>14.5661478546674</v>
       </c>
       <c r="E14">
-        <v>152.220288335424</v>
+        <v>101.640689016684</v>
       </c>
       <c r="F14">
-        <v>33.9136391017832</v>
+        <v>26.0749209592689</v>
       </c>
       <c r="G14">
-        <v>67.6114611461699</v>
+        <v>84.6031719256456</v>
       </c>
       <c r="H14">
-        <v>68.65661068973171</v>
+        <v>67.11388220312649</v>
       </c>
       <c r="I14">
-        <v>11.3847747292989</v>
+        <v>23.9902735257468</v>
       </c>
       <c r="J14">
-        <v>148.365091110151</v>
+        <v>166.508355328542</v>
       </c>
       <c r="K14">
-        <v>124.519939499138</v>
+        <v>171.53182243176</v>
       </c>
       <c r="L14">
-        <v>111.641551464656</v>
+        <v>131.964142505219</v>
       </c>
       <c r="M14">
-        <v>77.0473927875962</v>
+        <v>92.1679137409527</v>
       </c>
       <c r="N14">
-        <v>61.2321560901822</v>
+        <v>89.0126063044854</v>
       </c>
       <c r="O14">
-        <v>3740.17514127559</v>
+        <v>5532.20336783668</v>
       </c>
       <c r="P14">
-        <v>82.9553065112738</v>
+        <v>77.0345075340116</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1789.24165048943</v>
+        <v>717.029949933097</v>
       </c>
       <c r="C15">
-        <v>47.7133227697558</v>
+        <v>63.2586874270921</v>
       </c>
       <c r="D15">
-        <v>8.626437250214771</v>
+        <v>8.685392823385779</v>
       </c>
       <c r="E15">
-        <v>68.3529531725146</v>
+        <v>71.9986580589825</v>
       </c>
       <c r="F15">
-        <v>8.11155682561197</v>
+        <v>15.3633453937186</v>
       </c>
       <c r="G15">
-        <v>40.5558787097771</v>
+        <v>45.1992604775884</v>
       </c>
       <c r="H15">
-        <v>31.6555419841176</v>
+        <v>49.5666252705433</v>
       </c>
       <c r="I15">
-        <v>20.6058755617549</v>
+        <v>42.2854241749987</v>
       </c>
       <c r="J15">
-        <v>130.23216990617</v>
+        <v>193.672136122899</v>
       </c>
       <c r="K15">
-        <v>30.5200267373141</v>
+        <v>57.7093086814824</v>
       </c>
       <c r="L15">
-        <v>57.9754232737582</v>
+        <v>55.3811356695284</v>
       </c>
       <c r="M15">
-        <v>233.41954916147</v>
+        <v>208.196092826156</v>
       </c>
       <c r="N15">
-        <v>64.7341971307709</v>
+        <v>91.5693964811199</v>
       </c>
       <c r="O15">
-        <v>1696.14970872814</v>
+        <v>2592.5328617793</v>
       </c>
       <c r="P15">
-        <v>45.6243667056085</v>
+        <v>58.2438952040936</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>886.163323187189</v>
+        <v>280.420454297125</v>
       </c>
       <c r="C16">
-        <v>55.477299639906</v>
+        <v>75.65970000852521</v>
       </c>
       <c r="D16">
-        <v>6.45623761300904</v>
+        <v>9.3219691659424</v>
       </c>
       <c r="E16">
-        <v>37.6613724799655</v>
+        <v>35.4941386806555</v>
       </c>
       <c r="F16">
-        <v>2.7307940083039</v>
+        <v>6.12787474639876</v>
       </c>
       <c r="G16">
-        <v>9.056072687668509</v>
+        <v>14.8703032101994</v>
       </c>
       <c r="H16">
-        <v>18.3036251043358</v>
+        <v>24.7857028017839</v>
       </c>
       <c r="I16">
-        <v>5.1101432955468</v>
+        <v>7.92775468773397</v>
       </c>
       <c r="J16">
-        <v>57.4881788247012</v>
+        <v>52.6896929791474</v>
       </c>
       <c r="K16">
-        <v>48.0514347606875</v>
+        <v>59.7429533322841</v>
       </c>
       <c r="L16">
-        <v>23.9390195928821</v>
+        <v>36.73397708319</v>
       </c>
       <c r="M16">
-        <v>29.3802716005118</v>
+        <v>29.1739588648982</v>
       </c>
       <c r="N16">
-        <v>17.9745178088898</v>
+        <v>28.3844984550731</v>
       </c>
       <c r="O16">
-        <v>902.310398329999</v>
+        <v>1370.13957672255</v>
       </c>
       <c r="P16">
-        <v>89.5231315992707</v>
+        <v>112.783286116238</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>769.688434900067</v>
+        <v>331.373198236883</v>
       </c>
       <c r="C17">
-        <v>19.0370569085032</v>
+        <v>29.5584396197552</v>
       </c>
       <c r="D17">
-        <v>6.83464402668446</v>
+        <v>6.0656628831266</v>
       </c>
       <c r="E17">
-        <v>31.8723119822097</v>
+        <v>23.3102783518608</v>
       </c>
       <c r="F17">
-        <v>17.3409060347911</v>
+        <v>15.4145841776161</v>
       </c>
       <c r="G17">
-        <v>8.185490098646561</v>
+        <v>12.5030723866749</v>
       </c>
       <c r="H17">
-        <v>8.27654406790229</v>
+        <v>11.6646330945809</v>
       </c>
       <c r="I17">
-        <v>10.8374338550355</v>
+        <v>7.32293705376347</v>
       </c>
       <c r="J17">
-        <v>18.847271324787</v>
+        <v>19.99489035708</v>
       </c>
       <c r="K17">
-        <v>19.1259714952616</v>
+        <v>17.6400250401392</v>
       </c>
       <c r="L17">
-        <v>10.4682949392376</v>
+        <v>13.3992465344966</v>
       </c>
       <c r="M17">
-        <v>61.2803071106607</v>
+        <v>83.8831475910427</v>
       </c>
       <c r="N17">
-        <v>14.5730009924352</v>
+        <v>12.7399732867477</v>
       </c>
       <c r="O17">
-        <v>872.540011803079</v>
+        <v>1259.02625393187</v>
       </c>
       <c r="P17">
-        <v>71.6307113190353</v>
+        <v>66.53064273871451</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1741.67441655394</v>
+        <v>706.427795635036</v>
       </c>
       <c r="C18">
-        <v>35.6480394141247</v>
+        <v>37.1441437616292</v>
       </c>
       <c r="D18">
-        <v>16.2507458191535</v>
+        <v>14.4213936052712</v>
       </c>
       <c r="E18">
-        <v>71.2393958947082</v>
+        <v>47.0191886010229</v>
       </c>
       <c r="F18">
-        <v>22.364555883005</v>
+        <v>38.5911145616731</v>
       </c>
       <c r="G18">
-        <v>8.20416264582518</v>
+        <v>20.6957770020067</v>
       </c>
       <c r="H18">
-        <v>17.2434807960077</v>
+        <v>28.1555421111711</v>
       </c>
       <c r="I18">
-        <v>11.1089317863744</v>
+        <v>9.015582588030339</v>
       </c>
       <c r="J18">
-        <v>48.6929213299712</v>
+        <v>55.5472187341368</v>
       </c>
       <c r="K18">
-        <v>26.0172322606081</v>
+        <v>27.2121687528032</v>
       </c>
       <c r="L18">
-        <v>13.4751624580861</v>
+        <v>36.2726043764608</v>
       </c>
       <c r="M18">
-        <v>77.4190738932586</v>
+        <v>76.5003233971556</v>
       </c>
       <c r="N18">
-        <v>23.0241060922451</v>
+        <v>31.6510570911073</v>
       </c>
       <c r="O18">
-        <v>964.921570568308</v>
+        <v>1862.86843051145</v>
       </c>
       <c r="P18">
-        <v>33.1921264949373</v>
+        <v>61.1255808795198</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1644.33120964125</v>
+        <v>798.994050069098</v>
       </c>
       <c r="C19">
-        <v>17.4458076402968</v>
+        <v>23.4454503548415</v>
       </c>
       <c r="D19">
-        <v>3.92396731583306</v>
+        <v>9.419490107099991</v>
       </c>
       <c r="E19">
-        <v>33.9888409681261</v>
+        <v>35.5569648626429</v>
       </c>
       <c r="F19">
-        <v>51.8329669902996</v>
+        <v>72.1905671250418</v>
       </c>
       <c r="G19">
-        <v>31.8492463326263</v>
+        <v>36.5656898445682</v>
       </c>
       <c r="H19">
-        <v>7.37061258917782</v>
+        <v>8.28532697280246</v>
       </c>
       <c r="I19">
-        <v>18.3573411365889</v>
+        <v>12.0339257121036</v>
       </c>
       <c r="J19">
-        <v>22.7219929742899</v>
+        <v>20.1196159841205</v>
       </c>
       <c r="K19">
-        <v>10.6753006015353</v>
+        <v>14.5908439947916</v>
       </c>
       <c r="L19">
-        <v>4.58201364090219</v>
+        <v>3.49097058811443</v>
       </c>
       <c r="M19">
-        <v>26.0445696316154</v>
+        <v>47.2642001995377</v>
       </c>
       <c r="N19">
-        <v>3.03640778633983</v>
+        <v>4.47671435301872</v>
       </c>
       <c r="O19">
-        <v>1255.53411278934</v>
+        <v>1972.3025135561</v>
       </c>
       <c r="P19">
-        <v>47.0122222410015</v>
+        <v>65.3580827670293</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>474.436501735379</v>
+        <v>184.758644018782</v>
       </c>
       <c r="C20">
-        <v>7.92440633899439</v>
+        <v>9.838566740581051</v>
       </c>
       <c r="D20">
-        <v>7.50594042670343</v>
+        <v>12.5489147387888</v>
       </c>
       <c r="E20">
-        <v>34.7063939400544</v>
+        <v>41.6618283518952</v>
       </c>
       <c r="F20">
-        <v>0.258359636677673</v>
+        <v>0.302717591859813</v>
       </c>
       <c r="G20">
-        <v>1.2465029334895</v>
+        <v>0.899929448674984</v>
       </c>
       <c r="H20">
-        <v>1.86388705661978</v>
+        <v>2.1139933555088</v>
       </c>
       <c r="I20">
-        <v>0.838332418036433</v>
+        <v>0.566413182819015</v>
       </c>
       <c r="J20">
-        <v>7.03678562609459</v>
+        <v>8.942009184680799</v>
       </c>
       <c r="K20">
-        <v>3.96286283442755</v>
+        <v>3.55455059285675</v>
       </c>
       <c r="L20">
-        <v>9.02466972432874</v>
+        <v>9.365913924842889</v>
       </c>
       <c r="M20">
-        <v>16.9717503133038</v>
+        <v>19.7520926627126</v>
       </c>
       <c r="N20">
-        <v>5.96141910935524</v>
+        <v>7.12764999896795</v>
       </c>
       <c r="O20">
-        <v>420.875154226124</v>
+        <v>657.951861815162</v>
       </c>
       <c r="P20">
-        <v>12.7270198962672</v>
+        <v>25.8654557482814</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1639.24987000012</v>
+        <v>571.860097771871</v>
       </c>
       <c r="C21">
-        <v>19.4041570788882</v>
+        <v>20.2970650529137</v>
       </c>
       <c r="D21">
-        <v>12.3422989278493</v>
+        <v>8.20460379352563</v>
       </c>
       <c r="E21">
-        <v>51.0708825374152</v>
+        <v>34.0800239170049</v>
       </c>
       <c r="F21">
-        <v>3.717712147657</v>
+        <v>2.38351732969408</v>
       </c>
       <c r="G21">
-        <v>17.7613004300021</v>
+        <v>19.6448373231251</v>
       </c>
       <c r="H21">
-        <v>6.12114653403249</v>
+        <v>11.4782279688801</v>
       </c>
       <c r="I21">
-        <v>6.87973291925929</v>
+        <v>6.72459690503857</v>
       </c>
       <c r="J21">
-        <v>20.9385878935734</v>
+        <v>22.6037053094038</v>
       </c>
       <c r="K21">
-        <v>8.5578447060572</v>
+        <v>5.21538372040224</v>
       </c>
       <c r="L21">
-        <v>39.3344376348986</v>
+        <v>32.5448778913302</v>
       </c>
       <c r="M21">
-        <v>29.3786509110756</v>
+        <v>29.84166077547</v>
       </c>
       <c r="N21">
-        <v>15.853252793903</v>
+        <v>17.6526390019466</v>
       </c>
       <c r="O21">
-        <v>1782.39433951105</v>
+        <v>2826.77718042104</v>
       </c>
       <c r="P21">
-        <v>18.7302378375169</v>
+        <v>25.9280638961822</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1756.9179559503</v>
+        <v>801.272485224649</v>
       </c>
       <c r="C22">
-        <v>19.3646860487344</v>
+        <v>14.0210730562917</v>
       </c>
       <c r="D22">
-        <v>18.1820234750017</v>
+        <v>24.3259553598946</v>
       </c>
       <c r="E22">
-        <v>54.7318696726662</v>
+        <v>49.5779747179622</v>
       </c>
       <c r="F22">
-        <v>0.560642318971174</v>
+        <v>0.851514762901702</v>
       </c>
       <c r="G22">
-        <v>26.8073797595423</v>
+        <v>29.0336361593043</v>
       </c>
       <c r="H22">
-        <v>18.75119548158</v>
+        <v>24.790070199466</v>
       </c>
       <c r="I22">
-        <v>8.98106109194176</v>
+        <v>8.70497445657527</v>
       </c>
       <c r="J22">
-        <v>44.0658869633683</v>
+        <v>59.039992159688</v>
       </c>
       <c r="K22">
-        <v>27.2989433762347</v>
+        <v>30.94034988841</v>
       </c>
       <c r="L22">
-        <v>109.553284200085</v>
+        <v>125.482477359481</v>
       </c>
       <c r="M22">
-        <v>23.5812766470925</v>
+        <v>26.4346950637889</v>
       </c>
       <c r="N22">
-        <v>36.9294855294091</v>
+        <v>62.6597834179101</v>
       </c>
       <c r="O22">
-        <v>2089.04805552995</v>
+        <v>3003.862838621</v>
       </c>
       <c r="P22">
-        <v>6.52883029330472</v>
+        <v>16.223609818048</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>3148.41199066284</v>
+        <v>1494.24304500798</v>
       </c>
       <c r="C23">
-        <v>46.8165907320989</v>
+        <v>55.1629475781989</v>
       </c>
       <c r="D23">
-        <v>7.14484397558088</v>
+        <v>12.4469593553307</v>
       </c>
       <c r="E23">
-        <v>79.5386924741923</v>
+        <v>67.58522195591981</v>
       </c>
       <c r="F23">
-        <v>6.44353842965097</v>
+        <v>1.99923860416332</v>
       </c>
       <c r="G23">
-        <v>54.9036906375467</v>
+        <v>69.4539429545481</v>
       </c>
       <c r="H23">
-        <v>50.4132699354735</v>
+        <v>85.3371026259419</v>
       </c>
       <c r="I23">
-        <v>27.3478643485367</v>
+        <v>36.574945917483</v>
       </c>
       <c r="J23">
-        <v>142.289702987582</v>
+        <v>174.419724894911</v>
       </c>
       <c r="K23">
-        <v>76.67744872060079</v>
+        <v>111.852678578879</v>
       </c>
       <c r="L23">
-        <v>38.980572311442</v>
+        <v>44.5966179193865</v>
       </c>
       <c r="M23">
-        <v>511.754131864877</v>
+        <v>650.0454569309979</v>
       </c>
       <c r="N23">
-        <v>71.6432009969277</v>
+        <v>97.971106402449</v>
       </c>
       <c r="O23">
-        <v>2640.23970570862</v>
+        <v>3964.83842969016</v>
       </c>
       <c r="P23">
-        <v>48.3923317857141</v>
+        <v>74.90319635273519</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1184.43020858801</v>
+        <v>451.012154031113</v>
       </c>
       <c r="C24">
-        <v>67.96528880711671</v>
+        <v>79.6151259224648</v>
       </c>
       <c r="D24">
-        <v>6.82938573703737</v>
+        <v>11.8817056617785</v>
       </c>
       <c r="E24">
-        <v>94.54987065761669</v>
+        <v>72.2500536139941</v>
       </c>
       <c r="F24">
-        <v>10.0106766686589</v>
+        <v>27.820871357446</v>
       </c>
       <c r="G24">
-        <v>12.8423549545661</v>
+        <v>15.3441501931063</v>
       </c>
       <c r="H24">
-        <v>10.1282472350079</v>
+        <v>15.1361135482215</v>
       </c>
       <c r="I24">
-        <v>11.7549246839202</v>
+        <v>13.9086342094376</v>
       </c>
       <c r="J24">
-        <v>60.9071801085887</v>
+        <v>65.279927585701</v>
       </c>
       <c r="K24">
-        <v>40.3860157235164</v>
+        <v>59.2057176552624</v>
       </c>
       <c r="L24">
-        <v>74.2918798957204</v>
+        <v>74.5663617923119</v>
       </c>
       <c r="M24">
-        <v>26.3094655822686</v>
+        <v>24.9414585938278</v>
       </c>
       <c r="N24">
-        <v>41.3175887204979</v>
+        <v>62.7314505127108</v>
       </c>
       <c r="O24">
-        <v>1639.81448562112</v>
+        <v>2271.47341624435</v>
       </c>
       <c r="P24">
-        <v>93.26523445516121</v>
+        <v>130.582803324675</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>1189.54023546637</v>
+        <v>507.776974009871</v>
       </c>
       <c r="C25">
-        <v>16.2441640448461</v>
+        <v>49.2768276598542</v>
       </c>
       <c r="D25">
-        <v>19.7562061331817</v>
+        <v>22.3916818858699</v>
       </c>
       <c r="E25">
-        <v>29.8981424599221</v>
+        <v>43.3846142245181</v>
       </c>
       <c r="F25">
-        <v>6.54379990477563</v>
+        <v>20.8032788878468</v>
       </c>
       <c r="G25">
-        <v>15.0492981778546</v>
+        <v>14.3249530174631</v>
       </c>
       <c r="H25">
-        <v>10.2187617348696</v>
+        <v>14.2292233996397</v>
       </c>
       <c r="I25">
-        <v>3.62427073322322</v>
+        <v>4.95355291724499</v>
       </c>
       <c r="J25">
-        <v>18.336301784911</v>
+        <v>24.790382718063</v>
       </c>
       <c r="K25">
-        <v>22.5301148364366</v>
+        <v>21.5583801619924</v>
       </c>
       <c r="L25">
-        <v>25.0095895880982</v>
+        <v>36.1773232209459</v>
       </c>
       <c r="M25">
-        <v>18.087665523905</v>
+        <v>51.6236292030305</v>
       </c>
       <c r="N25">
-        <v>47.8457888877721</v>
+        <v>45.5387875790473</v>
       </c>
       <c r="O25">
-        <v>708.686809939812</v>
+        <v>1186.64168919439</v>
       </c>
       <c r="P25">
-        <v>30.9965111966037</v>
+        <v>59.6280841454158</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1804.503018608</v>
+        <v>674.9446710192869</v>
       </c>
       <c r="C26">
-        <v>67.56288920809391</v>
+        <v>71.6712025470671</v>
       </c>
       <c r="D26">
-        <v>13.3867631143302</v>
+        <v>16.0171921979419</v>
       </c>
       <c r="E26">
-        <v>51.4367393334924</v>
+        <v>57.1479273518183</v>
       </c>
       <c r="F26">
-        <v>15.1587636632799</v>
+        <v>11.9614197473484</v>
       </c>
       <c r="G26">
-        <v>24.5719370375741</v>
+        <v>41.8548472215162</v>
       </c>
       <c r="H26">
-        <v>17.7078448915891</v>
+        <v>30.8493833397375</v>
       </c>
       <c r="I26">
-        <v>7.40410164814812</v>
+        <v>12.5416326860888</v>
       </c>
       <c r="J26">
-        <v>64.2071496703839</v>
+        <v>56.2425036686774</v>
       </c>
       <c r="K26">
-        <v>34.6422352265061</v>
+        <v>32.4274127375641</v>
       </c>
       <c r="L26">
-        <v>38.6204512570257</v>
+        <v>43.2660399315126</v>
       </c>
       <c r="M26">
-        <v>62.8406723395228</v>
+        <v>90.3221143070877</v>
       </c>
       <c r="N26">
-        <v>32.2685052650828</v>
+        <v>32.0359011565169</v>
       </c>
       <c r="O26">
-        <v>1538.12718585128</v>
+        <v>2595.57139034112</v>
       </c>
       <c r="P26">
-        <v>66.5718545016373</v>
+        <v>76.8261067776544</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>385.703243599851</v>
+        <v>121.205546437709</v>
       </c>
       <c r="C27">
-        <v>3.90948220768895</v>
+        <v>4.51673923419722</v>
       </c>
       <c r="D27">
-        <v>0.647649766429016</v>
+        <v>1.16490630320951</v>
       </c>
       <c r="E27">
-        <v>8.106186927939801</v>
+        <v>15.7898492994557</v>
       </c>
       <c r="F27">
-        <v>6.14473189363419</v>
+        <v>9.346161492638681</v>
       </c>
       <c r="G27">
-        <v>1.04942763540712</v>
+        <v>0.72955326277126</v>
       </c>
       <c r="H27">
-        <v>0.0279387120301198</v>
+        <v>0.156872296658357</v>
       </c>
       <c r="I27">
-        <v>2.33603052940294</v>
+        <v>2.83581382927944</v>
       </c>
       <c r="J27">
-        <v>3.4435544072649</v>
+        <v>5.64978363264961</v>
       </c>
       <c r="K27">
-        <v>0.901132489144859</v>
+        <v>2.71076708499265</v>
       </c>
       <c r="L27">
-        <v>1.75684412885667</v>
+        <v>2.01879590037922</v>
       </c>
       <c r="M27">
-        <v>1.22366585587505</v>
+        <v>1.53596858719405</v>
       </c>
       <c r="N27">
-        <v>3.95022476260084</v>
+        <v>5.56876512053602</v>
       </c>
       <c r="O27">
-        <v>327.185262942021</v>
+        <v>521.072576956227</v>
       </c>
       <c r="P27">
-        <v>37.7537655149053</v>
+        <v>58.1078167495889</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>484.839256971388</v>
+        <v>166.748382925941</v>
       </c>
       <c r="C28">
-        <v>39.8937592448225</v>
+        <v>43.7048189626354</v>
       </c>
       <c r="D28">
-        <v>1.50399310440462</v>
+        <v>1.47634270994196</v>
       </c>
       <c r="E28">
-        <v>13.4632166102209</v>
+        <v>11.2678862444745</v>
       </c>
       <c r="F28">
-        <v>2.72652115817244</v>
+        <v>2.60560632790102</v>
       </c>
       <c r="G28">
-        <v>6.59391717553174</v>
+        <v>7.09115010123582</v>
       </c>
       <c r="H28">
-        <v>4.5206760813946</v>
+        <v>6.94308988243314</v>
       </c>
       <c r="I28">
-        <v>4.01264508409032</v>
+        <v>4.90517039345634</v>
       </c>
       <c r="J28">
-        <v>11.9373381048406</v>
+        <v>20.0953012786837</v>
       </c>
       <c r="K28">
-        <v>15.0231851214236</v>
+        <v>19.0305254718714</v>
       </c>
       <c r="L28">
-        <v>8.120417085333941</v>
+        <v>13.3616114570645</v>
       </c>
       <c r="M28">
-        <v>12.6344022898027</v>
+        <v>10.3467028949506</v>
       </c>
       <c r="N28">
-        <v>12.9600435087706</v>
+        <v>10.5507751817432</v>
       </c>
       <c r="O28">
-        <v>593.651152809477</v>
+        <v>846.087695899129</v>
       </c>
       <c r="P28">
-        <v>84.8186073800869</v>
+        <v>99.1819310213461</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>761.869719640211</v>
+        <v>306.624321849087</v>
       </c>
       <c r="C29">
-        <v>5.61676124976154</v>
+        <v>3.95765743261331</v>
       </c>
       <c r="D29">
-        <v>2.28688464176601</v>
+        <v>3.34708230208129</v>
       </c>
       <c r="E29">
-        <v>12.3991846881007</v>
+        <v>7.30657644590074</v>
       </c>
       <c r="F29">
-        <v>12.6637002994917</v>
+        <v>19.234441426796</v>
       </c>
       <c r="G29">
-        <v>3.55596341538705</v>
+        <v>2.83059904470562</v>
       </c>
       <c r="H29">
-        <v>2.09007978303418</v>
+        <v>2.99374258538283</v>
       </c>
       <c r="I29">
-        <v>5.31476919864905</v>
+        <v>4.95200518113061</v>
       </c>
       <c r="J29">
-        <v>8.186748502813799</v>
+        <v>5.15656815846929</v>
       </c>
       <c r="K29">
-        <v>1.05304286425763</v>
+        <v>2.07163617181976</v>
       </c>
       <c r="L29">
-        <v>6.70852411155204</v>
+        <v>3.26103258438054</v>
       </c>
       <c r="M29">
-        <v>2.10415598318707</v>
+        <v>3.21016822590019</v>
       </c>
       <c r="N29">
-        <v>7.4492556528814</v>
+        <v>12.1473204371602</v>
       </c>
       <c r="O29">
-        <v>766.991885562073</v>
+        <v>1192.01327191109</v>
       </c>
       <c r="P29">
-        <v>9.53752092384241</v>
+        <v>6.94633699974933</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>402.210637252671</v>
+        <v>144.393419686361</v>
       </c>
       <c r="C30">
-        <v>3.98976755040819</v>
+        <v>4.17292003380601</v>
       </c>
       <c r="D30">
-        <v>3.70123447008101</v>
+        <v>5.424099238653</v>
       </c>
       <c r="E30">
-        <v>14.3816099437415</v>
+        <v>13.1240483701338</v>
       </c>
       <c r="F30">
-        <v>0.268244279891987</v>
+        <v>0.428935419101726</v>
       </c>
       <c r="G30">
-        <v>3.70350100913823</v>
+        <v>6.31199300374465</v>
       </c>
       <c r="H30">
-        <v>4.79807368121224</v>
+        <v>7.9971494992705</v>
       </c>
       <c r="I30">
-        <v>1.7035666672827</v>
+        <v>2.6057372705052</v>
       </c>
       <c r="J30">
-        <v>20.5337744785681</v>
+        <v>22.8573850997173</v>
       </c>
       <c r="K30">
-        <v>8.372850424777941</v>
+        <v>12.3122906401768</v>
       </c>
       <c r="L30">
-        <v>28.9300543283294</v>
+        <v>46.6497322532598</v>
       </c>
       <c r="M30">
-        <v>7.54970035002316</v>
+        <v>11.3857095184225</v>
       </c>
       <c r="N30">
-        <v>10.3707330276004</v>
+        <v>13.8435604935381</v>
       </c>
       <c r="O30">
-        <v>473.27583761095</v>
+        <v>660.181235990526</v>
       </c>
       <c r="P30">
-        <v>4.82553999379992</v>
+        <v>6.39838114858949</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2728.16579796146</v>
+        <v>1294.78019702254</v>
       </c>
       <c r="C31">
-        <v>29.9052039371434</v>
+        <v>42.4119910711002</v>
       </c>
       <c r="D31">
-        <v>14.1795847443057</v>
+        <v>31.4322641300084</v>
       </c>
       <c r="E31">
-        <v>55.0662444163724</v>
+        <v>44.0012932716003</v>
       </c>
       <c r="F31">
-        <v>14.9262960755433</v>
+        <v>12.7921350199782</v>
       </c>
       <c r="G31">
-        <v>132.082526261217</v>
+        <v>150.207509861117</v>
       </c>
       <c r="H31">
-        <v>20.430212824769</v>
+        <v>22.6828566804655</v>
       </c>
       <c r="I31">
-        <v>14.6335198687173</v>
+        <v>24.3141033248788</v>
       </c>
       <c r="J31">
-        <v>43.7275391009891</v>
+        <v>46.4590676695464</v>
       </c>
       <c r="K31">
-        <v>27.6236481615287</v>
+        <v>23.8356339323078</v>
       </c>
       <c r="L31">
-        <v>87.20044092368779</v>
+        <v>89.7116270823314</v>
       </c>
       <c r="M31">
-        <v>13.5825600493889</v>
+        <v>20.6969521185301</v>
       </c>
       <c r="N31">
-        <v>52.7718337273015</v>
+        <v>61.8459372579743</v>
       </c>
       <c r="O31">
-        <v>2580.29091622095</v>
+        <v>3956.80543312333</v>
       </c>
       <c r="P31">
-        <v>9.34620408234591</v>
+        <v>13.1706526358513</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>696.851890144993</v>
+        <v>301.721118513349</v>
       </c>
       <c r="C32">
-        <v>9.212254944739749</v>
+        <v>7.91537461731845</v>
       </c>
       <c r="D32">
-        <v>0.163186156426391</v>
+        <v>2.20278073692497</v>
       </c>
       <c r="E32">
-        <v>4.63606835224394</v>
+        <v>6.37272831622873</v>
       </c>
       <c r="F32">
-        <v>29.2782811280115</v>
+        <v>29.5192644146651</v>
       </c>
       <c r="G32">
-        <v>1.61538844273202</v>
+        <v>0.638605096121296</v>
       </c>
       <c r="H32">
-        <v>0.00116199382839167</v>
+        <v>0.119064176210789</v>
       </c>
       <c r="I32">
-        <v>3.65938155332302</v>
+        <v>5.94346401124698</v>
       </c>
       <c r="J32">
-        <v>5.28402118874663</v>
+        <v>9.269874796536669</v>
       </c>
       <c r="K32">
-        <v>1.43515657606833</v>
+        <v>4.20860680022502</v>
       </c>
       <c r="L32">
-        <v>8.9286389920579</v>
+        <v>13.4557361452614</v>
       </c>
       <c r="M32">
-        <v>6.60094733077843</v>
+        <v>4.13078797933193</v>
       </c>
       <c r="N32">
-        <v>3.52029236154385</v>
+        <v>7.35974205861908</v>
       </c>
       <c r="O32">
-        <v>559.923719343321</v>
+        <v>912.851358834499</v>
       </c>
       <c r="P32">
-        <v>20.5234880993526</v>
+        <v>33.0383297775254</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5953.6467472025</v>
+        <v>3177.98153924266</v>
       </c>
       <c r="C33">
-        <v>67.7237757555896</v>
+        <v>91.91779535279611</v>
       </c>
       <c r="D33">
-        <v>49.045424881665</v>
+        <v>78.7155784413625</v>
       </c>
       <c r="E33">
-        <v>139.617075027632</v>
+        <v>99.3735783645205</v>
       </c>
       <c r="F33">
-        <v>6.53005483324801</v>
+        <v>7.29571567301097</v>
       </c>
       <c r="G33">
-        <v>60.9175006950743</v>
+        <v>75.7857982441885</v>
       </c>
       <c r="H33">
-        <v>36.2257556734225</v>
+        <v>52.7715216092679</v>
       </c>
       <c r="I33">
-        <v>22.8377685430182</v>
+        <v>31.8767003842671</v>
       </c>
       <c r="J33">
-        <v>82.0034766856777</v>
+        <v>115.365339101008</v>
       </c>
       <c r="K33">
-        <v>123.732730834721</v>
+        <v>111.307491250241</v>
       </c>
       <c r="L33">
-        <v>128.299428228716</v>
+        <v>158.294567013764</v>
       </c>
       <c r="M33">
-        <v>89.9094707881362</v>
+        <v>91.9624642821023</v>
       </c>
       <c r="N33">
-        <v>87.5801904141136</v>
+        <v>163.418344476228</v>
       </c>
       <c r="O33">
-        <v>5851.10037015216</v>
+        <v>8566.32830919602</v>
       </c>
       <c r="P33">
-        <v>84.2844800408957</v>
+        <v>81.7773806226317</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2633.30849007623</v>
+        <v>1168.43694620634</v>
       </c>
       <c r="C34">
-        <v>55.5776246282901</v>
+        <v>97.7496739656024</v>
       </c>
       <c r="D34">
-        <v>142.173903166899</v>
+        <v>217.439447213018</v>
       </c>
       <c r="E34">
-        <v>98.17885819597871</v>
+        <v>73.4995251368171</v>
       </c>
       <c r="F34">
-        <v>6.3746423953167</v>
+        <v>6.15172102990224</v>
       </c>
       <c r="G34">
-        <v>51.3968189628602</v>
+        <v>75.92680133795081</v>
       </c>
       <c r="H34">
-        <v>31.5444137671026</v>
+        <v>50.062518555738</v>
       </c>
       <c r="I34">
-        <v>21.1140461483851</v>
+        <v>27.3311421508559</v>
       </c>
       <c r="J34">
-        <v>39.2808179587423</v>
+        <v>48.5921546674752</v>
       </c>
       <c r="K34">
-        <v>29.9853012760723</v>
+        <v>52.4614659014505</v>
       </c>
       <c r="L34">
-        <v>81.2469176275094</v>
+        <v>101.843392253986</v>
       </c>
       <c r="M34">
-        <v>36.5299229705457</v>
+        <v>55.5833489615655</v>
       </c>
       <c r="N34">
-        <v>118.869238948732</v>
+        <v>149.17129312517</v>
       </c>
       <c r="O34">
-        <v>2292.07302501149</v>
+        <v>3498.36822503555</v>
       </c>
       <c r="P34">
-        <v>51.7403100852974</v>
+        <v>90.65241521467949</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>228.833058186758</v>
+        <v>71.7470509217531</v>
       </c>
       <c r="C35">
-        <v>7.14836094152046</v>
+        <v>10.9269845330255</v>
       </c>
       <c r="D35">
-        <v>0.189383921441438</v>
+        <v>0.542379034596075</v>
       </c>
       <c r="E35">
-        <v>2.64439885489388</v>
+        <v>3.32378863244738</v>
       </c>
       <c r="F35">
-        <v>5.87919054633444</v>
+        <v>6.92500722168734</v>
       </c>
       <c r="G35">
-        <v>0.409534115872557</v>
+        <v>0.295554921425072</v>
       </c>
       <c r="H35">
-        <v>0.508071684382202</v>
+        <v>0.5151501019243711</v>
       </c>
       <c r="I35">
-        <v>0.342247868012048</v>
+        <v>0.666492970291512</v>
       </c>
       <c r="J35">
-        <v>3.26396626009311</v>
+        <v>3.41284132751571</v>
       </c>
       <c r="K35">
-        <v>4.51035215001231</v>
+        <v>6.29196606517276</v>
       </c>
       <c r="L35">
-        <v>3.23014143094983</v>
+        <v>3.31272707568789</v>
       </c>
       <c r="M35">
-        <v>3.87908905009702</v>
+        <v>3.03108371685314</v>
       </c>
       <c r="N35">
-        <v>2.09250945506126</v>
+        <v>3.43616871904503</v>
       </c>
       <c r="O35">
-        <v>244.387346778124</v>
+        <v>348.954044528229</v>
       </c>
       <c r="P35">
-        <v>39.8190746018618</v>
+        <v>60.9134639095936</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3583.31024001803</v>
+        <v>1619.20883514386</v>
       </c>
       <c r="C36">
-        <v>78.06709574558759</v>
+        <v>83.010504563486</v>
       </c>
       <c r="D36">
-        <v>23.4186307664798</v>
+        <v>17.5092998276854</v>
       </c>
       <c r="E36">
-        <v>124.896380228673</v>
+        <v>118.085630361066</v>
       </c>
       <c r="F36">
-        <v>18.5878057231554</v>
+        <v>31.874422537406</v>
       </c>
       <c r="G36">
-        <v>78.8168325367263</v>
+        <v>91.0313072333299</v>
       </c>
       <c r="H36">
-        <v>86.392408823926</v>
+        <v>125.706171462799</v>
       </c>
       <c r="I36">
-        <v>40.5373689061624</v>
+        <v>64.0272573375414</v>
       </c>
       <c r="J36">
-        <v>224.959252485233</v>
+        <v>258.671978409859</v>
       </c>
       <c r="K36">
-        <v>92.7372326296012</v>
+        <v>108.719710194788</v>
       </c>
       <c r="L36">
-        <v>87.15316034235831</v>
+        <v>107.94549767458</v>
       </c>
       <c r="M36">
-        <v>236.005468632507</v>
+        <v>274.470989877561</v>
       </c>
       <c r="N36">
-        <v>67.717957686763</v>
+        <v>85.3972268948709</v>
       </c>
       <c r="O36">
-        <v>3136.06552321474</v>
+        <v>4883.17915845962</v>
       </c>
       <c r="P36">
-        <v>34.6078873947358</v>
+        <v>46.0144489301172</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1152.49147564432</v>
+        <v>504.430495917078</v>
       </c>
       <c r="C37">
-        <v>22.8245503460814</v>
+        <v>29.7907452145825</v>
       </c>
       <c r="D37">
-        <v>8.6398734781763</v>
+        <v>7.22506708714229</v>
       </c>
       <c r="E37">
-        <v>11.3069679016114</v>
+        <v>15.4843406181055</v>
       </c>
       <c r="F37">
-        <v>42.6608182360686</v>
+        <v>47.589423240155</v>
       </c>
       <c r="G37">
-        <v>9.657690482718669</v>
+        <v>6.34008505102557</v>
       </c>
       <c r="H37">
-        <v>13.1913807545275</v>
+        <v>23.4643198853871</v>
       </c>
       <c r="I37">
-        <v>5.6562178056978</v>
+        <v>9.42305418087528</v>
       </c>
       <c r="J37">
-        <v>30.5301114718341</v>
+        <v>34.0973205106794</v>
       </c>
       <c r="K37">
-        <v>34.7926350992888</v>
+        <v>46.2533591647796</v>
       </c>
       <c r="L37">
-        <v>17.5481393368237</v>
+        <v>25.8143270207677</v>
       </c>
       <c r="M37">
-        <v>29.1099386205542</v>
+        <v>35.8506945453892</v>
       </c>
       <c r="N37">
-        <v>10.4671666578611</v>
+        <v>16.9755460365426</v>
       </c>
       <c r="O37">
-        <v>964.690521726501</v>
+        <v>1521.75894671874</v>
       </c>
       <c r="P37">
-        <v>18.9019198238227</v>
+        <v>51.7784387625686</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1147.36689763813</v>
+        <v>505.2277316737</v>
       </c>
       <c r="C38">
-        <v>13.1116508119585</v>
+        <v>31.1106155021992</v>
       </c>
       <c r="D38">
-        <v>11.3796803903514</v>
+        <v>13.9167750995672</v>
       </c>
       <c r="E38">
-        <v>61.5346107901527</v>
+        <v>58.5157872625746</v>
       </c>
       <c r="F38">
-        <v>1.61100985509031</v>
+        <v>3.07596035370268</v>
       </c>
       <c r="G38">
-        <v>5.5761907692818</v>
+        <v>6.11678822866914</v>
       </c>
       <c r="H38">
-        <v>4.47003132192908</v>
+        <v>6.85164206472699</v>
       </c>
       <c r="I38">
-        <v>0.939426696473623</v>
+        <v>2.96863787028786</v>
       </c>
       <c r="J38">
-        <v>29.4031104959875</v>
+        <v>41.87210129008</v>
       </c>
       <c r="K38">
-        <v>18.801704230501</v>
+        <v>17.258904077196</v>
       </c>
       <c r="L38">
-        <v>67.64609286531019</v>
+        <v>85.1959460652314</v>
       </c>
       <c r="M38">
-        <v>24.7906503628998</v>
+        <v>22.68062978516</v>
       </c>
       <c r="N38">
-        <v>18.1166043701444</v>
+        <v>22.9581829641267</v>
       </c>
       <c r="O38">
-        <v>1051.19935167776</v>
+        <v>1596.69204857568</v>
       </c>
       <c r="P38">
-        <v>42.947994277959</v>
+        <v>89.21311195814469</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3958.24800598208</v>
+        <v>1798.74966079244</v>
       </c>
       <c r="C39">
-        <v>79.43017118050859</v>
+        <v>113.910802692916</v>
       </c>
       <c r="D39">
-        <v>60.0911629344204</v>
+        <v>85.4188819922997</v>
       </c>
       <c r="E39">
-        <v>129.566122033922</v>
+        <v>132.333570440449</v>
       </c>
       <c r="F39">
-        <v>33.3443223505209</v>
+        <v>38.0873847184176</v>
       </c>
       <c r="G39">
-        <v>79.6384573318591</v>
+        <v>112.713273080728</v>
       </c>
       <c r="H39">
-        <v>49.3495987003891</v>
+        <v>58.0965764456073</v>
       </c>
       <c r="I39">
-        <v>49.816839664518</v>
+        <v>61.2203587102885</v>
       </c>
       <c r="J39">
-        <v>201.834401550826</v>
+        <v>207.22578952817</v>
       </c>
       <c r="K39">
-        <v>68.9017927574173</v>
+        <v>105.362057428216</v>
       </c>
       <c r="L39">
-        <v>106.392328420742</v>
+        <v>121.481040990061</v>
       </c>
       <c r="M39">
-        <v>60.1889513984407</v>
+        <v>82.50289428577381</v>
       </c>
       <c r="N39">
-        <v>91.8617527216384</v>
+        <v>119.92804970116</v>
       </c>
       <c r="O39">
-        <v>3644.45246987929</v>
+        <v>5556.67906948219</v>
       </c>
       <c r="P39">
-        <v>68.228844023213</v>
+        <v>80.2801655537973</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>421.792128600405</v>
+        <v>144.690740145915</v>
       </c>
       <c r="C40">
-        <v>3.26077216777216</v>
+        <v>5.38244173814574</v>
       </c>
       <c r="D40">
-        <v>5.04406043664977</v>
+        <v>13.0306419301005</v>
       </c>
       <c r="E40">
-        <v>6.98781196989422</v>
+        <v>8.52493676479971</v>
       </c>
       <c r="F40">
-        <v>0.170613478750306</v>
+        <v>0.318622362038451</v>
       </c>
       <c r="G40">
-        <v>4.22521824150445</v>
+        <v>6.74958883047063</v>
       </c>
       <c r="H40">
-        <v>3.64337673300051</v>
+        <v>6.90015068951744</v>
       </c>
       <c r="I40">
-        <v>1.10854868585869</v>
+        <v>3.58544591166932</v>
       </c>
       <c r="J40">
-        <v>13.3441041257824</v>
+        <v>17.7339606966073</v>
       </c>
       <c r="K40">
-        <v>3.45973555860267</v>
+        <v>4.56095416626411</v>
       </c>
       <c r="L40">
-        <v>11.9574954147099</v>
+        <v>17.7357186490967</v>
       </c>
       <c r="M40">
-        <v>6.608062368935</v>
+        <v>7.89277134994399</v>
       </c>
       <c r="N40">
-        <v>16.0379074341675</v>
+        <v>32.3270034631905</v>
       </c>
       <c r="O40">
-        <v>374.185377606036</v>
+        <v>563.076849244625</v>
       </c>
       <c r="P40">
-        <v>0.820032308503369</v>
+        <v>1.82312275280619</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1460.20828563185</v>
+        <v>587.526353705211</v>
       </c>
       <c r="C41">
-        <v>13.1426492065553</v>
+        <v>18.5936800147484</v>
       </c>
       <c r="D41">
-        <v>61.8935223444813</v>
+        <v>103.915617522667</v>
       </c>
       <c r="E41">
-        <v>37.8095452915234</v>
+        <v>55.3772706269612</v>
       </c>
       <c r="F41">
-        <v>2.18695282156182</v>
+        <v>3.61521138252109</v>
       </c>
       <c r="G41">
-        <v>28.8475607675073</v>
+        <v>39.6044097024976</v>
       </c>
       <c r="H41">
-        <v>40.3894235960593</v>
+        <v>42.2395093265301</v>
       </c>
       <c r="I41">
-        <v>6.29401757635316</v>
+        <v>8.021779302662461</v>
       </c>
       <c r="J41">
-        <v>35.9400427366854</v>
+        <v>67.1623355109501</v>
       </c>
       <c r="K41">
-        <v>23.4022173359965</v>
+        <v>32.08201492244</v>
       </c>
       <c r="L41">
-        <v>19.3995055496229</v>
+        <v>33.9477474175662</v>
       </c>
       <c r="M41">
-        <v>36.7268487673131</v>
+        <v>52.4453963248688</v>
       </c>
       <c r="N41">
-        <v>21.2982180529382</v>
+        <v>26.8202033389118</v>
       </c>
       <c r="O41">
-        <v>1055.88207411169</v>
+        <v>1762.04494084569</v>
       </c>
       <c r="P41">
-        <v>10.9811868546434</v>
+        <v>19.5906207405572</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>276.934596513788</v>
+        <v>74.75663863161761</v>
       </c>
       <c r="C42">
-        <v>9.31877531886942</v>
+        <v>10.6167146686057</v>
       </c>
       <c r="D42">
-        <v>0.387201626442722</v>
+        <v>0.622597027271973</v>
       </c>
       <c r="E42">
-        <v>8.816643809103329</v>
+        <v>11.840661932401</v>
       </c>
       <c r="F42">
-        <v>2.61269656328874</v>
+        <v>3.23420060398561</v>
       </c>
       <c r="G42">
-        <v>0.570315965788738</v>
+        <v>0.771798992616896</v>
       </c>
       <c r="H42">
-        <v>2.72975091724512</v>
+        <v>2.13480652393236</v>
       </c>
       <c r="I42">
-        <v>4.82466392544996</v>
+        <v>2.9693527353568</v>
       </c>
       <c r="J42">
-        <v>7.46171426146511</v>
+        <v>6.40627861633839</v>
       </c>
       <c r="K42">
-        <v>5.07198747727783</v>
+        <v>6.27651281425082</v>
       </c>
       <c r="L42">
-        <v>5.70144663928816</v>
+        <v>8.42847012428707</v>
       </c>
       <c r="M42">
-        <v>3.54719032604151</v>
+        <v>3.93381202733773</v>
       </c>
       <c r="N42">
-        <v>9.230121587594571</v>
+        <v>8.0109788013888</v>
       </c>
       <c r="O42">
-        <v>315.541348136851</v>
+        <v>444.684895301103</v>
       </c>
       <c r="P42">
-        <v>39.9866429828637</v>
+        <v>64.5553371423244</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1969.25254985427</v>
+        <v>980.213505904572</v>
       </c>
       <c r="C43">
-        <v>45.6913087092732</v>
+        <v>55.106549626362</v>
       </c>
       <c r="D43">
-        <v>15.5694678537739</v>
+        <v>37.8918802315333</v>
       </c>
       <c r="E43">
-        <v>72.5719130510919</v>
+        <v>72.2895667946419</v>
       </c>
       <c r="F43">
-        <v>3.80682455231141</v>
+        <v>6.05238722150757</v>
       </c>
       <c r="G43">
-        <v>35.672866281818</v>
+        <v>36.2316460456589</v>
       </c>
       <c r="H43">
-        <v>27.9866464476276</v>
+        <v>31.579819637508</v>
       </c>
       <c r="I43">
-        <v>11.6088822186439</v>
+        <v>21.9845524614779</v>
       </c>
       <c r="J43">
-        <v>51.7701486076735</v>
+        <v>61.7430850774931</v>
       </c>
       <c r="K43">
-        <v>41.5927074534113</v>
+        <v>54.2084028011382</v>
       </c>
       <c r="L43">
-        <v>37.1118449726489</v>
+        <v>52.5184889658488</v>
       </c>
       <c r="M43">
-        <v>108.364360409085</v>
+        <v>111.809458648789</v>
       </c>
       <c r="N43">
-        <v>49.821326633862</v>
+        <v>57.5508144678355</v>
       </c>
       <c r="O43">
-        <v>1569.81492312098</v>
+        <v>2457.18859860472</v>
       </c>
       <c r="P43">
-        <v>31.3264004308974</v>
+        <v>59.1101136789926</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>6306.060917161211</v>
+        <v>3361.38056171225</v>
       </c>
       <c r="C44">
-        <v>82.5523276351957</v>
+        <v>135.478293375952</v>
       </c>
       <c r="D44">
-        <v>42.2006643329668</v>
+        <v>57.2546760776522</v>
       </c>
       <c r="E44">
-        <v>105.880258764304</v>
+        <v>101.257915416483</v>
       </c>
       <c r="F44">
-        <v>214.563591445855</v>
+        <v>250.660436685557</v>
       </c>
       <c r="G44">
-        <v>104.219866256042</v>
+        <v>123.341130847203</v>
       </c>
       <c r="H44">
-        <v>53.1191106587612</v>
+        <v>52.9395571027949</v>
       </c>
       <c r="I44">
-        <v>45.3806655909459</v>
+        <v>52.6260030117503</v>
       </c>
       <c r="J44">
-        <v>124.263842262568</v>
+        <v>123.140998466433</v>
       </c>
       <c r="K44">
-        <v>75.8708769318072</v>
+        <v>97.6211901839899</v>
       </c>
       <c r="L44">
-        <v>211.136166731698</v>
+        <v>217.456542519105</v>
       </c>
       <c r="M44">
-        <v>132.384623137937</v>
+        <v>130.538705770117</v>
       </c>
       <c r="N44">
-        <v>83.33323442624049</v>
+        <v>92.43151189823401</v>
       </c>
       <c r="O44">
-        <v>6134.32136918598</v>
+        <v>8964.05136177225</v>
       </c>
       <c r="P44">
-        <v>96.2233939900903</v>
+        <v>228.972668508059</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>653.3715242077381</v>
+        <v>350.0384382626</v>
       </c>
       <c r="C45">
-        <v>15.2364414595627</v>
+        <v>24.0839362669204</v>
       </c>
       <c r="D45">
-        <v>3.89757296920588</v>
+        <v>4.4514283096196</v>
       </c>
       <c r="E45">
-        <v>19.4959407556365</v>
+        <v>13.8614142636975</v>
       </c>
       <c r="F45">
-        <v>20.2189170156284</v>
+        <v>24.3372432334233</v>
       </c>
       <c r="G45">
-        <v>13.7963112318318</v>
+        <v>12.8615435137943</v>
       </c>
       <c r="H45">
-        <v>1.54519811303633</v>
+        <v>2.9268935265923</v>
       </c>
       <c r="I45">
-        <v>5.17461095901947</v>
+        <v>5.04963934398233</v>
       </c>
       <c r="J45">
-        <v>15.3725843518977</v>
+        <v>16.6671199975446</v>
       </c>
       <c r="K45">
-        <v>5.47836098317757</v>
+        <v>6.21781105592732</v>
       </c>
       <c r="L45">
-        <v>17.3316220163142</v>
+        <v>17.1985720876957</v>
       </c>
       <c r="M45">
-        <v>22.4703499108028</v>
+        <v>24.8089743032001</v>
       </c>
       <c r="N45">
-        <v>20.4308534244755</v>
+        <v>26.7695431416031</v>
       </c>
       <c r="O45">
-        <v>682.29666884089</v>
+        <v>947.073920417219</v>
       </c>
       <c r="P45">
-        <v>6.34729225747506</v>
+        <v>18.3534256670516</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>228.709521049595</v>
+        <v>67.9482669747669</v>
       </c>
       <c r="C46">
-        <v>5.54452602304171</v>
+        <v>7.1628525389754</v>
       </c>
       <c r="D46">
-        <v>1.41766654235895</v>
+        <v>1.86833586385471</v>
       </c>
       <c r="E46">
-        <v>7.05471783616577</v>
+        <v>8.214393167198431</v>
       </c>
       <c r="F46">
-        <v>0.748348304383907</v>
+        <v>1.87932754677814</v>
       </c>
       <c r="G46">
-        <v>2.29187165636944</v>
+        <v>3.11272050159384</v>
       </c>
       <c r="H46">
-        <v>3.02826921213763</v>
+        <v>3.0549262200516</v>
       </c>
       <c r="I46">
-        <v>1.74302503027333</v>
+        <v>1.96880513773055</v>
       </c>
       <c r="J46">
-        <v>5.549750567758</v>
+        <v>6.75842543612235</v>
       </c>
       <c r="K46">
-        <v>2.68892543795815</v>
+        <v>4.17499007247552</v>
       </c>
       <c r="L46">
-        <v>14.6734697509679</v>
+        <v>15.995907785874</v>
       </c>
       <c r="M46">
-        <v>5.14059969385581</v>
+        <v>6.22570282316579</v>
       </c>
       <c r="N46">
-        <v>4.69581657890196</v>
+        <v>8.6651993011477</v>
       </c>
       <c r="O46">
-        <v>270.117931991078</v>
+        <v>380.150289158284</v>
       </c>
       <c r="P46">
-        <v>12.2918214679318</v>
+        <v>15.8249877376045</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>2147.05274497349</v>
+        <v>957.188905565966</v>
       </c>
       <c r="C47">
-        <v>40.8354920580653</v>
+        <v>61.1883937342875</v>
       </c>
       <c r="D47">
-        <v>37.5027649338269</v>
+        <v>45.9082459403779</v>
       </c>
       <c r="E47">
-        <v>58.9367394695701</v>
+        <v>60.019904491989</v>
       </c>
       <c r="F47">
-        <v>16.9553370725048</v>
+        <v>12.7026814394507</v>
       </c>
       <c r="G47">
-        <v>18.0212962510749</v>
+        <v>22.3236648601949</v>
       </c>
       <c r="H47">
-        <v>20.8384588250541</v>
+        <v>20.3438759814006</v>
       </c>
       <c r="I47">
-        <v>13.6399814948552</v>
+        <v>10.9445057718343</v>
       </c>
       <c r="J47">
-        <v>31.4395835189131</v>
+        <v>42.5834556575273</v>
       </c>
       <c r="K47">
-        <v>18.1829993230084</v>
+        <v>21.501263627901</v>
       </c>
       <c r="L47">
-        <v>43.658121580736</v>
+        <v>50.8305191442497</v>
       </c>
       <c r="M47">
-        <v>65.34616284725991</v>
+        <v>72.33206348273841</v>
       </c>
       <c r="N47">
-        <v>44.1536947310815</v>
+        <v>38.6783937128327</v>
       </c>
       <c r="O47">
-        <v>2253.13367512545</v>
+        <v>3383.96171588773</v>
       </c>
       <c r="P47">
-        <v>26.5645531811644</v>
+        <v>56.3109466970159</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1891.88572478592</v>
+        <v>895.499956647198</v>
       </c>
       <c r="C48">
-        <v>32.6895176915225</v>
+        <v>32.0253814385273</v>
       </c>
       <c r="D48">
-        <v>6.23344859355667</v>
+        <v>6.65755555282967</v>
       </c>
       <c r="E48">
-        <v>47.5243647767528</v>
+        <v>68.32008905856991</v>
       </c>
       <c r="F48">
-        <v>3.83518222265842</v>
+        <v>10.6281358512269</v>
       </c>
       <c r="G48">
-        <v>4.03737081940393</v>
+        <v>3.7449129003486</v>
       </c>
       <c r="H48">
-        <v>7.31213919552797</v>
+        <v>5.42306220765914</v>
       </c>
       <c r="I48">
-        <v>6.17805119932178</v>
+        <v>10.5405626779232</v>
       </c>
       <c r="J48">
-        <v>19.4593717429004</v>
+        <v>39.3163824438467</v>
       </c>
       <c r="K48">
-        <v>18.6780218238833</v>
+        <v>19.2049924835932</v>
       </c>
       <c r="L48">
-        <v>38.6960876911959</v>
+        <v>45.6800531004886</v>
       </c>
       <c r="M48">
-        <v>122.278779840782</v>
+        <v>136.550670398127</v>
       </c>
       <c r="N48">
-        <v>26.4478043694734</v>
+        <v>36.6657507108115</v>
       </c>
       <c r="O48">
-        <v>1858.43949422421</v>
+        <v>2732.73658935773</v>
       </c>
       <c r="P48">
-        <v>36.7975222576554</v>
+        <v>110.40957097516</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>966.495540553602</v>
+        <v>460.638338216743</v>
       </c>
       <c r="C49">
-        <v>4.56605401361911</v>
+        <v>7.52176696546525</v>
       </c>
       <c r="D49">
-        <v>0.824718144311838</v>
+        <v>2.38210486206606</v>
       </c>
       <c r="E49">
-        <v>13.1147804972611</v>
+        <v>21.0467741645716</v>
       </c>
       <c r="F49">
-        <v>23.4382650526819</v>
+        <v>41.527485495541</v>
       </c>
       <c r="G49">
-        <v>12.6877272064333</v>
+        <v>20.4997819209185</v>
       </c>
       <c r="H49">
-        <v>8.57272410488407</v>
+        <v>14.299108984759</v>
       </c>
       <c r="I49">
-        <v>1.57257520592959</v>
+        <v>8.05904242115408</v>
       </c>
       <c r="J49">
-        <v>17.0465327287883</v>
+        <v>28.6434679549474</v>
       </c>
       <c r="K49">
-        <v>6.25968782359657</v>
+        <v>10.0670645397167</v>
       </c>
       <c r="L49">
-        <v>2.46383931285049</v>
+        <v>2.89758217519216</v>
       </c>
       <c r="M49">
-        <v>4.00580352765453</v>
+        <v>7.54275153099985</v>
       </c>
       <c r="N49">
-        <v>4.50983772278228</v>
+        <v>4.92175730598135</v>
       </c>
       <c r="O49">
-        <v>431.215637529142</v>
+        <v>831.069114126606</v>
       </c>
       <c r="P49">
-        <v>15.8015676001755</v>
+        <v>18.8535904318624</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1602.16662011772</v>
+        <v>563.954829282261</v>
       </c>
       <c r="C50">
-        <v>73.99149684882021</v>
+        <v>88.31359794133159</v>
       </c>
       <c r="D50">
-        <v>9.25973848219566</v>
+        <v>13.217063448601</v>
       </c>
       <c r="E50">
-        <v>146.057510586488</v>
+        <v>156.521003117121</v>
       </c>
       <c r="F50">
-        <v>9.133824174653229</v>
+        <v>9.303754576965501</v>
       </c>
       <c r="G50">
-        <v>17.3353457863785</v>
+        <v>26.2842894801203</v>
       </c>
       <c r="H50">
-        <v>49.7878005611004</v>
+        <v>52.671759074901</v>
       </c>
       <c r="I50">
-        <v>8.28558343754988</v>
+        <v>19.0256376210419</v>
       </c>
       <c r="J50">
-        <v>83.40758134805441</v>
+        <v>130.969511728132</v>
       </c>
       <c r="K50">
-        <v>63.5364911790879</v>
+        <v>87.7022924680811</v>
       </c>
       <c r="L50">
-        <v>48.2241283212617</v>
+        <v>74.6548898409385</v>
       </c>
       <c r="M50">
-        <v>50.8506340694636</v>
+        <v>42.9294963688958</v>
       </c>
       <c r="N50">
-        <v>62.6207641466765</v>
+        <v>75.5011117948419</v>
       </c>
       <c r="O50">
-        <v>1497.85505255078</v>
+        <v>2338.67404124596</v>
       </c>
       <c r="P50">
-        <v>81.6070116630079</v>
+        <v>113.398779102575</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>253.698600479275</v>
+        <v>82.692135576684</v>
       </c>
       <c r="C51">
-        <v>0.66701260094504</v>
+        <v>2.57155777661877</v>
       </c>
       <c r="D51">
-        <v>0.149469711140036</v>
+        <v>0.052666859405207</v>
       </c>
       <c r="E51">
-        <v>1.99479306477219</v>
+        <v>3.4489211595056</v>
       </c>
       <c r="F51">
-        <v>32.052045516333</v>
+        <v>42.0982536295495</v>
       </c>
       <c r="G51">
-        <v>4.8288759439336</v>
+        <v>3.29656054257295</v>
       </c>
       <c r="H51">
-        <v>0.0401532022048104</v>
+        <v>0.328757828391072</v>
       </c>
       <c r="I51">
-        <v>0.439310694243237</v>
+        <v>1.35383677790075</v>
       </c>
       <c r="J51">
-        <v>2.68744519730663</v>
+        <v>2.38554986820207</v>
       </c>
       <c r="K51">
-        <v>0.475122379440156</v>
+        <v>0.817274460810405</v>
       </c>
       <c r="L51">
-        <v>0.489016425098931</v>
+        <v>0.234444368965054</v>
       </c>
       <c r="M51">
-        <v>0.42528413939645</v>
+        <v>0.56626821652864</v>
       </c>
       <c r="N51">
-        <v>1.78363780694882</v>
+        <v>1.80752406734873</v>
       </c>
       <c r="O51">
-        <v>250.382876392826</v>
+        <v>349.759349096411</v>
       </c>
       <c r="P51">
-        <v>10.1272323068947</v>
+        <v>23.9132947933802</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>733.82419949063</v>
+        <v>432.813187892898</v>
       </c>
       <c r="C2">
-        <v>49.9002803798373</v>
+        <v>45.87857456394</v>
       </c>
       <c r="D2">
-        <v>78.53445524097231</v>
+        <v>75.0622004508305</v>
       </c>
       <c r="E2">
-        <v>75.157863465746</v>
+        <v>93.92633078910581</v>
       </c>
       <c r="F2">
-        <v>23.8974957134831</v>
+        <v>26.9482845239576</v>
       </c>
       <c r="G2">
-        <v>15.4477111643294</v>
+        <v>21.6026227142133</v>
       </c>
       <c r="H2">
-        <v>22.2995398544603</v>
+        <v>37.1100341462653</v>
       </c>
       <c r="I2">
-        <v>17.8948689456002</v>
+        <v>24.918046117577</v>
       </c>
       <c r="J2">
-        <v>77.9033631619435</v>
+        <v>89.9185779306838</v>
       </c>
       <c r="K2">
-        <v>24.3184902821065</v>
+        <v>25.7822782105621</v>
       </c>
       <c r="L2">
-        <v>39.441951810988</v>
+        <v>38.5328247110055</v>
       </c>
       <c r="M2">
-        <v>52.2385322234494</v>
+        <v>63.6794894516314</v>
       </c>
       <c r="N2">
-        <v>29.6126207816938</v>
+        <v>31.6565533698197</v>
       </c>
       <c r="O2">
-        <v>1888.70981739331</v>
+        <v>2098.36214183653</v>
       </c>
       <c r="P2">
-        <v>36.447135502863</v>
+        <v>39.5597821891701</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>121.196443764827</v>
+        <v>101.953876808337</v>
       </c>
       <c r="C3">
-        <v>8.06643074347031</v>
+        <v>6.46008900050647</v>
       </c>
       <c r="D3">
-        <v>0.169257171954066</v>
+        <v>0.309811541747894</v>
       </c>
       <c r="E3">
-        <v>1.16630964620415</v>
+        <v>1.13278035869555</v>
       </c>
       <c r="F3">
-        <v>13.7790581488881</v>
+        <v>16.9761296432745</v>
       </c>
       <c r="G3">
-        <v>0.191013562166079</v>
+        <v>0.219126310945068</v>
       </c>
       <c r="H3">
-        <v>0.315690448118063</v>
+        <v>0.403866716426521</v>
       </c>
       <c r="I3">
-        <v>0.331410270756615</v>
+        <v>0.341998615352049</v>
       </c>
       <c r="J3">
-        <v>0.680532827563745</v>
+        <v>0.795015757527102</v>
       </c>
       <c r="K3">
-        <v>0.120374406598289</v>
+        <v>0.262621262870632</v>
       </c>
       <c r="L3">
-        <v>0.151601790819486</v>
+        <v>0.178932288827568</v>
       </c>
       <c r="M3">
-        <v>1.02893951150947</v>
+        <v>1.22792614235581</v>
       </c>
       <c r="N3">
-        <v>0.949319946514255</v>
+        <v>1.14154578763522</v>
       </c>
       <c r="O3">
-        <v>397.041034282546</v>
+        <v>460.386633190093</v>
       </c>
       <c r="P3">
-        <v>14.2758280419218</v>
+        <v>13.2652941096873</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>835.78005865519</v>
+        <v>537.640435872441</v>
       </c>
       <c r="C4">
-        <v>13.0352313137361</v>
+        <v>14.0985307888397</v>
       </c>
       <c r="D4">
-        <v>3.668441164762</v>
+        <v>5.56732109221316</v>
       </c>
       <c r="E4">
-        <v>23.4642922225391</v>
+        <v>16.4564739303155</v>
       </c>
       <c r="F4">
-        <v>12.6447566221947</v>
+        <v>7.33402797837346</v>
       </c>
       <c r="G4">
-        <v>9.35835811508637</v>
+        <v>13.8390893192647</v>
       </c>
       <c r="H4">
-        <v>11.1925900053389</v>
+        <v>12.3907736961522</v>
       </c>
       <c r="I4">
-        <v>15.2757499508483</v>
+        <v>16.484857097354</v>
       </c>
       <c r="J4">
-        <v>33.1586501388357</v>
+        <v>34.4425999424288</v>
       </c>
       <c r="K4">
-        <v>11.1050392066015</v>
+        <v>11.8117480654159</v>
       </c>
       <c r="L4">
-        <v>78.0559506088247</v>
+        <v>103.983452641439</v>
       </c>
       <c r="M4">
-        <v>65.8362369500374</v>
+        <v>77.74146882052661</v>
       </c>
       <c r="N4">
-        <v>36.8667333478246</v>
+        <v>41.8626290567014</v>
       </c>
       <c r="O4">
-        <v>2522.36041931367</v>
+        <v>2723.90830668251</v>
       </c>
       <c r="P4">
-        <v>50.2043650287313</v>
+        <v>43.0742981449357</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>418.118935543231</v>
+        <v>262.280920893985</v>
       </c>
       <c r="C5">
-        <v>85.4516158553422</v>
+        <v>83.6881836727553</v>
       </c>
       <c r="D5">
-        <v>20.4221750105777</v>
+        <v>22.4855948286516</v>
       </c>
       <c r="E5">
-        <v>53.8721560902653</v>
+        <v>48.1378559248627</v>
       </c>
       <c r="F5">
-        <v>3.94812364555095</v>
+        <v>1.84357800778927</v>
       </c>
       <c r="G5">
-        <v>12.2177207992849</v>
+        <v>11.864912787033</v>
       </c>
       <c r="H5">
-        <v>14.8520555581977</v>
+        <v>15.8791417717457</v>
       </c>
       <c r="I5">
-        <v>9.978435619379111</v>
+        <v>11.993839519887</v>
       </c>
       <c r="J5">
-        <v>32.3153445634252</v>
+        <v>41.0208097348105</v>
       </c>
       <c r="K5">
-        <v>23.5536991521761</v>
+        <v>29.0358084638991</v>
       </c>
       <c r="L5">
-        <v>21.6760094087689</v>
+        <v>27.9561487059161</v>
       </c>
       <c r="M5">
-        <v>25.622865144128</v>
+        <v>20.5758473758813</v>
       </c>
       <c r="N5">
-        <v>21.2836081660743</v>
+        <v>20.7501035040293</v>
       </c>
       <c r="O5">
-        <v>1094.61281645209</v>
+        <v>1252.1592811664</v>
       </c>
       <c r="P5">
-        <v>69.3546287832274</v>
+        <v>57.425200312602</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>5622.76123947241</v>
+        <v>3893.57876939875</v>
       </c>
       <c r="C6">
-        <v>186.780439667999</v>
+        <v>170.471813710842</v>
       </c>
       <c r="D6">
-        <v>201.249922864997</v>
+        <v>253.492690098084</v>
       </c>
       <c r="E6">
-        <v>174.536566498881</v>
+        <v>147.593559658043</v>
       </c>
       <c r="F6">
-        <v>30.6827962198848</v>
+        <v>34.1738150392764</v>
       </c>
       <c r="G6">
-        <v>110.78260912186</v>
+        <v>143.661404795385</v>
       </c>
       <c r="H6">
-        <v>78.62526113043771</v>
+        <v>93.7540030580883</v>
       </c>
       <c r="I6">
-        <v>54.527935322139</v>
+        <v>63.3886818393463</v>
       </c>
       <c r="J6">
-        <v>193.204791809968</v>
+        <v>215.017134756057</v>
       </c>
       <c r="K6">
-        <v>117.757617513434</v>
+        <v>145.645712233985</v>
       </c>
       <c r="L6">
-        <v>587.584857382195</v>
+        <v>606.030093510134</v>
       </c>
       <c r="M6">
-        <v>285.587820938315</v>
+        <v>391.012717360209</v>
       </c>
       <c r="N6">
-        <v>296.138194908767</v>
+        <v>354.395128365204</v>
       </c>
       <c r="O6">
-        <v>14457.0936622876</v>
+        <v>15734.0327220424</v>
       </c>
       <c r="P6">
-        <v>332.323675696995</v>
+        <v>246.551279295011</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>514.120965068122</v>
+        <v>367.370987101591</v>
       </c>
       <c r="C7">
-        <v>33.1034363315671</v>
+        <v>41.264379649264</v>
       </c>
       <c r="D7">
-        <v>2.41999442717114</v>
+        <v>2.43175120298746</v>
       </c>
       <c r="E7">
-        <v>22.183069421996</v>
+        <v>18.1594156382353</v>
       </c>
       <c r="F7">
-        <v>17.796763815445</v>
+        <v>15.5923297102723</v>
       </c>
       <c r="G7">
-        <v>10.7976748757564</v>
+        <v>13.0653807063519</v>
       </c>
       <c r="H7">
-        <v>8.121910221153611</v>
+        <v>11.0672205471263</v>
       </c>
       <c r="I7">
-        <v>9.27862911863811</v>
+        <v>8.18581948742955</v>
       </c>
       <c r="J7">
-        <v>21.570781558152</v>
+        <v>23.6624858282976</v>
       </c>
       <c r="K7">
-        <v>13.6604300751312</v>
+        <v>16.397003158942</v>
       </c>
       <c r="L7">
-        <v>55.5368901451948</v>
+        <v>61.3310342633846</v>
       </c>
       <c r="M7">
-        <v>19.6955081036033</v>
+        <v>26.2426452229606</v>
       </c>
       <c r="N7">
-        <v>26.5391313679467</v>
+        <v>31.4846904625944</v>
       </c>
       <c r="O7">
-        <v>2105.85675819696</v>
+        <v>2244.50623221591</v>
       </c>
       <c r="P7">
-        <v>43.6693590884605</v>
+        <v>25.4169888329724</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>444.359352601956</v>
+        <v>268.862223323223</v>
       </c>
       <c r="C8">
-        <v>10.0523931735484</v>
+        <v>14.2607981644653</v>
       </c>
       <c r="D8">
-        <v>11.1982814947046</v>
+        <v>9.06530787246497</v>
       </c>
       <c r="E8">
-        <v>22.8774693504731</v>
+        <v>15.9078590758414</v>
       </c>
       <c r="F8">
-        <v>2.07555810057511</v>
+        <v>1.4235629492502</v>
       </c>
       <c r="G8">
-        <v>39.7472430722633</v>
+        <v>43.2010467952248</v>
       </c>
       <c r="H8">
-        <v>9.627554677916359</v>
+        <v>14.8587345238028</v>
       </c>
       <c r="I8">
-        <v>2.43989560193479</v>
+        <v>1.30689062655976</v>
       </c>
       <c r="J8">
-        <v>62.8002240960481</v>
+        <v>63.6925252742728</v>
       </c>
       <c r="K8">
-        <v>25.0541654062612</v>
+        <v>38.3259581717014</v>
       </c>
       <c r="L8">
-        <v>47.5902351605206</v>
+        <v>57.5465871925048</v>
       </c>
       <c r="M8">
-        <v>62.1467453532704</v>
+        <v>84.95280243108709</v>
       </c>
       <c r="N8">
-        <v>19.1318148132924</v>
+        <v>29.296909390395</v>
       </c>
       <c r="O8">
-        <v>1576.66410265993</v>
+        <v>1705.05634241308</v>
       </c>
       <c r="P8">
-        <v>6.69215810852597</v>
+        <v>5.33771166170279</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>114.970213389289</v>
+        <v>79.2898780860983</v>
       </c>
       <c r="C9">
-        <v>14.7450570458459</v>
+        <v>13.1797939527929</v>
       </c>
       <c r="D9">
-        <v>3.30155918819265</v>
+        <v>3.31641155715984</v>
       </c>
       <c r="E9">
-        <v>8.59294744815689</v>
+        <v>6.97798258726234</v>
       </c>
       <c r="F9">
-        <v>2.41832950208195</v>
+        <v>3.32560256301678</v>
       </c>
       <c r="G9">
-        <v>28.3532435226405</v>
+        <v>36.4790028967148</v>
       </c>
       <c r="H9">
-        <v>2.8471432883237</v>
+        <v>3.63019584724054</v>
       </c>
       <c r="I9">
-        <v>2.1440736402694</v>
+        <v>1.8366689205043</v>
       </c>
       <c r="J9">
-        <v>4.67996809451343</v>
+        <v>5.0624885962535</v>
       </c>
       <c r="K9">
-        <v>3.64755656227547</v>
+        <v>5.73853094024899</v>
       </c>
       <c r="L9">
-        <v>5.18483865056374</v>
+        <v>6.55597262296349</v>
       </c>
       <c r="M9">
-        <v>12.3129279880394</v>
+        <v>12.2227511521819</v>
       </c>
       <c r="N9">
-        <v>6.61765385628408</v>
+        <v>8.707770783224371</v>
       </c>
       <c r="O9">
-        <v>482.672020383254</v>
+        <v>554.331824490504</v>
       </c>
       <c r="P9">
-        <v>10.7633504782189</v>
+        <v>11.5038884955236</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>2808.67997820643</v>
+        <v>1715.28251343687</v>
       </c>
       <c r="C10">
-        <v>62.7407301396451</v>
+        <v>61.968494623325</v>
       </c>
       <c r="D10">
-        <v>22.5499115863881</v>
+        <v>26.6548238443433</v>
       </c>
       <c r="E10">
-        <v>67.9917286611125</v>
+        <v>56.3170824897954</v>
       </c>
       <c r="F10">
-        <v>15.793365225027</v>
+        <v>12.6147200095123</v>
       </c>
       <c r="G10">
-        <v>27.3820286190114</v>
+        <v>29.5995392937747</v>
       </c>
       <c r="H10">
-        <v>19.1401057171794</v>
+        <v>21.4233353152181</v>
       </c>
       <c r="I10">
-        <v>34.0751575685373</v>
+        <v>39.9354432286394</v>
       </c>
       <c r="J10">
-        <v>65.76101328914299</v>
+        <v>67.3383586040481</v>
       </c>
       <c r="K10">
-        <v>35.6954000795708</v>
+        <v>51.6679988531621</v>
       </c>
       <c r="L10">
-        <v>114.642558178186</v>
+        <v>137.0358527164</v>
       </c>
       <c r="M10">
-        <v>109.701552112175</v>
+        <v>130.119821765306</v>
       </c>
       <c r="N10">
-        <v>93.88077590810011</v>
+        <v>111.087356728836</v>
       </c>
       <c r="O10">
-        <v>8543.708898200061</v>
+        <v>9489.705406609541</v>
       </c>
       <c r="P10">
-        <v>99.2989721339749</v>
+        <v>77.48893925612811</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1184.35872613863</v>
+        <v>753.102326292796</v>
       </c>
       <c r="C11">
-        <v>72.33046072582761</v>
+        <v>74.5265282542473</v>
       </c>
       <c r="D11">
-        <v>167.493242258815</v>
+        <v>184.644588817658</v>
       </c>
       <c r="E11">
-        <v>106.664544929154</v>
+        <v>121.543121790264</v>
       </c>
       <c r="F11">
-        <v>7.68732654312514</v>
+        <v>5.34556988751678</v>
       </c>
       <c r="G11">
-        <v>32.3232349788983</v>
+        <v>38.6638759191542</v>
       </c>
       <c r="H11">
-        <v>19.177762631076</v>
+        <v>15.8973996444781</v>
       </c>
       <c r="I11">
-        <v>18.7450316193759</v>
+        <v>23.3782521854108</v>
       </c>
       <c r="J11">
-        <v>77.2501473033674</v>
+        <v>71.4369097355996</v>
       </c>
       <c r="K11">
-        <v>32.3650070458522</v>
+        <v>41.8141822805864</v>
       </c>
       <c r="L11">
-        <v>62.5689401004457</v>
+        <v>70.17917283443811</v>
       </c>
       <c r="M11">
-        <v>60.6652770136464</v>
+        <v>56.7022961066858</v>
       </c>
       <c r="N11">
-        <v>49.0129323328176</v>
+        <v>51.2682898438309</v>
       </c>
       <c r="O11">
-        <v>3776.4019286108</v>
+        <v>4156.74929255769</v>
       </c>
       <c r="P11">
-        <v>33.807535109006</v>
+        <v>25.5132475883128</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>195.963961626827</v>
+        <v>131.537386539204</v>
       </c>
       <c r="C12">
-        <v>7.34862664726543</v>
+        <v>10.9043273351889</v>
       </c>
       <c r="D12">
-        <v>3.76965469672186</v>
+        <v>4.77372678080668</v>
       </c>
       <c r="E12">
-        <v>1.09320342107801</v>
+        <v>1.1205906692158</v>
       </c>
       <c r="F12">
-        <v>0.491217410197306</v>
+        <v>0.783065401451667</v>
       </c>
       <c r="G12">
-        <v>0.55637609015693</v>
+        <v>0.6156678044848311</v>
       </c>
       <c r="H12">
-        <v>0.652081698708748</v>
+        <v>0.5098102504823721</v>
       </c>
       <c r="I12">
-        <v>1.65138024944073</v>
+        <v>2.24149527167807</v>
       </c>
       <c r="J12">
-        <v>1.10632799774904</v>
+        <v>1.49609972932412</v>
       </c>
       <c r="K12">
-        <v>0.330996849118331</v>
+        <v>0.434083107184555</v>
       </c>
       <c r="L12">
-        <v>0.517801937998871</v>
+        <v>0.618437420530257</v>
       </c>
       <c r="M12">
-        <v>3.53267339338554</v>
+        <v>4.6729098268629</v>
       </c>
       <c r="N12">
-        <v>4.38901484091441</v>
+        <v>5.2487010655267</v>
       </c>
       <c r="O12">
-        <v>734.5212168834109</v>
+        <v>841.708303397565</v>
       </c>
       <c r="P12">
-        <v>28.7908507386134</v>
+        <v>25.7311624744256</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>173.482852143367</v>
+        <v>129.469642731551</v>
       </c>
       <c r="C13">
-        <v>31.2523103415826</v>
+        <v>33.6444990417596</v>
       </c>
       <c r="D13">
-        <v>2.36497529435132</v>
+        <v>1.92321676016682</v>
       </c>
       <c r="E13">
-        <v>18.068079286921</v>
+        <v>17.9233440607915</v>
       </c>
       <c r="F13">
-        <v>3.2899325438643</v>
+        <v>3.750050913438</v>
       </c>
       <c r="G13">
-        <v>5.56653694742908</v>
+        <v>7.45248533207698</v>
       </c>
       <c r="H13">
-        <v>2.33517442637154</v>
+        <v>2.82411073040197</v>
       </c>
       <c r="I13">
-        <v>1.10966554396446</v>
+        <v>1.11287010939816</v>
       </c>
       <c r="J13">
-        <v>7.59532018723423</v>
+        <v>7.97780628592263</v>
       </c>
       <c r="K13">
-        <v>3.53630835852877</v>
+        <v>4.92491608123021</v>
       </c>
       <c r="L13">
-        <v>24.1917756422561</v>
+        <v>32.535521233926</v>
       </c>
       <c r="M13">
-        <v>1.96525472462045</v>
+        <v>2.73897028089739</v>
       </c>
       <c r="N13">
-        <v>8.312901492311481</v>
+        <v>9.30932672086719</v>
       </c>
       <c r="O13">
-        <v>637.389825707058</v>
+        <v>690.668896461936</v>
       </c>
       <c r="P13">
-        <v>60.9899931754194</v>
+        <v>56.6264970636406</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1761.79414841552</v>
+        <v>1188.43942340232</v>
       </c>
       <c r="C14">
-        <v>110.961415640811</v>
+        <v>120.559098803803</v>
       </c>
       <c r="D14">
-        <v>14.5661478546674</v>
+        <v>15.0854295480995</v>
       </c>
       <c r="E14">
-        <v>101.640689016684</v>
+        <v>68.9516760111587</v>
       </c>
       <c r="F14">
-        <v>26.0749209592689</v>
+        <v>17.964516409513</v>
       </c>
       <c r="G14">
-        <v>84.6031719256456</v>
+        <v>110.297726942054</v>
       </c>
       <c r="H14">
-        <v>67.11388220312649</v>
+        <v>68.03795078602781</v>
       </c>
       <c r="I14">
-        <v>23.9902735257468</v>
+        <v>28.7585171306457</v>
       </c>
       <c r="J14">
-        <v>166.508355328542</v>
+        <v>151.955856706558</v>
       </c>
       <c r="K14">
-        <v>171.53182243176</v>
+        <v>207.918721654567</v>
       </c>
       <c r="L14">
-        <v>131.964142505219</v>
+        <v>157.079080795674</v>
       </c>
       <c r="M14">
-        <v>92.1679137409527</v>
+        <v>90.03341603885239</v>
       </c>
       <c r="N14">
-        <v>89.0126063044854</v>
+        <v>95.6652055399866</v>
       </c>
       <c r="O14">
-        <v>5532.20336783668</v>
+        <v>6056.12125613245</v>
       </c>
       <c r="P14">
-        <v>77.0345075340116</v>
+        <v>44.4785475805592</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>717.029949933097</v>
+        <v>484.368002920995</v>
       </c>
       <c r="C15">
-        <v>63.2586874270921</v>
+        <v>51.6202179214416</v>
       </c>
       <c r="D15">
-        <v>8.685392823385779</v>
+        <v>11.6915650873564</v>
       </c>
       <c r="E15">
-        <v>71.9986580589825</v>
+        <v>71.39230682445761</v>
       </c>
       <c r="F15">
-        <v>15.3633453937186</v>
+        <v>15.364115912813</v>
       </c>
       <c r="G15">
-        <v>45.1992604775884</v>
+        <v>55.252831280426</v>
       </c>
       <c r="H15">
-        <v>49.5666252705433</v>
+        <v>53.9663741298908</v>
       </c>
       <c r="I15">
-        <v>42.2854241749987</v>
+        <v>59.3013753392288</v>
       </c>
       <c r="J15">
-        <v>193.672136122899</v>
+        <v>237.76299370706</v>
       </c>
       <c r="K15">
-        <v>57.7093086814824</v>
+        <v>81.2765343518672</v>
       </c>
       <c r="L15">
-        <v>55.3811356695284</v>
+        <v>59.2121665312299</v>
       </c>
       <c r="M15">
-        <v>208.196092826156</v>
+        <v>176.496718104866</v>
       </c>
       <c r="N15">
-        <v>91.5693964811199</v>
+        <v>111.680154104967</v>
       </c>
       <c r="O15">
-        <v>2592.5328617793</v>
+        <v>2757.86399096394</v>
       </c>
       <c r="P15">
-        <v>58.2438952040936</v>
+        <v>53.9213874933103</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>280.420454297125</v>
+        <v>175.318004661725</v>
       </c>
       <c r="C16">
-        <v>75.65970000852521</v>
+        <v>79.90910765768329</v>
       </c>
       <c r="D16">
-        <v>9.3219691659424</v>
+        <v>17.2654675192541</v>
       </c>
       <c r="E16">
-        <v>35.4941386806555</v>
+        <v>28.7355316888227</v>
       </c>
       <c r="F16">
-        <v>6.12787474639876</v>
+        <v>6.11199540379779</v>
       </c>
       <c r="G16">
-        <v>14.8703032101994</v>
+        <v>18.5970237546438</v>
       </c>
       <c r="H16">
-        <v>24.7857028017839</v>
+        <v>22.6405277346413</v>
       </c>
       <c r="I16">
-        <v>7.92775468773397</v>
+        <v>9.315030272871111</v>
       </c>
       <c r="J16">
-        <v>52.6896929791474</v>
+        <v>55.3550778498875</v>
       </c>
       <c r="K16">
-        <v>59.7429533322841</v>
+        <v>65.4914586985051</v>
       </c>
       <c r="L16">
-        <v>36.73397708319</v>
+        <v>35.862445774854</v>
       </c>
       <c r="M16">
-        <v>29.1739588648982</v>
+        <v>19.4391541781548</v>
       </c>
       <c r="N16">
-        <v>28.3844984550731</v>
+        <v>35.0208849127548</v>
       </c>
       <c r="O16">
-        <v>1370.13957672255</v>
+        <v>1513.56206171968</v>
       </c>
       <c r="P16">
-        <v>112.783286116238</v>
+        <v>112.936106650191</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>331.373198236883</v>
+        <v>210.727983944434</v>
       </c>
       <c r="C17">
-        <v>29.5584396197552</v>
+        <v>25.8198367662708</v>
       </c>
       <c r="D17">
-        <v>6.0656628831266</v>
+        <v>8.40660643019919</v>
       </c>
       <c r="E17">
-        <v>23.3102783518608</v>
+        <v>16.8567410943641</v>
       </c>
       <c r="F17">
-        <v>15.4145841776161</v>
+        <v>14.8262035093041</v>
       </c>
       <c r="G17">
-        <v>12.5030723866749</v>
+        <v>16.2573664750602</v>
       </c>
       <c r="H17">
-        <v>11.6646330945809</v>
+        <v>8.803749478247591</v>
       </c>
       <c r="I17">
-        <v>7.32293705376347</v>
+        <v>9.158187248278489</v>
       </c>
       <c r="J17">
-        <v>19.99489035708</v>
+        <v>20.9461645892951</v>
       </c>
       <c r="K17">
-        <v>17.6400250401392</v>
+        <v>22.5842102887629</v>
       </c>
       <c r="L17">
-        <v>13.3992465344966</v>
+        <v>15.1213452137031</v>
       </c>
       <c r="M17">
-        <v>83.8831475910427</v>
+        <v>94.5494713086039</v>
       </c>
       <c r="N17">
-        <v>12.7399732867477</v>
+        <v>14.3380618119612</v>
       </c>
       <c r="O17">
-        <v>1259.02625393187</v>
+        <v>1408.69373485878</v>
       </c>
       <c r="P17">
-        <v>66.53064273871451</v>
+        <v>61.0212354519116</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>706.427795635036</v>
+        <v>446.94783916449</v>
       </c>
       <c r="C18">
-        <v>37.1441437616292</v>
+        <v>40.3514699537421</v>
       </c>
       <c r="D18">
-        <v>14.4213936052712</v>
+        <v>12.4678699005018</v>
       </c>
       <c r="E18">
-        <v>47.0191886010229</v>
+        <v>39.0035615909385</v>
       </c>
       <c r="F18">
-        <v>38.5911145616731</v>
+        <v>45.9009712071491</v>
       </c>
       <c r="G18">
-        <v>20.6957770020067</v>
+        <v>35.2132739614486</v>
       </c>
       <c r="H18">
-        <v>28.1555421111711</v>
+        <v>30.8970544091083</v>
       </c>
       <c r="I18">
-        <v>9.015582588030339</v>
+        <v>10.1004214335626</v>
       </c>
       <c r="J18">
-        <v>55.5472187341368</v>
+        <v>48.9146978125774</v>
       </c>
       <c r="K18">
-        <v>27.2121687528032</v>
+        <v>31.4523595749158</v>
       </c>
       <c r="L18">
-        <v>36.2726043764608</v>
+        <v>47.1941969495034</v>
       </c>
       <c r="M18">
-        <v>76.5003233971556</v>
+        <v>77.18218610405479</v>
       </c>
       <c r="N18">
-        <v>31.6510570911073</v>
+        <v>29.0680628024257</v>
       </c>
       <c r="O18">
-        <v>1862.86843051145</v>
+        <v>2132.25239327951</v>
       </c>
       <c r="P18">
-        <v>61.1255808795198</v>
+        <v>59.0725314425721</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>798.994050069098</v>
+        <v>527.826010754578</v>
       </c>
       <c r="C19">
-        <v>23.4454503548415</v>
+        <v>27.5960714377238</v>
       </c>
       <c r="D19">
-        <v>9.419490107099991</v>
+        <v>10.327443692128</v>
       </c>
       <c r="E19">
-        <v>35.5569648626429</v>
+        <v>26.9036556053117</v>
       </c>
       <c r="F19">
-        <v>72.1905671250418</v>
+        <v>89.7166015387762</v>
       </c>
       <c r="G19">
-        <v>36.5656898445682</v>
+        <v>44.664075986883</v>
       </c>
       <c r="H19">
-        <v>8.28532697280246</v>
+        <v>6.96710947858844</v>
       </c>
       <c r="I19">
-        <v>12.0339257121036</v>
+        <v>13.6637315945282</v>
       </c>
       <c r="J19">
-        <v>20.1196159841205</v>
+        <v>14.2843835931878</v>
       </c>
       <c r="K19">
-        <v>14.5908439947916</v>
+        <v>18.1471974283549</v>
       </c>
       <c r="L19">
-        <v>3.49097058811443</v>
+        <v>4.53502358538952</v>
       </c>
       <c r="M19">
-        <v>47.2642001995377</v>
+        <v>43.3690544958158</v>
       </c>
       <c r="N19">
-        <v>4.47671435301872</v>
+        <v>4.26733278338416</v>
       </c>
       <c r="O19">
-        <v>1972.3025135561</v>
+        <v>2240.05095199886</v>
       </c>
       <c r="P19">
-        <v>65.3580827670293</v>
+        <v>54.1685261600753</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>184.758644018782</v>
+        <v>122.103535513801</v>
       </c>
       <c r="C20">
-        <v>9.838566740581051</v>
+        <v>10.8298476888736</v>
       </c>
       <c r="D20">
-        <v>12.5489147387888</v>
+        <v>14.0646850864245</v>
       </c>
       <c r="E20">
-        <v>41.6618283518952</v>
+        <v>40.9892065279789</v>
       </c>
       <c r="F20">
-        <v>0.302717591859813</v>
+        <v>0.312367304700923</v>
       </c>
       <c r="G20">
-        <v>0.899929448674984</v>
+        <v>0.936914934262565</v>
       </c>
       <c r="H20">
-        <v>2.1139933555088</v>
+        <v>4.3180664311623</v>
       </c>
       <c r="I20">
-        <v>0.566413182819015</v>
+        <v>0.390975727472827</v>
       </c>
       <c r="J20">
-        <v>8.942009184680799</v>
+        <v>7.73807363343479</v>
       </c>
       <c r="K20">
-        <v>3.55455059285675</v>
+        <v>4.9072932725207</v>
       </c>
       <c r="L20">
-        <v>9.365913924842889</v>
+        <v>10.2500999995614</v>
       </c>
       <c r="M20">
-        <v>19.7520926627126</v>
+        <v>29.171086553184</v>
       </c>
       <c r="N20">
-        <v>7.12764999896795</v>
+        <v>7.03194540880838</v>
       </c>
       <c r="O20">
-        <v>657.951861815162</v>
+        <v>732.460219995676</v>
       </c>
       <c r="P20">
-        <v>25.8654557482814</v>
+        <v>22.9531573339469</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>571.860097771871</v>
+        <v>374.726545440604</v>
       </c>
       <c r="C21">
-        <v>20.2970650529137</v>
+        <v>22.1815125933164</v>
       </c>
       <c r="D21">
-        <v>8.20460379352563</v>
+        <v>7.30819483273497</v>
       </c>
       <c r="E21">
-        <v>34.0800239170049</v>
+        <v>24.1578370297954</v>
       </c>
       <c r="F21">
-        <v>2.38351732969408</v>
+        <v>1.95782574750655</v>
       </c>
       <c r="G21">
-        <v>19.6448373231251</v>
+        <v>22.3599023951333</v>
       </c>
       <c r="H21">
-        <v>11.4782279688801</v>
+        <v>11.977701223005</v>
       </c>
       <c r="I21">
-        <v>6.72459690503857</v>
+        <v>7.31933017892228</v>
       </c>
       <c r="J21">
-        <v>22.6037053094038</v>
+        <v>17.9316810396338</v>
       </c>
       <c r="K21">
-        <v>5.21538372040224</v>
+        <v>8.654442785880761</v>
       </c>
       <c r="L21">
-        <v>32.5448778913302</v>
+        <v>31.7846501668798</v>
       </c>
       <c r="M21">
-        <v>29.84166077547</v>
+        <v>30.8176396445789</v>
       </c>
       <c r="N21">
-        <v>17.6526390019466</v>
+        <v>18.4707440890631</v>
       </c>
       <c r="O21">
-        <v>2826.77718042104</v>
+        <v>3039.56729015569</v>
       </c>
       <c r="P21">
-        <v>25.9280638961822</v>
+        <v>28.8502243352574</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>801.272485224649</v>
+        <v>505.691593317577</v>
       </c>
       <c r="C22">
-        <v>14.0210730562917</v>
+        <v>14.6605141335868</v>
       </c>
       <c r="D22">
-        <v>24.3259553598946</v>
+        <v>26.6620380406356</v>
       </c>
       <c r="E22">
-        <v>49.5779747179622</v>
+        <v>35.8889608781531</v>
       </c>
       <c r="F22">
-        <v>0.851514762901702</v>
+        <v>0.984522672680908</v>
       </c>
       <c r="G22">
-        <v>29.0336361593043</v>
+        <v>33.4462033547703</v>
       </c>
       <c r="H22">
-        <v>24.790070199466</v>
+        <v>33.6725154930048</v>
       </c>
       <c r="I22">
-        <v>8.70497445657527</v>
+        <v>7.08548136347217</v>
       </c>
       <c r="J22">
-        <v>59.039992159688</v>
+        <v>62.9839977781732</v>
       </c>
       <c r="K22">
-        <v>30.94034988841</v>
+        <v>43.042385679388</v>
       </c>
       <c r="L22">
-        <v>125.482477359481</v>
+        <v>130.805201369103</v>
       </c>
       <c r="M22">
-        <v>26.4346950637889</v>
+        <v>29.9363137222807</v>
       </c>
       <c r="N22">
-        <v>62.6597834179101</v>
+        <v>94.29281806945001</v>
       </c>
       <c r="O22">
-        <v>3003.862838621</v>
+        <v>3251.48638557366</v>
       </c>
       <c r="P22">
-        <v>16.223609818048</v>
+        <v>15.7343962198114</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1494.24304500798</v>
+        <v>967.6686957654021</v>
       </c>
       <c r="C23">
-        <v>55.1629475781989</v>
+        <v>56.0663420826909</v>
       </c>
       <c r="D23">
-        <v>12.4469593553307</v>
+        <v>14.9907017747318</v>
       </c>
       <c r="E23">
-        <v>67.58522195591981</v>
+        <v>46.5680554774807</v>
       </c>
       <c r="F23">
-        <v>1.99923860416332</v>
+        <v>0.389950366436559</v>
       </c>
       <c r="G23">
-        <v>69.4539429545481</v>
+        <v>89.91837731577699</v>
       </c>
       <c r="H23">
-        <v>85.3371026259419</v>
+        <v>82.2610896100305</v>
       </c>
       <c r="I23">
-        <v>36.574945917483</v>
+        <v>39.7622474581418</v>
       </c>
       <c r="J23">
-        <v>174.419724894911</v>
+        <v>179.534434935735</v>
       </c>
       <c r="K23">
-        <v>111.852678578879</v>
+        <v>145.336219466501</v>
       </c>
       <c r="L23">
-        <v>44.5966179193865</v>
+        <v>57.0683363317547</v>
       </c>
       <c r="M23">
-        <v>650.0454569309979</v>
+        <v>739.69690913392</v>
       </c>
       <c r="N23">
-        <v>97.971106402449</v>
+        <v>112.181451920607</v>
       </c>
       <c r="O23">
-        <v>3964.83842969016</v>
+        <v>4370.2794379553</v>
       </c>
       <c r="P23">
-        <v>74.90319635273519</v>
+        <v>50.7173540834294</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>451.012154031113</v>
+        <v>304.309358616876</v>
       </c>
       <c r="C24">
-        <v>79.6151259224648</v>
+        <v>54.815695676496</v>
       </c>
       <c r="D24">
-        <v>11.8817056617785</v>
+        <v>13.6233322535944</v>
       </c>
       <c r="E24">
-        <v>72.2500536139941</v>
+        <v>53.9587618417645</v>
       </c>
       <c r="F24">
-        <v>27.820871357446</v>
+        <v>21.5310627299453</v>
       </c>
       <c r="G24">
-        <v>15.3441501931063</v>
+        <v>25.944259323499</v>
       </c>
       <c r="H24">
-        <v>15.1361135482215</v>
+        <v>17.5765437843152</v>
       </c>
       <c r="I24">
-        <v>13.9086342094376</v>
+        <v>12.4863203731396</v>
       </c>
       <c r="J24">
-        <v>65.279927585701</v>
+        <v>54.1158888929093</v>
       </c>
       <c r="K24">
-        <v>59.2057176552624</v>
+        <v>89.4806255862157</v>
       </c>
       <c r="L24">
-        <v>74.5663617923119</v>
+        <v>71.5417708176182</v>
       </c>
       <c r="M24">
-        <v>24.9414585938278</v>
+        <v>16.9843581364853</v>
       </c>
       <c r="N24">
-        <v>62.7314505127108</v>
+        <v>81.993117248038</v>
       </c>
       <c r="O24">
-        <v>2271.47341624435</v>
+        <v>2458.51815942255</v>
       </c>
       <c r="P24">
-        <v>130.582803324675</v>
+        <v>103.488913924784</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>507.776974009871</v>
+        <v>315.833912531609</v>
       </c>
       <c r="C25">
-        <v>49.2768276598542</v>
+        <v>54.046001550628</v>
       </c>
       <c r="D25">
-        <v>22.3916818858699</v>
+        <v>20.9970084098171</v>
       </c>
       <c r="E25">
-        <v>43.3846142245181</v>
+        <v>51.338658131472</v>
       </c>
       <c r="F25">
-        <v>20.8032788878468</v>
+        <v>35.8567726059322</v>
       </c>
       <c r="G25">
-        <v>14.3249530174631</v>
+        <v>15.5074862640026</v>
       </c>
       <c r="H25">
-        <v>14.2292233996397</v>
+        <v>18.528828445557</v>
       </c>
       <c r="I25">
-        <v>4.95355291724499</v>
+        <v>5.48270476157032</v>
       </c>
       <c r="J25">
-        <v>24.790382718063</v>
+        <v>23.9604839252978</v>
       </c>
       <c r="K25">
-        <v>21.5583801619924</v>
+        <v>23.841027904921</v>
       </c>
       <c r="L25">
-        <v>36.1773232209459</v>
+        <v>38.6680021936738</v>
       </c>
       <c r="M25">
-        <v>51.6236292030305</v>
+        <v>50.2318152247697</v>
       </c>
       <c r="N25">
-        <v>45.5387875790473</v>
+        <v>36.4939787919798</v>
       </c>
       <c r="O25">
-        <v>1186.64168919439</v>
+        <v>1382.00036721363</v>
       </c>
       <c r="P25">
-        <v>59.6280841454158</v>
+        <v>60.0921441124172</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>674.9446710192869</v>
+        <v>423.984318440135</v>
       </c>
       <c r="C26">
-        <v>71.6712025470671</v>
+        <v>69.8451770079708</v>
       </c>
       <c r="D26">
-        <v>16.0171921979419</v>
+        <v>13.2237166993476</v>
       </c>
       <c r="E26">
-        <v>57.1479273518183</v>
+        <v>47.3652872424013</v>
       </c>
       <c r="F26">
-        <v>11.9614197473484</v>
+        <v>9.210202591695961</v>
       </c>
       <c r="G26">
-        <v>41.8548472215162</v>
+        <v>53.6188252834064</v>
       </c>
       <c r="H26">
-        <v>30.8493833397375</v>
+        <v>23.0923512350388</v>
       </c>
       <c r="I26">
-        <v>12.5416326860888</v>
+        <v>14.2706723532236</v>
       </c>
       <c r="J26">
-        <v>56.2425036686774</v>
+        <v>57.8838343812231</v>
       </c>
       <c r="K26">
-        <v>32.4274127375641</v>
+        <v>35.0844209125088</v>
       </c>
       <c r="L26">
-        <v>43.2660399315126</v>
+        <v>37.37899661527</v>
       </c>
       <c r="M26">
-        <v>90.3221143070877</v>
+        <v>89.0542815597917</v>
       </c>
       <c r="N26">
-        <v>32.0359011565169</v>
+        <v>33.9896952052657</v>
       </c>
       <c r="O26">
-        <v>2595.57139034112</v>
+        <v>2895.320451803</v>
       </c>
       <c r="P26">
-        <v>76.8261067776544</v>
+        <v>53.0550447104177</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>121.205546437709</v>
+        <v>87.2814612836244</v>
       </c>
       <c r="C27">
-        <v>4.51673923419722</v>
+        <v>4.69645878523833</v>
       </c>
       <c r="D27">
-        <v>1.16490630320951</v>
+        <v>1.27654779120328</v>
       </c>
       <c r="E27">
-        <v>15.7898492994557</v>
+        <v>18.0956338180103</v>
       </c>
       <c r="F27">
-        <v>9.346161492638681</v>
+        <v>9.79637135088189</v>
       </c>
       <c r="G27">
-        <v>0.72955326277126</v>
+        <v>0.634371045376387</v>
       </c>
       <c r="H27">
-        <v>0.156872296658357</v>
+        <v>0.186695806246958</v>
       </c>
       <c r="I27">
-        <v>2.83581382927944</v>
+        <v>4.100860749816</v>
       </c>
       <c r="J27">
-        <v>5.64978363264961</v>
+        <v>5.26483003690318</v>
       </c>
       <c r="K27">
-        <v>2.71076708499265</v>
+        <v>2.68822444656783</v>
       </c>
       <c r="L27">
-        <v>2.01879590037922</v>
+        <v>3.09616739478738</v>
       </c>
       <c r="M27">
-        <v>1.53596858719405</v>
+        <v>1.66585842584096</v>
       </c>
       <c r="N27">
-        <v>5.56876512053602</v>
+        <v>6.78284076851686</v>
       </c>
       <c r="O27">
-        <v>521.072576956227</v>
+        <v>584.377070266061</v>
       </c>
       <c r="P27">
-        <v>58.1078167495889</v>
+        <v>57.0861828560379</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>166.748382925941</v>
+        <v>100.038740535855</v>
       </c>
       <c r="C28">
-        <v>43.7048189626354</v>
+        <v>37.5374112773062</v>
       </c>
       <c r="D28">
-        <v>1.47634270994196</v>
+        <v>2.21697484399163</v>
       </c>
       <c r="E28">
-        <v>11.2678862444745</v>
+        <v>8.69415834924215</v>
       </c>
       <c r="F28">
-        <v>2.60560632790102</v>
+        <v>3.34047469757736</v>
       </c>
       <c r="G28">
-        <v>7.09115010123582</v>
+        <v>9.634018904934131</v>
       </c>
       <c r="H28">
-        <v>6.94308988243314</v>
+        <v>9.639938277029319</v>
       </c>
       <c r="I28">
-        <v>4.90517039345634</v>
+        <v>5.27724213275231</v>
       </c>
       <c r="J28">
-        <v>20.0953012786837</v>
+        <v>20.6548775646286</v>
       </c>
       <c r="K28">
-        <v>19.0305254718714</v>
+        <v>19.6498212629889</v>
       </c>
       <c r="L28">
-        <v>13.3616114570645</v>
+        <v>14.3196301296849</v>
       </c>
       <c r="M28">
-        <v>10.3467028949506</v>
+        <v>9.40229452688472</v>
       </c>
       <c r="N28">
-        <v>10.5507751817432</v>
+        <v>11.9141430886562</v>
       </c>
       <c r="O28">
-        <v>846.087695899129</v>
+        <v>955.280486662662</v>
       </c>
       <c r="P28">
-        <v>99.1819310213461</v>
+        <v>96.8207917848797</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>306.624321849087</v>
+        <v>209.830364573808</v>
       </c>
       <c r="C29">
-        <v>3.95765743261331</v>
+        <v>3.85570589037229</v>
       </c>
       <c r="D29">
-        <v>3.34708230208129</v>
+        <v>5.54527218932089</v>
       </c>
       <c r="E29">
-        <v>7.30657644590074</v>
+        <v>5.4148360397446</v>
       </c>
       <c r="F29">
-        <v>19.234441426796</v>
+        <v>20.9534755488061</v>
       </c>
       <c r="G29">
-        <v>2.83059904470562</v>
+        <v>3.79385170801477</v>
       </c>
       <c r="H29">
-        <v>2.99374258538283</v>
+        <v>3.44500453681169</v>
       </c>
       <c r="I29">
-        <v>4.95200518113061</v>
+        <v>7.46985687491428</v>
       </c>
       <c r="J29">
-        <v>5.15656815846929</v>
+        <v>5.04776404489459</v>
       </c>
       <c r="K29">
-        <v>2.07163617181976</v>
+        <v>2.93906694385239</v>
       </c>
       <c r="L29">
-        <v>3.26103258438054</v>
+        <v>2.66269404428339</v>
       </c>
       <c r="M29">
-        <v>3.21016822590019</v>
+        <v>3.32956634106305</v>
       </c>
       <c r="N29">
-        <v>12.1473204371602</v>
+        <v>12.6963299165949</v>
       </c>
       <c r="O29">
-        <v>1192.01327191109</v>
+        <v>1321.99942234466</v>
       </c>
       <c r="P29">
-        <v>6.94633699974933</v>
+        <v>5.24197964266813</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>144.393419686361</v>
+        <v>95.12303637616419</v>
       </c>
       <c r="C30">
-        <v>4.17292003380601</v>
+        <v>4.89509622243589</v>
       </c>
       <c r="D30">
-        <v>5.424099238653</v>
+        <v>6.67165581537421</v>
       </c>
       <c r="E30">
-        <v>13.1240483701338</v>
+        <v>9.84837845171624</v>
       </c>
       <c r="F30">
-        <v>0.428935419101726</v>
+        <v>0.454410281196487</v>
       </c>
       <c r="G30">
-        <v>6.31199300374465</v>
+        <v>6.77719373973348</v>
       </c>
       <c r="H30">
-        <v>7.9971494992705</v>
+        <v>10.1757667533828</v>
       </c>
       <c r="I30">
-        <v>2.6057372705052</v>
+        <v>3.09829087810734</v>
       </c>
       <c r="J30">
-        <v>22.8573850997173</v>
+        <v>21.0307851726861</v>
       </c>
       <c r="K30">
-        <v>12.3122906401768</v>
+        <v>18.3985354292414</v>
       </c>
       <c r="L30">
-        <v>46.6497322532598</v>
+        <v>55.0730848560155</v>
       </c>
       <c r="M30">
-        <v>11.3857095184225</v>
+        <v>13.3249548278875</v>
       </c>
       <c r="N30">
-        <v>13.8435604935381</v>
+        <v>15.0100877455286</v>
       </c>
       <c r="O30">
-        <v>660.181235990526</v>
+        <v>724.198335221246</v>
       </c>
       <c r="P30">
-        <v>6.39838114858949</v>
+        <v>6.44586162512223</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1294.78019702254</v>
+        <v>874.04551951587</v>
       </c>
       <c r="C31">
-        <v>42.4119910711002</v>
+        <v>48.635286311387</v>
       </c>
       <c r="D31">
-        <v>31.4322641300084</v>
+        <v>34.1260906472697</v>
       </c>
       <c r="E31">
-        <v>44.0012932716003</v>
+        <v>28.4307494870981</v>
       </c>
       <c r="F31">
-        <v>12.7921350199782</v>
+        <v>13.2500571130371</v>
       </c>
       <c r="G31">
-        <v>150.207509861117</v>
+        <v>165.775210341061</v>
       </c>
       <c r="H31">
-        <v>22.6828566804655</v>
+        <v>26.8351590955464</v>
       </c>
       <c r="I31">
-        <v>24.3141033248788</v>
+        <v>32.949161325021</v>
       </c>
       <c r="J31">
-        <v>46.4590676695464</v>
+        <v>44.3036407135199</v>
       </c>
       <c r="K31">
-        <v>23.8356339323078</v>
+        <v>33.3199221677606</v>
       </c>
       <c r="L31">
-        <v>89.7116270823314</v>
+        <v>89.13720194429391</v>
       </c>
       <c r="M31">
-        <v>20.6969521185301</v>
+        <v>20.6731668969572</v>
       </c>
       <c r="N31">
-        <v>61.8459372579743</v>
+        <v>70.8446540177833</v>
       </c>
       <c r="O31">
-        <v>3956.80543312333</v>
+        <v>4322.191516466131</v>
       </c>
       <c r="P31">
-        <v>13.1706526358513</v>
+        <v>9.97121575753777</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>301.721118513349</v>
+        <v>213.637008819267</v>
       </c>
       <c r="C32">
-        <v>7.91537461731845</v>
+        <v>7.39458538707512</v>
       </c>
       <c r="D32">
-        <v>2.20278073692497</v>
+        <v>3.55676183725119</v>
       </c>
       <c r="E32">
-        <v>6.37272831622873</v>
+        <v>4.35453518746319</v>
       </c>
       <c r="F32">
-        <v>29.5192644146651</v>
+        <v>41.0759124472713</v>
       </c>
       <c r="G32">
-        <v>0.638605096121296</v>
+        <v>0.808923070983497</v>
       </c>
       <c r="H32">
-        <v>0.119064176210789</v>
+        <v>0.404076780201883</v>
       </c>
       <c r="I32">
-        <v>5.94346401124698</v>
+        <v>6.43575808757393</v>
       </c>
       <c r="J32">
-        <v>9.269874796536669</v>
+        <v>8.91286803646717</v>
       </c>
       <c r="K32">
-        <v>4.20860680022502</v>
+        <v>6.31687277452709</v>
       </c>
       <c r="L32">
-        <v>13.4557361452614</v>
+        <v>15.3379500133045</v>
       </c>
       <c r="M32">
-        <v>4.13078797933193</v>
+        <v>3.92088393090925</v>
       </c>
       <c r="N32">
-        <v>7.35974205861908</v>
+        <v>8.74632342765095</v>
       </c>
       <c r="O32">
-        <v>912.851358834499</v>
+        <v>989.445930131414</v>
       </c>
       <c r="P32">
-        <v>33.0383297775254</v>
+        <v>31.5137465088884</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3177.98153924266</v>
+        <v>2137.70602614288</v>
       </c>
       <c r="C33">
-        <v>91.91779535279611</v>
+        <v>92.71933399999131</v>
       </c>
       <c r="D33">
-        <v>78.7155784413625</v>
+        <v>88.36586543266441</v>
       </c>
       <c r="E33">
-        <v>99.3735783645205</v>
+        <v>65.44086856436741</v>
       </c>
       <c r="F33">
-        <v>7.29571567301097</v>
+        <v>7.22933728870551</v>
       </c>
       <c r="G33">
-        <v>75.7857982441885</v>
+        <v>68.8266881115262</v>
       </c>
       <c r="H33">
-        <v>52.7715216092679</v>
+        <v>53.1304110382162</v>
       </c>
       <c r="I33">
-        <v>31.8767003842671</v>
+        <v>32.8924957705107</v>
       </c>
       <c r="J33">
-        <v>115.365339101008</v>
+        <v>119.51375563692</v>
       </c>
       <c r="K33">
-        <v>111.307491250241</v>
+        <v>122.014795044894</v>
       </c>
       <c r="L33">
-        <v>158.294567013764</v>
+        <v>169.776844038617</v>
       </c>
       <c r="M33">
-        <v>91.9624642821023</v>
+        <v>103.071903639783</v>
       </c>
       <c r="N33">
-        <v>163.418344476228</v>
+        <v>207.020743507793</v>
       </c>
       <c r="O33">
-        <v>8566.32830919602</v>
+        <v>9487.169549716489</v>
       </c>
       <c r="P33">
-        <v>81.7773806226317</v>
+        <v>61.1666407753627</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1168.43694620634</v>
+        <v>737.334805058151</v>
       </c>
       <c r="C34">
-        <v>97.7496739656024</v>
+        <v>103.616468090399</v>
       </c>
       <c r="D34">
-        <v>217.439447213018</v>
+        <v>237.696278641124</v>
       </c>
       <c r="E34">
-        <v>73.4995251368171</v>
+        <v>66.807855653546</v>
       </c>
       <c r="F34">
-        <v>6.15172102990224</v>
+        <v>6.21565473879571</v>
       </c>
       <c r="G34">
-        <v>75.92680133795081</v>
+        <v>87.0391226157076</v>
       </c>
       <c r="H34">
-        <v>50.062518555738</v>
+        <v>62.8615753229716</v>
       </c>
       <c r="I34">
-        <v>27.3311421508559</v>
+        <v>30.0672769766466</v>
       </c>
       <c r="J34">
-        <v>48.5921546674752</v>
+        <v>55.9949248469857</v>
       </c>
       <c r="K34">
-        <v>52.4614659014505</v>
+        <v>82.1901159672649</v>
       </c>
       <c r="L34">
-        <v>101.843392253986</v>
+        <v>136.365560036383</v>
       </c>
       <c r="M34">
-        <v>55.5833489615655</v>
+        <v>54.4396147218098</v>
       </c>
       <c r="N34">
-        <v>149.17129312517</v>
+        <v>163.920302927259</v>
       </c>
       <c r="O34">
-        <v>3498.36822503555</v>
+        <v>3808.21448712226</v>
       </c>
       <c r="P34">
-        <v>90.65241521467949</v>
+        <v>88.6630174606122</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>71.7470509217531</v>
+        <v>44.9581852362448</v>
       </c>
       <c r="C35">
-        <v>10.9269845330255</v>
+        <v>9.702030958781579</v>
       </c>
       <c r="D35">
-        <v>0.542379034596075</v>
+        <v>0.734477080308793</v>
       </c>
       <c r="E35">
-        <v>3.32378863244738</v>
+        <v>4.23205157305604</v>
       </c>
       <c r="F35">
-        <v>6.92500722168734</v>
+        <v>6.77043093199809</v>
       </c>
       <c r="G35">
-        <v>0.295554921425072</v>
+        <v>0.205039900108362</v>
       </c>
       <c r="H35">
-        <v>0.5151501019243711</v>
+        <v>0.740670408551477</v>
       </c>
       <c r="I35">
-        <v>0.666492970291512</v>
+        <v>0.955812025342077</v>
       </c>
       <c r="J35">
-        <v>3.41284132751571</v>
+        <v>3.09235027442357</v>
       </c>
       <c r="K35">
-        <v>6.29196606517276</v>
+        <v>8.139221208822249</v>
       </c>
       <c r="L35">
-        <v>3.31272707568789</v>
+        <v>3.67124821665374</v>
       </c>
       <c r="M35">
-        <v>3.03108371685314</v>
+        <v>3.18821010513925</v>
       </c>
       <c r="N35">
-        <v>3.43616871904503</v>
+        <v>3.49146168999871</v>
       </c>
       <c r="O35">
-        <v>348.954044528229</v>
+        <v>402.622980606183</v>
       </c>
       <c r="P35">
-        <v>60.9134639095936</v>
+        <v>54.194475992394</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1619.20883514386</v>
+        <v>1023.68706824228</v>
       </c>
       <c r="C36">
-        <v>83.010504563486</v>
+        <v>83.43484947283351</v>
       </c>
       <c r="D36">
-        <v>17.5092998276854</v>
+        <v>17.8726680944273</v>
       </c>
       <c r="E36">
-        <v>118.085630361066</v>
+        <v>87.35172784068369</v>
       </c>
       <c r="F36">
-        <v>31.874422537406</v>
+        <v>46.9827483167075</v>
       </c>
       <c r="G36">
-        <v>91.0313072333299</v>
+        <v>123.499396103224</v>
       </c>
       <c r="H36">
-        <v>125.706171462799</v>
+        <v>135.625696498833</v>
       </c>
       <c r="I36">
-        <v>64.0272573375414</v>
+        <v>56.5440720227388</v>
       </c>
       <c r="J36">
-        <v>258.671978409859</v>
+        <v>258.647539739937</v>
       </c>
       <c r="K36">
-        <v>108.719710194788</v>
+        <v>149.672136076418</v>
       </c>
       <c r="L36">
-        <v>107.94549767458</v>
+        <v>120.694596595677</v>
       </c>
       <c r="M36">
-        <v>274.470989877561</v>
+        <v>266.770936980601</v>
       </c>
       <c r="N36">
-        <v>85.3972268948709</v>
+        <v>100.014467276259</v>
       </c>
       <c r="O36">
-        <v>4883.17915845962</v>
+        <v>5414.61536523928</v>
       </c>
       <c r="P36">
-        <v>46.0144489301172</v>
+        <v>38.566351751665</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>504.430495917078</v>
+        <v>306.864113528253</v>
       </c>
       <c r="C37">
-        <v>29.7907452145825</v>
+        <v>27.4358702003131</v>
       </c>
       <c r="D37">
-        <v>7.22506708714229</v>
+        <v>7.8612189840632</v>
       </c>
       <c r="E37">
-        <v>15.4843406181055</v>
+        <v>15.4403617606313</v>
       </c>
       <c r="F37">
-        <v>47.589423240155</v>
+        <v>49.8011348131506</v>
       </c>
       <c r="G37">
-        <v>6.34008505102557</v>
+        <v>8.346339843044341</v>
       </c>
       <c r="H37">
-        <v>23.4643198853871</v>
+        <v>26.3811943129162</v>
       </c>
       <c r="I37">
-        <v>9.42305418087528</v>
+        <v>14.7080808076242</v>
       </c>
       <c r="J37">
-        <v>34.0973205106794</v>
+        <v>36.6185617088687</v>
       </c>
       <c r="K37">
-        <v>46.2533591647796</v>
+        <v>54.6768121154544</v>
       </c>
       <c r="L37">
-        <v>25.8143270207677</v>
+        <v>30.0212387134892</v>
       </c>
       <c r="M37">
-        <v>35.8506945453892</v>
+        <v>35.5944186712891</v>
       </c>
       <c r="N37">
-        <v>16.9755460365426</v>
+        <v>21.3465713148594</v>
       </c>
       <c r="O37">
-        <v>1521.75894671874</v>
+        <v>1666.75934955779</v>
       </c>
       <c r="P37">
-        <v>51.7784387625686</v>
+        <v>55.6019454835258</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>505.2277316737</v>
+        <v>370.82240203622</v>
       </c>
       <c r="C38">
-        <v>31.1106155021992</v>
+        <v>31.0618158248865</v>
       </c>
       <c r="D38">
-        <v>13.9167750995672</v>
+        <v>19.2039944693403</v>
       </c>
       <c r="E38">
-        <v>58.5157872625746</v>
+        <v>51.3838385386247</v>
       </c>
       <c r="F38">
-        <v>3.07596035370268</v>
+        <v>2.88663682469582</v>
       </c>
       <c r="G38">
-        <v>6.11678822866914</v>
+        <v>7.08048199620742</v>
       </c>
       <c r="H38">
-        <v>6.85164206472699</v>
+        <v>8.593782758296641</v>
       </c>
       <c r="I38">
-        <v>2.96863787028786</v>
+        <v>3.23119510944745</v>
       </c>
       <c r="J38">
-        <v>41.87210129008</v>
+        <v>44.9289250894466</v>
       </c>
       <c r="K38">
-        <v>17.258904077196</v>
+        <v>20.0580177515767</v>
       </c>
       <c r="L38">
-        <v>85.1959460652314</v>
+        <v>96.87143738179221</v>
       </c>
       <c r="M38">
-        <v>22.68062978516</v>
+        <v>26.8921051246051</v>
       </c>
       <c r="N38">
-        <v>22.9581829641267</v>
+        <v>28.2653546643869</v>
       </c>
       <c r="O38">
-        <v>1596.69204857568</v>
+        <v>1702.94490391476</v>
       </c>
       <c r="P38">
-        <v>89.21311195814469</v>
+        <v>76.0492187890744</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1798.74966079244</v>
+        <v>1142.8672896437</v>
       </c>
       <c r="C39">
-        <v>113.910802692916</v>
+        <v>139.764736002667</v>
       </c>
       <c r="D39">
-        <v>85.4188819922997</v>
+        <v>73.9195812500638</v>
       </c>
       <c r="E39">
-        <v>132.333570440449</v>
+        <v>94.18790612385691</v>
       </c>
       <c r="F39">
-        <v>38.0873847184176</v>
+        <v>27.8676216344892</v>
       </c>
       <c r="G39">
-        <v>112.713273080728</v>
+        <v>150.364711067819</v>
       </c>
       <c r="H39">
-        <v>58.0965764456073</v>
+        <v>51.6826413643613</v>
       </c>
       <c r="I39">
-        <v>61.2203587102885</v>
+        <v>62.7227282845182</v>
       </c>
       <c r="J39">
-        <v>207.22578952817</v>
+        <v>187.358692702829</v>
       </c>
       <c r="K39">
-        <v>105.362057428216</v>
+        <v>140.946211974824</v>
       </c>
       <c r="L39">
-        <v>121.481040990061</v>
+        <v>142.620333257984</v>
       </c>
       <c r="M39">
-        <v>82.50289428577381</v>
+        <v>89.0661458243041</v>
       </c>
       <c r="N39">
-        <v>119.92804970116</v>
+        <v>134.431908994646</v>
       </c>
       <c r="O39">
-        <v>5556.67906948219</v>
+        <v>6163.56987495642</v>
       </c>
       <c r="P39">
-        <v>80.2801655537973</v>
+        <v>61.3094761270244</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>144.690740145915</v>
+        <v>97.5950005485908</v>
       </c>
       <c r="C40">
-        <v>5.38244173814574</v>
+        <v>5.04217717568882</v>
       </c>
       <c r="D40">
-        <v>13.0306419301005</v>
+        <v>13.1319284309522</v>
       </c>
       <c r="E40">
-        <v>8.52493676479971</v>
+        <v>6.16515706039816</v>
       </c>
       <c r="F40">
-        <v>0.318622362038451</v>
+        <v>0.609710315590603</v>
       </c>
       <c r="G40">
-        <v>6.74958883047063</v>
+        <v>8.706527473859451</v>
       </c>
       <c r="H40">
-        <v>6.90015068951744</v>
+        <v>10.5412883725097</v>
       </c>
       <c r="I40">
-        <v>3.58544591166932</v>
+        <v>2.82835087016854</v>
       </c>
       <c r="J40">
-        <v>17.7339606966073</v>
+        <v>18.2787666848977</v>
       </c>
       <c r="K40">
-        <v>4.56095416626411</v>
+        <v>9.753494997937009</v>
       </c>
       <c r="L40">
-        <v>17.7357186490967</v>
+        <v>16.9900786339457</v>
       </c>
       <c r="M40">
-        <v>7.89277134994399</v>
+        <v>9.43722659470528</v>
       </c>
       <c r="N40">
-        <v>32.3270034631905</v>
+        <v>38.7388777749032</v>
       </c>
       <c r="O40">
-        <v>563.076849244625</v>
+        <v>632.301208536657</v>
       </c>
       <c r="P40">
-        <v>1.82312275280619</v>
+        <v>1.72244033902285</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>587.526353705211</v>
+        <v>360.157585450941</v>
       </c>
       <c r="C41">
-        <v>18.5936800147484</v>
+        <v>13.5744069229933</v>
       </c>
       <c r="D41">
-        <v>103.915617522667</v>
+        <v>114.328689348103</v>
       </c>
       <c r="E41">
-        <v>55.3772706269612</v>
+        <v>55.0520373416448</v>
       </c>
       <c r="F41">
-        <v>3.61521138252109</v>
+        <v>3.49609085810521</v>
       </c>
       <c r="G41">
-        <v>39.6044097024976</v>
+        <v>64.2126495254921</v>
       </c>
       <c r="H41">
-        <v>42.2395093265301</v>
+        <v>54.0678521569912</v>
       </c>
       <c r="I41">
-        <v>8.021779302662461</v>
+        <v>10.1283677839462</v>
       </c>
       <c r="J41">
-        <v>67.1623355109501</v>
+        <v>80.9948929723887</v>
       </c>
       <c r="K41">
-        <v>32.08201492244</v>
+        <v>46.9972804404192</v>
       </c>
       <c r="L41">
-        <v>33.9477474175662</v>
+        <v>35.6575980950298</v>
       </c>
       <c r="M41">
-        <v>52.4453963248688</v>
+        <v>54.7595075445488</v>
       </c>
       <c r="N41">
-        <v>26.8202033389118</v>
+        <v>31.6120234928029</v>
       </c>
       <c r="O41">
-        <v>1762.04494084569</v>
+        <v>1903.93926048071</v>
       </c>
       <c r="P41">
-        <v>19.5906207405572</v>
+        <v>20.8262095115983</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>74.75663863161761</v>
+        <v>50.1419183006197</v>
       </c>
       <c r="C42">
-        <v>10.6167146686057</v>
+        <v>11.3146618225625</v>
       </c>
       <c r="D42">
-        <v>0.622597027271973</v>
+        <v>0.980409609479194</v>
       </c>
       <c r="E42">
-        <v>11.840661932401</v>
+        <v>10.961284642017</v>
       </c>
       <c r="F42">
-        <v>3.23420060398561</v>
+        <v>3.37823866063182</v>
       </c>
       <c r="G42">
-        <v>0.771798992616896</v>
+        <v>1.11264541738116</v>
       </c>
       <c r="H42">
-        <v>2.13480652393236</v>
+        <v>2.2424837335923</v>
       </c>
       <c r="I42">
-        <v>2.9693527353568</v>
+        <v>2.09204575898745</v>
       </c>
       <c r="J42">
-        <v>6.40627861633839</v>
+        <v>6.91329986411016</v>
       </c>
       <c r="K42">
-        <v>6.27651281425082</v>
+        <v>9.594069559536759</v>
       </c>
       <c r="L42">
-        <v>8.42847012428707</v>
+        <v>11.1494790331721</v>
       </c>
       <c r="M42">
-        <v>3.93381202733773</v>
+        <v>4.73148592817519</v>
       </c>
       <c r="N42">
-        <v>8.0109788013888</v>
+        <v>9.870148504207061</v>
       </c>
       <c r="O42">
-        <v>444.684895301103</v>
+        <v>520.101717107132</v>
       </c>
       <c r="P42">
-        <v>64.5553371423244</v>
+        <v>58.8927218301475</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>980.213505904572</v>
+        <v>618.895117024702</v>
       </c>
       <c r="C43">
-        <v>55.106549626362</v>
+        <v>49.31697352693</v>
       </c>
       <c r="D43">
-        <v>37.8918802315333</v>
+        <v>42.146988264969</v>
       </c>
       <c r="E43">
-        <v>72.2895667946419</v>
+        <v>52.391262420692</v>
       </c>
       <c r="F43">
-        <v>6.05238722150757</v>
+        <v>9.62297010502683</v>
       </c>
       <c r="G43">
-        <v>36.2316460456589</v>
+        <v>41.0127662541375</v>
       </c>
       <c r="H43">
-        <v>31.579819637508</v>
+        <v>28.9702174857833</v>
       </c>
       <c r="I43">
-        <v>21.9845524614779</v>
+        <v>33.8534068788395</v>
       </c>
       <c r="J43">
-        <v>61.7430850774931</v>
+        <v>58.4507643866141</v>
       </c>
       <c r="K43">
-        <v>54.2084028011382</v>
+        <v>79.08905325855039</v>
       </c>
       <c r="L43">
-        <v>52.5184889658488</v>
+        <v>55.808317346081</v>
       </c>
       <c r="M43">
-        <v>111.809458648789</v>
+        <v>104.104181015065</v>
       </c>
       <c r="N43">
-        <v>57.5508144678355</v>
+        <v>76.3738816384811</v>
       </c>
       <c r="O43">
-        <v>2457.18859860472</v>
+        <v>2765.48888706556</v>
       </c>
       <c r="P43">
-        <v>59.1101136789926</v>
+        <v>64.0142889913342</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3361.38056171225</v>
+        <v>2248.64171638621</v>
       </c>
       <c r="C44">
-        <v>135.478293375952</v>
+        <v>181.042273920453</v>
       </c>
       <c r="D44">
-        <v>57.2546760776522</v>
+        <v>63.9748595229001</v>
       </c>
       <c r="E44">
-        <v>101.257915416483</v>
+        <v>84.5107824255563</v>
       </c>
       <c r="F44">
-        <v>250.660436685557</v>
+        <v>294.756376292407</v>
       </c>
       <c r="G44">
-        <v>123.341130847203</v>
+        <v>165.969388175323</v>
       </c>
       <c r="H44">
-        <v>52.9395571027949</v>
+        <v>53.4505856844912</v>
       </c>
       <c r="I44">
-        <v>52.6260030117503</v>
+        <v>63.2871615173779</v>
       </c>
       <c r="J44">
-        <v>123.140998466433</v>
+        <v>135.115547696068</v>
       </c>
       <c r="K44">
-        <v>97.6211901839899</v>
+        <v>124.169225127117</v>
       </c>
       <c r="L44">
-        <v>217.456542519105</v>
+        <v>244.840438177969</v>
       </c>
       <c r="M44">
-        <v>130.538705770117</v>
+        <v>130.508511644215</v>
       </c>
       <c r="N44">
-        <v>92.43151189823401</v>
+        <v>93.3010851118423</v>
       </c>
       <c r="O44">
-        <v>8964.05136177225</v>
+        <v>9679.16218162503</v>
       </c>
       <c r="P44">
-        <v>228.972668508059</v>
+        <v>262.177481402935</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>350.0384382626</v>
+        <v>253.757615266956</v>
       </c>
       <c r="C45">
-        <v>24.0839362669204</v>
+        <v>20.975286776155</v>
       </c>
       <c r="D45">
-        <v>4.4514283096196</v>
+        <v>5.26288578183713</v>
       </c>
       <c r="E45">
-        <v>13.8614142636975</v>
+        <v>9.128759552161331</v>
       </c>
       <c r="F45">
-        <v>24.3372432334233</v>
+        <v>28.3664465727707</v>
       </c>
       <c r="G45">
-        <v>12.8615435137943</v>
+        <v>14.0214060406571</v>
       </c>
       <c r="H45">
-        <v>2.9268935265923</v>
+        <v>4.41394327621469</v>
       </c>
       <c r="I45">
-        <v>5.04963934398233</v>
+        <v>4.85993710270017</v>
       </c>
       <c r="J45">
-        <v>16.6671199975446</v>
+        <v>16.9119394481736</v>
       </c>
       <c r="K45">
-        <v>6.21781105592732</v>
+        <v>9.350520000803011</v>
       </c>
       <c r="L45">
-        <v>17.1985720876957</v>
+        <v>20.0870690166217</v>
       </c>
       <c r="M45">
-        <v>24.8089743032001</v>
+        <v>25.5575947991339</v>
       </c>
       <c r="N45">
-        <v>26.7695431416031</v>
+        <v>27.7923470024708</v>
       </c>
       <c r="O45">
-        <v>947.073920417219</v>
+        <v>1037.26356259408</v>
       </c>
       <c r="P45">
-        <v>18.3534256670516</v>
+        <v>14.7897566553211</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>67.9482669747669</v>
+        <v>48.6294794112891</v>
       </c>
       <c r="C46">
-        <v>7.1628525389754</v>
+        <v>7.26171027010181</v>
       </c>
       <c r="D46">
-        <v>1.86833586385471</v>
+        <v>2.01019918628643</v>
       </c>
       <c r="E46">
-        <v>8.214393167198431</v>
+        <v>7.39640784656342</v>
       </c>
       <c r="F46">
-        <v>1.87932754677814</v>
+        <v>1.90551472379413</v>
       </c>
       <c r="G46">
-        <v>3.11272050159384</v>
+        <v>3.51242847542281</v>
       </c>
       <c r="H46">
-        <v>3.0549262200516</v>
+        <v>4.6439925459124</v>
       </c>
       <c r="I46">
-        <v>1.96880513773055</v>
+        <v>2.31372079970984</v>
       </c>
       <c r="J46">
-        <v>6.75842543612235</v>
+        <v>6.71820146124364</v>
       </c>
       <c r="K46">
-        <v>4.17499007247552</v>
+        <v>5.34484670118314</v>
       </c>
       <c r="L46">
-        <v>15.995907785874</v>
+        <v>21.0323128333763</v>
       </c>
       <c r="M46">
-        <v>6.22570282316579</v>
+        <v>6.88990008105562</v>
       </c>
       <c r="N46">
-        <v>8.6651993011477</v>
+        <v>9.79095327013856</v>
       </c>
       <c r="O46">
-        <v>380.150289158284</v>
+        <v>429.389737210444</v>
       </c>
       <c r="P46">
-        <v>15.8249877376045</v>
+        <v>13.3357201459826</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>957.188905565966</v>
+        <v>606.321388168868</v>
       </c>
       <c r="C47">
-        <v>61.1883937342875</v>
+        <v>67.1038922215896</v>
       </c>
       <c r="D47">
-        <v>45.9082459403779</v>
+        <v>39.3997863331752</v>
       </c>
       <c r="E47">
-        <v>60.019904491989</v>
+        <v>42.4319891950628</v>
       </c>
       <c r="F47">
-        <v>12.7026814394507</v>
+        <v>10.0810767990672</v>
       </c>
       <c r="G47">
-        <v>22.3236648601949</v>
+        <v>28.6181041077242</v>
       </c>
       <c r="H47">
-        <v>20.3438759814006</v>
+        <v>21.4597382669746</v>
       </c>
       <c r="I47">
-        <v>10.9445057718343</v>
+        <v>13.4159522455692</v>
       </c>
       <c r="J47">
-        <v>42.5834556575273</v>
+        <v>60.5789772930482</v>
       </c>
       <c r="K47">
-        <v>21.501263627901</v>
+        <v>22.200313877797</v>
       </c>
       <c r="L47">
-        <v>50.8305191442497</v>
+        <v>61.2932220002794</v>
       </c>
       <c r="M47">
-        <v>72.33206348273841</v>
+        <v>79.7101470379326</v>
       </c>
       <c r="N47">
-        <v>38.6783937128327</v>
+        <v>37.7896216168053</v>
       </c>
       <c r="O47">
-        <v>3383.96171588773</v>
+        <v>3725.20392267017</v>
       </c>
       <c r="P47">
-        <v>56.3109466970159</v>
+        <v>44.5330118411577</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>895.499956647198</v>
+        <v>632.434127742526</v>
       </c>
       <c r="C48">
-        <v>32.0253814385273</v>
+        <v>21.2135581250491</v>
       </c>
       <c r="D48">
-        <v>6.65755555282967</v>
+        <v>10.2743161464945</v>
       </c>
       <c r="E48">
-        <v>68.32008905856991</v>
+        <v>76.5995840531733</v>
       </c>
       <c r="F48">
-        <v>10.6281358512269</v>
+        <v>14.9062610319227</v>
       </c>
       <c r="G48">
-        <v>3.7449129003486</v>
+        <v>5.97074736917826</v>
       </c>
       <c r="H48">
-        <v>5.42306220765914</v>
+        <v>4.89119702433565</v>
       </c>
       <c r="I48">
-        <v>10.5405626779232</v>
+        <v>15.4760110139227</v>
       </c>
       <c r="J48">
-        <v>39.3163824438467</v>
+        <v>35.0749642254701</v>
       </c>
       <c r="K48">
-        <v>19.2049924835932</v>
+        <v>24.2730180212383</v>
       </c>
       <c r="L48">
-        <v>45.6800531004886</v>
+        <v>45.7621164104434</v>
       </c>
       <c r="M48">
-        <v>136.550670398127</v>
+        <v>175.421272728764</v>
       </c>
       <c r="N48">
-        <v>36.6657507108115</v>
+        <v>31.7162034350009</v>
       </c>
       <c r="O48">
-        <v>2732.73658935773</v>
+        <v>2937.46504747088</v>
       </c>
       <c r="P48">
-        <v>110.40957097516</v>
+        <v>94.9982752349534</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>460.638338216743</v>
+        <v>302.722736283007</v>
       </c>
       <c r="C49">
-        <v>7.52176696546525</v>
+        <v>7.33524116281162</v>
       </c>
       <c r="D49">
-        <v>2.38210486206606</v>
+        <v>4.23941580685065</v>
       </c>
       <c r="E49">
-        <v>21.0467741645716</v>
+        <v>22.6168217222901</v>
       </c>
       <c r="F49">
-        <v>41.527485495541</v>
+        <v>52.1514277921303</v>
       </c>
       <c r="G49">
-        <v>20.4997819209185</v>
+        <v>27.6381487524791</v>
       </c>
       <c r="H49">
-        <v>14.299108984759</v>
+        <v>12.6298741399879</v>
       </c>
       <c r="I49">
-        <v>8.05904242115408</v>
+        <v>9.414722220139829</v>
       </c>
       <c r="J49">
-        <v>28.6434679549474</v>
+        <v>34.0765245407404</v>
       </c>
       <c r="K49">
-        <v>10.0670645397167</v>
+        <v>11.7896447838253</v>
       </c>
       <c r="L49">
-        <v>2.89758217519216</v>
+        <v>3.82040098794519</v>
       </c>
       <c r="M49">
-        <v>7.54275153099985</v>
+        <v>8.085844154682359</v>
       </c>
       <c r="N49">
-        <v>4.92175730598135</v>
+        <v>4.93259811327483</v>
       </c>
       <c r="O49">
-        <v>831.069114126606</v>
+        <v>967.858650093686</v>
       </c>
       <c r="P49">
-        <v>18.8535904318624</v>
+        <v>15.9079820510179</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>563.954829282261</v>
+        <v>375.830137187761</v>
       </c>
       <c r="C50">
-        <v>88.31359794133159</v>
+        <v>94.1914763577137</v>
       </c>
       <c r="D50">
-        <v>13.217063448601</v>
+        <v>13.9313371985544</v>
       </c>
       <c r="E50">
-        <v>156.521003117121</v>
+        <v>129.31244538629</v>
       </c>
       <c r="F50">
-        <v>9.303754576965501</v>
+        <v>6.35948884946295</v>
       </c>
       <c r="G50">
-        <v>26.2842894801203</v>
+        <v>42.9926443705824</v>
       </c>
       <c r="H50">
-        <v>52.671759074901</v>
+        <v>46.242750525316</v>
       </c>
       <c r="I50">
-        <v>19.0256376210419</v>
+        <v>17.8936167464075</v>
       </c>
       <c r="J50">
-        <v>130.969511728132</v>
+        <v>120.310186860065</v>
       </c>
       <c r="K50">
-        <v>87.7022924680811</v>
+        <v>101.86943831497</v>
       </c>
       <c r="L50">
-        <v>74.6548898409385</v>
+        <v>95.5440414612678</v>
       </c>
       <c r="M50">
-        <v>42.9294963688958</v>
+        <v>31.5617890130136</v>
       </c>
       <c r="N50">
-        <v>75.5011117948419</v>
+        <v>90.55785488567339</v>
       </c>
       <c r="O50">
-        <v>2338.67404124596</v>
+        <v>2574.1963198322</v>
       </c>
       <c r="P50">
-        <v>113.398779102575</v>
+        <v>74.07644961679659</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>82.692135576684</v>
+        <v>62.5609737983095</v>
       </c>
       <c r="C51">
-        <v>2.57155777661877</v>
+        <v>2.8695641973722</v>
       </c>
       <c r="D51">
-        <v>0.052666859405207</v>
+        <v>0.0476131009101052</v>
       </c>
       <c r="E51">
-        <v>3.4489211595056</v>
+        <v>2.89367259115559</v>
       </c>
       <c r="F51">
-        <v>42.0982536295495</v>
+        <v>50.504068557587</v>
       </c>
       <c r="G51">
-        <v>3.29656054257295</v>
+        <v>2.97583503324489</v>
       </c>
       <c r="H51">
-        <v>0.328757828391072</v>
+        <v>0.263652886795067</v>
       </c>
       <c r="I51">
-        <v>1.35383677790075</v>
+        <v>1.55550776204495</v>
       </c>
       <c r="J51">
-        <v>2.38554986820207</v>
+        <v>3.18714335293573</v>
       </c>
       <c r="K51">
-        <v>0.817274460810405</v>
+        <v>1.36831484257768</v>
       </c>
       <c r="L51">
-        <v>0.234444368965054</v>
+        <v>0.320525135241149</v>
       </c>
       <c r="M51">
-        <v>0.56626821652864</v>
+        <v>0.708139932024926</v>
       </c>
       <c r="N51">
-        <v>1.80752406734873</v>
+        <v>1.86442203803615</v>
       </c>
       <c r="O51">
-        <v>349.759349096411</v>
+        <v>411.289179513023</v>
       </c>
       <c r="P51">
-        <v>23.9132947933802</v>
+        <v>25.7551322743205</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>432.813187892898</v>
+        <v>921.464684478246</v>
       </c>
       <c r="C2">
-        <v>45.87857456394</v>
+        <v>37.1649831795562</v>
       </c>
       <c r="D2">
-        <v>75.0622004508305</v>
+        <v>61.411314004665</v>
       </c>
       <c r="E2">
-        <v>93.92633078910581</v>
+        <v>72.64675481267101</v>
       </c>
       <c r="F2">
-        <v>26.9482845239576</v>
+        <v>21.2180051698139</v>
       </c>
       <c r="G2">
-        <v>21.6026227142133</v>
+        <v>17.8089981800149</v>
       </c>
       <c r="H2">
-        <v>37.1100341462653</v>
+        <v>31.4613494252114</v>
       </c>
       <c r="I2">
-        <v>24.918046117577</v>
+        <v>20.5758520075196</v>
       </c>
       <c r="J2">
-        <v>89.9185779306838</v>
+        <v>73.51248408606379</v>
       </c>
       <c r="K2">
-        <v>25.7822782105621</v>
+        <v>20.4884129564832</v>
       </c>
       <c r="L2">
-        <v>38.5328247110055</v>
+        <v>32.7242873966132</v>
       </c>
       <c r="M2">
-        <v>63.6794894516314</v>
+        <v>50.1414271785578</v>
       </c>
       <c r="N2">
-        <v>31.6565533698197</v>
+        <v>25.6988475612849</v>
       </c>
       <c r="O2">
-        <v>2098.36214183653</v>
+        <v>1729.22455648125</v>
       </c>
       <c r="P2">
-        <v>39.5597821891701</v>
+        <v>30.4612916150313</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>101.953876808337</v>
+        <v>158.600139250978</v>
       </c>
       <c r="C3">
-        <v>6.46008900050647</v>
+        <v>5.60648552030174</v>
       </c>
       <c r="D3">
-        <v>0.309811541747894</v>
+        <v>0.277001637596021</v>
       </c>
       <c r="E3">
-        <v>1.13278035869555</v>
+        <v>1.00760120787472</v>
       </c>
       <c r="F3">
-        <v>16.9761296432745</v>
+        <v>14.9757412941763</v>
       </c>
       <c r="G3">
-        <v>0.219126310945068</v>
+        <v>0.195565552372706</v>
       </c>
       <c r="H3">
-        <v>0.403866716426521</v>
+        <v>0.453768585657581</v>
       </c>
       <c r="I3">
-        <v>0.341998615352049</v>
+        <v>0.302803020876177</v>
       </c>
       <c r="J3">
-        <v>0.795015757527102</v>
+        <v>0.708460123290423</v>
       </c>
       <c r="K3">
-        <v>0.262621262870632</v>
+        <v>0.236415095573383</v>
       </c>
       <c r="L3">
-        <v>0.178932288827568</v>
+        <v>0.158273653909825</v>
       </c>
       <c r="M3">
-        <v>1.22792614235581</v>
+        <v>1.19909389778777</v>
       </c>
       <c r="N3">
-        <v>1.14154578763522</v>
+        <v>1.01512953665161</v>
       </c>
       <c r="O3">
-        <v>460.386633190093</v>
+        <v>408.811996117475</v>
       </c>
       <c r="P3">
-        <v>13.2652941096873</v>
+        <v>11.5007674083914</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>537.640435872441</v>
+        <v>963.800284926819</v>
       </c>
       <c r="C4">
-        <v>14.0985307888397</v>
+        <v>12.1885778134233</v>
       </c>
       <c r="D4">
-        <v>5.56732109221316</v>
+        <v>4.7766823943838</v>
       </c>
       <c r="E4">
-        <v>16.4564739303155</v>
+        <v>14.2861656653771</v>
       </c>
       <c r="F4">
-        <v>7.33402797837346</v>
+        <v>6.30992884518373</v>
       </c>
       <c r="G4">
-        <v>13.8390893192647</v>
+        <v>11.6155350844362</v>
       </c>
       <c r="H4">
-        <v>12.3907736961522</v>
+        <v>10.1239012952952</v>
       </c>
       <c r="I4">
-        <v>16.484857097354</v>
+        <v>13.3749518977243</v>
       </c>
       <c r="J4">
-        <v>34.4425999424288</v>
+        <v>28.7641051966114</v>
       </c>
       <c r="K4">
-        <v>11.8117480654159</v>
+        <v>10.2205949567486</v>
       </c>
       <c r="L4">
-        <v>103.983452641439</v>
+        <v>86.554929527222</v>
       </c>
       <c r="M4">
-        <v>77.74146882052661</v>
+        <v>66.6289886420968</v>
       </c>
       <c r="N4">
-        <v>41.8626290567014</v>
+        <v>36.0094194743435</v>
       </c>
       <c r="O4">
-        <v>2723.90830668251</v>
+        <v>2363.35834894764</v>
       </c>
       <c r="P4">
-        <v>43.0742981449357</v>
+        <v>35.6493572875436</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>262.280920893985</v>
+        <v>597.109014826885</v>
       </c>
       <c r="C5">
-        <v>83.6881836727553</v>
+        <v>66.5565296778002</v>
       </c>
       <c r="D5">
-        <v>22.4855948286516</v>
+        <v>17.1697713939157</v>
       </c>
       <c r="E5">
-        <v>48.1378559248627</v>
+        <v>38.5873616661718</v>
       </c>
       <c r="F5">
-        <v>1.84357800778927</v>
+        <v>1.90519753091108</v>
       </c>
       <c r="G5">
-        <v>11.864912787033</v>
+        <v>9.647472347657971</v>
       </c>
       <c r="H5">
-        <v>15.8791417717457</v>
+        <v>12.8751044254722</v>
       </c>
       <c r="I5">
-        <v>11.993839519887</v>
+        <v>9.003216061234539</v>
       </c>
       <c r="J5">
-        <v>41.0208097348105</v>
+        <v>33.1570383066279</v>
       </c>
       <c r="K5">
-        <v>29.0358084638991</v>
+        <v>23.2520508460264</v>
       </c>
       <c r="L5">
-        <v>27.9561487059161</v>
+        <v>21.5420359932124</v>
       </c>
       <c r="M5">
-        <v>20.5758473758813</v>
+        <v>15.576463309637</v>
       </c>
       <c r="N5">
-        <v>20.7501035040293</v>
+        <v>17.1989091230972</v>
       </c>
       <c r="O5">
-        <v>1252.1592811664</v>
+        <v>999.48160737579</v>
       </c>
       <c r="P5">
-        <v>57.425200312602</v>
+        <v>44.7840393935428</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>3893.57876939875</v>
+        <v>6019.61647327801</v>
       </c>
       <c r="C6">
-        <v>170.471813710842</v>
+        <v>154.608657467403</v>
       </c>
       <c r="D6">
-        <v>253.492690098084</v>
+        <v>221.70295799658</v>
       </c>
       <c r="E6">
-        <v>147.593559658043</v>
+        <v>129.397350343228</v>
       </c>
       <c r="F6">
-        <v>34.1738150392764</v>
+        <v>29.667988431882</v>
       </c>
       <c r="G6">
-        <v>143.661404795385</v>
+        <v>129.570269963895</v>
       </c>
       <c r="H6">
-        <v>93.7540030580883</v>
+        <v>83.256162345758</v>
       </c>
       <c r="I6">
-        <v>63.3886818393463</v>
+        <v>56.5493314167779</v>
       </c>
       <c r="J6">
-        <v>215.017134756057</v>
+        <v>192.17292416561</v>
       </c>
       <c r="K6">
-        <v>145.645712233985</v>
+        <v>131.714376428725</v>
       </c>
       <c r="L6">
-        <v>606.030093510134</v>
+        <v>533.698075877756</v>
       </c>
       <c r="M6">
-        <v>391.012717360209</v>
+        <v>345.51999475506</v>
       </c>
       <c r="N6">
-        <v>354.395128365204</v>
+        <v>314.810598321054</v>
       </c>
       <c r="O6">
-        <v>15734.0327220424</v>
+        <v>13923.5317134393</v>
       </c>
       <c r="P6">
-        <v>246.551279295011</v>
+        <v>225.612098773692</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>367.370987101591</v>
+        <v>633.628663692882</v>
       </c>
       <c r="C7">
-        <v>41.264379649264</v>
+        <v>36.9861508563645</v>
       </c>
       <c r="D7">
-        <v>2.43175120298746</v>
+        <v>2.19701818571808</v>
       </c>
       <c r="E7">
-        <v>18.1594156382353</v>
+        <v>16.7734237629542</v>
       </c>
       <c r="F7">
-        <v>15.5923297102723</v>
+        <v>12.6724454718777</v>
       </c>
       <c r="G7">
-        <v>13.0653807063519</v>
+        <v>10.7241395706273</v>
       </c>
       <c r="H7">
-        <v>11.0672205471263</v>
+        <v>9.929864419245471</v>
       </c>
       <c r="I7">
-        <v>8.18581948742955</v>
+        <v>7.30536914160852</v>
       </c>
       <c r="J7">
-        <v>23.6624858282976</v>
+        <v>22.1164975973379</v>
       </c>
       <c r="K7">
-        <v>16.397003158942</v>
+        <v>15.2707153685167</v>
       </c>
       <c r="L7">
-        <v>61.3310342633846</v>
+        <v>53.7953162244379</v>
       </c>
       <c r="M7">
-        <v>26.2426452229606</v>
+        <v>22.079094934755</v>
       </c>
       <c r="N7">
-        <v>31.4846904625944</v>
+        <v>26.6992207897271</v>
       </c>
       <c r="O7">
-        <v>2244.50623221591</v>
+        <v>2013.09108658202</v>
       </c>
       <c r="P7">
-        <v>25.4169888329724</v>
+        <v>22.5750980498003</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>268.862223323223</v>
+        <v>488.287938176264</v>
       </c>
       <c r="C8">
-        <v>14.2607981644653</v>
+        <v>12.4631381739163</v>
       </c>
       <c r="D8">
-        <v>9.06530787246497</v>
+        <v>8.811564416664121</v>
       </c>
       <c r="E8">
-        <v>15.9078590758414</v>
+        <v>14.2879416601446</v>
       </c>
       <c r="F8">
-        <v>1.4235629492502</v>
+        <v>1.36734702932569</v>
       </c>
       <c r="G8">
-        <v>43.2010467952248</v>
+        <v>38.2607275382415</v>
       </c>
       <c r="H8">
-        <v>14.8587345238028</v>
+        <v>14.1071039597718</v>
       </c>
       <c r="I8">
-        <v>1.30689062655976</v>
+        <v>1.16650412131884</v>
       </c>
       <c r="J8">
-        <v>63.6925252742728</v>
+        <v>56.4299928125452</v>
       </c>
       <c r="K8">
-        <v>38.3259581717014</v>
+        <v>32.3395141686095</v>
       </c>
       <c r="L8">
-        <v>57.5465871925048</v>
+        <v>51.2371339934863</v>
       </c>
       <c r="M8">
-        <v>84.95280243108709</v>
+        <v>73.5594199187701</v>
       </c>
       <c r="N8">
-        <v>29.296909390395</v>
+        <v>26.3065844508113</v>
       </c>
       <c r="O8">
-        <v>1705.05634241308</v>
+        <v>1527.21976338476</v>
       </c>
       <c r="P8">
-        <v>5.33771166170279</v>
+        <v>5.50840611873565</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>79.2898780860983</v>
+        <v>175.631691504702</v>
       </c>
       <c r="C9">
-        <v>13.1797939527929</v>
+        <v>11.0007593579419</v>
       </c>
       <c r="D9">
-        <v>3.31641155715984</v>
+        <v>2.45623896833385</v>
       </c>
       <c r="E9">
-        <v>6.97798258726234</v>
+        <v>5.91008185065943</v>
       </c>
       <c r="F9">
-        <v>3.32560256301678</v>
+        <v>2.87242354290475</v>
       </c>
       <c r="G9">
-        <v>36.4790028967148</v>
+        <v>30.5122344363262</v>
       </c>
       <c r="H9">
-        <v>3.63019584724054</v>
+        <v>3.07725054086467</v>
       </c>
       <c r="I9">
-        <v>1.8366689205043</v>
+        <v>1.58614202882476</v>
       </c>
       <c r="J9">
-        <v>5.0624885962535</v>
+        <v>4.32651610633436</v>
       </c>
       <c r="K9">
-        <v>5.73853094024899</v>
+        <v>4.53102911653185</v>
       </c>
       <c r="L9">
-        <v>6.55597262296349</v>
+        <v>5.61196646982926</v>
       </c>
       <c r="M9">
-        <v>12.2227511521819</v>
+        <v>10.2561583838155</v>
       </c>
       <c r="N9">
-        <v>8.707770783224371</v>
+        <v>7.48699049996643</v>
       </c>
       <c r="O9">
-        <v>554.331824490504</v>
+        <v>477.922367914537</v>
       </c>
       <c r="P9">
-        <v>11.5038884955236</v>
+        <v>9.10751385914727</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>1715.28251343687</v>
+        <v>3185.28378193082</v>
       </c>
       <c r="C10">
-        <v>61.968494623325</v>
+        <v>53.0137610657273</v>
       </c>
       <c r="D10">
-        <v>26.6548238443433</v>
+        <v>22.4902778866583</v>
       </c>
       <c r="E10">
-        <v>56.3170824897954</v>
+        <v>48.147126944145</v>
       </c>
       <c r="F10">
-        <v>12.6147200095123</v>
+        <v>10.9677194285154</v>
       </c>
       <c r="G10">
-        <v>29.5995392937747</v>
+        <v>27.8273494524172</v>
       </c>
       <c r="H10">
-        <v>21.4233353152181</v>
+        <v>19.0718155849944</v>
       </c>
       <c r="I10">
-        <v>39.9354432286394</v>
+        <v>35.4047556136198</v>
       </c>
       <c r="J10">
-        <v>67.3383586040481</v>
+        <v>57.365747630174</v>
       </c>
       <c r="K10">
-        <v>51.6679988531621</v>
+        <v>43.7562529072571</v>
       </c>
       <c r="L10">
-        <v>137.0358527164</v>
+        <v>116.209827472177</v>
       </c>
       <c r="M10">
-        <v>130.119821765306</v>
+        <v>110.750531075044</v>
       </c>
       <c r="N10">
-        <v>111.087356728836</v>
+        <v>94.9136204831438</v>
       </c>
       <c r="O10">
-        <v>9489.705406609541</v>
+        <v>8138.3382307091</v>
       </c>
       <c r="P10">
-        <v>77.48893925612811</v>
+        <v>69.5282834742174</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>753.102326292796</v>
+        <v>1496.1706581468</v>
       </c>
       <c r="C11">
-        <v>74.5265282542473</v>
+        <v>63.6834495217126</v>
       </c>
       <c r="D11">
-        <v>184.644588817658</v>
+        <v>155.841146892168</v>
       </c>
       <c r="E11">
-        <v>121.543121790264</v>
+        <v>100.299040488695</v>
       </c>
       <c r="F11">
-        <v>5.34556988751678</v>
+        <v>4.65515110594532</v>
       </c>
       <c r="G11">
-        <v>38.6638759191542</v>
+        <v>31.6343483511995</v>
       </c>
       <c r="H11">
-        <v>15.8973996444781</v>
+        <v>13.7616921225948</v>
       </c>
       <c r="I11">
-        <v>23.3782521854108</v>
+        <v>20.0046947736639</v>
       </c>
       <c r="J11">
-        <v>71.4369097355996</v>
+        <v>59.0807375187198</v>
       </c>
       <c r="K11">
-        <v>41.8141822805864</v>
+        <v>34.1778339188874</v>
       </c>
       <c r="L11">
-        <v>70.17917283443811</v>
+        <v>60.5680596959472</v>
       </c>
       <c r="M11">
-        <v>56.7022961066858</v>
+        <v>46.9524156834519</v>
       </c>
       <c r="N11">
-        <v>51.2682898438309</v>
+        <v>44.5091333532224</v>
       </c>
       <c r="O11">
-        <v>4156.74929255769</v>
+        <v>3540.51343084988</v>
       </c>
       <c r="P11">
-        <v>25.5132475883128</v>
+        <v>19.244770054883</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>131.537386539204</v>
+        <v>240.333567131062</v>
       </c>
       <c r="C12">
-        <v>10.9043273351889</v>
+        <v>9.297644553426201</v>
       </c>
       <c r="D12">
-        <v>4.77372678080668</v>
+        <v>4.22324829928887</v>
       </c>
       <c r="E12">
-        <v>1.1205906692158</v>
+        <v>1.16705790135688</v>
       </c>
       <c r="F12">
-        <v>0.783065401451667</v>
+        <v>0.69922090725526</v>
       </c>
       <c r="G12">
-        <v>0.6156678044848311</v>
+        <v>0.542927869737133</v>
       </c>
       <c r="H12">
-        <v>0.5098102504823721</v>
+        <v>0.44977594022109</v>
       </c>
       <c r="I12">
-        <v>2.24149527167807</v>
+        <v>1.98105082448578</v>
       </c>
       <c r="J12">
-        <v>1.49609972932412</v>
+        <v>1.31853926816481</v>
       </c>
       <c r="K12">
-        <v>0.434083107184555</v>
+        <v>0.277744812932751</v>
       </c>
       <c r="L12">
-        <v>0.618437420530257</v>
+        <v>0.543159524544471</v>
       </c>
       <c r="M12">
-        <v>4.6729098268629</v>
+        <v>4.17184203949065</v>
       </c>
       <c r="N12">
-        <v>5.2487010655267</v>
+        <v>4.82989563650857</v>
       </c>
       <c r="O12">
-        <v>841.708303397565</v>
+        <v>741.072457876605</v>
       </c>
       <c r="P12">
-        <v>25.7311624744256</v>
+        <v>22.0490289118913</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>129.469642731551</v>
+        <v>234.1672007424</v>
       </c>
       <c r="C13">
-        <v>33.6444990417596</v>
+        <v>29.5645754286128</v>
       </c>
       <c r="D13">
-        <v>1.92321676016682</v>
+        <v>1.69092393707699</v>
       </c>
       <c r="E13">
-        <v>17.9233440607915</v>
+        <v>16.131734344319</v>
       </c>
       <c r="F13">
-        <v>3.750050913438</v>
+        <v>3.3167599506034</v>
       </c>
       <c r="G13">
-        <v>7.45248533207698</v>
+        <v>6.61546248732871</v>
       </c>
       <c r="H13">
-        <v>2.82411073040197</v>
+        <v>2.32168030947192</v>
       </c>
       <c r="I13">
-        <v>1.11287010939816</v>
+        <v>0.983450209725251</v>
       </c>
       <c r="J13">
-        <v>7.97780628592263</v>
+        <v>7.05295605725633</v>
       </c>
       <c r="K13">
-        <v>4.92491608123021</v>
+        <v>4.33151893435694</v>
       </c>
       <c r="L13">
-        <v>32.535521233926</v>
+        <v>28.3638409645776</v>
       </c>
       <c r="M13">
-        <v>2.73897028089739</v>
+        <v>3.06588326147227</v>
       </c>
       <c r="N13">
-        <v>9.30932672086719</v>
+        <v>7.66735140411451</v>
       </c>
       <c r="O13">
-        <v>690.668896461936</v>
+        <v>607.312617032845</v>
       </c>
       <c r="P13">
-        <v>56.6264970636406</v>
+        <v>50.2690279176574</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1188.43942340232</v>
+        <v>1951.80284906533</v>
       </c>
       <c r="C14">
-        <v>120.559098803803</v>
+        <v>105.864752459905</v>
       </c>
       <c r="D14">
-        <v>15.0854295480995</v>
+        <v>13.4965564844921</v>
       </c>
       <c r="E14">
-        <v>68.9516760111587</v>
+        <v>62.5442681222581</v>
       </c>
       <c r="F14">
-        <v>17.964516409513</v>
+        <v>15.5850430299202</v>
       </c>
       <c r="G14">
-        <v>110.297726942054</v>
+        <v>97.4311691531797</v>
       </c>
       <c r="H14">
-        <v>68.03795078602781</v>
+        <v>58.8173143583752</v>
       </c>
       <c r="I14">
-        <v>28.7585171306457</v>
+        <v>25.7341263025012</v>
       </c>
       <c r="J14">
-        <v>151.955856706558</v>
+        <v>135.948445347213</v>
       </c>
       <c r="K14">
-        <v>207.918721654567</v>
+        <v>184.264167317843</v>
       </c>
       <c r="L14">
-        <v>157.079080795674</v>
+        <v>139.589759572588</v>
       </c>
       <c r="M14">
-        <v>90.03341603885239</v>
+        <v>79.0642927879555</v>
       </c>
       <c r="N14">
-        <v>95.6652055399866</v>
+        <v>87.3696400895</v>
       </c>
       <c r="O14">
-        <v>6056.12125613245</v>
+        <v>5423.06502482939</v>
       </c>
       <c r="P14">
-        <v>44.4785475805592</v>
+        <v>40.3330626599951</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>484.368002920995</v>
+        <v>944.62670150432</v>
       </c>
       <c r="C15">
-        <v>51.6202179214416</v>
+        <v>46.0006619574062</v>
       </c>
       <c r="D15">
-        <v>11.6915650873564</v>
+        <v>11.3174957191228</v>
       </c>
       <c r="E15">
-        <v>71.39230682445761</v>
+        <v>62.6856412221832</v>
       </c>
       <c r="F15">
-        <v>15.364115912813</v>
+        <v>13.5385916533748</v>
       </c>
       <c r="G15">
-        <v>55.252831280426</v>
+        <v>48.6675957226036</v>
       </c>
       <c r="H15">
-        <v>53.9663741298908</v>
+        <v>44.6794733238679</v>
       </c>
       <c r="I15">
-        <v>59.3013753392288</v>
+        <v>52.060954081851</v>
       </c>
       <c r="J15">
-        <v>237.76299370706</v>
+        <v>205.02386015468</v>
       </c>
       <c r="K15">
-        <v>81.2765343518672</v>
+        <v>67.2211614890312</v>
       </c>
       <c r="L15">
-        <v>59.2121665312299</v>
+        <v>50.9728410207411</v>
       </c>
       <c r="M15">
-        <v>176.496718104866</v>
+        <v>152.434023468648</v>
       </c>
       <c r="N15">
-        <v>111.680154104967</v>
+        <v>97.40390526015381</v>
       </c>
       <c r="O15">
-        <v>2757.86399096394</v>
+        <v>2431.00021513473</v>
       </c>
       <c r="P15">
-        <v>53.9213874933103</v>
+        <v>51.2189920764478</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>175.318004661725</v>
+        <v>371.76341734167</v>
       </c>
       <c r="C16">
-        <v>79.90910765768329</v>
+        <v>72.2079290592677</v>
       </c>
       <c r="D16">
-        <v>17.2654675192541</v>
+        <v>14.3864936883559</v>
       </c>
       <c r="E16">
-        <v>28.7355316888227</v>
+        <v>26.9775752743955</v>
       </c>
       <c r="F16">
-        <v>6.11199540379779</v>
+        <v>5.58584345441674</v>
       </c>
       <c r="G16">
-        <v>18.5970237546438</v>
+        <v>16.9254035683549</v>
       </c>
       <c r="H16">
-        <v>22.6405277346413</v>
+        <v>20.6172214380589</v>
       </c>
       <c r="I16">
-        <v>9.315030272871111</v>
+        <v>8.414133342611059</v>
       </c>
       <c r="J16">
-        <v>55.3550778498875</v>
+        <v>51.2697319958701</v>
       </c>
       <c r="K16">
-        <v>65.4914586985051</v>
+        <v>58.2908153743793</v>
       </c>
       <c r="L16">
-        <v>35.862445774854</v>
+        <v>32.5342758498479</v>
       </c>
       <c r="M16">
-        <v>19.4391541781548</v>
+        <v>17.5942722097996</v>
       </c>
       <c r="N16">
-        <v>35.0208849127548</v>
+        <v>31.254351047251</v>
       </c>
       <c r="O16">
-        <v>1513.56206171968</v>
+        <v>1375.29239568561</v>
       </c>
       <c r="P16">
-        <v>112.936106650191</v>
+        <v>90.99762732535569</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>210.727983944434</v>
+        <v>385.988854015912</v>
       </c>
       <c r="C17">
-        <v>25.8198367662708</v>
+        <v>23.2795683418187</v>
       </c>
       <c r="D17">
-        <v>8.40660643019919</v>
+        <v>8.142399356741899</v>
       </c>
       <c r="E17">
-        <v>16.8567410943641</v>
+        <v>15.1048744247886</v>
       </c>
       <c r="F17">
-        <v>14.8262035093041</v>
+        <v>12.8638780414607</v>
       </c>
       <c r="G17">
-        <v>16.2573664750602</v>
+        <v>14.7067818354242</v>
       </c>
       <c r="H17">
-        <v>8.803749478247591</v>
+        <v>7.88908437267206</v>
       </c>
       <c r="I17">
-        <v>9.158187248278489</v>
+        <v>8.23255805524108</v>
       </c>
       <c r="J17">
-        <v>20.9461645892951</v>
+        <v>17.6689719756963</v>
       </c>
       <c r="K17">
-        <v>22.5842102887629</v>
+        <v>20.3361997871806</v>
       </c>
       <c r="L17">
-        <v>15.1213452137031</v>
+        <v>13.6200471165673</v>
       </c>
       <c r="M17">
-        <v>94.5494713086039</v>
+        <v>85.4911561423836</v>
       </c>
       <c r="N17">
-        <v>14.3380618119612</v>
+        <v>12.7624683658555</v>
       </c>
       <c r="O17">
-        <v>1408.69373485878</v>
+        <v>1271.04432762031</v>
       </c>
       <c r="P17">
-        <v>61.0212354519116</v>
+        <v>50.3195406896782</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>446.94783916449</v>
+        <v>949.013708542824</v>
       </c>
       <c r="C18">
-        <v>40.3514699537421</v>
+        <v>33.0973712907523</v>
       </c>
       <c r="D18">
-        <v>12.4678699005018</v>
+        <v>10.7169721011891</v>
       </c>
       <c r="E18">
-        <v>39.0035615909385</v>
+        <v>30.095878136563</v>
       </c>
       <c r="F18">
-        <v>45.9009712071491</v>
+        <v>35.9611427064655</v>
       </c>
       <c r="G18">
-        <v>35.2132739614486</v>
+        <v>27.5205624396661</v>
       </c>
       <c r="H18">
-        <v>30.8970544091083</v>
+        <v>25.4022644565356</v>
       </c>
       <c r="I18">
-        <v>10.1004214335626</v>
+        <v>8.220023504000631</v>
       </c>
       <c r="J18">
-        <v>48.9146978125774</v>
+        <v>39.8991300429355</v>
       </c>
       <c r="K18">
-        <v>31.4523595749158</v>
+        <v>23.8130423972975</v>
       </c>
       <c r="L18">
-        <v>47.1941969495034</v>
+        <v>39.2639631837525</v>
       </c>
       <c r="M18">
-        <v>77.18218610405479</v>
+        <v>63.1042795519194</v>
       </c>
       <c r="N18">
-        <v>29.0680628024257</v>
+        <v>22.939151162132</v>
       </c>
       <c r="O18">
-        <v>2132.25239327951</v>
+        <v>1725.90559213253</v>
       </c>
       <c r="P18">
-        <v>59.0725314425721</v>
+        <v>52.7323309523114</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>527.826010754578</v>
+        <v>983.344411473451</v>
       </c>
       <c r="C19">
-        <v>27.5960714377238</v>
+        <v>23.772300759577</v>
       </c>
       <c r="D19">
-        <v>10.327443692128</v>
+        <v>8.59240421762804</v>
       </c>
       <c r="E19">
-        <v>26.9036556053117</v>
+        <v>22.4848407643484</v>
       </c>
       <c r="F19">
-        <v>89.7166015387762</v>
+        <v>75.1114023677447</v>
       </c>
       <c r="G19">
-        <v>44.664075986883</v>
+        <v>37.3582906935254</v>
       </c>
       <c r="H19">
-        <v>6.96710947858844</v>
+        <v>6.87768903573603</v>
       </c>
       <c r="I19">
-        <v>13.6637315945282</v>
+        <v>11.3656106708662</v>
       </c>
       <c r="J19">
-        <v>14.2843835931878</v>
+        <v>12.3438299515465</v>
       </c>
       <c r="K19">
-        <v>18.1471974283549</v>
+        <v>15.1623341568657</v>
       </c>
       <c r="L19">
-        <v>4.53502358538952</v>
+        <v>3.34732614543857</v>
       </c>
       <c r="M19">
-        <v>43.3690544958158</v>
+        <v>35.7655879289668</v>
       </c>
       <c r="N19">
-        <v>4.26733278338416</v>
+        <v>3.56097667641881</v>
       </c>
       <c r="O19">
-        <v>2240.05095199886</v>
+        <v>1840.64090608428</v>
       </c>
       <c r="P19">
-        <v>54.1685261600753</v>
+        <v>48.48333993543</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>122.103535513801</v>
+        <v>249.659236792639</v>
       </c>
       <c r="C20">
-        <v>10.8298476888736</v>
+        <v>9.061720092713211</v>
       </c>
       <c r="D20">
-        <v>14.0646850864245</v>
+        <v>11.9121897593302</v>
       </c>
       <c r="E20">
-        <v>40.9892065279789</v>
+        <v>33.2183976581286</v>
       </c>
       <c r="F20">
-        <v>0.312367304700923</v>
+        <v>0.267430232485581</v>
       </c>
       <c r="G20">
-        <v>0.936914934262565</v>
+        <v>0.8062995117523299</v>
       </c>
       <c r="H20">
-        <v>4.3180664311623</v>
+        <v>3.49419666900443</v>
       </c>
       <c r="I20">
-        <v>0.390975727472827</v>
+        <v>0.335447404013243</v>
       </c>
       <c r="J20">
-        <v>7.73807363343479</v>
+        <v>6.798929377202</v>
       </c>
       <c r="K20">
-        <v>4.9072932725207</v>
+        <v>4.49251274863746</v>
       </c>
       <c r="L20">
-        <v>10.2500999995614</v>
+        <v>8.352206850619661</v>
       </c>
       <c r="M20">
-        <v>29.171086553184</v>
+        <v>24.790288764791</v>
       </c>
       <c r="N20">
-        <v>7.03194540880838</v>
+        <v>5.74432585147474</v>
       </c>
       <c r="O20">
-        <v>732.460219995676</v>
+        <v>629.753468187246</v>
       </c>
       <c r="P20">
-        <v>22.9531573339469</v>
+        <v>19.8179275728802</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>374.726545440604</v>
+        <v>768.169726749416</v>
       </c>
       <c r="C21">
-        <v>22.1815125933164</v>
+        <v>18.9727913859158</v>
       </c>
       <c r="D21">
-        <v>7.30819483273497</v>
+        <v>6.41943313274048</v>
       </c>
       <c r="E21">
-        <v>24.1578370297954</v>
+        <v>20.5503345548653</v>
       </c>
       <c r="F21">
-        <v>1.95782574750655</v>
+        <v>1.74960755257494</v>
       </c>
       <c r="G21">
-        <v>22.3599023951333</v>
+        <v>19.6537780079729</v>
       </c>
       <c r="H21">
-        <v>11.977701223005</v>
+        <v>10.5163445506402</v>
       </c>
       <c r="I21">
-        <v>7.31933017892228</v>
+        <v>6.51813644639249</v>
       </c>
       <c r="J21">
-        <v>17.9316810396338</v>
+        <v>15.7516987627896</v>
       </c>
       <c r="K21">
-        <v>8.654442785880761</v>
+        <v>7.59400882722058</v>
       </c>
       <c r="L21">
-        <v>31.7846501668798</v>
+        <v>27.3992592441813</v>
       </c>
       <c r="M21">
-        <v>30.8176396445789</v>
+        <v>27.3215887548118</v>
       </c>
       <c r="N21">
-        <v>18.4707440890631</v>
+        <v>16.3397629890989</v>
       </c>
       <c r="O21">
-        <v>3039.56729015569</v>
+        <v>2677.56585290789</v>
       </c>
       <c r="P21">
-        <v>28.8502243352574</v>
+        <v>23.5713080029313</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>505.691593317577</v>
+        <v>940.228022196485</v>
       </c>
       <c r="C22">
-        <v>14.6605141335868</v>
+        <v>12.9776830752309</v>
       </c>
       <c r="D22">
-        <v>26.6620380406356</v>
+        <v>23.1071564818094</v>
       </c>
       <c r="E22">
-        <v>35.8889608781531</v>
+        <v>32.5032936619846</v>
       </c>
       <c r="F22">
-        <v>0.984522672680908</v>
+        <v>0.869672800580363</v>
       </c>
       <c r="G22">
-        <v>33.4462033547703</v>
+        <v>29.5018359517183</v>
       </c>
       <c r="H22">
-        <v>33.6725154930048</v>
+        <v>28.5101358641778</v>
       </c>
       <c r="I22">
-        <v>7.08548136347217</v>
+        <v>5.92715182102054</v>
       </c>
       <c r="J22">
-        <v>62.9839977781732</v>
+        <v>54.3487310616083</v>
       </c>
       <c r="K22">
-        <v>43.042385679388</v>
+        <v>37.2035902292352</v>
       </c>
       <c r="L22">
-        <v>130.805201369103</v>
+        <v>113.14990904442</v>
       </c>
       <c r="M22">
-        <v>29.9363137222807</v>
+        <v>27.3298079026306</v>
       </c>
       <c r="N22">
-        <v>94.29281806945001</v>
+        <v>82.8416913962116</v>
       </c>
       <c r="O22">
-        <v>3251.48638557366</v>
+        <v>2882.35478427495</v>
       </c>
       <c r="P22">
-        <v>15.7343962198114</v>
+        <v>14.0044380163696</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>967.6686957654021</v>
+        <v>1779.73775816213</v>
       </c>
       <c r="C23">
-        <v>56.0663420826909</v>
+        <v>51.5387842399201</v>
       </c>
       <c r="D23">
-        <v>14.9907017747318</v>
+        <v>13.0401544087845</v>
       </c>
       <c r="E23">
-        <v>46.5680554774807</v>
+        <v>40.8052433621523</v>
       </c>
       <c r="F23">
-        <v>0.389950366436559</v>
+        <v>0.250230403428705</v>
       </c>
       <c r="G23">
-        <v>89.91837731577699</v>
+        <v>78.28751884006449</v>
       </c>
       <c r="H23">
-        <v>82.2610896100305</v>
+        <v>71.6392819797917</v>
       </c>
       <c r="I23">
-        <v>39.7622474581418</v>
+        <v>33.6786254075648</v>
       </c>
       <c r="J23">
-        <v>179.534434935735</v>
+        <v>155.30491023602</v>
       </c>
       <c r="K23">
-        <v>145.336219466501</v>
+        <v>126.66901394268</v>
       </c>
       <c r="L23">
-        <v>57.0683363317547</v>
+        <v>49.3673921321269</v>
       </c>
       <c r="M23">
-        <v>739.69690913392</v>
+        <v>633.867838787534</v>
       </c>
       <c r="N23">
-        <v>112.181451920607</v>
+        <v>96.5619575783217</v>
       </c>
       <c r="O23">
-        <v>4370.2794379553</v>
+        <v>3778.59155971139</v>
       </c>
       <c r="P23">
-        <v>50.7173540834294</v>
+        <v>42.233766034775</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>304.309358616876</v>
+        <v>564.705915636756</v>
       </c>
       <c r="C24">
-        <v>54.815695676496</v>
+        <v>52.088583245939</v>
       </c>
       <c r="D24">
-        <v>13.6233322535944</v>
+        <v>12.5668691110822</v>
       </c>
       <c r="E24">
-        <v>53.9587618417645</v>
+        <v>48.6729101149284</v>
       </c>
       <c r="F24">
-        <v>21.5310627299453</v>
+        <v>19.9188202296872</v>
       </c>
       <c r="G24">
-        <v>25.944259323499</v>
+        <v>23.8015754713668</v>
       </c>
       <c r="H24">
-        <v>17.5765437843152</v>
+        <v>16.398380323524</v>
       </c>
       <c r="I24">
-        <v>12.4863203731396</v>
+        <v>11.571086742097</v>
       </c>
       <c r="J24">
-        <v>54.1158888929093</v>
+        <v>48.8820454368427</v>
       </c>
       <c r="K24">
-        <v>89.4806255862157</v>
+        <v>82.6166185501565</v>
       </c>
       <c r="L24">
-        <v>71.5417708176182</v>
+        <v>64.90756389232369</v>
       </c>
       <c r="M24">
-        <v>16.9843581364853</v>
+        <v>15.7512756079717</v>
       </c>
       <c r="N24">
-        <v>81.993117248038</v>
+        <v>74.50885138209711</v>
       </c>
       <c r="O24">
-        <v>2458.51815942255</v>
+        <v>2251.12779572101</v>
       </c>
       <c r="P24">
-        <v>103.488913924784</v>
+        <v>91.2915887211648</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>315.833912531609</v>
+        <v>642.062633879894</v>
       </c>
       <c r="C25">
-        <v>54.046001550628</v>
+        <v>45.2405125302141</v>
       </c>
       <c r="D25">
-        <v>20.9970084098171</v>
+        <v>15.3132272893829</v>
       </c>
       <c r="E25">
-        <v>51.338658131472</v>
+        <v>43.2542834687659</v>
       </c>
       <c r="F25">
-        <v>35.8567726059322</v>
+        <v>29.8324674102121</v>
       </c>
       <c r="G25">
-        <v>15.5074862640026</v>
+        <v>12.5298925873138</v>
       </c>
       <c r="H25">
-        <v>18.528828445557</v>
+        <v>14.3662236593059</v>
       </c>
       <c r="I25">
-        <v>5.48270476157032</v>
+        <v>4.54524979237855</v>
       </c>
       <c r="J25">
-        <v>23.9604839252978</v>
+        <v>18.2410656479173</v>
       </c>
       <c r="K25">
-        <v>23.841027904921</v>
+        <v>20.1896981809683</v>
       </c>
       <c r="L25">
-        <v>38.6680021936738</v>
+        <v>30.7779782696928</v>
       </c>
       <c r="M25">
-        <v>50.2318152247697</v>
+        <v>40.9458379789943</v>
       </c>
       <c r="N25">
-        <v>36.4939787919798</v>
+        <v>31.9685866316024</v>
       </c>
       <c r="O25">
-        <v>1382.00036721363</v>
+        <v>1135.22173663407</v>
       </c>
       <c r="P25">
-        <v>60.0921441124172</v>
+        <v>48.9176904535028</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>423.984318440135</v>
+        <v>846.9952036731</v>
       </c>
       <c r="C26">
-        <v>69.8451770079708</v>
+        <v>61.3743587172087</v>
       </c>
       <c r="D26">
-        <v>13.2237166993476</v>
+        <v>10.4368844121272</v>
       </c>
       <c r="E26">
-        <v>47.3652872424013</v>
+        <v>40.4202852421194</v>
       </c>
       <c r="F26">
-        <v>9.210202591695961</v>
+        <v>6.96469041719543</v>
       </c>
       <c r="G26">
-        <v>53.6188252834064</v>
+        <v>47.3003455636029</v>
       </c>
       <c r="H26">
-        <v>23.0923512350388</v>
+        <v>20.3089647679368</v>
       </c>
       <c r="I26">
-        <v>14.2706723532236</v>
+        <v>12.5787516355121</v>
       </c>
       <c r="J26">
-        <v>57.8838343812231</v>
+        <v>49.5722642057485</v>
       </c>
       <c r="K26">
-        <v>35.0844209125088</v>
+        <v>30.6515946261659</v>
       </c>
       <c r="L26">
-        <v>37.37899661527</v>
+        <v>32.62800287272</v>
       </c>
       <c r="M26">
-        <v>89.0542815597917</v>
+        <v>78.21474045446951</v>
       </c>
       <c r="N26">
-        <v>33.9896952052657</v>
+        <v>30.0025406772696</v>
       </c>
       <c r="O26">
-        <v>2895.320451803</v>
+        <v>2538.09505337529</v>
       </c>
       <c r="P26">
-        <v>53.0550447104177</v>
+        <v>51.3938492941455</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>87.2814612836244</v>
+        <v>193.126328571426</v>
       </c>
       <c r="C27">
-        <v>4.69645878523833</v>
+        <v>3.99406815914996</v>
       </c>
       <c r="D27">
-        <v>1.27654779120328</v>
+        <v>1.097166484815</v>
       </c>
       <c r="E27">
-        <v>18.0956338180103</v>
+        <v>15.6392438106095</v>
       </c>
       <c r="F27">
-        <v>9.79637135088189</v>
+        <v>7.96624957880603</v>
       </c>
       <c r="G27">
-        <v>0.634371045376387</v>
+        <v>0.8234019550367641</v>
       </c>
       <c r="H27">
-        <v>0.186695806246958</v>
+        <v>0.160145970283368</v>
       </c>
       <c r="I27">
-        <v>4.100860749816</v>
+        <v>3.53992687760542</v>
       </c>
       <c r="J27">
-        <v>5.26483003690318</v>
+        <v>4.30738131337993</v>
       </c>
       <c r="K27">
-        <v>2.68822444656783</v>
+        <v>2.56999613679137</v>
       </c>
       <c r="L27">
-        <v>3.09616739478738</v>
+        <v>2.66887070538376</v>
       </c>
       <c r="M27">
-        <v>1.66585842584096</v>
+        <v>1.38984635205334</v>
       </c>
       <c r="N27">
-        <v>6.78284076851686</v>
+        <v>5.77960818163364</v>
       </c>
       <c r="O27">
-        <v>584.377070266061</v>
+        <v>494.332903675482</v>
       </c>
       <c r="P27">
-        <v>57.0861828560379</v>
+        <v>50.1294455294474</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>100.038740535855</v>
+        <v>204.397921656793</v>
       </c>
       <c r="C28">
-        <v>37.5374112773062</v>
+        <v>34.0170253678898</v>
       </c>
       <c r="D28">
-        <v>2.21697484399163</v>
+        <v>2.02643178548162</v>
       </c>
       <c r="E28">
-        <v>8.69415834924215</v>
+        <v>7.73538436054431</v>
       </c>
       <c r="F28">
-        <v>3.34047469757736</v>
+        <v>3.47624381492811</v>
       </c>
       <c r="G28">
-        <v>9.634018904934131</v>
+        <v>8.62613695895986</v>
       </c>
       <c r="H28">
-        <v>9.639938277029319</v>
+        <v>8.80487632232949</v>
       </c>
       <c r="I28">
-        <v>5.27724213275231</v>
+        <v>4.04805003777529</v>
       </c>
       <c r="J28">
-        <v>20.6548775646286</v>
+        <v>18.6054919329029</v>
       </c>
       <c r="K28">
-        <v>19.6498212629889</v>
+        <v>17.9562543738166</v>
       </c>
       <c r="L28">
-        <v>14.3196301296849</v>
+        <v>12.4371143814502</v>
       </c>
       <c r="M28">
-        <v>9.40229452688472</v>
+        <v>8.61503751088946</v>
       </c>
       <c r="N28">
-        <v>11.9141430886562</v>
+        <v>10.9063957786494</v>
       </c>
       <c r="O28">
-        <v>955.280486662662</v>
+        <v>875.150793996045</v>
       </c>
       <c r="P28">
-        <v>96.8207917848797</v>
+        <v>86.65596650307489</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>209.830364573808</v>
+        <v>386.210100902769</v>
       </c>
       <c r="C29">
-        <v>3.85570589037229</v>
+        <v>3.39413998771599</v>
       </c>
       <c r="D29">
-        <v>5.54527218932089</v>
+        <v>4.84901838049768</v>
       </c>
       <c r="E29">
-        <v>5.4148360397446</v>
+        <v>4.76455685206713</v>
       </c>
       <c r="F29">
-        <v>20.9534755488061</v>
+        <v>17.9505133621872</v>
       </c>
       <c r="G29">
-        <v>3.79385170801477</v>
+        <v>3.32464476696742</v>
       </c>
       <c r="H29">
-        <v>3.44500453681169</v>
+        <v>3.01545523834398</v>
       </c>
       <c r="I29">
-        <v>7.46985687491428</v>
+        <v>6.53576495368</v>
       </c>
       <c r="J29">
-        <v>5.04776404489459</v>
+        <v>4.42869420969006</v>
       </c>
       <c r="K29">
-        <v>2.93906694385239</v>
+        <v>2.64528768642964</v>
       </c>
       <c r="L29">
-        <v>2.66269404428339</v>
+        <v>2.21637098197532</v>
       </c>
       <c r="M29">
-        <v>3.32956634106305</v>
+        <v>2.94423292193742</v>
       </c>
       <c r="N29">
-        <v>12.6963299165949</v>
+        <v>11.3235137949532</v>
       </c>
       <c r="O29">
-        <v>1321.99942234466</v>
+        <v>1155.59631964241</v>
       </c>
       <c r="P29">
-        <v>5.24197964266813</v>
+        <v>5.38587697516278</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>95.12303637616419</v>
+        <v>183.002441024554</v>
       </c>
       <c r="C30">
-        <v>4.89509622243589</v>
+        <v>4.31491574053732</v>
       </c>
       <c r="D30">
-        <v>6.67165581537421</v>
+        <v>6.32246967411254</v>
       </c>
       <c r="E30">
-        <v>9.84837845171624</v>
+        <v>9.17328094623684</v>
       </c>
       <c r="F30">
-        <v>0.454410281196487</v>
+        <v>0.405968285593323</v>
       </c>
       <c r="G30">
-        <v>6.77719373973348</v>
+        <v>6.25197673544667</v>
       </c>
       <c r="H30">
-        <v>10.1757667533828</v>
+        <v>8.89001552383435</v>
       </c>
       <c r="I30">
-        <v>3.09829087810734</v>
+        <v>2.76579314548447</v>
       </c>
       <c r="J30">
-        <v>21.0307851726861</v>
+        <v>18.4723186385681</v>
       </c>
       <c r="K30">
-        <v>18.3985354292414</v>
+        <v>16.583576958529</v>
       </c>
       <c r="L30">
-        <v>55.0730848560155</v>
+        <v>49.9236515234372</v>
       </c>
       <c r="M30">
-        <v>13.3249548278875</v>
+        <v>11.9910682803266</v>
       </c>
       <c r="N30">
-        <v>15.0100877455286</v>
+        <v>13.2280851505747</v>
       </c>
       <c r="O30">
-        <v>724.198335221246</v>
+        <v>652.017911734929</v>
       </c>
       <c r="P30">
-        <v>6.44586162512223</v>
+        <v>6.39005142316133</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>874.04551951587</v>
+        <v>1446.70858320368</v>
       </c>
       <c r="C31">
-        <v>48.635286311387</v>
+        <v>43.8791937127453</v>
       </c>
       <c r="D31">
-        <v>34.1260906472697</v>
+        <v>30.9449178471575</v>
       </c>
       <c r="E31">
-        <v>28.4307494870981</v>
+        <v>26.0204844173732</v>
       </c>
       <c r="F31">
-        <v>13.2500571130371</v>
+        <v>11.6715760938095</v>
       </c>
       <c r="G31">
-        <v>165.775210341061</v>
+        <v>142.062033695112</v>
       </c>
       <c r="H31">
-        <v>26.8351590955464</v>
+        <v>20.8777391182434</v>
       </c>
       <c r="I31">
-        <v>32.949161325021</v>
+        <v>26.1791475713167</v>
       </c>
       <c r="J31">
-        <v>44.3036407135199</v>
+        <v>36.7203503116519</v>
       </c>
       <c r="K31">
-        <v>33.3199221677606</v>
+        <v>29.6073290918081</v>
       </c>
       <c r="L31">
-        <v>89.13720194429391</v>
+        <v>78.9006286493359</v>
       </c>
       <c r="M31">
-        <v>20.6731668969572</v>
+        <v>18.2712041677845</v>
       </c>
       <c r="N31">
-        <v>70.8446540177833</v>
+        <v>63.3365338969068</v>
       </c>
       <c r="O31">
-        <v>4322.191516466131</v>
+        <v>3826.94864191799</v>
       </c>
       <c r="P31">
-        <v>9.97121575753777</v>
+        <v>10.4987593224297</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>213.637008819267</v>
+        <v>383.96504300935</v>
       </c>
       <c r="C32">
-        <v>7.39458538707512</v>
+        <v>7.07771402040115</v>
       </c>
       <c r="D32">
-        <v>3.55676183725119</v>
+        <v>3.21241511992783</v>
       </c>
       <c r="E32">
-        <v>4.35453518746319</v>
+        <v>4.1531440782136</v>
       </c>
       <c r="F32">
-        <v>41.0759124472713</v>
+        <v>34.0169264991777</v>
       </c>
       <c r="G32">
-        <v>0.808923070983497</v>
+        <v>0.685828115328624</v>
       </c>
       <c r="H32">
-        <v>0.404076780201883</v>
+        <v>0.338540055043477</v>
       </c>
       <c r="I32">
-        <v>6.43575808757393</v>
+        <v>5.47477072487681</v>
       </c>
       <c r="J32">
-        <v>8.91286803646717</v>
+        <v>6.99261948983497</v>
       </c>
       <c r="K32">
-        <v>6.31687277452709</v>
+        <v>5.35918348342294</v>
       </c>
       <c r="L32">
-        <v>15.3379500133045</v>
+        <v>13.4404302440988</v>
       </c>
       <c r="M32">
-        <v>3.92088393090925</v>
+        <v>3.31558130941117</v>
       </c>
       <c r="N32">
-        <v>8.74632342765095</v>
+        <v>7.90503614783134</v>
       </c>
       <c r="O32">
-        <v>989.445930131414</v>
+        <v>841.7671039561679</v>
       </c>
       <c r="P32">
-        <v>31.5137465088884</v>
+        <v>25.1624335131423</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>2137.70602614288</v>
+        <v>3741.4843304688</v>
       </c>
       <c r="C33">
-        <v>92.71933399999131</v>
+        <v>77.3787799261922</v>
       </c>
       <c r="D33">
-        <v>88.36586543266441</v>
+        <v>77.15626088765519</v>
       </c>
       <c r="E33">
-        <v>65.44086856436741</v>
+        <v>55.2229022465695</v>
       </c>
       <c r="F33">
-        <v>7.22933728870551</v>
+        <v>6.18607429502094</v>
       </c>
       <c r="G33">
-        <v>68.8266881115262</v>
+        <v>59.1404641257368</v>
       </c>
       <c r="H33">
-        <v>53.1304110382162</v>
+        <v>44.1459935980348</v>
       </c>
       <c r="I33">
-        <v>32.8924957705107</v>
+        <v>25.4293723856816</v>
       </c>
       <c r="J33">
-        <v>119.51375563692</v>
+        <v>98.0803321581341</v>
       </c>
       <c r="K33">
-        <v>122.014795044894</v>
+        <v>104.467708303803</v>
       </c>
       <c r="L33">
-        <v>169.776844038617</v>
+        <v>140.301912345349</v>
       </c>
       <c r="M33">
-        <v>103.071903639783</v>
+        <v>86.5033293817652</v>
       </c>
       <c r="N33">
-        <v>207.020743507793</v>
+        <v>174.570195971144</v>
       </c>
       <c r="O33">
-        <v>9487.169549716489</v>
+        <v>8077.24692351535</v>
       </c>
       <c r="P33">
-        <v>61.1666407753627</v>
+        <v>52.3736524477192</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>737.334805058151</v>
+        <v>1468.32986165767</v>
       </c>
       <c r="C34">
-        <v>103.616468090399</v>
+        <v>86.539479039019</v>
       </c>
       <c r="D34">
-        <v>237.696278641124</v>
+        <v>199.709421362895</v>
       </c>
       <c r="E34">
-        <v>66.807855653546</v>
+        <v>57.3744145483027</v>
       </c>
       <c r="F34">
-        <v>6.21565473879571</v>
+        <v>5.30087981836888</v>
       </c>
       <c r="G34">
-        <v>87.0391226157076</v>
+        <v>72.7778747999883</v>
       </c>
       <c r="H34">
-        <v>62.8615753229716</v>
+        <v>54.1216572168218</v>
       </c>
       <c r="I34">
-        <v>30.0672769766466</v>
+        <v>25.7104869013616</v>
       </c>
       <c r="J34">
-        <v>55.9949248469857</v>
+        <v>46.4751906531858</v>
       </c>
       <c r="K34">
-        <v>82.1901159672649</v>
+        <v>69.23622485593999</v>
       </c>
       <c r="L34">
-        <v>136.365560036383</v>
+        <v>115.214348000049</v>
       </c>
       <c r="M34">
-        <v>54.4396147218098</v>
+        <v>47.8648330881974</v>
       </c>
       <c r="N34">
-        <v>163.920302927259</v>
+        <v>138.053529007283</v>
       </c>
       <c r="O34">
-        <v>3808.21448712226</v>
+        <v>3263.12168159549</v>
       </c>
       <c r="P34">
-        <v>88.6630174606122</v>
+        <v>69.87111180933179</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>44.9581852362448</v>
+        <v>94.6098497792652</v>
       </c>
       <c r="C35">
-        <v>9.702030958781579</v>
+        <v>8.836431479597019</v>
       </c>
       <c r="D35">
-        <v>0.734477080308793</v>
+        <v>0.664088241191072</v>
       </c>
       <c r="E35">
-        <v>4.23205157305604</v>
+        <v>3.7902049478465</v>
       </c>
       <c r="F35">
-        <v>6.77043093199809</v>
+        <v>6.15114886638344</v>
       </c>
       <c r="G35">
-        <v>0.205039900108362</v>
+        <v>0.185225672850392</v>
       </c>
       <c r="H35">
-        <v>0.740670408551477</v>
+        <v>0.66868835935798</v>
       </c>
       <c r="I35">
-        <v>0.955812025342077</v>
+        <v>0.886561208495144</v>
       </c>
       <c r="J35">
-        <v>3.09235027442357</v>
+        <v>2.77966981723314</v>
       </c>
       <c r="K35">
-        <v>8.139221208822249</v>
+        <v>7.3519665093732</v>
       </c>
       <c r="L35">
-        <v>3.67124821665374</v>
+        <v>3.34601872142223</v>
       </c>
       <c r="M35">
-        <v>3.18821010513925</v>
+        <v>2.88048516160881</v>
       </c>
       <c r="N35">
-        <v>3.49146168999871</v>
+        <v>3.1869836073841</v>
       </c>
       <c r="O35">
-        <v>402.622980606183</v>
+        <v>362.981730435633</v>
       </c>
       <c r="P35">
-        <v>54.194475992394</v>
+        <v>48.0493320074218</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1023.68706824228</v>
+        <v>1955.48963113397</v>
       </c>
       <c r="C36">
-        <v>83.43484947283351</v>
+        <v>69.38635676134081</v>
       </c>
       <c r="D36">
-        <v>17.8726680944273</v>
+        <v>14.702676829009</v>
       </c>
       <c r="E36">
-        <v>87.35172784068369</v>
+        <v>74.132566681225</v>
       </c>
       <c r="F36">
-        <v>46.9827483167075</v>
+        <v>42.1350554979844</v>
       </c>
       <c r="G36">
-        <v>123.499396103224</v>
+        <v>101.778921530757</v>
       </c>
       <c r="H36">
-        <v>135.625696498833</v>
+        <v>112.474088005808</v>
       </c>
       <c r="I36">
-        <v>56.5440720227388</v>
+        <v>48.3357803439415</v>
       </c>
       <c r="J36">
-        <v>258.647539739937</v>
+        <v>220.554464674576</v>
       </c>
       <c r="K36">
-        <v>149.672136076418</v>
+        <v>125.396029816985</v>
       </c>
       <c r="L36">
-        <v>120.694596595677</v>
+        <v>102.490013438682</v>
       </c>
       <c r="M36">
-        <v>266.770936980601</v>
+        <v>222.241027837943</v>
       </c>
       <c r="N36">
-        <v>100.014467276259</v>
+        <v>87.36406593552501</v>
       </c>
       <c r="O36">
-        <v>5414.61536523928</v>
+        <v>4708.25047500759</v>
       </c>
       <c r="P36">
-        <v>38.566351751665</v>
+        <v>37.6655671774994</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>306.864113528253</v>
+        <v>650.088534806661</v>
       </c>
       <c r="C37">
-        <v>27.4358702003131</v>
+        <v>23.9321498693003</v>
       </c>
       <c r="D37">
-        <v>7.8612189840632</v>
+        <v>6.02187132748671</v>
       </c>
       <c r="E37">
-        <v>15.4403617606313</v>
+        <v>12.9539541979349</v>
       </c>
       <c r="F37">
-        <v>49.8011348131506</v>
+        <v>41.8960846117918</v>
       </c>
       <c r="G37">
-        <v>8.346339843044341</v>
+        <v>6.95784799573817</v>
       </c>
       <c r="H37">
-        <v>26.3811943129162</v>
+        <v>22.6108254465476</v>
       </c>
       <c r="I37">
-        <v>14.7080808076242</v>
+        <v>12.3483059383405</v>
       </c>
       <c r="J37">
-        <v>36.6185617088687</v>
+        <v>28.2003535369048</v>
       </c>
       <c r="K37">
-        <v>54.6768121154544</v>
+        <v>44.1208269780511</v>
       </c>
       <c r="L37">
-        <v>30.0212387134892</v>
+        <v>25.741483420485</v>
       </c>
       <c r="M37">
-        <v>35.5944186712891</v>
+        <v>28.1053329408589</v>
       </c>
       <c r="N37">
-        <v>21.3465713148594</v>
+        <v>16.422319360038</v>
       </c>
       <c r="O37">
-        <v>1666.75934955779</v>
+        <v>1387.88981852691</v>
       </c>
       <c r="P37">
-        <v>55.6019454835258</v>
+        <v>51.0159909066193</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>370.82240203622</v>
+        <v>639.0964317511761</v>
       </c>
       <c r="C38">
-        <v>31.0618158248865</v>
+        <v>26.4582541737479</v>
       </c>
       <c r="D38">
-        <v>19.2039944693403</v>
+        <v>16.8379177176226</v>
       </c>
       <c r="E38">
-        <v>51.3838385386247</v>
+        <v>44.9722141741138</v>
       </c>
       <c r="F38">
-        <v>2.88663682469582</v>
+        <v>2.57281964295318</v>
       </c>
       <c r="G38">
-        <v>7.08048199620742</v>
+        <v>6.20920587944886</v>
       </c>
       <c r="H38">
-        <v>8.593782758296641</v>
+        <v>7.48220410354667</v>
       </c>
       <c r="I38">
-        <v>3.23119510944745</v>
+        <v>2.82746878838883</v>
       </c>
       <c r="J38">
-        <v>44.9289250894466</v>
+        <v>38.8403157179966</v>
       </c>
       <c r="K38">
-        <v>20.0580177515767</v>
+        <v>17.2231587802527</v>
       </c>
       <c r="L38">
-        <v>96.87143738179221</v>
+        <v>84.17523621789771</v>
       </c>
       <c r="M38">
-        <v>26.8921051246051</v>
+        <v>22.734566380268</v>
       </c>
       <c r="N38">
-        <v>28.2653546643869</v>
+        <v>24.1335293978567</v>
       </c>
       <c r="O38">
-        <v>1702.94490391476</v>
+        <v>1492.63299050546</v>
       </c>
       <c r="P38">
-        <v>76.0492187890744</v>
+        <v>64.289076693864</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>1142.8672896437</v>
+        <v>2132.07783080638</v>
       </c>
       <c r="C39">
-        <v>139.764736002667</v>
+        <v>122.904167197227</v>
       </c>
       <c r="D39">
-        <v>73.9195812500638</v>
+        <v>57.9273353043694</v>
       </c>
       <c r="E39">
-        <v>94.18790612385691</v>
+        <v>81.6571260577623</v>
       </c>
       <c r="F39">
-        <v>27.8676216344892</v>
+        <v>24.5233344525078</v>
       </c>
       <c r="G39">
-        <v>150.364711067819</v>
+        <v>130.245909050553</v>
       </c>
       <c r="H39">
-        <v>51.6826413643613</v>
+        <v>46.1537799213755</v>
       </c>
       <c r="I39">
-        <v>62.7227282845182</v>
+        <v>56.1123362480651</v>
       </c>
       <c r="J39">
-        <v>187.358692702829</v>
+        <v>163.517977618327</v>
       </c>
       <c r="K39">
-        <v>140.946211974824</v>
+        <v>123.627145466539</v>
       </c>
       <c r="L39">
-        <v>142.620333257984</v>
+        <v>116.250667212855</v>
       </c>
       <c r="M39">
-        <v>89.0661458243041</v>
+        <v>76.4240807541613</v>
       </c>
       <c r="N39">
-        <v>134.431908994646</v>
+        <v>117.86941245317</v>
       </c>
       <c r="O39">
-        <v>6163.56987495642</v>
+        <v>5362.3849590949</v>
       </c>
       <c r="P39">
-        <v>61.3094761270244</v>
+        <v>50.2883819354604</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>97.5950005485908</v>
+        <v>200.303564868447</v>
       </c>
       <c r="C40">
-        <v>5.04217717568882</v>
+        <v>3.96755185489558</v>
       </c>
       <c r="D40">
-        <v>13.1319284309522</v>
+        <v>11.4483915313697</v>
       </c>
       <c r="E40">
-        <v>6.16515706039816</v>
+        <v>5.1745657997802</v>
       </c>
       <c r="F40">
-        <v>0.609710315590603</v>
+        <v>0.528270447843575</v>
       </c>
       <c r="G40">
-        <v>8.706527473859451</v>
+        <v>7.56756523600556</v>
       </c>
       <c r="H40">
-        <v>10.5412883725097</v>
+        <v>8.87293884557864</v>
       </c>
       <c r="I40">
-        <v>2.82835087016854</v>
+        <v>2.43878365021799</v>
       </c>
       <c r="J40">
-        <v>18.2787666848977</v>
+        <v>15.6673579578852</v>
       </c>
       <c r="K40">
-        <v>9.753494997937009</v>
+        <v>8.730463563960109</v>
       </c>
       <c r="L40">
-        <v>16.9900786339457</v>
+        <v>14.7502518959621</v>
       </c>
       <c r="M40">
-        <v>9.43722659470528</v>
+        <v>8.01742453819633</v>
       </c>
       <c r="N40">
-        <v>38.7388777749032</v>
+        <v>33.8781166331196</v>
       </c>
       <c r="O40">
-        <v>632.301208536657</v>
+        <v>549.044797182409</v>
       </c>
       <c r="P40">
-        <v>1.72244033902285</v>
+        <v>1.49119426080205</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>360.157585450941</v>
+        <v>792.682189128064</v>
       </c>
       <c r="C41">
-        <v>13.5744069229933</v>
+        <v>11.5178589963076</v>
       </c>
       <c r="D41">
-        <v>114.328689348103</v>
+        <v>94.8425084124134</v>
       </c>
       <c r="E41">
-        <v>55.0520373416448</v>
+        <v>44.6074583325893</v>
       </c>
       <c r="F41">
-        <v>3.49609085810521</v>
+        <v>2.84709888122195</v>
       </c>
       <c r="G41">
-        <v>64.2126495254921</v>
+        <v>49.5115757082793</v>
       </c>
       <c r="H41">
-        <v>54.0678521569912</v>
+        <v>44.780679631592</v>
       </c>
       <c r="I41">
-        <v>10.1283677839462</v>
+        <v>8.17498806535148</v>
       </c>
       <c r="J41">
-        <v>80.9948929723887</v>
+        <v>67.3276014943131</v>
       </c>
       <c r="K41">
-        <v>46.9972804404192</v>
+        <v>39.6909291605073</v>
       </c>
       <c r="L41">
-        <v>35.6575980950298</v>
+        <v>29.5009526303408</v>
       </c>
       <c r="M41">
-        <v>54.7595075445488</v>
+        <v>45.364625864169</v>
       </c>
       <c r="N41">
-        <v>31.6120234928029</v>
+        <v>25.0178695045316</v>
       </c>
       <c r="O41">
-        <v>1903.93926048071</v>
+        <v>1576.13980086053</v>
       </c>
       <c r="P41">
-        <v>20.8262095115983</v>
+        <v>17.988544473744</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>50.1419183006197</v>
+        <v>107.263322982478</v>
       </c>
       <c r="C42">
-        <v>11.3146618225625</v>
+        <v>10.4158390244748</v>
       </c>
       <c r="D42">
-        <v>0.980409609479194</v>
+        <v>0.880712837266004</v>
       </c>
       <c r="E42">
-        <v>10.961284642017</v>
+        <v>10.2483917082384</v>
       </c>
       <c r="F42">
-        <v>3.37823866063182</v>
+        <v>3.07878687815394</v>
       </c>
       <c r="G42">
-        <v>1.11264541738116</v>
+        <v>0.92477453362991</v>
       </c>
       <c r="H42">
-        <v>2.2424837335923</v>
+        <v>2.04140393902518</v>
       </c>
       <c r="I42">
-        <v>2.09204575898745</v>
+        <v>1.97275994595594</v>
       </c>
       <c r="J42">
-        <v>6.91329986411016</v>
+        <v>6.04991841253084</v>
       </c>
       <c r="K42">
-        <v>9.594069559536759</v>
+        <v>8.215155000553491</v>
       </c>
       <c r="L42">
-        <v>11.1494790331721</v>
+        <v>9.872087862546801</v>
       </c>
       <c r="M42">
-        <v>4.73148592817519</v>
+        <v>4.38476814528675</v>
       </c>
       <c r="N42">
-        <v>9.870148504207061</v>
+        <v>8.81846428791941</v>
       </c>
       <c r="O42">
-        <v>520.101717107132</v>
+        <v>474.08891337938</v>
       </c>
       <c r="P42">
-        <v>58.8927218301475</v>
+        <v>54.481067365327</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>618.895117024702</v>
+        <v>1206.99897126129</v>
       </c>
       <c r="C43">
-        <v>49.31697352693</v>
+        <v>39.8577706926881</v>
       </c>
       <c r="D43">
-        <v>42.146988264969</v>
+        <v>34.1985413059491</v>
       </c>
       <c r="E43">
-        <v>52.391262420692</v>
+        <v>43.314792868268</v>
       </c>
       <c r="F43">
-        <v>9.62297010502683</v>
+        <v>8.00635709398308</v>
       </c>
       <c r="G43">
-        <v>41.0127662541375</v>
+        <v>32.9626798227457</v>
       </c>
       <c r="H43">
-        <v>28.9702174857833</v>
+        <v>24.2158829389027</v>
       </c>
       <c r="I43">
-        <v>33.8534068788395</v>
+        <v>28.2945964417739</v>
       </c>
       <c r="J43">
-        <v>58.4507643866141</v>
+        <v>48.371688697521</v>
       </c>
       <c r="K43">
-        <v>79.08905325855039</v>
+        <v>66.073329150867</v>
       </c>
       <c r="L43">
-        <v>55.808317346081</v>
+        <v>45.4739949115222</v>
       </c>
       <c r="M43">
-        <v>104.104181015065</v>
+        <v>86.776537222328</v>
       </c>
       <c r="N43">
-        <v>76.3738816384811</v>
+        <v>65.1106862104832</v>
       </c>
       <c r="O43">
-        <v>2765.48888706556</v>
+        <v>2305.02728458084</v>
       </c>
       <c r="P43">
-        <v>64.0142889913342</v>
+        <v>46.6133818779825</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>2248.64171638621</v>
+        <v>3572.72993002423</v>
       </c>
       <c r="C44">
-        <v>181.042273920453</v>
+        <v>161.115911117075</v>
       </c>
       <c r="D44">
-        <v>63.9748595229001</v>
+        <v>55.7678648345588</v>
       </c>
       <c r="E44">
-        <v>84.5107824255563</v>
+        <v>74.9330545174742</v>
       </c>
       <c r="F44">
-        <v>294.756376292407</v>
+        <v>261.816559447169</v>
       </c>
       <c r="G44">
-        <v>165.969388175323</v>
+        <v>144.76156431332</v>
       </c>
       <c r="H44">
-        <v>53.4505856844912</v>
+        <v>46.3493009502354</v>
       </c>
       <c r="I44">
-        <v>63.2871615173779</v>
+        <v>54.6909090468616</v>
       </c>
       <c r="J44">
-        <v>135.115547696068</v>
+        <v>119.461177283078</v>
       </c>
       <c r="K44">
-        <v>124.169225127117</v>
+        <v>110.542807901937</v>
       </c>
       <c r="L44">
-        <v>244.840438177969</v>
+        <v>216.050059924855</v>
       </c>
       <c r="M44">
-        <v>130.508511644215</v>
+        <v>114.806390440365</v>
       </c>
       <c r="N44">
-        <v>93.3010851118423</v>
+        <v>86.221568522536</v>
       </c>
       <c r="O44">
-        <v>9679.16218162503</v>
+        <v>8572.71979601639</v>
       </c>
       <c r="P44">
-        <v>262.177481402935</v>
+        <v>231.834906349836</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>253.757615266956</v>
+        <v>372.013613068661</v>
       </c>
       <c r="C45">
-        <v>20.975286776155</v>
+        <v>19.1370179258954</v>
       </c>
       <c r="D45">
-        <v>5.26288578183713</v>
+        <v>4.76848587553661</v>
       </c>
       <c r="E45">
-        <v>9.128759552161331</v>
+        <v>9.18432598597917</v>
       </c>
       <c r="F45">
-        <v>28.3664465727707</v>
+        <v>24.9283925673665</v>
       </c>
       <c r="G45">
-        <v>14.0214060406571</v>
+        <v>12.6927771175311</v>
       </c>
       <c r="H45">
-        <v>4.41394327621469</v>
+        <v>4.00645066819787</v>
       </c>
       <c r="I45">
-        <v>4.85993710270017</v>
+        <v>4.38090629206508</v>
       </c>
       <c r="J45">
-        <v>16.9119394481736</v>
+        <v>15.3277413730409</v>
       </c>
       <c r="K45">
-        <v>9.350520000803011</v>
+        <v>8.48106380253391</v>
       </c>
       <c r="L45">
-        <v>20.0870690166217</v>
+        <v>18.5001902131103</v>
       </c>
       <c r="M45">
-        <v>25.5575947991339</v>
+        <v>22.2564634442608</v>
       </c>
       <c r="N45">
-        <v>27.7923470024708</v>
+        <v>24.9078323230546</v>
       </c>
       <c r="O45">
-        <v>1037.26356259408</v>
+        <v>938.492811612936</v>
       </c>
       <c r="P45">
-        <v>14.7897566553211</v>
+        <v>12.9953449076333</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>48.6294794112891</v>
+        <v>104.782567948511</v>
       </c>
       <c r="C46">
-        <v>7.26171027010181</v>
+        <v>6.558703972897</v>
       </c>
       <c r="D46">
-        <v>2.01019918628643</v>
+        <v>1.95073870231717</v>
       </c>
       <c r="E46">
-        <v>7.39640784656342</v>
+        <v>6.64538748580825</v>
       </c>
       <c r="F46">
-        <v>1.90551472379413</v>
+        <v>1.73494435515161</v>
       </c>
       <c r="G46">
-        <v>3.51242847542281</v>
+        <v>3.1609094509527</v>
       </c>
       <c r="H46">
-        <v>4.6439925459124</v>
+        <v>4.13882271691576</v>
       </c>
       <c r="I46">
-        <v>2.31372079970984</v>
+        <v>1.93953263503411</v>
       </c>
       <c r="J46">
-        <v>6.71820146124364</v>
+        <v>6.0991872369592</v>
       </c>
       <c r="K46">
-        <v>5.34484670118314</v>
+        <v>4.33701663126823</v>
       </c>
       <c r="L46">
-        <v>21.0323128333763</v>
+        <v>18.1351729187356</v>
       </c>
       <c r="M46">
-        <v>6.88990008105562</v>
+        <v>5.79892290201161</v>
       </c>
       <c r="N46">
-        <v>9.79095327013856</v>
+        <v>8.74419085951339</v>
       </c>
       <c r="O46">
-        <v>429.389737210444</v>
+        <v>383.678445946846</v>
       </c>
       <c r="P46">
-        <v>13.3357201459826</v>
+        <v>12.0042583939741</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>606.321388168868</v>
+        <v>1151.32506257895</v>
       </c>
       <c r="C47">
-        <v>67.1038922215896</v>
+        <v>57.0139964811671</v>
       </c>
       <c r="D47">
-        <v>39.3997863331752</v>
+        <v>34.0911435206488</v>
       </c>
       <c r="E47">
-        <v>42.4319891950628</v>
+        <v>37.1537120042159</v>
       </c>
       <c r="F47">
-        <v>10.0810767990672</v>
+        <v>8.07711821143837</v>
       </c>
       <c r="G47">
-        <v>28.6181041077242</v>
+        <v>21.9769800159677</v>
       </c>
       <c r="H47">
-        <v>21.4597382669746</v>
+        <v>19.0587704931307</v>
       </c>
       <c r="I47">
-        <v>13.4159522455692</v>
+        <v>11.6401236055415</v>
       </c>
       <c r="J47">
-        <v>60.5789772930482</v>
+        <v>50.6765125777759</v>
       </c>
       <c r="K47">
-        <v>22.200313877797</v>
+        <v>17.6856494826032</v>
       </c>
       <c r="L47">
-        <v>61.2932220002794</v>
+        <v>51.9030442310379</v>
       </c>
       <c r="M47">
-        <v>79.7101470379326</v>
+        <v>72.06128522568321</v>
       </c>
       <c r="N47">
-        <v>37.7896216168053</v>
+        <v>32.7727234713858</v>
       </c>
       <c r="O47">
-        <v>3725.20392267017</v>
+        <v>3254.83030281536</v>
       </c>
       <c r="P47">
-        <v>44.5330118411577</v>
+        <v>39.5410914531742</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>632.434127742526</v>
+        <v>1082.07163652528</v>
       </c>
       <c r="C48">
-        <v>21.2135581250491</v>
+        <v>19.2969291859232</v>
       </c>
       <c r="D48">
-        <v>10.2743161464945</v>
+        <v>7.17406979309633</v>
       </c>
       <c r="E48">
-        <v>76.5995840531733</v>
+        <v>68.9600595113839</v>
       </c>
       <c r="F48">
-        <v>14.9062610319227</v>
+        <v>13.1360423420023</v>
       </c>
       <c r="G48">
-        <v>5.97074736917826</v>
+        <v>5.2377293796698</v>
       </c>
       <c r="H48">
-        <v>4.89119702433565</v>
+        <v>4.29161268173645</v>
       </c>
       <c r="I48">
-        <v>15.4760110139227</v>
+        <v>14.4350542613568</v>
       </c>
       <c r="J48">
-        <v>35.0749642254701</v>
+        <v>30.886251989165</v>
       </c>
       <c r="K48">
-        <v>24.2730180212383</v>
+        <v>22.3630546081429</v>
       </c>
       <c r="L48">
-        <v>45.7621164104434</v>
+        <v>39.497383234553</v>
       </c>
       <c r="M48">
-        <v>175.421272728764</v>
+        <v>156.523944001072</v>
       </c>
       <c r="N48">
-        <v>31.7162034350009</v>
+        <v>28.3722809643377</v>
       </c>
       <c r="O48">
-        <v>2937.46504747088</v>
+        <v>2556.24950420177</v>
       </c>
       <c r="P48">
-        <v>94.9982752349534</v>
+        <v>78.73746524326521</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>302.722736283007</v>
+        <v>561.813623341661</v>
       </c>
       <c r="C49">
-        <v>7.33524116281162</v>
+        <v>5.75705256896696</v>
       </c>
       <c r="D49">
-        <v>4.23941580685065</v>
+        <v>2.73921502965998</v>
       </c>
       <c r="E49">
-        <v>22.6168217222901</v>
+        <v>17.3581909870192</v>
       </c>
       <c r="F49">
-        <v>52.1514277921303</v>
+        <v>40.1810335595083</v>
       </c>
       <c r="G49">
-        <v>27.6381487524791</v>
+        <v>20.9924941604493</v>
       </c>
       <c r="H49">
-        <v>12.6298741399879</v>
+        <v>10.4962424078612</v>
       </c>
       <c r="I49">
-        <v>9.414722220139829</v>
+        <v>7.71706167261605</v>
       </c>
       <c r="J49">
-        <v>34.0765245407404</v>
+        <v>27.3884776569699</v>
       </c>
       <c r="K49">
-        <v>11.7896447838253</v>
+        <v>8.597414305402451</v>
       </c>
       <c r="L49">
-        <v>3.82040098794519</v>
+        <v>2.99561281255042</v>
       </c>
       <c r="M49">
-        <v>8.085844154682359</v>
+        <v>7.14685481240988</v>
       </c>
       <c r="N49">
-        <v>4.93259811327483</v>
+        <v>3.86120937970399</v>
       </c>
       <c r="O49">
-        <v>967.858650093686</v>
+        <v>757.411872177723</v>
       </c>
       <c r="P49">
-        <v>15.9079820510179</v>
+        <v>12.6486651486498</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>375.830137187761</v>
+        <v>762.791498196465</v>
       </c>
       <c r="C50">
-        <v>94.1914763577137</v>
+        <v>83.7603656099144</v>
       </c>
       <c r="D50">
-        <v>13.9313371985544</v>
+        <v>12.3429752165049</v>
       </c>
       <c r="E50">
-        <v>129.31244538629</v>
+        <v>113.908216628993</v>
       </c>
       <c r="F50">
-        <v>6.35948884946295</v>
+        <v>5.73783678750897</v>
       </c>
       <c r="G50">
-        <v>42.9926443705824</v>
+        <v>36.8829921332847</v>
       </c>
       <c r="H50">
-        <v>46.242750525316</v>
+        <v>42.3572716872167</v>
       </c>
       <c r="I50">
-        <v>17.8936167464075</v>
+        <v>14.8864264224207</v>
       </c>
       <c r="J50">
-        <v>120.310186860065</v>
+        <v>104.724657238395</v>
       </c>
       <c r="K50">
-        <v>101.86943831497</v>
+        <v>86.6217081096992</v>
       </c>
       <c r="L50">
-        <v>95.5440414612678</v>
+        <v>84.871062911468</v>
       </c>
       <c r="M50">
-        <v>31.5617890130136</v>
+        <v>26.5339642354028</v>
       </c>
       <c r="N50">
-        <v>90.55785488567339</v>
+        <v>79.11817818348899</v>
       </c>
       <c r="O50">
-        <v>2574.1963198322</v>
+        <v>2291.59780079906</v>
       </c>
       <c r="P50">
-        <v>74.07644961679659</v>
+        <v>67.0977510287394</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>62.5609737983095</v>
+        <v>120.45919660436</v>
       </c>
       <c r="C51">
-        <v>2.8695641973722</v>
+        <v>2.65409180386533</v>
       </c>
       <c r="D51">
-        <v>0.0476131009101052</v>
+        <v>0.108932516296346</v>
       </c>
       <c r="E51">
-        <v>2.89367259115559</v>
+        <v>2.80868419635155</v>
       </c>
       <c r="F51">
-        <v>50.504068557587</v>
+        <v>44.6255642812687</v>
       </c>
       <c r="G51">
-        <v>2.97583503324489</v>
+        <v>2.6192701412351</v>
       </c>
       <c r="H51">
-        <v>0.263652886795067</v>
+        <v>0.234354972925811</v>
       </c>
       <c r="I51">
-        <v>1.55550776204495</v>
+        <v>1.5080615566006</v>
       </c>
       <c r="J51">
-        <v>3.18714335293573</v>
+        <v>2.82686044960839</v>
       </c>
       <c r="K51">
-        <v>1.36831484257768</v>
+        <v>1.21726757348668</v>
       </c>
       <c r="L51">
-        <v>0.320525135241149</v>
+        <v>0.282412642798658</v>
       </c>
       <c r="M51">
-        <v>0.708139932024926</v>
+        <v>0.97157362939996</v>
       </c>
       <c r="N51">
-        <v>1.86442203803615</v>
+        <v>1.70296460872003</v>
       </c>
       <c r="O51">
-        <v>411.289179513023</v>
+        <v>362.912228712132</v>
       </c>
       <c r="P51">
-        <v>25.7551322743205</v>
+        <v>22.6108773185045</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>921.464684478246</v>
+        <v>1261.58790531261</v>
       </c>
       <c r="C2">
-        <v>37.1649831795562</v>
+        <v>23.6918366076675</v>
       </c>
       <c r="D2">
-        <v>61.411314004665</v>
+        <v>29.6322695044824</v>
       </c>
       <c r="E2">
-        <v>72.64675481267101</v>
+        <v>61.7707790411105</v>
       </c>
       <c r="F2">
-        <v>21.2180051698139</v>
+        <v>21.6997893077609</v>
       </c>
       <c r="G2">
-        <v>17.8089981800149</v>
+        <v>12.5907092439866</v>
       </c>
       <c r="H2">
-        <v>31.4613494252114</v>
+        <v>23.0153144219557</v>
       </c>
       <c r="I2">
-        <v>20.5758520075196</v>
+        <v>17.7191851814637</v>
       </c>
       <c r="J2">
-        <v>73.51248408606379</v>
+        <v>85.9915516437741</v>
       </c>
       <c r="K2">
-        <v>20.4884129564832</v>
+        <v>15.5222323774115</v>
       </c>
       <c r="L2">
-        <v>32.7242873966132</v>
+        <v>51.5374873496568</v>
       </c>
       <c r="M2">
-        <v>50.1414271785578</v>
+        <v>39.1888704627063</v>
       </c>
       <c r="N2">
-        <v>25.6988475612849</v>
+        <v>25.6648864842507</v>
       </c>
       <c r="O2">
-        <v>1729.22455648125</v>
+        <v>1463.1094573088</v>
       </c>
       <c r="P2">
-        <v>30.4612916150313</v>
+        <v>19.5235387858259</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>158.600139250978</v>
+        <v>167.746240588348</v>
       </c>
       <c r="C3">
-        <v>5.60648552030174</v>
+        <v>5.78079761485304</v>
       </c>
       <c r="D3">
-        <v>0.277001637596021</v>
+        <v>0.612574120474207</v>
       </c>
       <c r="E3">
-        <v>1.00760120787472</v>
+        <v>1.72180040470562</v>
       </c>
       <c r="F3">
-        <v>14.9757412941763</v>
+        <v>10.6816916350564</v>
       </c>
       <c r="G3">
-        <v>0.195565552372706</v>
+        <v>0.450441183078758</v>
       </c>
       <c r="H3">
-        <v>0.453768585657581</v>
+        <v>0.158893928375574</v>
       </c>
       <c r="I3">
-        <v>0.302803020876177</v>
+        <v>1.46500860595191</v>
       </c>
       <c r="J3">
-        <v>0.708460123290423</v>
+        <v>0.483306125697614</v>
       </c>
       <c r="K3">
-        <v>0.236415095573383</v>
+        <v>0.0101491332743757</v>
       </c>
       <c r="L3">
-        <v>0.158273653909825</v>
+        <v>0.00172973363344703</v>
       </c>
       <c r="M3">
-        <v>1.19909389778777</v>
+        <v>0.9394529033756041</v>
       </c>
       <c r="N3">
-        <v>1.01512953665161</v>
+        <v>0.88066848997523</v>
       </c>
       <c r="O3">
-        <v>408.811996117475</v>
+        <v>399.656332426594</v>
       </c>
       <c r="P3">
-        <v>11.5007674083914</v>
+        <v>16.2832708780958</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>963.800284926819</v>
+        <v>1234.86463506656</v>
       </c>
       <c r="C4">
-        <v>12.1885778134233</v>
+        <v>7.20928742643838</v>
       </c>
       <c r="D4">
-        <v>4.7766823943838</v>
+        <v>3.18272504433604</v>
       </c>
       <c r="E4">
-        <v>14.2861656653771</v>
+        <v>24.5286027446445</v>
       </c>
       <c r="F4">
-        <v>6.30992884518373</v>
+        <v>6.7542652958958</v>
       </c>
       <c r="G4">
-        <v>11.6155350844362</v>
+        <v>5.79875856954875</v>
       </c>
       <c r="H4">
-        <v>10.1239012952952</v>
+        <v>13.4319686461068</v>
       </c>
       <c r="I4">
-        <v>13.3749518977243</v>
+        <v>9.25980276777929</v>
       </c>
       <c r="J4">
-        <v>28.7641051966114</v>
+        <v>26.8614816231583</v>
       </c>
       <c r="K4">
-        <v>10.2205949567486</v>
+        <v>2.66509511271497</v>
       </c>
       <c r="L4">
-        <v>86.554929527222</v>
+        <v>66.59882951599251</v>
       </c>
       <c r="M4">
-        <v>66.6289886420968</v>
+        <v>44.6343911380152</v>
       </c>
       <c r="N4">
-        <v>36.0094194743435</v>
+        <v>29.2593394038371</v>
       </c>
       <c r="O4">
-        <v>2363.35834894764</v>
+        <v>2188.80821111859</v>
       </c>
       <c r="P4">
-        <v>35.6493572875436</v>
+        <v>16.5776304721742</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>597.109014826885</v>
+        <v>660.840226832972</v>
       </c>
       <c r="C5">
-        <v>66.5565296778002</v>
+        <v>47.032640078738</v>
       </c>
       <c r="D5">
-        <v>17.1697713939157</v>
+        <v>11.0992451452026</v>
       </c>
       <c r="E5">
-        <v>38.5873616661718</v>
+        <v>37.8999973035011</v>
       </c>
       <c r="F5">
-        <v>1.90519753091108</v>
+        <v>8.078603091367659</v>
       </c>
       <c r="G5">
-        <v>9.647472347657971</v>
+        <v>3.90952795686401</v>
       </c>
       <c r="H5">
-        <v>12.8751044254722</v>
+        <v>10.6796857325058</v>
       </c>
       <c r="I5">
-        <v>9.003216061234539</v>
+        <v>5.887863172027</v>
       </c>
       <c r="J5">
-        <v>33.1570383066279</v>
+        <v>33.8914977121916</v>
       </c>
       <c r="K5">
-        <v>23.2520508460264</v>
+        <v>5.96069965827808</v>
       </c>
       <c r="L5">
-        <v>21.5420359932124</v>
+        <v>19.2594619585466</v>
       </c>
       <c r="M5">
-        <v>15.576463309637</v>
+        <v>19.2401456157737</v>
       </c>
       <c r="N5">
-        <v>17.1989091230972</v>
+        <v>20.5706387080226</v>
       </c>
       <c r="O5">
-        <v>999.48160737579</v>
+        <v>968.071433431242</v>
       </c>
       <c r="P5">
-        <v>44.7840393935428</v>
+        <v>58.9147816267434</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>6019.61647327801</v>
+        <v>7202.59003813107</v>
       </c>
       <c r="C6">
-        <v>154.608657467403</v>
+        <v>208.379603887525</v>
       </c>
       <c r="D6">
-        <v>221.70295799658</v>
+        <v>53.5976999886112</v>
       </c>
       <c r="E6">
-        <v>129.397350343228</v>
+        <v>191.078539198743</v>
       </c>
       <c r="F6">
-        <v>29.667988431882</v>
+        <v>42.6647311059143</v>
       </c>
       <c r="G6">
-        <v>129.570269963895</v>
+        <v>130.876147732319</v>
       </c>
       <c r="H6">
-        <v>83.256162345758</v>
+        <v>57.5683803520714</v>
       </c>
       <c r="I6">
-        <v>56.5493314167779</v>
+        <v>53.2583253495284</v>
       </c>
       <c r="J6">
-        <v>192.17292416561</v>
+        <v>204.241815589178</v>
       </c>
       <c r="K6">
-        <v>131.714376428725</v>
+        <v>50.2725284005576</v>
       </c>
       <c r="L6">
-        <v>533.698075877756</v>
+        <v>469.856411515024</v>
       </c>
       <c r="M6">
-        <v>345.51999475506</v>
+        <v>289.993744338714</v>
       </c>
       <c r="N6">
-        <v>314.810598321054</v>
+        <v>278.729051408766</v>
       </c>
       <c r="O6">
-        <v>13923.5317134393</v>
+        <v>12997.8781945641</v>
       </c>
       <c r="P6">
-        <v>225.612098773692</v>
+        <v>277.697648640722</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>633.628663692882</v>
+        <v>733.979382478668</v>
       </c>
       <c r="C7">
-        <v>36.9861508563645</v>
+        <v>38.7618668842197</v>
       </c>
       <c r="D7">
-        <v>2.19701818571808</v>
+        <v>3.76317340352472</v>
       </c>
       <c r="E7">
-        <v>16.7734237629542</v>
+        <v>22.1747773065484</v>
       </c>
       <c r="F7">
-        <v>12.6724454718777</v>
+        <v>11.0372459701693</v>
       </c>
       <c r="G7">
-        <v>10.7241395706273</v>
+        <v>6.97931002863155</v>
       </c>
       <c r="H7">
-        <v>9.929864419245471</v>
+        <v>3.06160926365128</v>
       </c>
       <c r="I7">
-        <v>7.30536914160852</v>
+        <v>9.463125759131509</v>
       </c>
       <c r="J7">
-        <v>22.1164975973379</v>
+        <v>16.6036213891711</v>
       </c>
       <c r="K7">
-        <v>15.2707153685167</v>
+        <v>2.63289403960575</v>
       </c>
       <c r="L7">
-        <v>53.7953162244379</v>
+        <v>58.0529906419266</v>
       </c>
       <c r="M7">
-        <v>22.079094934755</v>
+        <v>15.9199139047239</v>
       </c>
       <c r="N7">
-        <v>26.6992207897271</v>
+        <v>27.7520114024644</v>
       </c>
       <c r="O7">
-        <v>2013.09108658202</v>
+        <v>1931.83493025126</v>
       </c>
       <c r="P7">
-        <v>22.5750980498003</v>
+        <v>22.816782383977</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>488.287938176264</v>
+        <v>609.376712603271</v>
       </c>
       <c r="C8">
-        <v>12.4631381739163</v>
+        <v>15.8760536627051</v>
       </c>
       <c r="D8">
-        <v>8.811564416664121</v>
+        <v>2.86527831463941</v>
       </c>
       <c r="E8">
-        <v>14.2879416601446</v>
+        <v>24.2558294466811</v>
       </c>
       <c r="F8">
-        <v>1.36734702932569</v>
+        <v>2.0287160823284</v>
       </c>
       <c r="G8">
-        <v>38.2607275382415</v>
+        <v>27.6798361364469</v>
       </c>
       <c r="H8">
-        <v>14.1071039597718</v>
+        <v>10.1581257360185</v>
       </c>
       <c r="I8">
-        <v>1.16650412131884</v>
+        <v>7.19901421468347</v>
       </c>
       <c r="J8">
-        <v>56.4299928125452</v>
+        <v>37.2218045849852</v>
       </c>
       <c r="K8">
-        <v>32.3395141686095</v>
+        <v>12.5027993043696</v>
       </c>
       <c r="L8">
-        <v>51.2371339934863</v>
+        <v>53.503123217292</v>
       </c>
       <c r="M8">
-        <v>73.5594199187701</v>
+        <v>54.0208126227189</v>
       </c>
       <c r="N8">
-        <v>26.3065844508113</v>
+        <v>25.701272654234</v>
       </c>
       <c r="O8">
-        <v>1527.21976338476</v>
+        <v>1451.80082639669</v>
       </c>
       <c r="P8">
-        <v>5.50840611873565</v>
+        <v>6.20688751539566</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>175.631691504702</v>
+        <v>222.824277224396</v>
       </c>
       <c r="C9">
-        <v>11.0007593579419</v>
+        <v>10.2234491332636</v>
       </c>
       <c r="D9">
-        <v>2.45623896833385</v>
+        <v>2.26162957861077</v>
       </c>
       <c r="E9">
-        <v>5.91008185065943</v>
+        <v>5.3951787554041</v>
       </c>
       <c r="F9">
-        <v>2.87242354290475</v>
+        <v>0.972255559350697</v>
       </c>
       <c r="G9">
-        <v>30.5122344363262</v>
+        <v>26.3996299444401</v>
       </c>
       <c r="H9">
-        <v>3.07725054086467</v>
+        <v>4.5432373568539</v>
       </c>
       <c r="I9">
-        <v>1.58614202882476</v>
+        <v>1.30410266907806</v>
       </c>
       <c r="J9">
-        <v>4.32651610633436</v>
+        <v>7.11471774401781</v>
       </c>
       <c r="K9">
-        <v>4.53102911653185</v>
+        <v>0.837446706749143</v>
       </c>
       <c r="L9">
-        <v>5.61196646982926</v>
+        <v>3.79045941214754</v>
       </c>
       <c r="M9">
-        <v>10.2561583838155</v>
+        <v>8.798576783376911</v>
       </c>
       <c r="N9">
-        <v>7.48699049996643</v>
+        <v>5.30132564970494</v>
       </c>
       <c r="O9">
-        <v>477.922367914537</v>
+        <v>444.268037751665</v>
       </c>
       <c r="P9">
-        <v>9.10751385914727</v>
+        <v>7.13295684317261</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3185.28378193082</v>
+        <v>3825.69927020782</v>
       </c>
       <c r="C10">
-        <v>53.0137610657273</v>
+        <v>75.9403056855607</v>
       </c>
       <c r="D10">
-        <v>22.4902778866583</v>
+        <v>15.936424635784</v>
       </c>
       <c r="E10">
-        <v>48.147126944145</v>
+        <v>56.7784993044337</v>
       </c>
       <c r="F10">
-        <v>10.9677194285154</v>
+        <v>9.723707929136801</v>
       </c>
       <c r="G10">
-        <v>27.8273494524172</v>
+        <v>46.2560126641344</v>
       </c>
       <c r="H10">
-        <v>19.0718155849944</v>
+        <v>14.9315741385215</v>
       </c>
       <c r="I10">
-        <v>35.4047556136198</v>
+        <v>39.9755421716713</v>
       </c>
       <c r="J10">
-        <v>57.365747630174</v>
+        <v>61.8242772135693</v>
       </c>
       <c r="K10">
-        <v>43.7562529072571</v>
+        <v>11.7916299946692</v>
       </c>
       <c r="L10">
-        <v>116.209827472177</v>
+        <v>80.474232560291</v>
       </c>
       <c r="M10">
-        <v>110.750531075044</v>
+        <v>72.864335512319</v>
       </c>
       <c r="N10">
-        <v>94.9136204831438</v>
+        <v>86.5920687296467</v>
       </c>
       <c r="O10">
-        <v>8138.3382307091</v>
+        <v>7586.67000991713</v>
       </c>
       <c r="P10">
-        <v>69.5282834742174</v>
+        <v>78.6093232771305</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1496.1706581468</v>
+        <v>1796.90949695451</v>
       </c>
       <c r="C11">
-        <v>63.6834495217126</v>
+        <v>66.2100709851336</v>
       </c>
       <c r="D11">
-        <v>155.841146892168</v>
+        <v>171.100708716538</v>
       </c>
       <c r="E11">
-        <v>100.299040488695</v>
+        <v>76.51542349424891</v>
       </c>
       <c r="F11">
-        <v>4.65515110594532</v>
+        <v>5.58977012003514</v>
       </c>
       <c r="G11">
-        <v>31.6343483511995</v>
+        <v>27.6737581209236</v>
       </c>
       <c r="H11">
-        <v>13.7616921225948</v>
+        <v>18.9061683028939</v>
       </c>
       <c r="I11">
-        <v>20.0046947736639</v>
+        <v>11.3636803318869</v>
       </c>
       <c r="J11">
-        <v>59.0807375187198</v>
+        <v>45.4016964075237</v>
       </c>
       <c r="K11">
-        <v>34.1778339188874</v>
+        <v>10.3297479274121</v>
       </c>
       <c r="L11">
-        <v>60.5680596959472</v>
+        <v>51.6862715260761</v>
       </c>
       <c r="M11">
-        <v>46.9524156834519</v>
+        <v>37.9786649887487</v>
       </c>
       <c r="N11">
-        <v>44.5091333532224</v>
+        <v>61.0631638362934</v>
       </c>
       <c r="O11">
-        <v>3540.51343084988</v>
+        <v>3260.93066811495</v>
       </c>
       <c r="P11">
-        <v>19.244770054883</v>
+        <v>51.1687222435668</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>240.333567131062</v>
+        <v>293.924093571814</v>
       </c>
       <c r="C12">
-        <v>9.297644553426201</v>
+        <v>7.43850686674617</v>
       </c>
       <c r="D12">
-        <v>4.22324829928887</v>
+        <v>0.304462703660356</v>
       </c>
       <c r="E12">
-        <v>1.16705790135688</v>
+        <v>4.82699663279532</v>
       </c>
       <c r="F12">
-        <v>0.69922090725526</v>
+        <v>1.15546481294737</v>
       </c>
       <c r="G12">
-        <v>0.542927869737133</v>
+        <v>0.818327245595845</v>
       </c>
       <c r="H12">
-        <v>0.44977594022109</v>
+        <v>0.352571068734393</v>
       </c>
       <c r="I12">
-        <v>1.98105082448578</v>
+        <v>1.31490384409008</v>
       </c>
       <c r="J12">
-        <v>1.31853926816481</v>
+        <v>2.46631725992042</v>
       </c>
       <c r="K12">
-        <v>0.277744812932751</v>
+        <v>0.00478640129713078</v>
       </c>
       <c r="L12">
-        <v>0.543159524544471</v>
+        <v>0.510932096353229</v>
       </c>
       <c r="M12">
-        <v>4.17184203949065</v>
+        <v>4.08323237957159</v>
       </c>
       <c r="N12">
-        <v>4.82989563650857</v>
+        <v>3.41775455086451</v>
       </c>
       <c r="O12">
-        <v>741.072457876605</v>
+        <v>688.779963773879</v>
       </c>
       <c r="P12">
-        <v>22.0490289118913</v>
+        <v>24.3380606919013</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>234.1672007424</v>
+        <v>257.51512953576</v>
       </c>
       <c r="C13">
-        <v>29.5645754286128</v>
+        <v>19.3962825889161</v>
       </c>
       <c r="D13">
-        <v>1.69092393707699</v>
+        <v>0.736549603001092</v>
       </c>
       <c r="E13">
-        <v>16.131734344319</v>
+        <v>12.703958877645</v>
       </c>
       <c r="F13">
-        <v>3.3167599506034</v>
+        <v>3.10469496032092</v>
       </c>
       <c r="G13">
-        <v>6.61546248732871</v>
+        <v>5.73017248459846</v>
       </c>
       <c r="H13">
-        <v>2.32168030947192</v>
+        <v>3.23261801343663</v>
       </c>
       <c r="I13">
-        <v>0.983450209725251</v>
+        <v>2.33029377626962</v>
       </c>
       <c r="J13">
-        <v>7.05295605725633</v>
+        <v>5.94663936821906</v>
       </c>
       <c r="K13">
-        <v>4.33151893435694</v>
+        <v>4.81692870989663</v>
       </c>
       <c r="L13">
-        <v>28.3638409645776</v>
+        <v>16.8923716848328</v>
       </c>
       <c r="M13">
-        <v>3.06588326147227</v>
+        <v>1.3090274017891</v>
       </c>
       <c r="N13">
-        <v>7.66735140411451</v>
+        <v>5.29916184843781</v>
       </c>
       <c r="O13">
-        <v>607.312617032845</v>
+        <v>610.995044222529</v>
       </c>
       <c r="P13">
-        <v>50.2690279176574</v>
+        <v>52.9194679580026</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>1951.80284906533</v>
+        <v>2405.30641051616</v>
       </c>
       <c r="C14">
-        <v>105.864752459905</v>
+        <v>110.147557036217</v>
       </c>
       <c r="D14">
-        <v>13.4965564844921</v>
+        <v>9.957481425913141</v>
       </c>
       <c r="E14">
-        <v>62.5442681222581</v>
+        <v>94.1464934148074</v>
       </c>
       <c r="F14">
-        <v>15.5850430299202</v>
+        <v>19.2612565431201</v>
       </c>
       <c r="G14">
-        <v>97.4311691531797</v>
+        <v>80.4985131343813</v>
       </c>
       <c r="H14">
-        <v>58.8173143583752</v>
+        <v>38.8703376353012</v>
       </c>
       <c r="I14">
-        <v>25.7341263025012</v>
+        <v>20.8358576183804</v>
       </c>
       <c r="J14">
-        <v>135.948445347213</v>
+        <v>141.032186723885</v>
       </c>
       <c r="K14">
-        <v>184.264167317843</v>
+        <v>113.711537252232</v>
       </c>
       <c r="L14">
-        <v>139.589759572588</v>
+        <v>113.347284883221</v>
       </c>
       <c r="M14">
-        <v>79.0642927879555</v>
+        <v>73.8810894319469</v>
       </c>
       <c r="N14">
-        <v>87.3696400895</v>
+        <v>92.29579935382969</v>
       </c>
       <c r="O14">
-        <v>5423.06502482939</v>
+        <v>5046.59125037511</v>
       </c>
       <c r="P14">
-        <v>40.3330626599951</v>
+        <v>47.2907147381894</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>944.62670150432</v>
+        <v>1216.4879723026</v>
       </c>
       <c r="C15">
-        <v>46.0006619574062</v>
+        <v>44.7651664197206</v>
       </c>
       <c r="D15">
-        <v>11.3174957191228</v>
+        <v>9.379519900855851</v>
       </c>
       <c r="E15">
-        <v>62.6856412221832</v>
+        <v>89.3649361995859</v>
       </c>
       <c r="F15">
-        <v>13.5385916533748</v>
+        <v>24.0412844684036</v>
       </c>
       <c r="G15">
-        <v>48.6675957226036</v>
+        <v>52.1815427433438</v>
       </c>
       <c r="H15">
-        <v>44.6794733238679</v>
+        <v>39.4343727277455</v>
       </c>
       <c r="I15">
-        <v>52.060954081851</v>
+        <v>25.2259331712256</v>
       </c>
       <c r="J15">
-        <v>205.02386015468</v>
+        <v>172.17453139727</v>
       </c>
       <c r="K15">
-        <v>67.2211614890312</v>
+        <v>19.5399302396338</v>
       </c>
       <c r="L15">
-        <v>50.9728410207411</v>
+        <v>39.346591209731</v>
       </c>
       <c r="M15">
-        <v>152.434023468648</v>
+        <v>172.896186098633</v>
       </c>
       <c r="N15">
-        <v>97.40390526015381</v>
+        <v>88.9558748718533</v>
       </c>
       <c r="O15">
-        <v>2431.00021513473</v>
+        <v>2230.24316519561</v>
       </c>
       <c r="P15">
-        <v>51.2189920764478</v>
+        <v>45.0385275408239</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>371.76341734167</v>
+        <v>477.181004175777</v>
       </c>
       <c r="C16">
-        <v>72.2079290592677</v>
+        <v>67.0262674874637</v>
       </c>
       <c r="D16">
-        <v>14.3864936883559</v>
+        <v>6.71566441986825</v>
       </c>
       <c r="E16">
-        <v>26.9775752743955</v>
+        <v>29.4848516238303</v>
       </c>
       <c r="F16">
-        <v>5.58584345441674</v>
+        <v>2.88591533205789</v>
       </c>
       <c r="G16">
-        <v>16.9254035683549</v>
+        <v>22.7163506478678</v>
       </c>
       <c r="H16">
-        <v>20.6172214380589</v>
+        <v>15.37532321201</v>
       </c>
       <c r="I16">
-        <v>8.414133342611059</v>
+        <v>8.730572759118051</v>
       </c>
       <c r="J16">
-        <v>51.2697319958701</v>
+        <v>55.2654679820868</v>
       </c>
       <c r="K16">
-        <v>58.2908153743793</v>
+        <v>40.468081718946</v>
       </c>
       <c r="L16">
-        <v>32.5342758498479</v>
+        <v>24.3151156301906</v>
       </c>
       <c r="M16">
-        <v>17.5942722097996</v>
+        <v>24.376989946374</v>
       </c>
       <c r="N16">
-        <v>31.254351047251</v>
+        <v>31.0889552374936</v>
       </c>
       <c r="O16">
-        <v>1375.29239568561</v>
+        <v>1290.10868471295</v>
       </c>
       <c r="P16">
-        <v>90.99762732535569</v>
+        <v>86.656623643836</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>385.988854015912</v>
+        <v>494.861789796661</v>
       </c>
       <c r="C17">
-        <v>23.2795683418187</v>
+        <v>18.9596589209297</v>
       </c>
       <c r="D17">
-        <v>8.142399356741899</v>
+        <v>4.39186682543086</v>
       </c>
       <c r="E17">
-        <v>15.1048744247886</v>
+        <v>31.3782547737438</v>
       </c>
       <c r="F17">
-        <v>12.8638780414607</v>
+        <v>9.78924196796317</v>
       </c>
       <c r="G17">
-        <v>14.7067818354242</v>
+        <v>6.52249700878845</v>
       </c>
       <c r="H17">
-        <v>7.88908437267206</v>
+        <v>6.99446285811325</v>
       </c>
       <c r="I17">
-        <v>8.23255805524108</v>
+        <v>10.5553881765091</v>
       </c>
       <c r="J17">
-        <v>17.6689719756963</v>
+        <v>20.247575111477</v>
       </c>
       <c r="K17">
-        <v>20.3361997871806</v>
+        <v>8.774682404741741</v>
       </c>
       <c r="L17">
-        <v>13.6200471165673</v>
+        <v>13.3399368242422</v>
       </c>
       <c r="M17">
-        <v>85.4911561423836</v>
+        <v>64.4353459546295</v>
       </c>
       <c r="N17">
-        <v>12.7624683658555</v>
+        <v>15.8334675802641</v>
       </c>
       <c r="O17">
-        <v>1271.04432762031</v>
+        <v>1183.51581416992</v>
       </c>
       <c r="P17">
-        <v>50.3195406896782</v>
+        <v>51.9761767116514</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>949.013708542824</v>
+        <v>1133.40584206344</v>
       </c>
       <c r="C18">
-        <v>33.0973712907523</v>
+        <v>36.9511851818387</v>
       </c>
       <c r="D18">
-        <v>10.7169721011891</v>
+        <v>2.5948891726647</v>
       </c>
       <c r="E18">
-        <v>30.095878136563</v>
+        <v>34.247951088081</v>
       </c>
       <c r="F18">
-        <v>35.9611427064655</v>
+        <v>32.6165421548529</v>
       </c>
       <c r="G18">
-        <v>27.5205624396661</v>
+        <v>23.4323516697284</v>
       </c>
       <c r="H18">
-        <v>25.4022644565356</v>
+        <v>19.363904457217</v>
       </c>
       <c r="I18">
-        <v>8.220023504000631</v>
+        <v>2.3882160807557</v>
       </c>
       <c r="J18">
-        <v>39.8991300429355</v>
+        <v>43.1862299309977</v>
       </c>
       <c r="K18">
-        <v>23.8130423972975</v>
+        <v>7.86533888758373</v>
       </c>
       <c r="L18">
-        <v>39.2639631837525</v>
+        <v>37.3305835783108</v>
       </c>
       <c r="M18">
-        <v>63.1042795519194</v>
+        <v>64.4174626164463</v>
       </c>
       <c r="N18">
-        <v>22.939151162132</v>
+        <v>23.9163102638614</v>
       </c>
       <c r="O18">
-        <v>1725.90559213253</v>
+        <v>1576.79290356294</v>
       </c>
       <c r="P18">
-        <v>52.7323309523114</v>
+        <v>57.9489458459617</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>983.344411473451</v>
+        <v>1148.32130833658</v>
       </c>
       <c r="C19">
-        <v>23.772300759577</v>
+        <v>33.3595892756595</v>
       </c>
       <c r="D19">
-        <v>8.59240421762804</v>
+        <v>4.73339675312234</v>
       </c>
       <c r="E19">
-        <v>22.4848407643484</v>
+        <v>48.4112211779691</v>
       </c>
       <c r="F19">
-        <v>75.1114023677447</v>
+        <v>90.03893115523189</v>
       </c>
       <c r="G19">
-        <v>37.3582906935254</v>
+        <v>49.5192011918085</v>
       </c>
       <c r="H19">
-        <v>6.87768903573603</v>
+        <v>8.87262531655942</v>
       </c>
       <c r="I19">
-        <v>11.3656106708662</v>
+        <v>2.60584483489141</v>
       </c>
       <c r="J19">
-        <v>12.3438299515465</v>
+        <v>17.8789855577811</v>
       </c>
       <c r="K19">
-        <v>15.1623341568657</v>
+        <v>7.06861327746923</v>
       </c>
       <c r="L19">
-        <v>3.34732614543857</v>
+        <v>2.44008777219762</v>
       </c>
       <c r="M19">
-        <v>35.7655879289668</v>
+        <v>35.4818235288855</v>
       </c>
       <c r="N19">
-        <v>3.56097667641881</v>
+        <v>10.3304873751879</v>
       </c>
       <c r="O19">
-        <v>1840.64090608428</v>
+        <v>1635.63398794654</v>
       </c>
       <c r="P19">
-        <v>48.48333993543</v>
+        <v>45.2119384243087</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>249.659236792639</v>
+        <v>278.579639245259</v>
       </c>
       <c r="C20">
-        <v>9.061720092713211</v>
+        <v>11.5558110572269</v>
       </c>
       <c r="D20">
-        <v>11.9121897593302</v>
+        <v>7.00318551589859</v>
       </c>
       <c r="E20">
-        <v>33.2183976581286</v>
+        <v>36.2413609110722</v>
       </c>
       <c r="F20">
-        <v>0.267430232485581</v>
+        <v>1.65661611073354</v>
       </c>
       <c r="G20">
-        <v>0.8062995117523299</v>
+        <v>2.43389690740195</v>
       </c>
       <c r="H20">
-        <v>3.49419666900443</v>
+        <v>0.996530233315413</v>
       </c>
       <c r="I20">
-        <v>0.335447404013243</v>
+        <v>1.54207542717926</v>
       </c>
       <c r="J20">
-        <v>6.798929377202</v>
+        <v>5.30924805787712</v>
       </c>
       <c r="K20">
-        <v>4.49251274863746</v>
+        <v>1.20480858634478</v>
       </c>
       <c r="L20">
-        <v>8.352206850619661</v>
+        <v>7.60974639784753</v>
       </c>
       <c r="M20">
-        <v>24.790288764791</v>
+        <v>20.7287021074821</v>
       </c>
       <c r="N20">
-        <v>5.74432585147474</v>
+        <v>7.2575632898063</v>
       </c>
       <c r="O20">
-        <v>629.753468187246</v>
+        <v>603.226388771735</v>
       </c>
       <c r="P20">
-        <v>19.8179275728802</v>
+        <v>23.9804465570352</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>768.169726749416</v>
+        <v>1029.13648830985</v>
       </c>
       <c r="C21">
-        <v>18.9727913859158</v>
+        <v>24.8741784574375</v>
       </c>
       <c r="D21">
-        <v>6.41943313274048</v>
+        <v>1.95589639255203</v>
       </c>
       <c r="E21">
-        <v>20.5503345548653</v>
+        <v>23.9033764419808</v>
       </c>
       <c r="F21">
-        <v>1.74960755257494</v>
+        <v>4.07736953690567</v>
       </c>
       <c r="G21">
-        <v>19.6537780079729</v>
+        <v>15.6462155381673</v>
       </c>
       <c r="H21">
-        <v>10.5163445506402</v>
+        <v>7.85319119812947</v>
       </c>
       <c r="I21">
-        <v>6.51813644639249</v>
+        <v>18.2427290053979</v>
       </c>
       <c r="J21">
-        <v>15.7516987627896</v>
+        <v>19.4049092798683</v>
       </c>
       <c r="K21">
-        <v>7.59400882722058</v>
+        <v>1.05960467511374</v>
       </c>
       <c r="L21">
-        <v>27.3992592441813</v>
+        <v>31.1755966128639</v>
       </c>
       <c r="M21">
-        <v>27.3215887548118</v>
+        <v>21.9861665950332</v>
       </c>
       <c r="N21">
-        <v>16.3397629890989</v>
+        <v>17.0337235312381</v>
       </c>
       <c r="O21">
-        <v>2677.56585290789</v>
+        <v>2398.36434082134</v>
       </c>
       <c r="P21">
-        <v>23.5713080029313</v>
+        <v>22.2547019250296</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>940.228022196485</v>
+        <v>1141.67327286559</v>
       </c>
       <c r="C22">
-        <v>12.9776830752309</v>
+        <v>18.5167004015634</v>
       </c>
       <c r="D22">
-        <v>23.1071564818094</v>
+        <v>17.0196456884596</v>
       </c>
       <c r="E22">
-        <v>32.5032936619846</v>
+        <v>50.8342208102129</v>
       </c>
       <c r="F22">
-        <v>0.869672800580363</v>
+        <v>4.05394172445311</v>
       </c>
       <c r="G22">
-        <v>29.5018359517183</v>
+        <v>36.337137759817</v>
       </c>
       <c r="H22">
-        <v>28.5101358641778</v>
+        <v>14.593491120134</v>
       </c>
       <c r="I22">
-        <v>5.92715182102054</v>
+        <v>13.2549200952558</v>
       </c>
       <c r="J22">
-        <v>54.3487310616083</v>
+        <v>40.0726859667688</v>
       </c>
       <c r="K22">
-        <v>37.2035902292352</v>
+        <v>6.80428907774146</v>
       </c>
       <c r="L22">
-        <v>113.14990904442</v>
+        <v>126.973994515867</v>
       </c>
       <c r="M22">
-        <v>27.3298079026306</v>
+        <v>16.9756569722703</v>
       </c>
       <c r="N22">
-        <v>82.8416913962116</v>
+        <v>71.9147316372855</v>
       </c>
       <c r="O22">
-        <v>2882.35478427495</v>
+        <v>2706.22766669033</v>
       </c>
       <c r="P22">
-        <v>14.0044380163696</v>
+        <v>11.1359687755183</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>1779.73775816213</v>
+        <v>2257.97730813214</v>
       </c>
       <c r="C23">
-        <v>51.5387842399201</v>
+        <v>31.8313108570664</v>
       </c>
       <c r="D23">
-        <v>13.0401544087845</v>
+        <v>7.75322818252307</v>
       </c>
       <c r="E23">
-        <v>40.8052433621523</v>
+        <v>49.8902911297277</v>
       </c>
       <c r="F23">
-        <v>0.250230403428705</v>
+        <v>4.58512722223855</v>
       </c>
       <c r="G23">
-        <v>78.28751884006449</v>
+        <v>63.0573612380508</v>
       </c>
       <c r="H23">
-        <v>71.6392819797917</v>
+        <v>49.7229210401406</v>
       </c>
       <c r="I23">
-        <v>33.6786254075648</v>
+        <v>12.6714137549881</v>
       </c>
       <c r="J23">
-        <v>155.30491023602</v>
+        <v>130.952069272056</v>
       </c>
       <c r="K23">
-        <v>126.66901394268</v>
+        <v>59.2858785411392</v>
       </c>
       <c r="L23">
-        <v>49.3673921321269</v>
+        <v>35.3424798516982</v>
       </c>
       <c r="M23">
-        <v>633.867838787534</v>
+        <v>576.675392947662</v>
       </c>
       <c r="N23">
-        <v>96.5619575783217</v>
+        <v>92.7229392836403</v>
       </c>
       <c r="O23">
-        <v>3778.59155971139</v>
+        <v>3526.53082436735</v>
       </c>
       <c r="P23">
-        <v>42.233766034775</v>
+        <v>44.5410244982877</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>564.705915636756</v>
+        <v>755.027532414506</v>
       </c>
       <c r="C24">
-        <v>52.088583245939</v>
+        <v>48.5637742375361</v>
       </c>
       <c r="D24">
-        <v>12.5668691110822</v>
+        <v>4.75794861560692</v>
       </c>
       <c r="E24">
-        <v>48.6729101149284</v>
+        <v>57.0747650492365</v>
       </c>
       <c r="F24">
-        <v>19.9188202296872</v>
+        <v>12.9186777511149</v>
       </c>
       <c r="G24">
-        <v>23.8015754713668</v>
+        <v>27.1934122468247</v>
       </c>
       <c r="H24">
-        <v>16.398380323524</v>
+        <v>14.6735239689824</v>
       </c>
       <c r="I24">
-        <v>11.571086742097</v>
+        <v>16.5997238077337</v>
       </c>
       <c r="J24">
-        <v>48.8820454368427</v>
+        <v>64.216825882254</v>
       </c>
       <c r="K24">
-        <v>82.6166185501565</v>
+        <v>20.9020100213327</v>
       </c>
       <c r="L24">
-        <v>64.90756389232369</v>
+        <v>70.1347320756321</v>
       </c>
       <c r="M24">
-        <v>15.7512756079717</v>
+        <v>30.9315639044027</v>
       </c>
       <c r="N24">
-        <v>74.50885138209711</v>
+        <v>73.6734206075356</v>
       </c>
       <c r="O24">
-        <v>2251.12779572101</v>
+        <v>2066.61896260708</v>
       </c>
       <c r="P24">
-        <v>91.2915887211648</v>
+        <v>100.780116683233</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>642.062633879894</v>
+        <v>775.142556304749</v>
       </c>
       <c r="C25">
-        <v>45.2405125302141</v>
+        <v>50.2313313874902</v>
       </c>
       <c r="D25">
-        <v>15.3132272893829</v>
+        <v>11.0716093685251</v>
       </c>
       <c r="E25">
-        <v>43.2542834687659</v>
+        <v>48.9159071505241</v>
       </c>
       <c r="F25">
-        <v>29.8324674102121</v>
+        <v>16.9527422961515</v>
       </c>
       <c r="G25">
-        <v>12.5298925873138</v>
+        <v>15.0548706969996</v>
       </c>
       <c r="H25">
-        <v>14.3662236593059</v>
+        <v>8.3387053662225</v>
       </c>
       <c r="I25">
-        <v>4.54524979237855</v>
+        <v>5.15840399221276</v>
       </c>
       <c r="J25">
-        <v>18.2410656479173</v>
+        <v>14.5031750162799</v>
       </c>
       <c r="K25">
-        <v>20.1896981809683</v>
+        <v>6.42624355652193</v>
       </c>
       <c r="L25">
-        <v>30.7779782696928</v>
+        <v>14.7197492318743</v>
       </c>
       <c r="M25">
-        <v>40.9458379789943</v>
+        <v>44.4203059561719</v>
       </c>
       <c r="N25">
-        <v>31.9685866316024</v>
+        <v>34.1727769047223</v>
       </c>
       <c r="O25">
-        <v>1135.22173663407</v>
+        <v>1051.60479113165</v>
       </c>
       <c r="P25">
-        <v>48.9176904535028</v>
+        <v>42.6705747494518</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>846.9952036731</v>
+        <v>1048.02195791583</v>
       </c>
       <c r="C26">
-        <v>61.3743587172087</v>
+        <v>59.2938349155976</v>
       </c>
       <c r="D26">
-        <v>10.4368844121272</v>
+        <v>5.18188820973646</v>
       </c>
       <c r="E26">
-        <v>40.4202852421194</v>
+        <v>48.0050297976697</v>
       </c>
       <c r="F26">
-        <v>6.96469041719543</v>
+        <v>7.8365318280133</v>
       </c>
       <c r="G26">
-        <v>47.3003455636029</v>
+        <v>39.3119394584181</v>
       </c>
       <c r="H26">
-        <v>20.3089647679368</v>
+        <v>11.7040854766594</v>
       </c>
       <c r="I26">
-        <v>12.5787516355121</v>
+        <v>15.9127589297296</v>
       </c>
       <c r="J26">
-        <v>49.5722642057485</v>
+        <v>26.8983669780716</v>
       </c>
       <c r="K26">
-        <v>30.6515946261659</v>
+        <v>8.818694914867949</v>
       </c>
       <c r="L26">
-        <v>32.62800287272</v>
+        <v>23.0819268951734</v>
       </c>
       <c r="M26">
-        <v>78.21474045446951</v>
+        <v>85.8044053391768</v>
       </c>
       <c r="N26">
-        <v>30.0025406772696</v>
+        <v>19.2182052210756</v>
       </c>
       <c r="O26">
-        <v>2538.09505337529</v>
+        <v>2388.99101161243</v>
       </c>
       <c r="P26">
-        <v>51.3938492941455</v>
+        <v>60.9563647663296</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>193.126328571426</v>
+        <v>224.06089108477</v>
       </c>
       <c r="C27">
-        <v>3.99406815914996</v>
+        <v>2.43620905643869</v>
       </c>
       <c r="D27">
-        <v>1.097166484815</v>
+        <v>2.57169345280748</v>
       </c>
       <c r="E27">
-        <v>15.6392438106095</v>
+        <v>14.5409704295415</v>
       </c>
       <c r="F27">
-        <v>7.96624957880603</v>
+        <v>6.96661484205927</v>
       </c>
       <c r="G27">
-        <v>0.8234019550367641</v>
+        <v>0.773532786411898</v>
       </c>
       <c r="H27">
-        <v>0.160145970283368</v>
+        <v>0.326290705529052</v>
       </c>
       <c r="I27">
-        <v>3.53992687760542</v>
+        <v>2.91028832296391</v>
       </c>
       <c r="J27">
-        <v>4.30738131337993</v>
+        <v>3.5997501813304</v>
       </c>
       <c r="K27">
-        <v>2.56999613679137</v>
+        <v>0.884041290579172</v>
       </c>
       <c r="L27">
-        <v>2.66887070538376</v>
+        <v>3.04732966968275</v>
       </c>
       <c r="M27">
-        <v>1.38984635205334</v>
+        <v>0.95627966205049</v>
       </c>
       <c r="N27">
-        <v>5.77960818163364</v>
+        <v>4.02544573702419</v>
       </c>
       <c r="O27">
-        <v>494.332903675482</v>
+        <v>467.48408779723</v>
       </c>
       <c r="P27">
-        <v>50.1294455294474</v>
+        <v>55.4757735189915</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>204.397921656793</v>
+        <v>262.031447077069</v>
       </c>
       <c r="C28">
-        <v>34.0170253678898</v>
+        <v>38.0005316973862</v>
       </c>
       <c r="D28">
-        <v>2.02643178548162</v>
+        <v>3.09547460584785</v>
       </c>
       <c r="E28">
-        <v>7.73538436054431</v>
+        <v>8.79757743919696</v>
       </c>
       <c r="F28">
-        <v>3.47624381492811</v>
+        <v>1.97237041111548</v>
       </c>
       <c r="G28">
-        <v>8.62613695895986</v>
+        <v>5.20860498184913</v>
       </c>
       <c r="H28">
-        <v>8.80487632232949</v>
+        <v>8.516959209513161</v>
       </c>
       <c r="I28">
-        <v>4.04805003777529</v>
+        <v>2.71515338401973</v>
       </c>
       <c r="J28">
-        <v>18.6054919329029</v>
+        <v>22.1305513799462</v>
       </c>
       <c r="K28">
-        <v>17.9562543738166</v>
+        <v>11.0406478282273</v>
       </c>
       <c r="L28">
-        <v>12.4371143814502</v>
+        <v>13.4785297473771</v>
       </c>
       <c r="M28">
-        <v>8.61503751088946</v>
+        <v>10.5574123227588</v>
       </c>
       <c r="N28">
-        <v>10.9063957786494</v>
+        <v>10.1023235577713</v>
       </c>
       <c r="O28">
-        <v>875.150793996045</v>
+        <v>818.0904751854</v>
       </c>
       <c r="P28">
-        <v>86.65596650307489</v>
+        <v>81.2954256959156</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>386.210100902769</v>
+        <v>433.5691386201</v>
       </c>
       <c r="C29">
-        <v>3.39413998771599</v>
+        <v>4.62949530104954</v>
       </c>
       <c r="D29">
-        <v>4.84901838049768</v>
+        <v>1.92647628577474</v>
       </c>
       <c r="E29">
-        <v>4.76455685206713</v>
+        <v>5.81313227145285</v>
       </c>
       <c r="F29">
-        <v>17.9505133621872</v>
+        <v>26.5794833109241</v>
       </c>
       <c r="G29">
-        <v>3.32464476696742</v>
+        <v>6.4258305639375</v>
       </c>
       <c r="H29">
-        <v>3.01545523834398</v>
+        <v>2.30517596856932</v>
       </c>
       <c r="I29">
-        <v>6.53576495368</v>
+        <v>1.71863626374432</v>
       </c>
       <c r="J29">
-        <v>4.42869420969006</v>
+        <v>5.54472633534908</v>
       </c>
       <c r="K29">
-        <v>2.64528768642964</v>
+        <v>0.863594655361137</v>
       </c>
       <c r="L29">
-        <v>2.21637098197532</v>
+        <v>4.4339171014152</v>
       </c>
       <c r="M29">
-        <v>2.94423292193742</v>
+        <v>3.01599527110061</v>
       </c>
       <c r="N29">
-        <v>11.3235137949532</v>
+        <v>12.9237438781256</v>
       </c>
       <c r="O29">
-        <v>1155.59631964241</v>
+        <v>1101.13597355255</v>
       </c>
       <c r="P29">
-        <v>5.38587697516278</v>
+        <v>5.03075764477093</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>183.002441024554</v>
+        <v>233.482968237648</v>
       </c>
       <c r="C30">
-        <v>4.31491574053732</v>
+        <v>3.46203762260641</v>
       </c>
       <c r="D30">
-        <v>6.32246967411254</v>
+        <v>5.36477474271674</v>
       </c>
       <c r="E30">
-        <v>9.17328094623684</v>
+        <v>16.4767590914549</v>
       </c>
       <c r="F30">
-        <v>0.405968285593323</v>
+        <v>0.207076876651389</v>
       </c>
       <c r="G30">
-        <v>6.25197673544667</v>
+        <v>5.2395056556281</v>
       </c>
       <c r="H30">
-        <v>8.89001552383435</v>
+        <v>5.97658383494169</v>
       </c>
       <c r="I30">
-        <v>2.76579314548447</v>
+        <v>2.40671615189999</v>
       </c>
       <c r="J30">
-        <v>18.4723186385681</v>
+        <v>18.5816276342244</v>
       </c>
       <c r="K30">
-        <v>16.583576958529</v>
+        <v>5.54711632060362</v>
       </c>
       <c r="L30">
-        <v>49.9236515234372</v>
+        <v>48.3744679981802</v>
       </c>
       <c r="M30">
-        <v>11.9910682803266</v>
+        <v>11.5902515224259</v>
       </c>
       <c r="N30">
-        <v>13.2280851505747</v>
+        <v>13.7113492640704</v>
       </c>
       <c r="O30">
-        <v>652.017911734929</v>
+        <v>603.490178867757</v>
       </c>
       <c r="P30">
-        <v>6.39005142316133</v>
+        <v>9.71855305637288</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1446.70858320368</v>
+        <v>1610.39632538747</v>
       </c>
       <c r="C31">
-        <v>43.8791937127453</v>
+        <v>67.189202169279</v>
       </c>
       <c r="D31">
-        <v>30.9449178471575</v>
+        <v>12.2898173999277</v>
       </c>
       <c r="E31">
-        <v>26.0204844173732</v>
+        <v>49.1982258316291</v>
       </c>
       <c r="F31">
-        <v>11.6715760938095</v>
+        <v>6.60525293790256</v>
       </c>
       <c r="G31">
-        <v>142.062033695112</v>
+        <v>102.804722854928</v>
       </c>
       <c r="H31">
-        <v>20.8777391182434</v>
+        <v>8.027100185994399</v>
       </c>
       <c r="I31">
-        <v>26.1791475713167</v>
+        <v>26.5600679232545</v>
       </c>
       <c r="J31">
-        <v>36.7203503116519</v>
+        <v>34.6646216831168</v>
       </c>
       <c r="K31">
-        <v>29.6073290918081</v>
+        <v>7.50398281529585</v>
       </c>
       <c r="L31">
-        <v>78.9006286493359</v>
+        <v>71.4294128327488</v>
       </c>
       <c r="M31">
-        <v>18.2712041677845</v>
+        <v>21.7388014785226</v>
       </c>
       <c r="N31">
-        <v>63.3365338969068</v>
+        <v>54.5708106766467</v>
       </c>
       <c r="O31">
-        <v>3826.94864191799</v>
+        <v>3720.94648851958</v>
       </c>
       <c r="P31">
-        <v>10.4987593224297</v>
+        <v>13.6933673367086</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>383.96504300935</v>
+        <v>446.246960907804</v>
       </c>
       <c r="C32">
-        <v>7.07771402040115</v>
+        <v>3.61105456145186</v>
       </c>
       <c r="D32">
-        <v>3.21241511992783</v>
+        <v>0.388989568818604</v>
       </c>
       <c r="E32">
-        <v>4.1531440782136</v>
+        <v>2.78568347542252</v>
       </c>
       <c r="F32">
-        <v>34.0169264991777</v>
+        <v>25.7903445472624</v>
       </c>
       <c r="G32">
-        <v>0.685828115328624</v>
+        <v>1.73655778986168</v>
       </c>
       <c r="H32">
-        <v>0.338540055043477</v>
+        <v>1.36553429216876</v>
       </c>
       <c r="I32">
-        <v>5.47477072487681</v>
+        <v>0.945118666766369</v>
       </c>
       <c r="J32">
-        <v>6.99261948983497</v>
+        <v>4.14229110608925</v>
       </c>
       <c r="K32">
-        <v>5.35918348342294</v>
+        <v>2.21256075416923</v>
       </c>
       <c r="L32">
-        <v>13.4404302440988</v>
+        <v>14.5491056927228</v>
       </c>
       <c r="M32">
-        <v>3.31558130941117</v>
+        <v>3.35903816118209</v>
       </c>
       <c r="N32">
-        <v>7.90503614783134</v>
+        <v>12.3211230855264</v>
       </c>
       <c r="O32">
-        <v>841.7671039561679</v>
+        <v>806.204608338978</v>
       </c>
       <c r="P32">
-        <v>25.1624335131423</v>
+        <v>22.4130797049335</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>3741.4843304688</v>
+        <v>4239.43946196983</v>
       </c>
       <c r="C33">
-        <v>77.3787799261922</v>
+        <v>91.99911317587279</v>
       </c>
       <c r="D33">
-        <v>77.15626088765519</v>
+        <v>37.2884840202441</v>
       </c>
       <c r="E33">
-        <v>55.2229022465695</v>
+        <v>84.94657271288691</v>
       </c>
       <c r="F33">
-        <v>6.18607429502094</v>
+        <v>8.87032949660022</v>
       </c>
       <c r="G33">
-        <v>59.1404641257368</v>
+        <v>77.9109591427184</v>
       </c>
       <c r="H33">
-        <v>44.1459935980348</v>
+        <v>40.5234460927157</v>
       </c>
       <c r="I33">
-        <v>25.4293723856816</v>
+        <v>24.6235334562968</v>
       </c>
       <c r="J33">
-        <v>98.0803321581341</v>
+        <v>97.7824799131462</v>
       </c>
       <c r="K33">
-        <v>104.467708303803</v>
+        <v>67.35885815490011</v>
       </c>
       <c r="L33">
-        <v>140.301912345349</v>
+        <v>116.951212470955</v>
       </c>
       <c r="M33">
-        <v>86.5033293817652</v>
+        <v>67.8691468607816</v>
       </c>
       <c r="N33">
-        <v>174.570195971144</v>
+        <v>148.117379513819</v>
       </c>
       <c r="O33">
-        <v>8077.24692351535</v>
+        <v>7678.54010687844</v>
       </c>
       <c r="P33">
-        <v>52.3736524477192</v>
+        <v>56.6576188326917</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1468.32986165767</v>
+        <v>1789.13750429633</v>
       </c>
       <c r="C34">
-        <v>86.539479039019</v>
+        <v>75.1414948783391</v>
       </c>
       <c r="D34">
-        <v>199.709421362895</v>
+        <v>126.28094051631</v>
       </c>
       <c r="E34">
-        <v>57.3744145483027</v>
+        <v>46.1733244067803</v>
       </c>
       <c r="F34">
-        <v>5.30087981836888</v>
+        <v>2.5289227720022</v>
       </c>
       <c r="G34">
-        <v>72.7778747999883</v>
+        <v>46.569506955204</v>
       </c>
       <c r="H34">
-        <v>54.1216572168218</v>
+        <v>49.6332992192386</v>
       </c>
       <c r="I34">
-        <v>25.7104869013616</v>
+        <v>16.9396081599454</v>
       </c>
       <c r="J34">
-        <v>46.4751906531858</v>
+        <v>47.7272764605591</v>
       </c>
       <c r="K34">
-        <v>69.23622485593999</v>
+        <v>13.3802483231579</v>
       </c>
       <c r="L34">
-        <v>115.214348000049</v>
+        <v>120.501297492105</v>
       </c>
       <c r="M34">
-        <v>47.8648330881974</v>
+        <v>26.8566488858224</v>
       </c>
       <c r="N34">
-        <v>138.053529007283</v>
+        <v>131.429804586012</v>
       </c>
       <c r="O34">
-        <v>3263.12168159549</v>
+        <v>3143.28767850581</v>
       </c>
       <c r="P34">
-        <v>69.87111180933179</v>
+        <v>74.99255215415261</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>94.6098497792652</v>
+        <v>117.166318856874</v>
       </c>
       <c r="C35">
-        <v>8.836431479597019</v>
+        <v>8.98341856633029</v>
       </c>
       <c r="D35">
-        <v>0.664088241191072</v>
+        <v>0.204566294525249</v>
       </c>
       <c r="E35">
-        <v>3.7902049478465</v>
+        <v>3.05349206434104</v>
       </c>
       <c r="F35">
-        <v>6.15114886638344</v>
+        <v>4.43992337589771</v>
       </c>
       <c r="G35">
-        <v>0.185225672850392</v>
+        <v>1.56133469670484</v>
       </c>
       <c r="H35">
-        <v>0.66868835935798</v>
+        <v>0.0926104830122025</v>
       </c>
       <c r="I35">
-        <v>0.886561208495144</v>
+        <v>1.4062111304782</v>
       </c>
       <c r="J35">
-        <v>2.77966981723314</v>
+        <v>3.86496013856279</v>
       </c>
       <c r="K35">
-        <v>7.3519665093732</v>
+        <v>6.59676727719223</v>
       </c>
       <c r="L35">
-        <v>3.34601872142223</v>
+        <v>3.34410852223538</v>
       </c>
       <c r="M35">
-        <v>2.88048516160881</v>
+        <v>2.16878689329003</v>
       </c>
       <c r="N35">
-        <v>3.1869836073841</v>
+        <v>4.97953595384697</v>
       </c>
       <c r="O35">
-        <v>362.981730435633</v>
+        <v>333.066192740146</v>
       </c>
       <c r="P35">
-        <v>48.0493320074218</v>
+        <v>52.6212588175792</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>1955.48963113397</v>
+        <v>2449.31286626609</v>
       </c>
       <c r="C36">
-        <v>69.38635676134081</v>
+        <v>51.8270760466</v>
       </c>
       <c r="D36">
-        <v>14.702676829009</v>
+        <v>15.1713150015166</v>
       </c>
       <c r="E36">
-        <v>74.132566681225</v>
+        <v>143.309522011005</v>
       </c>
       <c r="F36">
-        <v>42.1350554979844</v>
+        <v>31.4420925553948</v>
       </c>
       <c r="G36">
-        <v>101.778921530757</v>
+        <v>90.05698374898201</v>
       </c>
       <c r="H36">
-        <v>112.474088005808</v>
+        <v>76.41119053671559</v>
       </c>
       <c r="I36">
-        <v>48.3357803439415</v>
+        <v>37.5001078570778</v>
       </c>
       <c r="J36">
-        <v>220.554464674576</v>
+        <v>185.612198116642</v>
       </c>
       <c r="K36">
-        <v>125.396029816985</v>
+        <v>49.1887253765684</v>
       </c>
       <c r="L36">
-        <v>102.490013438682</v>
+        <v>69.7570277135508</v>
       </c>
       <c r="M36">
-        <v>222.241027837943</v>
+        <v>211.1791151807</v>
       </c>
       <c r="N36">
-        <v>87.36406593552501</v>
+        <v>102.345097420058</v>
       </c>
       <c r="O36">
-        <v>4708.25047500759</v>
+        <v>4365.46638678859</v>
       </c>
       <c r="P36">
-        <v>37.6655671774994</v>
+        <v>38.0527173875019</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>650.088534806661</v>
+        <v>755.453858180506</v>
       </c>
       <c r="C37">
-        <v>23.9321498693003</v>
+        <v>20.679966191245</v>
       </c>
       <c r="D37">
-        <v>6.02187132748671</v>
+        <v>4.34674528881713</v>
       </c>
       <c r="E37">
-        <v>12.9539541979349</v>
+        <v>19.7532396955157</v>
       </c>
       <c r="F37">
-        <v>41.8960846117918</v>
+        <v>30.1853049786002</v>
       </c>
       <c r="G37">
-        <v>6.95784799573817</v>
+        <v>6.40132887299766</v>
       </c>
       <c r="H37">
-        <v>22.6108254465476</v>
+        <v>23.4500396160833</v>
       </c>
       <c r="I37">
-        <v>12.3483059383405</v>
+        <v>6.98155116202723</v>
       </c>
       <c r="J37">
-        <v>28.2003535369048</v>
+        <v>39.9536957247984</v>
       </c>
       <c r="K37">
-        <v>44.1208269780511</v>
+        <v>14.167400999514</v>
       </c>
       <c r="L37">
-        <v>25.741483420485</v>
+        <v>20.7625185042279</v>
       </c>
       <c r="M37">
-        <v>28.1053329408589</v>
+        <v>44.849121135614</v>
       </c>
       <c r="N37">
-        <v>16.422319360038</v>
+        <v>26.2786714554301</v>
       </c>
       <c r="O37">
-        <v>1387.88981852691</v>
+        <v>1291.35256744409</v>
       </c>
       <c r="P37">
-        <v>51.0159909066193</v>
+        <v>55.2820042880463</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>639.0964317511761</v>
+        <v>771.682141184771</v>
       </c>
       <c r="C38">
-        <v>26.4582541737479</v>
+        <v>24.5422323802818</v>
       </c>
       <c r="D38">
-        <v>16.8379177176226</v>
+        <v>6.18523585641728</v>
       </c>
       <c r="E38">
-        <v>44.9722141741138</v>
+        <v>44.8776296709518</v>
       </c>
       <c r="F38">
-        <v>2.57281964295318</v>
+        <v>1.69143277125505</v>
       </c>
       <c r="G38">
-        <v>6.20920587944886</v>
+        <v>10.7413201760734</v>
       </c>
       <c r="H38">
-        <v>7.48220410354667</v>
+        <v>3.46698101127238</v>
       </c>
       <c r="I38">
-        <v>2.82746878838883</v>
+        <v>1.89977301089891</v>
       </c>
       <c r="J38">
-        <v>38.8403157179966</v>
+        <v>42.6701693856819</v>
       </c>
       <c r="K38">
-        <v>17.2231587802527</v>
+        <v>2.63177958816664</v>
       </c>
       <c r="L38">
-        <v>84.17523621789771</v>
+        <v>71.1539038756611</v>
       </c>
       <c r="M38">
-        <v>22.734566380268</v>
+        <v>21.8413491789256</v>
       </c>
       <c r="N38">
-        <v>24.1335293978567</v>
+        <v>35.3581604144897</v>
       </c>
       <c r="O38">
-        <v>1492.63299050546</v>
+        <v>1392.18459792734</v>
       </c>
       <c r="P38">
-        <v>64.289076693864</v>
+        <v>64.0388833638231</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2132.07783080638</v>
+        <v>2658.03930635676</v>
       </c>
       <c r="C39">
-        <v>122.904167197227</v>
+        <v>98.9251930574473</v>
       </c>
       <c r="D39">
-        <v>57.9273353043694</v>
+        <v>34.4211267892076</v>
       </c>
       <c r="E39">
-        <v>81.6571260577623</v>
+        <v>130.223310171859</v>
       </c>
       <c r="F39">
-        <v>24.5233344525078</v>
+        <v>19.5791932443516</v>
       </c>
       <c r="G39">
-        <v>130.245909050553</v>
+        <v>132.14298151694</v>
       </c>
       <c r="H39">
-        <v>46.1537799213755</v>
+        <v>54.5869503143549</v>
       </c>
       <c r="I39">
-        <v>56.1123362480651</v>
+        <v>32.8032018859412</v>
       </c>
       <c r="J39">
-        <v>163.517977618327</v>
+        <v>165.914652527234</v>
       </c>
       <c r="K39">
-        <v>123.627145466539</v>
+        <v>64.6958447127418</v>
       </c>
       <c r="L39">
-        <v>116.250667212855</v>
+        <v>106.670711326183</v>
       </c>
       <c r="M39">
-        <v>76.4240807541613</v>
+        <v>75.887128854978</v>
       </c>
       <c r="N39">
-        <v>117.86941245317</v>
+        <v>120.563803606138</v>
       </c>
       <c r="O39">
-        <v>5362.3849590949</v>
+        <v>4915.10696410084</v>
       </c>
       <c r="P39">
-        <v>50.2883819354604</v>
+        <v>46.9811206189479</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>200.303564868447</v>
+        <v>242.188349814367</v>
       </c>
       <c r="C40">
-        <v>3.96755185489558</v>
+        <v>4.34343042199966</v>
       </c>
       <c r="D40">
-        <v>11.4483915313697</v>
+        <v>8.18310339335785</v>
       </c>
       <c r="E40">
-        <v>5.1745657997802</v>
+        <v>5.78173100380394</v>
       </c>
       <c r="F40">
-        <v>0.528270447843575</v>
+        <v>0.6097240389316661</v>
       </c>
       <c r="G40">
-        <v>7.56756523600556</v>
+        <v>4.57581892529531</v>
       </c>
       <c r="H40">
-        <v>8.87293884557864</v>
+        <v>4.84447576554861</v>
       </c>
       <c r="I40">
-        <v>2.43878365021799</v>
+        <v>1.70052992748935</v>
       </c>
       <c r="J40">
-        <v>15.6673579578852</v>
+        <v>12.4238591854262</v>
       </c>
       <c r="K40">
-        <v>8.730463563960109</v>
+        <v>2.14817316972017</v>
       </c>
       <c r="L40">
-        <v>14.7502518959621</v>
+        <v>16.0001447832091</v>
       </c>
       <c r="M40">
-        <v>8.01742453819633</v>
+        <v>5.26853798353125</v>
       </c>
       <c r="N40">
-        <v>33.8781166331196</v>
+        <v>23.975731508808</v>
       </c>
       <c r="O40">
-        <v>549.044797182409</v>
+        <v>534.853969379704</v>
       </c>
       <c r="P40">
-        <v>1.49119426080205</v>
+        <v>3.34262054336493</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>792.682189128064</v>
+        <v>944.618252892755</v>
       </c>
       <c r="C41">
-        <v>11.5178589963076</v>
+        <v>13.1198904077664</v>
       </c>
       <c r="D41">
-        <v>94.8425084124134</v>
+        <v>72.35826383356201</v>
       </c>
       <c r="E41">
-        <v>44.6074583325893</v>
+        <v>32.2626529738038</v>
       </c>
       <c r="F41">
-        <v>2.84709888122195</v>
+        <v>1.07940049361206</v>
       </c>
       <c r="G41">
-        <v>49.5115757082793</v>
+        <v>28.5529507022913</v>
       </c>
       <c r="H41">
-        <v>44.780679631592</v>
+        <v>35.8326814127389</v>
       </c>
       <c r="I41">
-        <v>8.17498806535148</v>
+        <v>16.2280119922925</v>
       </c>
       <c r="J41">
-        <v>67.3276014943131</v>
+        <v>37.9607431787265</v>
       </c>
       <c r="K41">
-        <v>39.6909291605073</v>
+        <v>6.30121009150927</v>
       </c>
       <c r="L41">
-        <v>29.5009526303408</v>
+        <v>28.144461771864</v>
       </c>
       <c r="M41">
-        <v>45.364625864169</v>
+        <v>27.5977499672338</v>
       </c>
       <c r="N41">
-        <v>25.0178695045316</v>
+        <v>15.7287044812516</v>
       </c>
       <c r="O41">
-        <v>1576.13980086053</v>
+        <v>1554.31476125722</v>
       </c>
       <c r="P41">
-        <v>17.988544473744</v>
+        <v>35.1149714329455</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>107.263322982478</v>
+        <v>137.410043379257</v>
       </c>
       <c r="C42">
-        <v>10.4158390244748</v>
+        <v>7.48737127244858</v>
       </c>
       <c r="D42">
-        <v>0.880712837266004</v>
+        <v>1.61284848632005</v>
       </c>
       <c r="E42">
-        <v>10.2483917082384</v>
+        <v>9.134493264797319</v>
       </c>
       <c r="F42">
-        <v>3.07878687815394</v>
+        <v>2.68762848668532</v>
       </c>
       <c r="G42">
-        <v>0.92477453362991</v>
+        <v>1.32798597475252</v>
       </c>
       <c r="H42">
-        <v>2.04140393902518</v>
+        <v>0.854085782470954</v>
       </c>
       <c r="I42">
-        <v>1.97275994595594</v>
+        <v>1.58198621028819</v>
       </c>
       <c r="J42">
-        <v>6.04991841253084</v>
+        <v>5.18632880313664</v>
       </c>
       <c r="K42">
-        <v>8.215155000553491</v>
+        <v>5.15645263475294</v>
       </c>
       <c r="L42">
-        <v>9.872087862546801</v>
+        <v>10.0846413302881</v>
       </c>
       <c r="M42">
-        <v>4.38476814528675</v>
+        <v>5.83275501037752</v>
       </c>
       <c r="N42">
-        <v>8.81846428791941</v>
+        <v>12.1210731135654</v>
       </c>
       <c r="O42">
-        <v>474.08891337938</v>
+        <v>438.09848367303</v>
       </c>
       <c r="P42">
-        <v>54.481067365327</v>
+        <v>60.8828543922674</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1206.99897126129</v>
+        <v>1399.25815616397</v>
       </c>
       <c r="C43">
-        <v>39.8577706926881</v>
+        <v>39.7569692242479</v>
       </c>
       <c r="D43">
-        <v>34.1985413059491</v>
+        <v>23.6055707867447</v>
       </c>
       <c r="E43">
-        <v>43.314792868268</v>
+        <v>85.26921000841151</v>
       </c>
       <c r="F43">
-        <v>8.00635709398308</v>
+        <v>5.12922505096372</v>
       </c>
       <c r="G43">
-        <v>32.9626798227457</v>
+        <v>30.854535353294</v>
       </c>
       <c r="H43">
-        <v>24.2158829389027</v>
+        <v>40.925593072553</v>
       </c>
       <c r="I43">
-        <v>28.2945964417739</v>
+        <v>28.9246589075794</v>
       </c>
       <c r="J43">
-        <v>48.371688697521</v>
+        <v>55.1161527214817</v>
       </c>
       <c r="K43">
-        <v>66.073329150867</v>
+        <v>12.9795557574247</v>
       </c>
       <c r="L43">
-        <v>45.4739949115222</v>
+        <v>46.5403424780752</v>
       </c>
       <c r="M43">
-        <v>86.776537222328</v>
+        <v>104.40978490055</v>
       </c>
       <c r="N43">
-        <v>65.1106862104832</v>
+        <v>62.1624834338641</v>
       </c>
       <c r="O43">
-        <v>2305.02728458084</v>
+        <v>2107.82271528969</v>
       </c>
       <c r="P43">
-        <v>46.6133818779825</v>
+        <v>46.4392739107047</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>3572.72993002423</v>
+        <v>4203.96280513322</v>
       </c>
       <c r="C44">
-        <v>161.115911117075</v>
+        <v>164.106601974114</v>
       </c>
       <c r="D44">
-        <v>55.7678648345588</v>
+        <v>17.329981876011</v>
       </c>
       <c r="E44">
-        <v>74.9330545174742</v>
+        <v>100.508454746728</v>
       </c>
       <c r="F44">
-        <v>261.816559447169</v>
+        <v>238.776017830507</v>
       </c>
       <c r="G44">
-        <v>144.76156431332</v>
+        <v>111.981963579956</v>
       </c>
       <c r="H44">
-        <v>46.3493009502354</v>
+        <v>40.0673457129277</v>
       </c>
       <c r="I44">
-        <v>54.6909090468616</v>
+        <v>40.9444536224352</v>
       </c>
       <c r="J44">
-        <v>119.461177283078</v>
+        <v>102.189297804451</v>
       </c>
       <c r="K44">
-        <v>110.542807901937</v>
+        <v>37.8528597770215</v>
       </c>
       <c r="L44">
-        <v>216.050059924855</v>
+        <v>151.062124396285</v>
       </c>
       <c r="M44">
-        <v>114.806390440365</v>
+        <v>80.1035808946389</v>
       </c>
       <c r="N44">
-        <v>86.221568522536</v>
+        <v>97.10217050048181</v>
       </c>
       <c r="O44">
-        <v>8572.71979601639</v>
+        <v>8205.906978283771</v>
       </c>
       <c r="P44">
-        <v>231.834906349836</v>
+        <v>234.049641387702</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>372.013613068661</v>
+        <v>417.647611119669</v>
       </c>
       <c r="C45">
-        <v>19.1370179258954</v>
+        <v>19.7921142238838</v>
       </c>
       <c r="D45">
-        <v>4.76848587553661</v>
+        <v>2.37846333200901</v>
       </c>
       <c r="E45">
-        <v>9.18432598597917</v>
+        <v>25.640350796087</v>
       </c>
       <c r="F45">
-        <v>24.9283925673665</v>
+        <v>24.830025460795</v>
       </c>
       <c r="G45">
-        <v>12.6927771175311</v>
+        <v>7.34045308246208</v>
       </c>
       <c r="H45">
-        <v>4.00645066819787</v>
+        <v>3.75252812922042</v>
       </c>
       <c r="I45">
-        <v>4.38090629206508</v>
+        <v>3.86659803873302</v>
       </c>
       <c r="J45">
-        <v>15.3277413730409</v>
+        <v>20.9078176863056</v>
       </c>
       <c r="K45">
-        <v>8.48106380253391</v>
+        <v>2.88905703449261</v>
       </c>
       <c r="L45">
-        <v>18.5001902131103</v>
+        <v>16.7948227132243</v>
       </c>
       <c r="M45">
-        <v>22.2564634442608</v>
+        <v>13.7683910340741</v>
       </c>
       <c r="N45">
-        <v>24.9078323230546</v>
+        <v>26.2472874330777</v>
       </c>
       <c r="O45">
-        <v>938.492811612936</v>
+        <v>883.918575305761</v>
       </c>
       <c r="P45">
-        <v>12.9953449076333</v>
+        <v>20.8816031512645</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>104.782567948511</v>
+        <v>124.901876697308</v>
       </c>
       <c r="C46">
-        <v>6.558703972897</v>
+        <v>5.88304453824911</v>
       </c>
       <c r="D46">
-        <v>1.95073870231717</v>
+        <v>0.998159494125991</v>
       </c>
       <c r="E46">
-        <v>6.64538748580825</v>
+        <v>6.31350418383477</v>
       </c>
       <c r="F46">
-        <v>1.73494435515161</v>
+        <v>0.893639019826926</v>
       </c>
       <c r="G46">
-        <v>3.1609094509527</v>
+        <v>3.06310200574634</v>
       </c>
       <c r="H46">
-        <v>4.13882271691576</v>
+        <v>1.32805836794695</v>
       </c>
       <c r="I46">
-        <v>1.93953263503411</v>
+        <v>2.17204007965446</v>
       </c>
       <c r="J46">
-        <v>6.0991872369592</v>
+        <v>6.07621947832013</v>
       </c>
       <c r="K46">
-        <v>4.33701663126823</v>
+        <v>1.2969709156213</v>
       </c>
       <c r="L46">
-        <v>18.1351729187356</v>
+        <v>15.1879921390481</v>
       </c>
       <c r="M46">
-        <v>5.79892290201161</v>
+        <v>3.95784639500737</v>
       </c>
       <c r="N46">
-        <v>8.74419085951339</v>
+        <v>13.3000339882715</v>
       </c>
       <c r="O46">
-        <v>383.678445946846</v>
+        <v>369.28685986575</v>
       </c>
       <c r="P46">
-        <v>12.0042583939741</v>
+        <v>11.6551488959867</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1151.32506257895</v>
+        <v>1474.63946359252</v>
       </c>
       <c r="C47">
-        <v>57.0139964811671</v>
+        <v>49.4722768774559</v>
       </c>
       <c r="D47">
-        <v>34.0911435206488</v>
+        <v>17.5274033957708</v>
       </c>
       <c r="E47">
-        <v>37.1537120042159</v>
+        <v>51.5286288659658</v>
       </c>
       <c r="F47">
-        <v>8.07711821143837</v>
+        <v>10.0524765207213</v>
       </c>
       <c r="G47">
-        <v>21.9769800159677</v>
+        <v>23.2715292954394</v>
       </c>
       <c r="H47">
-        <v>19.0587704931307</v>
+        <v>11.6911365061046</v>
       </c>
       <c r="I47">
-        <v>11.6401236055415</v>
+        <v>4.00568804498111</v>
       </c>
       <c r="J47">
-        <v>50.6765125777759</v>
+        <v>42.4717063831934</v>
       </c>
       <c r="K47">
-        <v>17.6856494826032</v>
+        <v>6.44550427841793</v>
       </c>
       <c r="L47">
-        <v>51.9030442310379</v>
+        <v>28.2735722642599</v>
       </c>
       <c r="M47">
-        <v>72.06128522568321</v>
+        <v>70.5344708414668</v>
       </c>
       <c r="N47">
-        <v>32.7727234713858</v>
+        <v>35.4045472787727</v>
       </c>
       <c r="O47">
-        <v>3254.83030281536</v>
+        <v>2992.10562900374</v>
       </c>
       <c r="P47">
-        <v>39.5410914531742</v>
+        <v>38.1940886409258</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1082.07163652528</v>
+        <v>1265.19529958235</v>
       </c>
       <c r="C48">
-        <v>19.2969291859232</v>
+        <v>29.3613899819088</v>
       </c>
       <c r="D48">
-        <v>7.17406979309633</v>
+        <v>3.46646142233663</v>
       </c>
       <c r="E48">
-        <v>68.9600595113839</v>
+        <v>76.1637592203639</v>
       </c>
       <c r="F48">
-        <v>13.1360423420023</v>
+        <v>9.49191284252451</v>
       </c>
       <c r="G48">
-        <v>5.2377293796698</v>
+        <v>7.1457724378753</v>
       </c>
       <c r="H48">
-        <v>4.29161268173645</v>
+        <v>3.77326481163804</v>
       </c>
       <c r="I48">
-        <v>14.4350542613568</v>
+        <v>9.62208311955607</v>
       </c>
       <c r="J48">
-        <v>30.886251989165</v>
+        <v>34.6297468703584</v>
       </c>
       <c r="K48">
-        <v>22.3630546081429</v>
+        <v>8.587256650412259</v>
       </c>
       <c r="L48">
-        <v>39.497383234553</v>
+        <v>53.220208926604</v>
       </c>
       <c r="M48">
-        <v>156.523944001072</v>
+        <v>131.165853077471</v>
       </c>
       <c r="N48">
-        <v>28.3722809643377</v>
+        <v>33.3263683330046</v>
       </c>
       <c r="O48">
-        <v>2556.24950420177</v>
+        <v>2377.71005989799</v>
       </c>
       <c r="P48">
-        <v>78.73746524326521</v>
+        <v>89.46506676412869</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>561.813623341661</v>
+        <v>684.121583664501</v>
       </c>
       <c r="C49">
-        <v>5.75705256896696</v>
+        <v>5.02931618747524</v>
       </c>
       <c r="D49">
-        <v>2.73921502965998</v>
+        <v>2.90084960758173</v>
       </c>
       <c r="E49">
-        <v>17.3581909870192</v>
+        <v>26.868301753799</v>
       </c>
       <c r="F49">
-        <v>40.1810335595083</v>
+        <v>29.9643483309413</v>
       </c>
       <c r="G49">
-        <v>20.9924941604493</v>
+        <v>14.3487390175937</v>
       </c>
       <c r="H49">
-        <v>10.4962424078612</v>
+        <v>8.22966603977128</v>
       </c>
       <c r="I49">
-        <v>7.71706167261605</v>
+        <v>3.60424072383707</v>
       </c>
       <c r="J49">
-        <v>27.3884776569699</v>
+        <v>23.3574359117772</v>
       </c>
       <c r="K49">
-        <v>8.597414305402451</v>
+        <v>1.59160253282421</v>
       </c>
       <c r="L49">
-        <v>2.99561281255042</v>
+        <v>1.48928682918525</v>
       </c>
       <c r="M49">
-        <v>7.14685481240988</v>
+        <v>4.75099590333936</v>
       </c>
       <c r="N49">
-        <v>3.86120937970399</v>
+        <v>4.72288163918549</v>
       </c>
       <c r="O49">
-        <v>757.411872177723</v>
+        <v>681.199468984701</v>
       </c>
       <c r="P49">
-        <v>12.6486651486498</v>
+        <v>7.61117854777229</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>762.791498196465</v>
+        <v>886.370640531882</v>
       </c>
       <c r="C50">
-        <v>83.7603656099144</v>
+        <v>78.124895101332</v>
       </c>
       <c r="D50">
-        <v>12.3429752165049</v>
+        <v>12.9516346149703</v>
       </c>
       <c r="E50">
-        <v>113.908216628993</v>
+        <v>148.860634499513</v>
       </c>
       <c r="F50">
-        <v>5.73783678750897</v>
+        <v>4.62914061665809</v>
       </c>
       <c r="G50">
-        <v>36.8829921332847</v>
+        <v>35.4732738276332</v>
       </c>
       <c r="H50">
-        <v>42.3572716872167</v>
+        <v>34.1135685895386</v>
       </c>
       <c r="I50">
-        <v>14.8864264224207</v>
+        <v>16.0083889524299</v>
       </c>
       <c r="J50">
-        <v>104.724657238395</v>
+        <v>103.993752419467</v>
       </c>
       <c r="K50">
-        <v>86.6217081096992</v>
+        <v>45.9153546138259</v>
       </c>
       <c r="L50">
-        <v>84.871062911468</v>
+        <v>57.2905967301312</v>
       </c>
       <c r="M50">
-        <v>26.5339642354028</v>
+        <v>44.9791720043251</v>
       </c>
       <c r="N50">
-        <v>79.11817818348899</v>
+        <v>56.9407220973323</v>
       </c>
       <c r="O50">
-        <v>2291.59780079906</v>
+        <v>2199.83474359463</v>
       </c>
       <c r="P50">
-        <v>67.0977510287394</v>
+        <v>79.0877922946251</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>120.45919660436</v>
+        <v>138.011021812348</v>
       </c>
       <c r="C51">
-        <v>2.65409180386533</v>
+        <v>6.1019795758164</v>
       </c>
       <c r="D51">
-        <v>0.108932516296346</v>
+        <v>0.0120574117710634</v>
       </c>
       <c r="E51">
-        <v>2.80868419635155</v>
+        <v>2.73442800421065</v>
       </c>
       <c r="F51">
-        <v>44.6255642812687</v>
+        <v>37.9284032741806</v>
       </c>
       <c r="G51">
-        <v>2.6192701412351</v>
+        <v>2.5821980363123</v>
       </c>
       <c r="H51">
-        <v>0.234354972925811</v>
+        <v>0.009784369829322639</v>
       </c>
       <c r="I51">
-        <v>1.5080615566006</v>
+        <v>1.1506772029369</v>
       </c>
       <c r="J51">
-        <v>2.82686044960839</v>
+        <v>1.39290185994158</v>
       </c>
       <c r="K51">
-        <v>1.21726757348668</v>
+        <v>0.472444952848295</v>
       </c>
       <c r="L51">
-        <v>0.282412642798658</v>
+        <v>0.5923397323835941</v>
       </c>
       <c r="M51">
-        <v>0.97157362939996</v>
+        <v>0.685784436092114</v>
       </c>
       <c r="N51">
-        <v>1.70296460872003</v>
+        <v>0.981199967004847</v>
       </c>
       <c r="O51">
-        <v>362.912228712132</v>
+        <v>341.871552534549</v>
       </c>
       <c r="P51">
-        <v>22.6108773185045</v>
+        <v>32.9187751555627</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1261.58790531261</v>
+        <v>1336.7939151147</v>
       </c>
       <c r="C2">
-        <v>23.6918366076675</v>
+        <v>24.1987653778925</v>
       </c>
       <c r="D2">
-        <v>29.6322695044824</v>
+        <v>30.4700215815743</v>
       </c>
       <c r="E2">
-        <v>61.7707790411105</v>
+        <v>59.9550443979603</v>
       </c>
       <c r="F2">
-        <v>21.6997893077609</v>
+        <v>21.1950903705033</v>
       </c>
       <c r="G2">
-        <v>12.5907092439866</v>
+        <v>11.7945717307195</v>
       </c>
       <c r="H2">
-        <v>23.0153144219557</v>
+        <v>20.9756561959894</v>
       </c>
       <c r="I2">
-        <v>17.7191851814637</v>
+        <v>17.0222491300849</v>
       </c>
       <c r="J2">
-        <v>85.9915516437741</v>
+        <v>84.6715991296828</v>
       </c>
       <c r="K2">
-        <v>15.5222323774115</v>
+        <v>15.1055125405494</v>
       </c>
       <c r="L2">
-        <v>51.5374873496568</v>
+        <v>50.847714800489</v>
       </c>
       <c r="M2">
-        <v>39.1888704627063</v>
+        <v>38.0425680432983</v>
       </c>
       <c r="N2">
-        <v>25.6648864842507</v>
+        <v>25.7088488626861</v>
       </c>
       <c r="O2">
-        <v>1463.1094573088</v>
+        <v>1408.37272830295</v>
       </c>
       <c r="P2">
-        <v>19.5235387858259</v>
+        <v>19.6920633496825</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>167.746240588348</v>
+        <v>160.31091627049</v>
       </c>
       <c r="C3">
-        <v>5.78079761485304</v>
+        <v>5.70780987509535</v>
       </c>
       <c r="D3">
-        <v>0.612574120474207</v>
+        <v>0.546709548838425</v>
       </c>
       <c r="E3">
-        <v>1.72180040470562</v>
+        <v>1.57242419953222</v>
       </c>
       <c r="F3">
-        <v>10.6816916350564</v>
+        <v>9.28728433106814</v>
       </c>
       <c r="G3">
-        <v>0.450441183078758</v>
+        <v>0.319452820812263</v>
       </c>
       <c r="H3">
-        <v>0.158893928375574</v>
+        <v>0.139812221630568</v>
       </c>
       <c r="I3">
-        <v>1.46500860595191</v>
+        <v>1.24522363381949</v>
       </c>
       <c r="J3">
-        <v>0.483306125697614</v>
+        <v>0.44357472887853</v>
       </c>
       <c r="K3">
-        <v>0.0101491332743757</v>
+        <v>0.008846836164906179</v>
       </c>
       <c r="L3">
-        <v>0.00172973363344703</v>
+        <v>0.00143919446298934</v>
       </c>
       <c r="M3">
-        <v>0.9394529033756041</v>
+        <v>0.848627721497686</v>
       </c>
       <c r="N3">
-        <v>0.88066848997523</v>
+        <v>0.794330846193063</v>
       </c>
       <c r="O3">
-        <v>399.656332426594</v>
+        <v>358.035011568784</v>
       </c>
       <c r="P3">
-        <v>16.2832708780958</v>
+        <v>15.1018060646522</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1234.86463506656</v>
+        <v>1326.53887380341</v>
       </c>
       <c r="C4">
-        <v>7.20928742643838</v>
+        <v>7.49871938994253</v>
       </c>
       <c r="D4">
-        <v>3.18272504433604</v>
+        <v>3.14667683568713</v>
       </c>
       <c r="E4">
-        <v>24.5286027446445</v>
+        <v>24.9670998487637</v>
       </c>
       <c r="F4">
-        <v>6.7542652958958</v>
+        <v>7.47732160725459</v>
       </c>
       <c r="G4">
-        <v>5.79875856954875</v>
+        <v>5.52368304774039</v>
       </c>
       <c r="H4">
-        <v>13.4319686461068</v>
+        <v>13.5880902239957</v>
       </c>
       <c r="I4">
-        <v>9.25980276777929</v>
+        <v>8.957727801574491</v>
       </c>
       <c r="J4">
-        <v>26.8614816231583</v>
+        <v>26.8810987625921</v>
       </c>
       <c r="K4">
-        <v>2.66509511271497</v>
+        <v>2.64234093141278</v>
       </c>
       <c r="L4">
-        <v>66.59882951599251</v>
+        <v>63.8586086257474</v>
       </c>
       <c r="M4">
-        <v>44.6343911380152</v>
+        <v>43.5775986895006</v>
       </c>
       <c r="N4">
-        <v>29.2593394038371</v>
+        <v>29.068749620483</v>
       </c>
       <c r="O4">
-        <v>2188.80821111859</v>
+        <v>2142.30654234724</v>
       </c>
       <c r="P4">
-        <v>16.5776304721742</v>
+        <v>16.6824517119814</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>660.840226832972</v>
+        <v>699.560362599272</v>
       </c>
       <c r="C5">
-        <v>47.032640078738</v>
+        <v>46.4692196083452</v>
       </c>
       <c r="D5">
-        <v>11.0992451452026</v>
+        <v>10.6479163296403</v>
       </c>
       <c r="E5">
-        <v>37.8999973035011</v>
+        <v>38.9319629987212</v>
       </c>
       <c r="F5">
-        <v>8.078603091367659</v>
+        <v>8.81924595052925</v>
       </c>
       <c r="G5">
-        <v>3.90952795686401</v>
+        <v>3.84018258746536</v>
       </c>
       <c r="H5">
-        <v>10.6796857325058</v>
+        <v>10.7050113732518</v>
       </c>
       <c r="I5">
-        <v>5.887863172027</v>
+        <v>5.79615592525257</v>
       </c>
       <c r="J5">
-        <v>33.8914977121916</v>
+        <v>33.532307486861</v>
       </c>
       <c r="K5">
-        <v>5.96069965827808</v>
+        <v>5.74501739537142</v>
       </c>
       <c r="L5">
-        <v>19.2594619585466</v>
+        <v>17.8930956291625</v>
       </c>
       <c r="M5">
-        <v>19.2401456157737</v>
+        <v>19.6940676054421</v>
       </c>
       <c r="N5">
-        <v>20.5706387080226</v>
+        <v>20.5635301749685</v>
       </c>
       <c r="O5">
-        <v>968.071433431242</v>
+        <v>935.6618150588261</v>
       </c>
       <c r="P5">
-        <v>58.9147816267434</v>
+        <v>59.6567362941468</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7202.59003813107</v>
+        <v>7684.79373291708</v>
       </c>
       <c r="C6">
-        <v>208.379603887525</v>
+        <v>210.151672756089</v>
       </c>
       <c r="D6">
-        <v>53.5976999886112</v>
+        <v>50.9375371227336</v>
       </c>
       <c r="E6">
-        <v>191.078539198743</v>
+        <v>191.400009031647</v>
       </c>
       <c r="F6">
-        <v>42.6647311059143</v>
+        <v>41.6340145403682</v>
       </c>
       <c r="G6">
-        <v>130.876147732319</v>
+        <v>127.777819214088</v>
       </c>
       <c r="H6">
-        <v>57.5683803520714</v>
+        <v>55.9675612401467</v>
       </c>
       <c r="I6">
-        <v>53.2583253495284</v>
+        <v>51.4659248081204</v>
       </c>
       <c r="J6">
-        <v>204.241815589178</v>
+        <v>200.089222439193</v>
       </c>
       <c r="K6">
-        <v>50.2725284005576</v>
+        <v>49.6427370517999</v>
       </c>
       <c r="L6">
-        <v>469.856411515024</v>
+        <v>461.978646253179</v>
       </c>
       <c r="M6">
-        <v>289.993744338714</v>
+        <v>279.166515148309</v>
       </c>
       <c r="N6">
-        <v>278.729051408766</v>
+        <v>269.769830547881</v>
       </c>
       <c r="O6">
-        <v>12997.8781945641</v>
+        <v>12682.2921194959</v>
       </c>
       <c r="P6">
-        <v>277.697648640722</v>
+        <v>290.643240735011</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>733.979382478668</v>
+        <v>775.988342529582</v>
       </c>
       <c r="C7">
-        <v>38.7618668842197</v>
+        <v>38.0224090394119</v>
       </c>
       <c r="D7">
-        <v>3.76317340352472</v>
+        <v>3.65302920326941</v>
       </c>
       <c r="E7">
-        <v>22.1747773065484</v>
+        <v>22.2269678903073</v>
       </c>
       <c r="F7">
-        <v>11.0372459701693</v>
+        <v>11.7453783775204</v>
       </c>
       <c r="G7">
-        <v>6.97931002863155</v>
+        <v>6.6959825195117</v>
       </c>
       <c r="H7">
-        <v>3.06160926365128</v>
+        <v>2.88297450735083</v>
       </c>
       <c r="I7">
-        <v>9.463125759131509</v>
+        <v>9.397833285504291</v>
       </c>
       <c r="J7">
-        <v>16.6036213891711</v>
+        <v>16.1495531037476</v>
       </c>
       <c r="K7">
-        <v>2.63289403960575</v>
+        <v>2.60338433269356</v>
       </c>
       <c r="L7">
-        <v>58.0529906419266</v>
+        <v>56.7504559572486</v>
       </c>
       <c r="M7">
-        <v>15.9199139047239</v>
+        <v>15.5140324062031</v>
       </c>
       <c r="N7">
-        <v>27.7520114024644</v>
+        <v>27.1798366216782</v>
       </c>
       <c r="O7">
-        <v>1931.83493025126</v>
+        <v>1906.64911280976</v>
       </c>
       <c r="P7">
-        <v>22.816782383977</v>
+        <v>26.9838614506429</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>609.376712603271</v>
+        <v>657.142715422576</v>
       </c>
       <c r="C8">
-        <v>15.8760536627051</v>
+        <v>15.7645138378707</v>
       </c>
       <c r="D8">
-        <v>2.86527831463941</v>
+        <v>2.87403031053224</v>
       </c>
       <c r="E8">
-        <v>24.2558294466811</v>
+        <v>24.271052689253</v>
       </c>
       <c r="F8">
-        <v>2.0287160823284</v>
+        <v>1.97849576398688</v>
       </c>
       <c r="G8">
-        <v>27.6798361364469</v>
+        <v>25.9237581449673</v>
       </c>
       <c r="H8">
-        <v>10.1581257360185</v>
+        <v>9.68759434435751</v>
       </c>
       <c r="I8">
-        <v>7.19901421468347</v>
+        <v>6.94750260988971</v>
       </c>
       <c r="J8">
-        <v>37.2218045849852</v>
+        <v>36.5984671471055</v>
       </c>
       <c r="K8">
-        <v>12.5027993043696</v>
+        <v>11.8451503962953</v>
       </c>
       <c r="L8">
-        <v>53.503123217292</v>
+        <v>51.2408938464875</v>
       </c>
       <c r="M8">
-        <v>54.0208126227189</v>
+        <v>51.0076879752769</v>
       </c>
       <c r="N8">
-        <v>25.701272654234</v>
+        <v>24.4047391245029</v>
       </c>
       <c r="O8">
-        <v>1451.80082639669</v>
+        <v>1415.94182245343</v>
       </c>
       <c r="P8">
-        <v>6.20688751539566</v>
+        <v>6.30418674551912</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>222.824277224396</v>
+        <v>223.638910372386</v>
       </c>
       <c r="C9">
-        <v>10.2234491332636</v>
+        <v>9.82299491686366</v>
       </c>
       <c r="D9">
-        <v>2.26162957861077</v>
+        <v>2.10561103509313</v>
       </c>
       <c r="E9">
-        <v>5.3951787554041</v>
+        <v>5.08385715744709</v>
       </c>
       <c r="F9">
-        <v>0.972255559350697</v>
+        <v>0.877763336542325</v>
       </c>
       <c r="G9">
-        <v>26.3996299444401</v>
+        <v>23.7746740057084</v>
       </c>
       <c r="H9">
-        <v>4.5432373568539</v>
+        <v>4.10628770278704</v>
       </c>
       <c r="I9">
-        <v>1.30410266907806</v>
+        <v>1.18964393273159</v>
       </c>
       <c r="J9">
-        <v>7.11471774401781</v>
+        <v>6.54539471292826</v>
       </c>
       <c r="K9">
-        <v>0.837446706749143</v>
+        <v>0.765670835857835</v>
       </c>
       <c r="L9">
-        <v>3.79045941214754</v>
+        <v>3.53847322605812</v>
       </c>
       <c r="M9">
-        <v>8.798576783376911</v>
+        <v>8.305450285749229</v>
       </c>
       <c r="N9">
-        <v>5.30132564970494</v>
+        <v>4.78172585473436</v>
       </c>
       <c r="O9">
-        <v>444.268037751665</v>
+        <v>408.782483487019</v>
       </c>
       <c r="P9">
-        <v>7.13295684317261</v>
+        <v>6.6880070161499</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>3825.69927020782</v>
+        <v>4144.55778074525</v>
       </c>
       <c r="C10">
-        <v>75.9403056855607</v>
+        <v>74.79413484300289</v>
       </c>
       <c r="D10">
-        <v>15.936424635784</v>
+        <v>15.3759787717702</v>
       </c>
       <c r="E10">
-        <v>56.7784993044337</v>
+        <v>56.5377048584135</v>
       </c>
       <c r="F10">
-        <v>9.723707929136801</v>
+        <v>9.38470847870474</v>
       </c>
       <c r="G10">
-        <v>46.2560126641344</v>
+        <v>45.0380841472969</v>
       </c>
       <c r="H10">
-        <v>14.9315741385215</v>
+        <v>14.3889163163086</v>
       </c>
       <c r="I10">
-        <v>39.9755421716713</v>
+        <v>37.8579631083101</v>
       </c>
       <c r="J10">
-        <v>61.8242772135693</v>
+        <v>60.3632708696094</v>
       </c>
       <c r="K10">
-        <v>11.7916299946692</v>
+        <v>11.1165729520699</v>
       </c>
       <c r="L10">
-        <v>80.474232560291</v>
+        <v>76.660572207766</v>
       </c>
       <c r="M10">
-        <v>72.864335512319</v>
+        <v>70.1454288406365</v>
       </c>
       <c r="N10">
-        <v>86.5920687296467</v>
+        <v>84.7625464247657</v>
       </c>
       <c r="O10">
-        <v>7586.67000991713</v>
+        <v>7371.24140231888</v>
       </c>
       <c r="P10">
-        <v>78.6093232771305</v>
+        <v>78.6694444919857</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1796.90949695451</v>
+        <v>1887.87615997138</v>
       </c>
       <c r="C11">
-        <v>66.2100709851336</v>
+        <v>66.7345606480073</v>
       </c>
       <c r="D11">
-        <v>171.100708716538</v>
+        <v>167.231460381665</v>
       </c>
       <c r="E11">
-        <v>76.51542349424891</v>
+        <v>76.6630815090805</v>
       </c>
       <c r="F11">
-        <v>5.58977012003514</v>
+        <v>5.5471863635298</v>
       </c>
       <c r="G11">
-        <v>27.6737581209236</v>
+        <v>28.2944987722324</v>
       </c>
       <c r="H11">
-        <v>18.9061683028939</v>
+        <v>19.0640382708834</v>
       </c>
       <c r="I11">
-        <v>11.3636803318869</v>
+        <v>11.0615979377242</v>
       </c>
       <c r="J11">
-        <v>45.4016964075237</v>
+        <v>45.2363934994225</v>
       </c>
       <c r="K11">
-        <v>10.3297479274121</v>
+        <v>9.93713053994143</v>
       </c>
       <c r="L11">
-        <v>51.6862715260761</v>
+        <v>50.709923215307</v>
       </c>
       <c r="M11">
-        <v>37.9786649887487</v>
+        <v>37.6363524252742</v>
       </c>
       <c r="N11">
-        <v>61.0631638362934</v>
+        <v>60.3143856842259</v>
       </c>
       <c r="O11">
-        <v>3260.93066811495</v>
+        <v>3189.62065214448</v>
       </c>
       <c r="P11">
-        <v>51.1687222435668</v>
+        <v>53.9596040047198</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>293.924093571814</v>
+        <v>303.738428371173</v>
       </c>
       <c r="C12">
-        <v>7.43850686674617</v>
+        <v>6.58641544851494</v>
       </c>
       <c r="D12">
-        <v>0.304462703660356</v>
+        <v>0.274398327465335</v>
       </c>
       <c r="E12">
-        <v>4.82699663279532</v>
+        <v>4.40806980292134</v>
       </c>
       <c r="F12">
-        <v>1.15546481294737</v>
+        <v>1.01053292300424</v>
       </c>
       <c r="G12">
-        <v>0.818327245595845</v>
+        <v>0.760809974795124</v>
       </c>
       <c r="H12">
-        <v>0.352571068734393</v>
+        <v>0.326713740319268</v>
       </c>
       <c r="I12">
-        <v>1.31490384409008</v>
+        <v>1.18171168683741</v>
       </c>
       <c r="J12">
-        <v>2.46631725992042</v>
+        <v>2.11650747270011</v>
       </c>
       <c r="K12">
-        <v>0.00478640129713078</v>
+        <v>0.00392224627334097</v>
       </c>
       <c r="L12">
-        <v>0.510932096353229</v>
+        <v>0.466183677534851</v>
       </c>
       <c r="M12">
-        <v>4.08323237957159</v>
+        <v>3.72677071679479</v>
       </c>
       <c r="N12">
-        <v>3.41775455086451</v>
+        <v>3.1661764778066</v>
       </c>
       <c r="O12">
-        <v>688.779963773879</v>
+        <v>635.05425549415</v>
       </c>
       <c r="P12">
-        <v>24.3380606919013</v>
+        <v>22.9945864792835</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>257.51512953576</v>
+        <v>269.848826018322</v>
       </c>
       <c r="C13">
-        <v>19.3962825889161</v>
+        <v>18.9257499222438</v>
       </c>
       <c r="D13">
-        <v>0.736549603001092</v>
+        <v>0.71498286158838</v>
       </c>
       <c r="E13">
-        <v>12.703958877645</v>
+        <v>12.4163073872302</v>
       </c>
       <c r="F13">
-        <v>3.10469496032092</v>
+        <v>2.96386025727427</v>
       </c>
       <c r="G13">
-        <v>5.73017248459846</v>
+        <v>5.44051288871358</v>
       </c>
       <c r="H13">
-        <v>3.23261801343663</v>
+        <v>3.01532591050937</v>
       </c>
       <c r="I13">
-        <v>2.33029377626962</v>
+        <v>2.14735271826978</v>
       </c>
       <c r="J13">
-        <v>5.94663936821906</v>
+        <v>5.78095060279754</v>
       </c>
       <c r="K13">
-        <v>4.81692870989663</v>
+        <v>4.15172230579085</v>
       </c>
       <c r="L13">
-        <v>16.8923716848328</v>
+        <v>15.7495030471699</v>
       </c>
       <c r="M13">
-        <v>1.3090274017891</v>
+        <v>1.2976863327472</v>
       </c>
       <c r="N13">
-        <v>5.29916184843781</v>
+        <v>5.04322526194961</v>
       </c>
       <c r="O13">
-        <v>610.995044222529</v>
+        <v>583.700010113677</v>
       </c>
       <c r="P13">
-        <v>52.9194679580026</v>
+        <v>50.93455887404</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2405.30641051616</v>
+        <v>2572.72864292377</v>
       </c>
       <c r="C14">
-        <v>110.147557036217</v>
+        <v>108.798622093763</v>
       </c>
       <c r="D14">
-        <v>9.957481425913141</v>
+        <v>10.1560936792857</v>
       </c>
       <c r="E14">
-        <v>94.1464934148074</v>
+        <v>96.1649625991612</v>
       </c>
       <c r="F14">
-        <v>19.2612565431201</v>
+        <v>19.214394835873</v>
       </c>
       <c r="G14">
-        <v>80.4985131343813</v>
+        <v>76.14453300074641</v>
       </c>
       <c r="H14">
-        <v>38.8703376353012</v>
+        <v>38.2337473474208</v>
       </c>
       <c r="I14">
-        <v>20.8358576183804</v>
+        <v>20.1733204536531</v>
       </c>
       <c r="J14">
-        <v>141.032186723885</v>
+        <v>140.682304124187</v>
       </c>
       <c r="K14">
-        <v>113.711537252232</v>
+        <v>111.845546177332</v>
       </c>
       <c r="L14">
-        <v>113.347284883221</v>
+        <v>111.910371872969</v>
       </c>
       <c r="M14">
-        <v>73.8810894319469</v>
+        <v>73.5667875904429</v>
       </c>
       <c r="N14">
-        <v>92.29579935382969</v>
+        <v>91.0180305563666</v>
       </c>
       <c r="O14">
-        <v>5046.59125037511</v>
+        <v>4907.96169258536</v>
       </c>
       <c r="P14">
-        <v>47.2907147381894</v>
+        <v>54.9611299363026</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1216.4879723026</v>
+        <v>1281.30903754037</v>
       </c>
       <c r="C15">
-        <v>44.7651664197206</v>
+        <v>44.8760441134706</v>
       </c>
       <c r="D15">
-        <v>9.379519900855851</v>
+        <v>9.19085384922626</v>
       </c>
       <c r="E15">
-        <v>89.3649361995859</v>
+        <v>87.95874544025391</v>
       </c>
       <c r="F15">
-        <v>24.0412844684036</v>
+        <v>24.18567179784</v>
       </c>
       <c r="G15">
-        <v>52.1815427433438</v>
+        <v>51.7909225844047</v>
       </c>
       <c r="H15">
-        <v>39.4343727277455</v>
+        <v>38.3745146752752</v>
       </c>
       <c r="I15">
-        <v>25.2259331712256</v>
+        <v>24.3918858843465</v>
       </c>
       <c r="J15">
-        <v>172.17453139727</v>
+        <v>167.574537623916</v>
       </c>
       <c r="K15">
-        <v>19.5399302396338</v>
+        <v>19.256363316392</v>
       </c>
       <c r="L15">
-        <v>39.346591209731</v>
+        <v>38.8899033111309</v>
       </c>
       <c r="M15">
-        <v>172.896186098633</v>
+        <v>177.076726063981</v>
       </c>
       <c r="N15">
-        <v>88.9558748718533</v>
+        <v>84.5799954439384</v>
       </c>
       <c r="O15">
-        <v>2230.24316519561</v>
+        <v>2173.91920016359</v>
       </c>
       <c r="P15">
-        <v>45.0385275408239</v>
+        <v>44.0708947084501</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>477.181004175777</v>
+        <v>516.107897172129</v>
       </c>
       <c r="C16">
-        <v>67.0262674874637</v>
+        <v>64.49184642650739</v>
       </c>
       <c r="D16">
-        <v>6.71566441986825</v>
+        <v>5.97042714203306</v>
       </c>
       <c r="E16">
-        <v>29.4848516238303</v>
+        <v>28.9954544587243</v>
       </c>
       <c r="F16">
-        <v>2.88591533205789</v>
+        <v>2.47814404749206</v>
       </c>
       <c r="G16">
-        <v>22.7163506478678</v>
+        <v>22.9616254233712</v>
       </c>
       <c r="H16">
-        <v>15.37532321201</v>
+        <v>15.7971994603552</v>
       </c>
       <c r="I16">
-        <v>8.730572759118051</v>
+        <v>8.800210558526089</v>
       </c>
       <c r="J16">
-        <v>55.2654679820868</v>
+        <v>54.0977395518253</v>
       </c>
       <c r="K16">
-        <v>40.468081718946</v>
+        <v>38.8734721866018</v>
       </c>
       <c r="L16">
-        <v>24.3151156301906</v>
+        <v>25.1602407685073</v>
       </c>
       <c r="M16">
-        <v>24.376989946374</v>
+        <v>25.3967631645854</v>
       </c>
       <c r="N16">
-        <v>31.0889552374936</v>
+        <v>29.255521265138</v>
       </c>
       <c r="O16">
-        <v>1290.10868471295</v>
+        <v>1226.81417555966</v>
       </c>
       <c r="P16">
-        <v>86.656623643836</v>
+        <v>81.7296798404108</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>494.861789796661</v>
+        <v>526.2421400890061</v>
       </c>
       <c r="C17">
-        <v>18.9596589209297</v>
+        <v>19.1762282377615</v>
       </c>
       <c r="D17">
-        <v>4.39186682543086</v>
+        <v>4.23523941022314</v>
       </c>
       <c r="E17">
-        <v>31.3782547737438</v>
+        <v>30.6814090735706</v>
       </c>
       <c r="F17">
-        <v>9.78924196796317</v>
+        <v>11.4343344834338</v>
       </c>
       <c r="G17">
-        <v>6.52249700878845</v>
+        <v>6.54899533444038</v>
       </c>
       <c r="H17">
-        <v>6.99446285811325</v>
+        <v>7.61341559357533</v>
       </c>
       <c r="I17">
-        <v>10.5553881765091</v>
+        <v>9.730693578104869</v>
       </c>
       <c r="J17">
-        <v>20.247575111477</v>
+        <v>19.8831094604592</v>
       </c>
       <c r="K17">
-        <v>8.774682404741741</v>
+        <v>8.53047438105194</v>
       </c>
       <c r="L17">
-        <v>13.3399368242422</v>
+        <v>12.6411994408295</v>
       </c>
       <c r="M17">
-        <v>64.4353459546295</v>
+        <v>62.0441915600281</v>
       </c>
       <c r="N17">
-        <v>15.8334675802641</v>
+        <v>15.4626979880276</v>
       </c>
       <c r="O17">
-        <v>1183.51581416992</v>
+        <v>1123.04983494241</v>
       </c>
       <c r="P17">
-        <v>51.9761767116514</v>
+        <v>53.4893380029048</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1133.40584206344</v>
+        <v>1175.84492951019</v>
       </c>
       <c r="C18">
-        <v>36.9511851818387</v>
+        <v>35.6733528270722</v>
       </c>
       <c r="D18">
-        <v>2.5948891726647</v>
+        <v>2.66080238390095</v>
       </c>
       <c r="E18">
-        <v>34.247951088081</v>
+        <v>34.5436064749072</v>
       </c>
       <c r="F18">
-        <v>32.6165421548529</v>
+        <v>30.7446972519038</v>
       </c>
       <c r="G18">
-        <v>23.4323516697284</v>
+        <v>21.4940953535844</v>
       </c>
       <c r="H18">
-        <v>19.363904457217</v>
+        <v>19.5835848162995</v>
       </c>
       <c r="I18">
-        <v>2.3882160807557</v>
+        <v>2.394720480357</v>
       </c>
       <c r="J18">
-        <v>43.1862299309977</v>
+        <v>42.4550432871902</v>
       </c>
       <c r="K18">
-        <v>7.86533888758373</v>
+        <v>7.57812583359009</v>
       </c>
       <c r="L18">
-        <v>37.3305835783108</v>
+        <v>36.4820510818591</v>
       </c>
       <c r="M18">
-        <v>64.4174626164463</v>
+        <v>65.1794313399496</v>
       </c>
       <c r="N18">
-        <v>23.9163102638614</v>
+        <v>23.7617474544627</v>
       </c>
       <c r="O18">
-        <v>1576.79290356294</v>
+        <v>1501.7401251445</v>
       </c>
       <c r="P18">
-        <v>57.9489458459617</v>
+        <v>56.9241977516989</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1148.32130833658</v>
+        <v>1195.03064711061</v>
       </c>
       <c r="C19">
-        <v>33.3595892756595</v>
+        <v>32.6475536128522</v>
       </c>
       <c r="D19">
-        <v>4.73339675312234</v>
+        <v>4.69907926908619</v>
       </c>
       <c r="E19">
-        <v>48.4112211779691</v>
+        <v>49.4619435212927</v>
       </c>
       <c r="F19">
-        <v>90.03893115523189</v>
+        <v>86.6086633937601</v>
       </c>
       <c r="G19">
-        <v>49.5192011918085</v>
+        <v>49.0950914407634</v>
       </c>
       <c r="H19">
-        <v>8.87262531655942</v>
+        <v>8.965531057777</v>
       </c>
       <c r="I19">
-        <v>2.60584483489141</v>
+        <v>2.62177599511272</v>
       </c>
       <c r="J19">
-        <v>17.8789855577811</v>
+        <v>17.4572713331252</v>
       </c>
       <c r="K19">
-        <v>7.06861327746923</v>
+        <v>6.85233542941621</v>
       </c>
       <c r="L19">
-        <v>2.44008777219762</v>
+        <v>2.44674345340804</v>
       </c>
       <c r="M19">
-        <v>35.4818235288855</v>
+        <v>35.5872827836128</v>
       </c>
       <c r="N19">
-        <v>10.3304873751879</v>
+        <v>10.3813771072574</v>
       </c>
       <c r="O19">
-        <v>1635.63398794654</v>
+        <v>1575.44597109289</v>
       </c>
       <c r="P19">
-        <v>45.2119384243087</v>
+        <v>45.1221026467715</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>278.579639245259</v>
+        <v>294.619343966722</v>
       </c>
       <c r="C20">
-        <v>11.5558110572269</v>
+        <v>11.1400935397811</v>
       </c>
       <c r="D20">
-        <v>7.00318551589859</v>
+        <v>6.99781406044684</v>
       </c>
       <c r="E20">
-        <v>36.2413609110722</v>
+        <v>35.9901070385929</v>
       </c>
       <c r="F20">
-        <v>1.65661611073354</v>
+        <v>1.55333071760547</v>
       </c>
       <c r="G20">
-        <v>2.43389690740195</v>
+        <v>2.28253269606308</v>
       </c>
       <c r="H20">
-        <v>0.996530233315413</v>
+        <v>0.968129501829375</v>
       </c>
       <c r="I20">
-        <v>1.54207542717926</v>
+        <v>1.55663884732268</v>
       </c>
       <c r="J20">
-        <v>5.30924805787712</v>
+        <v>5.21679667981953</v>
       </c>
       <c r="K20">
-        <v>1.20480858634478</v>
+        <v>1.13738481970383</v>
       </c>
       <c r="L20">
-        <v>7.60974639784753</v>
+        <v>7.5527363861819</v>
       </c>
       <c r="M20">
-        <v>20.7287021074821</v>
+        <v>19.5697581976376</v>
       </c>
       <c r="N20">
-        <v>7.2575632898063</v>
+        <v>7.00750943361913</v>
       </c>
       <c r="O20">
-        <v>603.226388771735</v>
+        <v>571.507206303393</v>
       </c>
       <c r="P20">
-        <v>23.9804465570352</v>
+        <v>23.9668072905239</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1029.13648830985</v>
+        <v>1088.49917147508</v>
       </c>
       <c r="C21">
-        <v>24.8741784574375</v>
+        <v>24.7951244323274</v>
       </c>
       <c r="D21">
-        <v>1.95589639255203</v>
+        <v>1.96707521383751</v>
       </c>
       <c r="E21">
-        <v>23.9033764419808</v>
+        <v>23.6640582626693</v>
       </c>
       <c r="F21">
-        <v>4.07736953690567</v>
+        <v>3.89284514379493</v>
       </c>
       <c r="G21">
-        <v>15.6462155381673</v>
+        <v>15.1006199755089</v>
       </c>
       <c r="H21">
-        <v>7.85319119812947</v>
+        <v>7.39188555414084</v>
       </c>
       <c r="I21">
-        <v>18.2427290053979</v>
+        <v>18.5057111436441</v>
       </c>
       <c r="J21">
-        <v>19.4049092798683</v>
+        <v>19.2911968646778</v>
       </c>
       <c r="K21">
-        <v>1.05960467511374</v>
+        <v>1.02868833409471</v>
       </c>
       <c r="L21">
-        <v>31.1755966128639</v>
+        <v>30.6096974295916</v>
       </c>
       <c r="M21">
-        <v>21.9861665950332</v>
+        <v>20.9333496855282</v>
       </c>
       <c r="N21">
-        <v>17.0337235312381</v>
+        <v>16.9088725137798</v>
       </c>
       <c r="O21">
-        <v>2398.36434082134</v>
+        <v>2351.19723981426</v>
       </c>
       <c r="P21">
-        <v>22.2547019250296</v>
+        <v>22.2452801174487</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1141.67327286559</v>
+        <v>1216.45376844249</v>
       </c>
       <c r="C22">
-        <v>18.5167004015634</v>
+        <v>18.6349829579772</v>
       </c>
       <c r="D22">
-        <v>17.0196456884596</v>
+        <v>17.3121439096802</v>
       </c>
       <c r="E22">
-        <v>50.8342208102129</v>
+        <v>51.7627354845829</v>
       </c>
       <c r="F22">
-        <v>4.05394172445311</v>
+        <v>4.06407158793846</v>
       </c>
       <c r="G22">
-        <v>36.337137759817</v>
+        <v>34.9951366392344</v>
       </c>
       <c r="H22">
-        <v>14.593491120134</v>
+        <v>13.831536331494</v>
       </c>
       <c r="I22">
-        <v>13.2549200952558</v>
+        <v>13.3747985513668</v>
       </c>
       <c r="J22">
-        <v>40.0726859667688</v>
+        <v>38.557601205031</v>
       </c>
       <c r="K22">
-        <v>6.80428907774146</v>
+        <v>6.61636645544166</v>
       </c>
       <c r="L22">
-        <v>126.973994515867</v>
+        <v>122.95139192189</v>
       </c>
       <c r="M22">
-        <v>16.9756569722703</v>
+        <v>15.975813800058</v>
       </c>
       <c r="N22">
-        <v>71.9147316372855</v>
+        <v>69.3800623097998</v>
       </c>
       <c r="O22">
-        <v>2706.22766669033</v>
+        <v>2654.27768134316</v>
       </c>
       <c r="P22">
-        <v>11.1359687755183</v>
+        <v>11.2809074358261</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2257.97730813214</v>
+        <v>2398.7867378989</v>
       </c>
       <c r="C23">
-        <v>31.8313108570664</v>
+        <v>31.579731903589</v>
       </c>
       <c r="D23">
-        <v>7.75322818252307</v>
+        <v>7.44175641629817</v>
       </c>
       <c r="E23">
-        <v>49.8902911297277</v>
+        <v>50.0180070658466</v>
       </c>
       <c r="F23">
-        <v>4.58512722223855</v>
+        <v>4.58490884784815</v>
       </c>
       <c r="G23">
-        <v>63.0573612380508</v>
+        <v>60.4494759205685</v>
       </c>
       <c r="H23">
-        <v>49.7229210401406</v>
+        <v>48.2800197415053</v>
       </c>
       <c r="I23">
-        <v>12.6714137549881</v>
+        <v>12.203032270637</v>
       </c>
       <c r="J23">
-        <v>130.952069272056</v>
+        <v>128.077642484233</v>
       </c>
       <c r="K23">
-        <v>59.2858785411392</v>
+        <v>55.7778105295154</v>
       </c>
       <c r="L23">
-        <v>35.3424798516982</v>
+        <v>33.5861707658568</v>
       </c>
       <c r="M23">
-        <v>576.675392947662</v>
+        <v>552.091912563131</v>
       </c>
       <c r="N23">
-        <v>92.7229392836403</v>
+        <v>89.0204547243642</v>
       </c>
       <c r="O23">
-        <v>3526.53082436735</v>
+        <v>3413.47455680725</v>
       </c>
       <c r="P23">
-        <v>44.5410244982877</v>
+        <v>47.1310755364661</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>755.027532414506</v>
+        <v>812.148870588549</v>
       </c>
       <c r="C24">
-        <v>48.5637742375361</v>
+        <v>51.1488726101407</v>
       </c>
       <c r="D24">
-        <v>4.75794861560692</v>
+        <v>4.5269138982616</v>
       </c>
       <c r="E24">
-        <v>57.0747650492365</v>
+        <v>57.2235833429507</v>
       </c>
       <c r="F24">
-        <v>12.9186777511149</v>
+        <v>13.1056435032334</v>
       </c>
       <c r="G24">
-        <v>27.1934122468247</v>
+        <v>26.9823882073437</v>
       </c>
       <c r="H24">
-        <v>14.6735239689824</v>
+        <v>14.7076311487411</v>
       </c>
       <c r="I24">
-        <v>16.5997238077337</v>
+        <v>16.6346084501546</v>
       </c>
       <c r="J24">
-        <v>64.216825882254</v>
+        <v>64.59415944734</v>
       </c>
       <c r="K24">
-        <v>20.9020100213327</v>
+        <v>20.1785666658406</v>
       </c>
       <c r="L24">
-        <v>70.1347320756321</v>
+        <v>70.64390500329689</v>
       </c>
       <c r="M24">
-        <v>30.9315639044027</v>
+        <v>31.5791197736912</v>
       </c>
       <c r="N24">
-        <v>73.6734206075356</v>
+        <v>72.3591953611179</v>
       </c>
       <c r="O24">
-        <v>2066.61896260708</v>
+        <v>2015.83036859993</v>
       </c>
       <c r="P24">
-        <v>100.780116683233</v>
+        <v>103.590014357523</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>775.142556304749</v>
+        <v>816.273367033847</v>
       </c>
       <c r="C25">
-        <v>50.2313313874902</v>
+        <v>45.5790944254829</v>
       </c>
       <c r="D25">
-        <v>11.0716093685251</v>
+        <v>10.7387192516049</v>
       </c>
       <c r="E25">
-        <v>48.9159071505241</v>
+        <v>45.5806163822292</v>
       </c>
       <c r="F25">
-        <v>16.9527422961515</v>
+        <v>14.9132505727895</v>
       </c>
       <c r="G25">
-        <v>15.0548706969996</v>
+        <v>14.3448166612715</v>
       </c>
       <c r="H25">
-        <v>8.3387053662225</v>
+        <v>7.94390581866932</v>
       </c>
       <c r="I25">
-        <v>5.15840399221276</v>
+        <v>4.95286092264114</v>
       </c>
       <c r="J25">
-        <v>14.5031750162799</v>
+        <v>13.7565522792714</v>
       </c>
       <c r="K25">
-        <v>6.42624355652193</v>
+        <v>5.96168288766503</v>
       </c>
       <c r="L25">
-        <v>14.7197492318743</v>
+        <v>14.8110895348229</v>
       </c>
       <c r="M25">
-        <v>44.4203059561719</v>
+        <v>43.2281029060823</v>
       </c>
       <c r="N25">
-        <v>34.1727769047223</v>
+        <v>35.547755327521</v>
       </c>
       <c r="O25">
-        <v>1051.60479113165</v>
+        <v>989.240832482898</v>
       </c>
       <c r="P25">
-        <v>42.6705747494518</v>
+        <v>41.8993540585829</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1048.02195791583</v>
+        <v>1145.33055215931</v>
       </c>
       <c r="C26">
-        <v>59.2938349155976</v>
+        <v>58.1160110471521</v>
       </c>
       <c r="D26">
-        <v>5.18188820973646</v>
+        <v>5.34381021357674</v>
       </c>
       <c r="E26">
-        <v>48.0050297976697</v>
+        <v>51.0487956788959</v>
       </c>
       <c r="F26">
-        <v>7.8365318280133</v>
+        <v>8.42111694076652</v>
       </c>
       <c r="G26">
-        <v>39.3119394584181</v>
+        <v>36.8213659504388</v>
       </c>
       <c r="H26">
-        <v>11.7040854766594</v>
+        <v>12.035975261491</v>
       </c>
       <c r="I26">
-        <v>15.9127589297296</v>
+        <v>15.0320315485972</v>
       </c>
       <c r="J26">
-        <v>26.8983669780716</v>
+        <v>26.2058471541657</v>
       </c>
       <c r="K26">
-        <v>8.818694914867949</v>
+        <v>8.462849944239011</v>
       </c>
       <c r="L26">
-        <v>23.0819268951734</v>
+        <v>24.013215220531</v>
       </c>
       <c r="M26">
-        <v>85.8044053391768</v>
+        <v>86.4535302273879</v>
       </c>
       <c r="N26">
-        <v>19.2182052210756</v>
+        <v>19.3435852221972</v>
       </c>
       <c r="O26">
-        <v>2388.99101161243</v>
+        <v>2299.49561782273</v>
       </c>
       <c r="P26">
-        <v>60.9563647663296</v>
+        <v>65.0632767122806</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>224.06089108477</v>
+        <v>231.564514859022</v>
       </c>
       <c r="C27">
-        <v>2.43620905643869</v>
+        <v>2.23155428542793</v>
       </c>
       <c r="D27">
-        <v>2.57169345280748</v>
+        <v>2.48184997170634</v>
       </c>
       <c r="E27">
-        <v>14.5409704295415</v>
+        <v>13.5152897205924</v>
       </c>
       <c r="F27">
-        <v>6.96661484205927</v>
+        <v>6.63047114450241</v>
       </c>
       <c r="G27">
-        <v>0.773532786411898</v>
+        <v>0.709369002260576</v>
       </c>
       <c r="H27">
-        <v>0.326290705529052</v>
+        <v>0.298636350810167</v>
       </c>
       <c r="I27">
-        <v>2.91028832296391</v>
+        <v>2.49206986865702</v>
       </c>
       <c r="J27">
-        <v>3.5997501813304</v>
+        <v>3.42812510672458</v>
       </c>
       <c r="K27">
-        <v>0.884041290579172</v>
+        <v>0.854307516599275</v>
       </c>
       <c r="L27">
-        <v>3.04732966968275</v>
+        <v>2.91235316954356</v>
       </c>
       <c r="M27">
-        <v>0.95627966205049</v>
+        <v>0.903044501795072</v>
       </c>
       <c r="N27">
-        <v>4.02544573702419</v>
+        <v>3.71298926642941</v>
       </c>
       <c r="O27">
-        <v>467.48408779723</v>
+        <v>434.077816301097</v>
       </c>
       <c r="P27">
-        <v>55.4757735189915</v>
+        <v>54.0166156908302</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>262.031447077069</v>
+        <v>282.02630386386</v>
       </c>
       <c r="C28">
-        <v>38.0005316973862</v>
+        <v>37.2001037195144</v>
       </c>
       <c r="D28">
-        <v>3.09547460584785</v>
+        <v>2.57423478081036</v>
       </c>
       <c r="E28">
-        <v>8.79757743919696</v>
+        <v>8.6665598625458</v>
       </c>
       <c r="F28">
-        <v>1.97237041111548</v>
+        <v>1.99187039233001</v>
       </c>
       <c r="G28">
-        <v>5.20860498184913</v>
+        <v>4.81189285537213</v>
       </c>
       <c r="H28">
-        <v>8.516959209513161</v>
+        <v>8.292548847445451</v>
       </c>
       <c r="I28">
-        <v>2.71515338401973</v>
+        <v>2.57332162578424</v>
       </c>
       <c r="J28">
-        <v>22.1305513799462</v>
+        <v>21.5058025462875</v>
       </c>
       <c r="K28">
-        <v>11.0406478282273</v>
+        <v>10.7566794788219</v>
       </c>
       <c r="L28">
-        <v>13.4785297473771</v>
+        <v>12.3396359091376</v>
       </c>
       <c r="M28">
-        <v>10.5574123227588</v>
+        <v>10.9739262991357</v>
       </c>
       <c r="N28">
-        <v>10.1023235577713</v>
+        <v>9.580007868698139</v>
       </c>
       <c r="O28">
-        <v>818.0904751854</v>
+        <v>772.851160773829</v>
       </c>
       <c r="P28">
-        <v>81.2954256959156</v>
+        <v>79.3829081887624</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>433.5691386201</v>
+        <v>458.889844032842</v>
       </c>
       <c r="C29">
-        <v>4.62949530104954</v>
+        <v>4.63797503090565</v>
       </c>
       <c r="D29">
-        <v>1.92647628577474</v>
+        <v>1.88522610681854</v>
       </c>
       <c r="E29">
-        <v>5.81313227145285</v>
+        <v>5.74362275145275</v>
       </c>
       <c r="F29">
-        <v>26.5794833109241</v>
+        <v>26.1840556562067</v>
       </c>
       <c r="G29">
-        <v>6.4258305639375</v>
+        <v>6.13414189209122</v>
       </c>
       <c r="H29">
-        <v>2.30517596856932</v>
+        <v>2.25158967898504</v>
       </c>
       <c r="I29">
-        <v>1.71863626374432</v>
+        <v>1.60250565810957</v>
       </c>
       <c r="J29">
-        <v>5.54472633534908</v>
+        <v>5.61735090565451</v>
       </c>
       <c r="K29">
-        <v>0.863594655361137</v>
+        <v>0.828971666131771</v>
       </c>
       <c r="L29">
-        <v>4.4339171014152</v>
+        <v>4.33189318391395</v>
       </c>
       <c r="M29">
-        <v>3.01599527110061</v>
+        <v>2.8620462149108</v>
       </c>
       <c r="N29">
-        <v>12.9237438781256</v>
+        <v>12.4376494166743</v>
       </c>
       <c r="O29">
-        <v>1101.13597355255</v>
+        <v>1052.63134701958</v>
       </c>
       <c r="P29">
-        <v>5.03075764477093</v>
+        <v>5.2318892526933</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>233.482968237648</v>
+        <v>242.511292176187</v>
       </c>
       <c r="C30">
-        <v>3.46203762260641</v>
+        <v>3.3285105232141</v>
       </c>
       <c r="D30">
-        <v>5.36477474271674</v>
+        <v>5.08745339003655</v>
       </c>
       <c r="E30">
-        <v>16.4767590914549</v>
+        <v>16.0219358517242</v>
       </c>
       <c r="F30">
-        <v>0.207076876651389</v>
+        <v>0.198434734569631</v>
       </c>
       <c r="G30">
-        <v>5.2395056556281</v>
+        <v>4.97978894297953</v>
       </c>
       <c r="H30">
-        <v>5.97658383494169</v>
+        <v>5.72441237250579</v>
       </c>
       <c r="I30">
-        <v>2.40671615189999</v>
+        <v>2.22868176901807</v>
       </c>
       <c r="J30">
-        <v>18.5816276342244</v>
+        <v>17.8139138257207</v>
       </c>
       <c r="K30">
-        <v>5.54711632060362</v>
+        <v>5.08728654371186</v>
       </c>
       <c r="L30">
-        <v>48.3744679981802</v>
+        <v>46.2069502100809</v>
       </c>
       <c r="M30">
-        <v>11.5902515224259</v>
+        <v>10.9345507768451</v>
       </c>
       <c r="N30">
-        <v>13.7113492640704</v>
+        <v>13.0976857884456</v>
       </c>
       <c r="O30">
-        <v>603.490178867757</v>
+        <v>573.856587134776</v>
       </c>
       <c r="P30">
-        <v>9.71855305637288</v>
+        <v>9.71670186942492</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1610.39632538747</v>
+        <v>1711.92967607984</v>
       </c>
       <c r="C31">
-        <v>67.189202169279</v>
+        <v>65.7923574642395</v>
       </c>
       <c r="D31">
-        <v>12.2898173999277</v>
+        <v>12.2758313130312</v>
       </c>
       <c r="E31">
-        <v>49.1982258316291</v>
+        <v>50.6871493759109</v>
       </c>
       <c r="F31">
-        <v>6.60525293790256</v>
+        <v>7.22649774436353</v>
       </c>
       <c r="G31">
-        <v>102.804722854928</v>
+        <v>101.952154740215</v>
       </c>
       <c r="H31">
-        <v>8.027100185994399</v>
+        <v>7.88642172132294</v>
       </c>
       <c r="I31">
-        <v>26.5600679232545</v>
+        <v>26.7578930866195</v>
       </c>
       <c r="J31">
-        <v>34.6646216831168</v>
+        <v>35.0866016254339</v>
       </c>
       <c r="K31">
-        <v>7.50398281529585</v>
+        <v>7.22592738819715</v>
       </c>
       <c r="L31">
-        <v>71.4294128327488</v>
+        <v>69.98421509634861</v>
       </c>
       <c r="M31">
-        <v>21.7388014785226</v>
+        <v>21.731488583182</v>
       </c>
       <c r="N31">
-        <v>54.5708106766467</v>
+        <v>53.6773764383765</v>
       </c>
       <c r="O31">
-        <v>3720.94648851958</v>
+        <v>3638.69389473395</v>
       </c>
       <c r="P31">
-        <v>13.6933673367086</v>
+        <v>14.3582185969039</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>446.246960907804</v>
+        <v>469.664586779529</v>
       </c>
       <c r="C32">
-        <v>3.61105456145186</v>
+        <v>3.55453355823491</v>
       </c>
       <c r="D32">
-        <v>0.388989568818604</v>
+        <v>0.344883967900434</v>
       </c>
       <c r="E32">
-        <v>2.78568347542252</v>
+        <v>3.75591132090239</v>
       </c>
       <c r="F32">
-        <v>25.7903445472624</v>
+        <v>24.0010577737656</v>
       </c>
       <c r="G32">
-        <v>1.73655778986168</v>
+        <v>1.67030643363464</v>
       </c>
       <c r="H32">
-        <v>1.36553429216876</v>
+        <v>1.37998217240471</v>
       </c>
       <c r="I32">
-        <v>0.945118666766369</v>
+        <v>0.933410409253071</v>
       </c>
       <c r="J32">
-        <v>4.14229110608925</v>
+        <v>3.86636461962801</v>
       </c>
       <c r="K32">
-        <v>2.21256075416923</v>
+        <v>2.08747250379487</v>
       </c>
       <c r="L32">
-        <v>14.5491056927228</v>
+        <v>13.5314768672835</v>
       </c>
       <c r="M32">
-        <v>3.35903816118209</v>
+        <v>3.18128830717931</v>
       </c>
       <c r="N32">
-        <v>12.3211230855264</v>
+        <v>12.0138163628216</v>
       </c>
       <c r="O32">
-        <v>806.204608338978</v>
+        <v>774.708173035711</v>
       </c>
       <c r="P32">
-        <v>22.4130797049335</v>
+        <v>21.8390944054338</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4239.43946196983</v>
+        <v>4493.43296702259</v>
       </c>
       <c r="C33">
-        <v>91.99911317587279</v>
+        <v>91.6626478122147</v>
       </c>
       <c r="D33">
-        <v>37.2884840202441</v>
+        <v>35.8851646212463</v>
       </c>
       <c r="E33">
-        <v>84.94657271288691</v>
+        <v>88.50384156988611</v>
       </c>
       <c r="F33">
-        <v>8.87032949660022</v>
+        <v>8.595660877222899</v>
       </c>
       <c r="G33">
-        <v>77.9109591427184</v>
+        <v>77.1068536718673</v>
       </c>
       <c r="H33">
-        <v>40.5234460927157</v>
+        <v>39.5642503975034</v>
       </c>
       <c r="I33">
-        <v>24.6235334562968</v>
+        <v>24.4326303223742</v>
       </c>
       <c r="J33">
-        <v>97.7824799131462</v>
+        <v>97.6105272873822</v>
       </c>
       <c r="K33">
-        <v>67.35885815490011</v>
+        <v>66.387033833218</v>
       </c>
       <c r="L33">
-        <v>116.951212470955</v>
+        <v>115.342586678321</v>
       </c>
       <c r="M33">
-        <v>67.8691468607816</v>
+        <v>66.6716952720351</v>
       </c>
       <c r="N33">
-        <v>148.117379513819</v>
+        <v>144.577591014169</v>
       </c>
       <c r="O33">
-        <v>7678.54010687844</v>
+        <v>7481.29525284953</v>
       </c>
       <c r="P33">
-        <v>56.6576188326917</v>
+        <v>60.7365913593525</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1789.13750429633</v>
+        <v>1892.12105951833</v>
       </c>
       <c r="C34">
-        <v>75.1414948783391</v>
+        <v>73.1631242509774</v>
       </c>
       <c r="D34">
-        <v>126.28094051631</v>
+        <v>125.661180634706</v>
       </c>
       <c r="E34">
-        <v>46.1733244067803</v>
+        <v>47.0963884456887</v>
       </c>
       <c r="F34">
-        <v>2.5289227720022</v>
+        <v>2.53305772317636</v>
       </c>
       <c r="G34">
-        <v>46.569506955204</v>
+        <v>44.7096663394528</v>
       </c>
       <c r="H34">
-        <v>49.6332992192386</v>
+        <v>48.0674524116904</v>
       </c>
       <c r="I34">
-        <v>16.9396081599454</v>
+        <v>16.940255898229</v>
       </c>
       <c r="J34">
-        <v>47.7272764605591</v>
+        <v>46.3989640444474</v>
       </c>
       <c r="K34">
-        <v>13.3802483231579</v>
+        <v>13.0076150836087</v>
       </c>
       <c r="L34">
-        <v>120.501297492105</v>
+        <v>116.202291970531</v>
       </c>
       <c r="M34">
-        <v>26.8566488858224</v>
+        <v>27.6283401438841</v>
       </c>
       <c r="N34">
-        <v>131.429804586012</v>
+        <v>129.15903411564</v>
       </c>
       <c r="O34">
-        <v>3143.28767850581</v>
+        <v>3059.31857190965</v>
       </c>
       <c r="P34">
-        <v>74.99255215415261</v>
+        <v>74.3597369975451</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>117.166318856874</v>
+        <v>125.895129763799</v>
       </c>
       <c r="C35">
-        <v>8.98341856633029</v>
+        <v>8.612720480500951</v>
       </c>
       <c r="D35">
-        <v>0.204566294525249</v>
+        <v>0.201698598142576</v>
       </c>
       <c r="E35">
-        <v>3.05349206434104</v>
+        <v>2.75480198498976</v>
       </c>
       <c r="F35">
-        <v>4.43992337589771</v>
+        <v>4.2706014957335</v>
       </c>
       <c r="G35">
-        <v>1.56133469670484</v>
+        <v>1.4493121264176</v>
       </c>
       <c r="H35">
-        <v>0.0926104830122025</v>
+        <v>0.0845853721787581</v>
       </c>
       <c r="I35">
-        <v>1.4062111304782</v>
+        <v>1.29022760717653</v>
       </c>
       <c r="J35">
-        <v>3.86496013856279</v>
+        <v>3.53185753073505</v>
       </c>
       <c r="K35">
-        <v>6.59676727719223</v>
+        <v>6.20186484844048</v>
       </c>
       <c r="L35">
-        <v>3.34410852223538</v>
+        <v>3.03789631649969</v>
       </c>
       <c r="M35">
-        <v>2.16878689329003</v>
+        <v>2.02383747868199</v>
       </c>
       <c r="N35">
-        <v>4.97953595384697</v>
+        <v>4.61685101957332</v>
       </c>
       <c r="O35">
-        <v>333.066192740146</v>
+        <v>310.281840749236</v>
       </c>
       <c r="P35">
-        <v>52.6212588175792</v>
+        <v>49.5372413436375</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2449.31286626609</v>
+        <v>2596.04825119278</v>
       </c>
       <c r="C36">
-        <v>51.8270760466</v>
+        <v>51.9101076383899</v>
       </c>
       <c r="D36">
-        <v>15.1713150015166</v>
+        <v>15.2192110098715</v>
       </c>
       <c r="E36">
-        <v>143.309522011005</v>
+        <v>145.663274985961</v>
       </c>
       <c r="F36">
-        <v>31.4420925553948</v>
+        <v>28.8872969732087</v>
       </c>
       <c r="G36">
-        <v>90.05698374898201</v>
+        <v>87.7070437664794</v>
       </c>
       <c r="H36">
-        <v>76.41119053671559</v>
+        <v>76.0934522952932</v>
       </c>
       <c r="I36">
-        <v>37.5001078570778</v>
+        <v>37.1271125151049</v>
       </c>
       <c r="J36">
-        <v>185.612198116642</v>
+        <v>188.109514495913</v>
       </c>
       <c r="K36">
-        <v>49.1887253765684</v>
+        <v>46.9824721330252</v>
       </c>
       <c r="L36">
-        <v>69.7570277135508</v>
+        <v>67.4041999880626</v>
       </c>
       <c r="M36">
-        <v>211.1791151807</v>
+        <v>210.916927862715</v>
       </c>
       <c r="N36">
-        <v>102.345097420058</v>
+        <v>100.290183758258</v>
       </c>
       <c r="O36">
-        <v>4365.46638678859</v>
+        <v>4226.30247049832</v>
       </c>
       <c r="P36">
-        <v>38.0527173875019</v>
+        <v>39.6421426783814</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>755.453858180506</v>
+        <v>802.936649900917</v>
       </c>
       <c r="C37">
-        <v>20.679966191245</v>
+        <v>20.7269660666755</v>
       </c>
       <c r="D37">
-        <v>4.34674528881713</v>
+        <v>4.19945834463072</v>
       </c>
       <c r="E37">
-        <v>19.7532396955157</v>
+        <v>19.6142691633726</v>
       </c>
       <c r="F37">
-        <v>30.1853049786002</v>
+        <v>29.8589363664578</v>
       </c>
       <c r="G37">
-        <v>6.40132887299766</v>
+        <v>6.25084536111685</v>
       </c>
       <c r="H37">
-        <v>23.4500396160833</v>
+        <v>22.5487701883497</v>
       </c>
       <c r="I37">
-        <v>6.98155116202723</v>
+        <v>6.76081916405124</v>
       </c>
       <c r="J37">
-        <v>39.9536957247984</v>
+        <v>40.8664033541416</v>
       </c>
       <c r="K37">
-        <v>14.167400999514</v>
+        <v>13.4433862146655</v>
       </c>
       <c r="L37">
-        <v>20.7625185042279</v>
+        <v>19.9555528681905</v>
       </c>
       <c r="M37">
-        <v>44.849121135614</v>
+        <v>44.8662447129332</v>
       </c>
       <c r="N37">
-        <v>26.2786714554301</v>
+        <v>25.5524795169911</v>
       </c>
       <c r="O37">
-        <v>1291.35256744409</v>
+        <v>1267.40293709863</v>
       </c>
       <c r="P37">
-        <v>55.2820042880463</v>
+        <v>55.0029091388315</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>771.682141184771</v>
+        <v>818.99816878094</v>
       </c>
       <c r="C38">
-        <v>24.5422323802818</v>
+        <v>24.0973833695964</v>
       </c>
       <c r="D38">
-        <v>6.18523585641728</v>
+        <v>6.02454447469541</v>
       </c>
       <c r="E38">
-        <v>44.8776296709518</v>
+        <v>48.1005989938622</v>
       </c>
       <c r="F38">
-        <v>1.69143277125505</v>
+        <v>1.60669455035666</v>
       </c>
       <c r="G38">
-        <v>10.7413201760734</v>
+        <v>10.421945861138</v>
       </c>
       <c r="H38">
-        <v>3.46698101127238</v>
+        <v>3.21477649822055</v>
       </c>
       <c r="I38">
-        <v>1.89977301089891</v>
+        <v>2.01774354764118</v>
       </c>
       <c r="J38">
-        <v>42.6701693856819</v>
+        <v>40.6009156751604</v>
       </c>
       <c r="K38">
-        <v>2.63177958816664</v>
+        <v>2.61525692491963</v>
       </c>
       <c r="L38">
-        <v>71.1539038756611</v>
+        <v>68.2234949674302</v>
       </c>
       <c r="M38">
-        <v>21.8413491789256</v>
+        <v>20.9277146706703</v>
       </c>
       <c r="N38">
-        <v>35.3581604144897</v>
+        <v>34.4719989492461</v>
       </c>
       <c r="O38">
-        <v>1392.18459792734</v>
+        <v>1356.64782584644</v>
       </c>
       <c r="P38">
-        <v>64.0388833638231</v>
+        <v>64.362138949084</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2658.03930635676</v>
+        <v>2842.4839771214</v>
       </c>
       <c r="C39">
-        <v>98.9251930574473</v>
+        <v>95.3978855437009</v>
       </c>
       <c r="D39">
-        <v>34.4211267892076</v>
+        <v>33.7738848618318</v>
       </c>
       <c r="E39">
-        <v>130.223310171859</v>
+        <v>135.434921871808</v>
       </c>
       <c r="F39">
-        <v>19.5791932443516</v>
+        <v>20.2257354891752</v>
       </c>
       <c r="G39">
-        <v>132.14298151694</v>
+        <v>126.893627641903</v>
       </c>
       <c r="H39">
-        <v>54.5869503143549</v>
+        <v>55.4971347830147</v>
       </c>
       <c r="I39">
-        <v>32.8032018859412</v>
+        <v>32.7707494321989</v>
       </c>
       <c r="J39">
-        <v>165.914652527234</v>
+        <v>168.015962650245</v>
       </c>
       <c r="K39">
-        <v>64.6958447127418</v>
+        <v>62.8391511846086</v>
       </c>
       <c r="L39">
-        <v>106.670711326183</v>
+        <v>105.131552293624</v>
       </c>
       <c r="M39">
-        <v>75.887128854978</v>
+        <v>75.5967306134944</v>
       </c>
       <c r="N39">
-        <v>120.563803606138</v>
+        <v>119.27518831196</v>
       </c>
       <c r="O39">
-        <v>4915.10696410084</v>
+        <v>4742.60571149467</v>
       </c>
       <c r="P39">
-        <v>46.9811206189479</v>
+        <v>49.5709265027008</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>242.188349814367</v>
+        <v>251.503238025102</v>
       </c>
       <c r="C40">
-        <v>4.34343042199966</v>
+        <v>4.21531133995682</v>
       </c>
       <c r="D40">
-        <v>8.18310339335785</v>
+        <v>7.84099276808326</v>
       </c>
       <c r="E40">
-        <v>5.78173100380394</v>
+        <v>5.55271520883841</v>
       </c>
       <c r="F40">
-        <v>0.6097240389316661</v>
+        <v>0.577541541768998</v>
       </c>
       <c r="G40">
-        <v>4.57581892529531</v>
+        <v>4.19139488678592</v>
       </c>
       <c r="H40">
-        <v>4.84447576554861</v>
+        <v>4.44066167037707</v>
       </c>
       <c r="I40">
-        <v>1.70052992748935</v>
+        <v>1.61532143509118</v>
       </c>
       <c r="J40">
-        <v>12.4238591854262</v>
+        <v>11.8549430278868</v>
       </c>
       <c r="K40">
-        <v>2.14817316972017</v>
+        <v>2.01845483877306</v>
       </c>
       <c r="L40">
-        <v>16.0001447832091</v>
+        <v>15.1936001301049</v>
       </c>
       <c r="M40">
-        <v>5.26853798353125</v>
+        <v>4.90094119579082</v>
       </c>
       <c r="N40">
-        <v>23.975731508808</v>
+        <v>22.5662159664419</v>
       </c>
       <c r="O40">
-        <v>534.853969379704</v>
+        <v>498.745385757816</v>
       </c>
       <c r="P40">
-        <v>3.34262054336493</v>
+        <v>3.41684577631364</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>944.618252892755</v>
+        <v>1001.54093587833</v>
       </c>
       <c r="C41">
-        <v>13.1198904077664</v>
+        <v>14.1580586020651</v>
       </c>
       <c r="D41">
-        <v>72.35826383356201</v>
+        <v>71.95352813467351</v>
       </c>
       <c r="E41">
-        <v>32.2626529738038</v>
+        <v>32.4928779048893</v>
       </c>
       <c r="F41">
-        <v>1.07940049361206</v>
+        <v>1.0405120077216</v>
       </c>
       <c r="G41">
-        <v>28.5529507022913</v>
+        <v>27.6933035151151</v>
       </c>
       <c r="H41">
-        <v>35.8326814127389</v>
+        <v>34.810372208858</v>
       </c>
       <c r="I41">
-        <v>16.2280119922925</v>
+        <v>15.8745748138112</v>
       </c>
       <c r="J41">
-        <v>37.9607431787265</v>
+        <v>36.8031729835581</v>
       </c>
       <c r="K41">
-        <v>6.30121009150927</v>
+        <v>6.15700061608268</v>
       </c>
       <c r="L41">
-        <v>28.144461771864</v>
+        <v>26.9309143307464</v>
       </c>
       <c r="M41">
-        <v>27.5977499672338</v>
+        <v>26.9764526065469</v>
       </c>
       <c r="N41">
-        <v>15.7287044812516</v>
+        <v>15.3302187834361</v>
       </c>
       <c r="O41">
-        <v>1554.31476125722</v>
+        <v>1517.54493238825</v>
       </c>
       <c r="P41">
-        <v>35.1149714329455</v>
+        <v>34.4087858550598</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>137.410043379257</v>
+        <v>142.677406580462</v>
       </c>
       <c r="C42">
-        <v>7.48737127244858</v>
+        <v>7.12225427741903</v>
       </c>
       <c r="D42">
-        <v>1.61284848632005</v>
+        <v>1.51706846855471</v>
       </c>
       <c r="E42">
-        <v>9.134493264797319</v>
+        <v>8.722138242147111</v>
       </c>
       <c r="F42">
-        <v>2.68762848668532</v>
+        <v>2.51432156956049</v>
       </c>
       <c r="G42">
-        <v>1.32798597475252</v>
+        <v>1.17677751344299</v>
       </c>
       <c r="H42">
-        <v>0.854085782470954</v>
+        <v>0.806443971604737</v>
       </c>
       <c r="I42">
-        <v>1.58198621028819</v>
+        <v>1.51998602146848</v>
       </c>
       <c r="J42">
-        <v>5.18632880313664</v>
+        <v>4.76551751287411</v>
       </c>
       <c r="K42">
-        <v>5.15645263475294</v>
+        <v>4.64181753057816</v>
       </c>
       <c r="L42">
-        <v>10.0846413302881</v>
+        <v>9.04743461763818</v>
       </c>
       <c r="M42">
-        <v>5.83275501037752</v>
+        <v>5.35635009906911</v>
       </c>
       <c r="N42">
-        <v>12.1210731135654</v>
+        <v>11.6239842725509</v>
       </c>
       <c r="O42">
-        <v>438.09848367303</v>
+        <v>393.389505360489</v>
       </c>
       <c r="P42">
-        <v>60.8828543922674</v>
+        <v>58.3901895948741</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1399.25815616397</v>
+        <v>1488.18242929219</v>
       </c>
       <c r="C43">
-        <v>39.7569692242479</v>
+        <v>41.80531465921</v>
       </c>
       <c r="D43">
-        <v>23.6055707867447</v>
+        <v>23.1996081597318</v>
       </c>
       <c r="E43">
-        <v>85.26921000841151</v>
+        <v>87.39256260670599</v>
       </c>
       <c r="F43">
-        <v>5.12922505096372</v>
+        <v>4.73452902927825</v>
       </c>
       <c r="G43">
-        <v>30.854535353294</v>
+        <v>30.4853458601272</v>
       </c>
       <c r="H43">
-        <v>40.925593072553</v>
+        <v>42.345232758873</v>
       </c>
       <c r="I43">
-        <v>28.9246589075794</v>
+        <v>26.1098961574472</v>
       </c>
       <c r="J43">
-        <v>55.1161527214817</v>
+        <v>57.2492585208511</v>
       </c>
       <c r="K43">
-        <v>12.9795557574247</v>
+        <v>12.670693374856</v>
       </c>
       <c r="L43">
-        <v>46.5403424780752</v>
+        <v>47.1723732610854</v>
       </c>
       <c r="M43">
-        <v>104.40978490055</v>
+        <v>108.60154238014</v>
       </c>
       <c r="N43">
-        <v>62.1624834338641</v>
+        <v>60.7012231441601</v>
       </c>
       <c r="O43">
-        <v>2107.82271528969</v>
+        <v>2029.92420413691</v>
       </c>
       <c r="P43">
-        <v>46.4392739107047</v>
+        <v>43.2610281561767</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4203.96280513322</v>
+        <v>4493.01040065609</v>
       </c>
       <c r="C44">
-        <v>164.106601974114</v>
+        <v>155.794336782873</v>
       </c>
       <c r="D44">
-        <v>17.329981876011</v>
+        <v>16.8702710282267</v>
       </c>
       <c r="E44">
-        <v>100.508454746728</v>
+        <v>102.421076188583</v>
       </c>
       <c r="F44">
-        <v>238.776017830507</v>
+        <v>230.329336122194</v>
       </c>
       <c r="G44">
-        <v>111.981963579956</v>
+        <v>107.828501203043</v>
       </c>
       <c r="H44">
-        <v>40.0673457129277</v>
+        <v>40.5951780746479</v>
       </c>
       <c r="I44">
-        <v>40.9444536224352</v>
+        <v>40.3653440026796</v>
       </c>
       <c r="J44">
-        <v>102.189297804451</v>
+        <v>101.224981317956</v>
       </c>
       <c r="K44">
-        <v>37.8528597770215</v>
+        <v>37.2128918210135</v>
       </c>
       <c r="L44">
-        <v>151.062124396285</v>
+        <v>148.220597339655</v>
       </c>
       <c r="M44">
-        <v>80.1035808946389</v>
+        <v>80.5877275107224</v>
       </c>
       <c r="N44">
-        <v>97.10217050048181</v>
+        <v>97.8039212945754</v>
       </c>
       <c r="O44">
-        <v>8205.906978283771</v>
+        <v>8061.68319292414</v>
       </c>
       <c r="P44">
-        <v>234.049641387702</v>
+        <v>226.988595568448</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>417.647611119669</v>
+        <v>436.826870297122</v>
       </c>
       <c r="C45">
-        <v>19.7921142238838</v>
+        <v>20.2434733004905</v>
       </c>
       <c r="D45">
-        <v>2.37846333200901</v>
+        <v>2.30894393649319</v>
       </c>
       <c r="E45">
-        <v>25.640350796087</v>
+        <v>26.542512796878</v>
       </c>
       <c r="F45">
-        <v>24.830025460795</v>
+        <v>23.8639953551796</v>
       </c>
       <c r="G45">
-        <v>7.34045308246208</v>
+        <v>7.1242287313682</v>
       </c>
       <c r="H45">
-        <v>3.75252812922042</v>
+        <v>3.60879167683044</v>
       </c>
       <c r="I45">
-        <v>3.86659803873302</v>
+        <v>3.79536706101089</v>
       </c>
       <c r="J45">
-        <v>20.9078176863056</v>
+        <v>20.0825265292468</v>
       </c>
       <c r="K45">
-        <v>2.88905703449261</v>
+        <v>2.88186017469913</v>
       </c>
       <c r="L45">
-        <v>16.7948227132243</v>
+        <v>16.7993641281794</v>
       </c>
       <c r="M45">
-        <v>13.7683910340741</v>
+        <v>14.004864746707</v>
       </c>
       <c r="N45">
-        <v>26.2472874330777</v>
+        <v>26.2988421070715</v>
       </c>
       <c r="O45">
-        <v>883.918575305761</v>
+        <v>862.280243032008</v>
       </c>
       <c r="P45">
-        <v>20.8816031512645</v>
+        <v>21.3499456009989</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>124.901876697308</v>
+        <v>128.012944966333</v>
       </c>
       <c r="C46">
-        <v>5.88304453824911</v>
+        <v>5.65244405163568</v>
       </c>
       <c r="D46">
-        <v>0.998159494125991</v>
+        <v>0.905672237873447</v>
       </c>
       <c r="E46">
-        <v>6.31350418383477</v>
+        <v>6.02344339538432</v>
       </c>
       <c r="F46">
-        <v>0.893639019826926</v>
+        <v>0.773797698329498</v>
       </c>
       <c r="G46">
-        <v>3.06310200574634</v>
+        <v>2.75893323390988</v>
       </c>
       <c r="H46">
-        <v>1.32805836794695</v>
+        <v>1.16781483127951</v>
       </c>
       <c r="I46">
-        <v>2.17204007965446</v>
+        <v>1.91743016995425</v>
       </c>
       <c r="J46">
-        <v>6.07621947832013</v>
+        <v>5.76538256367722</v>
       </c>
       <c r="K46">
-        <v>1.2969709156213</v>
+        <v>1.17872578695906</v>
       </c>
       <c r="L46">
-        <v>15.1879921390481</v>
+        <v>13.7701965126284</v>
       </c>
       <c r="M46">
-        <v>3.95784639500737</v>
+        <v>3.76399480766841</v>
       </c>
       <c r="N46">
-        <v>13.3000339882715</v>
+        <v>12.3957520524045</v>
       </c>
       <c r="O46">
-        <v>369.28685986575</v>
+        <v>340.384410022675</v>
       </c>
       <c r="P46">
-        <v>11.6551488959867</v>
+        <v>11.5483749274197</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1474.63946359252</v>
+        <v>1562.47391693232</v>
       </c>
       <c r="C47">
-        <v>49.4722768774559</v>
+        <v>47.4106485169231</v>
       </c>
       <c r="D47">
-        <v>17.5274033957708</v>
+        <v>17.9573385401732</v>
       </c>
       <c r="E47">
-        <v>51.5286288659658</v>
+        <v>52.7942119412596</v>
       </c>
       <c r="F47">
-        <v>10.0524765207213</v>
+        <v>10.2647926745079</v>
       </c>
       <c r="G47">
-        <v>23.2715292954394</v>
+        <v>22.6298777750351</v>
       </c>
       <c r="H47">
-        <v>11.6911365061046</v>
+        <v>11.7091620760348</v>
       </c>
       <c r="I47">
-        <v>4.00568804498111</v>
+        <v>4.12657769284723</v>
       </c>
       <c r="J47">
-        <v>42.4717063831934</v>
+        <v>41.3927599780179</v>
       </c>
       <c r="K47">
-        <v>6.44550427841793</v>
+        <v>6.54060384716054</v>
       </c>
       <c r="L47">
-        <v>28.2735722642599</v>
+        <v>27.6582501992513</v>
       </c>
       <c r="M47">
-        <v>70.5344708414668</v>
+        <v>69.4326320433713</v>
       </c>
       <c r="N47">
-        <v>35.4045472787727</v>
+        <v>35.7962322102698</v>
       </c>
       <c r="O47">
-        <v>2992.10562900374</v>
+        <v>2918.61522190606</v>
       </c>
       <c r="P47">
-        <v>38.1940886409258</v>
+        <v>39.3773990238754</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1265.19529958235</v>
+        <v>1334.38964929486</v>
       </c>
       <c r="C48">
-        <v>29.3613899819088</v>
+        <v>30.8041791154204</v>
       </c>
       <c r="D48">
-        <v>3.46646142233663</v>
+        <v>3.23497656058636</v>
       </c>
       <c r="E48">
-        <v>76.1637592203639</v>
+        <v>74.9576025663517</v>
       </c>
       <c r="F48">
-        <v>9.49191284252451</v>
+        <v>9.23992612344575</v>
       </c>
       <c r="G48">
-        <v>7.1457724378753</v>
+        <v>6.99633684952228</v>
       </c>
       <c r="H48">
-        <v>3.77326481163804</v>
+        <v>3.8912723385803</v>
       </c>
       <c r="I48">
-        <v>9.62208311955607</v>
+        <v>9.302494803788839</v>
       </c>
       <c r="J48">
-        <v>34.6297468703584</v>
+        <v>34.6713176941029</v>
       </c>
       <c r="K48">
-        <v>8.587256650412259</v>
+        <v>8.451082598541991</v>
       </c>
       <c r="L48">
-        <v>53.220208926604</v>
+        <v>52.3787061003982</v>
       </c>
       <c r="M48">
-        <v>131.165853077471</v>
+        <v>125.311118766438</v>
       </c>
       <c r="N48">
-        <v>33.3263683330046</v>
+        <v>33.3685330064026</v>
       </c>
       <c r="O48">
-        <v>2377.71005989799</v>
+        <v>2331.01916047532</v>
       </c>
       <c r="P48">
-        <v>89.46506676412869</v>
+        <v>89.7276515915661</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>684.121583664501</v>
+        <v>704.177516499983</v>
       </c>
       <c r="C49">
-        <v>5.02931618747524</v>
+        <v>4.91933193095232</v>
       </c>
       <c r="D49">
-        <v>2.90084960758173</v>
+        <v>2.57231654102408</v>
       </c>
       <c r="E49">
-        <v>26.868301753799</v>
+        <v>26.0450490224748</v>
       </c>
       <c r="F49">
-        <v>29.9643483309413</v>
+        <v>28.1310961856447</v>
       </c>
       <c r="G49">
-        <v>14.3487390175937</v>
+        <v>13.7463976202185</v>
       </c>
       <c r="H49">
-        <v>8.22966603977128</v>
+        <v>8.16024325073767</v>
       </c>
       <c r="I49">
-        <v>3.60424072383707</v>
+        <v>3.36810934306222</v>
       </c>
       <c r="J49">
-        <v>23.3574359117772</v>
+        <v>21.7741723681898</v>
       </c>
       <c r="K49">
-        <v>1.59160253282421</v>
+        <v>1.5004288792454</v>
       </c>
       <c r="L49">
-        <v>1.48928682918525</v>
+        <v>1.40019442573502</v>
       </c>
       <c r="M49">
-        <v>4.75099590333936</v>
+        <v>4.65161653889156</v>
       </c>
       <c r="N49">
-        <v>4.72288163918549</v>
+        <v>4.517221641112</v>
       </c>
       <c r="O49">
-        <v>681.199468984701</v>
+        <v>645.502805632408</v>
       </c>
       <c r="P49">
-        <v>7.61117854777229</v>
+        <v>7.54181144757889</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>886.370640531882</v>
+        <v>956.896234193911</v>
       </c>
       <c r="C50">
-        <v>78.124895101332</v>
+        <v>79.80767886480651</v>
       </c>
       <c r="D50">
-        <v>12.9516346149703</v>
+        <v>12.430705516034</v>
       </c>
       <c r="E50">
-        <v>148.860634499513</v>
+        <v>149.485354729353</v>
       </c>
       <c r="F50">
-        <v>4.62914061665809</v>
+        <v>4.55974890067824</v>
       </c>
       <c r="G50">
-        <v>35.4732738276332</v>
+        <v>32.662599853359</v>
       </c>
       <c r="H50">
-        <v>34.1135685895386</v>
+        <v>33.4431838172297</v>
       </c>
       <c r="I50">
-        <v>16.0083889524299</v>
+        <v>15.6859423965711</v>
       </c>
       <c r="J50">
-        <v>103.993752419467</v>
+        <v>103.138434761782</v>
       </c>
       <c r="K50">
-        <v>45.9153546138259</v>
+        <v>43.9699685298144</v>
       </c>
       <c r="L50">
-        <v>57.2905967301312</v>
+        <v>56.1199103697635</v>
       </c>
       <c r="M50">
-        <v>44.9791720043251</v>
+        <v>44.4817631871586</v>
       </c>
       <c r="N50">
-        <v>56.9407220973323</v>
+        <v>55.7364383631695</v>
       </c>
       <c r="O50">
-        <v>2199.83474359463</v>
+        <v>2127.83612934587</v>
       </c>
       <c r="P50">
-        <v>79.0877922946251</v>
+        <v>84.79053246608881</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>138.011021812348</v>
+        <v>134.365101958871</v>
       </c>
       <c r="C51">
-        <v>6.1019795758164</v>
+        <v>5.36128929600311</v>
       </c>
       <c r="D51">
-        <v>0.0120574117710634</v>
+        <v>0.0151241840819888</v>
       </c>
       <c r="E51">
-        <v>2.73442800421065</v>
+        <v>2.58019875895863</v>
       </c>
       <c r="F51">
-        <v>37.9284032741806</v>
+        <v>34.6610882820324</v>
       </c>
       <c r="G51">
-        <v>2.5821980363123</v>
+        <v>2.56176243768877</v>
       </c>
       <c r="H51">
-        <v>0.009784369829322639</v>
+        <v>0.0115663261703896</v>
       </c>
       <c r="I51">
-        <v>1.1506772029369</v>
+        <v>1.05320607198199</v>
       </c>
       <c r="J51">
-        <v>1.39290185994158</v>
+        <v>1.2116082182067</v>
       </c>
       <c r="K51">
-        <v>0.472444952848295</v>
+        <v>0.403750385368437</v>
       </c>
       <c r="L51">
-        <v>0.5923397323835941</v>
+        <v>0.552724187745668</v>
       </c>
       <c r="M51">
-        <v>0.685784436092114</v>
+        <v>0.618630483171127</v>
       </c>
       <c r="N51">
-        <v>0.981199967004847</v>
+        <v>0.907862640497389</v>
       </c>
       <c r="O51">
-        <v>341.871552534549</v>
+        <v>303.504669168031</v>
       </c>
       <c r="P51">
-        <v>32.9187751555627</v>
+        <v>29.7261896876027</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1336.7939151147</v>
+        <v>1336.7945226644</v>
       </c>
       <c r="C2">
-        <v>24.1987653778925</v>
+        <v>24.1987721401356</v>
       </c>
       <c r="D2">
-        <v>30.4700215815743</v>
+        <v>30.4699539093017</v>
       </c>
       <c r="E2">
-        <v>59.9550443979603</v>
+        <v>59.9550445683696</v>
       </c>
       <c r="F2">
-        <v>21.1950903705033</v>
+        <v>21.1948243064171</v>
       </c>
       <c r="G2">
-        <v>11.7945717307195</v>
+        <v>11.7945574089211</v>
       </c>
       <c r="H2">
-        <v>20.9756561959894</v>
+        <v>20.9756830032583</v>
       </c>
       <c r="I2">
-        <v>17.0222491300849</v>
+        <v>17.0222502609483</v>
       </c>
       <c r="J2">
-        <v>84.6715991296828</v>
+        <v>84.67154831495181</v>
       </c>
       <c r="K2">
-        <v>15.1055125405494</v>
+        <v>15.1054000751556</v>
       </c>
       <c r="L2">
-        <v>50.847714800489</v>
+        <v>50.8473834733763</v>
       </c>
       <c r="M2">
-        <v>38.0425680432983</v>
+        <v>38.0425666254356</v>
       </c>
       <c r="N2">
-        <v>25.7088488626861</v>
+        <v>25.7088410801309</v>
       </c>
       <c r="O2">
-        <v>1408.37272830295</v>
+        <v>1408.37343720947</v>
       </c>
       <c r="P2">
-        <v>19.6920633496825</v>
+        <v>19.6920720671504</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>160.31091627049</v>
+        <v>160.294033084062</v>
       </c>
       <c r="C3">
-        <v>5.70780987509535</v>
+        <v>5.70702944321979</v>
       </c>
       <c r="D3">
-        <v>0.546709548838425</v>
+        <v>0.549498825503675</v>
       </c>
       <c r="E3">
-        <v>1.57242419953222</v>
+        <v>1.57224263186074</v>
       </c>
       <c r="F3">
-        <v>9.28728433106814</v>
+        <v>9.286047663383821</v>
       </c>
       <c r="G3">
-        <v>0.319452820812263</v>
+        <v>0.319382017342085</v>
       </c>
       <c r="H3">
-        <v>0.139812221630568</v>
+        <v>0.145107102357436</v>
       </c>
       <c r="I3">
-        <v>1.24522363381949</v>
+        <v>1.2477668382501</v>
       </c>
       <c r="J3">
-        <v>0.44357472887853</v>
+        <v>0.443884219784994</v>
       </c>
       <c r="K3">
-        <v>0.008846836164906179</v>
+        <v>0.012018652860457</v>
       </c>
       <c r="L3">
-        <v>0.00143919446298934</v>
+        <v>0.00398606626196606</v>
       </c>
       <c r="M3">
-        <v>0.848627721497686</v>
+        <v>0.848647356815295</v>
       </c>
       <c r="N3">
-        <v>0.794330846193063</v>
+        <v>0.794500259857547</v>
       </c>
       <c r="O3">
-        <v>358.035011568784</v>
+        <v>358.010862111107</v>
       </c>
       <c r="P3">
-        <v>15.1018060646522</v>
+        <v>15.0996938752779</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1326.53887380341</v>
+        <v>1326.54098443135</v>
       </c>
       <c r="C4">
-        <v>7.49871938994253</v>
+        <v>7.49869650873603</v>
       </c>
       <c r="D4">
-        <v>3.14667683568713</v>
+        <v>3.14660290152315</v>
       </c>
       <c r="E4">
-        <v>24.9670998487637</v>
+        <v>24.967127034826</v>
       </c>
       <c r="F4">
-        <v>7.47732160725459</v>
+        <v>7.47715547051256</v>
       </c>
       <c r="G4">
-        <v>5.52368304774039</v>
+        <v>5.52351590725333</v>
       </c>
       <c r="H4">
-        <v>13.5880902239957</v>
+        <v>13.5822221591164</v>
       </c>
       <c r="I4">
-        <v>8.957727801574491</v>
+        <v>8.957732501075901</v>
       </c>
       <c r="J4">
-        <v>26.8810987625921</v>
+        <v>26.8810781715105</v>
       </c>
       <c r="K4">
-        <v>2.64234093141278</v>
+        <v>2.64228834184558</v>
       </c>
       <c r="L4">
-        <v>63.8586086257474</v>
+        <v>63.8581835129874</v>
       </c>
       <c r="M4">
-        <v>43.5775986895006</v>
+        <v>43.5775306677357</v>
       </c>
       <c r="N4">
-        <v>29.068749620483</v>
+        <v>29.0687470515554</v>
       </c>
       <c r="O4">
-        <v>2142.30654234724</v>
+        <v>2142.30921548596</v>
       </c>
       <c r="P4">
-        <v>16.6824517119814</v>
+        <v>16.6825365437814</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>699.560362599272</v>
+        <v>699.560627154328</v>
       </c>
       <c r="C5">
-        <v>46.4692196083452</v>
+        <v>46.4692312479487</v>
       </c>
       <c r="D5">
-        <v>10.6479163296403</v>
+        <v>10.6477765502812</v>
       </c>
       <c r="E5">
-        <v>38.9319629987212</v>
+        <v>38.9318524598617</v>
       </c>
       <c r="F5">
-        <v>8.81924595052925</v>
+        <v>8.819170683274511</v>
       </c>
       <c r="G5">
-        <v>3.84018258746536</v>
+        <v>3.84018187523592</v>
       </c>
       <c r="H5">
-        <v>10.7050113732518</v>
+        <v>10.7050627006628</v>
       </c>
       <c r="I5">
-        <v>5.79615592525257</v>
+        <v>5.79617198501701</v>
       </c>
       <c r="J5">
-        <v>33.532307486861</v>
+        <v>33.5323376257673</v>
       </c>
       <c r="K5">
-        <v>5.74501739537142</v>
+        <v>5.74500747073752</v>
       </c>
       <c r="L5">
-        <v>17.8930956291625</v>
+        <v>17.8929983252663</v>
       </c>
       <c r="M5">
-        <v>19.6940676054421</v>
+        <v>19.6940837625796</v>
       </c>
       <c r="N5">
-        <v>20.5635301749685</v>
+        <v>20.5634717608022</v>
       </c>
       <c r="O5">
-        <v>935.6618150588261</v>
+        <v>935.662207136092</v>
       </c>
       <c r="P5">
-        <v>59.6567362941468</v>
+        <v>59.6567565067955</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7684.79373291708</v>
+        <v>7684.79943721028</v>
       </c>
       <c r="C6">
-        <v>210.151672756089</v>
+        <v>210.151817201578</v>
       </c>
       <c r="D6">
-        <v>50.9375371227336</v>
+        <v>50.9371912538409</v>
       </c>
       <c r="E6">
-        <v>191.400009031647</v>
+        <v>191.399391569348</v>
       </c>
       <c r="F6">
-        <v>41.6340145403682</v>
+        <v>41.6330369358779</v>
       </c>
       <c r="G6">
-        <v>127.777819214088</v>
+        <v>127.776994543393</v>
       </c>
       <c r="H6">
-        <v>55.9675612401467</v>
+        <v>55.9659610185508</v>
       </c>
       <c r="I6">
-        <v>51.4659248081204</v>
+        <v>51.4656634627529</v>
       </c>
       <c r="J6">
-        <v>200.089222439193</v>
+        <v>200.088540781365</v>
       </c>
       <c r="K6">
-        <v>49.6427370517999</v>
+        <v>49.6422420051327</v>
       </c>
       <c r="L6">
-        <v>461.978646253179</v>
+        <v>461.976583051275</v>
       </c>
       <c r="M6">
-        <v>279.166515148309</v>
+        <v>279.165891714624</v>
       </c>
       <c r="N6">
-        <v>269.769830547881</v>
+        <v>269.768876730147</v>
       </c>
       <c r="O6">
-        <v>12682.2921194959</v>
+        <v>12682.3003026557</v>
       </c>
       <c r="P6">
-        <v>290.643240735011</v>
+        <v>290.643885526604</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>775.988342529582</v>
+        <v>775.990202315764</v>
       </c>
       <c r="C7">
-        <v>38.0224090394119</v>
+        <v>38.0224804143684</v>
       </c>
       <c r="D7">
-        <v>3.65302920326941</v>
+        <v>3.65295399517482</v>
       </c>
       <c r="E7">
-        <v>22.2269678903073</v>
+        <v>22.2269328599041</v>
       </c>
       <c r="F7">
-        <v>11.7453783775204</v>
+        <v>11.7453177367175</v>
       </c>
       <c r="G7">
-        <v>6.6959825195117</v>
+        <v>6.69529485339451</v>
       </c>
       <c r="H7">
-        <v>2.88297450735083</v>
+        <v>2.88219347229749</v>
       </c>
       <c r="I7">
-        <v>9.397833285504291</v>
+        <v>9.39791499943548</v>
       </c>
       <c r="J7">
-        <v>16.1495531037476</v>
+        <v>16.1494106990146</v>
       </c>
       <c r="K7">
-        <v>2.60338433269356</v>
+        <v>2.60333293247712</v>
       </c>
       <c r="L7">
-        <v>56.7504559572486</v>
+        <v>56.7500634241783</v>
       </c>
       <c r="M7">
-        <v>15.5140324062031</v>
+        <v>15.5140009520638</v>
       </c>
       <c r="N7">
-        <v>27.1798366216782</v>
+        <v>27.1796409509226</v>
       </c>
       <c r="O7">
-        <v>1906.64911280976</v>
+        <v>1906.65151273594</v>
       </c>
       <c r="P7">
-        <v>26.9838614506429</v>
+        <v>26.9840207590551</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>657.142715422576</v>
+        <v>657.140078453633</v>
       </c>
       <c r="C8">
-        <v>15.7645138378707</v>
+        <v>15.7644660164118</v>
       </c>
       <c r="D8">
-        <v>2.87403031053224</v>
+        <v>2.87401578313315</v>
       </c>
       <c r="E8">
-        <v>24.271052689253</v>
+        <v>24.2709492212061</v>
       </c>
       <c r="F8">
-        <v>1.97849576398688</v>
+        <v>1.98209573135581</v>
       </c>
       <c r="G8">
-        <v>25.9237581449673</v>
+        <v>25.9236050454483</v>
       </c>
       <c r="H8">
-        <v>9.68759434435751</v>
+        <v>9.6874688142514</v>
       </c>
       <c r="I8">
-        <v>6.94750260988971</v>
+        <v>6.94869772970111</v>
       </c>
       <c r="J8">
-        <v>36.5984671471055</v>
+        <v>36.5982790769884</v>
       </c>
       <c r="K8">
-        <v>11.8451503962953</v>
+        <v>11.8450760424603</v>
       </c>
       <c r="L8">
-        <v>51.2408938464875</v>
+        <v>51.2405713692233</v>
       </c>
       <c r="M8">
-        <v>51.0076879752769</v>
+        <v>51.0074019816499</v>
       </c>
       <c r="N8">
-        <v>24.4047391245029</v>
+        <v>24.4046127652626</v>
       </c>
       <c r="O8">
-        <v>1415.94182245343</v>
+        <v>1415.93905357539</v>
       </c>
       <c r="P8">
-        <v>6.30418674551912</v>
+        <v>6.30416687194721</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>223.638910372386</v>
+        <v>223.638975971885</v>
       </c>
       <c r="C9">
-        <v>9.82299491686366</v>
+        <v>9.82299700363545</v>
       </c>
       <c r="D9">
-        <v>2.10561103509313</v>
+        <v>2.10561532560644</v>
       </c>
       <c r="E9">
-        <v>5.08385715744709</v>
+        <v>5.08386015583272</v>
       </c>
       <c r="F9">
-        <v>0.877763336542325</v>
+        <v>0.877733143314718</v>
       </c>
       <c r="G9">
-        <v>23.7746740057084</v>
+        <v>23.774688289214</v>
       </c>
       <c r="H9">
-        <v>4.10628770278704</v>
+        <v>4.10630487873423</v>
       </c>
       <c r="I9">
-        <v>1.18964393273159</v>
+        <v>1.18963540565909</v>
       </c>
       <c r="J9">
-        <v>6.54539471292826</v>
+        <v>6.54540456839734</v>
       </c>
       <c r="K9">
-        <v>0.765670835857835</v>
+        <v>0.765673119710825</v>
       </c>
       <c r="L9">
-        <v>3.53847322605812</v>
+        <v>3.53847575564726</v>
       </c>
       <c r="M9">
-        <v>8.305450285749229</v>
+        <v>8.30544472185823</v>
       </c>
       <c r="N9">
-        <v>4.78172585473436</v>
+        <v>4.78173467206543</v>
       </c>
       <c r="O9">
-        <v>408.782483487019</v>
+        <v>408.782617372067</v>
       </c>
       <c r="P9">
-        <v>6.6880070161499</v>
+        <v>6.68801023248615</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4144.55778074525</v>
+        <v>4144.56023228732</v>
       </c>
       <c r="C10">
-        <v>74.79413484300289</v>
+        <v>74.79417603272189</v>
       </c>
       <c r="D10">
-        <v>15.3759787717702</v>
+        <v>15.3758942140833</v>
       </c>
       <c r="E10">
-        <v>56.5377048584135</v>
+        <v>56.5377296379164</v>
       </c>
       <c r="F10">
-        <v>9.38470847870474</v>
+        <v>9.38384286071237</v>
       </c>
       <c r="G10">
-        <v>45.0380841472969</v>
+        <v>45.0375480748589</v>
       </c>
       <c r="H10">
-        <v>14.3889163163086</v>
+        <v>14.3887036238883</v>
       </c>
       <c r="I10">
-        <v>37.8579631083101</v>
+        <v>37.8577537897989</v>
       </c>
       <c r="J10">
-        <v>60.3632708696094</v>
+        <v>60.3631568714227</v>
       </c>
       <c r="K10">
-        <v>11.1165729520699</v>
+        <v>11.1165176475301</v>
       </c>
       <c r="L10">
-        <v>76.660572207766</v>
+        <v>76.66039723164511</v>
       </c>
       <c r="M10">
-        <v>70.1454288406365</v>
+        <v>70.1453822863986</v>
       </c>
       <c r="N10">
-        <v>84.7625464247657</v>
+        <v>84.76246964130939</v>
       </c>
       <c r="O10">
-        <v>7371.24140231888</v>
+        <v>7371.24335675895</v>
       </c>
       <c r="P10">
-        <v>78.6694444919857</v>
+        <v>78.6695611724885</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1887.87615997138</v>
+        <v>1887.87735850805</v>
       </c>
       <c r="C11">
-        <v>66.7345606480073</v>
+        <v>66.7346024961379</v>
       </c>
       <c r="D11">
-        <v>167.231460381665</v>
+        <v>167.231123138107</v>
       </c>
       <c r="E11">
-        <v>76.6630815090805</v>
+        <v>76.663121367456</v>
       </c>
       <c r="F11">
-        <v>5.5471863635298</v>
+        <v>5.5470547579395</v>
       </c>
       <c r="G11">
-        <v>28.2944987722324</v>
+        <v>28.2945050551265</v>
       </c>
       <c r="H11">
-        <v>19.0640382708834</v>
+        <v>19.0641334305163</v>
       </c>
       <c r="I11">
-        <v>11.0615979377242</v>
+        <v>11.0616062296532</v>
       </c>
       <c r="J11">
-        <v>45.2363934994225</v>
+        <v>45.2363382930228</v>
       </c>
       <c r="K11">
-        <v>9.93713053994143</v>
+        <v>9.937092970795341</v>
       </c>
       <c r="L11">
-        <v>50.709923215307</v>
+        <v>50.7097966155111</v>
       </c>
       <c r="M11">
-        <v>37.6363524252742</v>
+        <v>37.6363618747</v>
       </c>
       <c r="N11">
-        <v>60.3143856842259</v>
+        <v>60.3143962904155</v>
       </c>
       <c r="O11">
-        <v>3189.62065214448</v>
+        <v>3189.62218447147</v>
       </c>
       <c r="P11">
-        <v>53.9596040047198</v>
+        <v>53.9596285834183</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>303.738428371173</v>
+        <v>303.718539124381</v>
       </c>
       <c r="C12">
-        <v>6.58641544851494</v>
+        <v>6.58586727265444</v>
       </c>
       <c r="D12">
-        <v>0.274398327465335</v>
+        <v>0.274345833517817</v>
       </c>
       <c r="E12">
-        <v>4.40806980292134</v>
+        <v>4.41589365664933</v>
       </c>
       <c r="F12">
-        <v>1.01053292300424</v>
+        <v>1.01260833542425</v>
       </c>
       <c r="G12">
-        <v>0.760809974795124</v>
+        <v>0.760742878107907</v>
       </c>
       <c r="H12">
-        <v>0.326713740319268</v>
+        <v>0.336787192922824</v>
       </c>
       <c r="I12">
-        <v>1.18171168683741</v>
+        <v>1.18164350575885</v>
       </c>
       <c r="J12">
-        <v>2.11650747270011</v>
+        <v>2.11628157903805</v>
       </c>
       <c r="K12">
-        <v>0.00392224627334097</v>
+        <v>0.00723567298555549</v>
       </c>
       <c r="L12">
-        <v>0.466183677534851</v>
+        <v>0.470120827043743</v>
       </c>
       <c r="M12">
-        <v>3.72677071679479</v>
+        <v>3.72646814155811</v>
       </c>
       <c r="N12">
-        <v>3.1661764778066</v>
+        <v>3.17264465370582</v>
       </c>
       <c r="O12">
-        <v>635.05425549415</v>
+        <v>635.031381212458</v>
       </c>
       <c r="P12">
-        <v>22.9945864792835</v>
+        <v>22.9925351323183</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>269.848826018322</v>
+        <v>269.830747070588</v>
       </c>
       <c r="C13">
-        <v>18.9257499222438</v>
+        <v>18.9277116409788</v>
       </c>
       <c r="D13">
-        <v>0.71498286158838</v>
+        <v>0.714937376476527</v>
       </c>
       <c r="E13">
-        <v>12.4163073872302</v>
+        <v>12.4160290370849</v>
       </c>
       <c r="F13">
-        <v>2.96386025727427</v>
+        <v>2.96371837326858</v>
       </c>
       <c r="G13">
-        <v>5.44051288871358</v>
+        <v>5.44028552674041</v>
       </c>
       <c r="H13">
-        <v>3.01532591050937</v>
+        <v>3.01501141776745</v>
       </c>
       <c r="I13">
-        <v>2.14735271826978</v>
+        <v>2.17571302864703</v>
       </c>
       <c r="J13">
-        <v>5.78095060279754</v>
+        <v>5.78074028958465</v>
       </c>
       <c r="K13">
-        <v>4.15172230579085</v>
+        <v>4.17391840241382</v>
       </c>
       <c r="L13">
-        <v>15.7495030471699</v>
+        <v>15.7491406465114</v>
       </c>
       <c r="M13">
-        <v>1.2976863327472</v>
+        <v>1.29763778966853</v>
       </c>
       <c r="N13">
-        <v>5.04322526194961</v>
+        <v>5.04306156091658</v>
       </c>
       <c r="O13">
-        <v>583.700010113677</v>
+        <v>583.666731791712</v>
       </c>
       <c r="P13">
-        <v>50.93455887404</v>
+        <v>50.9338406549032</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2572.72864292377</v>
+        <v>2572.72944129095</v>
       </c>
       <c r="C14">
-        <v>108.798622093763</v>
+        <v>108.798616839555</v>
       </c>
       <c r="D14">
-        <v>10.1560936792857</v>
+        <v>10.1560157124819</v>
       </c>
       <c r="E14">
-        <v>96.1649625991612</v>
+        <v>96.164882499</v>
       </c>
       <c r="F14">
-        <v>19.214394835873</v>
+        <v>19.2139638740433</v>
       </c>
       <c r="G14">
-        <v>76.14453300074641</v>
+        <v>76.14436360601511</v>
       </c>
       <c r="H14">
-        <v>38.2337473474208</v>
+        <v>38.2336585295613</v>
       </c>
       <c r="I14">
-        <v>20.1733204536531</v>
+        <v>20.1732848145889</v>
       </c>
       <c r="J14">
-        <v>140.682304124187</v>
+        <v>140.682167835046</v>
       </c>
       <c r="K14">
-        <v>111.845546177332</v>
+        <v>111.845333399463</v>
       </c>
       <c r="L14">
-        <v>111.910371872969</v>
+        <v>111.910188596596</v>
       </c>
       <c r="M14">
-        <v>73.5667875904429</v>
+        <v>73.56671679263781</v>
       </c>
       <c r="N14">
-        <v>91.0180305563666</v>
+        <v>91.0179608833981</v>
       </c>
       <c r="O14">
-        <v>4907.96169258536</v>
+        <v>4907.96275193883</v>
       </c>
       <c r="P14">
-        <v>54.9611299363026</v>
+        <v>54.9611936877012</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1281.30903754037</v>
+        <v>1281.30934796754</v>
       </c>
       <c r="C15">
-        <v>44.8760441134706</v>
+        <v>44.8760424785561</v>
       </c>
       <c r="D15">
-        <v>9.19085384922626</v>
+        <v>9.190829570928919</v>
       </c>
       <c r="E15">
-        <v>87.95874544025391</v>
+        <v>87.9586167401451</v>
       </c>
       <c r="F15">
-        <v>24.18567179784</v>
+        <v>24.185187263195</v>
       </c>
       <c r="G15">
-        <v>51.7909225844047</v>
+        <v>51.7908711794038</v>
       </c>
       <c r="H15">
-        <v>38.3745146752752</v>
+        <v>38.3744839057919</v>
       </c>
       <c r="I15">
-        <v>24.3918858843465</v>
+        <v>24.3918609932854</v>
       </c>
       <c r="J15">
-        <v>167.574537623916</v>
+        <v>167.574582148969</v>
       </c>
       <c r="K15">
-        <v>19.256363316392</v>
+        <v>19.2563632402057</v>
       </c>
       <c r="L15">
-        <v>38.8899033111309</v>
+        <v>38.8898868371024</v>
       </c>
       <c r="M15">
-        <v>177.076726063981</v>
+        <v>177.076690997698</v>
       </c>
       <c r="N15">
-        <v>84.5799954439384</v>
+        <v>84.5799315153384</v>
       </c>
       <c r="O15">
-        <v>2173.91920016359</v>
+        <v>2173.9197441995</v>
       </c>
       <c r="P15">
-        <v>44.0708947084501</v>
+        <v>44.0709093190016</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>516.107897172129</v>
+        <v>516.108206886197</v>
       </c>
       <c r="C16">
-        <v>64.49184642650739</v>
+        <v>64.4918458304869</v>
       </c>
       <c r="D16">
-        <v>5.97042714203306</v>
+        <v>5.97037205713487</v>
       </c>
       <c r="E16">
-        <v>28.9954544587243</v>
+        <v>28.9955728406756</v>
       </c>
       <c r="F16">
-        <v>2.47814404749206</v>
+        <v>2.47810935466975</v>
       </c>
       <c r="G16">
-        <v>22.9616254233712</v>
+        <v>22.9616009546522</v>
       </c>
       <c r="H16">
-        <v>15.7971994603552</v>
+        <v>15.797222700376</v>
       </c>
       <c r="I16">
-        <v>8.800210558526089</v>
+        <v>8.8001683712102</v>
       </c>
       <c r="J16">
-        <v>54.0977395518253</v>
+        <v>54.0977380063466</v>
       </c>
       <c r="K16">
-        <v>38.8734721866018</v>
+        <v>38.8734119765185</v>
       </c>
       <c r="L16">
-        <v>25.1602407685073</v>
+        <v>25.1601723170233</v>
       </c>
       <c r="M16">
-        <v>25.3967631645854</v>
+        <v>25.3967746987448</v>
       </c>
       <c r="N16">
-        <v>29.255521265138</v>
+        <v>29.2555080271781</v>
       </c>
       <c r="O16">
-        <v>1226.81417555966</v>
+        <v>1226.81465572452</v>
       </c>
       <c r="P16">
-        <v>81.7296798404108</v>
+        <v>81.7297222520328</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>526.2421400890061</v>
+        <v>526.24274376484</v>
       </c>
       <c r="C17">
-        <v>19.1762282377615</v>
+        <v>19.1762428939536</v>
       </c>
       <c r="D17">
-        <v>4.23523941022314</v>
+        <v>4.23469080465951</v>
       </c>
       <c r="E17">
-        <v>30.6814090735706</v>
+        <v>30.6815388367408</v>
       </c>
       <c r="F17">
-        <v>11.4343344834338</v>
+        <v>11.4342319296298</v>
       </c>
       <c r="G17">
-        <v>6.54899533444038</v>
+        <v>6.54893898880603</v>
       </c>
       <c r="H17">
-        <v>7.61341559357533</v>
+        <v>7.61349263202584</v>
       </c>
       <c r="I17">
-        <v>9.730693578104869</v>
+        <v>9.73070176793987</v>
       </c>
       <c r="J17">
-        <v>19.8831094604592</v>
+        <v>19.8831139526662</v>
       </c>
       <c r="K17">
-        <v>8.53047438105194</v>
+        <v>8.53044768416825</v>
       </c>
       <c r="L17">
-        <v>12.6411994408295</v>
+        <v>12.6411682059324</v>
       </c>
       <c r="M17">
-        <v>62.0441915600281</v>
+        <v>62.0441714526018</v>
       </c>
       <c r="N17">
-        <v>15.4626979880276</v>
+        <v>15.462541940269</v>
       </c>
       <c r="O17">
-        <v>1123.04983494241</v>
+        <v>1123.05087970511</v>
       </c>
       <c r="P17">
-        <v>53.4893380029048</v>
+        <v>53.489392358943</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1175.84492951019</v>
+        <v>1175.84549508234</v>
       </c>
       <c r="C18">
-        <v>35.6733528270722</v>
+        <v>35.6733557423783</v>
       </c>
       <c r="D18">
-        <v>2.66080238390095</v>
+        <v>2.66079189075369</v>
       </c>
       <c r="E18">
-        <v>34.5436064749072</v>
+        <v>34.543765334295</v>
       </c>
       <c r="F18">
-        <v>30.7446972519038</v>
+        <v>30.7444879595937</v>
       </c>
       <c r="G18">
-        <v>21.4940953535844</v>
+        <v>21.4940874350593</v>
       </c>
       <c r="H18">
-        <v>19.5835848162995</v>
+        <v>19.5838325970211</v>
       </c>
       <c r="I18">
-        <v>2.394720480357</v>
+        <v>2.39472187402153</v>
       </c>
       <c r="J18">
-        <v>42.4550432871902</v>
+        <v>42.4550686542774</v>
       </c>
       <c r="K18">
-        <v>7.57812583359009</v>
+        <v>7.57811261011029</v>
       </c>
       <c r="L18">
-        <v>36.4820510818591</v>
+        <v>36.4820535742329</v>
       </c>
       <c r="M18">
-        <v>65.1794313399496</v>
+        <v>65.1795344573853</v>
       </c>
       <c r="N18">
-        <v>23.7617474544627</v>
+        <v>23.7617602598596</v>
       </c>
       <c r="O18">
-        <v>1501.7401251445</v>
+        <v>1501.74075271233</v>
       </c>
       <c r="P18">
-        <v>56.9241977516989</v>
+        <v>56.9242394574767</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1195.03064711061</v>
+        <v>1195.0311325105</v>
       </c>
       <c r="C19">
-        <v>32.6475536128522</v>
+        <v>32.6476144960471</v>
       </c>
       <c r="D19">
-        <v>4.69907926908619</v>
+        <v>4.69907862078535</v>
       </c>
       <c r="E19">
-        <v>49.4619435212927</v>
+        <v>49.4628198596999</v>
       </c>
       <c r="F19">
-        <v>86.6086633937601</v>
+        <v>86.60853762615651</v>
       </c>
       <c r="G19">
-        <v>49.0950914407634</v>
+        <v>49.0950237773356</v>
       </c>
       <c r="H19">
-        <v>8.965531057777</v>
+        <v>8.965517044689349</v>
       </c>
       <c r="I19">
-        <v>2.62177599511272</v>
+        <v>2.62176935668323</v>
       </c>
       <c r="J19">
-        <v>17.4572713331252</v>
+        <v>17.457140936388</v>
       </c>
       <c r="K19">
-        <v>6.85233542941621</v>
+        <v>6.85230401851989</v>
       </c>
       <c r="L19">
-        <v>2.44674345340804</v>
+        <v>2.4467253919188</v>
       </c>
       <c r="M19">
-        <v>35.5872827836128</v>
+        <v>35.5872588615834</v>
       </c>
       <c r="N19">
-        <v>10.3813771072574</v>
+        <v>10.3813883593376</v>
       </c>
       <c r="O19">
-        <v>1575.44597109289</v>
+        <v>1575.44659462365</v>
       </c>
       <c r="P19">
-        <v>45.1221026467715</v>
+        <v>45.122155883074</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>294.619343966722</v>
+        <v>294.618565185912</v>
       </c>
       <c r="C20">
-        <v>11.1400935397811</v>
+        <v>11.1400678900644</v>
       </c>
       <c r="D20">
-        <v>6.99781406044684</v>
+        <v>6.99777073207589</v>
       </c>
       <c r="E20">
-        <v>35.9901070385929</v>
+        <v>35.9899264513515</v>
       </c>
       <c r="F20">
-        <v>1.55333071760547</v>
+        <v>1.55500780755947</v>
       </c>
       <c r="G20">
-        <v>2.28253269606308</v>
+        <v>2.28307072894755</v>
       </c>
       <c r="H20">
-        <v>0.968129501829375</v>
+        <v>0.968121627556727</v>
       </c>
       <c r="I20">
-        <v>1.55663884732268</v>
+        <v>1.5566366293564</v>
       </c>
       <c r="J20">
-        <v>5.21679667981953</v>
+        <v>5.21675327662758</v>
       </c>
       <c r="K20">
-        <v>1.13738481970383</v>
+        <v>1.13736289063188</v>
       </c>
       <c r="L20">
-        <v>7.5527363861819</v>
+        <v>7.55267442224202</v>
       </c>
       <c r="M20">
-        <v>19.5697581976376</v>
+        <v>19.5696987735097</v>
       </c>
       <c r="N20">
-        <v>7.00750943361913</v>
+        <v>7.00747231952431</v>
       </c>
       <c r="O20">
-        <v>571.507206303393</v>
+        <v>571.5065076174971</v>
       </c>
       <c r="P20">
-        <v>23.9668072905239</v>
+        <v>23.9667370878956</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1088.49917147508</v>
+        <v>1088.49980308752</v>
       </c>
       <c r="C21">
-        <v>24.7951244323274</v>
+        <v>24.7951355632139</v>
       </c>
       <c r="D21">
-        <v>1.96707521383751</v>
+        <v>1.96705814728538</v>
       </c>
       <c r="E21">
-        <v>23.6640582626693</v>
+        <v>23.663828478294</v>
       </c>
       <c r="F21">
-        <v>3.89284514379493</v>
+        <v>3.89176596858259</v>
       </c>
       <c r="G21">
-        <v>15.1006199755089</v>
+        <v>15.1006139298058</v>
       </c>
       <c r="H21">
-        <v>7.39188555414084</v>
+        <v>7.39188744632213</v>
       </c>
       <c r="I21">
-        <v>18.5057111436441</v>
+        <v>18.5056313512457</v>
       </c>
       <c r="J21">
-        <v>19.2911968646778</v>
+        <v>19.2911907317691</v>
       </c>
       <c r="K21">
-        <v>1.02868833409471</v>
+        <v>1.02868804722981</v>
       </c>
       <c r="L21">
-        <v>30.6096974295916</v>
+        <v>30.6096766416829</v>
       </c>
       <c r="M21">
-        <v>20.9333496855282</v>
+        <v>20.9333564016405</v>
       </c>
       <c r="N21">
-        <v>16.9088725137798</v>
+        <v>16.908880109156</v>
       </c>
       <c r="O21">
-        <v>2351.19723981426</v>
+        <v>2351.19832882614</v>
       </c>
       <c r="P21">
-        <v>22.2452801174487</v>
+        <v>22.2453084571121</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1216.45376844249</v>
+        <v>1216.45481429034</v>
       </c>
       <c r="C22">
-        <v>18.6349829579772</v>
+        <v>18.6350104853291</v>
       </c>
       <c r="D22">
-        <v>17.3121439096802</v>
+        <v>17.3121193595664</v>
       </c>
       <c r="E22">
-        <v>51.7627354845829</v>
+        <v>51.7627420522606</v>
       </c>
       <c r="F22">
-        <v>4.06407158793846</v>
+        <v>4.06369779515816</v>
       </c>
       <c r="G22">
-        <v>34.9951366392344</v>
+        <v>34.9950484385401</v>
       </c>
       <c r="H22">
-        <v>13.831536331494</v>
+        <v>13.8314621959026</v>
       </c>
       <c r="I22">
-        <v>13.3747985513668</v>
+        <v>13.3745394971477</v>
       </c>
       <c r="J22">
-        <v>38.557601205031</v>
+        <v>38.5575492621753</v>
       </c>
       <c r="K22">
-        <v>6.61636645544166</v>
+        <v>6.61635540307469</v>
       </c>
       <c r="L22">
-        <v>122.95139192189</v>
+        <v>122.950787119334</v>
       </c>
       <c r="M22">
-        <v>15.975813800058</v>
+        <v>15.9757904847292</v>
       </c>
       <c r="N22">
-        <v>69.3800623097998</v>
+        <v>69.38002200209181</v>
       </c>
       <c r="O22">
-        <v>2654.27768134316</v>
+        <v>2654.27907405353</v>
       </c>
       <c r="P22">
-        <v>11.2809074358261</v>
+        <v>11.2809322487889</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2398.7867378989</v>
+        <v>2398.78637348511</v>
       </c>
       <c r="C23">
-        <v>31.579731903589</v>
+        <v>31.5797377029213</v>
       </c>
       <c r="D23">
-        <v>7.44175641629817</v>
+        <v>7.44173972618837</v>
       </c>
       <c r="E23">
-        <v>50.0180070658466</v>
+        <v>50.0180509998014</v>
       </c>
       <c r="F23">
-        <v>4.58490884784815</v>
+        <v>4.58777260187281</v>
       </c>
       <c r="G23">
-        <v>60.4494759205685</v>
+        <v>60.4486265278195</v>
       </c>
       <c r="H23">
-        <v>48.2800197415053</v>
+        <v>48.280135262848</v>
       </c>
       <c r="I23">
-        <v>12.203032270637</v>
+        <v>12.2030274142258</v>
       </c>
       <c r="J23">
-        <v>128.077642484233</v>
+        <v>128.0776335789</v>
       </c>
       <c r="K23">
-        <v>55.7778105295154</v>
+        <v>55.7778094956059</v>
       </c>
       <c r="L23">
-        <v>33.5861707658568</v>
+        <v>33.5861189698448</v>
       </c>
       <c r="M23">
-        <v>552.091912563131</v>
+        <v>552.091730580516</v>
       </c>
       <c r="N23">
-        <v>89.0204547243642</v>
+        <v>89.0204645013124</v>
       </c>
       <c r="O23">
-        <v>3413.47455680725</v>
+        <v>3413.47438314282</v>
       </c>
       <c r="P23">
-        <v>47.1310755364661</v>
+        <v>47.1311050035679</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>812.148870588549</v>
+        <v>812.1496224913281</v>
       </c>
       <c r="C24">
-        <v>51.1488726101407</v>
+        <v>51.1489087602786</v>
       </c>
       <c r="D24">
-        <v>4.5269138982616</v>
+        <v>4.52688758896963</v>
       </c>
       <c r="E24">
-        <v>57.2235833429507</v>
+        <v>57.2235259846271</v>
       </c>
       <c r="F24">
-        <v>13.1056435032334</v>
+        <v>13.1055919557967</v>
       </c>
       <c r="G24">
-        <v>26.9823882073437</v>
+        <v>26.9820797237093</v>
       </c>
       <c r="H24">
-        <v>14.7076311487411</v>
+        <v>14.7075409723661</v>
       </c>
       <c r="I24">
-        <v>16.6346084501546</v>
+        <v>16.6344929588352</v>
       </c>
       <c r="J24">
-        <v>64.59415944734</v>
+        <v>64.5940420880624</v>
       </c>
       <c r="K24">
-        <v>20.1785666658406</v>
+        <v>20.178472759904</v>
       </c>
       <c r="L24">
-        <v>70.64390500329689</v>
+        <v>70.6435036111176</v>
       </c>
       <c r="M24">
-        <v>31.5791197736912</v>
+        <v>31.5790953971998</v>
       </c>
       <c r="N24">
-        <v>72.3591953611179</v>
+        <v>72.3590475122267</v>
       </c>
       <c r="O24">
-        <v>2015.83036859993</v>
+        <v>2015.8316608012</v>
       </c>
       <c r="P24">
-        <v>103.590014357523</v>
+        <v>103.590137261785</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>816.273367033847</v>
+        <v>816.273592697783</v>
       </c>
       <c r="C25">
-        <v>45.5790944254829</v>
+        <v>45.579102610881</v>
       </c>
       <c r="D25">
-        <v>10.7387192516049</v>
+        <v>10.7386662408121</v>
       </c>
       <c r="E25">
-        <v>45.5806163822292</v>
+        <v>45.5805843780407</v>
       </c>
       <c r="F25">
-        <v>14.9132505727895</v>
+        <v>14.9131612602926</v>
       </c>
       <c r="G25">
-        <v>14.3448166612715</v>
+        <v>14.3447890645485</v>
       </c>
       <c r="H25">
-        <v>7.94390581866932</v>
+        <v>7.94390382547879</v>
       </c>
       <c r="I25">
-        <v>4.95286092264114</v>
+        <v>4.95286017848312</v>
       </c>
       <c r="J25">
-        <v>13.7565522792714</v>
+        <v>13.7565446129067</v>
       </c>
       <c r="K25">
-        <v>5.96168288766503</v>
+        <v>5.96167499058184</v>
       </c>
       <c r="L25">
-        <v>14.8110895348229</v>
+        <v>14.8110758816777</v>
       </c>
       <c r="M25">
-        <v>43.2281029060823</v>
+        <v>43.22809593684</v>
       </c>
       <c r="N25">
-        <v>35.547755327521</v>
+        <v>35.5477160202157</v>
       </c>
       <c r="O25">
-        <v>989.240832482898</v>
+        <v>989.241123231572</v>
       </c>
       <c r="P25">
-        <v>41.8993540585829</v>
+        <v>41.8993678659986</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1145.33055215931</v>
+        <v>1145.33106078808</v>
       </c>
       <c r="C26">
-        <v>58.1160110471521</v>
+        <v>58.1160151176069</v>
       </c>
       <c r="D26">
-        <v>5.34381021357674</v>
+        <v>5.3437266148952</v>
       </c>
       <c r="E26">
-        <v>51.0487956788959</v>
+        <v>51.0486271597338</v>
       </c>
       <c r="F26">
-        <v>8.42111694076652</v>
+        <v>8.42090339519442</v>
       </c>
       <c r="G26">
-        <v>36.8213659504388</v>
+        <v>36.8212096274306</v>
       </c>
       <c r="H26">
-        <v>12.035975261491</v>
+        <v>12.0358474064953</v>
       </c>
       <c r="I26">
-        <v>15.0320315485972</v>
+        <v>15.0319985244111</v>
       </c>
       <c r="J26">
-        <v>26.2058471541657</v>
+        <v>26.2057967162057</v>
       </c>
       <c r="K26">
-        <v>8.462849944239011</v>
+        <v>8.46275882425326</v>
       </c>
       <c r="L26">
-        <v>24.013215220531</v>
+        <v>24.013027482515</v>
       </c>
       <c r="M26">
-        <v>86.4535302273879</v>
+        <v>86.4533881748653</v>
       </c>
       <c r="N26">
-        <v>19.3435852221972</v>
+        <v>19.3435143064234</v>
       </c>
       <c r="O26">
-        <v>2299.49561782273</v>
+        <v>2299.49671468572</v>
       </c>
       <c r="P26">
-        <v>65.0632767122806</v>
+        <v>65.0633615384438</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>231.564514859022</v>
+        <v>231.571958473686</v>
       </c>
       <c r="C27">
-        <v>2.23155428542793</v>
+        <v>2.23144072238377</v>
       </c>
       <c r="D27">
-        <v>2.48184997170634</v>
+        <v>2.48168854546866</v>
       </c>
       <c r="E27">
-        <v>13.5152897205924</v>
+        <v>13.5146329832075</v>
       </c>
       <c r="F27">
-        <v>6.63047114450241</v>
+        <v>6.63017640323828</v>
       </c>
       <c r="G27">
-        <v>0.709369002260576</v>
+        <v>0.709314757820865</v>
       </c>
       <c r="H27">
-        <v>0.298636350810167</v>
+        <v>0.302250724304708</v>
       </c>
       <c r="I27">
-        <v>2.49206986865702</v>
+        <v>2.49199674391323</v>
       </c>
       <c r="J27">
-        <v>3.42812510672458</v>
+        <v>3.42797681562329</v>
       </c>
       <c r="K27">
-        <v>0.854307516599275</v>
+        <v>0.8542845710385</v>
       </c>
       <c r="L27">
-        <v>2.91235316954356</v>
+        <v>2.91222377383292</v>
       </c>
       <c r="M27">
-        <v>0.903044501795072</v>
+        <v>0.902996382678948</v>
       </c>
       <c r="N27">
-        <v>3.71298926642941</v>
+        <v>3.71281869304363</v>
       </c>
       <c r="O27">
-        <v>434.077816301097</v>
+        <v>434.071668796772</v>
       </c>
       <c r="P27">
-        <v>54.0166156908302</v>
+        <v>54.0151848745922</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>282.02630386386</v>
+        <v>282.026388196817</v>
       </c>
       <c r="C28">
-        <v>37.2001037195144</v>
+        <v>37.2001074075462</v>
       </c>
       <c r="D28">
-        <v>2.57423478081036</v>
+        <v>2.57409666919439</v>
       </c>
       <c r="E28">
-        <v>8.6665598625458</v>
+        <v>8.666552742565941</v>
       </c>
       <c r="F28">
-        <v>1.99187039233001</v>
+        <v>1.99186366862931</v>
       </c>
       <c r="G28">
-        <v>4.81189285537213</v>
+        <v>4.81186954316774</v>
       </c>
       <c r="H28">
-        <v>8.292548847445451</v>
+        <v>8.292463077958571</v>
       </c>
       <c r="I28">
-        <v>2.57332162578424</v>
+        <v>2.57331384567123</v>
       </c>
       <c r="J28">
-        <v>21.5058025462875</v>
+        <v>21.5057850378937</v>
       </c>
       <c r="K28">
-        <v>10.7566794788219</v>
+        <v>10.7566606579773</v>
       </c>
       <c r="L28">
-        <v>12.3396359091376</v>
+        <v>12.339592523339</v>
       </c>
       <c r="M28">
-        <v>10.9739262991357</v>
+        <v>10.973924457897</v>
       </c>
       <c r="N28">
-        <v>9.580007868698139</v>
+        <v>9.579993122132979</v>
       </c>
       <c r="O28">
-        <v>772.851160773829</v>
+        <v>772.851263538476</v>
       </c>
       <c r="P28">
-        <v>79.3829081887624</v>
+        <v>79.38294089008799</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>458.889844032842</v>
+        <v>458.890654372127</v>
       </c>
       <c r="C29">
-        <v>4.63797503090565</v>
+        <v>4.637984378959</v>
       </c>
       <c r="D29">
-        <v>1.88522610681854</v>
+        <v>1.88518853398367</v>
       </c>
       <c r="E29">
-        <v>5.74362275145275</v>
+        <v>5.74362372414379</v>
       </c>
       <c r="F29">
-        <v>26.1840556562067</v>
+        <v>26.1838945430865</v>
       </c>
       <c r="G29">
-        <v>6.13414189209122</v>
+        <v>6.1339416424335</v>
       </c>
       <c r="H29">
-        <v>2.25158967898504</v>
+        <v>2.25127359042049</v>
       </c>
       <c r="I29">
-        <v>1.60250565810957</v>
+        <v>1.60253159596998</v>
       </c>
       <c r="J29">
-        <v>5.61735090565451</v>
+        <v>5.61733014051529</v>
       </c>
       <c r="K29">
-        <v>0.828971666131771</v>
+        <v>0.8289485209258261</v>
       </c>
       <c r="L29">
-        <v>4.33189318391395</v>
+        <v>4.33183758864006</v>
       </c>
       <c r="M29">
-        <v>2.8620462149108</v>
+        <v>2.86203314649876</v>
       </c>
       <c r="N29">
-        <v>12.4376494166743</v>
+        <v>12.4376580437618</v>
       </c>
       <c r="O29">
-        <v>1052.63134701958</v>
+        <v>1052.63216296015</v>
       </c>
       <c r="P29">
-        <v>5.2318892526933</v>
+        <v>5.231951860549</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>242.511292176187</v>
+        <v>242.511457599557</v>
       </c>
       <c r="C30">
-        <v>3.3285105232141</v>
+        <v>3.32851229653769</v>
       </c>
       <c r="D30">
-        <v>5.08745339003655</v>
+        <v>5.08743477078526</v>
       </c>
       <c r="E30">
-        <v>16.0219358517242</v>
+        <v>16.0219480744082</v>
       </c>
       <c r="F30">
-        <v>0.198434734569631</v>
+        <v>0.198420704147467</v>
       </c>
       <c r="G30">
-        <v>4.97978894297953</v>
+        <v>4.97979699772671</v>
       </c>
       <c r="H30">
-        <v>5.72441237250579</v>
+        <v>5.72445511151149</v>
       </c>
       <c r="I30">
-        <v>2.22868176901807</v>
+        <v>2.22867240474295</v>
       </c>
       <c r="J30">
-        <v>17.8139138257207</v>
+        <v>17.8139269215899</v>
       </c>
       <c r="K30">
-        <v>5.08728654371186</v>
+        <v>5.08729731994623</v>
       </c>
       <c r="L30">
-        <v>46.2069502100809</v>
+        <v>46.2070362030942</v>
       </c>
       <c r="M30">
-        <v>10.9345507768451</v>
+        <v>10.9345636648252</v>
       </c>
       <c r="N30">
-        <v>13.0976857884456</v>
+        <v>13.0976943116527</v>
       </c>
       <c r="O30">
-        <v>573.856587134776</v>
+        <v>573.856770770831</v>
       </c>
       <c r="P30">
-        <v>9.71670186942492</v>
+        <v>9.71671081151681</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1711.92967607984</v>
+        <v>1711.93028051077</v>
       </c>
       <c r="C31">
-        <v>65.7923574642395</v>
+        <v>65.7923484437152</v>
       </c>
       <c r="D31">
-        <v>12.2758313130312</v>
+        <v>12.2757909519401</v>
       </c>
       <c r="E31">
-        <v>50.6871493759109</v>
+        <v>50.687087270792</v>
       </c>
       <c r="F31">
-        <v>7.22649774436353</v>
+        <v>7.22530427572505</v>
       </c>
       <c r="G31">
-        <v>101.952154740215</v>
+        <v>101.951616400106</v>
       </c>
       <c r="H31">
-        <v>7.88642172132294</v>
+        <v>7.88637929171879</v>
       </c>
       <c r="I31">
-        <v>26.7578930866195</v>
+        <v>26.7578692907691</v>
       </c>
       <c r="J31">
-        <v>35.0866016254339</v>
+        <v>35.086575102074</v>
       </c>
       <c r="K31">
-        <v>7.22592738819715</v>
+        <v>7.22588428427844</v>
       </c>
       <c r="L31">
-        <v>69.98421509634861</v>
+        <v>69.9840436054626</v>
       </c>
       <c r="M31">
-        <v>21.731488583182</v>
+        <v>21.7314874530026</v>
       </c>
       <c r="N31">
-        <v>53.6773764383765</v>
+        <v>53.677317283495</v>
       </c>
       <c r="O31">
-        <v>3638.69389473395</v>
+        <v>3638.69473158902</v>
       </c>
       <c r="P31">
-        <v>14.3582185969039</v>
+        <v>14.3582446317031</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>469.664586779529</v>
+        <v>469.664056669103</v>
       </c>
       <c r="C32">
-        <v>3.55453355823491</v>
+        <v>3.55447513122455</v>
       </c>
       <c r="D32">
-        <v>0.344883967900434</v>
+        <v>0.344840953056244</v>
       </c>
       <c r="E32">
-        <v>3.75591132090239</v>
+        <v>3.7557523604048</v>
       </c>
       <c r="F32">
-        <v>24.0010577737656</v>
+        <v>24.0006300980723</v>
       </c>
       <c r="G32">
-        <v>1.67030643363464</v>
+        <v>1.67443791006825</v>
       </c>
       <c r="H32">
-        <v>1.37998217240471</v>
+        <v>1.38807254617556</v>
       </c>
       <c r="I32">
-        <v>0.933410409253071</v>
+        <v>0.933397777126541</v>
       </c>
       <c r="J32">
-        <v>3.86636461962801</v>
+        <v>3.866254701568</v>
       </c>
       <c r="K32">
-        <v>2.08747250379487</v>
+        <v>2.08740981453401</v>
       </c>
       <c r="L32">
-        <v>13.5314768672835</v>
+        <v>13.5310410054316</v>
       </c>
       <c r="M32">
-        <v>3.18128830717931</v>
+        <v>3.18121416128862</v>
       </c>
       <c r="N32">
-        <v>12.0138163628216</v>
+        <v>12.0136126491776</v>
       </c>
       <c r="O32">
-        <v>774.708173035711</v>
+        <v>774.696834466718</v>
       </c>
       <c r="P32">
-        <v>21.8390944054338</v>
+        <v>21.8387749176502</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4493.43296702259</v>
+        <v>4493.43452868486</v>
       </c>
       <c r="C33">
-        <v>91.6626478122147</v>
+        <v>91.66267733573901</v>
       </c>
       <c r="D33">
-        <v>35.8851646212463</v>
+        <v>35.8849992289301</v>
       </c>
       <c r="E33">
-        <v>88.50384156988611</v>
+        <v>88.5037737642031</v>
       </c>
       <c r="F33">
-        <v>8.595660877222899</v>
+        <v>8.5953476517643</v>
       </c>
       <c r="G33">
-        <v>77.1068536718673</v>
+        <v>77.106708499474</v>
       </c>
       <c r="H33">
-        <v>39.5642503975034</v>
+        <v>39.5639611657253</v>
       </c>
       <c r="I33">
-        <v>24.4326303223742</v>
+        <v>24.4325454347207</v>
       </c>
       <c r="J33">
-        <v>97.6105272873822</v>
+        <v>97.61046733888119</v>
       </c>
       <c r="K33">
-        <v>66.387033833218</v>
+        <v>66.386859029761</v>
       </c>
       <c r="L33">
-        <v>115.342586678321</v>
+        <v>115.342349731605</v>
       </c>
       <c r="M33">
-        <v>66.6716952720351</v>
+        <v>66.6716710381121</v>
       </c>
       <c r="N33">
-        <v>144.577591014169</v>
+        <v>144.577456874884</v>
       </c>
       <c r="O33">
-        <v>7481.29525284953</v>
+        <v>7481.29753122301</v>
       </c>
       <c r="P33">
-        <v>60.7365913593525</v>
+        <v>60.7365495870958</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1892.12105951833</v>
+        <v>1892.12290138847</v>
       </c>
       <c r="C34">
-        <v>73.1631242509774</v>
+        <v>73.1631863946166</v>
       </c>
       <c r="D34">
-        <v>125.661180634706</v>
+        <v>125.661054199024</v>
       </c>
       <c r="E34">
-        <v>47.0963884456887</v>
+        <v>47.0963566028876</v>
       </c>
       <c r="F34">
-        <v>2.53305772317636</v>
+        <v>2.53168414435193</v>
       </c>
       <c r="G34">
-        <v>44.7096663394528</v>
+        <v>44.709600008009</v>
       </c>
       <c r="H34">
-        <v>48.0674524116904</v>
+        <v>48.0674312421381</v>
       </c>
       <c r="I34">
-        <v>16.940255898229</v>
+        <v>16.9402407988697</v>
       </c>
       <c r="J34">
-        <v>46.3989640444474</v>
+        <v>46.3988082954068</v>
       </c>
       <c r="K34">
-        <v>13.0076150836087</v>
+        <v>13.0066651303368</v>
       </c>
       <c r="L34">
-        <v>116.202291970531</v>
+        <v>116.201875271038</v>
       </c>
       <c r="M34">
-        <v>27.6283401438841</v>
+        <v>27.6282844375115</v>
       </c>
       <c r="N34">
-        <v>129.15903411564</v>
+        <v>129.158769709708</v>
       </c>
       <c r="O34">
-        <v>3059.31857190965</v>
+        <v>3059.32098960431</v>
       </c>
       <c r="P34">
-        <v>74.3597369975451</v>
+        <v>74.3598106993355</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>125.895129763799</v>
+        <v>125.89494253828</v>
       </c>
       <c r="C35">
-        <v>8.612720480500951</v>
+        <v>8.612672872384771</v>
       </c>
       <c r="D35">
-        <v>0.201698598142576</v>
+        <v>0.201696669155746</v>
       </c>
       <c r="E35">
-        <v>2.75480198498976</v>
+        <v>2.75477141200341</v>
       </c>
       <c r="F35">
-        <v>4.2706014957335</v>
+        <v>4.27058731850915</v>
       </c>
       <c r="G35">
-        <v>1.4493121264176</v>
+        <v>1.45041427872345</v>
       </c>
       <c r="H35">
-        <v>0.0845853721787581</v>
+        <v>0.08458519217030761</v>
       </c>
       <c r="I35">
-        <v>1.29022760717653</v>
+        <v>1.29021950546892</v>
       </c>
       <c r="J35">
-        <v>3.53185753073505</v>
+        <v>3.53179049561375</v>
       </c>
       <c r="K35">
-        <v>6.20186484844048</v>
+        <v>6.20180610010504</v>
       </c>
       <c r="L35">
-        <v>3.03789631649969</v>
+        <v>3.03786673759027</v>
       </c>
       <c r="M35">
-        <v>2.02383747868199</v>
+        <v>2.02381758254021</v>
       </c>
       <c r="N35">
-        <v>4.61685101957332</v>
+        <v>4.6168071307733</v>
       </c>
       <c r="O35">
-        <v>310.281840749236</v>
+        <v>310.281184130895</v>
       </c>
       <c r="P35">
-        <v>49.5372413436375</v>
+        <v>49.5371743312588</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2596.04825119278</v>
+        <v>2596.04906986208</v>
       </c>
       <c r="C36">
-        <v>51.9101076383899</v>
+        <v>51.9101213612129</v>
       </c>
       <c r="D36">
-        <v>15.2192110098715</v>
+        <v>15.2191702277271</v>
       </c>
       <c r="E36">
-        <v>145.663274985961</v>
+        <v>145.663297568022</v>
       </c>
       <c r="F36">
-        <v>28.8872969732087</v>
+        <v>28.8863674016996</v>
       </c>
       <c r="G36">
-        <v>87.7070437664794</v>
+        <v>87.70694385187601</v>
       </c>
       <c r="H36">
-        <v>76.0934522952932</v>
+        <v>76.09329567900269</v>
       </c>
       <c r="I36">
-        <v>37.1271125151049</v>
+        <v>37.1270806325997</v>
       </c>
       <c r="J36">
-        <v>188.109514495913</v>
+        <v>188.109408212257</v>
       </c>
       <c r="K36">
-        <v>46.9824721330252</v>
+        <v>46.98241998149</v>
       </c>
       <c r="L36">
-        <v>67.4041999880626</v>
+        <v>67.4041057274351</v>
       </c>
       <c r="M36">
-        <v>210.916927862715</v>
+        <v>210.916827425384</v>
       </c>
       <c r="N36">
-        <v>100.290183758258</v>
+        <v>100.290119039958</v>
       </c>
       <c r="O36">
-        <v>4226.30247049832</v>
+        <v>4226.30372038957</v>
       </c>
       <c r="P36">
-        <v>39.6421426783814</v>
+        <v>39.6421805887774</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>802.936649900917</v>
+        <v>802.935427227447</v>
       </c>
       <c r="C37">
-        <v>20.7269660666755</v>
+        <v>20.7269352471914</v>
       </c>
       <c r="D37">
-        <v>4.19945834463072</v>
+        <v>4.20623579815859</v>
       </c>
       <c r="E37">
-        <v>19.6142691633726</v>
+        <v>19.6142031973554</v>
       </c>
       <c r="F37">
-        <v>29.8589363664578</v>
+        <v>29.8587716552827</v>
       </c>
       <c r="G37">
-        <v>6.25084536111685</v>
+        <v>6.25071809261278</v>
       </c>
       <c r="H37">
-        <v>22.5487701883497</v>
+        <v>22.5483801592931</v>
       </c>
       <c r="I37">
-        <v>6.76081916405124</v>
+        <v>6.76081234169569</v>
       </c>
       <c r="J37">
-        <v>40.8664033541416</v>
+        <v>40.8663119637985</v>
       </c>
       <c r="K37">
-        <v>13.4433862146655</v>
+        <v>13.4433346997691</v>
       </c>
       <c r="L37">
-        <v>19.9555528681905</v>
+        <v>19.955403797365</v>
       </c>
       <c r="M37">
-        <v>44.8662447129332</v>
+        <v>44.8661473001308</v>
       </c>
       <c r="N37">
-        <v>25.5524795169911</v>
+        <v>25.5523711518625</v>
       </c>
       <c r="O37">
-        <v>1267.40293709863</v>
+        <v>1267.40081476708</v>
       </c>
       <c r="P37">
-        <v>55.0029091388315</v>
+        <v>55.0028494896257</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>818.99816878094</v>
+        <v>818.999185216553</v>
       </c>
       <c r="C38">
-        <v>24.0973833695964</v>
+        <v>24.0974134433625</v>
       </c>
       <c r="D38">
-        <v>6.02454447469541</v>
+        <v>6.02450089892845</v>
       </c>
       <c r="E38">
-        <v>48.1005989938622</v>
+        <v>48.1008318778888</v>
       </c>
       <c r="F38">
-        <v>1.60669455035666</v>
+        <v>1.60664931824944</v>
       </c>
       <c r="G38">
-        <v>10.421945861138</v>
+        <v>10.4213523337412</v>
       </c>
       <c r="H38">
-        <v>3.21477649822055</v>
+        <v>3.21403860483721</v>
       </c>
       <c r="I38">
-        <v>2.01774354764118</v>
+        <v>2.01798596753479</v>
       </c>
       <c r="J38">
-        <v>40.6009156751604</v>
+        <v>40.6008002703126</v>
       </c>
       <c r="K38">
-        <v>2.61525692491963</v>
+        <v>2.61524681870293</v>
       </c>
       <c r="L38">
-        <v>68.2234949674302</v>
+        <v>68.22308346764559</v>
       </c>
       <c r="M38">
-        <v>20.9277146706703</v>
+        <v>20.9275865696426</v>
       </c>
       <c r="N38">
-        <v>34.4719989492461</v>
+        <v>34.4718511781224</v>
       </c>
       <c r="O38">
-        <v>1356.64782584644</v>
+        <v>1356.65047256938</v>
       </c>
       <c r="P38">
-        <v>64.362138949084</v>
+        <v>64.3623101301108</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2842.4839771214</v>
+        <v>2842.48478390985</v>
       </c>
       <c r="C39">
-        <v>95.3978855437009</v>
+        <v>95.3979108482047</v>
       </c>
       <c r="D39">
-        <v>33.7738848618318</v>
+        <v>33.7738593165482</v>
       </c>
       <c r="E39">
-        <v>135.434921871808</v>
+        <v>135.434954562903</v>
       </c>
       <c r="F39">
-        <v>20.2257354891752</v>
+        <v>20.2253350977032</v>
       </c>
       <c r="G39">
-        <v>126.893627641903</v>
+        <v>126.893470152796</v>
       </c>
       <c r="H39">
-        <v>55.4971347830147</v>
+        <v>55.4969072862523</v>
       </c>
       <c r="I39">
-        <v>32.7707494321989</v>
+        <v>32.7706894770678</v>
       </c>
       <c r="J39">
-        <v>168.015962650245</v>
+        <v>168.015795302712</v>
       </c>
       <c r="K39">
-        <v>62.8391511846086</v>
+        <v>62.8389724056915</v>
       </c>
       <c r="L39">
-        <v>105.131552293624</v>
+        <v>105.131379079239</v>
       </c>
       <c r="M39">
-        <v>75.5967306134944</v>
+        <v>75.59669527092819</v>
       </c>
       <c r="N39">
-        <v>119.27518831196</v>
+        <v>119.275099620158</v>
       </c>
       <c r="O39">
-        <v>4742.60571149467</v>
+        <v>4742.60696972059</v>
       </c>
       <c r="P39">
-        <v>49.5709265027008</v>
+        <v>49.5709813393729</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>251.503238025102</v>
+        <v>251.503366037656</v>
       </c>
       <c r="C40">
-        <v>4.21531133995682</v>
+        <v>4.21531272622967</v>
       </c>
       <c r="D40">
-        <v>7.84099276808326</v>
+        <v>7.84099227772117</v>
       </c>
       <c r="E40">
-        <v>5.55271520883841</v>
+        <v>5.55272337974684</v>
       </c>
       <c r="F40">
-        <v>0.577541541768998</v>
+        <v>0.577045332513483</v>
       </c>
       <c r="G40">
-        <v>4.19139488678592</v>
+        <v>4.19142068987392</v>
       </c>
       <c r="H40">
-        <v>4.44066167037707</v>
+        <v>4.44074025551569</v>
       </c>
       <c r="I40">
-        <v>1.61532143509118</v>
+        <v>1.61532247664707</v>
       </c>
       <c r="J40">
-        <v>11.8549430278868</v>
+        <v>11.8549904176743</v>
       </c>
       <c r="K40">
-        <v>2.01845483877306</v>
+        <v>2.01846042395777</v>
       </c>
       <c r="L40">
-        <v>15.1936001301049</v>
+        <v>15.193617339308</v>
       </c>
       <c r="M40">
-        <v>4.90094119579082</v>
+        <v>4.90095064068258</v>
       </c>
       <c r="N40">
-        <v>22.5662159664419</v>
+        <v>22.5663002047069</v>
       </c>
       <c r="O40">
-        <v>498.745385757816</v>
+        <v>498.745630974578</v>
       </c>
       <c r="P40">
-        <v>3.41684577631364</v>
+        <v>3.41683667260735</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1001.54093587833</v>
+        <v>1001.53781893245</v>
       </c>
       <c r="C41">
-        <v>14.1580586020651</v>
+        <v>14.1579796086224</v>
       </c>
       <c r="D41">
-        <v>71.95352813467351</v>
+        <v>71.95300838894499</v>
       </c>
       <c r="E41">
-        <v>32.4928779048893</v>
+        <v>32.4926477722122</v>
       </c>
       <c r="F41">
-        <v>1.0405120077216</v>
+        <v>1.0514277025653</v>
       </c>
       <c r="G41">
-        <v>27.6933035151151</v>
+        <v>27.6930556110421</v>
       </c>
       <c r="H41">
-        <v>34.810372208858</v>
+        <v>34.8100407129353</v>
       </c>
       <c r="I41">
-        <v>15.8745748138112</v>
+        <v>15.8744631747183</v>
       </c>
       <c r="J41">
-        <v>36.8031729835581</v>
+        <v>36.8051607261749</v>
       </c>
       <c r="K41">
-        <v>6.15700061608268</v>
+        <v>6.1569400847334</v>
       </c>
       <c r="L41">
-        <v>26.9309143307464</v>
+        <v>26.930618195563</v>
       </c>
       <c r="M41">
-        <v>26.9764526065469</v>
+        <v>26.9761708388512</v>
       </c>
       <c r="N41">
-        <v>15.3302187834361</v>
+        <v>15.3300832647977</v>
       </c>
       <c r="O41">
-        <v>1517.54493238825</v>
+        <v>1517.53980875901</v>
       </c>
       <c r="P41">
-        <v>34.4087858550598</v>
+        <v>34.4087019993832</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>142.677406580462</v>
+        <v>142.677536625607</v>
       </c>
       <c r="C42">
-        <v>7.12225427741903</v>
+        <v>7.12225714592267</v>
       </c>
       <c r="D42">
-        <v>1.51706846855471</v>
+        <v>1.51705754132432</v>
       </c>
       <c r="E42">
-        <v>8.722138242147111</v>
+        <v>8.72223475632544</v>
       </c>
       <c r="F42">
-        <v>2.51432156956049</v>
+        <v>2.51434209596476</v>
       </c>
       <c r="G42">
-        <v>1.17677751344299</v>
+        <v>1.17677100789001</v>
       </c>
       <c r="H42">
-        <v>0.806443971604737</v>
+        <v>0.806478788612732</v>
       </c>
       <c r="I42">
-        <v>1.51998602146848</v>
+        <v>1.51997538581281</v>
       </c>
       <c r="J42">
-        <v>4.76551751287411</v>
+        <v>4.76554991485052</v>
       </c>
       <c r="K42">
-        <v>4.64181753057816</v>
+        <v>4.64179840782162</v>
       </c>
       <c r="L42">
-        <v>9.04743461763818</v>
+        <v>9.04746885862926</v>
       </c>
       <c r="M42">
-        <v>5.35635009906911</v>
+        <v>5.35635115115158</v>
       </c>
       <c r="N42">
-        <v>11.6239842725509</v>
+        <v>11.6240781173562</v>
       </c>
       <c r="O42">
-        <v>393.389505360489</v>
+        <v>393.389718436967</v>
       </c>
       <c r="P42">
-        <v>58.3901895948741</v>
+        <v>58.3902352480264</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1488.18242929219</v>
+        <v>1488.18307848318</v>
       </c>
       <c r="C43">
-        <v>41.80531465921</v>
+        <v>41.8053378668521</v>
       </c>
       <c r="D43">
-        <v>23.1996081597318</v>
+        <v>23.1993229068001</v>
       </c>
       <c r="E43">
-        <v>87.39256260670599</v>
+        <v>87.39262490855261</v>
       </c>
       <c r="F43">
-        <v>4.73452902927825</v>
+        <v>4.73402296885245</v>
       </c>
       <c r="G43">
-        <v>30.4853458601272</v>
+        <v>30.4850643608512</v>
       </c>
       <c r="H43">
-        <v>42.345232758873</v>
+        <v>42.3447134524919</v>
       </c>
       <c r="I43">
-        <v>26.1098961574472</v>
+        <v>26.1097906229313</v>
       </c>
       <c r="J43">
-        <v>57.2492585208511</v>
+        <v>57.2492142489937</v>
       </c>
       <c r="K43">
-        <v>12.670693374856</v>
+        <v>12.6706521004634</v>
       </c>
       <c r="L43">
-        <v>47.1723732610854</v>
+        <v>47.17227785978</v>
       </c>
       <c r="M43">
-        <v>108.60154238014</v>
+        <v>108.601429403243</v>
       </c>
       <c r="N43">
-        <v>60.7012231441601</v>
+        <v>60.7011309840319</v>
       </c>
       <c r="O43">
-        <v>2029.92420413691</v>
+        <v>2029.92522689321</v>
       </c>
       <c r="P43">
-        <v>43.2610281561767</v>
+        <v>43.2610700557238</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4493.01040065609</v>
+        <v>4493.013731472</v>
       </c>
       <c r="C44">
-        <v>155.794336782873</v>
+        <v>155.794466740974</v>
       </c>
       <c r="D44">
-        <v>16.8702710282267</v>
+        <v>16.8696885143006</v>
       </c>
       <c r="E44">
-        <v>102.421076188583</v>
+        <v>102.420439721865</v>
       </c>
       <c r="F44">
-        <v>230.329336122194</v>
+        <v>230.328309316784</v>
       </c>
       <c r="G44">
-        <v>107.828501203043</v>
+        <v>107.827410284891</v>
       </c>
       <c r="H44">
-        <v>40.5951780746479</v>
+        <v>40.593819808131</v>
       </c>
       <c r="I44">
-        <v>40.3653440026796</v>
+        <v>40.3651400247245</v>
       </c>
       <c r="J44">
-        <v>101.224981317956</v>
+        <v>101.224762438426</v>
       </c>
       <c r="K44">
-        <v>37.2128918210135</v>
+        <v>37.2127792502893</v>
       </c>
       <c r="L44">
-        <v>148.220597339655</v>
+        <v>148.219833656423</v>
       </c>
       <c r="M44">
-        <v>80.5877275107224</v>
+        <v>80.5874267334479</v>
       </c>
       <c r="N44">
-        <v>97.8039212945754</v>
+        <v>97.80345931960881</v>
       </c>
       <c r="O44">
-        <v>8061.68319292414</v>
+        <v>8061.6875651585</v>
       </c>
       <c r="P44">
-        <v>226.988595568448</v>
+        <v>226.988921118607</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>436.826870297122</v>
+        <v>436.827571532845</v>
       </c>
       <c r="C45">
-        <v>20.2434733004905</v>
+        <v>20.2435034675344</v>
       </c>
       <c r="D45">
-        <v>2.30894393649319</v>
+        <v>2.30891546852545</v>
       </c>
       <c r="E45">
-        <v>26.542512796878</v>
+        <v>26.542208156169</v>
       </c>
       <c r="F45">
-        <v>23.8639953551796</v>
+        <v>23.8637930648901</v>
       </c>
       <c r="G45">
-        <v>7.1242287313682</v>
+        <v>7.12416844322954</v>
       </c>
       <c r="H45">
-        <v>3.60879167683044</v>
+        <v>3.60868111175303</v>
       </c>
       <c r="I45">
-        <v>3.79536706101089</v>
+        <v>3.79548592079544</v>
       </c>
       <c r="J45">
-        <v>20.0825265292468</v>
+        <v>20.0823841717686</v>
       </c>
       <c r="K45">
-        <v>2.88186017469913</v>
+        <v>2.88185137552983</v>
       </c>
       <c r="L45">
-        <v>16.7993641281794</v>
+        <v>16.7991614227098</v>
       </c>
       <c r="M45">
-        <v>14.004864746707</v>
+        <v>14.0047717690883</v>
       </c>
       <c r="N45">
-        <v>26.2988421070715</v>
+        <v>26.2986875953154</v>
       </c>
       <c r="O45">
-        <v>862.280243032008</v>
+        <v>862.2808696452061</v>
       </c>
       <c r="P45">
-        <v>21.3499456009989</v>
+        <v>21.3500527328781</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>128.012944966333</v>
+        <v>128.012993085223</v>
       </c>
       <c r="C46">
-        <v>5.65244405163568</v>
+        <v>5.6524452993923</v>
       </c>
       <c r="D46">
-        <v>0.905672237873447</v>
+        <v>0.90567138693645</v>
       </c>
       <c r="E46">
-        <v>6.02344339538432</v>
+        <v>6.02342749357826</v>
       </c>
       <c r="F46">
-        <v>0.773797698329498</v>
+        <v>0.77381689808371</v>
       </c>
       <c r="G46">
-        <v>2.75893323390988</v>
+        <v>2.75893357752031</v>
       </c>
       <c r="H46">
-        <v>1.16781483127951</v>
+        <v>1.16787330386445</v>
       </c>
       <c r="I46">
-        <v>1.91743016995425</v>
+        <v>1.9174445273685</v>
       </c>
       <c r="J46">
-        <v>5.76538256367722</v>
+        <v>5.76538251755495</v>
       </c>
       <c r="K46">
-        <v>1.17872578695906</v>
+        <v>1.17871445883903</v>
       </c>
       <c r="L46">
-        <v>13.7701965126284</v>
+        <v>13.7702139544902</v>
       </c>
       <c r="M46">
-        <v>3.76399480766841</v>
+        <v>3.7639986851043</v>
       </c>
       <c r="N46">
-        <v>12.3957520524045</v>
+        <v>12.3957572181434</v>
       </c>
       <c r="O46">
-        <v>340.384410022675</v>
+        <v>340.384456693401</v>
       </c>
       <c r="P46">
-        <v>11.5483749274197</v>
+        <v>11.5483588849209</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1562.47391693232</v>
+        <v>1562.47468512529</v>
       </c>
       <c r="C47">
-        <v>47.4106485169231</v>
+        <v>47.4106710932821</v>
       </c>
       <c r="D47">
-        <v>17.9573385401732</v>
+        <v>17.9572489532351</v>
       </c>
       <c r="E47">
-        <v>52.7942119412596</v>
+        <v>52.7942953115632</v>
       </c>
       <c r="F47">
-        <v>10.2647926745079</v>
+        <v>10.2641872059725</v>
       </c>
       <c r="G47">
-        <v>22.6298777750351</v>
+        <v>22.6297865232118</v>
       </c>
       <c r="H47">
-        <v>11.7091620760348</v>
+        <v>11.7091335966261</v>
       </c>
       <c r="I47">
-        <v>4.12657769284723</v>
+        <v>4.12659264263038</v>
       </c>
       <c r="J47">
-        <v>41.3927599780179</v>
+        <v>41.3926820704922</v>
       </c>
       <c r="K47">
-        <v>6.54060384716054</v>
+        <v>6.54050134517567</v>
       </c>
       <c r="L47">
-        <v>27.6582501992513</v>
+        <v>27.658103654671</v>
       </c>
       <c r="M47">
-        <v>69.4326320433713</v>
+        <v>69.43260392632391</v>
       </c>
       <c r="N47">
-        <v>35.7962322102698</v>
+        <v>35.7961939509891</v>
       </c>
       <c r="O47">
-        <v>2918.61522190606</v>
+        <v>2918.61660200363</v>
       </c>
       <c r="P47">
-        <v>39.3773990238754</v>
+        <v>39.3774667930304</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1334.38964929486</v>
+        <v>1334.39330437372</v>
       </c>
       <c r="C48">
-        <v>30.8041791154204</v>
+        <v>30.804216282817</v>
       </c>
       <c r="D48">
-        <v>3.23497656058636</v>
+        <v>3.23482363559785</v>
       </c>
       <c r="E48">
-        <v>74.9576025663517</v>
+        <v>74.95781679131</v>
       </c>
       <c r="F48">
-        <v>9.23992612344575</v>
+        <v>9.2398792343445</v>
       </c>
       <c r="G48">
-        <v>6.99633684952228</v>
+        <v>6.99621239969188</v>
       </c>
       <c r="H48">
-        <v>3.8912723385803</v>
+        <v>3.89100367105158</v>
       </c>
       <c r="I48">
-        <v>9.302494803788839</v>
+        <v>9.302879764927029</v>
       </c>
       <c r="J48">
-        <v>34.6713176941029</v>
+        <v>34.6710684550028</v>
       </c>
       <c r="K48">
-        <v>8.451082598541991</v>
+        <v>8.45055418648613</v>
       </c>
       <c r="L48">
-        <v>52.3787061003982</v>
+        <v>52.3779285431167</v>
       </c>
       <c r="M48">
-        <v>125.311118766438</v>
+        <v>125.310891621063</v>
       </c>
       <c r="N48">
-        <v>33.3685330064026</v>
+        <v>33.3684919700592</v>
       </c>
       <c r="O48">
-        <v>2331.01916047532</v>
+        <v>2331.02422865145</v>
       </c>
       <c r="P48">
-        <v>89.7276515915661</v>
+        <v>89.72784316452049</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>704.177516499983</v>
+        <v>704.177497613073</v>
       </c>
       <c r="C49">
-        <v>4.91933193095232</v>
+        <v>4.91933210793144</v>
       </c>
       <c r="D49">
-        <v>2.57231654102408</v>
+        <v>2.5722718876805</v>
       </c>
       <c r="E49">
-        <v>26.0450490224748</v>
+        <v>26.0450343704503</v>
       </c>
       <c r="F49">
-        <v>28.1310961856447</v>
+        <v>28.1308111432342</v>
       </c>
       <c r="G49">
-        <v>13.7463976202185</v>
+        <v>13.7463790231333</v>
       </c>
       <c r="H49">
-        <v>8.16024325073767</v>
+        <v>8.16021920731173</v>
       </c>
       <c r="I49">
-        <v>3.36810934306222</v>
+        <v>3.36809763896517</v>
       </c>
       <c r="J49">
-        <v>21.7741723681898</v>
+        <v>21.7741421493206</v>
       </c>
       <c r="K49">
-        <v>1.5004288792454</v>
+        <v>1.50042639826663</v>
       </c>
       <c r="L49">
-        <v>1.40019442573502</v>
+        <v>1.40018638956389</v>
       </c>
       <c r="M49">
-        <v>4.65161653889156</v>
+        <v>4.65161703290632</v>
       </c>
       <c r="N49">
-        <v>4.517221641112</v>
+        <v>4.51721600344603</v>
       </c>
       <c r="O49">
-        <v>645.502805632408</v>
+        <v>645.502794685917</v>
       </c>
       <c r="P49">
-        <v>7.54181144757889</v>
+        <v>7.54181353117548</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>956.896234193911</v>
+        <v>956.896679173777</v>
       </c>
       <c r="C50">
-        <v>79.80767886480651</v>
+        <v>79.8076958141708</v>
       </c>
       <c r="D50">
-        <v>12.430705516034</v>
+        <v>12.4305952415166</v>
       </c>
       <c r="E50">
-        <v>149.485354729353</v>
+        <v>149.485295737123</v>
       </c>
       <c r="F50">
-        <v>4.55974890067824</v>
+        <v>4.55967897818856</v>
       </c>
       <c r="G50">
-        <v>32.662599853359</v>
+        <v>32.6625108788988</v>
       </c>
       <c r="H50">
-        <v>33.4431838172297</v>
+        <v>33.4430413571335</v>
       </c>
       <c r="I50">
-        <v>15.6859423965711</v>
+        <v>15.6859678211535</v>
       </c>
       <c r="J50">
-        <v>103.138434761782</v>
+        <v>103.138419851399</v>
       </c>
       <c r="K50">
-        <v>43.9699685298144</v>
+        <v>43.9699221333266</v>
       </c>
       <c r="L50">
-        <v>56.1199103697635</v>
+        <v>56.1198652039961</v>
       </c>
       <c r="M50">
-        <v>44.4817631871586</v>
+        <v>44.4817470350498</v>
       </c>
       <c r="N50">
-        <v>55.7364383631695</v>
+        <v>55.7364217949702</v>
       </c>
       <c r="O50">
-        <v>2127.83612934587</v>
+        <v>2127.83699698556</v>
       </c>
       <c r="P50">
-        <v>84.79053246608881</v>
+        <v>84.7905755984135</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>134.365101958871</v>
+        <v>134.364471811573</v>
       </c>
       <c r="C51">
-        <v>5.36128929600311</v>
+        <v>5.36127272879016</v>
       </c>
       <c r="D51">
-        <v>0.0151241840819888</v>
+        <v>0.0151219991644512</v>
       </c>
       <c r="E51">
-        <v>2.58019875895863</v>
+        <v>2.58022896036106</v>
       </c>
       <c r="F51">
-        <v>34.6610882820324</v>
+        <v>34.6615801799492</v>
       </c>
       <c r="G51">
-        <v>2.56176243768877</v>
+        <v>2.56175340697027</v>
       </c>
       <c r="H51">
-        <v>0.0115663261703896</v>
+        <v>0.0137630845627714</v>
       </c>
       <c r="I51">
-        <v>1.05320607198199</v>
+        <v>1.05319794605258</v>
       </c>
       <c r="J51">
-        <v>1.2116082182067</v>
+        <v>1.21157233234559</v>
       </c>
       <c r="K51">
-        <v>0.403750385368437</v>
+        <v>0.40372839212434</v>
       </c>
       <c r="L51">
-        <v>0.552724187745668</v>
+        <v>0.554588028789632</v>
       </c>
       <c r="M51">
-        <v>0.618630483171127</v>
+        <v>0.618599171170375</v>
       </c>
       <c r="N51">
-        <v>0.907862640497389</v>
+        <v>0.9078547954673381</v>
       </c>
       <c r="O51">
-        <v>303.504669168031</v>
+        <v>303.502774348867</v>
       </c>
       <c r="P51">
-        <v>29.7261896876027</v>
+        <v>29.7260487463055</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1336.7945226644</v>
+        <v>1326.71928368926</v>
       </c>
       <c r="C2">
-        <v>24.1987721401356</v>
+        <v>25.3634977125171</v>
       </c>
       <c r="D2">
-        <v>30.4699539093017</v>
+        <v>33.7844904185033</v>
       </c>
       <c r="E2">
-        <v>59.9550445683696</v>
+        <v>59.5620207863097</v>
       </c>
       <c r="F2">
-        <v>21.1948243064171</v>
+        <v>21.6085698848886</v>
       </c>
       <c r="G2">
-        <v>11.7945574089211</v>
+        <v>14.0744743601134</v>
       </c>
       <c r="H2">
-        <v>20.9756830032583</v>
+        <v>22.0457778731875</v>
       </c>
       <c r="I2">
-        <v>17.0222502609483</v>
+        <v>14.2427477710168</v>
       </c>
       <c r="J2">
-        <v>84.67154831495181</v>
+        <v>78.3201064056355</v>
       </c>
       <c r="K2">
-        <v>15.1054000751556</v>
+        <v>15.4957420287909</v>
       </c>
       <c r="L2">
-        <v>50.8473834733763</v>
+        <v>51.3435760570774</v>
       </c>
       <c r="M2">
-        <v>38.0425666254356</v>
+        <v>40.5846747271255</v>
       </c>
       <c r="N2">
-        <v>25.7088410801309</v>
+        <v>24.7185481638349</v>
       </c>
       <c r="O2">
-        <v>1408.37343720947</v>
+        <v>1432.01892111493</v>
       </c>
       <c r="P2">
-        <v>19.6920720671504</v>
+        <v>20.4156897931946</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>160.294033084062</v>
+        <v>151.067874393779</v>
       </c>
       <c r="C3">
-        <v>5.70702944321979</v>
+        <v>4.11522949070375</v>
       </c>
       <c r="D3">
-        <v>0.549498825503675</v>
+        <v>0.499121339329621</v>
       </c>
       <c r="E3">
-        <v>1.57224263186074</v>
+        <v>1.19062408140346</v>
       </c>
       <c r="F3">
-        <v>9.286047663383821</v>
+        <v>9.524527584614191</v>
       </c>
       <c r="G3">
-        <v>0.319382017342085</v>
+        <v>0.368152477754454</v>
       </c>
       <c r="H3">
-        <v>0.145107102357436</v>
+        <v>0.0807684563200757</v>
       </c>
       <c r="I3">
-        <v>1.2477668382501</v>
+        <v>1.00500915682927</v>
       </c>
       <c r="J3">
-        <v>0.443884219784994</v>
+        <v>0.383048592665301</v>
       </c>
       <c r="K3">
-        <v>0.012018652860457</v>
+        <v>0.154020779562825</v>
       </c>
       <c r="L3">
-        <v>0.00398606626196606</v>
+        <v>0.07419082409348531</v>
       </c>
       <c r="M3">
-        <v>0.848647356815295</v>
+        <v>0.760762688129933</v>
       </c>
       <c r="N3">
-        <v>0.794500259857547</v>
+        <v>0.949087853423302</v>
       </c>
       <c r="O3">
-        <v>358.010862111107</v>
+        <v>332.643041261932</v>
       </c>
       <c r="P3">
-        <v>15.0996938752779</v>
+        <v>14.3001632958388</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1326.54098443135</v>
+        <v>1323.83692274075</v>
       </c>
       <c r="C4">
-        <v>7.49869650873603</v>
+        <v>8.180955725895959</v>
       </c>
       <c r="D4">
-        <v>3.14660290152315</v>
+        <v>2.74922549478967</v>
       </c>
       <c r="E4">
-        <v>24.967127034826</v>
+        <v>21.3538960472467</v>
       </c>
       <c r="F4">
-        <v>7.47715547051256</v>
+        <v>7.3512453334805</v>
       </c>
       <c r="G4">
-        <v>5.52351590725333</v>
+        <v>7.28991228795826</v>
       </c>
       <c r="H4">
-        <v>13.5822221591164</v>
+        <v>12.7866921482387</v>
       </c>
       <c r="I4">
-        <v>8.957732501075901</v>
+        <v>9.379152917885509</v>
       </c>
       <c r="J4">
-        <v>26.8810781715105</v>
+        <v>26.5938642905869</v>
       </c>
       <c r="K4">
-        <v>2.64228834184558</v>
+        <v>3.64945024452225</v>
       </c>
       <c r="L4">
-        <v>63.8581835129874</v>
+        <v>65.7970471428042</v>
       </c>
       <c r="M4">
-        <v>43.5775306677357</v>
+        <v>42.5014140238559</v>
       </c>
       <c r="N4">
-        <v>29.0687470515554</v>
+        <v>29.3524069361153</v>
       </c>
       <c r="O4">
-        <v>2142.30921548596</v>
+        <v>2194.97009880316</v>
       </c>
       <c r="P4">
-        <v>16.6825365437814</v>
+        <v>16.0133428003035</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>699.560627154328</v>
+        <v>696.350496043789</v>
       </c>
       <c r="C5">
-        <v>46.4692312479487</v>
+        <v>45.493324996608</v>
       </c>
       <c r="D5">
-        <v>10.6477765502812</v>
+        <v>10.7259072286219</v>
       </c>
       <c r="E5">
-        <v>38.9318524598617</v>
+        <v>33.978439367281</v>
       </c>
       <c r="F5">
-        <v>8.819170683274511</v>
+        <v>6.76722114359913</v>
       </c>
       <c r="G5">
-        <v>3.84018187523592</v>
+        <v>4.58540861381679</v>
       </c>
       <c r="H5">
-        <v>10.7050627006628</v>
+        <v>10.5066511490138</v>
       </c>
       <c r="I5">
-        <v>5.79617198501701</v>
+        <v>6.8792359109376</v>
       </c>
       <c r="J5">
-        <v>33.5323376257673</v>
+        <v>31.7564858797596</v>
       </c>
       <c r="K5">
-        <v>5.74500747073752</v>
+        <v>8.04691464651107</v>
       </c>
       <c r="L5">
-        <v>17.8929983252663</v>
+        <v>17.5163379921651</v>
       </c>
       <c r="M5">
-        <v>19.6940837625796</v>
+        <v>19.8810071193252</v>
       </c>
       <c r="N5">
-        <v>20.5634717608022</v>
+        <v>21.3486889441202</v>
       </c>
       <c r="O5">
-        <v>935.662207136092</v>
+        <v>948.7376783765191</v>
       </c>
       <c r="P5">
-        <v>59.6567565067955</v>
+        <v>57.0899624855636</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7684.79943721028</v>
+        <v>7593.5223715418</v>
       </c>
       <c r="C6">
-        <v>210.151817201578</v>
+        <v>199.825730110703</v>
       </c>
       <c r="D6">
-        <v>50.9371912538409</v>
+        <v>86.1475335229852</v>
       </c>
       <c r="E6">
-        <v>191.399391569348</v>
+        <v>170.959429597456</v>
       </c>
       <c r="F6">
-        <v>41.6330369358779</v>
+        <v>43.2659008318089</v>
       </c>
       <c r="G6">
-        <v>127.776994543393</v>
+        <v>114.34315965232</v>
       </c>
       <c r="H6">
-        <v>55.9659610185508</v>
+        <v>58.1994822802308</v>
       </c>
       <c r="I6">
-        <v>51.4656634627529</v>
+        <v>41.3754592525752</v>
       </c>
       <c r="J6">
-        <v>200.088540781365</v>
+        <v>180.914359085341</v>
       </c>
       <c r="K6">
-        <v>49.6422420051327</v>
+        <v>63.3813747142853</v>
       </c>
       <c r="L6">
-        <v>461.976583051275</v>
+        <v>451.076987812514</v>
       </c>
       <c r="M6">
-        <v>279.165891714624</v>
+        <v>270.946592439773</v>
       </c>
       <c r="N6">
-        <v>269.768876730147</v>
+        <v>287.982645367501</v>
       </c>
       <c r="O6">
-        <v>12682.3003026557</v>
+        <v>12830.1042034897</v>
       </c>
       <c r="P6">
-        <v>290.643885526604</v>
+        <v>285.011009314913</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>775.990202315764</v>
+        <v>784.429222497558</v>
       </c>
       <c r="C7">
-        <v>38.0224804143684</v>
+        <v>37.1482895366751</v>
       </c>
       <c r="D7">
-        <v>3.65295399517482</v>
+        <v>3.36013389576059</v>
       </c>
       <c r="E7">
-        <v>22.2269328599041</v>
+        <v>20.0357331333612</v>
       </c>
       <c r="F7">
-        <v>11.7453177367175</v>
+        <v>12.7214286220083</v>
       </c>
       <c r="G7">
-        <v>6.69529485339451</v>
+        <v>6.79448606216689</v>
       </c>
       <c r="H7">
-        <v>2.88219347229749</v>
+        <v>3.06314374479226</v>
       </c>
       <c r="I7">
-        <v>9.39791499943548</v>
+        <v>9.086675896260751</v>
       </c>
       <c r="J7">
-        <v>16.1494106990146</v>
+        <v>15.82624320786</v>
       </c>
       <c r="K7">
-        <v>2.60333293247712</v>
+        <v>6.40321575534297</v>
       </c>
       <c r="L7">
-        <v>56.7500634241783</v>
+        <v>55.7320465183788</v>
       </c>
       <c r="M7">
-        <v>15.5140009520638</v>
+        <v>16.8207423969019</v>
       </c>
       <c r="N7">
-        <v>27.1796409509226</v>
+        <v>26.2266641821947</v>
       </c>
       <c r="O7">
-        <v>1906.65151273594</v>
+        <v>1924.9655518495</v>
       </c>
       <c r="P7">
-        <v>26.9840207590551</v>
+        <v>28.6786891713161</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>657.140078453633</v>
+        <v>654.418727868785</v>
       </c>
       <c r="C8">
-        <v>15.7644660164118</v>
+        <v>14.2434743514352</v>
       </c>
       <c r="D8">
-        <v>2.87401578313315</v>
+        <v>3.26135566029644</v>
       </c>
       <c r="E8">
-        <v>24.2709492212061</v>
+        <v>21.6673454576603</v>
       </c>
       <c r="F8">
-        <v>1.98209573135581</v>
+        <v>1.42055791111685</v>
       </c>
       <c r="G8">
-        <v>25.9236050454483</v>
+        <v>24.6861071434894</v>
       </c>
       <c r="H8">
-        <v>9.6874688142514</v>
+        <v>9.153681280081409</v>
       </c>
       <c r="I8">
-        <v>6.94869772970111</v>
+        <v>9.0362598349669</v>
       </c>
       <c r="J8">
-        <v>36.5982790769884</v>
+        <v>39.916164363793</v>
       </c>
       <c r="K8">
-        <v>11.8450760424603</v>
+        <v>12.9202756317705</v>
       </c>
       <c r="L8">
-        <v>51.2405713692233</v>
+        <v>44.9253374696035</v>
       </c>
       <c r="M8">
-        <v>51.0074019816499</v>
+        <v>49.9621866796872</v>
       </c>
       <c r="N8">
-        <v>24.4046127652626</v>
+        <v>26.992842061797</v>
       </c>
       <c r="O8">
-        <v>1415.93905357539</v>
+        <v>1422.19165905225</v>
       </c>
       <c r="P8">
-        <v>6.30416687194721</v>
+        <v>6.43969875620929</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>223.638975971885</v>
+        <v>210.53941626878</v>
       </c>
       <c r="C9">
-        <v>9.82299700363545</v>
+        <v>9.131605537992369</v>
       </c>
       <c r="D9">
-        <v>2.10561532560644</v>
+        <v>2.39421934565371</v>
       </c>
       <c r="E9">
-        <v>5.08386015583272</v>
+        <v>4.67474684576782</v>
       </c>
       <c r="F9">
-        <v>0.877733143314718</v>
+        <v>0.893148475574523</v>
       </c>
       <c r="G9">
-        <v>23.774688289214</v>
+        <v>23.3043013048295</v>
       </c>
       <c r="H9">
-        <v>4.10630487873423</v>
+        <v>3.64816428413555</v>
       </c>
       <c r="I9">
-        <v>1.18963540565909</v>
+        <v>1.2497322360922</v>
       </c>
       <c r="J9">
-        <v>6.54540456839734</v>
+        <v>4.99125856516797</v>
       </c>
       <c r="K9">
-        <v>0.765673119710825</v>
+        <v>1.44205271026394</v>
       </c>
       <c r="L9">
-        <v>3.53847575564726</v>
+        <v>3.20765054908279</v>
       </c>
       <c r="M9">
-        <v>8.30544472185823</v>
+        <v>7.86529356091683</v>
       </c>
       <c r="N9">
-        <v>4.78173467206543</v>
+        <v>4.70439211021131</v>
       </c>
       <c r="O9">
-        <v>408.782617372067</v>
+        <v>398.312215371346</v>
       </c>
       <c r="P9">
-        <v>6.68801023248615</v>
+        <v>6.25112817622402</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4144.56023228732</v>
+        <v>4167.00009438053</v>
       </c>
       <c r="C10">
-        <v>74.79417603272189</v>
+        <v>68.08991910610391</v>
       </c>
       <c r="D10">
-        <v>15.3758942140833</v>
+        <v>16.0315177270272</v>
       </c>
       <c r="E10">
-        <v>56.5377296379164</v>
+        <v>52.9419229572444</v>
       </c>
       <c r="F10">
-        <v>9.38384286071237</v>
+        <v>10.0972113498691</v>
       </c>
       <c r="G10">
-        <v>45.0375480748589</v>
+        <v>40.2688632725233</v>
       </c>
       <c r="H10">
-        <v>14.3887036238883</v>
+        <v>16.4667064458445</v>
       </c>
       <c r="I10">
-        <v>37.8577537897989</v>
+        <v>34.4208203507175</v>
       </c>
       <c r="J10">
-        <v>60.3631568714227</v>
+        <v>59.7642432835721</v>
       </c>
       <c r="K10">
-        <v>11.1165176475301</v>
+        <v>16.4397856381093</v>
       </c>
       <c r="L10">
-        <v>76.66039723164511</v>
+        <v>74.6048475662511</v>
       </c>
       <c r="M10">
-        <v>70.1453822863986</v>
+        <v>75.1665743948715</v>
       </c>
       <c r="N10">
-        <v>84.76246964130939</v>
+        <v>85.1422767444527</v>
       </c>
       <c r="O10">
-        <v>7371.24335675895</v>
+        <v>7392.40837177139</v>
       </c>
       <c r="P10">
-        <v>78.6695611724885</v>
+        <v>79.6315550745805</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1887.87735850805</v>
+        <v>1902.78944996605</v>
       </c>
       <c r="C11">
-        <v>66.7346024961379</v>
+        <v>67.5275816213974</v>
       </c>
       <c r="D11">
-        <v>167.231123138107</v>
+        <v>158.332854921797</v>
       </c>
       <c r="E11">
-        <v>76.663121367456</v>
+        <v>76.22375556802911</v>
       </c>
       <c r="F11">
-        <v>5.5470547579395</v>
+        <v>7.56573269342577</v>
       </c>
       <c r="G11">
-        <v>28.2945050551265</v>
+        <v>26.0129456974236</v>
       </c>
       <c r="H11">
-        <v>19.0641334305163</v>
+        <v>19.6119160284898</v>
       </c>
       <c r="I11">
-        <v>11.0616062296532</v>
+        <v>11.9206959226089</v>
       </c>
       <c r="J11">
-        <v>45.2363382930228</v>
+        <v>41.5266716035472</v>
       </c>
       <c r="K11">
-        <v>9.937092970795341</v>
+        <v>12.3238402295156</v>
       </c>
       <c r="L11">
-        <v>50.7097966155111</v>
+        <v>52.7196128517002</v>
       </c>
       <c r="M11">
-        <v>37.6363618747</v>
+        <v>44.8247245374954</v>
       </c>
       <c r="N11">
-        <v>60.3143962904155</v>
+        <v>57.9229075727801</v>
       </c>
       <c r="O11">
-        <v>3189.62218447147</v>
+        <v>3225.40043245877</v>
       </c>
       <c r="P11">
-        <v>53.9596285834183</v>
+        <v>54.3594264150237</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>303.718539124381</v>
+        <v>286.261777405418</v>
       </c>
       <c r="C12">
-        <v>6.58586727265444</v>
+        <v>6.5127603172507</v>
       </c>
       <c r="D12">
-        <v>0.274345833517817</v>
+        <v>0.440075992779619</v>
       </c>
       <c r="E12">
-        <v>4.41589365664933</v>
+        <v>3.25824276597794</v>
       </c>
       <c r="F12">
-        <v>1.01260833542425</v>
+        <v>0.891788393866442</v>
       </c>
       <c r="G12">
-        <v>0.760742878107907</v>
+        <v>0.528218794284763</v>
       </c>
       <c r="H12">
-        <v>0.336787192922824</v>
+        <v>0.207279197325579</v>
       </c>
       <c r="I12">
-        <v>1.18164350575885</v>
+        <v>1.0665582403445</v>
       </c>
       <c r="J12">
-        <v>2.11628157903805</v>
+        <v>1.95760776180925</v>
       </c>
       <c r="K12">
-        <v>0.00723567298555549</v>
+        <v>0.0100682302590394</v>
       </c>
       <c r="L12">
-        <v>0.470120827043743</v>
+        <v>0.458238236169337</v>
       </c>
       <c r="M12">
-        <v>3.72646814155811</v>
+        <v>3.37183804079247</v>
       </c>
       <c r="N12">
-        <v>3.17264465370582</v>
+        <v>2.96342294235713</v>
       </c>
       <c r="O12">
-        <v>635.031381212458</v>
+        <v>622.225135670833</v>
       </c>
       <c r="P12">
-        <v>22.9925351323183</v>
+        <v>23.069725665622</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>269.830747070588</v>
+        <v>264.65617167603</v>
       </c>
       <c r="C13">
-        <v>18.9277116409788</v>
+        <v>17.705615427597</v>
       </c>
       <c r="D13">
-        <v>0.714937376476527</v>
+        <v>0.446054000123433</v>
       </c>
       <c r="E13">
-        <v>12.4160290370849</v>
+        <v>13.0336172039856</v>
       </c>
       <c r="F13">
-        <v>2.96371837326858</v>
+        <v>3.20920524893964</v>
       </c>
       <c r="G13">
-        <v>5.44028552674041</v>
+        <v>5.28192830915671</v>
       </c>
       <c r="H13">
-        <v>3.01501141776745</v>
+        <v>2.39508524291164</v>
       </c>
       <c r="I13">
-        <v>2.17571302864703</v>
+        <v>2.02362452218135</v>
       </c>
       <c r="J13">
-        <v>5.78074028958465</v>
+        <v>6.08343622455203</v>
       </c>
       <c r="K13">
-        <v>4.17391840241382</v>
+        <v>4.56922830664179</v>
       </c>
       <c r="L13">
-        <v>15.7491406465114</v>
+        <v>16.8289109371098</v>
       </c>
       <c r="M13">
-        <v>1.29763778966853</v>
+        <v>1.31708119338174</v>
       </c>
       <c r="N13">
-        <v>5.04306156091658</v>
+        <v>5.37919475780438</v>
       </c>
       <c r="O13">
-        <v>583.666731791712</v>
+        <v>578.341948986573</v>
       </c>
       <c r="P13">
-        <v>50.9338406549032</v>
+        <v>52.8356136950188</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2572.72944129095</v>
+        <v>2564.0149464079</v>
       </c>
       <c r="C14">
-        <v>108.798616839555</v>
+        <v>115.390583689274</v>
       </c>
       <c r="D14">
-        <v>10.1560157124819</v>
+        <v>11.5496633816566</v>
       </c>
       <c r="E14">
-        <v>96.164882499</v>
+        <v>88.03127283197701</v>
       </c>
       <c r="F14">
-        <v>19.2139638740433</v>
+        <v>18.6599105424641</v>
       </c>
       <c r="G14">
-        <v>76.14436360601511</v>
+        <v>82.6940740164375</v>
       </c>
       <c r="H14">
-        <v>38.2336585295613</v>
+        <v>38.781590748107</v>
       </c>
       <c r="I14">
-        <v>20.1732848145889</v>
+        <v>22.8216382836445</v>
       </c>
       <c r="J14">
-        <v>140.682167835046</v>
+        <v>136.231755433073</v>
       </c>
       <c r="K14">
-        <v>111.845333399463</v>
+        <v>114.003722160655</v>
       </c>
       <c r="L14">
-        <v>111.910188596596</v>
+        <v>112.375507970065</v>
       </c>
       <c r="M14">
-        <v>73.56671679263781</v>
+        <v>76.3491892437379</v>
       </c>
       <c r="N14">
-        <v>91.0179608833981</v>
+        <v>88.0359660975126</v>
       </c>
       <c r="O14">
-        <v>4907.96275193883</v>
+        <v>4922.9790399383</v>
       </c>
       <c r="P14">
-        <v>54.9611936877012</v>
+        <v>56.4454853609979</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1281.30934796754</v>
+        <v>1282.17435327278</v>
       </c>
       <c r="C15">
-        <v>44.8760424785561</v>
+        <v>47.8222298004088</v>
       </c>
       <c r="D15">
-        <v>9.190829570928919</v>
+        <v>10.751615960603</v>
       </c>
       <c r="E15">
-        <v>87.9586167401451</v>
+        <v>75.7621757420217</v>
       </c>
       <c r="F15">
-        <v>24.185187263195</v>
+        <v>21.6225820956653</v>
       </c>
       <c r="G15">
-        <v>51.7908711794038</v>
+        <v>50.5033556229751</v>
       </c>
       <c r="H15">
-        <v>38.3744839057919</v>
+        <v>43.4851369545336</v>
       </c>
       <c r="I15">
-        <v>24.3918609932854</v>
+        <v>24.860616845801</v>
       </c>
       <c r="J15">
-        <v>167.574582148969</v>
+        <v>160.69400110341</v>
       </c>
       <c r="K15">
-        <v>19.2563632402057</v>
+        <v>31.0998179110313</v>
       </c>
       <c r="L15">
-        <v>38.8898868371024</v>
+        <v>39.3740382378609</v>
       </c>
       <c r="M15">
-        <v>177.076690997698</v>
+        <v>173.214773580735</v>
       </c>
       <c r="N15">
-        <v>84.5799315153384</v>
+        <v>85.2555757714487</v>
       </c>
       <c r="O15">
-        <v>2173.9197441995</v>
+        <v>2178.25744999283</v>
       </c>
       <c r="P15">
-        <v>44.0709093190016</v>
+        <v>43.8545429373522</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>516.108206886197</v>
+        <v>501.834217745174</v>
       </c>
       <c r="C16">
-        <v>64.4918458304869</v>
+        <v>64.4123556396913</v>
       </c>
       <c r="D16">
-        <v>5.97037205713487</v>
+        <v>5.62633214831334</v>
       </c>
       <c r="E16">
-        <v>28.9955728406756</v>
+        <v>26.990098654971</v>
       </c>
       <c r="F16">
-        <v>2.47810935466975</v>
+        <v>2.94886951041148</v>
       </c>
       <c r="G16">
-        <v>22.9616009546522</v>
+        <v>21.4235225508023</v>
       </c>
       <c r="H16">
-        <v>15.797222700376</v>
+        <v>15.0147774979245</v>
       </c>
       <c r="I16">
-        <v>8.8001683712102</v>
+        <v>8.073359764052</v>
       </c>
       <c r="J16">
-        <v>54.0977380063466</v>
+        <v>49.7972627564424</v>
       </c>
       <c r="K16">
-        <v>38.8734119765185</v>
+        <v>41.6138192635713</v>
       </c>
       <c r="L16">
-        <v>25.1601723170233</v>
+        <v>24.9134061826569</v>
       </c>
       <c r="M16">
-        <v>25.3967746987448</v>
+        <v>25.0714696482575</v>
       </c>
       <c r="N16">
-        <v>29.2555080271781</v>
+        <v>28.7950582135389</v>
       </c>
       <c r="O16">
-        <v>1226.81465572452</v>
+        <v>1224.61225798962</v>
       </c>
       <c r="P16">
-        <v>81.7297222520328</v>
+        <v>84.37658474877119</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>526.24274376484</v>
+        <v>518.417936784753</v>
       </c>
       <c r="C17">
-        <v>19.1762428939536</v>
+        <v>20.4408564634627</v>
       </c>
       <c r="D17">
-        <v>4.23469080465951</v>
+        <v>3.68264876121763</v>
       </c>
       <c r="E17">
-        <v>30.6815388367408</v>
+        <v>24.9080735523445</v>
       </c>
       <c r="F17">
-        <v>11.4342319296298</v>
+        <v>11.2204565041116</v>
       </c>
       <c r="G17">
-        <v>6.54893898880603</v>
+        <v>7.14984149373559</v>
       </c>
       <c r="H17">
-        <v>7.61349263202584</v>
+        <v>8.900688823747069</v>
       </c>
       <c r="I17">
-        <v>9.73070176793987</v>
+        <v>9.308522690961411</v>
       </c>
       <c r="J17">
-        <v>19.8831139526662</v>
+        <v>19.1702474613883</v>
       </c>
       <c r="K17">
-        <v>8.53044768416825</v>
+        <v>9.56724648030338</v>
       </c>
       <c r="L17">
-        <v>12.6411682059324</v>
+        <v>10.6318464451945</v>
       </c>
       <c r="M17">
-        <v>62.0441714526018</v>
+        <v>61.3961576942281</v>
       </c>
       <c r="N17">
-        <v>15.462541940269</v>
+        <v>14.0726973629081</v>
       </c>
       <c r="O17">
-        <v>1123.05087970511</v>
+        <v>1119.84283650095</v>
       </c>
       <c r="P17">
-        <v>53.489392358943</v>
+        <v>52.6832655178348</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1175.84549508234</v>
+        <v>1159.66124057695</v>
       </c>
       <c r="C18">
-        <v>35.6733557423783</v>
+        <v>34.2001557614716</v>
       </c>
       <c r="D18">
-        <v>2.66079189075369</v>
+        <v>4.70631381916334</v>
       </c>
       <c r="E18">
-        <v>34.543765334295</v>
+        <v>32.2859335251622</v>
       </c>
       <c r="F18">
-        <v>30.7444879595937</v>
+        <v>32.2198584673051</v>
       </c>
       <c r="G18">
-        <v>21.4940874350593</v>
+        <v>20.6700239764013</v>
       </c>
       <c r="H18">
-        <v>19.5838325970211</v>
+        <v>16.8017580204937</v>
       </c>
       <c r="I18">
-        <v>2.39472187402153</v>
+        <v>2.99889678632677</v>
       </c>
       <c r="J18">
-        <v>42.4550686542774</v>
+        <v>36.5159856366022</v>
       </c>
       <c r="K18">
-        <v>7.57811261011029</v>
+        <v>11.6991851629011</v>
       </c>
       <c r="L18">
-        <v>36.4820535742329</v>
+        <v>34.9559128629373</v>
       </c>
       <c r="M18">
-        <v>65.1795344573853</v>
+        <v>67.5805636099639</v>
       </c>
       <c r="N18">
-        <v>23.7617602598596</v>
+        <v>22.7185076654831</v>
       </c>
       <c r="O18">
-        <v>1501.74075271233</v>
+        <v>1497.5817644661</v>
       </c>
       <c r="P18">
-        <v>56.9242394574767</v>
+        <v>60.4484797433479</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1195.0311325105</v>
+        <v>1153.08656414002</v>
       </c>
       <c r="C19">
-        <v>32.6476144960471</v>
+        <v>31.1430754348678</v>
       </c>
       <c r="D19">
-        <v>4.69907862078535</v>
+        <v>8.507638335306661</v>
       </c>
       <c r="E19">
-        <v>49.4628198596999</v>
+        <v>43.0713846015151</v>
       </c>
       <c r="F19">
-        <v>86.60853762615651</v>
+        <v>85.0931050255695</v>
       </c>
       <c r="G19">
-        <v>49.0950237773356</v>
+        <v>43.660037737705</v>
       </c>
       <c r="H19">
-        <v>8.965517044689349</v>
+        <v>9.723060151505109</v>
       </c>
       <c r="I19">
-        <v>2.62176935668323</v>
+        <v>3.4323893909704</v>
       </c>
       <c r="J19">
-        <v>17.457140936388</v>
+        <v>16.6552543664249</v>
       </c>
       <c r="K19">
-        <v>6.85230401851989</v>
+        <v>9.469939809355569</v>
       </c>
       <c r="L19">
-        <v>2.4467253919188</v>
+        <v>2.77239667917747</v>
       </c>
       <c r="M19">
-        <v>35.5872588615834</v>
+        <v>32.0142322559624</v>
       </c>
       <c r="N19">
-        <v>10.3813883593376</v>
+        <v>12.6526906902759</v>
       </c>
       <c r="O19">
-        <v>1575.44659462365</v>
+        <v>1568.13572400542</v>
       </c>
       <c r="P19">
-        <v>45.122155883074</v>
+        <v>42.9496932155751</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>294.618565185912</v>
+        <v>289.509311609232</v>
       </c>
       <c r="C20">
-        <v>11.1400678900644</v>
+        <v>9.824896193753061</v>
       </c>
       <c r="D20">
-        <v>6.99777073207589</v>
+        <v>7.0564277341315</v>
       </c>
       <c r="E20">
-        <v>35.9899264513515</v>
+        <v>34.6988457324811</v>
       </c>
       <c r="F20">
-        <v>1.55500780755947</v>
+        <v>1.24189269920589</v>
       </c>
       <c r="G20">
-        <v>2.28307072894755</v>
+        <v>2.90107251156572</v>
       </c>
       <c r="H20">
-        <v>0.968121627556727</v>
+        <v>0.876278293618619</v>
       </c>
       <c r="I20">
-        <v>1.5566366293564</v>
+        <v>1.9186987341367</v>
       </c>
       <c r="J20">
-        <v>5.21675327662758</v>
+        <v>4.97691892570197</v>
       </c>
       <c r="K20">
-        <v>1.13736289063188</v>
+        <v>1.57224468680017</v>
       </c>
       <c r="L20">
-        <v>7.55267442224202</v>
+        <v>7.23903621537659</v>
       </c>
       <c r="M20">
-        <v>19.5696987735097</v>
+        <v>18.9707707901199</v>
       </c>
       <c r="N20">
-        <v>7.00747231952431</v>
+        <v>6.76310905927641</v>
       </c>
       <c r="O20">
-        <v>571.5065076174971</v>
+        <v>566.091946901239</v>
       </c>
       <c r="P20">
-        <v>23.9667370878956</v>
+        <v>22.9554140510612</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1088.49980308752</v>
+        <v>1073.61023374063</v>
       </c>
       <c r="C21">
-        <v>24.7951355632139</v>
+        <v>21.8385386210387</v>
       </c>
       <c r="D21">
-        <v>1.96705814728538</v>
+        <v>2.2770137704067</v>
       </c>
       <c r="E21">
-        <v>23.663828478294</v>
+        <v>21.0599838285049</v>
       </c>
       <c r="F21">
-        <v>3.89176596858259</v>
+        <v>3.36269252654124</v>
       </c>
       <c r="G21">
-        <v>15.1006139298058</v>
+        <v>16.0570616092063</v>
       </c>
       <c r="H21">
-        <v>7.39188744632213</v>
+        <v>6.38008355606423</v>
       </c>
       <c r="I21">
-        <v>18.5056313512457</v>
+        <v>15.8790540448704</v>
       </c>
       <c r="J21">
-        <v>19.2911907317691</v>
+        <v>18.645878020592</v>
       </c>
       <c r="K21">
-        <v>1.02868804722981</v>
+        <v>1.85659986514524</v>
       </c>
       <c r="L21">
-        <v>30.6096766416829</v>
+        <v>26.4047073771673</v>
       </c>
       <c r="M21">
-        <v>20.9333564016405</v>
+        <v>20.0385133156489</v>
       </c>
       <c r="N21">
-        <v>16.908880109156</v>
+        <v>18.0705053324645</v>
       </c>
       <c r="O21">
-        <v>2351.19832882614</v>
+        <v>2366.90673276428</v>
       </c>
       <c r="P21">
-        <v>22.2453084571121</v>
+        <v>20.6525521461108</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1216.45481429034</v>
+        <v>1233.86813875293</v>
       </c>
       <c r="C22">
-        <v>18.6350104853291</v>
+        <v>19.3629897456045</v>
       </c>
       <c r="D22">
-        <v>17.3121193595664</v>
+        <v>17.1340927973038</v>
       </c>
       <c r="E22">
-        <v>51.7627420522606</v>
+        <v>44.8083735280164</v>
       </c>
       <c r="F22">
-        <v>4.06369779515816</v>
+        <v>3.31401169515653</v>
       </c>
       <c r="G22">
-        <v>34.9950484385401</v>
+        <v>31.4487200090893</v>
       </c>
       <c r="H22">
-        <v>13.8314621959026</v>
+        <v>14.3635405748313</v>
       </c>
       <c r="I22">
-        <v>13.3745394971477</v>
+        <v>10.8105874992102</v>
       </c>
       <c r="J22">
-        <v>38.5575492621753</v>
+        <v>39.5122125367936</v>
       </c>
       <c r="K22">
-        <v>6.61635540307469</v>
+        <v>12.8977797868968</v>
       </c>
       <c r="L22">
-        <v>122.950787119334</v>
+        <v>116.676872350219</v>
       </c>
       <c r="M22">
-        <v>15.9757904847292</v>
+        <v>15.4252269361549</v>
       </c>
       <c r="N22">
-        <v>69.38002200209181</v>
+        <v>69.4254227003142</v>
       </c>
       <c r="O22">
-        <v>2654.27907405353</v>
+        <v>2672.33082359266</v>
       </c>
       <c r="P22">
-        <v>11.2809322487889</v>
+        <v>11.566275597356</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2398.78637348511</v>
+        <v>2374.11422885791</v>
       </c>
       <c r="C23">
-        <v>31.5797377029213</v>
+        <v>33.1778026577672</v>
       </c>
       <c r="D23">
-        <v>7.44173972618837</v>
+        <v>7.83405030536291</v>
       </c>
       <c r="E23">
-        <v>50.0180509998014</v>
+        <v>46.5028440184852</v>
       </c>
       <c r="F23">
-        <v>4.58777260187281</v>
+        <v>5.53503805791079</v>
       </c>
       <c r="G23">
-        <v>60.4486265278195</v>
+        <v>57.851590996622</v>
       </c>
       <c r="H23">
-        <v>48.280135262848</v>
+        <v>53.8079371555491</v>
       </c>
       <c r="I23">
-        <v>12.2030274142258</v>
+        <v>15.0958495419346</v>
       </c>
       <c r="J23">
-        <v>128.0776335789</v>
+        <v>120.753054880726</v>
       </c>
       <c r="K23">
-        <v>55.7778094956059</v>
+        <v>71.5047655830203</v>
       </c>
       <c r="L23">
-        <v>33.5861189698448</v>
+        <v>34.6830581406216</v>
       </c>
       <c r="M23">
-        <v>552.091730580516</v>
+        <v>544.295070587494</v>
       </c>
       <c r="N23">
-        <v>89.0204645013124</v>
+        <v>87.1198008190427</v>
       </c>
       <c r="O23">
-        <v>3413.47438314282</v>
+        <v>3408.87605723276</v>
       </c>
       <c r="P23">
-        <v>47.1311050035679</v>
+        <v>50.7588945784091</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>812.1496224913281</v>
+        <v>812.57581608287</v>
       </c>
       <c r="C24">
-        <v>51.1489087602786</v>
+        <v>48.6587179752727</v>
       </c>
       <c r="D24">
-        <v>4.52688758896963</v>
+        <v>5.99024189407156</v>
       </c>
       <c r="E24">
-        <v>57.2235259846271</v>
+        <v>55.6766668289689</v>
       </c>
       <c r="F24">
-        <v>13.1055919557967</v>
+        <v>12.4301440780095</v>
       </c>
       <c r="G24">
-        <v>26.9820797237093</v>
+        <v>25.8781485118207</v>
       </c>
       <c r="H24">
-        <v>14.7075409723661</v>
+        <v>15.8282826472578</v>
       </c>
       <c r="I24">
-        <v>16.6344929588352</v>
+        <v>17.7530620256816</v>
       </c>
       <c r="J24">
-        <v>64.5940420880624</v>
+        <v>56.2894643847444</v>
       </c>
       <c r="K24">
-        <v>20.178472759904</v>
+        <v>28.7032819048955</v>
       </c>
       <c r="L24">
-        <v>70.6435036111176</v>
+        <v>65.408473724888</v>
       </c>
       <c r="M24">
-        <v>31.5790953971998</v>
+        <v>29.4682695231077</v>
       </c>
       <c r="N24">
-        <v>72.3590475122267</v>
+        <v>74.747743389351</v>
       </c>
       <c r="O24">
-        <v>2015.8316608012</v>
+        <v>2027.55158554069</v>
       </c>
       <c r="P24">
-        <v>103.590137261785</v>
+        <v>99.285089329768</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>816.273592697783</v>
+        <v>803.444695476003</v>
       </c>
       <c r="C25">
-        <v>45.579102610881</v>
+        <v>44.2200736309317</v>
       </c>
       <c r="D25">
-        <v>10.7386662408121</v>
+        <v>12.4344320681497</v>
       </c>
       <c r="E25">
-        <v>45.5805843780407</v>
+        <v>43.7409571845497</v>
       </c>
       <c r="F25">
-        <v>14.9131612602926</v>
+        <v>15.5732212280056</v>
       </c>
       <c r="G25">
-        <v>14.3447890645485</v>
+        <v>12.0496521950127</v>
       </c>
       <c r="H25">
-        <v>7.94390382547879</v>
+        <v>8.530780464481589</v>
       </c>
       <c r="I25">
-        <v>4.95286017848312</v>
+        <v>5.65143721228364</v>
       </c>
       <c r="J25">
-        <v>13.7565446129067</v>
+        <v>11.898860193162</v>
       </c>
       <c r="K25">
-        <v>5.96167499058184</v>
+        <v>9.69921947873706</v>
       </c>
       <c r="L25">
-        <v>14.8110758816777</v>
+        <v>13.4326073291836</v>
       </c>
       <c r="M25">
-        <v>43.22809593684</v>
+        <v>37.6953615312976</v>
       </c>
       <c r="N25">
-        <v>35.5477160202157</v>
+        <v>38.5100304458708</v>
       </c>
       <c r="O25">
-        <v>989.241123231572</v>
+        <v>962.791844388281</v>
       </c>
       <c r="P25">
-        <v>41.8993678659986</v>
+        <v>42.5395224259111</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1145.33106078808</v>
+        <v>1145.59654371112</v>
       </c>
       <c r="C26">
-        <v>58.1160151176069</v>
+        <v>59.7713413655311</v>
       </c>
       <c r="D26">
-        <v>5.3437266148952</v>
+        <v>6.39568320032822</v>
       </c>
       <c r="E26">
-        <v>51.0486271597338</v>
+        <v>47.3340120127678</v>
       </c>
       <c r="F26">
-        <v>8.42090339519442</v>
+        <v>9.345487320366519</v>
       </c>
       <c r="G26">
-        <v>36.8212096274306</v>
+        <v>36.6818014053653</v>
       </c>
       <c r="H26">
-        <v>12.0358474064953</v>
+        <v>12.9420811132883</v>
       </c>
       <c r="I26">
-        <v>15.0319985244111</v>
+        <v>15.1208223374907</v>
       </c>
       <c r="J26">
-        <v>26.2057967162057</v>
+        <v>40.7708485001687</v>
       </c>
       <c r="K26">
-        <v>8.46275882425326</v>
+        <v>13.3591524809302</v>
       </c>
       <c r="L26">
-        <v>24.013027482515</v>
+        <v>26.3371885405738</v>
       </c>
       <c r="M26">
-        <v>86.4533881748653</v>
+        <v>76.230300971888</v>
       </c>
       <c r="N26">
-        <v>19.3435143064234</v>
+        <v>24.752959802315</v>
       </c>
       <c r="O26">
-        <v>2299.49671468572</v>
+        <v>2299.56688477285</v>
       </c>
       <c r="P26">
-        <v>65.0633615384438</v>
+        <v>64.6860240510476</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>231.571958473686</v>
+        <v>223.135855358089</v>
       </c>
       <c r="C27">
-        <v>2.23144072238377</v>
+        <v>2.31950323532928</v>
       </c>
       <c r="D27">
-        <v>2.48168854546866</v>
+        <v>1.84811043893599</v>
       </c>
       <c r="E27">
-        <v>13.5146329832075</v>
+        <v>12.4656302338534</v>
       </c>
       <c r="F27">
-        <v>6.63017640323828</v>
+        <v>6.3331533337767</v>
       </c>
       <c r="G27">
-        <v>0.709314757820865</v>
+        <v>0.728186976195408</v>
       </c>
       <c r="H27">
-        <v>0.302250724304708</v>
+        <v>0.270258016425583</v>
       </c>
       <c r="I27">
-        <v>2.49199674391323</v>
+        <v>2.87792925100176</v>
       </c>
       <c r="J27">
-        <v>3.42797681562329</v>
+        <v>3.33107407331438</v>
       </c>
       <c r="K27">
-        <v>0.8542845710385</v>
+        <v>1.40561586616303</v>
       </c>
       <c r="L27">
-        <v>2.91222377383292</v>
+        <v>2.34196363981651</v>
       </c>
       <c r="M27">
-        <v>0.902996382678948</v>
+        <v>0.772295745778</v>
       </c>
       <c r="N27">
-        <v>3.71281869304363</v>
+        <v>3.78447238785566</v>
       </c>
       <c r="O27">
-        <v>434.071668796772</v>
+        <v>419.742991764845</v>
       </c>
       <c r="P27">
-        <v>54.0151848745922</v>
+        <v>50.8175883123471</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>282.026388196817</v>
+        <v>275.876720152346</v>
       </c>
       <c r="C28">
-        <v>37.2001074075462</v>
+        <v>37.2678172692092</v>
       </c>
       <c r="D28">
-        <v>2.57409666919439</v>
+        <v>3.58187867180296</v>
       </c>
       <c r="E28">
-        <v>8.666552742565941</v>
+        <v>8.260435909058261</v>
       </c>
       <c r="F28">
-        <v>1.99186366862931</v>
+        <v>1.84008009127866</v>
       </c>
       <c r="G28">
-        <v>4.81186954316774</v>
+        <v>4.7399721095168</v>
       </c>
       <c r="H28">
-        <v>8.292463077958571</v>
+        <v>7.99538780788264</v>
       </c>
       <c r="I28">
-        <v>2.57331384567123</v>
+        <v>2.74223879359387</v>
       </c>
       <c r="J28">
-        <v>21.5057850378937</v>
+        <v>19.9141525070996</v>
       </c>
       <c r="K28">
-        <v>10.7566606579773</v>
+        <v>10.9832599915247</v>
       </c>
       <c r="L28">
-        <v>12.339592523339</v>
+        <v>13.1292173832806</v>
       </c>
       <c r="M28">
-        <v>10.973924457897</v>
+        <v>10.2399192240269</v>
       </c>
       <c r="N28">
-        <v>9.579993122132979</v>
+        <v>10.7584550461359</v>
       </c>
       <c r="O28">
-        <v>772.851263538476</v>
+        <v>759.894624543993</v>
       </c>
       <c r="P28">
-        <v>79.38294089008799</v>
+        <v>79.496252454746</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>458.890654372127</v>
+        <v>460.560956833793</v>
       </c>
       <c r="C29">
-        <v>4.637984378959</v>
+        <v>3.93703148976509</v>
       </c>
       <c r="D29">
-        <v>1.88518853398367</v>
+        <v>2.79728991518426</v>
       </c>
       <c r="E29">
-        <v>5.74362372414379</v>
+        <v>4.86630366571592</v>
       </c>
       <c r="F29">
-        <v>26.1838945430865</v>
+        <v>24.8664743460992</v>
       </c>
       <c r="G29">
-        <v>6.1339416424335</v>
+        <v>4.56212818713332</v>
       </c>
       <c r="H29">
-        <v>2.25127359042049</v>
+        <v>1.98382333347104</v>
       </c>
       <c r="I29">
-        <v>1.60253159596998</v>
+        <v>1.72124365993589</v>
       </c>
       <c r="J29">
-        <v>5.61733014051529</v>
+        <v>5.33049242607133</v>
       </c>
       <c r="K29">
-        <v>0.8289485209258261</v>
+        <v>1.34751612457273</v>
       </c>
       <c r="L29">
-        <v>4.33183758864006</v>
+        <v>3.8110517462431</v>
       </c>
       <c r="M29">
-        <v>2.86203314649876</v>
+        <v>3.31037247618064</v>
       </c>
       <c r="N29">
-        <v>12.4376580437618</v>
+        <v>12.6602612954933</v>
       </c>
       <c r="O29">
-        <v>1052.63216296015</v>
+        <v>1053.55420881498</v>
       </c>
       <c r="P29">
-        <v>5.231951860549</v>
+        <v>5.44610167731908</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>242.511457599557</v>
+        <v>230.449260496751</v>
       </c>
       <c r="C30">
-        <v>3.32851229653769</v>
+        <v>3.61950629044541</v>
       </c>
       <c r="D30">
-        <v>5.08743477078526</v>
+        <v>5.30831996679042</v>
       </c>
       <c r="E30">
-        <v>16.0219480744082</v>
+        <v>14.7548096453691</v>
       </c>
       <c r="F30">
-        <v>0.198420704147467</v>
+        <v>0.618655729590044</v>
       </c>
       <c r="G30">
-        <v>4.97979699772671</v>
+        <v>4.87807295448831</v>
       </c>
       <c r="H30">
-        <v>5.72445511151149</v>
+        <v>5.07839282863881</v>
       </c>
       <c r="I30">
-        <v>2.22867240474295</v>
+        <v>2.69331696023364</v>
       </c>
       <c r="J30">
-        <v>17.8139269215899</v>
+        <v>17.2933450518718</v>
       </c>
       <c r="K30">
-        <v>5.08729731994623</v>
+        <v>6.73264318148422</v>
       </c>
       <c r="L30">
-        <v>46.2070362030942</v>
+        <v>43.2965981237663</v>
       </c>
       <c r="M30">
-        <v>10.9345636648252</v>
+        <v>10.2598342321737</v>
       </c>
       <c r="N30">
-        <v>13.0976943116527</v>
+        <v>13.77292399123</v>
       </c>
       <c r="O30">
-        <v>573.856770770831</v>
+        <v>568.606893943918</v>
       </c>
       <c r="P30">
-        <v>9.71671081151681</v>
+        <v>8.50688381725435</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1711.93028051077</v>
+        <v>1703.66580358821</v>
       </c>
       <c r="C31">
-        <v>65.7923484437152</v>
+        <v>56.6297243487151</v>
       </c>
       <c r="D31">
-        <v>12.2757909519401</v>
+        <v>20.4891993248645</v>
       </c>
       <c r="E31">
-        <v>50.687087270792</v>
+        <v>43.5375579580371</v>
       </c>
       <c r="F31">
-        <v>7.22530427572505</v>
+        <v>7.30689568773254</v>
       </c>
       <c r="G31">
-        <v>101.951616400106</v>
+        <v>102.972359300179</v>
       </c>
       <c r="H31">
-        <v>7.88637929171879</v>
+        <v>10.5870001616457</v>
       </c>
       <c r="I31">
-        <v>26.7578692907691</v>
+        <v>23.8029783713327</v>
       </c>
       <c r="J31">
-        <v>35.086575102074</v>
+        <v>35.2320912597689</v>
       </c>
       <c r="K31">
-        <v>7.22588428427844</v>
+        <v>9.13821199565297</v>
       </c>
       <c r="L31">
-        <v>69.9840436054626</v>
+        <v>65.79236630058421</v>
       </c>
       <c r="M31">
-        <v>21.7314874530026</v>
+        <v>18.9638069524676</v>
       </c>
       <c r="N31">
-        <v>53.677317283495</v>
+        <v>63.004603812578</v>
       </c>
       <c r="O31">
-        <v>3638.69473158902</v>
+        <v>3641.08948469129</v>
       </c>
       <c r="P31">
-        <v>14.3582446317031</v>
+        <v>13.3776466346346</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>469.664056669103</v>
+        <v>464.55149161743</v>
       </c>
       <c r="C32">
-        <v>3.55447513122455</v>
+        <v>3.9126923436343</v>
       </c>
       <c r="D32">
-        <v>0.344840953056244</v>
+        <v>0.543429801629617</v>
       </c>
       <c r="E32">
-        <v>3.7557523604048</v>
+        <v>3.14344802150476</v>
       </c>
       <c r="F32">
-        <v>24.0006300980723</v>
+        <v>23.6009241348606</v>
       </c>
       <c r="G32">
-        <v>1.67443791006825</v>
+        <v>1.79756956728798</v>
       </c>
       <c r="H32">
-        <v>1.38807254617556</v>
+        <v>1.31154749094162</v>
       </c>
       <c r="I32">
-        <v>0.933397777126541</v>
+        <v>2.83815340876887</v>
       </c>
       <c r="J32">
-        <v>3.866254701568</v>
+        <v>4.00132702944776</v>
       </c>
       <c r="K32">
-        <v>2.08740981453401</v>
+        <v>2.11753418648902</v>
       </c>
       <c r="L32">
-        <v>13.5310410054316</v>
+        <v>12.4117578445133</v>
       </c>
       <c r="M32">
-        <v>3.18121416128862</v>
+        <v>5.27277512834731</v>
       </c>
       <c r="N32">
-        <v>12.0136126491776</v>
+        <v>11.1946538564968</v>
       </c>
       <c r="O32">
-        <v>774.696834466718</v>
+        <v>764.507613767385</v>
       </c>
       <c r="P32">
-        <v>21.8387749176502</v>
+        <v>21.1572268026919</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4493.43452868486</v>
+        <v>4498.29671109124</v>
       </c>
       <c r="C33">
-        <v>91.66267733573901</v>
+        <v>88.89998997284771</v>
       </c>
       <c r="D33">
-        <v>35.8849992289301</v>
+        <v>43.1464455837429</v>
       </c>
       <c r="E33">
-        <v>88.5037737642031</v>
+        <v>79.3990326911356</v>
       </c>
       <c r="F33">
-        <v>8.5953476517643</v>
+        <v>8.814811373183931</v>
       </c>
       <c r="G33">
-        <v>77.106708499474</v>
+        <v>73.8162821321457</v>
       </c>
       <c r="H33">
-        <v>39.5639611657253</v>
+        <v>38.8720987607158</v>
       </c>
       <c r="I33">
-        <v>24.4325454347207</v>
+        <v>23.2766577263581</v>
       </c>
       <c r="J33">
-        <v>97.61046733888119</v>
+        <v>96.9855948573377</v>
       </c>
       <c r="K33">
-        <v>66.386859029761</v>
+        <v>70.6594756798997</v>
       </c>
       <c r="L33">
-        <v>115.342349731605</v>
+        <v>113.224323155118</v>
       </c>
       <c r="M33">
-        <v>66.6716710381121</v>
+        <v>61.6004218686582</v>
       </c>
       <c r="N33">
-        <v>144.577456874884</v>
+        <v>148.92110922494</v>
       </c>
       <c r="O33">
-        <v>7481.29753122301</v>
+        <v>7490.79782796199</v>
       </c>
       <c r="P33">
-        <v>60.7365495870958</v>
+        <v>62.622823689858</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1892.12290138847</v>
+        <v>1913.37948854049</v>
       </c>
       <c r="C34">
-        <v>73.1631863946166</v>
+        <v>69.3960485976198</v>
       </c>
       <c r="D34">
-        <v>125.661054199024</v>
+        <v>126.178284504172</v>
       </c>
       <c r="E34">
-        <v>47.0963566028876</v>
+        <v>49.8444880121543</v>
       </c>
       <c r="F34">
-        <v>2.53168414435193</v>
+        <v>3.31976953828787</v>
       </c>
       <c r="G34">
-        <v>44.709600008009</v>
+        <v>45.3709990117361</v>
       </c>
       <c r="H34">
-        <v>48.0674312421381</v>
+        <v>45.0151743925289</v>
       </c>
       <c r="I34">
-        <v>16.9402407988697</v>
+        <v>15.4111795418828</v>
       </c>
       <c r="J34">
-        <v>46.3988082954068</v>
+        <v>46.3483698956175</v>
       </c>
       <c r="K34">
-        <v>13.0066651303368</v>
+        <v>22.4889937822431</v>
       </c>
       <c r="L34">
-        <v>116.201875271038</v>
+        <v>109.741369585198</v>
       </c>
       <c r="M34">
-        <v>27.6282844375115</v>
+        <v>32.6577297361946</v>
       </c>
       <c r="N34">
-        <v>129.158769709708</v>
+        <v>124.951078427307</v>
       </c>
       <c r="O34">
-        <v>3059.32098960431</v>
+        <v>3076.01810686087</v>
       </c>
       <c r="P34">
-        <v>74.3598106993355</v>
+        <v>71.99708023272019</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>125.89494253828</v>
+        <v>119.99442216867</v>
       </c>
       <c r="C35">
-        <v>8.612672872384771</v>
+        <v>8.31247844765465</v>
       </c>
       <c r="D35">
-        <v>0.201696669155746</v>
+        <v>0.484434115451355</v>
       </c>
       <c r="E35">
-        <v>2.75477141200341</v>
+        <v>2.56762376838342</v>
       </c>
       <c r="F35">
-        <v>4.27058731850915</v>
+        <v>4.3333496688561</v>
       </c>
       <c r="G35">
-        <v>1.45041427872345</v>
+        <v>1.05812504233347</v>
       </c>
       <c r="H35">
-        <v>0.08458519217030761</v>
+        <v>0.551533210147668</v>
       </c>
       <c r="I35">
-        <v>1.29021950546892</v>
+        <v>1.31310616340973</v>
       </c>
       <c r="J35">
-        <v>3.53179049561375</v>
+        <v>3.34158510815708</v>
       </c>
       <c r="K35">
-        <v>6.20180610010504</v>
+        <v>5.78799394630157</v>
       </c>
       <c r="L35">
-        <v>3.03786673759027</v>
+        <v>3.01939468037809</v>
       </c>
       <c r="M35">
-        <v>2.02381758254021</v>
+        <v>1.98801896616507</v>
       </c>
       <c r="N35">
-        <v>4.6168071307733</v>
+        <v>4.18670603534579</v>
       </c>
       <c r="O35">
-        <v>310.281184130895</v>
+        <v>301.313094755457</v>
       </c>
       <c r="P35">
-        <v>49.5371743312588</v>
+        <v>48.694982952113</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2596.04906986208</v>
+        <v>2571.4306874896</v>
       </c>
       <c r="C36">
-        <v>51.9101213612129</v>
+        <v>57.2788408694724</v>
       </c>
       <c r="D36">
-        <v>15.2191702277271</v>
+        <v>13.8860533984046</v>
       </c>
       <c r="E36">
-        <v>145.663297568022</v>
+        <v>130.111581166538</v>
       </c>
       <c r="F36">
-        <v>28.8863674016996</v>
+        <v>29.5943590952757</v>
       </c>
       <c r="G36">
-        <v>87.70694385187601</v>
+        <v>91.18589151824401</v>
       </c>
       <c r="H36">
-        <v>76.09329567900269</v>
+        <v>76.741832911384</v>
       </c>
       <c r="I36">
-        <v>37.1270806325997</v>
+        <v>38.6769012963142</v>
       </c>
       <c r="J36">
-        <v>188.109408212257</v>
+        <v>194.952691403095</v>
       </c>
       <c r="K36">
-        <v>46.98241998149</v>
+        <v>68.7100434120046</v>
       </c>
       <c r="L36">
-        <v>67.4041057274351</v>
+        <v>69.07556182531221</v>
       </c>
       <c r="M36">
-        <v>210.916827425384</v>
+        <v>205.036920917653</v>
       </c>
       <c r="N36">
-        <v>100.290119039958</v>
+        <v>100.412212945063</v>
       </c>
       <c r="O36">
-        <v>4226.30372038957</v>
+        <v>4234.37250704571</v>
       </c>
       <c r="P36">
-        <v>39.6421805887774</v>
+        <v>45.6107138448487</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>802.935427227447</v>
+        <v>805.972422238266</v>
       </c>
       <c r="C37">
-        <v>20.7269352471914</v>
+        <v>20.0693388597575</v>
       </c>
       <c r="D37">
-        <v>4.20623579815859</v>
+        <v>3.38566618864625</v>
       </c>
       <c r="E37">
-        <v>19.6142031973554</v>
+        <v>18.5585751112988</v>
       </c>
       <c r="F37">
-        <v>29.8587716552827</v>
+        <v>29.6877035470196</v>
       </c>
       <c r="G37">
-        <v>6.25071809261278</v>
+        <v>7.9672149077265</v>
       </c>
       <c r="H37">
-        <v>22.5483801592931</v>
+        <v>25.0716266815253</v>
       </c>
       <c r="I37">
-        <v>6.76081234169569</v>
+        <v>10.7546800749792</v>
       </c>
       <c r="J37">
-        <v>40.8663119637985</v>
+        <v>35.4087012446251</v>
       </c>
       <c r="K37">
-        <v>13.4433346997691</v>
+        <v>22.0997899950702</v>
       </c>
       <c r="L37">
-        <v>19.955403797365</v>
+        <v>20.8067274995863</v>
       </c>
       <c r="M37">
-        <v>44.8661473001308</v>
+        <v>42.6313651304513</v>
       </c>
       <c r="N37">
-        <v>25.5523711518625</v>
+        <v>20.6578966331268</v>
       </c>
       <c r="O37">
-        <v>1267.40081476708</v>
+        <v>1269.79354511594</v>
       </c>
       <c r="P37">
-        <v>55.0028494896257</v>
+        <v>55.4489225252034</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>818.999185216553</v>
+        <v>812.954107972063</v>
       </c>
       <c r="C38">
-        <v>24.0974134433625</v>
+        <v>23.6786167096068</v>
       </c>
       <c r="D38">
-        <v>6.02450089892845</v>
+        <v>7.8963610058596</v>
       </c>
       <c r="E38">
-        <v>48.1008318778888</v>
+        <v>48.8464959098781</v>
       </c>
       <c r="F38">
-        <v>1.60664931824944</v>
+        <v>2.03485807919417</v>
       </c>
       <c r="G38">
-        <v>10.4213523337412</v>
+        <v>8.7995209512329</v>
       </c>
       <c r="H38">
-        <v>3.21403860483721</v>
+        <v>3.24272208044677</v>
       </c>
       <c r="I38">
-        <v>2.01798596753479</v>
+        <v>1.97031440121438</v>
       </c>
       <c r="J38">
-        <v>40.6008002703126</v>
+        <v>37.6628293690311</v>
       </c>
       <c r="K38">
-        <v>2.61524681870293</v>
+        <v>3.98633612459963</v>
       </c>
       <c r="L38">
-        <v>68.22308346764559</v>
+        <v>67.3076987221347</v>
       </c>
       <c r="M38">
-        <v>20.9275865696426</v>
+        <v>18.8789058216936</v>
       </c>
       <c r="N38">
-        <v>34.4718511781224</v>
+        <v>34.300617470772</v>
       </c>
       <c r="O38">
-        <v>1356.65047256938</v>
+        <v>1377.37696416903</v>
       </c>
       <c r="P38">
-        <v>64.3623101301108</v>
+        <v>65.397405100727</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2842.48478390985</v>
+        <v>2815.49765181735</v>
       </c>
       <c r="C39">
-        <v>95.3979108482047</v>
+        <v>94.592696762712</v>
       </c>
       <c r="D39">
-        <v>33.7738593165482</v>
+        <v>39.7115045035532</v>
       </c>
       <c r="E39">
-        <v>135.434954562903</v>
+        <v>127.424495857349</v>
       </c>
       <c r="F39">
-        <v>20.2253350977032</v>
+        <v>24.1407904847906</v>
       </c>
       <c r="G39">
-        <v>126.893470152796</v>
+        <v>122.392440126365</v>
       </c>
       <c r="H39">
-        <v>55.4969072862523</v>
+        <v>52.7582897646875</v>
       </c>
       <c r="I39">
-        <v>32.7706894770678</v>
+        <v>34.2956993197974</v>
       </c>
       <c r="J39">
-        <v>168.015795302712</v>
+        <v>168.584558859161</v>
       </c>
       <c r="K39">
-        <v>62.8389724056915</v>
+        <v>74.73156118857069</v>
       </c>
       <c r="L39">
-        <v>105.131379079239</v>
+        <v>103.754256862256</v>
       </c>
       <c r="M39">
-        <v>75.59669527092819</v>
+        <v>72.8733372796695</v>
       </c>
       <c r="N39">
-        <v>119.275099620158</v>
+        <v>119.483051882121</v>
       </c>
       <c r="O39">
-        <v>4742.60696972059</v>
+        <v>4767.61132243955</v>
       </c>
       <c r="P39">
-        <v>49.5709813393729</v>
+        <v>55.1097147687883</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>251.503366037656</v>
+        <v>241.716433096736</v>
       </c>
       <c r="C40">
-        <v>4.21531272622967</v>
+        <v>4.04289494688305</v>
       </c>
       <c r="D40">
-        <v>7.84099227772117</v>
+        <v>7.92867819915643</v>
       </c>
       <c r="E40">
-        <v>5.55272337974684</v>
+        <v>4.54796986775607</v>
       </c>
       <c r="F40">
-        <v>0.577045332513483</v>
+        <v>0.369129245133203</v>
       </c>
       <c r="G40">
-        <v>4.19142068987392</v>
+        <v>4.77145844693654</v>
       </c>
       <c r="H40">
-        <v>4.44074025551569</v>
+        <v>3.80765806300021</v>
       </c>
       <c r="I40">
-        <v>1.61532247664707</v>
+        <v>1.63649987273237</v>
       </c>
       <c r="J40">
-        <v>11.8549904176743</v>
+        <v>10.8687013118929</v>
       </c>
       <c r="K40">
-        <v>2.01846042395777</v>
+        <v>2.42077982950428</v>
       </c>
       <c r="L40">
-        <v>15.193617339308</v>
+        <v>13.6131061423136</v>
       </c>
       <c r="M40">
-        <v>4.90095064068258</v>
+        <v>4.66587866374961</v>
       </c>
       <c r="N40">
-        <v>22.5663002047069</v>
+        <v>23.1992780526189</v>
       </c>
       <c r="O40">
-        <v>498.745630974578</v>
+        <v>484.810196767084</v>
       </c>
       <c r="P40">
-        <v>3.41683667260735</v>
+        <v>3.15988952967752</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1001.53781893245</v>
+        <v>1008.4381596029</v>
       </c>
       <c r="C41">
-        <v>14.1579796086224</v>
+        <v>12.9104465667306</v>
       </c>
       <c r="D41">
-        <v>71.95300838894499</v>
+        <v>73.1505008357111</v>
       </c>
       <c r="E41">
-        <v>32.4926477722122</v>
+        <v>33.5393131521824</v>
       </c>
       <c r="F41">
-        <v>1.0514277025653</v>
+        <v>1.04700041851883</v>
       </c>
       <c r="G41">
-        <v>27.6930556110421</v>
+        <v>29.2582965171989</v>
       </c>
       <c r="H41">
-        <v>34.8100407129353</v>
+        <v>36.7037720506035</v>
       </c>
       <c r="I41">
-        <v>15.8744631747183</v>
+        <v>14.4483301088677</v>
       </c>
       <c r="J41">
-        <v>36.8051607261749</v>
+        <v>39.6416847336023</v>
       </c>
       <c r="K41">
-        <v>6.1569400847334</v>
+        <v>9.976971984624941</v>
       </c>
       <c r="L41">
-        <v>26.930618195563</v>
+        <v>28.060815153037</v>
       </c>
       <c r="M41">
-        <v>26.9761708388512</v>
+        <v>27.9181210931219</v>
       </c>
       <c r="N41">
-        <v>15.3300832647977</v>
+        <v>17.7080150870915</v>
       </c>
       <c r="O41">
-        <v>1517.53980875901</v>
+        <v>1513.03212023244</v>
       </c>
       <c r="P41">
-        <v>34.4087019993832</v>
+        <v>32.5692443457647</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>142.677536625607</v>
+        <v>136.868461376603</v>
       </c>
       <c r="C42">
-        <v>7.12225714592267</v>
+        <v>7.31708045222168</v>
       </c>
       <c r="D42">
-        <v>1.51705754132432</v>
+        <v>1.5257722966584</v>
       </c>
       <c r="E42">
-        <v>8.72223475632544</v>
+        <v>7.73621007368175</v>
       </c>
       <c r="F42">
-        <v>2.51434209596476</v>
+        <v>2.61030015045752</v>
       </c>
       <c r="G42">
-        <v>1.17677100789001</v>
+        <v>1.71687918735192</v>
       </c>
       <c r="H42">
-        <v>0.806478788612732</v>
+        <v>0.898690057534504</v>
       </c>
       <c r="I42">
-        <v>1.51997538581281</v>
+        <v>1.62189030064799</v>
       </c>
       <c r="J42">
-        <v>4.76554991485052</v>
+        <v>4.74600799138643</v>
       </c>
       <c r="K42">
-        <v>4.64179840782162</v>
+        <v>4.7641093814856</v>
       </c>
       <c r="L42">
-        <v>9.04746885862926</v>
+        <v>8.102290583648241</v>
       </c>
       <c r="M42">
-        <v>5.35635115115158</v>
+        <v>4.86522816550688</v>
       </c>
       <c r="N42">
-        <v>11.6240781173562</v>
+        <v>11.1825895235647</v>
       </c>
       <c r="O42">
-        <v>393.389718436967</v>
+        <v>377.973276962402</v>
       </c>
       <c r="P42">
-        <v>58.3902352480264</v>
+        <v>56.0288558713251</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1488.18307848318</v>
+        <v>1489.28909917831</v>
       </c>
       <c r="C43">
-        <v>41.8053378668521</v>
+        <v>38.3435228852753</v>
       </c>
       <c r="D43">
-        <v>23.1993229068001</v>
+        <v>29.4785585008658</v>
       </c>
       <c r="E43">
-        <v>87.39262490855261</v>
+        <v>75.5554944426265</v>
       </c>
       <c r="F43">
-        <v>4.73402296885245</v>
+        <v>6.08869929314422</v>
       </c>
       <c r="G43">
-        <v>30.4850643608512</v>
+        <v>28.318949294274</v>
       </c>
       <c r="H43">
-        <v>42.3447134524919</v>
+        <v>44.0254597352206</v>
       </c>
       <c r="I43">
-        <v>26.1097906229313</v>
+        <v>21.1198884019547</v>
       </c>
       <c r="J43">
-        <v>57.2492142489937</v>
+        <v>52.6798799491068</v>
       </c>
       <c r="K43">
-        <v>12.6706521004634</v>
+        <v>24.0993788553895</v>
       </c>
       <c r="L43">
-        <v>47.17227785978</v>
+        <v>40.8762663191263</v>
       </c>
       <c r="M43">
-        <v>108.601429403243</v>
+        <v>107.88122091323</v>
       </c>
       <c r="N43">
-        <v>60.7011309840319</v>
+        <v>64.1970454288825</v>
       </c>
       <c r="O43">
-        <v>2029.92522689321</v>
+        <v>2066.64351354141</v>
       </c>
       <c r="P43">
-        <v>43.2610700557238</v>
+        <v>41.3096027956107</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4493.013731472</v>
+        <v>4522.66880443042</v>
       </c>
       <c r="C44">
-        <v>155.794466740974</v>
+        <v>148.596776361623</v>
       </c>
       <c r="D44">
-        <v>16.8696885143006</v>
+        <v>28.6838545258138</v>
       </c>
       <c r="E44">
-        <v>102.420439721865</v>
+        <v>95.5682978890505</v>
       </c>
       <c r="F44">
-        <v>230.328309316784</v>
+        <v>228.773454918973</v>
       </c>
       <c r="G44">
-        <v>107.827410284891</v>
+        <v>118.502555647634</v>
       </c>
       <c r="H44">
-        <v>40.593819808131</v>
+        <v>39.8334054565565</v>
       </c>
       <c r="I44">
-        <v>40.3651400247245</v>
+        <v>42.2326846830122</v>
       </c>
       <c r="J44">
-        <v>101.224762438426</v>
+        <v>105.310637222283</v>
       </c>
       <c r="K44">
-        <v>37.2127792502893</v>
+        <v>45.4217388194936</v>
       </c>
       <c r="L44">
-        <v>148.219833656423</v>
+        <v>166.441817323377</v>
       </c>
       <c r="M44">
-        <v>80.5874267334479</v>
+        <v>84.3713083281414</v>
       </c>
       <c r="N44">
-        <v>97.80345931960881</v>
+        <v>89.9923930172086</v>
       </c>
       <c r="O44">
-        <v>8061.6875651585</v>
+        <v>8155.49585678115</v>
       </c>
       <c r="P44">
-        <v>226.988921118607</v>
+        <v>215.052646205074</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>436.827571532845</v>
+        <v>432.220669100238</v>
       </c>
       <c r="C45">
-        <v>20.2435034675344</v>
+        <v>19.0078983707264</v>
       </c>
       <c r="D45">
-        <v>2.30891546852545</v>
+        <v>2.22704233253112</v>
       </c>
       <c r="E45">
-        <v>26.542208156169</v>
+        <v>21.9036675869068</v>
       </c>
       <c r="F45">
-        <v>23.8637930648901</v>
+        <v>24.6187380867506</v>
       </c>
       <c r="G45">
-        <v>7.12416844322954</v>
+        <v>6.91576379077358</v>
       </c>
       <c r="H45">
-        <v>3.60868111175303</v>
+        <v>2.85976787432984</v>
       </c>
       <c r="I45">
-        <v>3.79548592079544</v>
+        <v>3.96237101461041</v>
       </c>
       <c r="J45">
-        <v>20.0823841717686</v>
+        <v>22.0089118846718</v>
       </c>
       <c r="K45">
-        <v>2.88185137552983</v>
+        <v>3.83234254761462</v>
       </c>
       <c r="L45">
-        <v>16.7991614227098</v>
+        <v>15.2608926920194</v>
       </c>
       <c r="M45">
-        <v>14.0047717690883</v>
+        <v>14.4670782872629</v>
       </c>
       <c r="N45">
-        <v>26.2986875953154</v>
+        <v>27.948952354817</v>
       </c>
       <c r="O45">
-        <v>862.2808696452061</v>
+        <v>869.685625861401</v>
       </c>
       <c r="P45">
-        <v>21.3500527328781</v>
+        <v>21.6583542172974</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>128.012993085223</v>
+        <v>124.346394752265</v>
       </c>
       <c r="C46">
-        <v>5.6524452993923</v>
+        <v>5.30570249213969</v>
       </c>
       <c r="D46">
-        <v>0.90567138693645</v>
+        <v>0.840267557262441</v>
       </c>
       <c r="E46">
-        <v>6.02342749357826</v>
+        <v>6.11275980651864</v>
       </c>
       <c r="F46">
-        <v>0.77381689808371</v>
+        <v>0.831828092402236</v>
       </c>
       <c r="G46">
-        <v>2.75893357752031</v>
+        <v>2.43603793748915</v>
       </c>
       <c r="H46">
-        <v>1.16787330386445</v>
+        <v>1.10701602096779</v>
       </c>
       <c r="I46">
-        <v>1.9174445273685</v>
+        <v>1.63215128672568</v>
       </c>
       <c r="J46">
-        <v>5.76538251755495</v>
+        <v>5.09388421111013</v>
       </c>
       <c r="K46">
-        <v>1.17871445883903</v>
+        <v>2.4202197147982</v>
       </c>
       <c r="L46">
-        <v>13.7702139544902</v>
+        <v>13.6763337553987</v>
       </c>
       <c r="M46">
-        <v>3.7639986851043</v>
+        <v>3.51395678029902</v>
       </c>
       <c r="N46">
-        <v>12.3957572181434</v>
+        <v>11.2463443110665</v>
       </c>
       <c r="O46">
-        <v>340.384456693401</v>
+        <v>325.509549073392</v>
       </c>
       <c r="P46">
-        <v>11.5483588849209</v>
+        <v>10.5949062483624</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1562.47468512529</v>
+        <v>1536.72522982517</v>
       </c>
       <c r="C47">
-        <v>47.4106710932821</v>
+        <v>48.8613680219639</v>
       </c>
       <c r="D47">
-        <v>17.9572489532351</v>
+        <v>19.3112189220201</v>
       </c>
       <c r="E47">
-        <v>52.7942953115632</v>
+        <v>51.1053942762963</v>
       </c>
       <c r="F47">
-        <v>10.2641872059725</v>
+        <v>9.97175214965476</v>
       </c>
       <c r="G47">
-        <v>22.6297865232118</v>
+        <v>22.4609189006809</v>
       </c>
       <c r="H47">
-        <v>11.7091335966261</v>
+        <v>11.6927231864188</v>
       </c>
       <c r="I47">
-        <v>4.12659264263038</v>
+        <v>4.68259274621733</v>
       </c>
       <c r="J47">
-        <v>41.3926820704922</v>
+        <v>37.1803461044833</v>
       </c>
       <c r="K47">
-        <v>6.54050134517567</v>
+        <v>8.738222691815601</v>
       </c>
       <c r="L47">
-        <v>27.658103654671</v>
+        <v>27.0969149629936</v>
       </c>
       <c r="M47">
-        <v>69.43260392632391</v>
+        <v>65.5699051343462</v>
       </c>
       <c r="N47">
-        <v>35.7961939509891</v>
+        <v>34.3213540075501</v>
       </c>
       <c r="O47">
-        <v>2918.61660200363</v>
+        <v>2958.56219948327</v>
       </c>
       <c r="P47">
-        <v>39.3774667930304</v>
+        <v>37.3798504151096</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1334.39330437372</v>
+        <v>1316.18568193314</v>
       </c>
       <c r="C48">
-        <v>30.804216282817</v>
+        <v>32.1925076785141</v>
       </c>
       <c r="D48">
-        <v>3.23482363559785</v>
+        <v>5.36197970430977</v>
       </c>
       <c r="E48">
-        <v>74.95781679131</v>
+        <v>69.6786116373036</v>
       </c>
       <c r="F48">
-        <v>9.2398792343445</v>
+        <v>8.91984715288025</v>
       </c>
       <c r="G48">
-        <v>6.99621239969188</v>
+        <v>6.30655891564739</v>
       </c>
       <c r="H48">
-        <v>3.89100367105158</v>
+        <v>4.22014857744485</v>
       </c>
       <c r="I48">
-        <v>9.302879764927029</v>
+        <v>9.323487087001361</v>
       </c>
       <c r="J48">
-        <v>34.6710684550028</v>
+        <v>36.2029035093595</v>
       </c>
       <c r="K48">
-        <v>8.45055418648613</v>
+        <v>9.739229741275251</v>
       </c>
       <c r="L48">
-        <v>52.3779285431167</v>
+        <v>48.9738158259933</v>
       </c>
       <c r="M48">
-        <v>125.310891621063</v>
+        <v>130.473414158022</v>
       </c>
       <c r="N48">
-        <v>33.3684919700592</v>
+        <v>36.6868217464996</v>
       </c>
       <c r="O48">
-        <v>2331.02422865145</v>
+        <v>2373.66361225723</v>
       </c>
       <c r="P48">
-        <v>89.72784316452049</v>
+        <v>88.492351106106</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>704.177497613073</v>
+        <v>686.368231887623</v>
       </c>
       <c r="C49">
-        <v>4.91933210793144</v>
+        <v>5.5680470762757</v>
       </c>
       <c r="D49">
-        <v>2.5722718876805</v>
+        <v>2.32598929744303</v>
       </c>
       <c r="E49">
-        <v>26.0450343704503</v>
+        <v>24.082299271281</v>
       </c>
       <c r="F49">
-        <v>28.1308111432342</v>
+        <v>27.9285789385641</v>
       </c>
       <c r="G49">
-        <v>13.7463790231333</v>
+        <v>13.8069099943984</v>
       </c>
       <c r="H49">
-        <v>8.16021920731173</v>
+        <v>7.31582833361776</v>
       </c>
       <c r="I49">
-        <v>3.36809763896517</v>
+        <v>4.18909264835727</v>
       </c>
       <c r="J49">
-        <v>21.7741421493206</v>
+        <v>22.1077000158859</v>
       </c>
       <c r="K49">
-        <v>1.50042639826663</v>
+        <v>2.62388182467653</v>
       </c>
       <c r="L49">
-        <v>1.40018638956389</v>
+        <v>1.39183708492534</v>
       </c>
       <c r="M49">
-        <v>4.65161703290632</v>
+        <v>5.62475243157502</v>
       </c>
       <c r="N49">
-        <v>4.51721600344603</v>
+        <v>4.72305266963162</v>
       </c>
       <c r="O49">
-        <v>645.502794685917</v>
+        <v>635.5135980711031</v>
       </c>
       <c r="P49">
-        <v>7.54181353117548</v>
+        <v>7.85550344682906</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>956.896679173777</v>
+        <v>957.634285992246</v>
       </c>
       <c r="C50">
-        <v>79.8076958141708</v>
+        <v>74.9798048207556</v>
       </c>
       <c r="D50">
-        <v>12.4305952415166</v>
+        <v>11.5946377329659</v>
       </c>
       <c r="E50">
-        <v>149.485295737123</v>
+        <v>140.695892710806</v>
       </c>
       <c r="F50">
-        <v>4.55967897818856</v>
+        <v>3.93602960904946</v>
       </c>
       <c r="G50">
-        <v>32.6625108788988</v>
+        <v>29.9936914895229</v>
       </c>
       <c r="H50">
-        <v>33.4430413571335</v>
+        <v>36.2522160419303</v>
       </c>
       <c r="I50">
-        <v>15.6859678211535</v>
+        <v>14.2381380292009</v>
       </c>
       <c r="J50">
-        <v>103.138419851399</v>
+        <v>98.1519794869061</v>
       </c>
       <c r="K50">
-        <v>43.9699221333266</v>
+        <v>56.8279962470951</v>
       </c>
       <c r="L50">
-        <v>56.1198652039961</v>
+        <v>56.6735169318661</v>
       </c>
       <c r="M50">
-        <v>44.4817470350498</v>
+        <v>43.0465046672495</v>
       </c>
       <c r="N50">
-        <v>55.7364217949702</v>
+        <v>55.0168720660879</v>
       </c>
       <c r="O50">
-        <v>2127.83699698556</v>
+        <v>2126.47222254952</v>
       </c>
       <c r="P50">
-        <v>84.7905755984135</v>
+        <v>86.66178048366351</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>134.364471811573</v>
+        <v>124.031390637006</v>
       </c>
       <c r="C51">
-        <v>5.36127272879016</v>
+        <v>4.12021834388583</v>
       </c>
       <c r="D51">
-        <v>0.0151219991644512</v>
+        <v>0.0272029370910394</v>
       </c>
       <c r="E51">
-        <v>2.58022896036106</v>
+        <v>2.34341398964919</v>
       </c>
       <c r="F51">
-        <v>34.6615801799492</v>
+        <v>33.2537538295177</v>
       </c>
       <c r="G51">
-        <v>2.56175340697027</v>
+        <v>2.29972574894973</v>
       </c>
       <c r="H51">
-        <v>0.0137630845627714</v>
+        <v>0.00529845021879851</v>
       </c>
       <c r="I51">
-        <v>1.05319794605258</v>
+        <v>1.19047958681554</v>
       </c>
       <c r="J51">
-        <v>1.21157233234559</v>
+        <v>1.12501900039183</v>
       </c>
       <c r="K51">
-        <v>0.40372839212434</v>
+        <v>0.96095146116396</v>
       </c>
       <c r="L51">
-        <v>0.554588028789632</v>
+        <v>0.613655405331152</v>
       </c>
       <c r="M51">
-        <v>0.618599171170375</v>
+        <v>0.376364728198572</v>
       </c>
       <c r="N51">
-        <v>0.9078547954673381</v>
+        <v>1.12142435669577</v>
       </c>
       <c r="O51">
-        <v>303.502774348867</v>
+        <v>283.824560642425</v>
       </c>
       <c r="P51">
-        <v>29.7260487463055</v>
+        <v>28.2401836093627</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1326.71928368926</v>
+        <v>1302.26372948955</v>
       </c>
       <c r="C2">
-        <v>25.3634977125171</v>
+        <v>22.6285832214183</v>
       </c>
       <c r="D2">
-        <v>33.7844904185033</v>
+        <v>34.5583023970227</v>
       </c>
       <c r="E2">
-        <v>59.5620207863097</v>
+        <v>61.8448270096499</v>
       </c>
       <c r="F2">
-        <v>21.6085698848886</v>
+        <v>23.1525984074422</v>
       </c>
       <c r="G2">
-        <v>14.0744743601134</v>
+        <v>10.011711196016</v>
       </c>
       <c r="H2">
-        <v>22.0457778731875</v>
+        <v>20.0736851045791</v>
       </c>
       <c r="I2">
-        <v>14.2427477710168</v>
+        <v>17.8467237661982</v>
       </c>
       <c r="J2">
-        <v>78.3201064056355</v>
+        <v>86.17898807644291</v>
       </c>
       <c r="K2">
-        <v>15.4957420287909</v>
+        <v>14.1991581729925</v>
       </c>
       <c r="L2">
-        <v>51.3435760570774</v>
+        <v>55.1443531977341</v>
       </c>
       <c r="M2">
-        <v>40.5846747271255</v>
+        <v>37.2839691756216</v>
       </c>
       <c r="N2">
-        <v>24.7185481638349</v>
+        <v>24.8535691388662</v>
       </c>
       <c r="O2">
-        <v>1432.01892111493</v>
+        <v>1440.67589586308</v>
       </c>
       <c r="P2">
-        <v>20.4156897931946</v>
+        <v>20.6056194158442</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>151.067874393779</v>
+        <v>99.492655394819</v>
       </c>
       <c r="C3">
-        <v>4.11522949070375</v>
+        <v>3.49058729290687</v>
       </c>
       <c r="D3">
-        <v>0.499121339329621</v>
+        <v>0.328285667728362</v>
       </c>
       <c r="E3">
-        <v>1.19062408140346</v>
+        <v>1.1217418197664</v>
       </c>
       <c r="F3">
-        <v>9.524527584614191</v>
+        <v>6.34445524924613</v>
       </c>
       <c r="G3">
-        <v>0.368152477754454</v>
+        <v>0.0796116074449591</v>
       </c>
       <c r="H3">
-        <v>0.0807684563200757</v>
+        <v>0.111808730731442</v>
       </c>
       <c r="I3">
-        <v>1.00500915682927</v>
+        <v>0.644453798872949</v>
       </c>
       <c r="J3">
-        <v>0.383048592665301</v>
+        <v>0.287579307089455</v>
       </c>
       <c r="K3">
-        <v>0.154020779562825</v>
+        <v>0.0175894946707828</v>
       </c>
       <c r="L3">
-        <v>0.07419082409348531</v>
+        <v>0.0233132301677523</v>
       </c>
       <c r="M3">
-        <v>0.760762688129933</v>
+        <v>0.483246003156011</v>
       </c>
       <c r="N3">
-        <v>0.949087853423302</v>
+        <v>0.824555169776374</v>
       </c>
       <c r="O3">
-        <v>332.643041261932</v>
+        <v>230.417682887471</v>
       </c>
       <c r="P3">
-        <v>14.3001632958388</v>
+        <v>10.7402725044886</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1323.83692274075</v>
+        <v>1359.288915798</v>
       </c>
       <c r="C4">
-        <v>8.180955725895959</v>
+        <v>10.5211619283514</v>
       </c>
       <c r="D4">
-        <v>2.74922549478967</v>
+        <v>3.08224183041328</v>
       </c>
       <c r="E4">
-        <v>21.3538960472467</v>
+        <v>23.8920073555963</v>
       </c>
       <c r="F4">
-        <v>7.3512453334805</v>
+        <v>8.04635614418738</v>
       </c>
       <c r="G4">
-        <v>7.28991228795826</v>
+        <v>7.24248337642096</v>
       </c>
       <c r="H4">
-        <v>12.7866921482387</v>
+        <v>15.7344582623614</v>
       </c>
       <c r="I4">
-        <v>9.379152917885509</v>
+        <v>8.8623501016517</v>
       </c>
       <c r="J4">
-        <v>26.5938642905869</v>
+        <v>29.5008597857877</v>
       </c>
       <c r="K4">
-        <v>3.64945024452225</v>
+        <v>3.21050628138279</v>
       </c>
       <c r="L4">
-        <v>65.7970471428042</v>
+        <v>68.8101802626192</v>
       </c>
       <c r="M4">
-        <v>42.5014140238559</v>
+        <v>42.8867355811543</v>
       </c>
       <c r="N4">
-        <v>29.3524069361153</v>
+        <v>29.5647278660406</v>
       </c>
       <c r="O4">
-        <v>2194.97009880316</v>
+        <v>2198.16193165662</v>
       </c>
       <c r="P4">
-        <v>16.0133428003035</v>
+        <v>16.3966617707821</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>696.350496043789</v>
+        <v>693.080820092812</v>
       </c>
       <c r="C5">
-        <v>45.493324996608</v>
+        <v>50.4792923471431</v>
       </c>
       <c r="D5">
-        <v>10.7259072286219</v>
+        <v>10.4415706576826</v>
       </c>
       <c r="E5">
-        <v>33.978439367281</v>
+        <v>40.893660090178</v>
       </c>
       <c r="F5">
-        <v>6.76722114359913</v>
+        <v>9.02998355654225</v>
       </c>
       <c r="G5">
-        <v>4.58540861381679</v>
+        <v>3.94381908439375</v>
       </c>
       <c r="H5">
-        <v>10.5066511490138</v>
+        <v>11.3236449451454</v>
       </c>
       <c r="I5">
-        <v>6.8792359109376</v>
+        <v>5.61502674784633</v>
       </c>
       <c r="J5">
-        <v>31.7564858797596</v>
+        <v>35.6890983075199</v>
       </c>
       <c r="K5">
-        <v>8.04691464651107</v>
+        <v>6.88919050304191</v>
       </c>
       <c r="L5">
-        <v>17.5163379921651</v>
+        <v>19.1955114285666</v>
       </c>
       <c r="M5">
-        <v>19.8810071193252</v>
+        <v>24.5332331758631</v>
       </c>
       <c r="N5">
-        <v>21.3486889441202</v>
+        <v>21.9227368139277</v>
       </c>
       <c r="O5">
-        <v>948.7376783765191</v>
+        <v>975.079107085292</v>
       </c>
       <c r="P5">
-        <v>57.0899624855636</v>
+        <v>57.4376916034009</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7593.5223715418</v>
+        <v>7754.86680761027</v>
       </c>
       <c r="C6">
-        <v>199.825730110703</v>
+        <v>220.57290885259</v>
       </c>
       <c r="D6">
-        <v>86.1475335229852</v>
+        <v>49.9644388044595</v>
       </c>
       <c r="E6">
-        <v>170.959429597456</v>
+        <v>181.706397686581</v>
       </c>
       <c r="F6">
-        <v>43.2659008318089</v>
+        <v>45.5084902671454</v>
       </c>
       <c r="G6">
-        <v>114.34315965232</v>
+        <v>146.322701060583</v>
       </c>
       <c r="H6">
-        <v>58.1994822802308</v>
+        <v>52.5826875962051</v>
       </c>
       <c r="I6">
-        <v>41.3754592525752</v>
+        <v>50.6313446196829</v>
       </c>
       <c r="J6">
-        <v>180.914359085341</v>
+        <v>196.504125423145</v>
       </c>
       <c r="K6">
-        <v>63.3813747142853</v>
+        <v>54.9999924237177</v>
       </c>
       <c r="L6">
-        <v>451.076987812514</v>
+        <v>517.732653161939</v>
       </c>
       <c r="M6">
-        <v>270.946592439773</v>
+        <v>264.552741316862</v>
       </c>
       <c r="N6">
-        <v>287.982645367501</v>
+        <v>272.360760370443</v>
       </c>
       <c r="O6">
-        <v>12830.1042034897</v>
+        <v>12951.8410599267</v>
       </c>
       <c r="P6">
-        <v>285.011009314913</v>
+        <v>339.928619388373</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>784.429222497558</v>
+        <v>796.06130926332</v>
       </c>
       <c r="C7">
-        <v>37.1482895366751</v>
+        <v>42.7211343145284</v>
       </c>
       <c r="D7">
-        <v>3.36013389576059</v>
+        <v>3.93497350744447</v>
       </c>
       <c r="E7">
-        <v>20.0357331333612</v>
+        <v>24.7255165170747</v>
       </c>
       <c r="F7">
-        <v>12.7214286220083</v>
+        <v>10.778362098448</v>
       </c>
       <c r="G7">
-        <v>6.79448606216689</v>
+        <v>6.83873578775997</v>
       </c>
       <c r="H7">
-        <v>3.06314374479226</v>
+        <v>2.63477050637976</v>
       </c>
       <c r="I7">
-        <v>9.086675896260751</v>
+        <v>9.74069596233112</v>
       </c>
       <c r="J7">
-        <v>15.82624320786</v>
+        <v>18.6734717005552</v>
       </c>
       <c r="K7">
-        <v>6.40321575534297</v>
+        <v>2.94694118069913</v>
       </c>
       <c r="L7">
-        <v>55.7320465183788</v>
+        <v>59.5847267413323</v>
       </c>
       <c r="M7">
-        <v>16.8207423969019</v>
+        <v>17.0447809309972</v>
       </c>
       <c r="N7">
-        <v>26.2266641821947</v>
+        <v>28.1398550762812</v>
       </c>
       <c r="O7">
-        <v>1924.9655518495</v>
+        <v>1984.47268466837</v>
       </c>
       <c r="P7">
-        <v>28.6786891713161</v>
+        <v>27.8221950361484</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>654.418727868785</v>
+        <v>656.370521109548</v>
       </c>
       <c r="C8">
-        <v>14.2434743514352</v>
+        <v>14.8298537966971</v>
       </c>
       <c r="D8">
-        <v>3.26135566029644</v>
+        <v>3.43164086028332</v>
       </c>
       <c r="E8">
-        <v>21.6673454576603</v>
+        <v>23.7988364724726</v>
       </c>
       <c r="F8">
-        <v>1.42055791111685</v>
+        <v>4.39823116552506</v>
       </c>
       <c r="G8">
-        <v>24.6861071434894</v>
+        <v>27.0543652963014</v>
       </c>
       <c r="H8">
-        <v>9.153681280081409</v>
+        <v>10.6706770516704</v>
       </c>
       <c r="I8">
-        <v>9.0362598349669</v>
+        <v>7.39018014869262</v>
       </c>
       <c r="J8">
-        <v>39.916164363793</v>
+        <v>36.9964248151241</v>
       </c>
       <c r="K8">
-        <v>12.9202756317705</v>
+        <v>12.6125590082804</v>
       </c>
       <c r="L8">
-        <v>44.9253374696035</v>
+        <v>51.5633688985472</v>
       </c>
       <c r="M8">
-        <v>49.9621866796872</v>
+        <v>55.1201418768895</v>
       </c>
       <c r="N8">
-        <v>26.992842061797</v>
+        <v>23.7670761812621</v>
       </c>
       <c r="O8">
-        <v>1422.19165905225</v>
+        <v>1434.17465760232</v>
       </c>
       <c r="P8">
-        <v>6.43969875620929</v>
+        <v>6.98869744740247</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>210.53941626878</v>
+        <v>177.50229932559</v>
       </c>
       <c r="C9">
-        <v>9.131605537992369</v>
+        <v>8.109493275531779</v>
       </c>
       <c r="D9">
-        <v>2.39421934565371</v>
+        <v>1.44283188969364</v>
       </c>
       <c r="E9">
-        <v>4.67474684576782</v>
+        <v>3.91134862704599</v>
       </c>
       <c r="F9">
-        <v>0.893148475574523</v>
+        <v>0.743786981814011</v>
       </c>
       <c r="G9">
-        <v>23.3043013048295</v>
+        <v>20.1490925374966</v>
       </c>
       <c r="H9">
-        <v>3.64816428413555</v>
+        <v>3.62411457468274</v>
       </c>
       <c r="I9">
-        <v>1.2497322360922</v>
+        <v>1.04446844650379</v>
       </c>
       <c r="J9">
-        <v>4.99125856516797</v>
+        <v>5.12000106554304</v>
       </c>
       <c r="K9">
-        <v>1.44205271026394</v>
+        <v>0.764251885054131</v>
       </c>
       <c r="L9">
-        <v>3.20765054908279</v>
+        <v>2.58347832413947</v>
       </c>
       <c r="M9">
-        <v>7.86529356091683</v>
+        <v>8.01890101112469</v>
       </c>
       <c r="N9">
-        <v>4.70439211021131</v>
+        <v>4.19788613981319</v>
       </c>
       <c r="O9">
-        <v>398.312215371346</v>
+        <v>329.02425158705</v>
       </c>
       <c r="P9">
-        <v>6.25112817622402</v>
+        <v>5.68223900325722</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4167.00009438053</v>
+        <v>4148.92543316194</v>
       </c>
       <c r="C10">
-        <v>68.08991910610391</v>
+        <v>80.47902006166351</v>
       </c>
       <c r="D10">
-        <v>16.0315177270272</v>
+        <v>15.0129505200234</v>
       </c>
       <c r="E10">
-        <v>52.9419229572444</v>
+        <v>59.1558908986505</v>
       </c>
       <c r="F10">
-        <v>10.0972113498691</v>
+        <v>12.3075576792397</v>
       </c>
       <c r="G10">
-        <v>40.2688632725233</v>
+        <v>47.4284784918657</v>
       </c>
       <c r="H10">
-        <v>16.4667064458445</v>
+        <v>15.0573908458986</v>
       </c>
       <c r="I10">
-        <v>34.4208203507175</v>
+        <v>41.7941577083834</v>
       </c>
       <c r="J10">
-        <v>59.7642432835721</v>
+        <v>63.7522501510462</v>
       </c>
       <c r="K10">
-        <v>16.4397856381093</v>
+        <v>11.5492212126611</v>
       </c>
       <c r="L10">
-        <v>74.6048475662511</v>
+        <v>78.6648619256404</v>
       </c>
       <c r="M10">
-        <v>75.1665743948715</v>
+        <v>73.06574763712339</v>
       </c>
       <c r="N10">
-        <v>85.1422767444527</v>
+        <v>87.9294983308989</v>
       </c>
       <c r="O10">
-        <v>7392.40837177139</v>
+        <v>7518.96287988797</v>
       </c>
       <c r="P10">
-        <v>79.6315550745805</v>
+        <v>86.74474829087271</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1902.78944996605</v>
+        <v>1881.38695223015</v>
       </c>
       <c r="C11">
-        <v>67.5275816213974</v>
+        <v>65.7456506848843</v>
       </c>
       <c r="D11">
-        <v>158.332854921797</v>
+        <v>169.550699183182</v>
       </c>
       <c r="E11">
-        <v>76.22375556802911</v>
+        <v>76.51912358524839</v>
       </c>
       <c r="F11">
-        <v>7.56573269342577</v>
+        <v>4.48495517268055</v>
       </c>
       <c r="G11">
-        <v>26.0129456974236</v>
+        <v>33.2687828357647</v>
       </c>
       <c r="H11">
-        <v>19.6119160284898</v>
+        <v>18.6257530101959</v>
       </c>
       <c r="I11">
-        <v>11.9206959226089</v>
+        <v>11.9863925672993</v>
       </c>
       <c r="J11">
-        <v>41.5266716035472</v>
+        <v>49.1102754769993</v>
       </c>
       <c r="K11">
-        <v>12.3238402295156</v>
+        <v>10.5551130220022</v>
       </c>
       <c r="L11">
-        <v>52.7196128517002</v>
+        <v>51.4453362244382</v>
       </c>
       <c r="M11">
-        <v>44.8247245374954</v>
+        <v>41.1208952839626</v>
       </c>
       <c r="N11">
-        <v>57.9229075727801</v>
+        <v>55.8667229845204</v>
       </c>
       <c r="O11">
-        <v>3225.40043245877</v>
+        <v>3262.09875593067</v>
       </c>
       <c r="P11">
-        <v>54.3594264150237</v>
+        <v>56.5850668828287</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>286.261777405418</v>
+        <v>253.923872681602</v>
       </c>
       <c r="C12">
-        <v>6.5127603172507</v>
+        <v>5.89988435188345</v>
       </c>
       <c r="D12">
-        <v>0.440075992779619</v>
+        <v>0.339848196463109</v>
       </c>
       <c r="E12">
-        <v>3.25824276597794</v>
+        <v>4.37943774454685</v>
       </c>
       <c r="F12">
-        <v>0.891788393866442</v>
+        <v>1.25239115859813</v>
       </c>
       <c r="G12">
-        <v>0.528218794284763</v>
+        <v>0.743591918381339</v>
       </c>
       <c r="H12">
-        <v>0.207279197325579</v>
+        <v>0.295088457124306</v>
       </c>
       <c r="I12">
-        <v>1.0665582403445</v>
+        <v>0.942516271724842</v>
       </c>
       <c r="J12">
-        <v>1.95760776180925</v>
+        <v>1.64670603582863</v>
       </c>
       <c r="K12">
-        <v>0.0100682302590394</v>
+        <v>0.0154391116825555</v>
       </c>
       <c r="L12">
-        <v>0.458238236169337</v>
+        <v>0.476773819135842</v>
       </c>
       <c r="M12">
-        <v>3.37183804079247</v>
+        <v>2.87481110288388</v>
       </c>
       <c r="N12">
-        <v>2.96342294235713</v>
+        <v>2.09245264143077</v>
       </c>
       <c r="O12">
-        <v>622.225135670833</v>
+        <v>527.735696408799</v>
       </c>
       <c r="P12">
-        <v>23.069725665622</v>
+        <v>20.7247483491786</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>264.65617167603</v>
+        <v>230.177825040432</v>
       </c>
       <c r="C13">
-        <v>17.705615427597</v>
+        <v>18.5629890122656</v>
       </c>
       <c r="D13">
-        <v>0.446054000123433</v>
+        <v>0.714518346713347</v>
       </c>
       <c r="E13">
-        <v>13.0336172039856</v>
+        <v>10.8041239726081</v>
       </c>
       <c r="F13">
-        <v>3.20920524893964</v>
+        <v>2.11789703760475</v>
       </c>
       <c r="G13">
-        <v>5.28192830915671</v>
+        <v>5.58805827512607</v>
       </c>
       <c r="H13">
-        <v>2.39508524291164</v>
+        <v>2.70170907805315</v>
       </c>
       <c r="I13">
-        <v>2.02362452218135</v>
+        <v>1.84425864866401</v>
       </c>
       <c r="J13">
-        <v>6.08343622455203</v>
+        <v>5.03871341500335</v>
       </c>
       <c r="K13">
-        <v>4.56922830664179</v>
+        <v>3.17489178384347</v>
       </c>
       <c r="L13">
-        <v>16.8289109371098</v>
+        <v>14.6975049162269</v>
       </c>
       <c r="M13">
-        <v>1.31708119338174</v>
+        <v>1.2901798192445</v>
       </c>
       <c r="N13">
-        <v>5.37919475780438</v>
+        <v>4.39436995638871</v>
       </c>
       <c r="O13">
-        <v>578.341948986573</v>
+        <v>539.7021283181121</v>
       </c>
       <c r="P13">
-        <v>52.8356136950188</v>
+        <v>47.0934055668099</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2564.0149464079</v>
+        <v>2552.65725367007</v>
       </c>
       <c r="C14">
-        <v>115.390583689274</v>
+        <v>121.847354888135</v>
       </c>
       <c r="D14">
-        <v>11.5496633816566</v>
+        <v>12.0149672564187</v>
       </c>
       <c r="E14">
-        <v>88.03127283197701</v>
+        <v>105.650084631233</v>
       </c>
       <c r="F14">
-        <v>18.6599105424641</v>
+        <v>20.1419119665622</v>
       </c>
       <c r="G14">
-        <v>82.6940740164375</v>
+        <v>76.79736084524799</v>
       </c>
       <c r="H14">
-        <v>38.781590748107</v>
+        <v>39.9401224753717</v>
       </c>
       <c r="I14">
-        <v>22.8216382836445</v>
+        <v>24.5517950192086</v>
       </c>
       <c r="J14">
-        <v>136.231755433073</v>
+        <v>136.923361119238</v>
       </c>
       <c r="K14">
-        <v>114.003722160655</v>
+        <v>122.622027710174</v>
       </c>
       <c r="L14">
-        <v>112.375507970065</v>
+        <v>116.758302155809</v>
       </c>
       <c r="M14">
-        <v>76.3491892437379</v>
+        <v>86.06164763153291</v>
       </c>
       <c r="N14">
-        <v>88.0359660975126</v>
+        <v>91.99048104866139</v>
       </c>
       <c r="O14">
-        <v>4922.9790399383</v>
+        <v>4923.62763356263</v>
       </c>
       <c r="P14">
-        <v>56.4454853609979</v>
+        <v>70.23220452311909</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1282.17435327278</v>
+        <v>1251.65188289456</v>
       </c>
       <c r="C15">
-        <v>47.8222298004088</v>
+        <v>47.6362142109472</v>
       </c>
       <c r="D15">
-        <v>10.751615960603</v>
+        <v>13.07818596518</v>
       </c>
       <c r="E15">
-        <v>75.7621757420217</v>
+        <v>83.88928706895619</v>
       </c>
       <c r="F15">
-        <v>21.6225820956653</v>
+        <v>26.8697600843401</v>
       </c>
       <c r="G15">
-        <v>50.5033556229751</v>
+        <v>50.7754608809655</v>
       </c>
       <c r="H15">
-        <v>43.4851369545336</v>
+        <v>38.4886590576961</v>
       </c>
       <c r="I15">
-        <v>24.860616845801</v>
+        <v>26.1648219040025</v>
       </c>
       <c r="J15">
-        <v>160.69400110341</v>
+        <v>172.67745762168</v>
       </c>
       <c r="K15">
-        <v>31.0998179110313</v>
+        <v>17.7669615390053</v>
       </c>
       <c r="L15">
-        <v>39.3740382378609</v>
+        <v>38.8449614829896</v>
       </c>
       <c r="M15">
-        <v>173.214773580735</v>
+        <v>180.020067145402</v>
       </c>
       <c r="N15">
-        <v>85.2555757714487</v>
+        <v>92.7465780607814</v>
       </c>
       <c r="O15">
-        <v>2178.25744999283</v>
+        <v>2196.45070769364</v>
       </c>
       <c r="P15">
-        <v>43.8545429373522</v>
+        <v>44.4329229712223</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>501.834217745174</v>
+        <v>479.347143301815</v>
       </c>
       <c r="C16">
-        <v>64.4123556396913</v>
+        <v>62.0671293449297</v>
       </c>
       <c r="D16">
-        <v>5.62633214831334</v>
+        <v>6.80335899143931</v>
       </c>
       <c r="E16">
-        <v>26.990098654971</v>
+        <v>27.6527456663062</v>
       </c>
       <c r="F16">
-        <v>2.94886951041148</v>
+        <v>2.28399078602218</v>
       </c>
       <c r="G16">
-        <v>21.4235225508023</v>
+        <v>22.5495356946652</v>
       </c>
       <c r="H16">
-        <v>15.0147774979245</v>
+        <v>15.4992327070011</v>
       </c>
       <c r="I16">
-        <v>8.073359764052</v>
+        <v>7.94515616939576</v>
       </c>
       <c r="J16">
-        <v>49.7972627564424</v>
+        <v>49.8561741935596</v>
       </c>
       <c r="K16">
-        <v>41.6138192635713</v>
+        <v>38.8440046497166</v>
       </c>
       <c r="L16">
-        <v>24.9134061826569</v>
+        <v>24.933918236633</v>
       </c>
       <c r="M16">
-        <v>25.0714696482575</v>
+        <v>24.1061446934264</v>
       </c>
       <c r="N16">
-        <v>28.7950582135389</v>
+        <v>27.1663170334665</v>
       </c>
       <c r="O16">
-        <v>1224.61225798962</v>
+        <v>1179.0324262308</v>
       </c>
       <c r="P16">
-        <v>84.37658474877119</v>
+        <v>77.2758423773865</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>518.417936784753</v>
+        <v>494.425598106605</v>
       </c>
       <c r="C17">
-        <v>20.4408564634627</v>
+        <v>19.3718165476205</v>
       </c>
       <c r="D17">
-        <v>3.68264876121763</v>
+        <v>2.80120064673138</v>
       </c>
       <c r="E17">
-        <v>24.9080735523445</v>
+        <v>29.0213255532578</v>
       </c>
       <c r="F17">
-        <v>11.2204565041116</v>
+        <v>10.048492309178</v>
       </c>
       <c r="G17">
-        <v>7.14984149373559</v>
+        <v>5.21782205261653</v>
       </c>
       <c r="H17">
-        <v>8.900688823747069</v>
+        <v>7.26783488151437</v>
       </c>
       <c r="I17">
-        <v>9.308522690961411</v>
+        <v>9.947479222531671</v>
       </c>
       <c r="J17">
-        <v>19.1702474613883</v>
+        <v>18.6695687794746</v>
       </c>
       <c r="K17">
-        <v>9.56724648030338</v>
+        <v>9.470513893586901</v>
       </c>
       <c r="L17">
-        <v>10.6318464451945</v>
+        <v>11.313791717618</v>
       </c>
       <c r="M17">
-        <v>61.3961576942281</v>
+        <v>59.5714699822196</v>
       </c>
       <c r="N17">
-        <v>14.0726973629081</v>
+        <v>14.5865227736655</v>
       </c>
       <c r="O17">
-        <v>1119.84283650095</v>
+        <v>1076.93223375075</v>
       </c>
       <c r="P17">
-        <v>52.6832655178348</v>
+        <v>52.6797698368309</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1159.66124057695</v>
+        <v>1114.94032476627</v>
       </c>
       <c r="C18">
-        <v>34.2001557614716</v>
+        <v>35.5178550707291</v>
       </c>
       <c r="D18">
-        <v>4.70631381916334</v>
+        <v>2.6581329596599</v>
       </c>
       <c r="E18">
-        <v>32.2859335251622</v>
+        <v>30.8776222348958</v>
       </c>
       <c r="F18">
-        <v>32.2198584673051</v>
+        <v>28.1544567546808</v>
       </c>
       <c r="G18">
-        <v>20.6700239764013</v>
+        <v>19.8400273683416</v>
       </c>
       <c r="H18">
-        <v>16.8017580204937</v>
+        <v>18.9567513802189</v>
       </c>
       <c r="I18">
-        <v>2.99889678632677</v>
+        <v>1.96843281591852</v>
       </c>
       <c r="J18">
-        <v>36.5159856366022</v>
+        <v>40.8368658488427</v>
       </c>
       <c r="K18">
-        <v>11.6991851629011</v>
+        <v>7.2097525737346</v>
       </c>
       <c r="L18">
-        <v>34.9559128629373</v>
+        <v>36.2010333032318</v>
       </c>
       <c r="M18">
-        <v>67.5805636099639</v>
+        <v>65.0195876400023</v>
       </c>
       <c r="N18">
-        <v>22.7185076654831</v>
+        <v>22.2737443791824</v>
       </c>
       <c r="O18">
-        <v>1497.5817644661</v>
+        <v>1429.41824183365</v>
       </c>
       <c r="P18">
-        <v>60.4484797433479</v>
+        <v>57.4649080029244</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1153.08656414002</v>
+        <v>1141.57216653546</v>
       </c>
       <c r="C19">
-        <v>31.1430754348678</v>
+        <v>30.5967575417844</v>
       </c>
       <c r="D19">
-        <v>8.507638335306661</v>
+        <v>12.5450218547021</v>
       </c>
       <c r="E19">
-        <v>43.0713846015151</v>
+        <v>47.9027417752602</v>
       </c>
       <c r="F19">
-        <v>85.0931050255695</v>
+        <v>87.4474404656757</v>
       </c>
       <c r="G19">
-        <v>43.660037737705</v>
+        <v>48.8920669625294</v>
       </c>
       <c r="H19">
-        <v>9.723060151505109</v>
+        <v>9.79308730677454</v>
       </c>
       <c r="I19">
-        <v>3.4323893909704</v>
+        <v>2.72890303824349</v>
       </c>
       <c r="J19">
-        <v>16.6552543664249</v>
+        <v>13.5087168436697</v>
       </c>
       <c r="K19">
-        <v>9.469939809355569</v>
+        <v>5.55806963519426</v>
       </c>
       <c r="L19">
-        <v>2.77239667917747</v>
+        <v>3.56334600279783</v>
       </c>
       <c r="M19">
-        <v>32.0142322559624</v>
+        <v>36.0256484143347</v>
       </c>
       <c r="N19">
-        <v>12.6526906902759</v>
+        <v>10.8342960179591</v>
       </c>
       <c r="O19">
-        <v>1568.13572400542</v>
+        <v>1555.52233583471</v>
       </c>
       <c r="P19">
-        <v>42.9496932155751</v>
+        <v>44.7881297269007</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>289.509311609232</v>
+        <v>276.422024373808</v>
       </c>
       <c r="C20">
-        <v>9.824896193753061</v>
+        <v>10.5284798954065</v>
       </c>
       <c r="D20">
-        <v>7.0564277341315</v>
+        <v>6.21579953233062</v>
       </c>
       <c r="E20">
-        <v>34.6988457324811</v>
+        <v>35.7345778594726</v>
       </c>
       <c r="F20">
-        <v>1.24189269920589</v>
+        <v>1.62005703619047</v>
       </c>
       <c r="G20">
-        <v>2.90107251156572</v>
+        <v>2.1896398423815</v>
       </c>
       <c r="H20">
-        <v>0.876278293618619</v>
+        <v>0.84824234770763</v>
       </c>
       <c r="I20">
-        <v>1.9186987341367</v>
+        <v>1.33097248497441</v>
       </c>
       <c r="J20">
-        <v>4.97691892570197</v>
+        <v>5.43854428939927</v>
       </c>
       <c r="K20">
-        <v>1.57224468680017</v>
+        <v>1.237841524424</v>
       </c>
       <c r="L20">
-        <v>7.23903621537659</v>
+        <v>7.57192477407555</v>
       </c>
       <c r="M20">
-        <v>18.9707707901199</v>
+        <v>18.6747491416949</v>
       </c>
       <c r="N20">
-        <v>6.76310905927641</v>
+        <v>7.01972616933843</v>
       </c>
       <c r="O20">
-        <v>566.091946901239</v>
+        <v>547.156255078805</v>
       </c>
       <c r="P20">
-        <v>22.9554140510612</v>
+        <v>27.1560453638651</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1073.61023374063</v>
+        <v>1062.68920826663</v>
       </c>
       <c r="C21">
-        <v>21.8385386210387</v>
+        <v>24.8661272316792</v>
       </c>
       <c r="D21">
-        <v>2.2770137704067</v>
+        <v>2.29540348155823</v>
       </c>
       <c r="E21">
-        <v>21.0599838285049</v>
+        <v>22.5238573956891</v>
       </c>
       <c r="F21">
-        <v>3.36269252654124</v>
+        <v>4.33242082226795</v>
       </c>
       <c r="G21">
-        <v>16.0570616092063</v>
+        <v>14.751790488546</v>
       </c>
       <c r="H21">
-        <v>6.38008355606423</v>
+        <v>8.876879938230919</v>
       </c>
       <c r="I21">
-        <v>15.8790540448704</v>
+        <v>18.2731073760021</v>
       </c>
       <c r="J21">
-        <v>18.645878020592</v>
+        <v>19.1728101342142</v>
       </c>
       <c r="K21">
-        <v>1.85659986514524</v>
+        <v>1.23144141327637</v>
       </c>
       <c r="L21">
-        <v>26.4047073771673</v>
+        <v>27.3685609052029</v>
       </c>
       <c r="M21">
-        <v>20.0385133156489</v>
+        <v>17.0533136347867</v>
       </c>
       <c r="N21">
-        <v>18.0705053324645</v>
+        <v>17.7908567109358</v>
       </c>
       <c r="O21">
-        <v>2366.90673276428</v>
+        <v>2376.72309158763</v>
       </c>
       <c r="P21">
-        <v>20.6525521461108</v>
+        <v>16.2230653843164</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1233.86813875293</v>
+        <v>1214.96778254016</v>
       </c>
       <c r="C22">
-        <v>19.3629897456045</v>
+        <v>18.741042529899</v>
       </c>
       <c r="D22">
-        <v>17.1340927973038</v>
+        <v>17.9585834672241</v>
       </c>
       <c r="E22">
-        <v>44.8083735280164</v>
+        <v>51.2363719487482</v>
       </c>
       <c r="F22">
-        <v>3.31401169515653</v>
+        <v>4.77560057541081</v>
       </c>
       <c r="G22">
-        <v>31.4487200090893</v>
+        <v>35.9989537434058</v>
       </c>
       <c r="H22">
-        <v>14.3635405748313</v>
+        <v>12.603807293371</v>
       </c>
       <c r="I22">
-        <v>10.8105874992102</v>
+        <v>14.0132132890258</v>
       </c>
       <c r="J22">
-        <v>39.5122125367936</v>
+        <v>41.150094390085</v>
       </c>
       <c r="K22">
-        <v>12.8977797868968</v>
+        <v>6.94781820055228</v>
       </c>
       <c r="L22">
-        <v>116.676872350219</v>
+        <v>124.951811734364</v>
       </c>
       <c r="M22">
-        <v>15.4252269361549</v>
+        <v>15.7081201029738</v>
       </c>
       <c r="N22">
-        <v>69.4254227003142</v>
+        <v>73.5349755723646</v>
       </c>
       <c r="O22">
-        <v>2672.33082359266</v>
+        <v>2718.03674297064</v>
       </c>
       <c r="P22">
-        <v>11.566275597356</v>
+        <v>12.1890962005838</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2374.11422885791</v>
+        <v>2362.78523581053</v>
       </c>
       <c r="C23">
-        <v>33.1778026577672</v>
+        <v>34.6602658393158</v>
       </c>
       <c r="D23">
-        <v>7.83405030536291</v>
+        <v>10.0523797603456</v>
       </c>
       <c r="E23">
-        <v>46.5028440184852</v>
+        <v>53.2765368633869</v>
       </c>
       <c r="F23">
-        <v>5.53503805791079</v>
+        <v>10.2533058863991</v>
       </c>
       <c r="G23">
-        <v>57.851590996622</v>
+        <v>61.0101016220337</v>
       </c>
       <c r="H23">
-        <v>53.8079371555491</v>
+        <v>54.3054005400845</v>
       </c>
       <c r="I23">
-        <v>15.0958495419346</v>
+        <v>15.4784727271396</v>
       </c>
       <c r="J23">
-        <v>120.753054880726</v>
+        <v>134.956627412258</v>
       </c>
       <c r="K23">
-        <v>71.5047655830203</v>
+        <v>58.7118937884844</v>
       </c>
       <c r="L23">
-        <v>34.6830581406216</v>
+        <v>33.9307819673617</v>
       </c>
       <c r="M23">
-        <v>544.295070587494</v>
+        <v>567.020120501826</v>
       </c>
       <c r="N23">
-        <v>87.1198008190427</v>
+        <v>87.108265990327</v>
       </c>
       <c r="O23">
-        <v>3408.87605723276</v>
+        <v>3426.44730765989</v>
       </c>
       <c r="P23">
-        <v>50.7588945784091</v>
+        <v>55.3541793546425</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>812.57581608287</v>
+        <v>813.474902235847</v>
       </c>
       <c r="C24">
-        <v>48.6587179752727</v>
+        <v>52.0717593030689</v>
       </c>
       <c r="D24">
-        <v>5.99024189407156</v>
+        <v>5.25035117649484</v>
       </c>
       <c r="E24">
-        <v>55.6766668289689</v>
+        <v>57.7829336468159</v>
       </c>
       <c r="F24">
-        <v>12.4301440780095</v>
+        <v>13.452260319121</v>
       </c>
       <c r="G24">
-        <v>25.8781485118207</v>
+        <v>27.5899359796202</v>
       </c>
       <c r="H24">
-        <v>15.8282826472578</v>
+        <v>13.5820777306063</v>
       </c>
       <c r="I24">
-        <v>17.7530620256816</v>
+        <v>16.3424650452801</v>
       </c>
       <c r="J24">
-        <v>56.2894643847444</v>
+        <v>63.2686729775556</v>
       </c>
       <c r="K24">
-        <v>28.7032819048955</v>
+        <v>19.4009934780085</v>
       </c>
       <c r="L24">
-        <v>65.408473724888</v>
+        <v>71.05160235228939</v>
       </c>
       <c r="M24">
-        <v>29.4682695231077</v>
+        <v>33.6596606986996</v>
       </c>
       <c r="N24">
-        <v>74.747743389351</v>
+        <v>72.4644030108888</v>
       </c>
       <c r="O24">
-        <v>2027.55158554069</v>
+        <v>2086.99058371833</v>
       </c>
       <c r="P24">
-        <v>99.285089329768</v>
+        <v>103.040047814474</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>803.444695476003</v>
+        <v>745.9609309043429</v>
       </c>
       <c r="C25">
-        <v>44.2200736309317</v>
+        <v>44.7251089597122</v>
       </c>
       <c r="D25">
-        <v>12.4344320681497</v>
+        <v>9.530941727768679</v>
       </c>
       <c r="E25">
-        <v>43.7409571845497</v>
+        <v>42.8263816822237</v>
       </c>
       <c r="F25">
-        <v>15.5732212280056</v>
+        <v>12.047663098536</v>
       </c>
       <c r="G25">
-        <v>12.0496521950127</v>
+        <v>11.1017077585368</v>
       </c>
       <c r="H25">
-        <v>8.530780464481589</v>
+        <v>7.96423353255659</v>
       </c>
       <c r="I25">
-        <v>5.65143721228364</v>
+        <v>3.5553956745883</v>
       </c>
       <c r="J25">
-        <v>11.898860193162</v>
+        <v>12.7555514184576</v>
       </c>
       <c r="K25">
-        <v>9.69921947873706</v>
+        <v>4.02996547236085</v>
       </c>
       <c r="L25">
-        <v>13.4326073291836</v>
+        <v>14.4894951970968</v>
       </c>
       <c r="M25">
-        <v>37.6953615312976</v>
+        <v>42.1252415356622</v>
       </c>
       <c r="N25">
-        <v>38.5100304458708</v>
+        <v>35.8897319589071</v>
       </c>
       <c r="O25">
-        <v>962.791844388281</v>
+        <v>928.38258559108</v>
       </c>
       <c r="P25">
-        <v>42.5395224259111</v>
+        <v>37.8194577516736</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1145.59654371112</v>
+        <v>1129.52334754347</v>
       </c>
       <c r="C26">
-        <v>59.7713413655311</v>
+        <v>65.3707746916154</v>
       </c>
       <c r="D26">
-        <v>6.39568320032822</v>
+        <v>6.38908308240193</v>
       </c>
       <c r="E26">
-        <v>47.3340120127678</v>
+        <v>49.5207192431882</v>
       </c>
       <c r="F26">
-        <v>9.345487320366519</v>
+        <v>7.79442112956503</v>
       </c>
       <c r="G26">
-        <v>36.6818014053653</v>
+        <v>42.0626682194745</v>
       </c>
       <c r="H26">
-        <v>12.9420811132883</v>
+        <v>11.240513747576</v>
       </c>
       <c r="I26">
-        <v>15.1208223374907</v>
+        <v>15.7036420861961</v>
       </c>
       <c r="J26">
-        <v>40.7708485001687</v>
+        <v>28.9378162146444</v>
       </c>
       <c r="K26">
-        <v>13.3591524809302</v>
+        <v>8.98225977261342</v>
       </c>
       <c r="L26">
-        <v>26.3371885405738</v>
+        <v>24.1426282669152</v>
       </c>
       <c r="M26">
-        <v>76.230300971888</v>
+        <v>87.4848576459824</v>
       </c>
       <c r="N26">
-        <v>24.752959802315</v>
+        <v>21.0513548267125</v>
       </c>
       <c r="O26">
-        <v>2299.56688477285</v>
+        <v>2345.87746453718</v>
       </c>
       <c r="P26">
-        <v>64.6860240510476</v>
+        <v>67.4251336468854</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>223.135855358089</v>
+        <v>190.568197131574</v>
       </c>
       <c r="C27">
-        <v>2.31950323532928</v>
+        <v>1.85431513491008</v>
       </c>
       <c r="D27">
-        <v>1.84811043893599</v>
+        <v>2.22153960472875</v>
       </c>
       <c r="E27">
-        <v>12.4656302338534</v>
+        <v>11.1531291159266</v>
       </c>
       <c r="F27">
-        <v>6.3331533337767</v>
+        <v>6.05218640092536</v>
       </c>
       <c r="G27">
-        <v>0.728186976195408</v>
+        <v>0.742947758707029</v>
       </c>
       <c r="H27">
-        <v>0.270258016425583</v>
+        <v>0.337289372444057</v>
       </c>
       <c r="I27">
-        <v>2.87792925100176</v>
+        <v>2.25840762188432</v>
       </c>
       <c r="J27">
-        <v>3.33107407331438</v>
+        <v>2.88546729643055</v>
       </c>
       <c r="K27">
-        <v>1.40561586616303</v>
+        <v>0.882654368924246</v>
       </c>
       <c r="L27">
-        <v>2.34196363981651</v>
+        <v>2.14675614488495</v>
       </c>
       <c r="M27">
-        <v>0.772295745778</v>
+        <v>0.844433211443981</v>
       </c>
       <c r="N27">
-        <v>3.78447238785566</v>
+        <v>3.37978824369511</v>
       </c>
       <c r="O27">
-        <v>419.742991764845</v>
+        <v>372.453196892054</v>
       </c>
       <c r="P27">
-        <v>50.8175883123471</v>
+        <v>49.00887805517</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>275.876720152346</v>
+        <v>263.477260918179</v>
       </c>
       <c r="C28">
-        <v>37.2678172692092</v>
+        <v>35.3861659802261</v>
       </c>
       <c r="D28">
-        <v>3.58187867180296</v>
+        <v>2.28106479618867</v>
       </c>
       <c r="E28">
-        <v>8.260435909058261</v>
+        <v>7.78743360308983</v>
       </c>
       <c r="F28">
-        <v>1.84008009127866</v>
+        <v>2.03310661217224</v>
       </c>
       <c r="G28">
-        <v>4.7399721095168</v>
+        <v>4.0443137829187</v>
       </c>
       <c r="H28">
-        <v>7.99538780788264</v>
+        <v>8.17009733281685</v>
       </c>
       <c r="I28">
-        <v>2.74223879359387</v>
+        <v>2.22787943295222</v>
       </c>
       <c r="J28">
-        <v>19.9141525070996</v>
+        <v>18.3315320952666</v>
       </c>
       <c r="K28">
-        <v>10.9832599915247</v>
+        <v>11.0041394081484</v>
       </c>
       <c r="L28">
-        <v>13.1292173832806</v>
+        <v>11.3913826617077</v>
       </c>
       <c r="M28">
-        <v>10.2399192240269</v>
+        <v>9.51065887100402</v>
       </c>
       <c r="N28">
-        <v>10.7584550461359</v>
+        <v>8.78960355720762</v>
       </c>
       <c r="O28">
-        <v>759.894624543993</v>
+        <v>729.2087407655901</v>
       </c>
       <c r="P28">
-        <v>79.496252454746</v>
+        <v>71.78635254141599</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>460.560956833793</v>
+        <v>441.151303557075</v>
       </c>
       <c r="C29">
-        <v>3.93703148976509</v>
+        <v>3.49804612415371</v>
       </c>
       <c r="D29">
-        <v>2.79728991518426</v>
+        <v>1.91191981768834</v>
       </c>
       <c r="E29">
-        <v>4.86630366571592</v>
+        <v>4.7829023358793</v>
       </c>
       <c r="F29">
-        <v>24.8664743460992</v>
+        <v>27.2901364501694</v>
       </c>
       <c r="G29">
-        <v>4.56212818713332</v>
+        <v>5.07952052088577</v>
       </c>
       <c r="H29">
-        <v>1.98382333347104</v>
+        <v>1.98833973543273</v>
       </c>
       <c r="I29">
-        <v>1.72124365993589</v>
+        <v>1.87646851919451</v>
       </c>
       <c r="J29">
-        <v>5.33049242607133</v>
+        <v>5.30399724132159</v>
       </c>
       <c r="K29">
-        <v>1.34751612457273</v>
+        <v>0.637272990015222</v>
       </c>
       <c r="L29">
-        <v>3.8110517462431</v>
+        <v>4.05437011995732</v>
       </c>
       <c r="M29">
-        <v>3.31037247618064</v>
+        <v>3.28965373055347</v>
       </c>
       <c r="N29">
-        <v>12.6602612954933</v>
+        <v>11.1485546853771</v>
       </c>
       <c r="O29">
-        <v>1053.55420881498</v>
+        <v>1020.14600422732</v>
       </c>
       <c r="P29">
-        <v>5.44610167731908</v>
+        <v>5.12796659316668</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>230.449260496751</v>
+        <v>212.608191770755</v>
       </c>
       <c r="C30">
-        <v>3.61950629044541</v>
+        <v>3.15573250914419</v>
       </c>
       <c r="D30">
-        <v>5.30831996679042</v>
+        <v>5.45691490097928</v>
       </c>
       <c r="E30">
-        <v>14.7548096453691</v>
+        <v>14.5190476934418</v>
       </c>
       <c r="F30">
-        <v>0.618655729590044</v>
+        <v>0.178263730401118</v>
       </c>
       <c r="G30">
-        <v>4.87807295448831</v>
+        <v>4.28436176586242</v>
       </c>
       <c r="H30">
-        <v>5.07839282863881</v>
+        <v>4.85978972602489</v>
       </c>
       <c r="I30">
-        <v>2.69331696023364</v>
+        <v>1.885681001537</v>
       </c>
       <c r="J30">
-        <v>17.2933450518718</v>
+        <v>15.9769130106066</v>
       </c>
       <c r="K30">
-        <v>6.73264318148422</v>
+        <v>4.69568396252311</v>
       </c>
       <c r="L30">
-        <v>43.2965981237663</v>
+        <v>43.8839599473449</v>
       </c>
       <c r="M30">
-        <v>10.2598342321737</v>
+        <v>10.1789979585104</v>
       </c>
       <c r="N30">
-        <v>13.77292399123</v>
+        <v>12.0974666935739</v>
       </c>
       <c r="O30">
-        <v>568.606893943918</v>
+        <v>511.954459118418</v>
       </c>
       <c r="P30">
-        <v>8.50688381725435</v>
+        <v>9.724017875015351</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1703.66580358821</v>
+        <v>1683.38844977097</v>
       </c>
       <c r="C31">
-        <v>56.6297243487151</v>
+        <v>69.95691917883779</v>
       </c>
       <c r="D31">
-        <v>20.4891993248645</v>
+        <v>11.2150130240571</v>
       </c>
       <c r="E31">
-        <v>43.5375579580371</v>
+        <v>50.943452924452</v>
       </c>
       <c r="F31">
-        <v>7.30689568773254</v>
+        <v>7.87344118502662</v>
       </c>
       <c r="G31">
-        <v>102.972359300179</v>
+        <v>111.212525304864</v>
       </c>
       <c r="H31">
-        <v>10.5870001616457</v>
+        <v>8.03054808635528</v>
       </c>
       <c r="I31">
-        <v>23.8029783713327</v>
+        <v>27.8588923671594</v>
       </c>
       <c r="J31">
-        <v>35.2320912597689</v>
+        <v>35.6871600872508</v>
       </c>
       <c r="K31">
-        <v>9.13821199565297</v>
+        <v>7.57282662539868</v>
       </c>
       <c r="L31">
-        <v>65.79236630058421</v>
+        <v>73.3605363901018</v>
       </c>
       <c r="M31">
-        <v>18.9638069524676</v>
+        <v>23.2343510554474</v>
       </c>
       <c r="N31">
-        <v>63.004603812578</v>
+        <v>55.5221038334705</v>
       </c>
       <c r="O31">
-        <v>3641.08948469129</v>
+        <v>3681.67523568898</v>
       </c>
       <c r="P31">
-        <v>13.3776466346346</v>
+        <v>12.6532072223779</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>464.55149161743</v>
+        <v>450.185617314737</v>
       </c>
       <c r="C32">
-        <v>3.9126923436343</v>
+        <v>3.52915177825222</v>
       </c>
       <c r="D32">
-        <v>0.543429801629617</v>
+        <v>0.342879377189205</v>
       </c>
       <c r="E32">
-        <v>3.14344802150476</v>
+        <v>3.363078225421</v>
       </c>
       <c r="F32">
-        <v>23.6009241348606</v>
+        <v>21.7061957258486</v>
       </c>
       <c r="G32">
-        <v>1.79756956728798</v>
+        <v>2.66810298846554</v>
       </c>
       <c r="H32">
-        <v>1.31154749094162</v>
+        <v>1.65819880711561</v>
       </c>
       <c r="I32">
-        <v>2.83815340876887</v>
+        <v>2.68762640137519</v>
       </c>
       <c r="J32">
-        <v>4.00132702944776</v>
+        <v>4.06899788116031</v>
       </c>
       <c r="K32">
-        <v>2.11753418648902</v>
+        <v>1.85900393438985</v>
       </c>
       <c r="L32">
-        <v>12.4117578445133</v>
+        <v>12.2412816517564</v>
       </c>
       <c r="M32">
-        <v>5.27277512834731</v>
+        <v>3.26022361429907</v>
       </c>
       <c r="N32">
-        <v>11.1946538564968</v>
+        <v>11.0552006620908</v>
       </c>
       <c r="O32">
-        <v>764.507613767385</v>
+        <v>737.35144758113</v>
       </c>
       <c r="P32">
-        <v>21.1572268026919</v>
+        <v>19.9274807278155</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4498.29671109124</v>
+        <v>4439.76655302844</v>
       </c>
       <c r="C33">
-        <v>88.89998997284771</v>
+        <v>86.4939775851081</v>
       </c>
       <c r="D33">
-        <v>43.1464455837429</v>
+        <v>38.5219167741284</v>
       </c>
       <c r="E33">
-        <v>79.3990326911356</v>
+        <v>91.2241603831166</v>
       </c>
       <c r="F33">
-        <v>8.814811373183931</v>
+        <v>10.0167574761977</v>
       </c>
       <c r="G33">
-        <v>73.8162821321457</v>
+        <v>80.5171436725114</v>
       </c>
       <c r="H33">
-        <v>38.8720987607158</v>
+        <v>41.8639188576051</v>
       </c>
       <c r="I33">
-        <v>23.2766577263581</v>
+        <v>22.9204092484463</v>
       </c>
       <c r="J33">
-        <v>96.9855948573377</v>
+        <v>100.010865335717</v>
       </c>
       <c r="K33">
-        <v>70.6594756798997</v>
+        <v>71.6303604469534</v>
       </c>
       <c r="L33">
-        <v>113.224323155118</v>
+        <v>119.41751991075</v>
       </c>
       <c r="M33">
-        <v>61.6004218686582</v>
+        <v>64.90437356951939</v>
       </c>
       <c r="N33">
-        <v>148.92110922494</v>
+        <v>151.623542591368</v>
       </c>
       <c r="O33">
-        <v>7490.79782796199</v>
+        <v>7595.24557880482</v>
       </c>
       <c r="P33">
-        <v>62.622823689858</v>
+        <v>56.0377221127724</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1913.37948854049</v>
+        <v>1877.30569166287</v>
       </c>
       <c r="C34">
-        <v>69.3960485976198</v>
+        <v>73.86245164908461</v>
       </c>
       <c r="D34">
-        <v>126.178284504172</v>
+        <v>131.779495645679</v>
       </c>
       <c r="E34">
-        <v>49.8444880121543</v>
+        <v>48.2598602075573</v>
       </c>
       <c r="F34">
-        <v>3.31976953828787</v>
+        <v>2.41244701866012</v>
       </c>
       <c r="G34">
-        <v>45.3709990117361</v>
+        <v>52.5319300469875</v>
       </c>
       <c r="H34">
-        <v>45.0151743925289</v>
+        <v>50.7601522418469</v>
       </c>
       <c r="I34">
-        <v>15.4111795418828</v>
+        <v>17.5210972270209</v>
       </c>
       <c r="J34">
-        <v>46.3483698956175</v>
+        <v>46.0861091229038</v>
       </c>
       <c r="K34">
-        <v>22.4889937822431</v>
+        <v>13.8965972369447</v>
       </c>
       <c r="L34">
-        <v>109.741369585198</v>
+        <v>123.903210331711</v>
       </c>
       <c r="M34">
-        <v>32.6577297361946</v>
+        <v>27.2991039770216</v>
       </c>
       <c r="N34">
-        <v>124.951078427307</v>
+        <v>132.591353805759</v>
       </c>
       <c r="O34">
-        <v>3076.01810686087</v>
+        <v>3103.54202657037</v>
       </c>
       <c r="P34">
-        <v>71.99708023272019</v>
+        <v>85.73926185946149</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>119.99442216867</v>
+        <v>103.993936012012</v>
       </c>
       <c r="C35">
-        <v>8.31247844765465</v>
+        <v>7.21413996785976</v>
       </c>
       <c r="D35">
-        <v>0.484434115451355</v>
+        <v>0.211034934689497</v>
       </c>
       <c r="E35">
-        <v>2.56762376838342</v>
+        <v>2.42935505638478</v>
       </c>
       <c r="F35">
-        <v>4.3333496688561</v>
+        <v>3.68874348342832</v>
       </c>
       <c r="G35">
-        <v>1.05812504233347</v>
+        <v>1.46703376166831</v>
       </c>
       <c r="H35">
-        <v>0.551533210147668</v>
+        <v>0.08555662459796611</v>
       </c>
       <c r="I35">
-        <v>1.31310616340973</v>
+        <v>0.992290054007528</v>
       </c>
       <c r="J35">
-        <v>3.34158510815708</v>
+        <v>3.09443618591394</v>
       </c>
       <c r="K35">
-        <v>5.78799394630157</v>
+        <v>5.13471560763511</v>
       </c>
       <c r="L35">
-        <v>3.01939468037809</v>
+        <v>2.41217215841881</v>
       </c>
       <c r="M35">
-        <v>1.98801896616507</v>
+        <v>1.50819007242643</v>
       </c>
       <c r="N35">
-        <v>4.18670603534579</v>
+        <v>4.00672757341131</v>
       </c>
       <c r="O35">
-        <v>301.313094755457</v>
+        <v>266.934880689868</v>
       </c>
       <c r="P35">
-        <v>48.694982952113</v>
+        <v>44.2081101547008</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2571.4306874896</v>
+        <v>2578.83372931472</v>
       </c>
       <c r="C36">
-        <v>57.2788408694724</v>
+        <v>54.4334082611431</v>
       </c>
       <c r="D36">
-        <v>13.8860533984046</v>
+        <v>16.9157947313255</v>
       </c>
       <c r="E36">
-        <v>130.111581166538</v>
+        <v>140.834681527667</v>
       </c>
       <c r="F36">
-        <v>29.5943590952757</v>
+        <v>41.0615104666885</v>
       </c>
       <c r="G36">
-        <v>91.18589151824401</v>
+        <v>91.0110615522686</v>
       </c>
       <c r="H36">
-        <v>76.741832911384</v>
+        <v>85.013527735037</v>
       </c>
       <c r="I36">
-        <v>38.6769012963142</v>
+        <v>38.0413756166266</v>
       </c>
       <c r="J36">
-        <v>194.952691403095</v>
+        <v>199.083651673861</v>
       </c>
       <c r="K36">
-        <v>68.7100434120046</v>
+        <v>47.1165526759067</v>
       </c>
       <c r="L36">
-        <v>69.07556182531221</v>
+        <v>68.8431602641388</v>
       </c>
       <c r="M36">
-        <v>205.036920917653</v>
+        <v>208.036946916729</v>
       </c>
       <c r="N36">
-        <v>100.412212945063</v>
+        <v>108.975846648582</v>
       </c>
       <c r="O36">
-        <v>4234.37250704571</v>
+        <v>4243.44908469649</v>
       </c>
       <c r="P36">
-        <v>45.6107138448487</v>
+        <v>47.0896955516107</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>805.972422238266</v>
+        <v>800.309906220669</v>
       </c>
       <c r="C37">
-        <v>20.0693388597575</v>
+        <v>21.0860613613817</v>
       </c>
       <c r="D37">
-        <v>3.38566618864625</v>
+        <v>6.65130479894951</v>
       </c>
       <c r="E37">
-        <v>18.5585751112988</v>
+        <v>20.4130229546974</v>
       </c>
       <c r="F37">
-        <v>29.6877035470196</v>
+        <v>30.6286795249302</v>
       </c>
       <c r="G37">
-        <v>7.9672149077265</v>
+        <v>7.98684059197366</v>
       </c>
       <c r="H37">
-        <v>25.0716266815253</v>
+        <v>24.4435401535981</v>
       </c>
       <c r="I37">
-        <v>10.7546800749792</v>
+        <v>8.44782297158935</v>
       </c>
       <c r="J37">
-        <v>35.4087012446251</v>
+        <v>43.8381786520035</v>
       </c>
       <c r="K37">
-        <v>22.0997899950702</v>
+        <v>13.0019399466523</v>
       </c>
       <c r="L37">
-        <v>20.8067274995863</v>
+        <v>19.019873333242</v>
       </c>
       <c r="M37">
-        <v>42.6313651304513</v>
+        <v>45.6098388784777</v>
       </c>
       <c r="N37">
-        <v>20.6578966331268</v>
+        <v>25.2477361250995</v>
       </c>
       <c r="O37">
-        <v>1269.79354511594</v>
+        <v>1301.0743298024</v>
       </c>
       <c r="P37">
-        <v>55.4489225252034</v>
+        <v>54.9934565931751</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>812.954107972063</v>
+        <v>831.6165682646411</v>
       </c>
       <c r="C38">
-        <v>23.6786167096068</v>
+        <v>27.0159948711573</v>
       </c>
       <c r="D38">
-        <v>7.8963610058596</v>
+        <v>6.22371185920242</v>
       </c>
       <c r="E38">
-        <v>48.8464959098781</v>
+        <v>49.4404039212088</v>
       </c>
       <c r="F38">
-        <v>2.03485807919417</v>
+        <v>1.39799392888161</v>
       </c>
       <c r="G38">
-        <v>8.7995209512329</v>
+        <v>11.6664190432282</v>
       </c>
       <c r="H38">
-        <v>3.24272208044677</v>
+        <v>3.96614054218773</v>
       </c>
       <c r="I38">
-        <v>1.97031440121438</v>
+        <v>2.06514373790042</v>
       </c>
       <c r="J38">
-        <v>37.6628293690311</v>
+        <v>45.0431626425153</v>
       </c>
       <c r="K38">
-        <v>3.98633612459963</v>
+        <v>2.87403284504891</v>
       </c>
       <c r="L38">
-        <v>67.3076987221347</v>
+        <v>69.1299024178167</v>
       </c>
       <c r="M38">
-        <v>18.8789058216936</v>
+        <v>22.4604887218831</v>
       </c>
       <c r="N38">
-        <v>34.300617470772</v>
+        <v>32.113364515099</v>
       </c>
       <c r="O38">
-        <v>1377.37696416903</v>
+        <v>1378.09574797717</v>
       </c>
       <c r="P38">
-        <v>65.397405100727</v>
+        <v>72.4063005981847</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2815.49765181735</v>
+        <v>2851.61292657259</v>
       </c>
       <c r="C39">
-        <v>94.592696762712</v>
+        <v>96.8338046218113</v>
       </c>
       <c r="D39">
-        <v>39.7115045035532</v>
+        <v>30.5941062386564</v>
       </c>
       <c r="E39">
-        <v>127.424495857349</v>
+        <v>140.692556788778</v>
       </c>
       <c r="F39">
-        <v>24.1407904847906</v>
+        <v>25.617573885696</v>
       </c>
       <c r="G39">
-        <v>122.392440126365</v>
+        <v>123.502328645712</v>
       </c>
       <c r="H39">
-        <v>52.7582897646875</v>
+        <v>57.5491572459115</v>
       </c>
       <c r="I39">
-        <v>34.2956993197974</v>
+        <v>39.69056541576</v>
       </c>
       <c r="J39">
-        <v>168.584558859161</v>
+        <v>174.914614230061</v>
       </c>
       <c r="K39">
-        <v>74.73156118857069</v>
+        <v>67.3384498663075</v>
       </c>
       <c r="L39">
-        <v>103.754256862256</v>
+        <v>105.559950299417</v>
       </c>
       <c r="M39">
-        <v>72.8733372796695</v>
+        <v>76.5605018547123</v>
       </c>
       <c r="N39">
-        <v>119.483051882121</v>
+        <v>119.634381587897</v>
       </c>
       <c r="O39">
-        <v>4767.61132243955</v>
+        <v>4778.84433788521</v>
       </c>
       <c r="P39">
-        <v>55.1097147687883</v>
+        <v>49.4861229559939</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>241.716433096736</v>
+        <v>215.968604414997</v>
       </c>
       <c r="C40">
-        <v>4.04289494688305</v>
+        <v>4.10615476642552</v>
       </c>
       <c r="D40">
-        <v>7.92867819915643</v>
+        <v>6.29086194341769</v>
       </c>
       <c r="E40">
-        <v>4.54796986775607</v>
+        <v>4.50185091250281</v>
       </c>
       <c r="F40">
-        <v>0.369129245133203</v>
+        <v>0.473440556836936</v>
       </c>
       <c r="G40">
-        <v>4.77145844693654</v>
+        <v>3.89258819967535</v>
       </c>
       <c r="H40">
-        <v>3.80765806300021</v>
+        <v>3.8447624784138</v>
       </c>
       <c r="I40">
-        <v>1.63649987273237</v>
+        <v>1.23328543786647</v>
       </c>
       <c r="J40">
-        <v>10.8687013118929</v>
+        <v>9.69469226755929</v>
       </c>
       <c r="K40">
-        <v>2.42077982950428</v>
+        <v>1.70105835088251</v>
       </c>
       <c r="L40">
-        <v>13.6131061423136</v>
+        <v>13.3347458095099</v>
       </c>
       <c r="M40">
-        <v>4.66587866374961</v>
+        <v>4.25714264584953</v>
       </c>
       <c r="N40">
-        <v>23.1992780526189</v>
+        <v>19.9089564885628</v>
       </c>
       <c r="O40">
-        <v>484.810196767084</v>
+        <v>436.976130042328</v>
       </c>
       <c r="P40">
-        <v>3.15988952967752</v>
+        <v>2.60681523971754</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1008.4381596029</v>
+        <v>988.272428027597</v>
       </c>
       <c r="C41">
-        <v>12.9104465667306</v>
+        <v>15.2597854639686</v>
       </c>
       <c r="D41">
-        <v>73.1505008357111</v>
+        <v>65.6524363108926</v>
       </c>
       <c r="E41">
-        <v>33.5393131521824</v>
+        <v>34.7354909324731</v>
       </c>
       <c r="F41">
-        <v>1.04700041851883</v>
+        <v>2.20613295363935</v>
       </c>
       <c r="G41">
-        <v>29.2582965171989</v>
+        <v>24.6967820301235</v>
       </c>
       <c r="H41">
-        <v>36.7037720506035</v>
+        <v>34.2749838082396</v>
       </c>
       <c r="I41">
-        <v>14.4483301088677</v>
+        <v>21.0821964410157</v>
       </c>
       <c r="J41">
-        <v>39.6416847336023</v>
+        <v>39.4691940373289</v>
       </c>
       <c r="K41">
-        <v>9.976971984624941</v>
+        <v>6.92881967943238</v>
       </c>
       <c r="L41">
-        <v>28.060815153037</v>
+        <v>25.6136449719742</v>
       </c>
       <c r="M41">
-        <v>27.9181210931219</v>
+        <v>28.7635139807081</v>
       </c>
       <c r="N41">
-        <v>17.7080150870915</v>
+        <v>14.9272609101609</v>
       </c>
       <c r="O41">
-        <v>1513.03212023244</v>
+        <v>1540.36261243263</v>
       </c>
       <c r="P41">
-        <v>32.5692443457647</v>
+        <v>43.8649732348544</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>136.868461376603</v>
+        <v>104.440952296889</v>
       </c>
       <c r="C42">
-        <v>7.31708045222168</v>
+        <v>5.26006510911148</v>
       </c>
       <c r="D42">
-        <v>1.5257722966584</v>
+        <v>1.25664556078389</v>
       </c>
       <c r="E42">
-        <v>7.73621007368175</v>
+        <v>6.44080430595077</v>
       </c>
       <c r="F42">
-        <v>2.61030015045752</v>
+        <v>1.95179980111095</v>
       </c>
       <c r="G42">
-        <v>1.71687918735192</v>
+        <v>0.835984216224982</v>
       </c>
       <c r="H42">
-        <v>0.898690057534504</v>
+        <v>0.621487415097607</v>
       </c>
       <c r="I42">
-        <v>1.62189030064799</v>
+        <v>0.980250464328668</v>
       </c>
       <c r="J42">
-        <v>4.74600799138643</v>
+        <v>3.84327043329747</v>
       </c>
       <c r="K42">
-        <v>4.7641093814856</v>
+        <v>3.34137722135122</v>
       </c>
       <c r="L42">
-        <v>8.102290583648241</v>
+        <v>7.01942982434865</v>
       </c>
       <c r="M42">
-        <v>4.86522816550688</v>
+        <v>3.78858222696972</v>
       </c>
       <c r="N42">
-        <v>11.1825895235647</v>
+        <v>9.090139364701029</v>
       </c>
       <c r="O42">
-        <v>377.973276962402</v>
+        <v>303.968008759015</v>
       </c>
       <c r="P42">
-        <v>56.0288558713251</v>
+        <v>45.9272616821632</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1489.28909917831</v>
+        <v>1496.56367135785</v>
       </c>
       <c r="C43">
-        <v>38.3435228852753</v>
+        <v>44.3340535406887</v>
       </c>
       <c r="D43">
-        <v>29.4785585008658</v>
+        <v>26.5019631359895</v>
       </c>
       <c r="E43">
-        <v>75.5554944426265</v>
+        <v>95.1120393961187</v>
       </c>
       <c r="F43">
-        <v>6.08869929314422</v>
+        <v>4.33118352156197</v>
       </c>
       <c r="G43">
-        <v>28.318949294274</v>
+        <v>29.9235300049323</v>
       </c>
       <c r="H43">
-        <v>44.0254597352206</v>
+        <v>40.1997670402749</v>
       </c>
       <c r="I43">
-        <v>21.1198884019547</v>
+        <v>27.4348347505866</v>
       </c>
       <c r="J43">
-        <v>52.6798799491068</v>
+        <v>57.5590507307661</v>
       </c>
       <c r="K43">
-        <v>24.0993788553895</v>
+        <v>11.7222286361155</v>
       </c>
       <c r="L43">
-        <v>40.8762663191263</v>
+        <v>50.3378942510777</v>
       </c>
       <c r="M43">
-        <v>107.88122091323</v>
+        <v>109.959602939549</v>
       </c>
       <c r="N43">
-        <v>64.1970454288825</v>
+        <v>67.06192470270371</v>
       </c>
       <c r="O43">
-        <v>2066.64351354141</v>
+        <v>2082.82827158874</v>
       </c>
       <c r="P43">
-        <v>41.3096027956107</v>
+        <v>39.0647756366936</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4522.66880443042</v>
+        <v>4556.73258526647</v>
       </c>
       <c r="C44">
-        <v>148.596776361623</v>
+        <v>158.799598114467</v>
       </c>
       <c r="D44">
-        <v>28.6838545258138</v>
+        <v>17.516107059133</v>
       </c>
       <c r="E44">
-        <v>95.5682978890505</v>
+        <v>106.35510883193</v>
       </c>
       <c r="F44">
-        <v>228.773454918973</v>
+        <v>246.783086323058</v>
       </c>
       <c r="G44">
-        <v>118.502555647634</v>
+        <v>107.356528372344</v>
       </c>
       <c r="H44">
-        <v>39.8334054565565</v>
+        <v>42.0590214354529</v>
       </c>
       <c r="I44">
-        <v>42.2326846830122</v>
+        <v>39.2328167364721</v>
       </c>
       <c r="J44">
-        <v>105.310637222283</v>
+        <v>107.690736326369</v>
       </c>
       <c r="K44">
-        <v>45.4217388194936</v>
+        <v>35.0069114937284</v>
       </c>
       <c r="L44">
-        <v>166.441817323377</v>
+        <v>150.564601037308</v>
       </c>
       <c r="M44">
-        <v>84.3713083281414</v>
+        <v>83.3548280342807</v>
       </c>
       <c r="N44">
-        <v>89.9923930172086</v>
+        <v>103.103849713315</v>
       </c>
       <c r="O44">
-        <v>8155.49585678115</v>
+        <v>8351.11358013994</v>
       </c>
       <c r="P44">
-        <v>215.052646205074</v>
+        <v>254.344920201225</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>432.220669100238</v>
+        <v>418.325726668623</v>
       </c>
       <c r="C45">
-        <v>19.0078983707264</v>
+        <v>20.3447915013232</v>
       </c>
       <c r="D45">
-        <v>2.22704233253112</v>
+        <v>2.33951824828104</v>
       </c>
       <c r="E45">
-        <v>21.9036675869068</v>
+        <v>22.9034262602078</v>
       </c>
       <c r="F45">
-        <v>24.6187380867506</v>
+        <v>23.0169135236998</v>
       </c>
       <c r="G45">
-        <v>6.91576379077358</v>
+        <v>6.48322826286772</v>
       </c>
       <c r="H45">
-        <v>2.85976787432984</v>
+        <v>3.59476202815677</v>
       </c>
       <c r="I45">
-        <v>3.96237101461041</v>
+        <v>4.14394655855486</v>
       </c>
       <c r="J45">
-        <v>22.0089118846718</v>
+        <v>20.2338657201129</v>
       </c>
       <c r="K45">
-        <v>3.83234254761462</v>
+        <v>4.92102276742688</v>
       </c>
       <c r="L45">
-        <v>15.2608926920194</v>
+        <v>15.794618200304</v>
       </c>
       <c r="M45">
-        <v>14.4670782872629</v>
+        <v>14.5711747056024</v>
       </c>
       <c r="N45">
-        <v>27.948952354817</v>
+        <v>24.3123160843536</v>
       </c>
       <c r="O45">
-        <v>869.685625861401</v>
+        <v>835.679628326768</v>
       </c>
       <c r="P45">
-        <v>21.6583542172974</v>
+        <v>20.1934202398401</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>124.346394752265</v>
+        <v>100.733011422491</v>
       </c>
       <c r="C46">
-        <v>5.30570249213969</v>
+        <v>4.14779771407194</v>
       </c>
       <c r="D46">
-        <v>0.840267557262441</v>
+        <v>0.7308835861852681</v>
       </c>
       <c r="E46">
-        <v>6.11275980651864</v>
+        <v>4.64325879947903</v>
       </c>
       <c r="F46">
-        <v>0.831828092402236</v>
+        <v>0.746640613229414</v>
       </c>
       <c r="G46">
-        <v>2.43603793748915</v>
+        <v>2.26906267942936</v>
       </c>
       <c r="H46">
-        <v>1.10701602096779</v>
+        <v>0.9197392740178491</v>
       </c>
       <c r="I46">
-        <v>1.63215128672568</v>
+        <v>1.5251701431036</v>
       </c>
       <c r="J46">
-        <v>5.09388421111013</v>
+        <v>4.27692845296818</v>
       </c>
       <c r="K46">
-        <v>2.4202197147982</v>
+        <v>0.851877563774461</v>
       </c>
       <c r="L46">
-        <v>13.6763337553987</v>
+        <v>10.8173813232708</v>
       </c>
       <c r="M46">
-        <v>3.51395678029902</v>
+        <v>2.76471089257866</v>
       </c>
       <c r="N46">
-        <v>11.2463443110665</v>
+        <v>10.0744901742097</v>
       </c>
       <c r="O46">
-        <v>325.509549073392</v>
+        <v>267.298882441218</v>
       </c>
       <c r="P46">
-        <v>10.5949062483624</v>
+        <v>9.50334506020705</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1536.72522982517</v>
+        <v>1573.29396625961</v>
       </c>
       <c r="C47">
-        <v>48.8613680219639</v>
+        <v>47.5772967419551</v>
       </c>
       <c r="D47">
-        <v>19.3112189220201</v>
+        <v>22.7205394285052</v>
       </c>
       <c r="E47">
-        <v>51.1053942762963</v>
+        <v>59.3508221976083</v>
       </c>
       <c r="F47">
-        <v>9.97175214965476</v>
+        <v>12.9702396710949</v>
       </c>
       <c r="G47">
-        <v>22.4609189006809</v>
+        <v>20.7590762592892</v>
       </c>
       <c r="H47">
-        <v>11.6927231864188</v>
+        <v>10.8924654650328</v>
       </c>
       <c r="I47">
-        <v>4.68259274621733</v>
+        <v>3.53325678741393</v>
       </c>
       <c r="J47">
-        <v>37.1803461044833</v>
+        <v>47.2895134594136</v>
       </c>
       <c r="K47">
-        <v>8.738222691815601</v>
+        <v>5.81718312541793</v>
       </c>
       <c r="L47">
-        <v>27.0969149629936</v>
+        <v>27.1553556386101</v>
       </c>
       <c r="M47">
-        <v>65.5699051343462</v>
+        <v>73.37213747371661</v>
       </c>
       <c r="N47">
-        <v>34.3213540075501</v>
+        <v>38.4503174592456</v>
       </c>
       <c r="O47">
-        <v>2958.56219948327</v>
+        <v>2955.05168980057</v>
       </c>
       <c r="P47">
-        <v>37.3798504151096</v>
+        <v>39.4176360979396</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1316.18568193314</v>
+        <v>1313.34171751142</v>
       </c>
       <c r="C48">
-        <v>32.1925076785141</v>
+        <v>29.7058639612424</v>
       </c>
       <c r="D48">
-        <v>5.36197970430977</v>
+        <v>4.35329186934954</v>
       </c>
       <c r="E48">
-        <v>69.6786116373036</v>
+        <v>74.9710267796919</v>
       </c>
       <c r="F48">
-        <v>8.91984715288025</v>
+        <v>8.035833418751411</v>
       </c>
       <c r="G48">
-        <v>6.30655891564739</v>
+        <v>5.6054711636841</v>
       </c>
       <c r="H48">
-        <v>4.22014857744485</v>
+        <v>3.43566055544057</v>
       </c>
       <c r="I48">
-        <v>9.323487087001361</v>
+        <v>9.77918892834192</v>
       </c>
       <c r="J48">
-        <v>36.2029035093595</v>
+        <v>35.6387426441334</v>
       </c>
       <c r="K48">
-        <v>9.739229741275251</v>
+        <v>8.667296967724949</v>
       </c>
       <c r="L48">
-        <v>48.9738158259933</v>
+        <v>50.6139953375678</v>
       </c>
       <c r="M48">
-        <v>130.473414158022</v>
+        <v>131.086829567339</v>
       </c>
       <c r="N48">
-        <v>36.6868217464996</v>
+        <v>35.8029767665702</v>
       </c>
       <c r="O48">
-        <v>2373.66361225723</v>
+        <v>2405.35734977019</v>
       </c>
       <c r="P48">
-        <v>88.492351106106</v>
+        <v>105.20770473087</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>686.368231887623</v>
+        <v>626.418212942951</v>
       </c>
       <c r="C49">
-        <v>5.5680470762757</v>
+        <v>4.83477495988971</v>
       </c>
       <c r="D49">
-        <v>2.32598929744303</v>
+        <v>3.23441827340569</v>
       </c>
       <c r="E49">
-        <v>24.082299271281</v>
+        <v>23.0589260191857</v>
       </c>
       <c r="F49">
-        <v>27.9285789385641</v>
+        <v>27.6793132438544</v>
       </c>
       <c r="G49">
-        <v>13.8069099943984</v>
+        <v>11.6953109152068</v>
       </c>
       <c r="H49">
-        <v>7.31582833361776</v>
+        <v>8.693479664288059</v>
       </c>
       <c r="I49">
-        <v>4.18909264835727</v>
+        <v>3.34480490714839</v>
       </c>
       <c r="J49">
-        <v>22.1077000158859</v>
+        <v>19.2421609190932</v>
       </c>
       <c r="K49">
-        <v>2.62388182467653</v>
+        <v>1.58725775233859</v>
       </c>
       <c r="L49">
-        <v>1.39183708492534</v>
+        <v>1.05126070368692</v>
       </c>
       <c r="M49">
-        <v>5.62475243157502</v>
+        <v>3.99820736729591</v>
       </c>
       <c r="N49">
-        <v>4.72305266963162</v>
+        <v>4.34670580161304</v>
       </c>
       <c r="O49">
-        <v>635.5135980711031</v>
+        <v>589.162121832427</v>
       </c>
       <c r="P49">
-        <v>7.85550344682906</v>
+        <v>6.74426073688902</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>957.634285992246</v>
+        <v>946.6569177025571</v>
       </c>
       <c r="C50">
-        <v>74.9798048207556</v>
+        <v>79.6452566985697</v>
       </c>
       <c r="D50">
-        <v>11.5946377329659</v>
+        <v>11.8971291564074</v>
       </c>
       <c r="E50">
-        <v>140.695892710806</v>
+        <v>155.381332736183</v>
       </c>
       <c r="F50">
-        <v>3.93602960904946</v>
+        <v>5.02176581673478</v>
       </c>
       <c r="G50">
-        <v>29.9936914895229</v>
+        <v>31.1782719951973</v>
       </c>
       <c r="H50">
-        <v>36.2522160419303</v>
+        <v>37.7975689865071</v>
       </c>
       <c r="I50">
-        <v>14.2381380292009</v>
+        <v>18.1825258649419</v>
       </c>
       <c r="J50">
-        <v>98.1519794869061</v>
+        <v>104.97448865026</v>
       </c>
       <c r="K50">
-        <v>56.8279962470951</v>
+        <v>47.7578631442811</v>
       </c>
       <c r="L50">
-        <v>56.6735169318661</v>
+        <v>53.631703627962</v>
       </c>
       <c r="M50">
-        <v>43.0465046672495</v>
+        <v>46.6864506887732</v>
       </c>
       <c r="N50">
-        <v>55.0168720660879</v>
+        <v>55.6604203136282</v>
       </c>
       <c r="O50">
-        <v>2126.47222254952</v>
+        <v>2160.89818599348</v>
       </c>
       <c r="P50">
-        <v>86.66178048366351</v>
+        <v>79.31497364495669</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.031390637006</v>
+        <v>89.715399489685</v>
       </c>
       <c r="C51">
-        <v>4.12021834388583</v>
+        <v>3.13749727743192</v>
       </c>
       <c r="D51">
-        <v>0.0272029370910394</v>
+        <v>0.0172232382250286</v>
       </c>
       <c r="E51">
-        <v>2.34341398964919</v>
+        <v>1.60837073617343</v>
       </c>
       <c r="F51">
-        <v>33.2537538295177</v>
+        <v>24.7667453189435</v>
       </c>
       <c r="G51">
-        <v>2.29972574894973</v>
+        <v>1.86446019011415</v>
       </c>
       <c r="H51">
-        <v>0.00529845021879851</v>
+        <v>0.00525277046347631</v>
       </c>
       <c r="I51">
-        <v>1.19047958681554</v>
+        <v>0.68534242296721</v>
       </c>
       <c r="J51">
-        <v>1.12501900039183</v>
+        <v>0.636909278372864</v>
       </c>
       <c r="K51">
-        <v>0.96095146116396</v>
+        <v>0.250581671776711</v>
       </c>
       <c r="L51">
-        <v>0.613655405331152</v>
+        <v>0.358684912579737</v>
       </c>
       <c r="M51">
-        <v>0.376364728198572</v>
+        <v>0.286009158783054</v>
       </c>
       <c r="N51">
-        <v>1.12142435669577</v>
+        <v>0.463041393988743</v>
       </c>
       <c r="O51">
-        <v>283.824560642425</v>
+        <v>205.996686366821</v>
       </c>
       <c r="P51">
-        <v>28.2401836093627</v>
+        <v>21.3931007359796</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1302.26372948955</v>
+        <v>1452.15917954981</v>
       </c>
       <c r="C2">
-        <v>22.6285832214183</v>
+        <v>24.9761365347087</v>
       </c>
       <c r="D2">
-        <v>34.5583023970227</v>
+        <v>25.7512791234547</v>
       </c>
       <c r="E2">
-        <v>61.8448270096499</v>
+        <v>47.2557979181354</v>
       </c>
       <c r="F2">
-        <v>23.1525984074422</v>
+        <v>17.6714106438543</v>
       </c>
       <c r="G2">
-        <v>10.011711196016</v>
+        <v>14.0015656707145</v>
       </c>
       <c r="H2">
-        <v>20.0736851045791</v>
+        <v>14.4577449244015</v>
       </c>
       <c r="I2">
-        <v>17.8467237661982</v>
+        <v>7.58146824644242</v>
       </c>
       <c r="J2">
-        <v>86.17898807644291</v>
+        <v>83.8004854074476</v>
       </c>
       <c r="K2">
-        <v>14.1991581729925</v>
+        <v>14.8619336906656</v>
       </c>
       <c r="L2">
-        <v>55.1443531977341</v>
+        <v>45.9010351288292</v>
       </c>
       <c r="M2">
-        <v>37.2839691756216</v>
+        <v>34.9865192013352</v>
       </c>
       <c r="N2">
-        <v>24.8535691388662</v>
+        <v>26.4992509530213</v>
       </c>
       <c r="O2">
-        <v>1440.67589586308</v>
+        <v>1332.9125918664</v>
       </c>
       <c r="P2">
-        <v>20.6056194158442</v>
+        <v>20.3280127461364</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>99.492655394819</v>
+        <v>119.225231075766</v>
       </c>
       <c r="C3">
-        <v>3.49058729290687</v>
+        <v>3.99906122040977</v>
       </c>
       <c r="D3">
-        <v>0.328285667728362</v>
+        <v>0.377677377995518</v>
       </c>
       <c r="E3">
-        <v>1.1217418197664</v>
+        <v>1.28620329321393</v>
       </c>
       <c r="F3">
-        <v>6.34445524924613</v>
+        <v>5.35604020201462</v>
       </c>
       <c r="G3">
-        <v>0.0796116074449591</v>
+        <v>0.177651772830241</v>
       </c>
       <c r="H3">
-        <v>0.111808730731442</v>
+        <v>0.0603749233802256</v>
       </c>
       <c r="I3">
-        <v>0.644453798872949</v>
+        <v>0.847588508273616</v>
       </c>
       <c r="J3">
-        <v>0.287579307089455</v>
+        <v>0.329717402497333</v>
       </c>
       <c r="K3">
-        <v>0.0175894946707828</v>
+        <v>0.0182928015963322</v>
       </c>
       <c r="L3">
-        <v>0.0233132301677523</v>
+        <v>0.0334277392231837</v>
       </c>
       <c r="M3">
-        <v>0.483246003156011</v>
+        <v>0.248762678236509</v>
       </c>
       <c r="N3">
-        <v>0.824555169776374</v>
+        <v>0.5435381599010271</v>
       </c>
       <c r="O3">
-        <v>230.417682887471</v>
+        <v>213.549990607769</v>
       </c>
       <c r="P3">
-        <v>10.7402725044886</v>
+        <v>8.66441745632099</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1359.288915798</v>
+        <v>1582.41661341785</v>
       </c>
       <c r="C4">
-        <v>10.5211619283514</v>
+        <v>5.63373641991123</v>
       </c>
       <c r="D4">
-        <v>3.08224183041328</v>
+        <v>3.98059477520803</v>
       </c>
       <c r="E4">
-        <v>23.8920073555963</v>
+        <v>23.3499486716561</v>
       </c>
       <c r="F4">
-        <v>8.04635614418738</v>
+        <v>3.89826437536657</v>
       </c>
       <c r="G4">
-        <v>7.24248337642096</v>
+        <v>5.96583728974307</v>
       </c>
       <c r="H4">
-        <v>15.7344582623614</v>
+        <v>14.2503515030016</v>
       </c>
       <c r="I4">
-        <v>8.8623501016517</v>
+        <v>10.1330007084598</v>
       </c>
       <c r="J4">
-        <v>29.5008597857877</v>
+        <v>22.1401970463679</v>
       </c>
       <c r="K4">
-        <v>3.21050628138279</v>
+        <v>4.1608682843525</v>
       </c>
       <c r="L4">
-        <v>68.8101802626192</v>
+        <v>42.3332328966319</v>
       </c>
       <c r="M4">
-        <v>42.8867355811543</v>
+        <v>38.9947070802321</v>
       </c>
       <c r="N4">
-        <v>29.5647278660406</v>
+        <v>23.751152360583</v>
       </c>
       <c r="O4">
-        <v>2198.16193165662</v>
+        <v>2024.84217206157</v>
       </c>
       <c r="P4">
-        <v>16.3966617707821</v>
+        <v>14.2180141738732</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>693.080820092812</v>
+        <v>834.734120820264</v>
       </c>
       <c r="C5">
-        <v>50.4792923471431</v>
+        <v>38.5339637334818</v>
       </c>
       <c r="D5">
-        <v>10.4415706576826</v>
+        <v>8.532674944785621</v>
       </c>
       <c r="E5">
-        <v>40.893660090178</v>
+        <v>36.058049757597</v>
       </c>
       <c r="F5">
-        <v>9.02998355654225</v>
+        <v>6.1849879342184</v>
       </c>
       <c r="G5">
-        <v>3.94381908439375</v>
+        <v>2.9135855746391</v>
       </c>
       <c r="H5">
-        <v>11.3236449451454</v>
+        <v>7.94364339676693</v>
       </c>
       <c r="I5">
-        <v>5.61502674784633</v>
+        <v>4.56796686570041</v>
       </c>
       <c r="J5">
-        <v>35.6890983075199</v>
+        <v>30.2697621248662</v>
       </c>
       <c r="K5">
-        <v>6.88919050304191</v>
+        <v>5.05537363363551</v>
       </c>
       <c r="L5">
-        <v>19.1955114285666</v>
+        <v>15.3432226769233</v>
       </c>
       <c r="M5">
-        <v>24.5332331758631</v>
+        <v>18.8322730785819</v>
       </c>
       <c r="N5">
-        <v>21.9227368139277</v>
+        <v>14.089421428957</v>
       </c>
       <c r="O5">
-        <v>975.079107085292</v>
+        <v>870.028570418013</v>
       </c>
       <c r="P5">
-        <v>57.4376916034009</v>
+        <v>46.154185691105</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7754.86680761027</v>
+        <v>9223.01437919506</v>
       </c>
       <c r="C6">
-        <v>220.57290885259</v>
+        <v>174.131605649162</v>
       </c>
       <c r="D6">
-        <v>49.9644388044595</v>
+        <v>27.0922764574962</v>
       </c>
       <c r="E6">
-        <v>181.706397686581</v>
+        <v>160.951849290244</v>
       </c>
       <c r="F6">
-        <v>45.5084902671454</v>
+        <v>39.9044215913186</v>
       </c>
       <c r="G6">
-        <v>146.322701060583</v>
+        <v>133.710596078768</v>
       </c>
       <c r="H6">
-        <v>52.5826875962051</v>
+        <v>46.5567879362532</v>
       </c>
       <c r="I6">
-        <v>50.6313446196829</v>
+        <v>41.7509500509475</v>
       </c>
       <c r="J6">
-        <v>196.504125423145</v>
+        <v>189.737090970061</v>
       </c>
       <c r="K6">
-        <v>54.9999924237177</v>
+        <v>24.3859255867864</v>
       </c>
       <c r="L6">
-        <v>517.732653161939</v>
+        <v>443.133976600101</v>
       </c>
       <c r="M6">
-        <v>264.552741316862</v>
+        <v>212.873466861024</v>
       </c>
       <c r="N6">
-        <v>272.360760370443</v>
+        <v>210.901043748658</v>
       </c>
       <c r="O6">
-        <v>12951.8410599267</v>
+        <v>11931.7542478084</v>
       </c>
       <c r="P6">
-        <v>339.928619388373</v>
+        <v>285.040255635747</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>796.06130926332</v>
+        <v>971.219691047952</v>
       </c>
       <c r="C7">
-        <v>42.7211343145284</v>
+        <v>34.7921191061755</v>
       </c>
       <c r="D7">
-        <v>3.93497350744447</v>
+        <v>6.93798299503272</v>
       </c>
       <c r="E7">
-        <v>24.7255165170747</v>
+        <v>18.511154257547</v>
       </c>
       <c r="F7">
-        <v>10.778362098448</v>
+        <v>11.3963718388136</v>
       </c>
       <c r="G7">
-        <v>6.83873578775997</v>
+        <v>5.00172129462609</v>
       </c>
       <c r="H7">
-        <v>2.63477050637976</v>
+        <v>1.63788043791885</v>
       </c>
       <c r="I7">
-        <v>9.74069596233112</v>
+        <v>9.762693258895659</v>
       </c>
       <c r="J7">
-        <v>18.6734717005552</v>
+        <v>16.6563789917886</v>
       </c>
       <c r="K7">
-        <v>2.94694118069913</v>
+        <v>4.78157856684518</v>
       </c>
       <c r="L7">
-        <v>59.5847267413323</v>
+        <v>54.1968097740646</v>
       </c>
       <c r="M7">
-        <v>17.0447809309972</v>
+        <v>12.7553559616849</v>
       </c>
       <c r="N7">
-        <v>28.1398550762812</v>
+        <v>28.5369979410318</v>
       </c>
       <c r="O7">
-        <v>1984.47268466837</v>
+        <v>1846.79362831243</v>
       </c>
       <c r="P7">
-        <v>27.8221950361484</v>
+        <v>26.7884239131097</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>656.370521109548</v>
+        <v>855.453199314264</v>
       </c>
       <c r="C8">
-        <v>14.8298537966971</v>
+        <v>8.73362221817113</v>
       </c>
       <c r="D8">
-        <v>3.43164086028332</v>
+        <v>2.37938562528039</v>
       </c>
       <c r="E8">
-        <v>23.7988364724726</v>
+        <v>19.2981820826741</v>
       </c>
       <c r="F8">
-        <v>4.39823116552506</v>
+        <v>4.09656232947741</v>
       </c>
       <c r="G8">
-        <v>27.0543652963014</v>
+        <v>22.7631673548286</v>
       </c>
       <c r="H8">
-        <v>10.6706770516704</v>
+        <v>9.82695075214547</v>
       </c>
       <c r="I8">
-        <v>7.39018014869262</v>
+        <v>8.64835217102406</v>
       </c>
       <c r="J8">
-        <v>36.9964248151241</v>
+        <v>33.6821780757509</v>
       </c>
       <c r="K8">
-        <v>12.6125590082804</v>
+        <v>10.7473395214762</v>
       </c>
       <c r="L8">
-        <v>51.5633688985472</v>
+        <v>46.3316183261099</v>
       </c>
       <c r="M8">
-        <v>55.1201418768895</v>
+        <v>53.7339970281803</v>
       </c>
       <c r="N8">
-        <v>23.7670761812621</v>
+        <v>17.1743032270015</v>
       </c>
       <c r="O8">
-        <v>1434.17465760232</v>
+        <v>1278.86424115506</v>
       </c>
       <c r="P8">
-        <v>6.98869744740247</v>
+        <v>4.64394686773949</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>177.50229932559</v>
+        <v>223.219393909286</v>
       </c>
       <c r="C9">
-        <v>8.109493275531779</v>
+        <v>6.35172632848619</v>
       </c>
       <c r="D9">
-        <v>1.44283188969364</v>
+        <v>1.94989446878925</v>
       </c>
       <c r="E9">
-        <v>3.91134862704599</v>
+        <v>3.16057835481074</v>
       </c>
       <c r="F9">
-        <v>0.743786981814011</v>
+        <v>1.90059718394822</v>
       </c>
       <c r="G9">
-        <v>20.1490925374966</v>
+        <v>16.5259800316717</v>
       </c>
       <c r="H9">
-        <v>3.62411457468274</v>
+        <v>2.16176368602774</v>
       </c>
       <c r="I9">
-        <v>1.04446844650379</v>
+        <v>1.65913892954165</v>
       </c>
       <c r="J9">
-        <v>5.12000106554304</v>
+        <v>5.4901723755282</v>
       </c>
       <c r="K9">
-        <v>0.764251885054131</v>
+        <v>1.08999269570008</v>
       </c>
       <c r="L9">
-        <v>2.58347832413947</v>
+        <v>3.27368348900498</v>
       </c>
       <c r="M9">
-        <v>8.01890101112469</v>
+        <v>6.22462188966596</v>
       </c>
       <c r="N9">
-        <v>4.19788613981319</v>
+        <v>3.16882192572779</v>
       </c>
       <c r="O9">
-        <v>329.02425158705</v>
+        <v>287.852706740801</v>
       </c>
       <c r="P9">
-        <v>5.68223900325722</v>
+        <v>3.77633815754621</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4148.92543316194</v>
+        <v>5360.06471060286</v>
       </c>
       <c r="C10">
-        <v>80.47902006166351</v>
+        <v>66.2063519462917</v>
       </c>
       <c r="D10">
-        <v>15.0129505200234</v>
+        <v>8.105095294209759</v>
       </c>
       <c r="E10">
-        <v>59.1558908986505</v>
+        <v>46.3244822166954</v>
       </c>
       <c r="F10">
-        <v>12.3075576792397</v>
+        <v>11.9817004168909</v>
       </c>
       <c r="G10">
-        <v>47.4284784918657</v>
+        <v>30.1421799596937</v>
       </c>
       <c r="H10">
-        <v>15.0573908458986</v>
+        <v>21.2530498289025</v>
       </c>
       <c r="I10">
-        <v>41.7941577083834</v>
+        <v>24.995974390532</v>
       </c>
       <c r="J10">
-        <v>63.7522501510462</v>
+        <v>52.0517263383287</v>
       </c>
       <c r="K10">
-        <v>11.5492212126611</v>
+        <v>7.21084439295002</v>
       </c>
       <c r="L10">
-        <v>78.6648619256404</v>
+        <v>69.0279192868683</v>
       </c>
       <c r="M10">
-        <v>73.06574763712339</v>
+        <v>65.8219140061815</v>
       </c>
       <c r="N10">
-        <v>87.9294983308989</v>
+        <v>76.6664490144647</v>
       </c>
       <c r="O10">
-        <v>7518.96287988797</v>
+        <v>6461.72112519727</v>
       </c>
       <c r="P10">
-        <v>86.74474829087271</v>
+        <v>89.5603548398074</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1881.38695223015</v>
+        <v>2239.23095682787</v>
       </c>
       <c r="C11">
-        <v>65.7456506848843</v>
+        <v>64.8306872163878</v>
       </c>
       <c r="D11">
-        <v>169.550699183182</v>
+        <v>150.503953641705</v>
       </c>
       <c r="E11">
-        <v>76.51912358524839</v>
+        <v>57.1819594452903</v>
       </c>
       <c r="F11">
-        <v>4.48495517268055</v>
+        <v>7.3550720921817</v>
       </c>
       <c r="G11">
-        <v>33.2687828357647</v>
+        <v>20.6132814412983</v>
       </c>
       <c r="H11">
-        <v>18.6257530101959</v>
+        <v>11.9135869553788</v>
       </c>
       <c r="I11">
-        <v>11.9863925672993</v>
+        <v>24.1790405261015</v>
       </c>
       <c r="J11">
-        <v>49.1102754769993</v>
+        <v>45.7943654425668</v>
       </c>
       <c r="K11">
-        <v>10.5551130220022</v>
+        <v>2.46550562842126</v>
       </c>
       <c r="L11">
-        <v>51.4453362244382</v>
+        <v>59.3685811848919</v>
       </c>
       <c r="M11">
-        <v>41.1208952839626</v>
+        <v>33.3135437402396</v>
       </c>
       <c r="N11">
-        <v>55.8667229845204</v>
+        <v>54.4630706297</v>
       </c>
       <c r="O11">
-        <v>3262.09875593067</v>
+        <v>2906.83052599801</v>
       </c>
       <c r="P11">
-        <v>56.5850668828287</v>
+        <v>45.8554020721069</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>253.923872681602</v>
+        <v>323.845906497074</v>
       </c>
       <c r="C12">
-        <v>5.89988435188345</v>
+        <v>6.93233601416084</v>
       </c>
       <c r="D12">
-        <v>0.339848196463109</v>
+        <v>0.395509979798999</v>
       </c>
       <c r="E12">
-        <v>4.37943774454685</v>
+        <v>3.85876912859311</v>
       </c>
       <c r="F12">
-        <v>1.25239115859813</v>
+        <v>1.66245518850776</v>
       </c>
       <c r="G12">
-        <v>0.743591918381339</v>
+        <v>1.60696062352252</v>
       </c>
       <c r="H12">
-        <v>0.295088457124306</v>
+        <v>0.207032942824072</v>
       </c>
       <c r="I12">
-        <v>0.942516271724842</v>
+        <v>0.7259038743030291</v>
       </c>
       <c r="J12">
-        <v>1.64670603582863</v>
+        <v>0.769550966526777</v>
       </c>
       <c r="K12">
-        <v>0.0154391116825555</v>
+        <v>0.0435629445020496</v>
       </c>
       <c r="L12">
-        <v>0.476773819135842</v>
+        <v>0.817071194225527</v>
       </c>
       <c r="M12">
-        <v>2.87481110288388</v>
+        <v>2.18220744062618</v>
       </c>
       <c r="N12">
-        <v>2.09245264143077</v>
+        <v>1.44165918330045</v>
       </c>
       <c r="O12">
-        <v>527.735696408799</v>
+        <v>472.886799284349</v>
       </c>
       <c r="P12">
-        <v>20.7247483491786</v>
+        <v>11.8200903988417</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>230.177825040432</v>
+        <v>311.187422004401</v>
       </c>
       <c r="C13">
-        <v>18.5629890122656</v>
+        <v>16.9230745078809</v>
       </c>
       <c r="D13">
-        <v>0.714518346713347</v>
+        <v>0.60112123193319</v>
       </c>
       <c r="E13">
-        <v>10.8041239726081</v>
+        <v>7.44958661690354</v>
       </c>
       <c r="F13">
-        <v>2.11789703760475</v>
+        <v>1.45216222099526</v>
       </c>
       <c r="G13">
-        <v>5.58805827512607</v>
+        <v>4.51714128371345</v>
       </c>
       <c r="H13">
-        <v>2.70170907805315</v>
+        <v>1.78116498457685</v>
       </c>
       <c r="I13">
-        <v>1.84425864866401</v>
+        <v>2.77424991941963</v>
       </c>
       <c r="J13">
-        <v>5.03871341500335</v>
+        <v>1.76546351056142</v>
       </c>
       <c r="K13">
-        <v>3.17489178384347</v>
+        <v>3.42733914559096</v>
       </c>
       <c r="L13">
-        <v>14.6975049162269</v>
+        <v>10.8890392439839</v>
       </c>
       <c r="M13">
-        <v>1.2901798192445</v>
+        <v>0.886514351075167</v>
       </c>
       <c r="N13">
-        <v>4.39436995638871</v>
+        <v>1.62297611049351</v>
       </c>
       <c r="O13">
-        <v>539.7021283181121</v>
+        <v>490.63551966991</v>
       </c>
       <c r="P13">
-        <v>47.0934055668099</v>
+        <v>43.8621880462253</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2552.65725367007</v>
+        <v>3298.90952699649</v>
       </c>
       <c r="C14">
-        <v>121.847354888135</v>
+        <v>116.904079250335</v>
       </c>
       <c r="D14">
-        <v>12.0149672564187</v>
+        <v>5.18437178122856</v>
       </c>
       <c r="E14">
-        <v>105.650084631233</v>
+        <v>98.67537175336371</v>
       </c>
       <c r="F14">
-        <v>20.1419119665622</v>
+        <v>21.1931324309251</v>
       </c>
       <c r="G14">
-        <v>76.79736084524799</v>
+        <v>64.55107099104281</v>
       </c>
       <c r="H14">
-        <v>39.9401224753717</v>
+        <v>30.6715256949247</v>
       </c>
       <c r="I14">
-        <v>24.5517950192086</v>
+        <v>18.8555052410196</v>
       </c>
       <c r="J14">
-        <v>136.923361119238</v>
+        <v>117.000785300289</v>
       </c>
       <c r="K14">
-        <v>122.622027710174</v>
+        <v>112.597233607896</v>
       </c>
       <c r="L14">
-        <v>116.758302155809</v>
+        <v>88.0714746188722</v>
       </c>
       <c r="M14">
-        <v>86.06164763153291</v>
+        <v>73.8332633554692</v>
       </c>
       <c r="N14">
-        <v>91.99048104866139</v>
+        <v>68.4258594364688</v>
       </c>
       <c r="O14">
-        <v>4923.62763356263</v>
+        <v>4342.26415186266</v>
       </c>
       <c r="P14">
-        <v>70.23220452311909</v>
+        <v>58.8800480402511</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1251.65188289456</v>
+        <v>1553.40911090634</v>
       </c>
       <c r="C15">
-        <v>47.6362142109472</v>
+        <v>30.0624349221171</v>
       </c>
       <c r="D15">
-        <v>13.07818596518</v>
+        <v>16.1755661020207</v>
       </c>
       <c r="E15">
-        <v>83.88928706895619</v>
+        <v>80.2506610875696</v>
       </c>
       <c r="F15">
-        <v>26.8697600843401</v>
+        <v>20.2254131887492</v>
       </c>
       <c r="G15">
-        <v>50.7754608809655</v>
+        <v>47.6721877175941</v>
       </c>
       <c r="H15">
-        <v>38.4886590576961</v>
+        <v>29.771224944073</v>
       </c>
       <c r="I15">
-        <v>26.1648219040025</v>
+        <v>24.0745748157956</v>
       </c>
       <c r="J15">
-        <v>172.67745762168</v>
+        <v>155.430331902552</v>
       </c>
       <c r="K15">
-        <v>17.7669615390053</v>
+        <v>14.245027066402</v>
       </c>
       <c r="L15">
-        <v>38.8449614829896</v>
+        <v>26.4081912384972</v>
       </c>
       <c r="M15">
-        <v>180.020067145402</v>
+        <v>163.886924215753</v>
       </c>
       <c r="N15">
-        <v>92.7465780607814</v>
+        <v>71.6641339617791</v>
       </c>
       <c r="O15">
-        <v>2196.45070769364</v>
+        <v>1987.12337437939</v>
       </c>
       <c r="P15">
-        <v>44.4329229712223</v>
+        <v>47.1867871943389</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>479.347143301815</v>
+        <v>648.767421361107</v>
       </c>
       <c r="C16">
-        <v>62.0671293449297</v>
+        <v>49.4982909822601</v>
       </c>
       <c r="D16">
-        <v>6.80335899143931</v>
+        <v>6.4102769937211</v>
       </c>
       <c r="E16">
-        <v>27.6527456663062</v>
+        <v>24.4907520164441</v>
       </c>
       <c r="F16">
-        <v>2.28399078602218</v>
+        <v>1.94619631400157</v>
       </c>
       <c r="G16">
-        <v>22.5495356946652</v>
+        <v>20.7450262941676</v>
       </c>
       <c r="H16">
-        <v>15.4992327070011</v>
+        <v>12.0992116035732</v>
       </c>
       <c r="I16">
-        <v>7.94515616939576</v>
+        <v>6.61411791631497</v>
       </c>
       <c r="J16">
-        <v>49.8561741935596</v>
+        <v>49.6274207422601</v>
       </c>
       <c r="K16">
-        <v>38.8440046497166</v>
+        <v>33.7590491966259</v>
       </c>
       <c r="L16">
-        <v>24.933918236633</v>
+        <v>24.5829543940082</v>
       </c>
       <c r="M16">
-        <v>24.1061446934264</v>
+        <v>26.2030976073233</v>
       </c>
       <c r="N16">
-        <v>27.1663170334665</v>
+        <v>25.0581357018068</v>
       </c>
       <c r="O16">
-        <v>1179.0324262308</v>
+        <v>1041.74012784786</v>
       </c>
       <c r="P16">
-        <v>77.2758423773865</v>
+        <v>63.8916557313268</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>494.425598106605</v>
+        <v>625.244707581962</v>
       </c>
       <c r="C17">
-        <v>19.3718165476205</v>
+        <v>16.9850572789876</v>
       </c>
       <c r="D17">
-        <v>2.80120064673138</v>
+        <v>6.6464288531604</v>
       </c>
       <c r="E17">
-        <v>29.0213255532578</v>
+        <v>25.4083029847405</v>
       </c>
       <c r="F17">
-        <v>10.048492309178</v>
+        <v>7.66287429800014</v>
       </c>
       <c r="G17">
-        <v>5.21782205261653</v>
+        <v>5.01439541866881</v>
       </c>
       <c r="H17">
-        <v>7.26783488151437</v>
+        <v>6.31420065157681</v>
       </c>
       <c r="I17">
-        <v>9.947479222531671</v>
+        <v>10.3902776274715</v>
       </c>
       <c r="J17">
-        <v>18.6695687794746</v>
+        <v>17.4695999602375</v>
       </c>
       <c r="K17">
-        <v>9.470513893586901</v>
+        <v>8.798723138905221</v>
       </c>
       <c r="L17">
-        <v>11.313791717618</v>
+        <v>5.84328464020007</v>
       </c>
       <c r="M17">
-        <v>59.5714699822196</v>
+        <v>56.5832021861157</v>
       </c>
       <c r="N17">
-        <v>14.5865227736655</v>
+        <v>13.0438662035969</v>
       </c>
       <c r="O17">
-        <v>1076.93223375075</v>
+        <v>986.170280377781</v>
       </c>
       <c r="P17">
-        <v>52.6797698368309</v>
+        <v>44.9581942510338</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1114.94032476627</v>
+        <v>1226.02679694348</v>
       </c>
       <c r="C18">
-        <v>35.5178550707291</v>
+        <v>23.4010176318887</v>
       </c>
       <c r="D18">
-        <v>2.6581329596599</v>
+        <v>11.1260773480882</v>
       </c>
       <c r="E18">
-        <v>30.8776222348958</v>
+        <v>27.1887888002728</v>
       </c>
       <c r="F18">
-        <v>28.1544567546808</v>
+        <v>22.838805718968</v>
       </c>
       <c r="G18">
-        <v>19.8400273683416</v>
+        <v>22.0895300945769</v>
       </c>
       <c r="H18">
-        <v>18.9567513802189</v>
+        <v>17.9358169269163</v>
       </c>
       <c r="I18">
-        <v>1.96843281591852</v>
+        <v>4.41157321371748</v>
       </c>
       <c r="J18">
-        <v>40.8368658488427</v>
+        <v>38.2991889789134</v>
       </c>
       <c r="K18">
-        <v>7.2097525737346</v>
+        <v>11.5505318737647</v>
       </c>
       <c r="L18">
-        <v>36.2010333032318</v>
+        <v>26.6015297037954</v>
       </c>
       <c r="M18">
-        <v>65.0195876400023</v>
+        <v>67.3937265436858</v>
       </c>
       <c r="N18">
-        <v>22.2737443791824</v>
+        <v>28.8247346860768</v>
       </c>
       <c r="O18">
-        <v>1429.41824183365</v>
+        <v>1314.98503221893</v>
       </c>
       <c r="P18">
-        <v>57.4649080029244</v>
+        <v>48.9238444133581</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1141.57216653546</v>
+        <v>1314.18809932066</v>
       </c>
       <c r="C19">
-        <v>30.5967575417844</v>
+        <v>27.0174288857086</v>
       </c>
       <c r="D19">
-        <v>12.5450218547021</v>
+        <v>11.5368908394986</v>
       </c>
       <c r="E19">
-        <v>47.9027417752602</v>
+        <v>50.28731802368</v>
       </c>
       <c r="F19">
-        <v>87.4474404656757</v>
+        <v>82.73895316852421</v>
       </c>
       <c r="G19">
-        <v>48.8920669625294</v>
+        <v>36.1745315847108</v>
       </c>
       <c r="H19">
-        <v>9.79308730677454</v>
+        <v>8.96669493770955</v>
       </c>
       <c r="I19">
-        <v>2.72890303824349</v>
+        <v>1.41680987819629</v>
       </c>
       <c r="J19">
-        <v>13.5087168436697</v>
+        <v>13.9736088822964</v>
       </c>
       <c r="K19">
-        <v>5.55806963519426</v>
+        <v>6.83258356236963</v>
       </c>
       <c r="L19">
-        <v>3.56334600279783</v>
+        <v>0.785054697882289</v>
       </c>
       <c r="M19">
-        <v>36.0256484143347</v>
+        <v>33.0571195176611</v>
       </c>
       <c r="N19">
-        <v>10.8342960179591</v>
+        <v>7.53416674837082</v>
       </c>
       <c r="O19">
-        <v>1555.52233583471</v>
+        <v>1452.23728498668</v>
       </c>
       <c r="P19">
-        <v>44.7881297269007</v>
+        <v>32.2708031708267</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>276.422024373808</v>
+        <v>356.420550581254</v>
       </c>
       <c r="C20">
-        <v>10.5284798954065</v>
+        <v>10.6948064544448</v>
       </c>
       <c r="D20">
-        <v>6.21579953233062</v>
+        <v>6.50041030466715</v>
       </c>
       <c r="E20">
-        <v>35.7345778594726</v>
+        <v>31.887818362644</v>
       </c>
       <c r="F20">
-        <v>1.62005703619047</v>
+        <v>2.22948287298567</v>
       </c>
       <c r="G20">
-        <v>2.1896398423815</v>
+        <v>1.85972857869851</v>
       </c>
       <c r="H20">
-        <v>0.84824234770763</v>
+        <v>0.583800683486059</v>
       </c>
       <c r="I20">
-        <v>1.33097248497441</v>
+        <v>2.8473163629919</v>
       </c>
       <c r="J20">
-        <v>5.43854428939927</v>
+        <v>5.75492470981507</v>
       </c>
       <c r="K20">
-        <v>1.237841524424</v>
+        <v>0.473115933957305</v>
       </c>
       <c r="L20">
-        <v>7.57192477407555</v>
+        <v>6.08718420323995</v>
       </c>
       <c r="M20">
-        <v>18.6747491416949</v>
+        <v>12.8360623822122</v>
       </c>
       <c r="N20">
-        <v>7.01972616933843</v>
+        <v>7.02495695470596</v>
       </c>
       <c r="O20">
-        <v>547.156255078805</v>
+        <v>481.647346221569</v>
       </c>
       <c r="P20">
-        <v>27.1560453638651</v>
+        <v>17.0210572741214</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1062.68920826663</v>
+        <v>1381.31433731942</v>
       </c>
       <c r="C21">
-        <v>24.8661272316792</v>
+        <v>23.3768953322997</v>
       </c>
       <c r="D21">
-        <v>2.29540348155823</v>
+        <v>2.73217717540219</v>
       </c>
       <c r="E21">
-        <v>22.5238573956891</v>
+        <v>17.1841262413767</v>
       </c>
       <c r="F21">
-        <v>4.33242082226795</v>
+        <v>4.13975470037691</v>
       </c>
       <c r="G21">
-        <v>14.751790488546</v>
+        <v>8.03855911835805</v>
       </c>
       <c r="H21">
-        <v>8.876879938230919</v>
+        <v>10.2195954306242</v>
       </c>
       <c r="I21">
-        <v>18.2731073760021</v>
+        <v>20.0035571332768</v>
       </c>
       <c r="J21">
-        <v>19.1728101342142</v>
+        <v>28.8677757005489</v>
       </c>
       <c r="K21">
-        <v>1.23144141327637</v>
+        <v>3.63364989997673</v>
       </c>
       <c r="L21">
-        <v>27.3685609052029</v>
+        <v>21.2116091572433</v>
       </c>
       <c r="M21">
-        <v>17.0533136347867</v>
+        <v>11.5570044793444</v>
       </c>
       <c r="N21">
-        <v>17.7908567109358</v>
+        <v>22.6531126539525</v>
       </c>
       <c r="O21">
-        <v>2376.72309158763</v>
+        <v>2136.70857478785</v>
       </c>
       <c r="P21">
-        <v>16.2230653843164</v>
+        <v>13.8614570300832</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1214.96778254016</v>
+        <v>1614.14682756952</v>
       </c>
       <c r="C22">
-        <v>18.741042529899</v>
+        <v>13.3299437957202</v>
       </c>
       <c r="D22">
-        <v>17.9585834672241</v>
+        <v>14.0894548244106</v>
       </c>
       <c r="E22">
-        <v>51.2363719487482</v>
+        <v>48.1611776830537</v>
       </c>
       <c r="F22">
-        <v>4.77560057541081</v>
+        <v>4.7967566800721</v>
       </c>
       <c r="G22">
-        <v>35.9989537434058</v>
+        <v>22.1299476417444</v>
       </c>
       <c r="H22">
-        <v>12.603807293371</v>
+        <v>17.6102268990784</v>
       </c>
       <c r="I22">
-        <v>14.0132132890258</v>
+        <v>7.30171922084312</v>
       </c>
       <c r="J22">
-        <v>41.150094390085</v>
+        <v>41.9853746285913</v>
       </c>
       <c r="K22">
-        <v>6.94781820055228</v>
+        <v>5.41691824550209</v>
       </c>
       <c r="L22">
-        <v>124.951811734364</v>
+        <v>106.594542966353</v>
       </c>
       <c r="M22">
-        <v>15.7081201029738</v>
+        <v>15.0957403137839</v>
       </c>
       <c r="N22">
-        <v>73.5349755723646</v>
+        <v>62.5905900305508</v>
       </c>
       <c r="O22">
-        <v>2718.03674297064</v>
+        <v>2391.30228716532</v>
       </c>
       <c r="P22">
-        <v>12.1890962005838</v>
+        <v>5.69509643842046</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2362.78523581053</v>
+        <v>2691.97993358112</v>
       </c>
       <c r="C23">
-        <v>34.6602658393158</v>
+        <v>21.4967775733119</v>
       </c>
       <c r="D23">
-        <v>10.0523797603456</v>
+        <v>5.34126771908096</v>
       </c>
       <c r="E23">
-        <v>53.2765368633869</v>
+        <v>51.0087951114037</v>
       </c>
       <c r="F23">
-        <v>10.2533058863991</v>
+        <v>13.5845917565055</v>
       </c>
       <c r="G23">
-        <v>61.0101016220337</v>
+        <v>60.8043772816812</v>
       </c>
       <c r="H23">
-        <v>54.3054005400845</v>
+        <v>60.5162945339649</v>
       </c>
       <c r="I23">
-        <v>15.4784727271396</v>
+        <v>10.7994192723971</v>
       </c>
       <c r="J23">
-        <v>134.956627412258</v>
+        <v>134.889330477436</v>
       </c>
       <c r="K23">
-        <v>58.7118937884844</v>
+        <v>61.8179893823427</v>
       </c>
       <c r="L23">
-        <v>33.9307819673617</v>
+        <v>30.7962696330385</v>
       </c>
       <c r="M23">
-        <v>567.020120501826</v>
+        <v>461.947128275924</v>
       </c>
       <c r="N23">
-        <v>87.108265990327</v>
+        <v>84.22168892329741</v>
       </c>
       <c r="O23">
-        <v>3426.44730765989</v>
+        <v>3216.6686965034</v>
       </c>
       <c r="P23">
-        <v>55.3541793546425</v>
+        <v>53.5586157228424</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>813.474902235847</v>
+        <v>1021.65724300055</v>
       </c>
       <c r="C24">
-        <v>52.0717593030689</v>
+        <v>55.3175908774703</v>
       </c>
       <c r="D24">
-        <v>5.25035117649484</v>
+        <v>5.63894315294062</v>
       </c>
       <c r="E24">
-        <v>57.7829336468159</v>
+        <v>52.1795302070133</v>
       </c>
       <c r="F24">
-        <v>13.452260319121</v>
+        <v>8.975688990122441</v>
       </c>
       <c r="G24">
-        <v>27.5899359796202</v>
+        <v>31.2845179048315</v>
       </c>
       <c r="H24">
-        <v>13.5820777306063</v>
+        <v>9.25978131042619</v>
       </c>
       <c r="I24">
-        <v>16.3424650452801</v>
+        <v>15.0397750072325</v>
       </c>
       <c r="J24">
-        <v>63.2686729775556</v>
+        <v>64.0173730965861</v>
       </c>
       <c r="K24">
-        <v>19.4009934780085</v>
+        <v>11.2703779062842</v>
       </c>
       <c r="L24">
-        <v>71.05160235228939</v>
+        <v>70.9604850686387</v>
       </c>
       <c r="M24">
-        <v>33.6596606986996</v>
+        <v>27.5050914253976</v>
       </c>
       <c r="N24">
-        <v>72.4644030108888</v>
+        <v>60.8087586037369</v>
       </c>
       <c r="O24">
-        <v>2086.99058371833</v>
+        <v>1935.07343874092</v>
       </c>
       <c r="P24">
-        <v>103.040047814474</v>
+        <v>96.8481829996052</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>745.9609309043429</v>
+        <v>867.917502123421</v>
       </c>
       <c r="C25">
-        <v>44.7251089597122</v>
+        <v>33.607429063717</v>
       </c>
       <c r="D25">
-        <v>9.530941727768679</v>
+        <v>8.179995633308449</v>
       </c>
       <c r="E25">
-        <v>42.8263816822237</v>
+        <v>32.0426049434683</v>
       </c>
       <c r="F25">
-        <v>12.047663098536</v>
+        <v>10.6064214333167</v>
       </c>
       <c r="G25">
-        <v>11.1017077585368</v>
+        <v>8.16845874621043</v>
       </c>
       <c r="H25">
-        <v>7.96423353255659</v>
+        <v>5.3745439405321</v>
       </c>
       <c r="I25">
-        <v>3.5553956745883</v>
+        <v>6.25732276993196</v>
       </c>
       <c r="J25">
-        <v>12.7555514184576</v>
+        <v>8.740070925875729</v>
       </c>
       <c r="K25">
-        <v>4.02996547236085</v>
+        <v>0.680789414495569</v>
       </c>
       <c r="L25">
-        <v>14.4894951970968</v>
+        <v>11.0892015395579</v>
       </c>
       <c r="M25">
-        <v>42.1252415356622</v>
+        <v>38.9556047578734</v>
       </c>
       <c r="N25">
-        <v>35.8897319589071</v>
+        <v>35.8923333841258</v>
       </c>
       <c r="O25">
-        <v>928.38258559108</v>
+        <v>842.1489279723051</v>
       </c>
       <c r="P25">
-        <v>37.8194577516736</v>
+        <v>31.6904913534395</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1129.52334754347</v>
+        <v>1424.46408331052</v>
       </c>
       <c r="C26">
-        <v>65.3707746916154</v>
+        <v>43.7070980906848</v>
       </c>
       <c r="D26">
-        <v>6.38908308240193</v>
+        <v>19.4218622639011</v>
       </c>
       <c r="E26">
-        <v>49.5207192431882</v>
+        <v>45.6787877126704</v>
       </c>
       <c r="F26">
-        <v>7.79442112956503</v>
+        <v>8.608771449429479</v>
       </c>
       <c r="G26">
-        <v>42.0626682194745</v>
+        <v>34.0093396430868</v>
       </c>
       <c r="H26">
-        <v>11.240513747576</v>
+        <v>10.7087973346066</v>
       </c>
       <c r="I26">
-        <v>15.7036420861961</v>
+        <v>10.2265795970542</v>
       </c>
       <c r="J26">
-        <v>28.9378162146444</v>
+        <v>22.6076564339788</v>
       </c>
       <c r="K26">
-        <v>8.98225977261342</v>
+        <v>10.1166817167309</v>
       </c>
       <c r="L26">
-        <v>24.1426282669152</v>
+        <v>22.6751992425677</v>
       </c>
       <c r="M26">
-        <v>87.4848576459824</v>
+        <v>76.8125676031602</v>
       </c>
       <c r="N26">
-        <v>21.0513548267125</v>
+        <v>16.1113210651153</v>
       </c>
       <c r="O26">
-        <v>2345.87746453718</v>
+        <v>2128.14573561313</v>
       </c>
       <c r="P26">
-        <v>67.4251336468854</v>
+        <v>65.0455819411312</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>190.568197131574</v>
+        <v>242.566702685518</v>
       </c>
       <c r="C27">
-        <v>1.85431513491008</v>
+        <v>0.896135764768333</v>
       </c>
       <c r="D27">
-        <v>2.22153960472875</v>
+        <v>1.90926456253339</v>
       </c>
       <c r="E27">
-        <v>11.1531291159266</v>
+        <v>10.2984731871172</v>
       </c>
       <c r="F27">
-        <v>6.05218640092536</v>
+        <v>4.92789146795773</v>
       </c>
       <c r="G27">
-        <v>0.742947758707029</v>
+        <v>0.551101077518497</v>
       </c>
       <c r="H27">
-        <v>0.337289372444057</v>
+        <v>0.662352734152281</v>
       </c>
       <c r="I27">
-        <v>2.25840762188432</v>
+        <v>1.29873493381328</v>
       </c>
       <c r="J27">
-        <v>2.88546729643055</v>
+        <v>1.03332536362367</v>
       </c>
       <c r="K27">
-        <v>0.882654368924246</v>
+        <v>0.731570131774012</v>
       </c>
       <c r="L27">
-        <v>2.14675614488495</v>
+        <v>2.47878169709421</v>
       </c>
       <c r="M27">
-        <v>0.844433211443981</v>
+        <v>1.04230506905283</v>
       </c>
       <c r="N27">
-        <v>3.37978824369511</v>
+        <v>3.07162559596742</v>
       </c>
       <c r="O27">
-        <v>372.453196892054</v>
+        <v>330.723598082209</v>
       </c>
       <c r="P27">
-        <v>49.00887805517</v>
+        <v>40.869526053876</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>263.477260918179</v>
+        <v>355.748335416477</v>
       </c>
       <c r="C28">
-        <v>35.3861659802261</v>
+        <v>33.94851055992</v>
       </c>
       <c r="D28">
-        <v>2.28106479618867</v>
+        <v>3.419900673017</v>
       </c>
       <c r="E28">
-        <v>7.78743360308983</v>
+        <v>6.56636484174141</v>
       </c>
       <c r="F28">
-        <v>2.03310661217224</v>
+        <v>1.25586065955318</v>
       </c>
       <c r="G28">
-        <v>4.0443137829187</v>
+        <v>3.73112016347591</v>
       </c>
       <c r="H28">
-        <v>8.17009733281685</v>
+        <v>6.67563279009845</v>
       </c>
       <c r="I28">
-        <v>2.22787943295222</v>
+        <v>2.85852482546178</v>
       </c>
       <c r="J28">
-        <v>18.3315320952666</v>
+        <v>17.4072837441503</v>
       </c>
       <c r="K28">
-        <v>11.0041394081484</v>
+        <v>10.2217063405708</v>
       </c>
       <c r="L28">
-        <v>11.3913826617077</v>
+        <v>7.91919464834399</v>
       </c>
       <c r="M28">
-        <v>9.51065887100402</v>
+        <v>8.435977816574599</v>
       </c>
       <c r="N28">
-        <v>8.78960355720762</v>
+        <v>8.05098043374538</v>
       </c>
       <c r="O28">
-        <v>729.2087407655901</v>
+        <v>661.872402446907</v>
       </c>
       <c r="P28">
-        <v>71.78635254141599</v>
+        <v>67.52258062662121</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>441.151303557075</v>
+        <v>553.825126929862</v>
       </c>
       <c r="C29">
-        <v>3.49804612415371</v>
+        <v>4.48031719245362</v>
       </c>
       <c r="D29">
-        <v>1.91191981768834</v>
+        <v>1.96835874372755</v>
       </c>
       <c r="E29">
-        <v>4.7829023358793</v>
+        <v>5.05100149794612</v>
       </c>
       <c r="F29">
-        <v>27.2901364501694</v>
+        <v>24.7228861849546</v>
       </c>
       <c r="G29">
-        <v>5.07952052088577</v>
+        <v>3.87962924511446</v>
       </c>
       <c r="H29">
-        <v>1.98833973543273</v>
+        <v>2.08407140999847</v>
       </c>
       <c r="I29">
-        <v>1.87646851919451</v>
+        <v>1.63196577164454</v>
       </c>
       <c r="J29">
-        <v>5.30399724132159</v>
+        <v>6.17526054252902</v>
       </c>
       <c r="K29">
-        <v>0.637272990015222</v>
+        <v>0.578603874571743</v>
       </c>
       <c r="L29">
-        <v>4.05437011995732</v>
+        <v>4.2929820498504</v>
       </c>
       <c r="M29">
-        <v>3.28965373055347</v>
+        <v>2.63159962256324</v>
       </c>
       <c r="N29">
-        <v>11.1485546853771</v>
+        <v>10.5506663198225</v>
       </c>
       <c r="O29">
-        <v>1020.14600422732</v>
+        <v>891.168576098599</v>
       </c>
       <c r="P29">
-        <v>5.12796659316668</v>
+        <v>2.32015202557546</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>212.608191770755</v>
+        <v>278.337933934222</v>
       </c>
       <c r="C30">
-        <v>3.15573250914419</v>
+        <v>1.29629372479887</v>
       </c>
       <c r="D30">
-        <v>5.45691490097928</v>
+        <v>5.26767154512419</v>
       </c>
       <c r="E30">
-        <v>14.5190476934418</v>
+        <v>12.5216828798939</v>
       </c>
       <c r="F30">
-        <v>0.178263730401118</v>
+        <v>0.0632151077403216</v>
       </c>
       <c r="G30">
-        <v>4.28436176586242</v>
+        <v>3.29595165183334</v>
       </c>
       <c r="H30">
-        <v>4.85978972602489</v>
+        <v>6.07410883958293</v>
       </c>
       <c r="I30">
-        <v>1.885681001537</v>
+        <v>1.73165881158459</v>
       </c>
       <c r="J30">
-        <v>15.9769130106066</v>
+        <v>13.8782102496</v>
       </c>
       <c r="K30">
-        <v>4.69568396252311</v>
+        <v>5.22780222652008</v>
       </c>
       <c r="L30">
-        <v>43.8839599473449</v>
+        <v>36.2148717058128</v>
       </c>
       <c r="M30">
-        <v>10.1789979585104</v>
+        <v>6.89523152098462</v>
       </c>
       <c r="N30">
-        <v>12.0974666935739</v>
+        <v>12.2227944267652</v>
       </c>
       <c r="O30">
-        <v>511.954459118418</v>
+        <v>474.238455444105</v>
       </c>
       <c r="P30">
-        <v>9.724017875015351</v>
+        <v>8.43138839967564</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1683.38844977097</v>
+        <v>2260.8155874379</v>
       </c>
       <c r="C31">
-        <v>69.95691917883779</v>
+        <v>55.0862271237009</v>
       </c>
       <c r="D31">
-        <v>11.2150130240571</v>
+        <v>3.18504051283234</v>
       </c>
       <c r="E31">
-        <v>50.943452924452</v>
+        <v>41.9290834953387</v>
       </c>
       <c r="F31">
-        <v>7.87344118502662</v>
+        <v>4.90153811521068</v>
       </c>
       <c r="G31">
-        <v>111.212525304864</v>
+        <v>77.155910719248</v>
       </c>
       <c r="H31">
-        <v>8.03054808635528</v>
+        <v>8.91124967626423</v>
       </c>
       <c r="I31">
-        <v>27.8588923671594</v>
+        <v>24.9009077545677</v>
       </c>
       <c r="J31">
-        <v>35.6871600872508</v>
+        <v>30.2742462612409</v>
       </c>
       <c r="K31">
-        <v>7.57282662539868</v>
+        <v>5.11249493762788</v>
       </c>
       <c r="L31">
-        <v>73.3605363901018</v>
+        <v>63.4379586908567</v>
       </c>
       <c r="M31">
-        <v>23.2343510554474</v>
+        <v>14.8982474326278</v>
       </c>
       <c r="N31">
-        <v>55.5221038334705</v>
+        <v>49.2511545393336</v>
       </c>
       <c r="O31">
-        <v>3681.67523568898</v>
+        <v>3215.60131035018</v>
       </c>
       <c r="P31">
-        <v>12.6532072223779</v>
+        <v>10.9671533967989</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>450.185617314737</v>
+        <v>535.825797728657</v>
       </c>
       <c r="C32">
-        <v>3.52915177825222</v>
+        <v>4.3810930824263</v>
       </c>
       <c r="D32">
-        <v>0.342879377189205</v>
+        <v>0.822699301378266</v>
       </c>
       <c r="E32">
-        <v>3.363078225421</v>
+        <v>4.62547699275385</v>
       </c>
       <c r="F32">
-        <v>21.7061957258486</v>
+        <v>18.8069043426373</v>
       </c>
       <c r="G32">
-        <v>2.66810298846554</v>
+        <v>4.04860217943473</v>
       </c>
       <c r="H32">
-        <v>1.65819880711561</v>
+        <v>1.50247728776138</v>
       </c>
       <c r="I32">
-        <v>2.68762640137519</v>
+        <v>1.68170939020329</v>
       </c>
       <c r="J32">
-        <v>4.06899788116031</v>
+        <v>3.21417509550505</v>
       </c>
       <c r="K32">
-        <v>1.85900393438985</v>
+        <v>1.63799550565409</v>
       </c>
       <c r="L32">
-        <v>12.2412816517564</v>
+        <v>12.1038199684104</v>
       </c>
       <c r="M32">
-        <v>3.26022361429907</v>
+        <v>3.5991608243511</v>
       </c>
       <c r="N32">
-        <v>11.0552006620908</v>
+        <v>11.2907850204159</v>
       </c>
       <c r="O32">
-        <v>737.35144758113</v>
+        <v>639.967415404581</v>
       </c>
       <c r="P32">
-        <v>19.9274807278155</v>
+        <v>20.106251014429</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4439.76655302844</v>
+        <v>5510.27914195772</v>
       </c>
       <c r="C33">
-        <v>86.4939775851081</v>
+        <v>71.69099249177781</v>
       </c>
       <c r="D33">
-        <v>38.5219167741284</v>
+        <v>26.1436451870163</v>
       </c>
       <c r="E33">
-        <v>91.2241603831166</v>
+        <v>85.02078444154689</v>
       </c>
       <c r="F33">
-        <v>10.0167574761977</v>
+        <v>13.0401642459003</v>
       </c>
       <c r="G33">
-        <v>80.5171436725114</v>
+        <v>71.0836975662958</v>
       </c>
       <c r="H33">
-        <v>41.8639188576051</v>
+        <v>36.0626614984165</v>
       </c>
       <c r="I33">
-        <v>22.9204092484463</v>
+        <v>22.4594381135511</v>
       </c>
       <c r="J33">
-        <v>100.010865335717</v>
+        <v>72.69038392796639</v>
       </c>
       <c r="K33">
-        <v>71.6303604469534</v>
+        <v>46.6700936754031</v>
       </c>
       <c r="L33">
-        <v>119.41751991075</v>
+        <v>85.2776536581312</v>
       </c>
       <c r="M33">
-        <v>64.90437356951939</v>
+        <v>56.7082879051839</v>
       </c>
       <c r="N33">
-        <v>151.623542591368</v>
+        <v>142.585612944179</v>
       </c>
       <c r="O33">
-        <v>7595.24557880482</v>
+        <v>6684.96223284597</v>
       </c>
       <c r="P33">
-        <v>56.0377221127724</v>
+        <v>50.7327971371343</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1877.30569166287</v>
+        <v>2243.61774583251</v>
       </c>
       <c r="C34">
-        <v>73.86245164908461</v>
+        <v>70.09936484072181</v>
       </c>
       <c r="D34">
-        <v>131.779495645679</v>
+        <v>102.716451991521</v>
       </c>
       <c r="E34">
-        <v>48.2598602075573</v>
+        <v>41.7183993723436</v>
       </c>
       <c r="F34">
-        <v>2.41244701866012</v>
+        <v>2.44391571096568</v>
       </c>
       <c r="G34">
-        <v>52.5319300469875</v>
+        <v>50.9108104659418</v>
       </c>
       <c r="H34">
-        <v>50.7601522418469</v>
+        <v>49.2601131076338</v>
       </c>
       <c r="I34">
-        <v>17.5210972270209</v>
+        <v>16.4331510501525</v>
       </c>
       <c r="J34">
-        <v>46.0861091229038</v>
+        <v>48.9190192015518</v>
       </c>
       <c r="K34">
-        <v>13.8965972369447</v>
+        <v>11.9686740929683</v>
       </c>
       <c r="L34">
-        <v>123.903210331711</v>
+        <v>106.657312768753</v>
       </c>
       <c r="M34">
-        <v>27.2991039770216</v>
+        <v>24.3833631149692</v>
       </c>
       <c r="N34">
-        <v>132.591353805759</v>
+        <v>116.994888636178</v>
       </c>
       <c r="O34">
-        <v>3103.54202657037</v>
+        <v>2809.06085176459</v>
       </c>
       <c r="P34">
-        <v>85.73926185946149</v>
+        <v>70.38856289000741</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>103.993936012012</v>
+        <v>144.688822866628</v>
       </c>
       <c r="C35">
-        <v>7.21413996785976</v>
+        <v>5.41494668363507</v>
       </c>
       <c r="D35">
-        <v>0.211034934689497</v>
+        <v>0.458794072570722</v>
       </c>
       <c r="E35">
-        <v>2.42935505638478</v>
+        <v>1.86133400805504</v>
       </c>
       <c r="F35">
-        <v>3.68874348342832</v>
+        <v>3.34227082010084</v>
       </c>
       <c r="G35">
-        <v>1.46703376166831</v>
+        <v>1.98495217336088</v>
       </c>
       <c r="H35">
-        <v>0.08555662459796611</v>
+        <v>0.247050605966853</v>
       </c>
       <c r="I35">
-        <v>0.992290054007528</v>
+        <v>1.45175435164297</v>
       </c>
       <c r="J35">
-        <v>3.09443618591394</v>
+        <v>2.50812633873802</v>
       </c>
       <c r="K35">
-        <v>5.13471560763511</v>
+        <v>3.92370315330318</v>
       </c>
       <c r="L35">
-        <v>2.41217215841881</v>
+        <v>1.23220229861749</v>
       </c>
       <c r="M35">
-        <v>1.50819007242643</v>
+        <v>2.04884779178895</v>
       </c>
       <c r="N35">
-        <v>4.00672757341131</v>
+        <v>3.43290016016289</v>
       </c>
       <c r="O35">
-        <v>266.934880689868</v>
+        <v>235.297203048375</v>
       </c>
       <c r="P35">
-        <v>44.2081101547008</v>
+        <v>37.8200348766065</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2578.83372931472</v>
+        <v>3073.27091353897</v>
       </c>
       <c r="C36">
-        <v>54.4334082611431</v>
+        <v>43.3910676940098</v>
       </c>
       <c r="D36">
-        <v>16.9157947313255</v>
+        <v>18.599058192248</v>
       </c>
       <c r="E36">
-        <v>140.834681527667</v>
+        <v>129.807023500363</v>
       </c>
       <c r="F36">
-        <v>41.0615104666885</v>
+        <v>37.4955783625493</v>
       </c>
       <c r="G36">
-        <v>91.0110615522686</v>
+        <v>63.6311127684628</v>
       </c>
       <c r="H36">
-        <v>85.013527735037</v>
+        <v>84.96775433852631</v>
       </c>
       <c r="I36">
-        <v>38.0413756166266</v>
+        <v>29.698198951963</v>
       </c>
       <c r="J36">
-        <v>199.083651673861</v>
+        <v>174.755797583823</v>
       </c>
       <c r="K36">
-        <v>47.1165526759067</v>
+        <v>39.5387820604042</v>
       </c>
       <c r="L36">
-        <v>68.8431602641388</v>
+        <v>57.8545794049995</v>
       </c>
       <c r="M36">
-        <v>208.036946916729</v>
+        <v>201.669038467928</v>
       </c>
       <c r="N36">
-        <v>108.975846648582</v>
+        <v>74.6457196640134</v>
       </c>
       <c r="O36">
-        <v>4243.44908469649</v>
+        <v>3911.09060630247</v>
       </c>
       <c r="P36">
-        <v>47.0896955516107</v>
+        <v>35.5640818786039</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>800.309906220669</v>
+        <v>973.189313752424</v>
       </c>
       <c r="C37">
-        <v>21.0860613613817</v>
+        <v>15.7613897927611</v>
       </c>
       <c r="D37">
-        <v>6.65130479894951</v>
+        <v>6.11823954480182</v>
       </c>
       <c r="E37">
-        <v>20.4130229546974</v>
+        <v>14.9602968935631</v>
       </c>
       <c r="F37">
-        <v>30.6286795249302</v>
+        <v>25.8142913517595</v>
       </c>
       <c r="G37">
-        <v>7.98684059197366</v>
+        <v>13.0664559523384</v>
       </c>
       <c r="H37">
-        <v>24.4435401535981</v>
+        <v>21.0596346522309</v>
       </c>
       <c r="I37">
-        <v>8.44782297158935</v>
+        <v>18.8692649286088</v>
       </c>
       <c r="J37">
-        <v>43.8381786520035</v>
+        <v>38.912451267362</v>
       </c>
       <c r="K37">
-        <v>13.0019399466523</v>
+        <v>4.2634613015284</v>
       </c>
       <c r="L37">
-        <v>19.019873333242</v>
+        <v>10.7208228587205</v>
       </c>
       <c r="M37">
-        <v>45.6098388784777</v>
+        <v>33.7043391914036</v>
       </c>
       <c r="N37">
-        <v>25.2477361250995</v>
+        <v>19.5687661188396</v>
       </c>
       <c r="O37">
-        <v>1301.0743298024</v>
+        <v>1167.62228419018</v>
       </c>
       <c r="P37">
-        <v>54.9934565931751</v>
+        <v>52.1736150214932</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>831.6165682646411</v>
+        <v>1024.09746267688</v>
       </c>
       <c r="C38">
-        <v>27.0159948711573</v>
+        <v>25.8573410451101</v>
       </c>
       <c r="D38">
-        <v>6.22371185920242</v>
+        <v>10.423875094442</v>
       </c>
       <c r="E38">
-        <v>49.4404039212088</v>
+        <v>38.3589411704435</v>
       </c>
       <c r="F38">
-        <v>1.39799392888161</v>
+        <v>1.09859022079834</v>
       </c>
       <c r="G38">
-        <v>11.6664190432282</v>
+        <v>10.2618986551738</v>
       </c>
       <c r="H38">
-        <v>3.96614054218773</v>
+        <v>5.32333383978193</v>
       </c>
       <c r="I38">
-        <v>2.06514373790042</v>
+        <v>1.07422657949354</v>
       </c>
       <c r="J38">
-        <v>45.0431626425153</v>
+        <v>29.4118662478191</v>
       </c>
       <c r="K38">
-        <v>2.87403284504891</v>
+        <v>0.6504974898566061</v>
       </c>
       <c r="L38">
-        <v>69.1299024178167</v>
+        <v>70.44550622547151</v>
       </c>
       <c r="M38">
-        <v>22.4604887218831</v>
+        <v>23.2679810451745</v>
       </c>
       <c r="N38">
-        <v>32.113364515099</v>
+        <v>31.635737275082</v>
       </c>
       <c r="O38">
-        <v>1378.09574797717</v>
+        <v>1223.09572430614</v>
       </c>
       <c r="P38">
-        <v>72.4063005981847</v>
+        <v>57.6876395965996</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2851.61292657259</v>
+        <v>3530.55512064302</v>
       </c>
       <c r="C39">
-        <v>96.8338046218113</v>
+        <v>83.63691719496811</v>
       </c>
       <c r="D39">
-        <v>30.5941062386564</v>
+        <v>27.2024807489505</v>
       </c>
       <c r="E39">
-        <v>140.692556788778</v>
+        <v>126.233885067268</v>
       </c>
       <c r="F39">
-        <v>25.617573885696</v>
+        <v>18.7052036570119</v>
       </c>
       <c r="G39">
-        <v>123.502328645712</v>
+        <v>110.83587730561</v>
       </c>
       <c r="H39">
-        <v>57.5491572459115</v>
+        <v>50.9329141986948</v>
       </c>
       <c r="I39">
-        <v>39.69056541576</v>
+        <v>36.8556783948926</v>
       </c>
       <c r="J39">
-        <v>174.914614230061</v>
+        <v>135.633000169472</v>
       </c>
       <c r="K39">
-        <v>67.3384498663075</v>
+        <v>48.3595637437326</v>
       </c>
       <c r="L39">
-        <v>105.559950299417</v>
+        <v>77.7085001057483</v>
       </c>
       <c r="M39">
-        <v>76.5605018547123</v>
+        <v>59.1318701833892</v>
       </c>
       <c r="N39">
-        <v>119.634381587897</v>
+        <v>105.388165533799</v>
       </c>
       <c r="O39">
-        <v>4778.84433788521</v>
+        <v>4280.23858514278</v>
       </c>
       <c r="P39">
-        <v>49.4861229559939</v>
+        <v>51.6047438287069</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>215.968604414997</v>
+        <v>282.744020701195</v>
       </c>
       <c r="C40">
-        <v>4.10615476642552</v>
+        <v>3.11025997387294</v>
       </c>
       <c r="D40">
-        <v>6.29086194341769</v>
+        <v>5.4776891783816</v>
       </c>
       <c r="E40">
-        <v>4.50185091250281</v>
+        <v>4.92747604768832</v>
       </c>
       <c r="F40">
-        <v>0.473440556836936</v>
+        <v>0.551523652253847</v>
       </c>
       <c r="G40">
-        <v>3.89258819967535</v>
+        <v>3.13748080836455</v>
       </c>
       <c r="H40">
-        <v>3.8447624784138</v>
+        <v>3.03632938976558</v>
       </c>
       <c r="I40">
-        <v>1.23328543786647</v>
+        <v>1.66841205456893</v>
       </c>
       <c r="J40">
-        <v>9.69469226755929</v>
+        <v>8.348552201337929</v>
       </c>
       <c r="K40">
-        <v>1.70105835088251</v>
+        <v>2.13675514915869</v>
       </c>
       <c r="L40">
-        <v>13.3347458095099</v>
+        <v>11.7569239327376</v>
       </c>
       <c r="M40">
-        <v>4.25714264584953</v>
+        <v>5.32123543637321</v>
       </c>
       <c r="N40">
-        <v>19.9089564885628</v>
+        <v>15.1834570881786</v>
       </c>
       <c r="O40">
-        <v>436.976130042328</v>
+        <v>388.128316427216</v>
       </c>
       <c r="P40">
-        <v>2.60681523971754</v>
+        <v>3.30151023491637</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>988.272428027597</v>
+        <v>1163.35486188668</v>
       </c>
       <c r="C41">
-        <v>15.2597854639686</v>
+        <v>8.57340134360908</v>
       </c>
       <c r="D41">
-        <v>65.6524363108926</v>
+        <v>62.2816103867881</v>
       </c>
       <c r="E41">
-        <v>34.7354909324731</v>
+        <v>32.9680338053519</v>
       </c>
       <c r="F41">
-        <v>2.20613295363935</v>
+        <v>3.56983852678416</v>
       </c>
       <c r="G41">
-        <v>24.6967820301235</v>
+        <v>18.8747339572927</v>
       </c>
       <c r="H41">
-        <v>34.2749838082396</v>
+        <v>24.5766844056453</v>
       </c>
       <c r="I41">
-        <v>21.0821964410157</v>
+        <v>24.3058383935667</v>
       </c>
       <c r="J41">
-        <v>39.4691940373289</v>
+        <v>32.7209612438188</v>
       </c>
       <c r="K41">
-        <v>6.92881967943238</v>
+        <v>8.41275038174423</v>
       </c>
       <c r="L41">
-        <v>25.6136449719742</v>
+        <v>32.4071939304265</v>
       </c>
       <c r="M41">
-        <v>28.7635139807081</v>
+        <v>22.422399505165</v>
       </c>
       <c r="N41">
-        <v>14.9272609101609</v>
+        <v>17.2316986183792</v>
       </c>
       <c r="O41">
-        <v>1540.36261243263</v>
+        <v>1395.11446056081</v>
       </c>
       <c r="P41">
-        <v>43.8649732348544</v>
+        <v>29.621059749031</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>104.440952296889</v>
+        <v>146.928293337874</v>
       </c>
       <c r="C42">
-        <v>5.26006510911148</v>
+        <v>5.09652126963595</v>
       </c>
       <c r="D42">
-        <v>1.25664556078389</v>
+        <v>1.55333584202698</v>
       </c>
       <c r="E42">
-        <v>6.44080430595077</v>
+        <v>5.66347618253788</v>
       </c>
       <c r="F42">
-        <v>1.95179980111095</v>
+        <v>1.83091337975695</v>
       </c>
       <c r="G42">
-        <v>0.835984216224982</v>
+        <v>0.780517634431818</v>
       </c>
       <c r="H42">
-        <v>0.621487415097607</v>
+        <v>0.08210839165564281</v>
       </c>
       <c r="I42">
-        <v>0.980250464328668</v>
+        <v>1.26764897796558</v>
       </c>
       <c r="J42">
-        <v>3.84327043329747</v>
+        <v>3.49138416149311</v>
       </c>
       <c r="K42">
-        <v>3.34137722135122</v>
+        <v>1.83480319179922</v>
       </c>
       <c r="L42">
-        <v>7.01942982434865</v>
+        <v>5.45858513233724</v>
       </c>
       <c r="M42">
-        <v>3.78858222696972</v>
+        <v>2.37558155292503</v>
       </c>
       <c r="N42">
-        <v>9.090139364701029</v>
+        <v>8.41409731500919</v>
       </c>
       <c r="O42">
-        <v>303.968008759015</v>
+        <v>271.110266729936</v>
       </c>
       <c r="P42">
-        <v>45.9272616821632</v>
+        <v>38.2529789459223</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1496.56367135785</v>
+        <v>1689.58003824147</v>
       </c>
       <c r="C43">
-        <v>44.3340535406887</v>
+        <v>36.413385222739</v>
       </c>
       <c r="D43">
-        <v>26.5019631359895</v>
+        <v>16.70734654336</v>
       </c>
       <c r="E43">
-        <v>95.1120393961187</v>
+        <v>82.7876219011103</v>
       </c>
       <c r="F43">
-        <v>4.33118352156197</v>
+        <v>7.21355456696069</v>
       </c>
       <c r="G43">
-        <v>29.9235300049323</v>
+        <v>28.3381543406313</v>
       </c>
       <c r="H43">
-        <v>40.1997670402749</v>
+        <v>44.5340040797936</v>
       </c>
       <c r="I43">
-        <v>27.4348347505866</v>
+        <v>20.6349728413658</v>
       </c>
       <c r="J43">
-        <v>57.5590507307661</v>
+        <v>47.5252218590583</v>
       </c>
       <c r="K43">
-        <v>11.7222286361155</v>
+        <v>11.992183327866</v>
       </c>
       <c r="L43">
-        <v>50.3378942510777</v>
+        <v>49.4490761035364</v>
       </c>
       <c r="M43">
-        <v>109.959602939549</v>
+        <v>95.10989533456881</v>
       </c>
       <c r="N43">
-        <v>67.06192470270371</v>
+        <v>50.5594207904438</v>
       </c>
       <c r="O43">
-        <v>2082.82827158874</v>
+        <v>1936.86931920356</v>
       </c>
       <c r="P43">
-        <v>39.0647756366936</v>
+        <v>32.3282090273869</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4556.73258526647</v>
+        <v>5573.47945094427</v>
       </c>
       <c r="C44">
-        <v>158.799598114467</v>
+        <v>143.322445671757</v>
       </c>
       <c r="D44">
-        <v>17.516107059133</v>
+        <v>15.1102750346395</v>
       </c>
       <c r="E44">
-        <v>106.35510883193</v>
+        <v>90.5905882970482</v>
       </c>
       <c r="F44">
-        <v>246.783086323058</v>
+        <v>221.430851409827</v>
       </c>
       <c r="G44">
-        <v>107.356528372344</v>
+        <v>74.4437783091996</v>
       </c>
       <c r="H44">
-        <v>42.0590214354529</v>
+        <v>35.3800426557824</v>
       </c>
       <c r="I44">
-        <v>39.2328167364721</v>
+        <v>40.2026309939872</v>
       </c>
       <c r="J44">
-        <v>107.690736326369</v>
+        <v>85.0010641059977</v>
       </c>
       <c r="K44">
-        <v>35.0069114937284</v>
+        <v>35.5555354352566</v>
       </c>
       <c r="L44">
-        <v>150.564601037308</v>
+        <v>114.735881311582</v>
       </c>
       <c r="M44">
-        <v>83.3548280342807</v>
+        <v>74.513924624048</v>
       </c>
       <c r="N44">
-        <v>103.103849713315</v>
+        <v>86.9477038693354</v>
       </c>
       <c r="O44">
-        <v>8351.11358013994</v>
+        <v>7469.16262593139</v>
       </c>
       <c r="P44">
-        <v>254.344920201225</v>
+        <v>237.838839960376</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>418.325726668623</v>
+        <v>503.112723964173</v>
       </c>
       <c r="C45">
-        <v>20.3447915013232</v>
+        <v>20.2460427192144</v>
       </c>
       <c r="D45">
-        <v>2.33951824828104</v>
+        <v>2.52508576588961</v>
       </c>
       <c r="E45">
-        <v>22.9034262602078</v>
+        <v>20.1816047076497</v>
       </c>
       <c r="F45">
-        <v>23.0169135236998</v>
+        <v>17.733796427962</v>
       </c>
       <c r="G45">
-        <v>6.48322826286772</v>
+        <v>7.59381239626753</v>
       </c>
       <c r="H45">
-        <v>3.59476202815677</v>
+        <v>4.70707762896439</v>
       </c>
       <c r="I45">
-        <v>4.14394655855486</v>
+        <v>5.21509675764736</v>
       </c>
       <c r="J45">
-        <v>20.2338657201129</v>
+        <v>13.0284894433037</v>
       </c>
       <c r="K45">
-        <v>4.92102276742688</v>
+        <v>5.3447881203142</v>
       </c>
       <c r="L45">
-        <v>15.794618200304</v>
+        <v>11.2543669428095</v>
       </c>
       <c r="M45">
-        <v>14.5711747056024</v>
+        <v>10.4966660543935</v>
       </c>
       <c r="N45">
-        <v>24.3123160843536</v>
+        <v>21.5173765286902</v>
       </c>
       <c r="O45">
-        <v>835.679628326768</v>
+        <v>794.311590993202</v>
       </c>
       <c r="P45">
-        <v>20.1934202398401</v>
+        <v>21.8432395302315</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>100.733011422491</v>
+        <v>133.802589874966</v>
       </c>
       <c r="C46">
-        <v>4.14779771407194</v>
+        <v>3.71699069504615</v>
       </c>
       <c r="D46">
-        <v>0.7308835861852681</v>
+        <v>1.10779154512831</v>
       </c>
       <c r="E46">
-        <v>4.64325879947903</v>
+        <v>3.22800108472059</v>
       </c>
       <c r="F46">
-        <v>0.746640613229414</v>
+        <v>0.5608217191799</v>
       </c>
       <c r="G46">
-        <v>2.26906267942936</v>
+        <v>2.35482165379473</v>
       </c>
       <c r="H46">
-        <v>0.9197392740178491</v>
+        <v>0.89320311394763</v>
       </c>
       <c r="I46">
-        <v>1.5251701431036</v>
+        <v>1.6111258989219</v>
       </c>
       <c r="J46">
-        <v>4.27692845296818</v>
+        <v>3.36013583762116</v>
       </c>
       <c r="K46">
-        <v>0.851877563774461</v>
+        <v>0.865408117868547</v>
       </c>
       <c r="L46">
-        <v>10.8173813232708</v>
+        <v>11.8147856814439</v>
       </c>
       <c r="M46">
-        <v>2.76471089257866</v>
+        <v>2.92602097003029</v>
       </c>
       <c r="N46">
-        <v>10.0744901742097</v>
+        <v>7.02951732495609</v>
       </c>
       <c r="O46">
-        <v>267.298882441218</v>
+        <v>239.819704241654</v>
       </c>
       <c r="P46">
-        <v>9.50334506020705</v>
+        <v>9.00896399041582</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1573.29396625961</v>
+        <v>1904.66970297581</v>
       </c>
       <c r="C47">
-        <v>47.5772967419551</v>
+        <v>49.0711079281399</v>
       </c>
       <c r="D47">
-        <v>22.7205394285052</v>
+        <v>13.364618413626</v>
       </c>
       <c r="E47">
-        <v>59.3508221976083</v>
+        <v>50.377575560084</v>
       </c>
       <c r="F47">
-        <v>12.9702396710949</v>
+        <v>12.6449770479249</v>
       </c>
       <c r="G47">
-        <v>20.7590762592892</v>
+        <v>23.9049414666219</v>
       </c>
       <c r="H47">
-        <v>10.8924654650328</v>
+        <v>4.83713605411477</v>
       </c>
       <c r="I47">
-        <v>3.53325678741393</v>
+        <v>1.8558846532797</v>
       </c>
       <c r="J47">
-        <v>47.2895134594136</v>
+        <v>47.0023993714801</v>
       </c>
       <c r="K47">
-        <v>5.81718312541793</v>
+        <v>2.66997790785365</v>
       </c>
       <c r="L47">
-        <v>27.1553556386101</v>
+        <v>17.6070919995133</v>
       </c>
       <c r="M47">
-        <v>73.37213747371661</v>
+        <v>71.10884685806251</v>
       </c>
       <c r="N47">
-        <v>38.4503174592456</v>
+        <v>36.6495053386776</v>
       </c>
       <c r="O47">
-        <v>2955.05168980057</v>
+        <v>2665.98139281051</v>
       </c>
       <c r="P47">
-        <v>39.4176360979396</v>
+        <v>30.0937293265755</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1313.34171751142</v>
+        <v>1652.34443263994</v>
       </c>
       <c r="C48">
-        <v>29.7058639612424</v>
+        <v>32.4643750983394</v>
       </c>
       <c r="D48">
-        <v>4.35329186934954</v>
+        <v>8.509157461591119</v>
       </c>
       <c r="E48">
-        <v>74.9710267796919</v>
+        <v>66.6248199264365</v>
       </c>
       <c r="F48">
-        <v>8.035833418751411</v>
+        <v>5.26237035560537</v>
       </c>
       <c r="G48">
-        <v>5.6054711636841</v>
+        <v>4.32558805723708</v>
       </c>
       <c r="H48">
-        <v>3.43566055544057</v>
+        <v>2.92557553566512</v>
       </c>
       <c r="I48">
-        <v>9.77918892834192</v>
+        <v>8.90755224962947</v>
       </c>
       <c r="J48">
-        <v>35.6387426441334</v>
+        <v>30.7434364445138</v>
       </c>
       <c r="K48">
-        <v>8.667296967724949</v>
+        <v>16.0416781177045</v>
       </c>
       <c r="L48">
-        <v>50.6139953375678</v>
+        <v>44.3708794719917</v>
       </c>
       <c r="M48">
-        <v>131.086829567339</v>
+        <v>114.710445902054</v>
       </c>
       <c r="N48">
-        <v>35.8029767665702</v>
+        <v>30.9132982510482</v>
       </c>
       <c r="O48">
-        <v>2405.35734977019</v>
+        <v>2090.72268609888</v>
       </c>
       <c r="P48">
-        <v>105.20770473087</v>
+        <v>97.0217128169588</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>626.418212942951</v>
+        <v>686.690887227886</v>
       </c>
       <c r="C49">
-        <v>4.83477495988971</v>
+        <v>4.61947584650369</v>
       </c>
       <c r="D49">
-        <v>3.23441827340569</v>
+        <v>2.37173610827037</v>
       </c>
       <c r="E49">
-        <v>23.0589260191857</v>
+        <v>20.7502982722704</v>
       </c>
       <c r="F49">
-        <v>27.6793132438544</v>
+        <v>24.332216539196</v>
       </c>
       <c r="G49">
-        <v>11.6953109152068</v>
+        <v>9.423371903538</v>
       </c>
       <c r="H49">
-        <v>8.693479664288059</v>
+        <v>7.02256849711206</v>
       </c>
       <c r="I49">
-        <v>3.34480490714839</v>
+        <v>2.73762437573404</v>
       </c>
       <c r="J49">
-        <v>19.2421609190932</v>
+        <v>15.2751952337131</v>
       </c>
       <c r="K49">
-        <v>1.58725775233859</v>
+        <v>2.72018377690321</v>
       </c>
       <c r="L49">
-        <v>1.05126070368692</v>
+        <v>0.797293591093904</v>
       </c>
       <c r="M49">
-        <v>3.99820736729591</v>
+        <v>2.30773629406818</v>
       </c>
       <c r="N49">
-        <v>4.34670580161304</v>
+        <v>3.0982545183069</v>
       </c>
       <c r="O49">
-        <v>589.162121832427</v>
+        <v>533.730144195635</v>
       </c>
       <c r="P49">
-        <v>6.74426073688902</v>
+        <v>5.43427359039603</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>946.6569177025571</v>
+        <v>1176.57269272768</v>
       </c>
       <c r="C50">
-        <v>79.6452566985697</v>
+        <v>72.53690125293549</v>
       </c>
       <c r="D50">
-        <v>11.8971291564074</v>
+        <v>7.76158415642011</v>
       </c>
       <c r="E50">
-        <v>155.381332736183</v>
+        <v>139.65220483169</v>
       </c>
       <c r="F50">
-        <v>5.02176581673478</v>
+        <v>4.80407968103675</v>
       </c>
       <c r="G50">
-        <v>31.1782719951973</v>
+        <v>28.8177338785456</v>
       </c>
       <c r="H50">
-        <v>37.7975689865071</v>
+        <v>37.8395758598041</v>
       </c>
       <c r="I50">
-        <v>18.1825258649419</v>
+        <v>13.7245748498304</v>
       </c>
       <c r="J50">
-        <v>104.97448865026</v>
+        <v>88.58097254498929</v>
       </c>
       <c r="K50">
-        <v>47.7578631442811</v>
+        <v>39.369878426744</v>
       </c>
       <c r="L50">
-        <v>53.631703627962</v>
+        <v>39.6337066728549</v>
       </c>
       <c r="M50">
-        <v>46.6864506887732</v>
+        <v>33.7242962774584</v>
       </c>
       <c r="N50">
-        <v>55.6604203136282</v>
+        <v>55.7997681915538</v>
       </c>
       <c r="O50">
-        <v>2160.89818599348</v>
+        <v>2018.25294336851</v>
       </c>
       <c r="P50">
-        <v>79.31497364495669</v>
+        <v>77.8106012039745</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>89.715399489685</v>
+        <v>116.302100620684</v>
       </c>
       <c r="C51">
-        <v>3.13749727743192</v>
+        <v>3.06888758355558</v>
       </c>
       <c r="D51">
-        <v>0.0172232382250286</v>
+        <v>0.307424238790594</v>
       </c>
       <c r="E51">
-        <v>1.60837073617343</v>
+        <v>2.77047425317235</v>
       </c>
       <c r="F51">
-        <v>24.7667453189435</v>
+        <v>23.7735283205904</v>
       </c>
       <c r="G51">
-        <v>1.86446019011415</v>
+        <v>1.73202532856527</v>
       </c>
       <c r="H51">
-        <v>0.00525277046347631</v>
+        <v>0.0104624819892055</v>
       </c>
       <c r="I51">
-        <v>0.68534242296721</v>
+        <v>1.04888095616111</v>
       </c>
       <c r="J51">
-        <v>0.636909278372864</v>
+        <v>0.555037378176122</v>
       </c>
       <c r="K51">
-        <v>0.250581671776711</v>
+        <v>0.35754383953996</v>
       </c>
       <c r="L51">
-        <v>0.358684912579737</v>
+        <v>0.292434742532084</v>
       </c>
       <c r="M51">
-        <v>0.286009158783054</v>
+        <v>0.38993695772553</v>
       </c>
       <c r="N51">
-        <v>0.463041393988743</v>
+        <v>0.411352134790355</v>
       </c>
       <c r="O51">
-        <v>205.996686366821</v>
+        <v>182.913421796815</v>
       </c>
       <c r="P51">
-        <v>21.3931007359796</v>
+        <v>17.9335836005619</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1452.15917954981</v>
+        <v>1426.08121921856</v>
       </c>
       <c r="C2">
-        <v>24.9761365347087</v>
+        <v>37.1645440451193</v>
       </c>
       <c r="D2">
-        <v>25.7512791234547</v>
+        <v>62.8594974774961</v>
       </c>
       <c r="E2">
-        <v>47.2557979181354</v>
+        <v>52.4548885765374</v>
       </c>
       <c r="F2">
-        <v>17.6714106438543</v>
+        <v>14.9925522700485</v>
       </c>
       <c r="G2">
-        <v>14.0015656707145</v>
+        <v>14.5502264819129</v>
       </c>
       <c r="H2">
-        <v>14.4577449244015</v>
+        <v>15.499184195268</v>
       </c>
       <c r="I2">
-        <v>7.58146824644242</v>
+        <v>14.7475468791831</v>
       </c>
       <c r="J2">
-        <v>83.8004854074476</v>
+        <v>59.0052002902716</v>
       </c>
       <c r="K2">
-        <v>14.8619336906656</v>
+        <v>17.9218348282749</v>
       </c>
       <c r="L2">
-        <v>45.9010351288292</v>
+        <v>31.6327764980135</v>
       </c>
       <c r="M2">
-        <v>34.9865192013352</v>
+        <v>44.1378632936721</v>
       </c>
       <c r="N2">
-        <v>26.4992509530213</v>
+        <v>36.4844579303808</v>
       </c>
       <c r="O2">
-        <v>1332.9125918664</v>
+        <v>1314.02229081597</v>
       </c>
       <c r="P2">
-        <v>20.3280127461364</v>
+        <v>31.7179810811539</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>119.225231075766</v>
+        <v>131.03768667889</v>
       </c>
       <c r="C3">
-        <v>3.99906122040977</v>
+        <v>3.24621215885853</v>
       </c>
       <c r="D3">
-        <v>0.377677377995518</v>
+        <v>0.233316516372231</v>
       </c>
       <c r="E3">
-        <v>1.28620329321393</v>
+        <v>1.74987387279173</v>
       </c>
       <c r="F3">
-        <v>5.35604020201462</v>
+        <v>6.86978624475189</v>
       </c>
       <c r="G3">
-        <v>0.177651772830241</v>
+        <v>0.244667363683344</v>
       </c>
       <c r="H3">
-        <v>0.0603749233802256</v>
+        <v>0.0583291290930578</v>
       </c>
       <c r="I3">
-        <v>0.847588508273616</v>
+        <v>0.320810210011817</v>
       </c>
       <c r="J3">
-        <v>0.329717402497333</v>
+        <v>0.583291290930578</v>
       </c>
       <c r="K3">
-        <v>0.0182928015963322</v>
+        <v>0.145822822732644</v>
       </c>
       <c r="L3">
-        <v>0.0334277392231837</v>
+        <v>0.349974774558347</v>
       </c>
       <c r="M3">
-        <v>0.248762678236509</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="N3">
-        <v>0.5435381599010271</v>
+        <v>0.641620420023636</v>
       </c>
       <c r="O3">
-        <v>213.549990607769</v>
+        <v>198.74027609232</v>
       </c>
       <c r="P3">
-        <v>8.66441745632099</v>
+        <v>5.83571469922011</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1582.41661341785</v>
+        <v>1707.4329708451</v>
       </c>
       <c r="C4">
-        <v>5.63373641991123</v>
+        <v>13.4030496639299</v>
       </c>
       <c r="D4">
-        <v>3.98059477520803</v>
+        <v>4.14340150055778</v>
       </c>
       <c r="E4">
-        <v>23.3499486716561</v>
+        <v>22.4446563695475</v>
       </c>
       <c r="F4">
-        <v>3.89826437536657</v>
+        <v>20.0304476782957</v>
       </c>
       <c r="G4">
-        <v>5.96583728974307</v>
+        <v>8.96638381647012</v>
       </c>
       <c r="H4">
-        <v>14.2503515030016</v>
+        <v>7.80430739925032</v>
       </c>
       <c r="I4">
-        <v>10.1330007084598</v>
+        <v>9.41606653605202</v>
       </c>
       <c r="J4">
-        <v>22.1401970463679</v>
+        <v>24.9707627858835</v>
       </c>
       <c r="K4">
-        <v>4.1608682843525</v>
+        <v>10.5521721684732</v>
       </c>
       <c r="L4">
-        <v>42.3332328966319</v>
+        <v>66.41815245772089</v>
       </c>
       <c r="M4">
-        <v>38.9947070802321</v>
+        <v>48.3615254106167</v>
       </c>
       <c r="N4">
-        <v>23.751152360583</v>
+        <v>25.0488347829614</v>
       </c>
       <c r="O4">
-        <v>2024.84217206157</v>
+        <v>1850.73678330763</v>
       </c>
       <c r="P4">
-        <v>14.2180141738732</v>
+        <v>22.3838595010452</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>834.734120820264</v>
+        <v>859.750917031138</v>
       </c>
       <c r="C5">
-        <v>38.5339637334818</v>
+        <v>59.5378084037596</v>
       </c>
       <c r="D5">
-        <v>8.532674944785621</v>
+        <v>11.0336909555059</v>
       </c>
       <c r="E5">
-        <v>36.058049757597</v>
+        <v>45.3972205195663</v>
       </c>
       <c r="F5">
-        <v>6.1849879342184</v>
+        <v>5.74282809205453</v>
       </c>
       <c r="G5">
-        <v>2.9135855746391</v>
+        <v>9.964069844139139</v>
       </c>
       <c r="H5">
-        <v>7.94364339676693</v>
+        <v>15.0872955004606</v>
       </c>
       <c r="I5">
-        <v>4.56796686570041</v>
+        <v>6.67994143536038</v>
       </c>
       <c r="J5">
-        <v>30.2697621248662</v>
+        <v>30.7137763264481</v>
       </c>
       <c r="K5">
-        <v>5.05537363363551</v>
+        <v>17.7217147683204</v>
       </c>
       <c r="L5">
-        <v>15.3432226769233</v>
+        <v>18.6033510105226</v>
       </c>
       <c r="M5">
-        <v>18.8322730785819</v>
+        <v>25.4429699387535</v>
       </c>
       <c r="N5">
-        <v>14.089421428957</v>
+        <v>19.8044599042424</v>
       </c>
       <c r="O5">
-        <v>870.028570418013</v>
+        <v>773.190347578592</v>
       </c>
       <c r="P5">
-        <v>46.154185691105</v>
+        <v>47.3627844161678</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9223.01437919506</v>
+        <v>9772.205499105599</v>
       </c>
       <c r="C6">
-        <v>174.131605649162</v>
+        <v>184.418962902208</v>
       </c>
       <c r="D6">
-        <v>27.0922764574962</v>
+        <v>155.414678378112</v>
       </c>
       <c r="E6">
-        <v>160.951849290244</v>
+        <v>189.49421237222</v>
       </c>
       <c r="F6">
-        <v>39.9044215913186</v>
+        <v>45.528356008631</v>
       </c>
       <c r="G6">
-        <v>133.710596078768</v>
+        <v>88.0336150508935</v>
       </c>
       <c r="H6">
-        <v>46.5567879362532</v>
+        <v>53.4704512257265</v>
       </c>
       <c r="I6">
-        <v>41.7509500509475</v>
+        <v>49.3592394237676</v>
       </c>
       <c r="J6">
-        <v>189.737090970061</v>
+        <v>157.573703234738</v>
       </c>
       <c r="K6">
-        <v>24.3859255867864</v>
+        <v>87.6159398855811</v>
       </c>
       <c r="L6">
-        <v>443.133976600101</v>
+        <v>511.934085992612</v>
       </c>
       <c r="M6">
-        <v>212.873466861024</v>
+        <v>248.468419878017</v>
       </c>
       <c r="N6">
-        <v>210.901043748658</v>
+        <v>235.9169195373</v>
       </c>
       <c r="O6">
-        <v>11931.7542478084</v>
+        <v>11006.8419430622</v>
       </c>
       <c r="P6">
-        <v>285.040255635747</v>
+        <v>279.328798141344</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>971.219691047952</v>
+        <v>1064.85373425769</v>
       </c>
       <c r="C7">
-        <v>34.7921191061755</v>
+        <v>23.5147822963171</v>
       </c>
       <c r="D7">
-        <v>6.93798299503272</v>
+        <v>4.98578420198625</v>
       </c>
       <c r="E7">
-        <v>18.511154257547</v>
+        <v>22.2521127186562</v>
       </c>
       <c r="F7">
-        <v>11.3963718388136</v>
+        <v>23.7162674348786</v>
       </c>
       <c r="G7">
-        <v>5.00172129462609</v>
+        <v>9.718053953024031</v>
       </c>
       <c r="H7">
-        <v>1.63788043791885</v>
+        <v>6.59014767067625</v>
       </c>
       <c r="I7">
-        <v>9.762693258895659</v>
+        <v>10.6870664734349</v>
       </c>
       <c r="J7">
-        <v>16.6563789917886</v>
+        <v>19.7135714806789</v>
       </c>
       <c r="K7">
-        <v>4.78157856684518</v>
+        <v>11.5939204351135</v>
       </c>
       <c r="L7">
-        <v>54.1968097740646</v>
+        <v>60.1352619886806</v>
       </c>
       <c r="M7">
-        <v>12.7553559616849</v>
+        <v>16.267660051488</v>
       </c>
       <c r="N7">
-        <v>28.5369979410318</v>
+        <v>23.3086632643843</v>
       </c>
       <c r="O7">
-        <v>1846.79362831243</v>
+        <v>1701.20873987558</v>
       </c>
       <c r="P7">
-        <v>26.7884239131097</v>
+        <v>48.8544925434997</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>855.453199314264</v>
+        <v>901.6495531135651</v>
       </c>
       <c r="C8">
-        <v>8.73362221817113</v>
+        <v>12.9714486366817</v>
       </c>
       <c r="D8">
-        <v>2.37938562528039</v>
+        <v>8.02061532585963</v>
       </c>
       <c r="E8">
-        <v>19.2981820826741</v>
+        <v>21.3912999929493</v>
       </c>
       <c r="F8">
-        <v>4.09656232947741</v>
+        <v>1.65300834284282</v>
       </c>
       <c r="G8">
-        <v>22.7631673548286</v>
+        <v>24.3215741752128</v>
       </c>
       <c r="H8">
-        <v>9.82695075214547</v>
+        <v>7.41440699937644</v>
       </c>
       <c r="I8">
-        <v>8.64835217102406</v>
+        <v>3.38411344313678</v>
       </c>
       <c r="J8">
-        <v>33.6821780757509</v>
+        <v>41.970698637577</v>
       </c>
       <c r="K8">
-        <v>10.7473395214762</v>
+        <v>21.2449259539491</v>
       </c>
       <c r="L8">
-        <v>46.3316183261099</v>
+        <v>41.3010746752172</v>
       </c>
       <c r="M8">
-        <v>53.7339970281803</v>
+        <v>52.6285187965714</v>
       </c>
       <c r="N8">
-        <v>17.1743032270015</v>
+        <v>24.660371380064</v>
       </c>
       <c r="O8">
-        <v>1278.86424115506</v>
+        <v>1199.92519174923</v>
       </c>
       <c r="P8">
-        <v>4.64394686773949</v>
+        <v>6.7149337611848</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>223.219393909286</v>
+        <v>230.744699446118</v>
       </c>
       <c r="C9">
-        <v>6.35172632848619</v>
+        <v>9.179534573222041</v>
       </c>
       <c r="D9">
-        <v>1.94989446878925</v>
+        <v>1.89397375812455</v>
       </c>
       <c r="E9">
-        <v>3.16057835481074</v>
+        <v>5.0572200984804</v>
       </c>
       <c r="F9">
-        <v>1.90059718394822</v>
+        <v>1.88172981145336</v>
       </c>
       <c r="G9">
-        <v>16.5259800316717</v>
+        <v>15.6388613492063</v>
       </c>
       <c r="H9">
-        <v>2.16176368602774</v>
+        <v>3.19217334563933</v>
       </c>
       <c r="I9">
-        <v>1.65913892954165</v>
+        <v>0.912049527325523</v>
       </c>
       <c r="J9">
-        <v>5.4901723755282</v>
+        <v>3.55630533277782</v>
       </c>
       <c r="K9">
-        <v>1.08999269570008</v>
+        <v>1.94966169178166</v>
       </c>
       <c r="L9">
-        <v>3.27368348900498</v>
+        <v>2.50450716741505</v>
       </c>
       <c r="M9">
-        <v>6.22462188966596</v>
+        <v>6.19704091574588</v>
       </c>
       <c r="N9">
-        <v>3.16882192572779</v>
+        <v>4.56830887250905</v>
       </c>
       <c r="O9">
-        <v>287.852706740801</v>
+        <v>279.967440134042</v>
       </c>
       <c r="P9">
-        <v>3.77633815754621</v>
+        <v>3.39056797947724</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5360.06471060286</v>
+        <v>5633.9266693347</v>
       </c>
       <c r="C10">
-        <v>66.2063519462917</v>
+        <v>57.3368261937336</v>
       </c>
       <c r="D10">
-        <v>8.105095294209759</v>
+        <v>21.9511429309435</v>
       </c>
       <c r="E10">
-        <v>46.3244822166954</v>
+        <v>76.8840340956254</v>
       </c>
       <c r="F10">
-        <v>11.9817004168909</v>
+        <v>13.2074208487767</v>
       </c>
       <c r="G10">
-        <v>30.1421799596937</v>
+        <v>33.6158472635347</v>
       </c>
       <c r="H10">
-        <v>21.2530498289025</v>
+        <v>19.8926658939604</v>
       </c>
       <c r="I10">
-        <v>24.995974390532</v>
+        <v>23.3849533757758</v>
       </c>
       <c r="J10">
-        <v>52.0517263383287</v>
+        <v>42.2415451217934</v>
       </c>
       <c r="K10">
-        <v>7.21084439295002</v>
+        <v>32.9712059121046</v>
       </c>
       <c r="L10">
-        <v>69.0279192868683</v>
+        <v>83.9856845074996</v>
       </c>
       <c r="M10">
-        <v>65.8219140061815</v>
+        <v>77.02910108915221</v>
       </c>
       <c r="N10">
-        <v>76.6664490144647</v>
+        <v>79.0384309343014</v>
       </c>
       <c r="O10">
-        <v>6461.72112519727</v>
+        <v>6036.66294630329</v>
       </c>
       <c r="P10">
-        <v>89.5603548398074</v>
+        <v>93.5407699047979</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2239.23095682787</v>
+        <v>2310.43593740568</v>
       </c>
       <c r="C11">
-        <v>64.8306872163878</v>
+        <v>81.95728497770671</v>
       </c>
       <c r="D11">
-        <v>150.503953641705</v>
+        <v>111.418058265227</v>
       </c>
       <c r="E11">
-        <v>57.1819594452903</v>
+        <v>83.5579137154806</v>
       </c>
       <c r="F11">
-        <v>7.3550720921817</v>
+        <v>12.2585757868648</v>
       </c>
       <c r="G11">
-        <v>20.6132814412983</v>
+        <v>30.4440402100934</v>
       </c>
       <c r="H11">
-        <v>11.9135869553788</v>
+        <v>30.6059217749715</v>
       </c>
       <c r="I11">
-        <v>24.1790405261015</v>
+        <v>18.5805897948114</v>
       </c>
       <c r="J11">
-        <v>45.7943654425668</v>
+        <v>35.4378754627721</v>
       </c>
       <c r="K11">
-        <v>2.46550562842126</v>
+        <v>35.4137190969999</v>
       </c>
       <c r="L11">
-        <v>59.3685811848919</v>
+        <v>58.7412297103565</v>
       </c>
       <c r="M11">
-        <v>33.3135437402396</v>
+        <v>72.7949397455093</v>
       </c>
       <c r="N11">
-        <v>54.4630706297</v>
+        <v>53.6907603069879</v>
       </c>
       <c r="O11">
-        <v>2906.83052599801</v>
+        <v>2787.02216588341</v>
       </c>
       <c r="P11">
-        <v>45.8554020721069</v>
+        <v>59.7630276759324</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>323.845906497074</v>
+        <v>347.236939609213</v>
       </c>
       <c r="C12">
-        <v>6.93233601416084</v>
+        <v>4.72456569659821</v>
       </c>
       <c r="D12">
-        <v>0.395509979798999</v>
+        <v>2.07463949970693</v>
       </c>
       <c r="E12">
-        <v>3.85876912859311</v>
+        <v>2.92341890635848</v>
       </c>
       <c r="F12">
-        <v>1.66245518850776</v>
+        <v>0.719208359898402</v>
       </c>
       <c r="G12">
-        <v>1.60696062352252</v>
+        <v>0.442589759937478</v>
       </c>
       <c r="H12">
-        <v>0.207032942824072</v>
+        <v>0.0765745248449638</v>
       </c>
       <c r="I12">
-        <v>0.7259038743030291</v>
+        <v>0.995826959859322</v>
       </c>
       <c r="J12">
-        <v>0.769550966526777</v>
+        <v>0.6085609199140321</v>
       </c>
       <c r="K12">
-        <v>0.0435629445020496</v>
+        <v>0.414927899941385</v>
       </c>
       <c r="L12">
-        <v>0.817071194225527</v>
+        <v>0.224064079723353</v>
       </c>
       <c r="M12">
-        <v>2.18220744062618</v>
+        <v>3.7119467008178</v>
       </c>
       <c r="N12">
-        <v>1.44165918330045</v>
+        <v>2.25327605565252</v>
       </c>
       <c r="O12">
-        <v>472.886799284349</v>
+        <v>448.148201151551</v>
       </c>
       <c r="P12">
-        <v>11.8200903988417</v>
+        <v>13.053699056334</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>311.187422004401</v>
+        <v>376.378871271054</v>
       </c>
       <c r="C13">
-        <v>16.9230745078809</v>
+        <v>19.6592931434179</v>
       </c>
       <c r="D13">
-        <v>0.60112123193319</v>
+        <v>1.07363343797044</v>
       </c>
       <c r="E13">
-        <v>7.44958661690354</v>
+        <v>17.4031981219306</v>
       </c>
       <c r="F13">
-        <v>1.45216222099526</v>
+        <v>1.79556341149092</v>
       </c>
       <c r="G13">
-        <v>4.51714128371345</v>
+        <v>4.89053425231796</v>
       </c>
       <c r="H13">
-        <v>1.78116498457685</v>
+        <v>1.84369858510617</v>
       </c>
       <c r="I13">
-        <v>2.77424991941963</v>
+        <v>1.70187561702108</v>
       </c>
       <c r="J13">
-        <v>1.76546351056142</v>
+        <v>5.22580373092508</v>
       </c>
       <c r="K13">
-        <v>3.42733914559096</v>
+        <v>2.55281342553161</v>
       </c>
       <c r="L13">
-        <v>10.8890392439839</v>
+        <v>21.4678322595</v>
       </c>
       <c r="M13">
-        <v>0.886514351075167</v>
+        <v>2.63798214045751</v>
       </c>
       <c r="N13">
-        <v>1.62297611049351</v>
+        <v>5.82796243039463</v>
       </c>
       <c r="O13">
-        <v>490.63551966991</v>
+        <v>415.781043678852</v>
       </c>
       <c r="P13">
-        <v>43.8621880462253</v>
+        <v>36.406524351756</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3298.90952699649</v>
+        <v>3447.52850720144</v>
       </c>
       <c r="C14">
-        <v>116.904079250335</v>
+        <v>107.064123276959</v>
       </c>
       <c r="D14">
-        <v>5.18437178122856</v>
+        <v>17.8574139128877</v>
       </c>
       <c r="E14">
-        <v>98.67537175336371</v>
+        <v>131.348743498075</v>
       </c>
       <c r="F14">
-        <v>21.1931324309251</v>
+        <v>29.0522595795133</v>
       </c>
       <c r="G14">
-        <v>64.55107099104281</v>
+        <v>70.6222118088032</v>
       </c>
       <c r="H14">
-        <v>30.6715256949247</v>
+        <v>58.9846913136663</v>
       </c>
       <c r="I14">
-        <v>18.8555052410196</v>
+        <v>17.6970055489258</v>
       </c>
       <c r="J14">
-        <v>117.000785300289</v>
+        <v>167.704585975928</v>
       </c>
       <c r="K14">
-        <v>112.597233607896</v>
+        <v>128.973257733036</v>
       </c>
       <c r="L14">
-        <v>88.0714746188722</v>
+        <v>110.876409385997</v>
       </c>
       <c r="M14">
-        <v>73.8332633554692</v>
+        <v>82.112633019793</v>
       </c>
       <c r="N14">
-        <v>68.4258594364688</v>
+        <v>71.69750775854681</v>
       </c>
       <c r="O14">
-        <v>4342.26415186266</v>
+        <v>4006.79965677195</v>
       </c>
       <c r="P14">
-        <v>58.8800480402511</v>
+        <v>68.5917928429861</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1553.40911090634</v>
+        <v>1654.32452995552</v>
       </c>
       <c r="C15">
-        <v>30.0624349221171</v>
+        <v>38.6629195301054</v>
       </c>
       <c r="D15">
-        <v>16.1755661020207</v>
+        <v>11.7711575342164</v>
       </c>
       <c r="E15">
-        <v>80.2506610875696</v>
+        <v>69.07382077106119</v>
       </c>
       <c r="F15">
-        <v>20.2254131887492</v>
+        <v>11.7350070428283</v>
       </c>
       <c r="G15">
-        <v>47.6721877175941</v>
+        <v>40.215108240624</v>
       </c>
       <c r="H15">
-        <v>29.771224944073</v>
+        <v>55.445364548215</v>
       </c>
       <c r="I15">
-        <v>24.0745748157956</v>
+        <v>17.2101235368819</v>
       </c>
       <c r="J15">
-        <v>155.430331902552</v>
+        <v>136.946794055203</v>
       </c>
       <c r="K15">
-        <v>14.245027066402</v>
+        <v>44.9361885353977</v>
       </c>
       <c r="L15">
-        <v>26.4081912384972</v>
+        <v>57.2032794781985</v>
       </c>
       <c r="M15">
-        <v>163.886924215753</v>
+        <v>208.055850708362</v>
       </c>
       <c r="N15">
-        <v>71.6641339617791</v>
+        <v>78.8709917250572</v>
       </c>
       <c r="O15">
-        <v>1987.12337437939</v>
+        <v>1803.29147106147</v>
       </c>
       <c r="P15">
-        <v>47.1867871943389</v>
+        <v>41.2601467695577</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>648.767421361107</v>
+        <v>750.101347967309</v>
       </c>
       <c r="C16">
-        <v>49.4982909822601</v>
+        <v>56.1132577962137</v>
       </c>
       <c r="D16">
-        <v>6.4102769937211</v>
+        <v>6.16154324486948</v>
       </c>
       <c r="E16">
-        <v>24.4907520164441</v>
+        <v>25.996800917043</v>
       </c>
       <c r="F16">
-        <v>1.94619631400157</v>
+        <v>3.33510680241323</v>
       </c>
       <c r="G16">
-        <v>20.7450262941676</v>
+        <v>10.2391490815075</v>
       </c>
       <c r="H16">
-        <v>12.0992116035732</v>
+        <v>16.617047928661</v>
       </c>
       <c r="I16">
-        <v>6.61411791631497</v>
+        <v>9.391314687139319</v>
       </c>
       <c r="J16">
-        <v>49.6274207422601</v>
+        <v>47.1044331781701</v>
       </c>
       <c r="K16">
-        <v>33.7590491966259</v>
+        <v>45.9250958195151</v>
       </c>
       <c r="L16">
-        <v>24.5829543940082</v>
+        <v>33.6955383287172</v>
       </c>
       <c r="M16">
-        <v>26.2030976073233</v>
+        <v>28.1940309231209</v>
       </c>
       <c r="N16">
-        <v>25.0581357018068</v>
+        <v>15.7615718669261</v>
       </c>
       <c r="O16">
-        <v>1041.74012784786</v>
+        <v>935.297841834248</v>
       </c>
       <c r="P16">
-        <v>63.8916557313268</v>
+        <v>63.8374923191799</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>625.244707581962</v>
+        <v>684.652198109533</v>
       </c>
       <c r="C17">
-        <v>16.9850572789876</v>
+        <v>32.6035462027363</v>
       </c>
       <c r="D17">
-        <v>6.6464288531604</v>
+        <v>4.95967760448892</v>
       </c>
       <c r="E17">
-        <v>25.4083029847405</v>
+        <v>22.923908795163</v>
       </c>
       <c r="F17">
-        <v>7.66287429800014</v>
+        <v>16.7292759495286</v>
       </c>
       <c r="G17">
-        <v>5.01439541866881</v>
+        <v>8.31265887327597</v>
       </c>
       <c r="H17">
-        <v>6.31420065157681</v>
+        <v>12.8130198536785</v>
       </c>
       <c r="I17">
-        <v>10.3902776274715</v>
+        <v>8.84775662780986</v>
       </c>
       <c r="J17">
-        <v>17.4695999602375</v>
+        <v>17.0520403430534</v>
       </c>
       <c r="K17">
-        <v>8.798723138905221</v>
+        <v>17.152695320961</v>
       </c>
       <c r="L17">
-        <v>5.84328464020007</v>
+        <v>9.95977557514955</v>
       </c>
       <c r="M17">
-        <v>56.5832021861157</v>
+        <v>61.5043821650707</v>
       </c>
       <c r="N17">
-        <v>13.0438662035969</v>
+        <v>14.5860108681015</v>
       </c>
       <c r="O17">
-        <v>986.170280377781</v>
+        <v>870.536537205749</v>
       </c>
       <c r="P17">
-        <v>44.9581942510338</v>
+        <v>58.8109265147636</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1226.02679694348</v>
+        <v>1326.80277820256</v>
       </c>
       <c r="C18">
-        <v>23.4010176318887</v>
+        <v>34.4813213440393</v>
       </c>
       <c r="D18">
-        <v>11.1260773480882</v>
+        <v>21.1032208862493</v>
       </c>
       <c r="E18">
-        <v>27.1887888002728</v>
+        <v>50.7016075017421</v>
       </c>
       <c r="F18">
-        <v>22.838805718968</v>
+        <v>25.2950229865892</v>
       </c>
       <c r="G18">
-        <v>22.0895300945769</v>
+        <v>15.7161866923737</v>
       </c>
       <c r="H18">
-        <v>17.9358169269163</v>
+        <v>17.2752813707511</v>
       </c>
       <c r="I18">
-        <v>4.41157321371748</v>
+        <v>10.8348386317659</v>
       </c>
       <c r="J18">
-        <v>38.2991889789134</v>
+        <v>50.452793005339</v>
       </c>
       <c r="K18">
-        <v>11.5505318737647</v>
+        <v>33.5572132607107</v>
       </c>
       <c r="L18">
-        <v>26.6015297037954</v>
+        <v>25.8499939914937</v>
       </c>
       <c r="M18">
-        <v>67.3937265436858</v>
+        <v>74.3161969550988</v>
       </c>
       <c r="N18">
-        <v>28.8247346860768</v>
+        <v>21.0082158107488</v>
       </c>
       <c r="O18">
-        <v>1314.98503221893</v>
+        <v>1155.93494032766</v>
       </c>
       <c r="P18">
-        <v>48.9238444133581</v>
+        <v>35.9183203354139</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1314.18809932066</v>
+        <v>1341.68688432547</v>
       </c>
       <c r="C19">
-        <v>27.0174288857086</v>
+        <v>18.0715039044477</v>
       </c>
       <c r="D19">
-        <v>11.5368908394986</v>
+        <v>9.29981657605312</v>
       </c>
       <c r="E19">
-        <v>50.28731802368</v>
+        <v>31.3542574470812</v>
       </c>
       <c r="F19">
-        <v>82.73895316852421</v>
+        <v>75.9189178150632</v>
       </c>
       <c r="G19">
-        <v>36.1745315847108</v>
+        <v>38.1993840222564</v>
       </c>
       <c r="H19">
-        <v>8.96669493770955</v>
+        <v>6.42672940193891</v>
       </c>
       <c r="I19">
-        <v>1.41680987819629</v>
+        <v>7.14466385587859</v>
       </c>
       <c r="J19">
-        <v>13.9736088822964</v>
+        <v>26.6454710847724</v>
       </c>
       <c r="K19">
-        <v>6.83258356236963</v>
+        <v>11.2814632753466</v>
       </c>
       <c r="L19">
-        <v>0.785054697882289</v>
+        <v>5.30647105694234</v>
       </c>
       <c r="M19">
-        <v>33.0571195176611</v>
+        <v>23.9637513325868</v>
       </c>
       <c r="N19">
-        <v>7.53416674837082</v>
+        <v>10.6363774818116</v>
       </c>
       <c r="O19">
-        <v>1452.23728498668</v>
+        <v>1359.70702332737</v>
       </c>
       <c r="P19">
-        <v>32.2708031708267</v>
+        <v>29.1733715019408</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>356.420550581254</v>
+        <v>368.171074218692</v>
       </c>
       <c r="C20">
-        <v>10.6948064544448</v>
+        <v>8.24318389858915</v>
       </c>
       <c r="D20">
-        <v>6.50041030466715</v>
+        <v>10.1783757554911</v>
       </c>
       <c r="E20">
-        <v>31.887818362644</v>
+        <v>36.0087858441895</v>
       </c>
       <c r="F20">
-        <v>2.22948287298567</v>
+        <v>0.494803072349817</v>
       </c>
       <c r="G20">
-        <v>1.85972857869851</v>
+        <v>1.61462055187835</v>
       </c>
       <c r="H20">
-        <v>0.583800683486059</v>
+        <v>1.82295868760459</v>
       </c>
       <c r="I20">
-        <v>2.8473163629919</v>
+        <v>1.66670508580991</v>
       </c>
       <c r="J20">
-        <v>5.75492470981507</v>
+        <v>5.81303347780303</v>
       </c>
       <c r="K20">
-        <v>0.473115933957305</v>
+        <v>4.06615130334625</v>
       </c>
       <c r="L20">
-        <v>6.08718420323995</v>
+        <v>7.76974111580088</v>
       </c>
       <c r="M20">
-        <v>12.8360623822122</v>
+        <v>15.2232026805422</v>
       </c>
       <c r="N20">
-        <v>7.02495695470596</v>
+        <v>6.82307394503431</v>
       </c>
       <c r="O20">
-        <v>481.647346221569</v>
+        <v>451.42804874908</v>
       </c>
       <c r="P20">
-        <v>17.0210572741214</v>
+        <v>19.4710665054659</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1381.31433731942</v>
+        <v>1431.59358012899</v>
       </c>
       <c r="C21">
-        <v>23.3768953322997</v>
+        <v>22.8589427593944</v>
       </c>
       <c r="D21">
-        <v>2.73217717540219</v>
+        <v>10.2172461716859</v>
       </c>
       <c r="E21">
-        <v>17.1841262413767</v>
+        <v>41.9914922308946</v>
       </c>
       <c r="F21">
-        <v>4.13975470037691</v>
+        <v>4.09721896062682</v>
       </c>
       <c r="G21">
-        <v>8.03855911835805</v>
+        <v>20.9076635707244</v>
       </c>
       <c r="H21">
-        <v>10.2195954306242</v>
+        <v>7.87704772007832</v>
       </c>
       <c r="I21">
-        <v>20.0035571332768</v>
+        <v>6.83831615259546</v>
       </c>
       <c r="J21">
-        <v>28.8677757005489</v>
+        <v>27.0935817185112</v>
       </c>
       <c r="K21">
-        <v>3.63364989997673</v>
+        <v>10.264108926757</v>
       </c>
       <c r="L21">
-        <v>21.2116091572433</v>
+        <v>39.904604384133</v>
       </c>
       <c r="M21">
-        <v>11.5570044793444</v>
+        <v>25.4390307678108</v>
       </c>
       <c r="N21">
-        <v>22.6531126539525</v>
+        <v>18.5084764311605</v>
       </c>
       <c r="O21">
-        <v>2136.70857478785</v>
+        <v>1990.04786538854</v>
       </c>
       <c r="P21">
-        <v>13.8614570300832</v>
+        <v>17.1590770419474</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1614.14682756952</v>
+        <v>1659.15725961032</v>
       </c>
       <c r="C22">
-        <v>13.3299437957202</v>
+        <v>29.1541269744966</v>
       </c>
       <c r="D22">
-        <v>14.0894548244106</v>
+        <v>25.2140152306806</v>
       </c>
       <c r="E22">
-        <v>48.1611776830537</v>
+        <v>52.609482274449</v>
       </c>
       <c r="F22">
-        <v>4.7967566800721</v>
+        <v>3.06994642756253</v>
       </c>
       <c r="G22">
-        <v>22.1299476417444</v>
+        <v>29.5970401030273</v>
       </c>
       <c r="H22">
-        <v>17.6102268990784</v>
+        <v>18.0958569950663</v>
       </c>
       <c r="I22">
-        <v>7.30171922084312</v>
+        <v>9.24946724424403</v>
       </c>
       <c r="J22">
-        <v>41.9853746285913</v>
+        <v>46.6761961312873</v>
       </c>
       <c r="K22">
-        <v>5.41691824550209</v>
+        <v>24.2069734372534</v>
       </c>
       <c r="L22">
-        <v>106.594542966353</v>
+        <v>121.834357489419</v>
       </c>
       <c r="M22">
-        <v>15.0957403137839</v>
+        <v>18.2951107174941</v>
       </c>
       <c r="N22">
-        <v>62.5905900305508</v>
+        <v>44.1035691966072</v>
       </c>
       <c r="O22">
-        <v>2391.30228716532</v>
+        <v>2291.63304410974</v>
       </c>
       <c r="P22">
-        <v>5.69509643842046</v>
+        <v>11.7499848781237</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2691.97993358112</v>
+        <v>2876.35926468159</v>
       </c>
       <c r="C23">
-        <v>21.4967775733119</v>
+        <v>39.1264474134028</v>
       </c>
       <c r="D23">
-        <v>5.34126771908096</v>
+        <v>9.323749033258011</v>
       </c>
       <c r="E23">
-        <v>51.0087951114037</v>
+        <v>69.2560107763457</v>
       </c>
       <c r="F23">
-        <v>13.5845917565055</v>
+        <v>14.573150013935</v>
       </c>
       <c r="G23">
-        <v>60.8043772816812</v>
+        <v>44.3232846249209</v>
       </c>
       <c r="H23">
-        <v>60.5162945339649</v>
+        <v>63.4695271592632</v>
       </c>
       <c r="I23">
-        <v>10.7994192723971</v>
+        <v>14.0992719155213</v>
       </c>
       <c r="J23">
-        <v>134.889330477436</v>
+        <v>138.456530262163</v>
       </c>
       <c r="K23">
-        <v>61.8179893823427</v>
+        <v>88.59960411211461</v>
       </c>
       <c r="L23">
-        <v>30.7962696330385</v>
+        <v>41.4497893054651</v>
       </c>
       <c r="M23">
-        <v>461.947128275924</v>
+        <v>467.58905049651</v>
       </c>
       <c r="N23">
-        <v>84.22168892329741</v>
+        <v>73.2128402156625</v>
       </c>
       <c r="O23">
-        <v>3216.6686965034</v>
+        <v>2949.65745731552</v>
       </c>
       <c r="P23">
-        <v>53.5586157228424</v>
+        <v>44.4476514168784</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1021.65724300055</v>
+        <v>1173.97684606084</v>
       </c>
       <c r="C24">
-        <v>55.3175908774703</v>
+        <v>66.10081761289911</v>
       </c>
       <c r="D24">
-        <v>5.63894315294062</v>
+        <v>5.17528896910792</v>
       </c>
       <c r="E24">
-        <v>52.1795302070133</v>
+        <v>78.5386562337075</v>
       </c>
       <c r="F24">
-        <v>8.975688990122441</v>
+        <v>10.222764985836</v>
       </c>
       <c r="G24">
-        <v>31.2845179048315</v>
+        <v>16.0661444430791</v>
       </c>
       <c r="H24">
-        <v>9.25978131042619</v>
+        <v>18.7707764067902</v>
       </c>
       <c r="I24">
-        <v>15.0397750072325</v>
+        <v>13.6539377095083</v>
       </c>
       <c r="J24">
-        <v>64.0173730965861</v>
+        <v>63.5199196899513</v>
       </c>
       <c r="K24">
-        <v>11.2703779062842</v>
+        <v>48.5397291835361</v>
       </c>
       <c r="L24">
-        <v>70.9604850686387</v>
+        <v>70.3348729046064</v>
       </c>
       <c r="M24">
-        <v>27.5050914253976</v>
+        <v>29.4407788650125</v>
       </c>
       <c r="N24">
-        <v>60.8087586037369</v>
+        <v>53.3745136601345</v>
       </c>
       <c r="O24">
-        <v>1935.07343874092</v>
+        <v>1728.64971043157</v>
       </c>
       <c r="P24">
-        <v>96.8481829996052</v>
+        <v>93.7078074688249</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>867.917502123421</v>
+        <v>901.955725982154</v>
       </c>
       <c r="C25">
-        <v>33.607429063717</v>
+        <v>26.8650263921977</v>
       </c>
       <c r="D25">
-        <v>8.179995633308449</v>
+        <v>18.3091587522339</v>
       </c>
       <c r="E25">
-        <v>32.0426049434683</v>
+        <v>34.3468035072813</v>
       </c>
       <c r="F25">
-        <v>10.6064214333167</v>
+        <v>6.70861491074747</v>
       </c>
       <c r="G25">
-        <v>8.16845874621043</v>
+        <v>9.86024289842852</v>
       </c>
       <c r="H25">
-        <v>5.3745439405321</v>
+        <v>11.1895527045165</v>
       </c>
       <c r="I25">
-        <v>6.25732276993196</v>
+        <v>5.97238834420366</v>
       </c>
       <c r="J25">
-        <v>8.740070925875729</v>
+        <v>16.3009873939071</v>
       </c>
       <c r="K25">
-        <v>0.680789414495569</v>
+        <v>14.967929727889</v>
       </c>
       <c r="L25">
-        <v>11.0892015395579</v>
+        <v>20.2814325728402</v>
       </c>
       <c r="M25">
-        <v>38.9556047578734</v>
+        <v>25.4396455983367</v>
       </c>
       <c r="N25">
-        <v>35.8923333841258</v>
+        <v>51.0595569481528</v>
       </c>
       <c r="O25">
-        <v>842.1489279723051</v>
+        <v>761.445831949772</v>
       </c>
       <c r="P25">
-        <v>31.6904913534395</v>
+        <v>30.0999005870117</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1424.46408331052</v>
+        <v>1595.5337325591</v>
       </c>
       <c r="C26">
-        <v>43.7070980906848</v>
+        <v>57.5416456995331</v>
       </c>
       <c r="D26">
-        <v>19.4218622639011</v>
+        <v>21.1377009568722</v>
       </c>
       <c r="E26">
-        <v>45.6787877126704</v>
+        <v>59.3951672809729</v>
       </c>
       <c r="F26">
-        <v>8.608771449429479</v>
+        <v>12.1412341870015</v>
       </c>
       <c r="G26">
-        <v>34.0093396430868</v>
+        <v>23.3773562830533</v>
       </c>
       <c r="H26">
-        <v>10.7087973346066</v>
+        <v>21.2400072475378</v>
       </c>
       <c r="I26">
-        <v>10.2265795970542</v>
+        <v>14.5494623280894</v>
       </c>
       <c r="J26">
-        <v>22.6076564339788</v>
+        <v>64.23176692194831</v>
       </c>
       <c r="K26">
-        <v>10.1166817167309</v>
+        <v>35.9017550860545</v>
       </c>
       <c r="L26">
-        <v>22.6751992425677</v>
+        <v>41.0704772615988</v>
       </c>
       <c r="M26">
-        <v>76.8125676031602</v>
+        <v>69.6850369122762</v>
       </c>
       <c r="N26">
-        <v>16.1113210651153</v>
+        <v>42.4425386904796</v>
       </c>
       <c r="O26">
-        <v>2128.14573561313</v>
+        <v>1824.0847692499</v>
       </c>
       <c r="P26">
-        <v>65.0455819411312</v>
+        <v>66.00061249405211</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>242.566702685518</v>
+        <v>257.460283571754</v>
       </c>
       <c r="C27">
-        <v>0.896135764768333</v>
+        <v>3.01444849709317</v>
       </c>
       <c r="D27">
-        <v>1.90926456253339</v>
+        <v>1.107301677398</v>
       </c>
       <c r="E27">
-        <v>10.2984731871172</v>
+        <v>8.81066365976996</v>
       </c>
       <c r="F27">
-        <v>4.92789146795773</v>
+        <v>5.48225530171989</v>
       </c>
       <c r="G27">
-        <v>0.551101077518497</v>
+        <v>0.810220739559513</v>
       </c>
       <c r="H27">
-        <v>0.662352734152281</v>
+        <v>0.324088295823806</v>
       </c>
       <c r="I27">
-        <v>1.29873493381328</v>
+        <v>1.36810288599881</v>
       </c>
       <c r="J27">
-        <v>1.03332536362367</v>
+        <v>2.74439796888487</v>
       </c>
       <c r="K27">
-        <v>0.731570131774012</v>
+        <v>1.107301677398</v>
       </c>
       <c r="L27">
-        <v>2.47878169709421</v>
+        <v>1.6545239115909</v>
       </c>
       <c r="M27">
-        <v>1.04230506905283</v>
+        <v>0.891242813515466</v>
       </c>
       <c r="N27">
-        <v>3.07162559596742</v>
+        <v>3.97301301380934</v>
       </c>
       <c r="O27">
-        <v>330.723598082209</v>
+        <v>317.174235261655</v>
       </c>
       <c r="P27">
-        <v>40.869526053876</v>
+        <v>35.5109349405792</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>355.748335416477</v>
+        <v>414.82088043591</v>
       </c>
       <c r="C28">
-        <v>33.94851055992</v>
+        <v>33.4802349264025</v>
       </c>
       <c r="D28">
-        <v>3.419900673017</v>
+        <v>1.98584174192318</v>
       </c>
       <c r="E28">
-        <v>6.56636484174141</v>
+        <v>9.70938150085197</v>
       </c>
       <c r="F28">
-        <v>1.25586065955318</v>
+        <v>1.98081337823618</v>
       </c>
       <c r="G28">
-        <v>3.73112016347591</v>
+        <v>4.63737465771237</v>
       </c>
       <c r="H28">
-        <v>6.67563279009845</v>
+        <v>6.43649191076622</v>
       </c>
       <c r="I28">
-        <v>2.85852482546178</v>
+        <v>3.77059457374088</v>
       </c>
       <c r="J28">
-        <v>17.4072837441503</v>
+        <v>12.0963186773573</v>
       </c>
       <c r="K28">
-        <v>10.2217063405708</v>
+        <v>14.9046042283835</v>
       </c>
       <c r="L28">
-        <v>7.91919464834399</v>
+        <v>11.1191436989626</v>
       </c>
       <c r="M28">
-        <v>8.435977816574599</v>
+        <v>11.058722693021</v>
       </c>
       <c r="N28">
-        <v>8.05098043374538</v>
+        <v>9.94026034724072</v>
       </c>
       <c r="O28">
-        <v>661.872402446907</v>
+        <v>589.460942059511</v>
       </c>
       <c r="P28">
-        <v>67.52258062662121</v>
+        <v>75.1903102947791</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>553.825126929862</v>
+        <v>595.12280444685</v>
       </c>
       <c r="C29">
-        <v>4.48031719245362</v>
+        <v>5.11782323214008</v>
       </c>
       <c r="D29">
-        <v>1.96835874372755</v>
+        <v>1.58079138934806</v>
       </c>
       <c r="E29">
-        <v>5.05100149794612</v>
+        <v>7.1001647148684</v>
       </c>
       <c r="F29">
-        <v>24.7228861849546</v>
+        <v>16.7877827039546</v>
       </c>
       <c r="G29">
-        <v>3.87962924511446</v>
+        <v>2.08985980286692</v>
       </c>
       <c r="H29">
-        <v>2.08407140999847</v>
+        <v>2.89365203473882</v>
       </c>
       <c r="I29">
-        <v>1.63196577164454</v>
+        <v>2.86120730156892</v>
       </c>
       <c r="J29">
-        <v>6.17526054252902</v>
+        <v>7.83975749439742</v>
       </c>
       <c r="K29">
-        <v>0.578603874571743</v>
+        <v>2.22728047683361</v>
       </c>
       <c r="L29">
-        <v>4.2929820498504</v>
+        <v>5.78730406947764</v>
       </c>
       <c r="M29">
-        <v>2.63159962256324</v>
+        <v>3.50989274584061</v>
       </c>
       <c r="N29">
-        <v>10.5506663198225</v>
+        <v>9.92504641647435</v>
       </c>
       <c r="O29">
-        <v>891.168576098599</v>
+        <v>847.204090284135</v>
       </c>
       <c r="P29">
-        <v>2.32015202557546</v>
+        <v>6.01367935909304</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>278.337933934222</v>
+        <v>298.105120971851</v>
       </c>
       <c r="C30">
-        <v>1.29629372479887</v>
+        <v>3.7151910518131</v>
       </c>
       <c r="D30">
-        <v>5.26767154512419</v>
+        <v>5.25532021944261</v>
       </c>
       <c r="E30">
-        <v>12.5216828798939</v>
+        <v>15.4574572721962</v>
       </c>
       <c r="F30">
-        <v>0.0632151077403216</v>
+        <v>0.837226152521261</v>
       </c>
       <c r="G30">
-        <v>3.29595165183334</v>
+        <v>3.0238539282215</v>
       </c>
       <c r="H30">
-        <v>6.07410883958293</v>
+        <v>4.51899413397843</v>
       </c>
       <c r="I30">
-        <v>1.73165881158459</v>
+        <v>2.74130952183063</v>
       </c>
       <c r="J30">
-        <v>13.8782102496</v>
+        <v>20.7671709103474</v>
       </c>
       <c r="K30">
-        <v>5.22780222652008</v>
+        <v>8.04612880979635</v>
       </c>
       <c r="L30">
-        <v>36.2148717058128</v>
+        <v>27.1313843416462</v>
       </c>
       <c r="M30">
-        <v>6.89523152098462</v>
+        <v>6.61215371184875</v>
       </c>
       <c r="N30">
-        <v>12.2227944267652</v>
+        <v>12.0891449135664</v>
       </c>
       <c r="O30">
-        <v>474.238455444105</v>
+        <v>453.989723363698</v>
       </c>
       <c r="P30">
-        <v>8.43138839967564</v>
+        <v>4.37524040378128</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2260.8155874379</v>
+        <v>2485.72876547458</v>
       </c>
       <c r="C31">
-        <v>55.0862271237009</v>
+        <v>39.2113962089578</v>
       </c>
       <c r="D31">
-        <v>3.18504051283234</v>
+        <v>25.7370069923305</v>
       </c>
       <c r="E31">
-        <v>41.9290834953387</v>
+        <v>57.2654628999514</v>
       </c>
       <c r="F31">
-        <v>4.90153811521068</v>
+        <v>9.56080210884697</v>
       </c>
       <c r="G31">
-        <v>77.155910719248</v>
+        <v>112.197398214698</v>
       </c>
       <c r="H31">
-        <v>8.91124967626423</v>
+        <v>22.1686523322217</v>
       </c>
       <c r="I31">
-        <v>24.9009077545677</v>
+        <v>18.553168643759</v>
       </c>
       <c r="J31">
-        <v>30.2742462612409</v>
+        <v>38.2731507196383</v>
       </c>
       <c r="K31">
-        <v>5.11249493762788</v>
+        <v>20.247173775569</v>
       </c>
       <c r="L31">
-        <v>63.4379586908567</v>
+        <v>70.46014904861531</v>
       </c>
       <c r="M31">
-        <v>14.8982474326278</v>
+        <v>20.8310492210497</v>
       </c>
       <c r="N31">
-        <v>49.2511545393336</v>
+        <v>49.1563188805089</v>
       </c>
       <c r="O31">
-        <v>3215.60131035018</v>
+        <v>2866.98432249728</v>
       </c>
       <c r="P31">
-        <v>10.9671533967989</v>
+        <v>13.9957460446814</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>535.825797728657</v>
+        <v>575.356262921791</v>
       </c>
       <c r="C32">
-        <v>4.3810930824263</v>
+        <v>6.217262030872</v>
       </c>
       <c r="D32">
-        <v>0.822699301378266</v>
+        <v>1.40076442796494</v>
       </c>
       <c r="E32">
-        <v>4.62547699275385</v>
+        <v>5.33335515216928</v>
       </c>
       <c r="F32">
-        <v>18.8069043426373</v>
+        <v>21.8475897351153</v>
       </c>
       <c r="G32">
-        <v>4.04860217943473</v>
+        <v>1.88674392338135</v>
       </c>
       <c r="H32">
-        <v>1.50247728776138</v>
+        <v>0.425856027316756</v>
       </c>
       <c r="I32">
-        <v>1.68170939020329</v>
+        <v>3.35607895550181</v>
       </c>
       <c r="J32">
-        <v>3.21417509550505</v>
+        <v>4.28805437132124</v>
       </c>
       <c r="K32">
-        <v>1.63799550565409</v>
+        <v>2.02967906909206</v>
       </c>
       <c r="L32">
-        <v>12.1038199684104</v>
+        <v>13.347606212408</v>
       </c>
       <c r="M32">
-        <v>3.5991608243511</v>
+        <v>5.02905627751131</v>
       </c>
       <c r="N32">
-        <v>11.2907850204159</v>
+        <v>8.208931986550541</v>
       </c>
       <c r="O32">
-        <v>639.967415404581</v>
+        <v>600.465429930311</v>
       </c>
       <c r="P32">
-        <v>20.106251014429</v>
+        <v>19.3941783677147</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5510.27914195772</v>
+        <v>5677.3439770013</v>
       </c>
       <c r="C33">
-        <v>71.69099249177781</v>
+        <v>78.5769770097002</v>
       </c>
       <c r="D33">
-        <v>26.1436451870163</v>
+        <v>87.4498778070065</v>
       </c>
       <c r="E33">
-        <v>85.02078444154689</v>
+        <v>106.273080416518</v>
       </c>
       <c r="F33">
-        <v>13.0401642459003</v>
+        <v>8.391866045906991</v>
       </c>
       <c r="G33">
-        <v>71.0836975662958</v>
+        <v>66.6620747947007</v>
       </c>
       <c r="H33">
-        <v>36.0626614984165</v>
+        <v>29.4763041508157</v>
       </c>
       <c r="I33">
-        <v>22.4594381135511</v>
+        <v>27.1334274933199</v>
       </c>
       <c r="J33">
-        <v>72.69038392796639</v>
+        <v>91.49804268055441</v>
       </c>
       <c r="K33">
-        <v>46.6700936754031</v>
+        <v>99.0107360749968</v>
       </c>
       <c r="L33">
-        <v>85.2776536581312</v>
+        <v>110.197076282844</v>
       </c>
       <c r="M33">
-        <v>56.7082879051839</v>
+        <v>70.0163118680983</v>
       </c>
       <c r="N33">
-        <v>142.585612944179</v>
+        <v>94.493633822612</v>
       </c>
       <c r="O33">
-        <v>6684.96223284597</v>
+        <v>6335.16460699165</v>
       </c>
       <c r="P33">
-        <v>50.7327971371343</v>
+        <v>73.3858822042649</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2243.61774583251</v>
+        <v>2312.93655615702</v>
       </c>
       <c r="C34">
-        <v>70.09936484072181</v>
+        <v>57.1162926208042</v>
       </c>
       <c r="D34">
-        <v>102.716451991521</v>
+        <v>169.087301420254</v>
       </c>
       <c r="E34">
-        <v>41.7183993723436</v>
+        <v>81.84713903744679</v>
       </c>
       <c r="F34">
-        <v>2.44391571096568</v>
+        <v>6.67895516984937</v>
       </c>
       <c r="G34">
-        <v>50.9108104659418</v>
+        <v>51.6652478475186</v>
       </c>
       <c r="H34">
-        <v>49.2601131076338</v>
+        <v>35.0689736548272</v>
       </c>
       <c r="I34">
-        <v>16.4331510501525</v>
+        <v>18.9167100302844</v>
       </c>
       <c r="J34">
-        <v>48.9190192015518</v>
+        <v>57.2445758439968</v>
       </c>
       <c r="K34">
-        <v>11.9686740929683</v>
+        <v>31.986958363202</v>
       </c>
       <c r="L34">
-        <v>106.657312768753</v>
+        <v>81.48090450888491</v>
       </c>
       <c r="M34">
-        <v>24.3833631149692</v>
+        <v>45.5775147471608</v>
       </c>
       <c r="N34">
-        <v>116.994888636178</v>
+        <v>124.212679522395</v>
       </c>
       <c r="O34">
-        <v>2809.06085176459</v>
+        <v>2652.56753188211</v>
       </c>
       <c r="P34">
-        <v>70.38856289000741</v>
+        <v>48.224953814341</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>144.688822866628</v>
+        <v>166.702234377827</v>
       </c>
       <c r="C35">
-        <v>5.41494668363507</v>
+        <v>6.26264446179672</v>
       </c>
       <c r="D35">
-        <v>0.458794072570722</v>
+        <v>0.344662513262311</v>
       </c>
       <c r="E35">
-        <v>1.86133400805504</v>
+        <v>2.08855886688422</v>
       </c>
       <c r="F35">
-        <v>3.34227082010084</v>
+        <v>5.76100704632602</v>
       </c>
       <c r="G35">
-        <v>1.98495217336088</v>
+        <v>0.545715645998659</v>
       </c>
       <c r="H35">
-        <v>0.247050605966853</v>
+        <v>0.373384389367503</v>
       </c>
       <c r="I35">
-        <v>1.45175435164297</v>
+        <v>0.940012088861142</v>
       </c>
       <c r="J35">
-        <v>2.50812633873802</v>
+        <v>2.49375364553928</v>
       </c>
       <c r="K35">
-        <v>3.92370315330318</v>
+        <v>5.30626246096069</v>
       </c>
       <c r="L35">
-        <v>1.23220229861749</v>
+        <v>1.85938481523197</v>
       </c>
       <c r="M35">
-        <v>2.04884779178895</v>
+        <v>2.3264719645206</v>
       </c>
       <c r="N35">
-        <v>3.43290016016289</v>
+        <v>2.14751888594069</v>
       </c>
       <c r="O35">
-        <v>235.297203048375</v>
+        <v>216.435597151627</v>
       </c>
       <c r="P35">
-        <v>37.8200348766065</v>
+        <v>36.03508130093</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3073.27091353897</v>
+        <v>3211.88259159407</v>
       </c>
       <c r="C36">
-        <v>43.3910676940098</v>
+        <v>72.69948234669521</v>
       </c>
       <c r="D36">
-        <v>18.599058192248</v>
+        <v>23.302223345857</v>
       </c>
       <c r="E36">
-        <v>129.807023500363</v>
+        <v>115.023603941554</v>
       </c>
       <c r="F36">
-        <v>37.4955783625493</v>
+        <v>18.4769366873778</v>
       </c>
       <c r="G36">
-        <v>63.6311127684628</v>
+        <v>71.1927901541336</v>
       </c>
       <c r="H36">
-        <v>84.96775433852631</v>
+        <v>100.898645427302</v>
       </c>
       <c r="I36">
-        <v>29.698198951963</v>
+        <v>42.5019134050717</v>
       </c>
       <c r="J36">
-        <v>174.755797583823</v>
+        <v>239.666760253333</v>
       </c>
       <c r="K36">
-        <v>39.5387820604042</v>
+        <v>118.956010721994</v>
       </c>
       <c r="L36">
-        <v>57.8545794049995</v>
+        <v>81.34617624836849</v>
       </c>
       <c r="M36">
-        <v>201.669038467928</v>
+        <v>228.465726759018</v>
       </c>
       <c r="N36">
-        <v>74.6457196640134</v>
+        <v>85.7924569728437</v>
       </c>
       <c r="O36">
-        <v>3911.09060630247</v>
+        <v>3522.22191581215</v>
       </c>
       <c r="P36">
-        <v>35.5640818786039</v>
+        <v>47.0118462450268</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>973.189313752424</v>
+        <v>1045.96249324449</v>
       </c>
       <c r="C37">
-        <v>15.7613897927611</v>
+        <v>24.6337308196752</v>
       </c>
       <c r="D37">
-        <v>6.11823954480182</v>
+        <v>8.25304535995118</v>
       </c>
       <c r="E37">
-        <v>14.9602968935631</v>
+        <v>17.2422527568111</v>
       </c>
       <c r="F37">
-        <v>25.8142913517595</v>
+        <v>40.2722854560341</v>
       </c>
       <c r="G37">
-        <v>13.0664559523384</v>
+        <v>7.08053010914616</v>
       </c>
       <c r="H37">
-        <v>21.0596346522309</v>
+        <v>14.8640628120323</v>
       </c>
       <c r="I37">
-        <v>18.8692649286088</v>
+        <v>10.0862854908322</v>
       </c>
       <c r="J37">
-        <v>38.912451267362</v>
+        <v>32.218083411867</v>
       </c>
       <c r="K37">
-        <v>4.2634613015284</v>
+        <v>27.8779081356558</v>
       </c>
       <c r="L37">
-        <v>10.7208228587205</v>
+        <v>19.3775772389766</v>
       </c>
       <c r="M37">
-        <v>33.7043391914036</v>
+        <v>31.1138057555174</v>
       </c>
       <c r="N37">
-        <v>19.5687661188396</v>
+        <v>14.3275586383331</v>
       </c>
       <c r="O37">
-        <v>1167.62228419018</v>
+        <v>1088.78813610789</v>
       </c>
       <c r="P37">
-        <v>52.1736150214932</v>
+        <v>34.3098057056548</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1024.09746267688</v>
+        <v>1037.18017801872</v>
       </c>
       <c r="C38">
-        <v>25.8573410451101</v>
+        <v>18.8945121787111</v>
       </c>
       <c r="D38">
-        <v>10.423875094442</v>
+        <v>8.89855111005369</v>
       </c>
       <c r="E38">
-        <v>38.3589411704435</v>
+        <v>73.44989226921371</v>
       </c>
       <c r="F38">
-        <v>1.09859022079834</v>
+        <v>2.68417554463012</v>
       </c>
       <c r="G38">
-        <v>10.2618986551738</v>
+        <v>5.40272113600374</v>
       </c>
       <c r="H38">
-        <v>5.32333383978193</v>
+        <v>5.13104843452247</v>
       </c>
       <c r="I38">
-        <v>1.07422657949354</v>
+        <v>5.97088199084344</v>
       </c>
       <c r="J38">
-        <v>29.4118662478191</v>
+        <v>28.3910862087948</v>
       </c>
       <c r="K38">
-        <v>0.6504974898566061</v>
+        <v>13.7085948715668</v>
       </c>
       <c r="L38">
-        <v>70.44550622547151</v>
+        <v>65.0140995089027</v>
       </c>
       <c r="M38">
-        <v>23.2679810451745</v>
+        <v>19.0645022929597</v>
       </c>
       <c r="N38">
-        <v>31.635737275082</v>
+        <v>24.0295870380529</v>
       </c>
       <c r="O38">
-        <v>1223.09572430614</v>
+        <v>1173.41385824573</v>
       </c>
       <c r="P38">
-        <v>57.6876395965996</v>
+        <v>59.6872524035954</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3530.55512064302</v>
+        <v>3801.61572066201</v>
       </c>
       <c r="C39">
-        <v>83.63691719496811</v>
+        <v>86.3642930588919</v>
       </c>
       <c r="D39">
-        <v>27.2024807489505</v>
+        <v>54.6858065531635</v>
       </c>
       <c r="E39">
-        <v>126.233885067268</v>
+        <v>136.232613878806</v>
       </c>
       <c r="F39">
-        <v>18.7052036570119</v>
+        <v>37.4455007230826</v>
       </c>
       <c r="G39">
-        <v>110.83587730561</v>
+        <v>90.77151130419119</v>
       </c>
       <c r="H39">
-        <v>50.9329141986948</v>
+        <v>51.9514677425672</v>
       </c>
       <c r="I39">
-        <v>36.8556783948926</v>
+        <v>48.9131220249329</v>
       </c>
       <c r="J39">
-        <v>135.633000169472</v>
+        <v>219.980953170685</v>
       </c>
       <c r="K39">
-        <v>48.3595637437326</v>
+        <v>68.4800158044078</v>
       </c>
       <c r="L39">
-        <v>77.7085001057483</v>
+        <v>92.9701489401661</v>
       </c>
       <c r="M39">
-        <v>59.1318701833892</v>
+        <v>63.6623119748923</v>
       </c>
       <c r="N39">
-        <v>105.388165533799</v>
+        <v>90.83547764130501</v>
       </c>
       <c r="O39">
-        <v>4280.23858514278</v>
+        <v>3850.4395472841</v>
       </c>
       <c r="P39">
-        <v>51.6047438287069</v>
+        <v>68.7727226382036</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>282.744020701195</v>
+        <v>300.439892426509</v>
       </c>
       <c r="C40">
-        <v>3.11025997387294</v>
+        <v>3.31415704818963</v>
       </c>
       <c r="D40">
-        <v>5.4776891783816</v>
+        <v>7.17564810053866</v>
       </c>
       <c r="E40">
-        <v>4.92747604768832</v>
+        <v>8.042874088246361</v>
       </c>
       <c r="F40">
-        <v>0.551523652253847</v>
+        <v>0.465064147959824</v>
       </c>
       <c r="G40">
-        <v>3.13748080836455</v>
+        <v>3.42577363522754</v>
       </c>
       <c r="H40">
-        <v>3.03632938976558</v>
+        <v>4.0410433689492</v>
       </c>
       <c r="I40">
-        <v>1.66841205456893</v>
+        <v>0.7327401700081651</v>
       </c>
       <c r="J40">
-        <v>8.348552201337929</v>
+        <v>11.9703053396091</v>
       </c>
       <c r="K40">
-        <v>2.13675514915869</v>
+        <v>3.47883448704542</v>
       </c>
       <c r="L40">
-        <v>11.7569239327376</v>
+        <v>10.6446861965283</v>
       </c>
       <c r="M40">
-        <v>5.32123543637321</v>
+        <v>4.79095844830029</v>
       </c>
       <c r="N40">
-        <v>15.1834570881786</v>
+        <v>19.0119128242098</v>
       </c>
       <c r="O40">
-        <v>388.128316427216</v>
+        <v>346.307653154242</v>
       </c>
       <c r="P40">
-        <v>3.30151023491637</v>
+        <v>2.36794764256903</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1163.35486188668</v>
+        <v>1236.73974981085</v>
       </c>
       <c r="C41">
-        <v>8.57340134360908</v>
+        <v>21.5314790106959</v>
       </c>
       <c r="D41">
-        <v>62.2816103867881</v>
+        <v>83.2897677194112</v>
       </c>
       <c r="E41">
-        <v>32.9680338053519</v>
+        <v>42.2952154888872</v>
       </c>
       <c r="F41">
-        <v>3.56983852678416</v>
+        <v>3.27234483048891</v>
       </c>
       <c r="G41">
-        <v>18.8747339572927</v>
+        <v>23.6302478181796</v>
       </c>
       <c r="H41">
-        <v>24.5766844056453</v>
+        <v>31.8288047550299</v>
       </c>
       <c r="I41">
-        <v>24.3058383935667</v>
+        <v>11.7144445192292</v>
       </c>
       <c r="J41">
-        <v>32.7209612438188</v>
+        <v>34.8955039121774</v>
       </c>
       <c r="K41">
-        <v>8.41275038174423</v>
+        <v>23.5925784857274</v>
       </c>
       <c r="L41">
-        <v>32.4071939304265</v>
+        <v>25.8154023640273</v>
       </c>
       <c r="M41">
-        <v>22.422399505165</v>
+        <v>37.4374431703677</v>
       </c>
       <c r="N41">
-        <v>17.2316986183792</v>
+        <v>21.0756658068744</v>
       </c>
       <c r="O41">
-        <v>1395.11446056081</v>
+        <v>1267.74428469842</v>
       </c>
       <c r="P41">
-        <v>29.621059749031</v>
+        <v>20.8691688205168</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>146.928293337874</v>
+        <v>182.645028076827</v>
       </c>
       <c r="C42">
-        <v>5.09652126963595</v>
+        <v>5.89353079199881</v>
       </c>
       <c r="D42">
-        <v>1.55333584202698</v>
+        <v>0.967983933028659</v>
       </c>
       <c r="E42">
-        <v>5.66347618253788</v>
+        <v>5.14580185665767</v>
       </c>
       <c r="F42">
-        <v>1.83091337975695</v>
+        <v>1.7236796953062</v>
       </c>
       <c r="G42">
-        <v>0.780517634431818</v>
+        <v>0.937032066932591</v>
       </c>
       <c r="H42">
-        <v>0.08210839165564281</v>
+        <v>1.44814046707764</v>
       </c>
       <c r="I42">
-        <v>1.26764897796558</v>
+        <v>1.10740153364761</v>
       </c>
       <c r="J42">
-        <v>3.49138416149311</v>
+        <v>4.00298621465298</v>
       </c>
       <c r="K42">
-        <v>1.83480319179922</v>
+        <v>5.65767059852645</v>
       </c>
       <c r="L42">
-        <v>5.45858513233724</v>
+        <v>6.84838959566979</v>
       </c>
       <c r="M42">
-        <v>2.37558155292503</v>
+        <v>2.95059603503272</v>
       </c>
       <c r="N42">
-        <v>8.41409731500919</v>
+        <v>6.34797135339217</v>
       </c>
       <c r="O42">
-        <v>271.110266729936</v>
+        <v>239.559490561867</v>
       </c>
       <c r="P42">
-        <v>38.2529789459223</v>
+        <v>38.1114777391515</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1689.58003824147</v>
+        <v>1693.85380252688</v>
       </c>
       <c r="C43">
-        <v>36.413385222739</v>
+        <v>44.9382386895151</v>
       </c>
       <c r="D43">
-        <v>16.70734654336</v>
+        <v>41.0810164122255</v>
       </c>
       <c r="E43">
-        <v>82.7876219011103</v>
+        <v>67.63130943904569</v>
       </c>
       <c r="F43">
-        <v>7.21355456696069</v>
+        <v>7.16475931394262</v>
       </c>
       <c r="G43">
-        <v>28.3381543406313</v>
+        <v>28.7961086344349</v>
       </c>
       <c r="H43">
-        <v>44.5340040797936</v>
+        <v>33.7489381446574</v>
       </c>
       <c r="I43">
-        <v>20.6349728413658</v>
+        <v>14.5420215366605</v>
       </c>
       <c r="J43">
-        <v>47.5252218590583</v>
+        <v>68.1048324069813</v>
       </c>
       <c r="K43">
-        <v>11.992183327866</v>
+        <v>47.4111799431931</v>
       </c>
       <c r="L43">
-        <v>49.4490761035364</v>
+        <v>50.4713094895058</v>
       </c>
       <c r="M43">
-        <v>95.10989533456881</v>
+        <v>113.670683926629</v>
       </c>
       <c r="N43">
-        <v>50.5594207904438</v>
+        <v>61.1030124211049</v>
       </c>
       <c r="O43">
-        <v>1936.86931920356</v>
+        <v>1860.13145209983</v>
       </c>
       <c r="P43">
-        <v>32.3282090273869</v>
+        <v>26.1818131755231</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5573.47945094427</v>
+        <v>5940.61117423292</v>
       </c>
       <c r="C44">
-        <v>143.322445671757</v>
+        <v>104.567573700897</v>
       </c>
       <c r="D44">
-        <v>15.1102750346395</v>
+        <v>32.6944785049017</v>
       </c>
       <c r="E44">
-        <v>90.5905882970482</v>
+        <v>100.611647013206</v>
       </c>
       <c r="F44">
-        <v>221.430851409827</v>
+        <v>226.822803726608</v>
       </c>
       <c r="G44">
-        <v>74.4437783091996</v>
+        <v>105.943612118294</v>
       </c>
       <c r="H44">
-        <v>35.3800426557824</v>
+        <v>56.9495126515757</v>
       </c>
       <c r="I44">
-        <v>40.2026309939872</v>
+        <v>41.9074280208629</v>
       </c>
       <c r="J44">
-        <v>85.0010641059977</v>
+        <v>154.294984760713</v>
       </c>
       <c r="K44">
-        <v>35.5555354352566</v>
+        <v>91.2351321065177</v>
       </c>
       <c r="L44">
-        <v>114.735881311582</v>
+        <v>196.636354496371</v>
       </c>
       <c r="M44">
-        <v>74.513924624048</v>
+        <v>110.904070852254</v>
       </c>
       <c r="N44">
-        <v>86.9477038693354</v>
+        <v>90.1083133706142</v>
       </c>
       <c r="O44">
-        <v>7469.16262593139</v>
+        <v>7010.15644059045</v>
       </c>
       <c r="P44">
-        <v>237.838839960376</v>
+        <v>123.677690485424</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>503.112723964173</v>
+        <v>546.938572052165</v>
       </c>
       <c r="C45">
-        <v>20.2460427192144</v>
+        <v>13.682549677138</v>
       </c>
       <c r="D45">
-        <v>2.52508576588961</v>
+        <v>3.13188918275531</v>
       </c>
       <c r="E45">
-        <v>20.1816047076497</v>
+        <v>16.0469778987087</v>
       </c>
       <c r="F45">
-        <v>17.733796427962</v>
+        <v>14.0527616060199</v>
       </c>
       <c r="G45">
-        <v>7.59381239626753</v>
+        <v>9.1467674163681</v>
       </c>
       <c r="H45">
-        <v>4.70707762896439</v>
+        <v>2.78801925233129</v>
       </c>
       <c r="I45">
-        <v>5.21509675764736</v>
+        <v>5.54471244564762</v>
       </c>
       <c r="J45">
-        <v>13.0284894433037</v>
+        <v>19.0990388211156</v>
       </c>
       <c r="K45">
-        <v>5.3447881203142</v>
+        <v>6.06151545286957</v>
       </c>
       <c r="L45">
-        <v>11.2543669428095</v>
+        <v>15.0458900406411</v>
       </c>
       <c r="M45">
-        <v>10.4966660543935</v>
+        <v>22.4507772106445</v>
       </c>
       <c r="N45">
-        <v>21.5173765286902</v>
+        <v>29.6051193435194</v>
       </c>
       <c r="O45">
-        <v>794.311590993202</v>
+        <v>767.030863203149</v>
       </c>
       <c r="P45">
-        <v>21.8432395302315</v>
+        <v>8.253559278613111</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>133.802589874966</v>
+        <v>150.675739442469</v>
       </c>
       <c r="C46">
-        <v>3.71699069504615</v>
+        <v>4.0252271407016</v>
       </c>
       <c r="D46">
-        <v>1.10779154512831</v>
+        <v>2.05945982938654</v>
       </c>
       <c r="E46">
-        <v>3.22800108472059</v>
+        <v>8.53580290841685</v>
       </c>
       <c r="F46">
-        <v>0.5608217191799</v>
+        <v>0.853074612654747</v>
       </c>
       <c r="G46">
-        <v>2.35482165379473</v>
+        <v>1.52590902234436</v>
       </c>
       <c r="H46">
-        <v>0.89320311394763</v>
+        <v>1.66013905999635</v>
       </c>
       <c r="I46">
-        <v>1.6111258989219</v>
+        <v>2.20740226897569</v>
       </c>
       <c r="J46">
-        <v>3.36013583762116</v>
+        <v>4.21244624878001</v>
       </c>
       <c r="K46">
-        <v>0.865408117868547</v>
+        <v>2.90615119104169</v>
       </c>
       <c r="L46">
-        <v>11.8147856814439</v>
+        <v>10.6068072010201</v>
       </c>
       <c r="M46">
-        <v>2.92602097003029</v>
+        <v>3.9542472449796</v>
       </c>
       <c r="N46">
-        <v>7.02951732495609</v>
+        <v>6.35068067307237</v>
       </c>
       <c r="O46">
-        <v>239.819704241654</v>
+        <v>215.66509952406</v>
       </c>
       <c r="P46">
-        <v>9.00896399041582</v>
+        <v>9.769611535522481</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1904.66970297581</v>
+        <v>1885.90306503418</v>
       </c>
       <c r="C47">
-        <v>49.0711079281399</v>
+        <v>46.2356736769149</v>
       </c>
       <c r="D47">
-        <v>13.364618413626</v>
+        <v>42.3552085333472</v>
       </c>
       <c r="E47">
-        <v>50.377575560084</v>
+        <v>66.874316339335</v>
       </c>
       <c r="F47">
-        <v>12.6449770479249</v>
+        <v>17.798848340913</v>
       </c>
       <c r="G47">
-        <v>23.9049414666219</v>
+        <v>26.6673621910755</v>
       </c>
       <c r="H47">
-        <v>4.83713605411477</v>
+        <v>20.6878826824745</v>
       </c>
       <c r="I47">
-        <v>1.8558846532797</v>
+        <v>13.738579072002</v>
       </c>
       <c r="J47">
-        <v>47.0023993714801</v>
+        <v>32.2354438053778</v>
       </c>
       <c r="K47">
-        <v>2.66997790785365</v>
+        <v>25.1447082544203</v>
       </c>
       <c r="L47">
-        <v>17.6070919995133</v>
+        <v>38.6693102900124</v>
       </c>
       <c r="M47">
-        <v>71.10884685806251</v>
+        <v>70.20305564265431</v>
       </c>
       <c r="N47">
-        <v>36.6495053386776</v>
+        <v>47.2428176647149</v>
       </c>
       <c r="O47">
-        <v>2665.98139281051</v>
+        <v>2582.68360664236</v>
       </c>
       <c r="P47">
-        <v>30.0937293265755</v>
+        <v>32.3121188317146</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1652.34443263994</v>
+        <v>1733.85046712894</v>
       </c>
       <c r="C48">
-        <v>32.4643750983394</v>
+        <v>37.9309991341069</v>
       </c>
       <c r="D48">
-        <v>8.509157461591119</v>
+        <v>8.027423161558421</v>
       </c>
       <c r="E48">
-        <v>66.6248199264365</v>
+        <v>48.8881056092846</v>
       </c>
       <c r="F48">
-        <v>5.26237035560537</v>
+        <v>7.9344250836397</v>
       </c>
       <c r="G48">
-        <v>4.32558805723708</v>
+        <v>9.03261540663482</v>
       </c>
       <c r="H48">
-        <v>2.92557553566512</v>
+        <v>9.114979680859451</v>
       </c>
       <c r="I48">
-        <v>8.90755224962947</v>
+        <v>8.741114117169969</v>
       </c>
       <c r="J48">
-        <v>30.7434364445138</v>
+        <v>28.1402223289442</v>
       </c>
       <c r="K48">
-        <v>16.0416781177045</v>
+        <v>12.8646758870934</v>
       </c>
       <c r="L48">
-        <v>44.3708794719917</v>
+        <v>41.7421310056048</v>
       </c>
       <c r="M48">
-        <v>114.710445902054</v>
+        <v>124.669135813821</v>
       </c>
       <c r="N48">
-        <v>30.9132982510482</v>
+        <v>33.5620680300606</v>
       </c>
       <c r="O48">
-        <v>2090.72268609888</v>
+        <v>2047.93904670677</v>
       </c>
       <c r="P48">
-        <v>97.0217128169588</v>
+        <v>59.7042603098901</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>686.690887227886</v>
+        <v>691.65424456299</v>
       </c>
       <c r="C49">
-        <v>4.61947584650369</v>
+        <v>5.7691915550985</v>
       </c>
       <c r="D49">
-        <v>2.37173610827037</v>
+        <v>2.36588034091456</v>
       </c>
       <c r="E49">
-        <v>20.7502982722704</v>
+        <v>14.2696621681362</v>
       </c>
       <c r="F49">
-        <v>24.332216539196</v>
+        <v>23.3900468780846</v>
       </c>
       <c r="G49">
-        <v>9.423371903538</v>
+        <v>17.0569542494958</v>
       </c>
       <c r="H49">
-        <v>7.02256849711206</v>
+        <v>5.75560116438759</v>
       </c>
       <c r="I49">
-        <v>2.73762437573404</v>
+        <v>4.08740100183186</v>
       </c>
       <c r="J49">
-        <v>15.2751952337131</v>
+        <v>18.0811554742308</v>
       </c>
       <c r="K49">
-        <v>2.72018377690321</v>
+        <v>5.35061317279322</v>
       </c>
       <c r="L49">
-        <v>0.797293591093904</v>
+        <v>3.02856569567673</v>
       </c>
       <c r="M49">
-        <v>2.30773629406818</v>
+        <v>6.46301656992907</v>
       </c>
       <c r="N49">
-        <v>3.0982545183069</v>
+        <v>5.26881860853985</v>
       </c>
       <c r="O49">
-        <v>533.730144195635</v>
+        <v>512.19675176413</v>
       </c>
       <c r="P49">
-        <v>5.43427359039603</v>
+        <v>8.39319642064163</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1176.57269272768</v>
+        <v>1406.95957654341</v>
       </c>
       <c r="C50">
-        <v>72.53690125293549</v>
+        <v>76.00182434760529</v>
       </c>
       <c r="D50">
-        <v>7.76158415642011</v>
+        <v>15.0092013961436</v>
       </c>
       <c r="E50">
-        <v>139.65220483169</v>
+        <v>139.203536953329</v>
       </c>
       <c r="F50">
-        <v>4.80407968103675</v>
+        <v>3.89463087244269</v>
       </c>
       <c r="G50">
-        <v>28.8177338785456</v>
+        <v>14.5407055747673</v>
       </c>
       <c r="H50">
-        <v>37.8395758598041</v>
+        <v>37.7911755092494</v>
       </c>
       <c r="I50">
-        <v>13.7245748498304</v>
+        <v>12.211535403378</v>
       </c>
       <c r="J50">
-        <v>88.58097254498929</v>
+        <v>97.5824196987388</v>
       </c>
       <c r="K50">
-        <v>39.369878426744</v>
+        <v>76.4200453106161</v>
       </c>
       <c r="L50">
-        <v>39.6337066728549</v>
+        <v>50.3557663306389</v>
       </c>
       <c r="M50">
-        <v>33.7242962774584</v>
+        <v>57.0314712904139</v>
       </c>
       <c r="N50">
-        <v>55.7997681915538</v>
+        <v>61.6958982214804</v>
       </c>
       <c r="O50">
-        <v>2018.25294336851</v>
+        <v>1674.48003748694</v>
       </c>
       <c r="P50">
-        <v>77.8106012039745</v>
+        <v>104.231437976596</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>116.302100620684</v>
+        <v>124.659464952935</v>
       </c>
       <c r="C51">
-        <v>3.06888758355558</v>
+        <v>1.07945384635113</v>
       </c>
       <c r="D51">
-        <v>0.307424238790594</v>
+        <v>0.553643447799919</v>
       </c>
       <c r="E51">
-        <v>2.77047425317235</v>
+        <v>2.52665045793152</v>
       </c>
       <c r="F51">
-        <v>23.7735283205904</v>
+        <v>25.06807489372</v>
       </c>
       <c r="G51">
-        <v>1.73202532856527</v>
+        <v>2.72887675515815</v>
       </c>
       <c r="H51">
-        <v>0.0104624819892055</v>
+        <v>0.138410861949979</v>
       </c>
       <c r="I51">
-        <v>1.04888095616111</v>
+        <v>0.719549217416861</v>
       </c>
       <c r="J51">
-        <v>0.555037378176122</v>
+        <v>1.5797388458805</v>
       </c>
       <c r="K51">
-        <v>0.35754383953996</v>
+        <v>0.636572090762435</v>
       </c>
       <c r="L51">
-        <v>0.292434742532084</v>
+        <v>0.387550413459943</v>
       </c>
       <c r="M51">
-        <v>0.38993695772553</v>
+        <v>0.60900779257991</v>
       </c>
       <c r="N51">
-        <v>0.411352134790355</v>
+        <v>0.968876033649859</v>
       </c>
       <c r="O51">
-        <v>182.913421796815</v>
+        <v>176.0239423273</v>
       </c>
       <c r="P51">
-        <v>17.9335836005619</v>
+        <v>12.1909775467032</v>
       </c>
     </row>
     <row r="52">
@@ -3046,49 +3046,49 @@
         </is>
       </c>
       <c r="B52">
-        <v>3046.58591313892</v>
+        <v>4920.96385446572</v>
       </c>
       <c r="C52">
-        <v>181.947750201219</v>
+        <v>182.751692823606</v>
       </c>
       <c r="D52">
-        <v>50.7999077572316</v>
+        <v>51.0243689611445</v>
       </c>
       <c r="E52">
-        <v>166.964045970021</v>
+        <v>167.701782560955</v>
       </c>
       <c r="F52">
-        <v>106.46461346072</v>
+        <v>106.935031151746</v>
       </c>
       <c r="G52">
-        <v>42.86682358863</v>
+        <v>43.056232177256</v>
       </c>
       <c r="H52">
-        <v>33.5683370665455</v>
+        <v>33.7166599608964</v>
       </c>
       <c r="I52">
-        <v>33.1701101773672</v>
+        <v>33.3166734920077</v>
       </c>
       <c r="J52">
-        <v>132.956007778635</v>
+        <v>133.543478640118</v>
       </c>
       <c r="K52">
-        <v>50.6554612043255</v>
+        <v>50.8792841659935</v>
       </c>
       <c r="L52">
-        <v>51.2663131417894</v>
+        <v>51.4928351745257</v>
       </c>
       <c r="M52">
-        <v>95.5345564870661</v>
+        <v>95.9566793315966</v>
       </c>
       <c r="N52">
-        <v>151.611063309436</v>
+        <v>152.280962199008</v>
       </c>
       <c r="O52">
-        <v>7143.48332310588</v>
+        <v>7175.04705890042</v>
       </c>
       <c r="P52">
-        <v>337.569659728129</v>
+        <v>339.061223307125</v>
       </c>
     </row>
     <row r="53">
@@ -3098,49 +3098,49 @@
         </is>
       </c>
       <c r="B53">
-        <v>1500.18205342649</v>
+        <v>2684.34965523287</v>
       </c>
       <c r="C53">
-        <v>78.80855118474381</v>
+        <v>76.51878361518661</v>
       </c>
       <c r="D53">
-        <v>31.4858518485464</v>
+        <v>30.5710363700373</v>
       </c>
       <c r="E53">
-        <v>87.6440624453198</v>
+        <v>85.0975807649106</v>
       </c>
       <c r="F53">
-        <v>8.185436355941031</v>
+        <v>7.94761004865907</v>
       </c>
       <c r="G53">
-        <v>26.8773026758996</v>
+        <v>26.0963877231532</v>
       </c>
       <c r="H53">
-        <v>27.1536582707596</v>
+        <v>26.3647138584017</v>
       </c>
       <c r="I53">
-        <v>35.7905082140341</v>
+        <v>34.7506217578759</v>
       </c>
       <c r="J53">
-        <v>102.417776843848</v>
+        <v>99.4420476820026</v>
       </c>
       <c r="K53">
-        <v>80.41062685743729</v>
+        <v>78.074311281805</v>
       </c>
       <c r="L53">
-        <v>71.86228938226731</v>
+        <v>69.7743441373926</v>
       </c>
       <c r="M53">
-        <v>40.2289167535465</v>
+        <v>39.0600731755857</v>
       </c>
       <c r="N53">
-        <v>47.9934271500567</v>
+        <v>46.598987189062</v>
       </c>
       <c r="O53">
-        <v>2705.91269548238</v>
+        <v>2627.29291319957</v>
       </c>
       <c r="P53">
-        <v>291.748896535218</v>
+        <v>283.272187451017</v>
       </c>
     </row>
     <row r="54">
@@ -3150,49 +3150,49 @@
         </is>
       </c>
       <c r="B54">
-        <v>1978.12010287337</v>
+        <v>3413.55211056001</v>
       </c>
       <c r="C54">
-        <v>95.5836492984396</v>
+        <v>94.7779589094915</v>
       </c>
       <c r="D54">
-        <v>44.5161401524108</v>
+        <v>44.1409062443406</v>
       </c>
       <c r="E54">
-        <v>60.5049740369252</v>
+        <v>59.994967603577</v>
       </c>
       <c r="F54">
-        <v>9.28633984221201</v>
+        <v>9.2080637477723</v>
       </c>
       <c r="G54">
-        <v>68.282026055263</v>
+        <v>67.7064655641704</v>
       </c>
       <c r="H54">
-        <v>25.1211046835871</v>
+        <v>24.9093547373162</v>
       </c>
       <c r="I54">
-        <v>31.1474613327496</v>
+        <v>30.8849142295565</v>
       </c>
       <c r="J54">
-        <v>101.148780149669</v>
+        <v>100.296180352334</v>
       </c>
       <c r="K54">
-        <v>39.6242026998665</v>
+        <v>39.2902037416834</v>
       </c>
       <c r="L54">
-        <v>44.7487157143472</v>
+        <v>44.3715213883987</v>
       </c>
       <c r="M54">
-        <v>55.8799587482911</v>
+        <v>55.4089373337629</v>
       </c>
       <c r="N54">
-        <v>28.510623632652</v>
+        <v>28.2703028705515</v>
       </c>
       <c r="O54">
-        <v>3006.38554804229</v>
+        <v>2981.04422701815</v>
       </c>
       <c r="P54">
-        <v>83.0294756112983</v>
+        <v>82.32960642875059</v>
       </c>
     </row>
     <row r="55">
@@ -3202,49 +3202,49 @@
         </is>
       </c>
       <c r="B55">
-        <v>1893.52214829409</v>
+        <v>2874.88269511613</v>
       </c>
       <c r="C55">
-        <v>115.302523223297</v>
+        <v>118.053321951743</v>
       </c>
       <c r="D55">
-        <v>197.728755102697</v>
+        <v>202.446015340449</v>
       </c>
       <c r="E55">
-        <v>48.6079264568802</v>
+        <v>49.7675769012251</v>
       </c>
       <c r="F55">
-        <v>36.361743434798</v>
+        <v>37.2292338834746</v>
       </c>
       <c r="G55">
-        <v>23.5503519655427</v>
+        <v>24.1121981110587</v>
       </c>
       <c r="H55">
-        <v>19.4054900196072</v>
+        <v>19.8684512435123</v>
       </c>
       <c r="I55">
-        <v>24.3981646363023</v>
+        <v>24.9802372430568</v>
       </c>
       <c r="J55">
-        <v>55.2962264150944</v>
+        <v>56.6154411647658</v>
       </c>
       <c r="K55">
-        <v>63.9627559384141</v>
+        <v>65.4887300696354</v>
       </c>
       <c r="L55">
-        <v>32.0284786731381</v>
+        <v>32.7925894310398</v>
       </c>
       <c r="M55">
-        <v>12.3403844299444</v>
+        <v>12.6347918101947</v>
       </c>
       <c r="N55">
-        <v>32.8762913438977</v>
+        <v>33.6606285630379</v>
       </c>
       <c r="O55">
-        <v>1553.3812156472</v>
+        <v>1590.44058740543</v>
       </c>
       <c r="P55">
-        <v>715.459692713188</v>
+        <v>732.5285786139621</v>
       </c>
     </row>
     <row r="56">
@@ -3254,49 +3254,49 @@
         </is>
       </c>
       <c r="B56">
-        <v>30382.2437062893</v>
+        <v>39945.9523228914</v>
       </c>
       <c r="C56">
-        <v>1842.75212014869</v>
+        <v>1889.89895985383</v>
       </c>
       <c r="D56">
-        <v>2898.51804418494</v>
+        <v>2972.67667036014</v>
       </c>
       <c r="E56">
-        <v>954.274703080264</v>
+        <v>978.689835191016</v>
       </c>
       <c r="F56">
-        <v>319.687338785468</v>
+        <v>327.86654398224</v>
       </c>
       <c r="G56">
-        <v>434.599012575758</v>
+        <v>445.718234612127</v>
       </c>
       <c r="H56">
-        <v>309.136222386085</v>
+        <v>317.045477116837</v>
       </c>
       <c r="I56">
-        <v>472.072707967342</v>
+        <v>484.150695043495</v>
       </c>
       <c r="J56">
-        <v>761.686313483795</v>
+        <v>781.174068855106</v>
       </c>
       <c r="K56">
-        <v>425.194912743099</v>
+        <v>436.073530748935</v>
       </c>
       <c r="L56">
-        <v>363.965947799042</v>
+        <v>373.278021849256</v>
       </c>
       <c r="M56">
-        <v>427.420735188699</v>
+        <v>438.356300894069</v>
       </c>
       <c r="N56">
-        <v>738.63917857228</v>
+        <v>757.537272662806</v>
       </c>
       <c r="O56">
-        <v>47851.0307035266</v>
+        <v>49075.3000176886</v>
       </c>
       <c r="P56">
-        <v>16939.356059558</v>
+        <v>17372.7497298818</v>
       </c>
     </row>
     <row r="57">
@@ -3306,49 +3306,49 @@
         </is>
       </c>
       <c r="B57">
-        <v>4164.9111467659</v>
+        <v>6723.71621776187</v>
       </c>
       <c r="C57">
-        <v>241.290453161445</v>
+        <v>247.685938318394</v>
       </c>
       <c r="D57">
-        <v>127.910884488557</v>
+        <v>131.301205789878</v>
       </c>
       <c r="E57">
-        <v>379.175357921395</v>
+        <v>389.225529163953</v>
       </c>
       <c r="F57">
-        <v>173.832257788525</v>
+        <v>178.439740637179</v>
       </c>
       <c r="G57">
-        <v>96.9017628441711</v>
+        <v>99.47017687726761</v>
       </c>
       <c r="H57">
-        <v>119.390925102249</v>
+        <v>122.555421995356</v>
       </c>
       <c r="I57">
-        <v>54.0464600045449</v>
+        <v>55.4789797259672</v>
       </c>
       <c r="J57">
-        <v>261.215265708519</v>
+        <v>268.138864768153</v>
       </c>
       <c r="K57">
-        <v>135.529605021872</v>
+        <v>139.121863090468</v>
       </c>
       <c r="L57">
-        <v>114.777882733326</v>
+        <v>117.820109376566</v>
       </c>
       <c r="M57">
-        <v>210.225584911661</v>
+        <v>215.797685217734</v>
       </c>
       <c r="N57">
-        <v>161.64695059128</v>
+        <v>165.931457746981</v>
       </c>
       <c r="O57">
-        <v>10833.6672677896</v>
+        <v>11120.8172867757</v>
       </c>
       <c r="P57">
-        <v>389.084340164052</v>
+        <v>399.397152335927</v>
       </c>
     </row>
     <row r="58">
@@ -3358,49 +3358,49 @@
         </is>
       </c>
       <c r="B58">
-        <v>151187.289604056</v>
+        <v>234976.779473715</v>
       </c>
       <c r="C58">
-        <v>10915.6824333702</v>
+        <v>10471.2670896457</v>
       </c>
       <c r="D58">
-        <v>22785.7827693669</v>
+        <v>21858.0944142601</v>
       </c>
       <c r="E58">
-        <v>12918.2709078696</v>
+        <v>12392.323232047</v>
       </c>
       <c r="F58">
-        <v>9310.652423317049</v>
+        <v>8931.58342582052</v>
       </c>
       <c r="G58">
-        <v>6104.2145014076</v>
+        <v>5855.69072816937</v>
       </c>
       <c r="H58">
-        <v>9219.116977037551</v>
+        <v>8843.774705475889</v>
       </c>
       <c r="I58">
-        <v>8261.174617701559</v>
+        <v>7924.8335066712</v>
       </c>
       <c r="J58">
-        <v>7936.77200839695</v>
+        <v>7613.63845429207</v>
       </c>
       <c r="K58">
-        <v>8241.642864900299</v>
+        <v>7906.09695936329</v>
       </c>
       <c r="L58">
-        <v>9786.346944543129</v>
+        <v>9387.91077092645</v>
       </c>
       <c r="M58">
-        <v>4257.44860797595</v>
+        <v>4084.11308836437</v>
       </c>
       <c r="N58">
-        <v>7912.64981269858</v>
+        <v>7590.49835696072</v>
       </c>
       <c r="O58">
-        <v>249236.337812272</v>
+        <v>239089.060863387</v>
       </c>
       <c r="P58">
-        <v>338317.744961352</v>
+        <v>324543.654533853</v>
       </c>
     </row>
     <row r="59">
@@ -3410,49 +3410,49 @@
         </is>
       </c>
       <c r="B59">
-        <v>127.415670372384</v>
+        <v>169.547888333391</v>
       </c>
       <c r="C59">
-        <v>10.112208936438</v>
+        <v>10.5444964734027</v>
       </c>
       <c r="D59">
-        <v>2.83851478917558</v>
+        <v>2.95985865920075</v>
       </c>
       <c r="E59">
-        <v>5.41091881686595</v>
+        <v>5.64223056910143</v>
       </c>
       <c r="F59">
-        <v>0.620925110132158</v>
+        <v>0.647469081700164</v>
       </c>
       <c r="G59">
-        <v>1.50796098174953</v>
+        <v>1.5724249127004</v>
       </c>
       <c r="H59">
-        <v>1.15314663310258</v>
+        <v>1.2024425803003</v>
       </c>
       <c r="I59">
-        <v>2.83851478917558</v>
+        <v>2.95985865920075</v>
       </c>
       <c r="J59">
-        <v>3.72555066079295</v>
+        <v>3.88481449020098</v>
       </c>
       <c r="K59">
-        <v>0.975739458779107</v>
+        <v>1.01745141410026</v>
       </c>
       <c r="L59">
-        <v>0.532221522970422</v>
+        <v>0.55497349860014</v>
       </c>
       <c r="M59">
-        <v>0.443517935808685</v>
+        <v>0.462477915500117</v>
       </c>
       <c r="N59">
-        <v>2.74981120201385</v>
+        <v>2.86736307610073</v>
       </c>
       <c r="O59">
-        <v>231.693769666457</v>
+        <v>241.598463057261</v>
       </c>
       <c r="P59">
-        <v>17.2971994965387</v>
+        <v>18.0366387045046</v>
       </c>
     </row>
     <row r="60">
@@ -3462,49 +3462,49 @@
         </is>
       </c>
       <c r="B60">
-        <v>1821.13520242502</v>
+        <v>3113.88876544383</v>
       </c>
       <c r="C60">
-        <v>146.913117552818</v>
+        <v>144.469859363253</v>
       </c>
       <c r="D60">
-        <v>114.942522219815</v>
+        <v>113.030955278614</v>
       </c>
       <c r="E60">
-        <v>140.849279852613</v>
+        <v>138.506867124421</v>
       </c>
       <c r="F60">
-        <v>50.5036061472035</v>
+        <v>49.6636991914659</v>
       </c>
       <c r="G60">
-        <v>42.072318022014</v>
+        <v>41.3726287275961</v>
       </c>
       <c r="H60">
-        <v>69.6294810272212</v>
+        <v>68.4714986592155</v>
       </c>
       <c r="I60">
-        <v>79.67812635898881</v>
+        <v>78.3530286549952</v>
       </c>
       <c r="J60">
-        <v>229.28617161639</v>
+        <v>225.472997368322</v>
       </c>
       <c r="K60">
-        <v>149.420772317692</v>
+        <v>146.935810241211</v>
       </c>
       <c r="L60">
-        <v>186.405675720872</v>
+        <v>183.305631277103</v>
       </c>
       <c r="M60">
-        <v>112.850473176755</v>
+        <v>110.9736983361</v>
       </c>
       <c r="N60">
-        <v>80.7406749634342</v>
+        <v>79.39790640320351</v>
       </c>
       <c r="O60">
-        <v>2979.78086193581</v>
+        <v>2930.22521901362</v>
       </c>
       <c r="P60">
-        <v>198.236919088373</v>
+        <v>194.940113574307</v>
       </c>
     </row>
     <row r="61">
@@ -3514,49 +3514,49 @@
         </is>
       </c>
       <c r="B61">
-        <v>14603.4787971994</v>
+        <v>26288.9400376447</v>
       </c>
       <c r="C61">
-        <v>960.160962432816</v>
+        <v>952.388368338925</v>
       </c>
       <c r="D61">
-        <v>214.482720209418</v>
+        <v>212.746462238549</v>
       </c>
       <c r="E61">
-        <v>807.818095742015</v>
+        <v>801.27873160874</v>
       </c>
       <c r="F61">
-        <v>115.259405720014</v>
+        <v>114.326369894547</v>
       </c>
       <c r="G61">
-        <v>465.046645687711</v>
+        <v>461.282048965826</v>
       </c>
       <c r="H61">
-        <v>406.915814976747</v>
+        <v>403.621792845098</v>
       </c>
       <c r="I61">
-        <v>257.579715391685</v>
+        <v>255.49458315564</v>
       </c>
       <c r="J61">
-        <v>1095.46548219109</v>
+        <v>1086.59758517165</v>
       </c>
       <c r="K61">
-        <v>1086.44518087388</v>
+        <v>1077.65030404947</v>
       </c>
       <c r="L61">
-        <v>1045.35269709544</v>
+        <v>1036.8904678262</v>
       </c>
       <c r="M61">
-        <v>1013.28051463421</v>
+        <v>1005.07791272511</v>
       </c>
       <c r="N61">
-        <v>276.622573728035</v>
+        <v>274.383287746914</v>
       </c>
       <c r="O61">
-        <v>27370.6009635467</v>
+        <v>27149.0333517408</v>
       </c>
       <c r="P61">
-        <v>874.969227770197</v>
+        <v>867.886268851651</v>
       </c>
     </row>
     <row r="62">
@@ -3566,49 +3566,49 @@
         </is>
       </c>
       <c r="B62">
-        <v>634.863630347425</v>
+        <v>1309.19328474539</v>
       </c>
       <c r="C62">
-        <v>73.03194573646179</v>
+        <v>73.2984512792307</v>
       </c>
       <c r="D62">
-        <v>10.0986037115797</v>
+        <v>10.1354551720772</v>
       </c>
       <c r="E62">
-        <v>55.6692932165426</v>
+        <v>55.8724395938523</v>
       </c>
       <c r="F62">
-        <v>3.47694694930049</v>
+        <v>3.48963489872533</v>
       </c>
       <c r="G62">
-        <v>28.5723937236685</v>
+        <v>28.6766590724929</v>
       </c>
       <c r="H62">
-        <v>20.5826426507956</v>
+        <v>20.657752088124</v>
       </c>
       <c r="I62">
-        <v>15.1544298615874</v>
+        <v>15.2097308605528</v>
       </c>
       <c r="J62">
-        <v>48.1141605123322</v>
+        <v>48.2897369718241</v>
       </c>
       <c r="K62">
-        <v>61.3855786889059</v>
+        <v>61.6095847290257</v>
       </c>
       <c r="L62">
-        <v>44.7446134832324</v>
+        <v>44.9078939132153</v>
       </c>
       <c r="M62">
-        <v>11.7166286775937</v>
+        <v>11.7593845764494</v>
       </c>
       <c r="N62">
-        <v>25.8954256192273</v>
+        <v>25.9899222725793</v>
       </c>
       <c r="O62">
-        <v>2049.75658541955</v>
+        <v>2057.23648323457</v>
       </c>
       <c r="P62">
-        <v>85.06475174922571</v>
+        <v>85.3751669737801</v>
       </c>
     </row>
     <row r="63">
@@ -3618,49 +3618,49 @@
         </is>
       </c>
       <c r="B63">
-        <v>7530.15116433989</v>
+        <v>12631.85709254</v>
       </c>
       <c r="C63">
-        <v>396.161945847362</v>
+        <v>417.904380476881</v>
       </c>
       <c r="D63">
-        <v>268.074872568275</v>
+        <v>282.787543620426</v>
       </c>
       <c r="E63">
-        <v>319.909145856715</v>
+        <v>337.466621439831</v>
       </c>
       <c r="F63">
-        <v>49.1896675084175</v>
+        <v>51.889328951068</v>
       </c>
       <c r="G63">
-        <v>150.389915357276</v>
+        <v>158.64371897943</v>
       </c>
       <c r="H63">
-        <v>114.511430274972</v>
+        <v>120.796125998992</v>
       </c>
       <c r="I63">
-        <v>191.204997895623</v>
+        <v>201.698843180764</v>
       </c>
       <c r="J63">
-        <v>426.045991161616</v>
+        <v>449.428542689089</v>
       </c>
       <c r="K63">
-        <v>192.439147259633</v>
+        <v>203.000725985988</v>
       </c>
       <c r="L63">
-        <v>156.73696922933</v>
+        <v>165.339116263439</v>
       </c>
       <c r="M63">
-        <v>271.689167134306</v>
+        <v>286.600200407153</v>
       </c>
       <c r="N63">
-        <v>227.171636503928</v>
+        <v>239.639427790147</v>
       </c>
       <c r="O63">
-        <v>11436.2450816031</v>
+        <v>12063.8970146075</v>
       </c>
       <c r="P63">
-        <v>880.8300317994761</v>
+        <v>929.172356414107</v>
       </c>
     </row>
     <row r="64">
@@ -3670,49 +3670,49 @@
         </is>
       </c>
       <c r="B64">
-        <v>212.527333279725</v>
+        <v>364.725984382288</v>
       </c>
       <c r="C64">
-        <v>20.4150988239289</v>
+        <v>20.383957095854</v>
       </c>
       <c r="D64">
-        <v>24.0572291305453</v>
+        <v>24.0205316012177</v>
       </c>
       <c r="E64">
-        <v>28.6578147810082</v>
+        <v>28.6140993974665</v>
       </c>
       <c r="F64">
-        <v>8.87817185004946</v>
+        <v>8.86462885346929</v>
       </c>
       <c r="G64">
-        <v>2.04821906979982</v>
+        <v>2.0450946626216</v>
       </c>
       <c r="H64">
-        <v>3.45043923784714</v>
+        <v>3.4451758471866</v>
       </c>
       <c r="I64">
-        <v>3.92966690977035</v>
+        <v>3.92367249262918</v>
       </c>
       <c r="J64">
-        <v>13.8017569513886</v>
+        <v>13.7807033887464</v>
       </c>
       <c r="K64">
-        <v>3.25874816907786</v>
+        <v>3.25377718900956</v>
       </c>
       <c r="L64">
-        <v>12.3640739356189</v>
+        <v>12.3452134524186</v>
       </c>
       <c r="M64">
-        <v>6.99672401007893</v>
+        <v>6.98605102346171</v>
       </c>
       <c r="N64">
-        <v>14.6643667608504</v>
+        <v>14.641997350543</v>
       </c>
       <c r="O64">
-        <v>347.631753335411</v>
+        <v>347.101466726175</v>
       </c>
       <c r="P64">
-        <v>33.545937034625</v>
+        <v>33.4947651809808</v>
       </c>
     </row>
     <row r="65">
@@ -3722,49 +3722,49 @@
         </is>
       </c>
       <c r="B65">
-        <v>708.7869691964989</v>
+        <v>1364.49300784803</v>
       </c>
       <c r="C65">
-        <v>39.0889355806973</v>
+        <v>38.7815019992965</v>
       </c>
       <c r="D65">
-        <v>15.5965827753406</v>
+        <v>15.4739160096943</v>
       </c>
       <c r="E65">
-        <v>95.7240267836527</v>
+        <v>94.971159509499</v>
       </c>
       <c r="F65">
-        <v>8.28568459939968</v>
+        <v>8.220517880150121</v>
       </c>
       <c r="G65">
-        <v>18.2285061186793</v>
+        <v>18.0851393363303</v>
       </c>
       <c r="H65">
-        <v>16.2789332717617</v>
+        <v>16.1508998351185</v>
       </c>
       <c r="I65">
-        <v>15.6940614176864</v>
+        <v>15.5706279847549</v>
       </c>
       <c r="J65">
-        <v>58.8770999769106</v>
+        <v>58.4140329365962</v>
       </c>
       <c r="K65">
-        <v>59.7544077580235</v>
+        <v>59.2844407121415</v>
       </c>
       <c r="L65">
-        <v>61.2165873932117</v>
+        <v>60.7351203380503</v>
       </c>
       <c r="M65">
-        <v>20.4705148926345</v>
+        <v>20.3095147627238</v>
       </c>
       <c r="N65">
-        <v>17.2537196952205</v>
+        <v>17.1180195857244</v>
       </c>
       <c r="O65">
-        <v>1564.14229508197</v>
+        <v>1551.84035182222</v>
       </c>
       <c r="P65">
-        <v>120.288644654814</v>
+        <v>119.342577224768</v>
       </c>
     </row>
     <row r="66">
@@ -3774,49 +3774,49 @@
         </is>
       </c>
       <c r="B66">
-        <v>10276.9178731681</v>
+        <v>17402.4058021131</v>
       </c>
       <c r="C66">
-        <v>545.508301564115</v>
+        <v>549.743158684683</v>
       </c>
       <c r="D66">
-        <v>186.467835892685</v>
+        <v>187.915411741344</v>
       </c>
       <c r="E66">
-        <v>361.664036056579</v>
+        <v>364.471684471748</v>
       </c>
       <c r="F66">
-        <v>54.4147931734777</v>
+        <v>54.8372228114397</v>
       </c>
       <c r="G66">
-        <v>137.591691310079</v>
+        <v>138.659834823212</v>
       </c>
       <c r="H66">
-        <v>208.136583888552</v>
+        <v>209.752377253757</v>
       </c>
       <c r="I66">
-        <v>130.887011436919</v>
+        <v>131.903105583945</v>
       </c>
       <c r="J66">
-        <v>540.649837887911</v>
+        <v>544.846978076519</v>
       </c>
       <c r="K66">
-        <v>306.666227241957</v>
+        <v>309.046919987328</v>
       </c>
       <c r="L66">
-        <v>356.805572380376</v>
+        <v>359.575503863583</v>
       </c>
       <c r="M66">
-        <v>319.978417714754</v>
+        <v>322.462454853698</v>
       </c>
       <c r="N66">
-        <v>175.390538710942</v>
+        <v>176.75211995473</v>
       </c>
       <c r="O66">
-        <v>17612.2223340578</v>
+        <v>17748.9484754319</v>
       </c>
       <c r="P66">
-        <v>881.616818683863</v>
+        <v>888.460933157487</v>
       </c>
     </row>
     <row r="67">
@@ -3826,49 +3826,49 @@
         </is>
       </c>
       <c r="B67">
-        <v>8445.97005953695</v>
+        <v>17204.5389367454</v>
       </c>
       <c r="C67">
-        <v>459.767566252678</v>
+        <v>459.617898885764</v>
       </c>
       <c r="D67">
-        <v>103.673078664819</v>
+        <v>103.639330140908</v>
       </c>
       <c r="E67">
-        <v>489.646018737446</v>
+        <v>489.486625087864</v>
       </c>
       <c r="F67">
-        <v>136.08315687558</v>
+        <v>136.038857953112</v>
       </c>
       <c r="G67">
-        <v>326.183838494809</v>
+        <v>326.077656415383</v>
       </c>
       <c r="H67">
-        <v>190.571724415238</v>
+        <v>190.509687920507</v>
       </c>
       <c r="I67">
-        <v>124.600874047469</v>
+        <v>124.560312933327</v>
       </c>
       <c r="J67">
-        <v>395.921692031455</v>
+        <v>395.792808305199</v>
       </c>
       <c r="K67">
-        <v>289.576294879313</v>
+        <v>289.482029592336</v>
       </c>
       <c r="L67">
-        <v>358.122873909561</v>
+        <v>358.006294769353</v>
       </c>
       <c r="M67">
-        <v>422.065337955627</v>
+        <v>421.927943732036</v>
       </c>
       <c r="N67">
-        <v>135.612114079571</v>
+        <v>135.567968494877</v>
       </c>
       <c r="O67">
-        <v>23507.6444928424</v>
+        <v>23499.9920886456</v>
       </c>
       <c r="P67">
-        <v>459.359308083074</v>
+        <v>459.209773615759</v>
       </c>
     </row>
     <row r="68">
@@ -3878,49 +3878,49 @@
         </is>
       </c>
       <c r="B68">
-        <v>2185.40217312109</v>
+        <v>3330.90469821921</v>
       </c>
       <c r="C68">
-        <v>105.729545456771</v>
+        <v>106.819130819571</v>
       </c>
       <c r="D68">
-        <v>79.51560856666281</v>
+        <v>80.33504879819</v>
       </c>
       <c r="E68">
-        <v>63.6597191720512</v>
+        <v>64.3157581052572</v>
       </c>
       <c r="F68">
-        <v>18.2486786610133</v>
+        <v>18.4367386122178</v>
       </c>
       <c r="G68">
-        <v>26.1855974988761</v>
+        <v>26.4554505813582</v>
       </c>
       <c r="H68">
-        <v>17.9964580790436</v>
+        <v>18.1819187960121</v>
       </c>
       <c r="I68">
-        <v>29.8442129069983</v>
+        <v>30.1517694883423</v>
       </c>
       <c r="J68">
-        <v>53.0938494741822</v>
+        <v>53.6410028833058</v>
       </c>
       <c r="K68">
-        <v>26.192210023497</v>
+        <v>26.4621312506969</v>
       </c>
       <c r="L68">
-        <v>19.316129064106</v>
+        <v>19.5151895197551</v>
       </c>
       <c r="M68">
-        <v>18.119262107718</v>
+        <v>18.3059883694456</v>
       </c>
       <c r="N68">
-        <v>35.3949550030804</v>
+        <v>35.7597142075364</v>
       </c>
       <c r="O68">
-        <v>2825.70086222368</v>
+        <v>2854.82084269677</v>
       </c>
       <c r="P68">
-        <v>538.866911762315</v>
+        <v>544.420151370191</v>
       </c>
     </row>
     <row r="69">
@@ -3930,49 +3930,49 @@
         </is>
       </c>
       <c r="B69">
-        <v>2589.28750905016</v>
+        <v>3992.27279969471</v>
       </c>
       <c r="C69">
-        <v>143.14716572375</v>
+        <v>144.228290368249</v>
       </c>
       <c r="D69">
-        <v>121.834599624062</v>
+        <v>122.754760268112</v>
       </c>
       <c r="E69">
-        <v>86.1459126879067</v>
+        <v>86.7965331089182</v>
       </c>
       <c r="F69">
-        <v>19.506020118046</v>
+        <v>19.6533401083448</v>
       </c>
       <c r="G69">
-        <v>52.9804936900949</v>
+        <v>53.3806309692125</v>
       </c>
       <c r="H69">
-        <v>43.7342721352072</v>
+        <v>44.0645769594457</v>
       </c>
       <c r="I69">
-        <v>34.4199365787608</v>
+        <v>34.6798945144228</v>
       </c>
       <c r="J69">
-        <v>107.384265024702</v>
+        <v>108.195288943777</v>
       </c>
       <c r="K69">
-        <v>63.6916745919416</v>
+        <v>64.1727084894878</v>
       </c>
       <c r="L69">
-        <v>193.876847481737</v>
+        <v>195.341110058999</v>
       </c>
       <c r="M69">
-        <v>66.94691389031981</v>
+        <v>67.4525331117279</v>
       </c>
       <c r="N69">
-        <v>49.767952721052</v>
+        <v>50.143827157133</v>
       </c>
       <c r="O69">
-        <v>2505.74637391232</v>
+        <v>2524.67112274688</v>
       </c>
       <c r="P69">
-        <v>373.0105718201</v>
+        <v>375.827748952561</v>
       </c>
     </row>
     <row r="70">
@@ -3982,49 +3982,49 @@
         </is>
       </c>
       <c r="B70">
-        <v>37353.5818570992</v>
+        <v>44030.5911325772</v>
       </c>
       <c r="C70">
-        <v>1891.790533346</v>
+        <v>1829.89384213629</v>
       </c>
       <c r="D70">
-        <v>2553.16982737179</v>
+        <v>2469.6337478613</v>
       </c>
       <c r="E70">
-        <v>2717.56737252118</v>
+        <v>2628.65243953385</v>
       </c>
       <c r="F70">
-        <v>1187.50463626439</v>
+        <v>1148.65117628278</v>
       </c>
       <c r="G70">
-        <v>282.63643766554</v>
+        <v>273.388976068481</v>
       </c>
       <c r="H70">
-        <v>980.5158439582719</v>
+        <v>948.434762385053</v>
       </c>
       <c r="I70">
-        <v>803.336946687069</v>
+        <v>777.052906223828</v>
       </c>
       <c r="J70">
-        <v>423.690709416025</v>
+        <v>409.82815299295</v>
       </c>
       <c r="K70">
-        <v>86.0311872688368</v>
+        <v>83.21636938127411</v>
       </c>
       <c r="L70">
-        <v>237.73622079545</v>
+        <v>229.957830329613</v>
       </c>
       <c r="M70">
-        <v>456.098040850743</v>
+        <v>441.175162710549</v>
       </c>
       <c r="N70">
-        <v>555.281414252103</v>
+        <v>537.1133974306709</v>
       </c>
       <c r="O70">
-        <v>32522.6430749445</v>
+        <v>31458.5485252308</v>
       </c>
       <c r="P70">
-        <v>39987.8367546581</v>
+        <v>38679.4917026455</v>
       </c>
     </row>
     <row r="71">
@@ -4034,49 +4034,49 @@
         </is>
       </c>
       <c r="B71">
-        <v>251786.763574201</v>
+        <v>286159.995116543</v>
       </c>
       <c r="C71">
-        <v>10115.7411644395</v>
+        <v>10200.1268270751</v>
       </c>
       <c r="D71">
-        <v>14948.8368867178</v>
+        <v>15073.5403054601</v>
       </c>
       <c r="E71">
-        <v>6683.47242558326</v>
+        <v>6739.22605155804</v>
       </c>
       <c r="F71">
-        <v>2431.72062976414</v>
+        <v>2452.00607927809</v>
       </c>
       <c r="G71">
-        <v>2056.49050388739</v>
+        <v>2073.64577813309</v>
       </c>
       <c r="H71">
-        <v>785.065430435875</v>
+        <v>791.614457885545</v>
       </c>
       <c r="I71">
-        <v>4346.82304863434</v>
+        <v>4383.08431089442</v>
       </c>
       <c r="J71">
-        <v>3619.03936919885</v>
+        <v>3649.22944922462</v>
       </c>
       <c r="K71">
-        <v>1336.86157531109</v>
+        <v>1348.01369437492</v>
       </c>
       <c r="L71">
-        <v>1143.98415890907</v>
+        <v>1153.52729170823</v>
       </c>
       <c r="M71">
-        <v>1071.42245415785</v>
+        <v>1080.36027614114</v>
       </c>
       <c r="N71">
-        <v>4529.8565544903</v>
+        <v>4567.64468496747</v>
       </c>
       <c r="O71">
-        <v>104238.552845005</v>
+        <v>105108.112396897</v>
       </c>
       <c r="P71">
-        <v>234918.111102513</v>
+        <v>236877.801465112</v>
       </c>
     </row>
     <row r="72">
@@ -4086,49 +4086,49 @@
         </is>
       </c>
       <c r="B72">
-        <v>639.229943901315</v>
+        <v>948.044449292118</v>
       </c>
       <c r="C72">
-        <v>50.0883622217748</v>
+        <v>50.5209187819521</v>
       </c>
       <c r="D72">
-        <v>7.6675243403273</v>
+        <v>7.73374008000437</v>
       </c>
       <c r="E72">
-        <v>32.0976297960792</v>
+        <v>32.3748207386172</v>
       </c>
       <c r="F72">
-        <v>16.4529909209182</v>
+        <v>16.5950768035804</v>
       </c>
       <c r="G72">
-        <v>25.5380818416672</v>
+        <v>25.7586253840184</v>
       </c>
       <c r="H72">
-        <v>10.6236453962573</v>
+        <v>10.7153898116328</v>
       </c>
       <c r="I72">
-        <v>12.9734293338476</v>
+        <v>13.0854661766875</v>
       </c>
       <c r="J72">
-        <v>19.268046205021</v>
+        <v>19.4344425377835</v>
       </c>
       <c r="K72">
-        <v>13.0817688489864</v>
+        <v>13.194741297742</v>
       </c>
       <c r="L72">
-        <v>56.8418288041244</v>
+        <v>57.3327074204551</v>
       </c>
       <c r="M72">
-        <v>10.1201852964947</v>
+        <v>10.2075818961445</v>
       </c>
       <c r="N72">
-        <v>4.74877906691627</v>
+        <v>4.78978890327571</v>
       </c>
       <c r="O72">
-        <v>1239.49964687767</v>
+        <v>1250.20380408729</v>
       </c>
       <c r="P72">
-        <v>106.230081049918</v>
+        <v>107.14747016803</v>
       </c>
     </row>
     <row r="73">
@@ -4138,49 +4138,49 @@
         </is>
       </c>
       <c r="B73">
-        <v>14045.5930401205</v>
+        <v>22556.6889076294</v>
       </c>
       <c r="C73">
-        <v>458.622243938514</v>
+        <v>475.921482610587</v>
       </c>
       <c r="D73">
-        <v>783.393624214252</v>
+        <v>812.943244753983</v>
       </c>
       <c r="E73">
-        <v>429.24263641646</v>
+        <v>445.433675803974</v>
       </c>
       <c r="F73">
-        <v>61.8567455496276</v>
+        <v>64.18998302095309</v>
       </c>
       <c r="G73">
-        <v>193.92418255771</v>
+        <v>201.239005950363</v>
       </c>
       <c r="H73">
-        <v>200.025379007976</v>
+        <v>207.570339632247</v>
       </c>
       <c r="I73">
-        <v>240.38714014051</v>
+        <v>249.454547066253</v>
       </c>
       <c r="J73">
-        <v>804.043827584385</v>
+        <v>834.372374138823</v>
       </c>
       <c r="K73">
-        <v>585.151671860969</v>
+        <v>607.223602659517</v>
       </c>
       <c r="L73">
-        <v>434.217458137447</v>
+        <v>450.596147883049</v>
       </c>
       <c r="M73">
-        <v>259.25391685595</v>
+        <v>269.032978913312</v>
       </c>
       <c r="N73">
-        <v>306.373926364165</v>
+        <v>317.930355964174</v>
       </c>
       <c r="O73">
-        <v>15607.1421134647</v>
+        <v>16195.8437736615</v>
       </c>
       <c r="P73">
-        <v>959.7651339073479</v>
+        <v>995.9674907272311</v>
       </c>
     </row>
     <row r="74">
@@ -4190,49 +4190,49 @@
         </is>
       </c>
       <c r="B74">
-        <v>23414.50526073</v>
+        <v>38675.0665746094</v>
       </c>
       <c r="C74">
-        <v>1508.09896993139</v>
+        <v>1462.80055692065</v>
       </c>
       <c r="D74">
-        <v>711.14836276938</v>
+        <v>689.787767151372</v>
       </c>
       <c r="E74">
-        <v>1272.76266088258</v>
+        <v>1234.5329890727</v>
       </c>
       <c r="F74">
-        <v>84.07377896797649</v>
+        <v>81.5484747014812</v>
       </c>
       <c r="G74">
-        <v>442.448930637048</v>
+        <v>429.159196477845</v>
       </c>
       <c r="H74">
-        <v>713.740505592748</v>
+        <v>692.302050392221</v>
       </c>
       <c r="I74">
-        <v>380.008963920703</v>
+        <v>368.594724312645</v>
       </c>
       <c r="J74">
-        <v>1825.24881882339</v>
+        <v>1770.42425061473</v>
       </c>
       <c r="K74">
-        <v>1155.92877151948</v>
+        <v>1121.20841168416</v>
       </c>
       <c r="L74">
-        <v>1789.49806956506</v>
+        <v>1735.74733817853</v>
       </c>
       <c r="M74">
-        <v>1214.46522066174</v>
+        <v>1177.98661531184</v>
       </c>
       <c r="N74">
-        <v>269.206377486815</v>
+        <v>261.120289029983</v>
       </c>
       <c r="O74">
-        <v>46747.4680014592</v>
+        <v>45343.3253324719</v>
       </c>
       <c r="P74">
-        <v>3496.29620546391</v>
+        <v>3391.2787810901</v>
       </c>
     </row>
     <row r="75">
@@ -4242,49 +4242,49 @@
         </is>
       </c>
       <c r="B75">
-        <v>10603.1768212441</v>
+        <v>11887.5128481646</v>
       </c>
       <c r="C75">
-        <v>265.592367135963</v>
+        <v>270.283114818729</v>
       </c>
       <c r="D75">
-        <v>471.49835308742</v>
+        <v>479.825700108055</v>
       </c>
       <c r="E75">
-        <v>271.135142627839</v>
+        <v>275.923783791412</v>
       </c>
       <c r="F75">
-        <v>81.2975301657961</v>
+        <v>82.7333628493636</v>
       </c>
       <c r="G75">
-        <v>204.834108177976</v>
+        <v>208.451776594612</v>
       </c>
       <c r="H75">
-        <v>267.156154697228</v>
+        <v>271.874521143886</v>
       </c>
       <c r="I75">
-        <v>138.325680144502</v>
+        <v>140.768712941724</v>
       </c>
       <c r="J75">
-        <v>434.486110428589</v>
+        <v>442.159767385168</v>
       </c>
       <c r="K75">
-        <v>435.517179150302</v>
+        <v>443.209046280876</v>
       </c>
       <c r="L75">
-        <v>832.415889112707</v>
+        <v>847.11756501198</v>
       </c>
       <c r="M75">
-        <v>503.577713025522</v>
+        <v>512.4716282232361</v>
       </c>
       <c r="N75">
-        <v>123.789173393682</v>
+        <v>125.975470328755</v>
       </c>
       <c r="O75">
-        <v>13508.5096761645</v>
+        <v>13747.0896140762</v>
       </c>
       <c r="P75">
-        <v>1707.86492268793</v>
+        <v>1738.02830243776</v>
       </c>
     </row>
     <row r="76">
@@ -4294,49 +4294,49 @@
         </is>
       </c>
       <c r="B76">
-        <v>537.31984196599</v>
+        <v>917.512005435926</v>
       </c>
       <c r="C76">
-        <v>44.0075394105552</v>
+        <v>41.8261946079267</v>
       </c>
       <c r="D76">
-        <v>64.5901302261823</v>
+        <v>61.3885573421463</v>
       </c>
       <c r="E76">
-        <v>46.1638108293352</v>
+        <v>43.8755849896068</v>
       </c>
       <c r="F76">
-        <v>7.4489376285127</v>
+        <v>7.07971222762235</v>
       </c>
       <c r="G76">
-        <v>5.48869088416724</v>
+        <v>5.21663006245856</v>
       </c>
       <c r="H76">
-        <v>8.429061000685399</v>
+        <v>8.01125331020422</v>
       </c>
       <c r="I76">
-        <v>8.527073337902671</v>
+        <v>8.10440741846241</v>
       </c>
       <c r="J76">
-        <v>11.4674434544208</v>
+        <v>10.8990306662081</v>
       </c>
       <c r="K76">
-        <v>12.3495544893763</v>
+        <v>11.7374176405318</v>
       </c>
       <c r="L76">
-        <v>18.6223440712817</v>
+        <v>17.6992805690558</v>
       </c>
       <c r="M76">
-        <v>5.48869088416724</v>
+        <v>5.21663006245856</v>
       </c>
       <c r="N76">
-        <v>18.9163810829335</v>
+        <v>17.9787428938304</v>
       </c>
       <c r="O76">
-        <v>815.168608636052</v>
+        <v>774.762718383355</v>
       </c>
       <c r="P76">
-        <v>220.331734064428</v>
+        <v>209.410435364408</v>
       </c>
     </row>
     <row r="77">
@@ -4346,49 +4346,49 @@
         </is>
       </c>
       <c r="B77">
-        <v>22033.3490679268</v>
+        <v>23860.6921234538</v>
       </c>
       <c r="C77">
-        <v>1343.11339672759</v>
+        <v>1339.07799648754</v>
       </c>
       <c r="D77">
-        <v>1101.91086194649</v>
+        <v>1098.60015760265</v>
       </c>
       <c r="E77">
-        <v>413.781833239051</v>
+        <v>412.538620779664</v>
       </c>
       <c r="F77">
-        <v>286.843379124296</v>
+        <v>285.981554766207</v>
       </c>
       <c r="G77">
-        <v>288.768757024158</v>
+        <v>287.901147845176</v>
       </c>
       <c r="H77">
-        <v>322.341078379918</v>
+        <v>321.372600760499</v>
       </c>
       <c r="I77">
-        <v>279.272005318816</v>
+        <v>278.432929243743</v>
       </c>
       <c r="J77">
-        <v>403.19004009111</v>
+        <v>401.978650800724</v>
       </c>
       <c r="K77">
-        <v>281.230039141747</v>
+        <v>280.38508013067</v>
       </c>
       <c r="L77">
-        <v>950.835735668418</v>
+        <v>947.978938345635</v>
       </c>
       <c r="M77">
-        <v>877.693934971166</v>
+        <v>875.056893062044</v>
       </c>
       <c r="N77">
-        <v>424.338786868932</v>
+        <v>423.063855916292</v>
       </c>
       <c r="O77">
-        <v>22057.5215314502</v>
+        <v>21991.249444596</v>
       </c>
       <c r="P77">
-        <v>6466.89999596198</v>
+        <v>6447.4701176958</v>
       </c>
     </row>
     <row r="78">
@@ -4398,49 +4398,49 @@
         </is>
       </c>
       <c r="B78">
-        <v>2622.26180700955</v>
+        <v>4319.68234243667</v>
       </c>
       <c r="C78">
-        <v>141.746521922385</v>
+        <v>144.972127083665</v>
       </c>
       <c r="D78">
-        <v>23.8842359910137</v>
+        <v>24.4277492556852</v>
       </c>
       <c r="E78">
-        <v>131.826017287768</v>
+        <v>134.825869954258</v>
       </c>
       <c r="F78">
-        <v>15.6077459426586</v>
+        <v>15.9629181556048</v>
       </c>
       <c r="G78">
-        <v>68.8229441547863</v>
+        <v>70.3890894179609</v>
       </c>
       <c r="H78">
-        <v>34.3867277278107</v>
+        <v>35.1692372732591</v>
       </c>
       <c r="I78">
-        <v>30.6889321262016</v>
+        <v>31.3872940790591</v>
       </c>
       <c r="J78">
-        <v>121.131509398211</v>
+        <v>123.887996235486</v>
       </c>
       <c r="K78">
-        <v>88.0443549104735</v>
+        <v>90.0479054863131</v>
       </c>
       <c r="L78">
-        <v>86.7606180541333</v>
+        <v>88.73495572108899</v>
       </c>
       <c r="M78">
-        <v>52.0987331589652</v>
+        <v>53.2842997626083</v>
       </c>
       <c r="N78">
-        <v>152.224269309599</v>
+        <v>155.688307665518</v>
       </c>
       <c r="O78">
-        <v>6381.76274280184</v>
+        <v>6526.98709513214</v>
       </c>
       <c r="P78">
-        <v>268.238647214149</v>
+        <v>274.342726193827</v>
       </c>
     </row>
     <row r="79">
@@ -4450,49 +4450,49 @@
         </is>
       </c>
       <c r="B79">
-        <v>7420.72605826104</v>
+        <v>11511.4969772112</v>
       </c>
       <c r="C79">
-        <v>587.832965508544</v>
+        <v>569.763477555961</v>
       </c>
       <c r="D79">
-        <v>404.921637555962</v>
+        <v>392.474689050398</v>
       </c>
       <c r="E79">
-        <v>350.767300901696</v>
+        <v>339.985010881061</v>
       </c>
       <c r="F79">
-        <v>270.546976480232</v>
+        <v>262.230591352208</v>
       </c>
       <c r="G79">
-        <v>131.004059209282</v>
+        <v>126.977105281011</v>
       </c>
       <c r="H79">
-        <v>151.789437385712</v>
+        <v>147.12355852028</v>
       </c>
       <c r="I79">
-        <v>175.158943659752</v>
+        <v>169.774705946052</v>
       </c>
       <c r="J79">
-        <v>354.362609559241</v>
+        <v>343.469802792718</v>
       </c>
       <c r="K79">
-        <v>201.22493142695</v>
+        <v>195.039447305567</v>
       </c>
       <c r="L79">
-        <v>188.079584147803</v>
+        <v>182.29817687857</v>
       </c>
       <c r="M79">
-        <v>222.347369790025</v>
+        <v>215.512599786553</v>
       </c>
       <c r="N79">
-        <v>291.107647865565</v>
+        <v>282.159245096998</v>
       </c>
       <c r="O79">
-        <v>8138.54291332997</v>
+        <v>7888.37099077239</v>
       </c>
       <c r="P79">
-        <v>2786.81362317927</v>
+        <v>2701.14933052333</v>
       </c>
     </row>
     <row r="80">
@@ -4502,49 +4502,49 @@
         </is>
       </c>
       <c r="B80">
-        <v>1886.54090141022</v>
+        <v>2951.82098588267</v>
       </c>
       <c r="C80">
-        <v>115.74819628479</v>
+        <v>117.233365710115</v>
       </c>
       <c r="D80">
-        <v>296.129869608402</v>
+        <v>299.929523014541</v>
       </c>
       <c r="E80">
-        <v>107.360645829371</v>
+        <v>108.738194281846</v>
       </c>
       <c r="F80">
-        <v>17.3671632959276</v>
+        <v>17.590002016181</v>
       </c>
       <c r="G80">
-        <v>21.9063082482724</v>
+        <v>22.1873889067737</v>
       </c>
       <c r="H80">
-        <v>26.2480990722543</v>
+        <v>26.584889410819</v>
       </c>
       <c r="I80">
-        <v>66.80437245081259</v>
+        <v>67.6615418463326</v>
       </c>
       <c r="J80">
-        <v>98.5783871172256</v>
+        <v>99.84325008048189</v>
       </c>
       <c r="K80">
-        <v>44.7993871383588</v>
+        <v>45.374209746285</v>
       </c>
       <c r="L80">
-        <v>46.9702825503498</v>
+        <v>47.5729599983077</v>
       </c>
       <c r="M80">
-        <v>38.0893467740231</v>
+        <v>38.5780726036697</v>
       </c>
       <c r="N80">
-        <v>71.5408715315201</v>
+        <v>72.4588151234728</v>
       </c>
       <c r="O80">
-        <v>3110.10370886959</v>
+        <v>3150.00956560223</v>
       </c>
       <c r="P80">
-        <v>607.653361229105</v>
+        <v>615.450184179787</v>
       </c>
     </row>
     <row r="81">
@@ -4554,49 +4554,49 @@
         </is>
       </c>
       <c r="B81">
-        <v>4714.01807932376</v>
+        <v>7108.16892200851</v>
       </c>
       <c r="C81">
-        <v>267.061620038151</v>
+        <v>228.512790449333</v>
       </c>
       <c r="D81">
-        <v>716.557541556908</v>
+        <v>613.126526062755</v>
       </c>
       <c r="E81">
-        <v>205.209686392951</v>
+        <v>175.588832488124</v>
       </c>
       <c r="F81">
-        <v>228.9099600327</v>
+        <v>195.868106099428</v>
       </c>
       <c r="G81">
-        <v>72.4881540103552</v>
+        <v>62.0249002648189</v>
       </c>
       <c r="H81">
-        <v>30.0588836406576</v>
+        <v>25.7200543362885</v>
       </c>
       <c r="I81">
-        <v>74.4535425560905</v>
+        <v>63.7065961252685</v>
       </c>
       <c r="J81">
-        <v>256.887844036697</v>
+        <v>219.807541289358</v>
       </c>
       <c r="K81">
-        <v>190.75830002725</v>
+        <v>163.223421749523</v>
       </c>
       <c r="L81">
-        <v>148.444640748479</v>
+        <v>127.017499106902</v>
       </c>
       <c r="M81">
-        <v>155.496917294941</v>
+        <v>133.051819547339</v>
       </c>
       <c r="N81">
-        <v>192.60807748206</v>
+        <v>164.806194324064</v>
       </c>
       <c r="O81">
-        <v>4025.23135275684</v>
+        <v>3444.21204548676</v>
       </c>
       <c r="P81">
-        <v>3617.93347942592</v>
+        <v>3095.70530923005</v>
       </c>
     </row>
     <row r="82">
@@ -4606,49 +4606,49 @@
         </is>
       </c>
       <c r="B82">
-        <v>41663.091109246</v>
+        <v>70191.5570640239</v>
       </c>
       <c r="C82">
-        <v>3598.55096662121</v>
+        <v>3593.16616976301</v>
       </c>
       <c r="D82">
-        <v>1481.42572824106</v>
+        <v>1479.20895357784</v>
       </c>
       <c r="E82">
-        <v>1662.96191057832</v>
+        <v>1660.47348894571</v>
       </c>
       <c r="F82">
-        <v>1708.65378637203</v>
+        <v>1706.09699236635</v>
       </c>
       <c r="G82">
-        <v>714.569661623247</v>
+        <v>713.50039443638</v>
       </c>
       <c r="H82">
-        <v>886.944106513021</v>
+        <v>885.6169017902161</v>
       </c>
       <c r="I82">
-        <v>649.320154851632</v>
+        <v>648.348525670263</v>
       </c>
       <c r="J82">
-        <v>2296.91564445429</v>
+        <v>2293.47858763321</v>
       </c>
       <c r="K82">
-        <v>924.568977492514</v>
+        <v>923.185471694938</v>
       </c>
       <c r="L82">
-        <v>1696.83619517782</v>
+        <v>1694.29708476993</v>
       </c>
       <c r="M82">
-        <v>1020.18532780517</v>
+        <v>1018.6587436887</v>
       </c>
       <c r="N82">
-        <v>910.028520848819</v>
+        <v>908.6667730882911</v>
       </c>
       <c r="O82">
-        <v>67354.94518092991</v>
+        <v>67254.1566411652</v>
       </c>
       <c r="P82">
-        <v>13273.6052876681</v>
+        <v>13253.7429406532</v>
       </c>
     </row>
     <row r="83">
@@ -4658,49 +4658,49 @@
         </is>
       </c>
       <c r="B83">
-        <v>26577.6659160076</v>
+        <v>41785.8999562002</v>
       </c>
       <c r="C83">
-        <v>1816.27738898344</v>
+        <v>1796.68048134653</v>
       </c>
       <c r="D83">
-        <v>934.88783931861</v>
+        <v>924.800772910625</v>
       </c>
       <c r="E83">
-        <v>998.001230245001</v>
+        <v>987.233195555332</v>
       </c>
       <c r="F83">
-        <v>1191.08403924706</v>
+        <v>1178.23271816224</v>
       </c>
       <c r="G83">
-        <v>548.323779851938</v>
+        <v>542.407585258504</v>
       </c>
       <c r="H83">
-        <v>235.067200414623</v>
+        <v>232.530919203981</v>
       </c>
       <c r="I83">
-        <v>675.450176824754</v>
+        <v>668.162339180099</v>
       </c>
       <c r="J83">
-        <v>1193.72049205716</v>
+        <v>1180.84072469947</v>
       </c>
       <c r="K83">
-        <v>1750.06624083432</v>
+        <v>1731.18372504234</v>
       </c>
       <c r="L83">
-        <v>872.397115882326</v>
+        <v>862.98429942249</v>
       </c>
       <c r="M83">
-        <v>1170.61302269293</v>
+        <v>1157.98257570095</v>
       </c>
       <c r="N83">
-        <v>407.470817462874</v>
+        <v>403.074370079347</v>
       </c>
       <c r="O83">
-        <v>35748.4304754206</v>
+        <v>35362.7191879044</v>
       </c>
       <c r="P83">
-        <v>17184.5539415219</v>
+        <v>16999.1394677107</v>
       </c>
     </row>
     <row r="84">
@@ -4710,49 +4710,49 @@
         </is>
       </c>
       <c r="B84">
-        <v>798.646653351741</v>
+        <v>1234.07006351249</v>
       </c>
       <c r="C84">
-        <v>51.5213702661296</v>
+        <v>51.918019352703</v>
       </c>
       <c r="D84">
-        <v>77.4144138043285</v>
+        <v>78.0104064257298</v>
       </c>
       <c r="E84">
-        <v>55.3445108159131</v>
+        <v>55.7705932269318</v>
       </c>
       <c r="F84">
-        <v>13.8725385663572</v>
+        <v>13.9793394864875</v>
       </c>
       <c r="G84">
-        <v>13.4277355989177</v>
+        <v>13.5311121013778</v>
       </c>
       <c r="H84">
-        <v>21.3220041936058</v>
+        <v>21.4861565335692</v>
       </c>
       <c r="I84">
-        <v>25.5879795561055</v>
+        <v>25.7849744858941</v>
       </c>
       <c r="J84">
-        <v>78.81081958042699</v>
+        <v>79.41756275199261</v>
       </c>
       <c r="K84">
-        <v>49.0277182318564</v>
+        <v>49.405169366269</v>
       </c>
       <c r="L84">
-        <v>71.34659279275451</v>
+        <v>71.89587090230771</v>
       </c>
       <c r="M84">
-        <v>30.7248633836138</v>
+        <v>30.9614057918077</v>
       </c>
       <c r="N84">
-        <v>25.1658103679827</v>
+        <v>25.3595551314425</v>
       </c>
       <c r="O84">
-        <v>1247.29345388335</v>
+        <v>1256.89602863274</v>
       </c>
       <c r="P84">
-        <v>92.26118895866141</v>
+        <v>92.9714828840286</v>
       </c>
     </row>
     <row r="85">
@@ -4762,49 +4762,49 @@
         </is>
       </c>
       <c r="B85">
-        <v>409.325353972837</v>
+        <v>607.069544807626</v>
       </c>
       <c r="C85">
-        <v>21.3218613627536</v>
+        <v>21.9164055405472</v>
       </c>
       <c r="D85">
-        <v>32.7150490123339</v>
+        <v>33.6272837176253</v>
       </c>
       <c r="E85">
-        <v>27.9541443006561</v>
+        <v>28.7336247342073</v>
       </c>
       <c r="F85">
-        <v>4.3431775403358</v>
+        <v>4.46428380192333</v>
       </c>
       <c r="G85">
-        <v>13.80573488265</v>
+        <v>14.1906974876962</v>
       </c>
       <c r="H85">
-        <v>13.4176337518287</v>
+        <v>13.7917744467331</v>
       </c>
       <c r="I85">
-        <v>9.93756152532951</v>
+        <v>10.2146630056286</v>
       </c>
       <c r="J85">
-        <v>40.5570619381653</v>
+        <v>41.6879653163231</v>
       </c>
       <c r="K85">
-        <v>25.4546940153924</v>
+        <v>26.1644791446966</v>
       </c>
       <c r="L85">
-        <v>29.2675654304075</v>
+        <v>30.0836696311054</v>
       </c>
       <c r="M85">
-        <v>10.4935435524348</v>
+        <v>10.7861481762704</v>
       </c>
       <c r="N85">
-        <v>16.484916480406</v>
+        <v>16.9445860630982</v>
       </c>
       <c r="O85">
-        <v>510.178193390906</v>
+        <v>524.404131237386</v>
       </c>
       <c r="P85">
-        <v>93.25586281640091</v>
+        <v>95.8562328938211</v>
       </c>
     </row>
     <row r="86">
@@ -4814,49 +4814,49 @@
         </is>
       </c>
       <c r="B86">
-        <v>1064.84117216285</v>
+        <v>2414.41843809264</v>
       </c>
       <c r="C86">
-        <v>62.5043536239874</v>
+        <v>62.4742902219419</v>
       </c>
       <c r="D86">
-        <v>11.5529373996943</v>
+        <v>11.5473806571362</v>
       </c>
       <c r="E86">
-        <v>122.737616989915</v>
+        <v>122.678582536925</v>
       </c>
       <c r="F86">
-        <v>10.6642499074102</v>
+        <v>10.6591206065872</v>
       </c>
       <c r="G86">
-        <v>38.2135621682198</v>
+        <v>38.1951821736043</v>
       </c>
       <c r="H86">
-        <v>23.7970761822764</v>
+        <v>23.7856302424771</v>
       </c>
       <c r="I86">
-        <v>16.8850623533994</v>
+        <v>16.8769409604298</v>
       </c>
       <c r="J86">
-        <v>110.394735152635</v>
+        <v>110.341637390412</v>
       </c>
       <c r="K86">
-        <v>98.1505963700528</v>
+        <v>98.10338780507141</v>
       </c>
       <c r="L86">
-        <v>79.5869020867833</v>
+        <v>79.54862230471591</v>
       </c>
       <c r="M86">
-        <v>100.026714409319</v>
+        <v>99.9786034673414</v>
       </c>
       <c r="N86">
-        <v>47.692895419251</v>
+        <v>47.6699560461263</v>
       </c>
       <c r="O86">
-        <v>3173.8980071656</v>
+        <v>3172.37142275494</v>
       </c>
       <c r="P86">
-        <v>102.495290776775</v>
+        <v>102.445992496644</v>
       </c>
     </row>
     <row r="87">
@@ -4866,49 +4866,49 @@
         </is>
       </c>
       <c r="B87">
-        <v>17449.7489302017</v>
+        <v>21276.6669993168</v>
       </c>
       <c r="C87">
-        <v>476.730648582604</v>
+        <v>448.98648589127</v>
       </c>
       <c r="D87">
-        <v>1313.86471245057</v>
+        <v>1237.40208844054</v>
       </c>
       <c r="E87">
-        <v>221.981589063615</v>
+        <v>209.062987459601</v>
       </c>
       <c r="F87">
-        <v>113.355097076898</v>
+        <v>106.758201608684</v>
       </c>
       <c r="G87">
-        <v>129.517942482681</v>
+        <v>121.980422337144</v>
       </c>
       <c r="H87">
-        <v>167.145882295878</v>
+        <v>157.418539266034</v>
       </c>
       <c r="I87">
-        <v>208.006383069542</v>
+        <v>195.901092692522</v>
       </c>
       <c r="J87">
-        <v>365.956908503777</v>
+        <v>344.659414756033</v>
       </c>
       <c r="K87">
-        <v>253.963012321408</v>
+        <v>239.183196607073</v>
       </c>
       <c r="L87">
-        <v>145.744313231957</v>
+        <v>137.26247144212</v>
       </c>
       <c r="M87">
-        <v>198.420328192533</v>
+        <v>186.872914819786</v>
       </c>
       <c r="N87">
-        <v>236.580051415533</v>
+        <v>222.811867105354</v>
       </c>
       <c r="O87">
-        <v>8010.6506788506</v>
+        <v>7544.45704024513</v>
       </c>
       <c r="P87">
-        <v>7371.65232144664</v>
+        <v>6942.64629483973</v>
       </c>
     </row>
     <row r="88">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1426.08121921856</v>
+        <v>1481.35183755019</v>
       </c>
       <c r="C2">
-        <v>37.1645440451193</v>
+        <v>25.5775439785095</v>
       </c>
       <c r="D2">
-        <v>62.8594974774961</v>
+        <v>27.3899959849048</v>
       </c>
       <c r="E2">
-        <v>52.4548885765374</v>
+        <v>48.7692064084889</v>
       </c>
       <c r="F2">
-        <v>14.9925522700485</v>
+        <v>21.9395835669166</v>
       </c>
       <c r="G2">
-        <v>14.5502264819129</v>
+        <v>8.28342895814027</v>
       </c>
       <c r="H2">
-        <v>15.499184195268</v>
+        <v>15.7598550118067</v>
       </c>
       <c r="I2">
-        <v>14.7475468791831</v>
+        <v>16.0167606825814</v>
       </c>
       <c r="J2">
-        <v>59.0052002902716</v>
+        <v>76.5637918349106</v>
       </c>
       <c r="K2">
-        <v>17.9218348282749</v>
+        <v>11.8451544315991</v>
       </c>
       <c r="L2">
-        <v>31.6327764980135</v>
+        <v>40.0345131477083</v>
       </c>
       <c r="M2">
-        <v>44.1378632936721</v>
+        <v>30.8573575718438</v>
       </c>
       <c r="N2">
-        <v>36.4844579303808</v>
+        <v>28.838660154008</v>
       </c>
       <c r="O2">
-        <v>1314.02229081597</v>
+        <v>1312.09968976912</v>
       </c>
       <c r="P2">
-        <v>31.7179810811539</v>
+        <v>20.6469680918245</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>131.03768667889</v>
+        <v>121.946604729136</v>
       </c>
       <c r="C3">
-        <v>3.24621215885853</v>
+        <v>3.8607924643888</v>
       </c>
       <c r="D3">
-        <v>0.233316516372231</v>
+        <v>0.19784054851878</v>
       </c>
       <c r="E3">
-        <v>1.74987387279173</v>
+        <v>1.51322838580455</v>
       </c>
       <c r="F3">
-        <v>6.86978624475189</v>
+        <v>6.31707532026583</v>
       </c>
       <c r="G3">
-        <v>0.244667363683344</v>
+        <v>0.0803256789997137</v>
       </c>
       <c r="H3">
-        <v>0.0583291290930578</v>
+        <v>0.0120866354065271</v>
       </c>
       <c r="I3">
-        <v>0.320810210011817</v>
+        <v>0.479624664484971</v>
       </c>
       <c r="J3">
-        <v>0.583291290930578</v>
+        <v>0.22565318926347</v>
       </c>
       <c r="K3">
-        <v>0.145822822732644</v>
+        <v>0.0168835411447503</v>
       </c>
       <c r="L3">
-        <v>0.349974774558347</v>
+        <v>0.106009083068725</v>
       </c>
       <c r="M3">
-        <v>0.641620420023636</v>
+        <v>0.391235267411368</v>
       </c>
       <c r="N3">
-        <v>0.641620420023636</v>
+        <v>0.29906780453583</v>
       </c>
       <c r="O3">
-        <v>198.74027609232</v>
+        <v>211.509901037104</v>
       </c>
       <c r="P3">
-        <v>5.83571469922011</v>
+        <v>8.172449526458561</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1707.4329708451</v>
+        <v>1629.15454352506</v>
       </c>
       <c r="C4">
-        <v>13.4030496639299</v>
+        <v>3.42574401643446</v>
       </c>
       <c r="D4">
-        <v>4.14340150055778</v>
+        <v>3.80946198627452</v>
       </c>
       <c r="E4">
-        <v>22.4446563695475</v>
+        <v>24.7426745731622</v>
       </c>
       <c r="F4">
-        <v>20.0304476782957</v>
+        <v>11.4504944724365</v>
       </c>
       <c r="G4">
-        <v>8.96638381647012</v>
+        <v>5.10739428078659</v>
       </c>
       <c r="H4">
-        <v>7.80430739925032</v>
+        <v>11.8057327400144</v>
       </c>
       <c r="I4">
-        <v>9.41606653605202</v>
+        <v>12.3772234381508</v>
       </c>
       <c r="J4">
-        <v>24.9707627858835</v>
+        <v>20.4862377026422</v>
       </c>
       <c r="K4">
-        <v>10.5521721684732</v>
+        <v>0.417504859051741</v>
       </c>
       <c r="L4">
-        <v>66.41815245772089</v>
+        <v>59.0988711256803</v>
       </c>
       <c r="M4">
-        <v>48.3615254106167</v>
+        <v>43.8790738895024</v>
       </c>
       <c r="N4">
-        <v>25.0488347829614</v>
+        <v>22.6783868452762</v>
       </c>
       <c r="O4">
-        <v>1850.73678330763</v>
+        <v>1968.67357742106</v>
       </c>
       <c r="P4">
-        <v>22.3838595010452</v>
+        <v>28.4525634105951</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>859.750917031138</v>
+        <v>869.877084462773</v>
       </c>
       <c r="C5">
-        <v>59.5378084037596</v>
+        <v>39.0582140301866</v>
       </c>
       <c r="D5">
-        <v>11.0336909555059</v>
+        <v>11.8684730081035</v>
       </c>
       <c r="E5">
-        <v>45.3972205195663</v>
+        <v>33.6029680518703</v>
       </c>
       <c r="F5">
-        <v>5.74282809205453</v>
+        <v>7.73759305200028</v>
       </c>
       <c r="G5">
-        <v>9.964069844139139</v>
+        <v>2.75203815190659</v>
       </c>
       <c r="H5">
-        <v>15.0872955004606</v>
+        <v>10.3421980740726</v>
       </c>
       <c r="I5">
-        <v>6.67994143536038</v>
+        <v>5.14517493888288</v>
       </c>
       <c r="J5">
-        <v>30.7137763264481</v>
+        <v>33.3128996405489</v>
       </c>
       <c r="K5">
-        <v>17.7217147683204</v>
+        <v>4.99131173688612</v>
       </c>
       <c r="L5">
-        <v>18.6033510105226</v>
+        <v>10.8071638593924</v>
       </c>
       <c r="M5">
-        <v>25.4429699387535</v>
+        <v>14.6036404723877</v>
       </c>
       <c r="N5">
-        <v>19.8044599042424</v>
+        <v>18.6494362756847</v>
       </c>
       <c r="O5">
-        <v>773.190347578592</v>
+        <v>839.843502853439</v>
       </c>
       <c r="P5">
-        <v>47.3627844161678</v>
+        <v>44.8982988622216</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9772.205499105599</v>
+        <v>9518.29903739393</v>
       </c>
       <c r="C6">
-        <v>184.418962902208</v>
+        <v>180.269466148257</v>
       </c>
       <c r="D6">
-        <v>155.414678378112</v>
+        <v>27.8169426852929</v>
       </c>
       <c r="E6">
-        <v>189.49421237222</v>
+        <v>143.058420538012</v>
       </c>
       <c r="F6">
-        <v>45.528356008631</v>
+        <v>37.8542706225705</v>
       </c>
       <c r="G6">
-        <v>88.0336150508935</v>
+        <v>106.300187330911</v>
       </c>
       <c r="H6">
-        <v>53.4704512257265</v>
+        <v>31.1807189440159</v>
       </c>
       <c r="I6">
-        <v>49.3592394237676</v>
+        <v>46.6770123750275</v>
       </c>
       <c r="J6">
-        <v>157.573703234738</v>
+        <v>139.265009038748</v>
       </c>
       <c r="K6">
-        <v>87.6159398855811</v>
+        <v>38.5139465315974</v>
       </c>
       <c r="L6">
-        <v>511.934085992612</v>
+        <v>417.795285918302</v>
       </c>
       <c r="M6">
-        <v>248.468419878017</v>
+        <v>208.065297052238</v>
       </c>
       <c r="N6">
-        <v>235.9169195373</v>
+        <v>203.49432469924</v>
       </c>
       <c r="O6">
-        <v>11006.8419430622</v>
+        <v>11721.6594248835</v>
       </c>
       <c r="P6">
-        <v>279.328798141344</v>
+        <v>277.180309675182</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1064.85373425769</v>
+        <v>1046.77957804677</v>
       </c>
       <c r="C7">
-        <v>23.5147822963171</v>
+        <v>39.3581832287194</v>
       </c>
       <c r="D7">
-        <v>4.98578420198625</v>
+        <v>3.0113479030833</v>
       </c>
       <c r="E7">
-        <v>22.2521127186562</v>
+        <v>20.1211749936682</v>
       </c>
       <c r="F7">
-        <v>23.7162674348786</v>
+        <v>17.5890881732082</v>
       </c>
       <c r="G7">
-        <v>9.718053953024031</v>
+        <v>8.53728814319066</v>
       </c>
       <c r="H7">
-        <v>6.59014767067625</v>
+        <v>3.20240511662995</v>
       </c>
       <c r="I7">
-        <v>10.6870664734349</v>
+        <v>7.21017536574557</v>
       </c>
       <c r="J7">
-        <v>19.7135714806789</v>
+        <v>17.2819060063157</v>
       </c>
       <c r="K7">
-        <v>11.5939204351135</v>
+        <v>2.60764925497869</v>
       </c>
       <c r="L7">
-        <v>60.1352619886806</v>
+        <v>53.5629178336538</v>
       </c>
       <c r="M7">
-        <v>16.267660051488</v>
+        <v>8.89633871183243</v>
       </c>
       <c r="N7">
-        <v>23.3086632643843</v>
+        <v>21.9833104497848</v>
       </c>
       <c r="O7">
-        <v>1701.20873987558</v>
+        <v>1764.89024983517</v>
       </c>
       <c r="P7">
-        <v>48.8544925434997</v>
+        <v>25.3801791157941</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>901.6495531135651</v>
+        <v>833.815318247911</v>
       </c>
       <c r="C8">
-        <v>12.9714486366817</v>
+        <v>13.0724244578405</v>
       </c>
       <c r="D8">
-        <v>8.02061532585963</v>
+        <v>2.37189154325088</v>
       </c>
       <c r="E8">
-        <v>21.3912999929493</v>
+        <v>20.8840669564349</v>
       </c>
       <c r="F8">
-        <v>1.65300834284282</v>
+        <v>0.673189059512902</v>
       </c>
       <c r="G8">
-        <v>24.3215741752128</v>
+        <v>20.7021879703922</v>
       </c>
       <c r="H8">
-        <v>7.41440699937644</v>
+        <v>7.71797050200302</v>
       </c>
       <c r="I8">
-        <v>3.38411344313678</v>
+        <v>5.65083815304709</v>
       </c>
       <c r="J8">
-        <v>41.970698637577</v>
+        <v>31.24506298746</v>
       </c>
       <c r="K8">
-        <v>21.2449259539491</v>
+        <v>13.1210905167136</v>
       </c>
       <c r="L8">
-        <v>41.3010746752172</v>
+        <v>46.712849776201</v>
       </c>
       <c r="M8">
-        <v>52.6285187965714</v>
+        <v>38.9080171441185</v>
       </c>
       <c r="N8">
-        <v>24.660371380064</v>
+        <v>22.0789045234272</v>
       </c>
       <c r="O8">
-        <v>1199.92519174923</v>
+        <v>1311.52468425208</v>
       </c>
       <c r="P8">
-        <v>6.7149337611848</v>
+        <v>3.17476378162738</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>230.744699446118</v>
+        <v>221.985767136096</v>
       </c>
       <c r="C9">
-        <v>9.179534573222041</v>
+        <v>6.28140617130937</v>
       </c>
       <c r="D9">
-        <v>1.89397375812455</v>
+        <v>1.74324247759374</v>
       </c>
       <c r="E9">
-        <v>5.0572200984804</v>
+        <v>3.01005478021402</v>
       </c>
       <c r="F9">
-        <v>1.88172981145336</v>
+        <v>0.716447284901429</v>
       </c>
       <c r="G9">
-        <v>15.6388613492063</v>
+        <v>15.4894514384011</v>
       </c>
       <c r="H9">
-        <v>3.19217334563933</v>
+        <v>2.76865428084517</v>
       </c>
       <c r="I9">
-        <v>0.912049527325523</v>
+        <v>0.531049289881134</v>
       </c>
       <c r="J9">
-        <v>3.55630533277782</v>
+        <v>5.75401944819344</v>
       </c>
       <c r="K9">
-        <v>1.94966169178166</v>
+        <v>0.36929627795218</v>
       </c>
       <c r="L9">
-        <v>2.50450716741505</v>
+        <v>3.39025829175066</v>
       </c>
       <c r="M9">
-        <v>6.19704091574588</v>
+        <v>4.91654948231418</v>
       </c>
       <c r="N9">
-        <v>4.56830887250905</v>
+        <v>3.00137711080492</v>
       </c>
       <c r="O9">
-        <v>279.967440134042</v>
+        <v>296.455368378719</v>
       </c>
       <c r="P9">
-        <v>3.39056797947724</v>
+        <v>4.44272081379455</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5633.9266693347</v>
+        <v>5614.85894408576</v>
       </c>
       <c r="C10">
-        <v>57.3368261937336</v>
+        <v>67.9768195345228</v>
       </c>
       <c r="D10">
-        <v>21.9511429309435</v>
+        <v>9.974211540508639</v>
       </c>
       <c r="E10">
-        <v>76.8840340956254</v>
+        <v>36.7685663935562</v>
       </c>
       <c r="F10">
-        <v>13.2074208487767</v>
+        <v>4.83003023675832</v>
       </c>
       <c r="G10">
-        <v>33.6158472635347</v>
+        <v>33.4251420998431</v>
       </c>
       <c r="H10">
-        <v>19.8926658939604</v>
+        <v>17.2268595500079</v>
       </c>
       <c r="I10">
-        <v>23.3849533757758</v>
+        <v>31.229948286497</v>
       </c>
       <c r="J10">
-        <v>42.2415451217934</v>
+        <v>48.0813575027707</v>
       </c>
       <c r="K10">
-        <v>32.9712059121046</v>
+        <v>7.4291212291322</v>
       </c>
       <c r="L10">
-        <v>83.9856845074996</v>
+        <v>60.4382953774529</v>
       </c>
       <c r="M10">
-        <v>77.02910108915221</v>
+        <v>67.6926933284183</v>
       </c>
       <c r="N10">
-        <v>79.0384309343014</v>
+        <v>69.06643320043</v>
       </c>
       <c r="O10">
-        <v>6036.66294630329</v>
+        <v>6268.84843370874</v>
       </c>
       <c r="P10">
-        <v>93.5407699047979</v>
+        <v>62.1450172933304</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2310.43593740568</v>
+        <v>2328.20035263205</v>
       </c>
       <c r="C11">
-        <v>81.95728497770671</v>
+        <v>69.38731579991379</v>
       </c>
       <c r="D11">
-        <v>111.418058265227</v>
+        <v>121.383478882852</v>
       </c>
       <c r="E11">
-        <v>83.5579137154806</v>
+        <v>61.6412413899958</v>
       </c>
       <c r="F11">
-        <v>12.2585757868648</v>
+        <v>6.23484532820466</v>
       </c>
       <c r="G11">
-        <v>30.4440402100934</v>
+        <v>22.678856229398</v>
       </c>
       <c r="H11">
-        <v>30.6059217749715</v>
+        <v>13.8404207034607</v>
       </c>
       <c r="I11">
-        <v>18.5805897948114</v>
+        <v>11.1792228665831</v>
       </c>
       <c r="J11">
-        <v>35.4378754627721</v>
+        <v>39.1039920178389</v>
       </c>
       <c r="K11">
-        <v>35.4137190969999</v>
+        <v>8.81332325874298</v>
       </c>
       <c r="L11">
-        <v>58.7412297103565</v>
+        <v>42.7679852535372</v>
       </c>
       <c r="M11">
-        <v>72.7949397455093</v>
+        <v>38.6392566360084</v>
       </c>
       <c r="N11">
-        <v>53.6907603069879</v>
+        <v>59.127858842946</v>
       </c>
       <c r="O11">
-        <v>2787.02216588341</v>
+        <v>2881.76375250178</v>
       </c>
       <c r="P11">
-        <v>59.7630276759324</v>
+        <v>44.5267612544363</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>347.236939609213</v>
+        <v>332.637693237901</v>
       </c>
       <c r="C12">
-        <v>4.72456569659821</v>
+        <v>4.68627576040229</v>
       </c>
       <c r="D12">
-        <v>2.07463949970693</v>
+        <v>0.140563026577932</v>
       </c>
       <c r="E12">
-        <v>2.92341890635848</v>
+        <v>1.91172703725556</v>
       </c>
       <c r="F12">
-        <v>0.719208359898402</v>
+        <v>0.800738828908277</v>
       </c>
       <c r="G12">
-        <v>0.442589759937478</v>
+        <v>0.773461352944703</v>
       </c>
       <c r="H12">
-        <v>0.0765745248449638</v>
+        <v>0.0190844493663285</v>
       </c>
       <c r="I12">
-        <v>0.995826959859322</v>
+        <v>0.886637086376138</v>
       </c>
       <c r="J12">
-        <v>0.6085609199140321</v>
+        <v>1.63389550178496</v>
       </c>
       <c r="K12">
-        <v>0.414927899941385</v>
+        <v>0.205221003929914</v>
       </c>
       <c r="L12">
-        <v>0.224064079723353</v>
+        <v>0.527352260251434</v>
       </c>
       <c r="M12">
-        <v>3.7119467008178</v>
+        <v>2.86366369468175</v>
       </c>
       <c r="N12">
-        <v>2.25327605565252</v>
+        <v>2.14089037225542</v>
       </c>
       <c r="O12">
-        <v>448.148201151551</v>
+        <v>468.698646823387</v>
       </c>
       <c r="P12">
-        <v>13.053699056334</v>
+        <v>13.2153031164245</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>376.378871271054</v>
+        <v>333.964936226058</v>
       </c>
       <c r="C13">
-        <v>19.6592931434179</v>
+        <v>14.1080674473876</v>
       </c>
       <c r="D13">
-        <v>1.07363343797044</v>
+        <v>0.499819082610519</v>
       </c>
       <c r="E13">
-        <v>17.4031981219306</v>
+        <v>9.108253420949239</v>
       </c>
       <c r="F13">
-        <v>1.79556341149092</v>
+        <v>3.04927493545973</v>
       </c>
       <c r="G13">
-        <v>4.89053425231796</v>
+        <v>6.02658488429458</v>
       </c>
       <c r="H13">
-        <v>1.84369858510617</v>
+        <v>0.989929209337391</v>
       </c>
       <c r="I13">
-        <v>1.70187561702108</v>
+        <v>1.44125379939687</v>
       </c>
       <c r="J13">
-        <v>5.22580373092508</v>
+        <v>3.95834623621329</v>
       </c>
       <c r="K13">
-        <v>2.55281342553161</v>
+        <v>1.49902211709434</v>
       </c>
       <c r="L13">
-        <v>21.4678322595</v>
+        <v>16.4441798458546</v>
       </c>
       <c r="M13">
-        <v>2.63798214045751</v>
+        <v>1.11520043739253</v>
       </c>
       <c r="N13">
-        <v>5.82796243039463</v>
+        <v>3.30618129090285</v>
       </c>
       <c r="O13">
-        <v>415.781043678852</v>
+        <v>474.198601352687</v>
       </c>
       <c r="P13">
-        <v>36.406524351756</v>
+        <v>38.5181961637495</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3447.52850720144</v>
+        <v>3478.79887525083</v>
       </c>
       <c r="C14">
-        <v>107.064123276959</v>
+        <v>114.342721645555</v>
       </c>
       <c r="D14">
-        <v>17.8574139128877</v>
+        <v>9.071279048308201</v>
       </c>
       <c r="E14">
-        <v>131.348743498075</v>
+        <v>78.50815370913421</v>
       </c>
       <c r="F14">
-        <v>29.0522595795133</v>
+        <v>18.2041972911838</v>
       </c>
       <c r="G14">
-        <v>70.6222118088032</v>
+        <v>55.0931761076799</v>
       </c>
       <c r="H14">
-        <v>58.9846913136663</v>
+        <v>37.9664699367</v>
       </c>
       <c r="I14">
-        <v>17.6970055489258</v>
+        <v>24.0873577147383</v>
       </c>
       <c r="J14">
-        <v>167.704585975928</v>
+        <v>115.63052356729</v>
       </c>
       <c r="K14">
-        <v>128.973257733036</v>
+        <v>91.44933637755921</v>
       </c>
       <c r="L14">
-        <v>110.876409385997</v>
+        <v>81.46094323483401</v>
       </c>
       <c r="M14">
-        <v>82.112633019793</v>
+        <v>69.6546395143492</v>
       </c>
       <c r="N14">
-        <v>71.69750775854681</v>
+        <v>79.6064311757452</v>
       </c>
       <c r="O14">
-        <v>4006.79965677195</v>
+        <v>4204.74523490852</v>
       </c>
       <c r="P14">
-        <v>68.5917928429861</v>
+        <v>55.465427849476</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1654.32452995552</v>
+        <v>1605.52078509684</v>
       </c>
       <c r="C15">
-        <v>38.6629195301054</v>
+        <v>41.8412287303958</v>
       </c>
       <c r="D15">
-        <v>11.7711575342164</v>
+        <v>6.03788430030531</v>
       </c>
       <c r="E15">
-        <v>69.07382077106119</v>
+        <v>70.18578723858791</v>
       </c>
       <c r="F15">
-        <v>11.7350070428283</v>
+        <v>19.888881869107</v>
       </c>
       <c r="G15">
-        <v>40.215108240624</v>
+        <v>48.7063348125144</v>
       </c>
       <c r="H15">
-        <v>55.445364548215</v>
+        <v>32.6416395928317</v>
       </c>
       <c r="I15">
-        <v>17.2101235368819</v>
+        <v>19.0241881329128</v>
       </c>
       <c r="J15">
-        <v>136.946794055203</v>
+        <v>132.070968459875</v>
       </c>
       <c r="K15">
-        <v>44.9361885353977</v>
+        <v>22.3015988764778</v>
       </c>
       <c r="L15">
-        <v>57.2032794781985</v>
+        <v>34.3871322838618</v>
       </c>
       <c r="M15">
-        <v>208.055850708362</v>
+        <v>156.124073638237</v>
       </c>
       <c r="N15">
-        <v>78.8709917250572</v>
+        <v>74.63649514913951</v>
       </c>
       <c r="O15">
-        <v>1803.29147106147</v>
+        <v>1965.59840211707</v>
       </c>
       <c r="P15">
-        <v>41.2601467695577</v>
+        <v>39.6719333679209</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>750.101347967309</v>
+        <v>683.494855947582</v>
       </c>
       <c r="C16">
-        <v>56.1132577962137</v>
+        <v>57.7835309073704</v>
       </c>
       <c r="D16">
-        <v>6.16154324486948</v>
+        <v>4.18517534858114</v>
       </c>
       <c r="E16">
-        <v>25.996800917043</v>
+        <v>24.2423451821994</v>
       </c>
       <c r="F16">
-        <v>3.33510680241323</v>
+        <v>2.05298663014342</v>
       </c>
       <c r="G16">
-        <v>10.2391490815075</v>
+        <v>16.7243403907725</v>
       </c>
       <c r="H16">
-        <v>16.617047928661</v>
+        <v>11.1716114345808</v>
       </c>
       <c r="I16">
-        <v>9.391314687139319</v>
+        <v>6.34803825600793</v>
       </c>
       <c r="J16">
-        <v>47.1044331781701</v>
+        <v>45.2748248321034</v>
       </c>
       <c r="K16">
-        <v>45.9250958195151</v>
+        <v>37.4951787901935</v>
       </c>
       <c r="L16">
-        <v>33.6955383287172</v>
+        <v>17.9720074145265</v>
       </c>
       <c r="M16">
-        <v>28.1940309231209</v>
+        <v>20.8144652738543</v>
       </c>
       <c r="N16">
-        <v>15.7615718669261</v>
+        <v>28.7279687571279</v>
       </c>
       <c r="O16">
-        <v>935.297841834248</v>
+        <v>1015.1737649663</v>
       </c>
       <c r="P16">
-        <v>63.8374923191799</v>
+        <v>64.7293793028975</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>684.652198109533</v>
+        <v>632.4618925114691</v>
       </c>
       <c r="C17">
-        <v>32.6035462027363</v>
+        <v>16.2375165150798</v>
       </c>
       <c r="D17">
-        <v>4.95967760448892</v>
+        <v>4.75205107197263</v>
       </c>
       <c r="E17">
-        <v>22.923908795163</v>
+        <v>23.7203717261436</v>
       </c>
       <c r="F17">
-        <v>16.7292759495286</v>
+        <v>11.2522095555309</v>
       </c>
       <c r="G17">
-        <v>8.31265887327597</v>
+        <v>5.23386383671947</v>
       </c>
       <c r="H17">
-        <v>12.8130198536785</v>
+        <v>6.06981312625906</v>
       </c>
       <c r="I17">
-        <v>8.84775662780986</v>
+        <v>6.56342054961397</v>
       </c>
       <c r="J17">
-        <v>17.0520403430534</v>
+        <v>18.7411208551104</v>
       </c>
       <c r="K17">
-        <v>17.152695320961</v>
+        <v>5.32687918202077</v>
       </c>
       <c r="L17">
-        <v>9.95977557514955</v>
+        <v>11.9242748598556</v>
       </c>
       <c r="M17">
-        <v>61.5043821650707</v>
+        <v>57.2031979727278</v>
       </c>
       <c r="N17">
-        <v>14.5860108681015</v>
+        <v>12.2255396641104</v>
       </c>
       <c r="O17">
-        <v>870.536537205749</v>
+        <v>980.529099660925</v>
       </c>
       <c r="P17">
-        <v>58.8109265147636</v>
+        <v>46.0612926494468</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1326.80277820256</v>
+        <v>1263.80189440836</v>
       </c>
       <c r="C18">
-        <v>34.4813213440393</v>
+        <v>24.2329799273338</v>
       </c>
       <c r="D18">
-        <v>21.1032208862493</v>
+        <v>2.14551245506114</v>
       </c>
       <c r="E18">
-        <v>50.7016075017421</v>
+        <v>35.106485156682</v>
       </c>
       <c r="F18">
-        <v>25.2950229865892</v>
+        <v>33.2320826963856</v>
       </c>
       <c r="G18">
-        <v>15.7161866923737</v>
+        <v>23.3680848172489</v>
       </c>
       <c r="H18">
-        <v>17.2752813707511</v>
+        <v>15.1334673579805</v>
       </c>
       <c r="I18">
-        <v>10.8348386317659</v>
+        <v>5.71086272567152</v>
       </c>
       <c r="J18">
-        <v>50.452793005339</v>
+        <v>29.0829978748098</v>
       </c>
       <c r="K18">
-        <v>33.5572132607107</v>
+        <v>10.9103874733025</v>
       </c>
       <c r="L18">
-        <v>25.8499939914937</v>
+        <v>27.5816978419902</v>
       </c>
       <c r="M18">
-        <v>74.3161969550988</v>
+        <v>56.0245642125883</v>
       </c>
       <c r="N18">
-        <v>21.0082158107488</v>
+        <v>17.8479744023889</v>
       </c>
       <c r="O18">
-        <v>1155.93494032766</v>
+        <v>1308.32256078649</v>
       </c>
       <c r="P18">
-        <v>35.9183203354139</v>
+        <v>44.4835462570652</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1341.68688432547</v>
+        <v>1378.55695884113</v>
       </c>
       <c r="C19">
-        <v>18.0715039044477</v>
+        <v>31.4072447443862</v>
       </c>
       <c r="D19">
-        <v>9.29981657605312</v>
+        <v>4.97822780927338</v>
       </c>
       <c r="E19">
-        <v>31.3542574470812</v>
+        <v>38.6907319256836</v>
       </c>
       <c r="F19">
-        <v>75.9189178150632</v>
+        <v>78.3954885357166</v>
       </c>
       <c r="G19">
-        <v>38.1993840222564</v>
+        <v>35.9054373036199</v>
       </c>
       <c r="H19">
-        <v>6.42672940193891</v>
+        <v>6.06949060162559</v>
       </c>
       <c r="I19">
-        <v>7.14466385587859</v>
+        <v>3.27104846652813</v>
       </c>
       <c r="J19">
-        <v>26.6454710847724</v>
+        <v>23.1067879646777</v>
       </c>
       <c r="K19">
-        <v>11.2814632753466</v>
+        <v>5.97296688798762</v>
       </c>
       <c r="L19">
-        <v>5.30647105694234</v>
+        <v>1.24867906335458</v>
       </c>
       <c r="M19">
-        <v>23.9637513325868</v>
+        <v>23.5199893484773</v>
       </c>
       <c r="N19">
-        <v>10.6363774818116</v>
+        <v>11.6600426324286</v>
       </c>
       <c r="O19">
-        <v>1359.70702332737</v>
+        <v>1364.27734554499</v>
       </c>
       <c r="P19">
-        <v>29.1733715019408</v>
+        <v>38.7811243165612</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>368.171074218692</v>
+        <v>367.02639206742</v>
       </c>
       <c r="C20">
-        <v>8.24318389858915</v>
+        <v>9.058406731287979</v>
       </c>
       <c r="D20">
-        <v>10.1783757554911</v>
+        <v>5.23553450341564</v>
       </c>
       <c r="E20">
-        <v>36.0087858441895</v>
+        <v>28.018949447838</v>
       </c>
       <c r="F20">
-        <v>0.494803072349817</v>
+        <v>0.98826434903988</v>
       </c>
       <c r="G20">
-        <v>1.61462055187835</v>
+        <v>2.20717004037781</v>
       </c>
       <c r="H20">
-        <v>1.82295868760459</v>
+        <v>1.00365100204351</v>
       </c>
       <c r="I20">
-        <v>1.66670508580991</v>
+        <v>1.63143418161241</v>
       </c>
       <c r="J20">
-        <v>5.81303347780303</v>
+        <v>4.33416670781746</v>
       </c>
       <c r="K20">
-        <v>4.06615130334625</v>
+        <v>0.8843954596863151</v>
       </c>
       <c r="L20">
-        <v>7.76974111580088</v>
+        <v>5.77122291794766</v>
       </c>
       <c r="M20">
-        <v>15.2232026805422</v>
+        <v>16.3268985835687</v>
       </c>
       <c r="N20">
-        <v>6.82307394503431</v>
+        <v>4.84596700225815</v>
       </c>
       <c r="O20">
-        <v>451.42804874908</v>
+        <v>481.557859368069</v>
       </c>
       <c r="P20">
-        <v>19.4710665054659</v>
+        <v>14.542188421598</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1431.59358012899</v>
+        <v>1449.5309850084</v>
       </c>
       <c r="C21">
-        <v>22.8589427593944</v>
+        <v>18.9513494790601</v>
       </c>
       <c r="D21">
-        <v>10.2172461716859</v>
+        <v>1.65415690259206</v>
       </c>
       <c r="E21">
-        <v>41.9914922308946</v>
+        <v>20.8573879500457</v>
       </c>
       <c r="F21">
-        <v>4.09721896062682</v>
+        <v>3.73119349502189</v>
       </c>
       <c r="G21">
-        <v>20.9076635707244</v>
+        <v>14.3919323555147</v>
       </c>
       <c r="H21">
-        <v>7.87704772007832</v>
+        <v>4.29368897759267</v>
       </c>
       <c r="I21">
-        <v>6.83831615259546</v>
+        <v>11.4745867073268</v>
       </c>
       <c r="J21">
-        <v>27.0935817185112</v>
+        <v>23.3429519710339</v>
       </c>
       <c r="K21">
-        <v>10.264108926757</v>
+        <v>0.997330612200811</v>
       </c>
       <c r="L21">
-        <v>39.904604384133</v>
+        <v>27.0243681870872</v>
       </c>
       <c r="M21">
-        <v>25.4390307678108</v>
+        <v>20.8159139631384</v>
       </c>
       <c r="N21">
-        <v>18.5084764311605</v>
+        <v>8.83392097785838</v>
       </c>
       <c r="O21">
-        <v>1990.04786538854</v>
+        <v>2056.55679593405</v>
       </c>
       <c r="P21">
-        <v>17.1590770419474</v>
+        <v>19.6696997453504</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1659.15725961032</v>
+        <v>1685.37093933961</v>
       </c>
       <c r="C22">
-        <v>29.1541269744966</v>
+        <v>16.4789852575042</v>
       </c>
       <c r="D22">
-        <v>25.2140152306806</v>
+        <v>10.9367661518632</v>
       </c>
       <c r="E22">
-        <v>52.609482274449</v>
+        <v>41.4453607130125</v>
       </c>
       <c r="F22">
-        <v>3.06994642756253</v>
+        <v>2.64301201799093</v>
       </c>
       <c r="G22">
-        <v>29.5970401030273</v>
+        <v>23.6517298104608</v>
       </c>
       <c r="H22">
-        <v>18.0958569950663</v>
+        <v>12.8964386763652</v>
       </c>
       <c r="I22">
-        <v>9.24946724424403</v>
+        <v>12.8358891665098</v>
       </c>
       <c r="J22">
-        <v>46.6761961312873</v>
+        <v>34.1634769378682</v>
       </c>
       <c r="K22">
-        <v>24.2069734372534</v>
+        <v>5.32340374067549</v>
       </c>
       <c r="L22">
-        <v>121.834357489419</v>
+        <v>97.1480274278513</v>
       </c>
       <c r="M22">
-        <v>18.2951107174941</v>
+        <v>13.2260220932184</v>
       </c>
       <c r="N22">
-        <v>44.1035691966072</v>
+        <v>49.5493166236558</v>
       </c>
       <c r="O22">
-        <v>2291.63304410974</v>
+        <v>2352.54446713344</v>
       </c>
       <c r="P22">
-        <v>11.7499848781237</v>
+        <v>10.4815098504312</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2876.35926468159</v>
+        <v>2835.02729080082</v>
       </c>
       <c r="C23">
-        <v>39.1264474134028</v>
+        <v>25.2882803912561</v>
       </c>
       <c r="D23">
-        <v>9.323749033258011</v>
+        <v>8.03151388156676</v>
       </c>
       <c r="E23">
-        <v>69.2560107763457</v>
+        <v>36.7662332242359</v>
       </c>
       <c r="F23">
-        <v>14.573150013935</v>
+        <v>2.61322592760017</v>
       </c>
       <c r="G23">
-        <v>44.3232846249209</v>
+        <v>52.865355626675</v>
       </c>
       <c r="H23">
-        <v>63.4695271592632</v>
+        <v>43.7530157500439</v>
       </c>
       <c r="I23">
-        <v>14.0992719155213</v>
+        <v>8.13111698052481</v>
       </c>
       <c r="J23">
-        <v>138.456530262163</v>
+        <v>117.033825154336</v>
       </c>
       <c r="K23">
-        <v>88.59960411211461</v>
+        <v>58.8713231215139</v>
       </c>
       <c r="L23">
-        <v>41.4497893054651</v>
+        <v>24.2735031347997</v>
       </c>
       <c r="M23">
-        <v>467.58905049651</v>
+        <v>473.795007227392</v>
       </c>
       <c r="N23">
-        <v>73.2128402156625</v>
+        <v>72.6899600719869</v>
       </c>
       <c r="O23">
-        <v>2949.65745731552</v>
+        <v>3149.20299044611</v>
       </c>
       <c r="P23">
-        <v>44.4476514168784</v>
+        <v>37.5579600421806</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1173.97684606084</v>
+        <v>1104.77417387103</v>
       </c>
       <c r="C24">
-        <v>66.10081761289911</v>
+        <v>44.3195738217769</v>
       </c>
       <c r="D24">
-        <v>5.17528896910792</v>
+        <v>5.23666494000184</v>
       </c>
       <c r="E24">
-        <v>78.5386562337075</v>
+        <v>49.5127217478938</v>
       </c>
       <c r="F24">
-        <v>10.222764985836</v>
+        <v>9.293897162914311</v>
       </c>
       <c r="G24">
-        <v>16.0661444430791</v>
+        <v>25.703188294941</v>
       </c>
       <c r="H24">
-        <v>18.7707764067902</v>
+        <v>14.7955376319225</v>
       </c>
       <c r="I24">
-        <v>13.6539377095083</v>
+        <v>10.9501018567575</v>
       </c>
       <c r="J24">
-        <v>63.5199196899513</v>
+        <v>53.797557058878</v>
       </c>
       <c r="K24">
-        <v>48.5397291835361</v>
+        <v>19.5492972124805</v>
       </c>
       <c r="L24">
-        <v>70.3348729046064</v>
+        <v>68.478451096961</v>
       </c>
       <c r="M24">
-        <v>29.4407788650125</v>
+        <v>20.2427079566938</v>
       </c>
       <c r="N24">
-        <v>53.3745136601345</v>
+        <v>59.1421605779492</v>
       </c>
       <c r="O24">
-        <v>1728.64971043157</v>
+        <v>1884.54403483442</v>
       </c>
       <c r="P24">
-        <v>93.7078074688249</v>
+        <v>90.3079684334523</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>901.955725982154</v>
+        <v>907.7855218813101</v>
       </c>
       <c r="C25">
-        <v>26.8650263921977</v>
+        <v>39.1666521701155</v>
       </c>
       <c r="D25">
-        <v>18.3091587522339</v>
+        <v>10.6843949782038</v>
       </c>
       <c r="E25">
-        <v>34.3468035072813</v>
+        <v>41.5398040655972</v>
       </c>
       <c r="F25">
-        <v>6.70861491074747</v>
+        <v>12.3943189313755</v>
       </c>
       <c r="G25">
-        <v>9.86024289842852</v>
+        <v>13.329267387373</v>
       </c>
       <c r="H25">
-        <v>11.1895527045165</v>
+        <v>9.69582660449688</v>
       </c>
       <c r="I25">
-        <v>5.97238834420366</v>
+        <v>6.83074409532732</v>
       </c>
       <c r="J25">
-        <v>16.3009873939071</v>
+        <v>9.247039087024261</v>
       </c>
       <c r="K25">
-        <v>14.967929727889</v>
+        <v>3.45911343283484</v>
       </c>
       <c r="L25">
-        <v>20.2814325728402</v>
+        <v>13.6017317627532</v>
       </c>
       <c r="M25">
-        <v>25.4396455983367</v>
+        <v>37.1015082466575</v>
       </c>
       <c r="N25">
-        <v>51.0595569481528</v>
+        <v>38.2676030228737</v>
       </c>
       <c r="O25">
-        <v>761.445831949772</v>
+        <v>768.0293303488</v>
       </c>
       <c r="P25">
-        <v>30.0999005870117</v>
+        <v>28.9486875728637</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1595.5337325591</v>
+        <v>1457.3168685432</v>
       </c>
       <c r="C26">
-        <v>57.5416456995331</v>
+        <v>42.073558824559</v>
       </c>
       <c r="D26">
-        <v>21.1377009568722</v>
+        <v>3.67066926026604</v>
       </c>
       <c r="E26">
-        <v>59.3951672809729</v>
+        <v>41.2403588098772</v>
       </c>
       <c r="F26">
-        <v>12.1412341870015</v>
+        <v>8.249349242022481</v>
       </c>
       <c r="G26">
-        <v>23.3773562830533</v>
+        <v>20.1943871598539</v>
       </c>
       <c r="H26">
-        <v>21.2400072475378</v>
+        <v>13.8204656239428</v>
       </c>
       <c r="I26">
-        <v>14.5494623280894</v>
+        <v>14.6011894012964</v>
       </c>
       <c r="J26">
-        <v>64.23176692194831</v>
+        <v>24.9743502703129</v>
       </c>
       <c r="K26">
-        <v>35.9017550860545</v>
+        <v>11.9338376682725</v>
       </c>
       <c r="L26">
-        <v>41.0704772615988</v>
+        <v>24.7354506133284</v>
       </c>
       <c r="M26">
-        <v>69.6850369122762</v>
+        <v>73.5951684559182</v>
       </c>
       <c r="N26">
-        <v>42.4425386904796</v>
+        <v>19.0759071347004</v>
       </c>
       <c r="O26">
-        <v>1824.0847692499</v>
+        <v>2127.20278103591</v>
       </c>
       <c r="P26">
-        <v>66.00061249405211</v>
+        <v>54.6848841344049</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>257.460283571754</v>
+        <v>249.339235437794</v>
       </c>
       <c r="C27">
-        <v>3.01444849709317</v>
+        <v>0.978588239785505</v>
       </c>
       <c r="D27">
-        <v>1.107301677398</v>
+        <v>2.28760708738875</v>
       </c>
       <c r="E27">
-        <v>8.81066365976996</v>
+        <v>9.839220314512341</v>
       </c>
       <c r="F27">
-        <v>5.48225530171989</v>
+        <v>4.66905510123432</v>
       </c>
       <c r="G27">
-        <v>0.810220739559513</v>
+        <v>0.295192011135588</v>
       </c>
       <c r="H27">
-        <v>0.324088295823806</v>
+        <v>0.236342424699853</v>
       </c>
       <c r="I27">
-        <v>1.36810288599881</v>
+        <v>1.91388326992244</v>
       </c>
       <c r="J27">
-        <v>2.74439796888487</v>
+        <v>2.87231056606095</v>
       </c>
       <c r="K27">
-        <v>1.107301677398</v>
+        <v>0.202286752745601</v>
       </c>
       <c r="L27">
-        <v>1.6545239115909</v>
+        <v>1.85886902861017</v>
       </c>
       <c r="M27">
-        <v>0.891242813515466</v>
+        <v>0.387795738974486</v>
       </c>
       <c r="N27">
-        <v>3.97301301380934</v>
+        <v>3.29049716222572</v>
       </c>
       <c r="O27">
-        <v>317.174235261655</v>
+        <v>327.460256224792</v>
       </c>
       <c r="P27">
-        <v>35.5109349405792</v>
+        <v>40.4838165763531</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>414.82088043591</v>
+        <v>377.79692662281</v>
       </c>
       <c r="C28">
-        <v>33.4802349264025</v>
+        <v>26.1625258752041</v>
       </c>
       <c r="D28">
-        <v>1.98584174192318</v>
+        <v>1.7755682501291</v>
       </c>
       <c r="E28">
-        <v>9.70938150085197</v>
+        <v>6.75346929532877</v>
       </c>
       <c r="F28">
-        <v>1.98081337823618</v>
+        <v>1.37130300554381</v>
       </c>
       <c r="G28">
-        <v>4.63737465771237</v>
+        <v>3.50235782172186</v>
       </c>
       <c r="H28">
-        <v>6.43649191076622</v>
+        <v>8.426388800684601</v>
       </c>
       <c r="I28">
-        <v>3.77059457374088</v>
+        <v>2.75015206282523</v>
       </c>
       <c r="J28">
-        <v>12.0963186773573</v>
+        <v>20.1670456646329</v>
       </c>
       <c r="K28">
-        <v>14.9046042283835</v>
+        <v>7.28971669159056</v>
       </c>
       <c r="L28">
-        <v>11.1191436989626</v>
+        <v>11.2922232275069</v>
       </c>
       <c r="M28">
-        <v>11.058722693021</v>
+        <v>8.46164059867473</v>
       </c>
       <c r="N28">
-        <v>9.94026034724072</v>
+        <v>7.93158943572382</v>
       </c>
       <c r="O28">
-        <v>589.460942059511</v>
+        <v>635.372843089146</v>
       </c>
       <c r="P28">
-        <v>75.1903102947791</v>
+        <v>77.06329958923391</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>595.12280444685</v>
+        <v>547.046268149804</v>
       </c>
       <c r="C29">
-        <v>5.11782323214008</v>
+        <v>6.53786668255547</v>
       </c>
       <c r="D29">
-        <v>1.58079138934806</v>
+        <v>0.770964224206981</v>
       </c>
       <c r="E29">
-        <v>7.1001647148684</v>
+        <v>3.5728036042472</v>
       </c>
       <c r="F29">
-        <v>16.7877827039546</v>
+        <v>24.1467226522568</v>
       </c>
       <c r="G29">
-        <v>2.08985980286692</v>
+        <v>5.07846499853448</v>
       </c>
       <c r="H29">
-        <v>2.89365203473882</v>
+        <v>0.5960204340969411</v>
       </c>
       <c r="I29">
-        <v>2.86120730156892</v>
+        <v>0.867080995316784</v>
       </c>
       <c r="J29">
-        <v>7.83975749439742</v>
+        <v>3.80302328154159</v>
       </c>
       <c r="K29">
-        <v>2.22728047683361</v>
+        <v>0.783665923961465</v>
       </c>
       <c r="L29">
-        <v>5.78730406947764</v>
+        <v>2.75388092737616</v>
       </c>
       <c r="M29">
-        <v>3.50989274584061</v>
+        <v>2.56281259519266</v>
       </c>
       <c r="N29">
-        <v>9.92504641647435</v>
+        <v>8.531586459940749</v>
       </c>
       <c r="O29">
-        <v>847.204090284135</v>
+        <v>904.0332293992479</v>
       </c>
       <c r="P29">
-        <v>6.01367935909304</v>
+        <v>3.09996315690831</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>298.105120971851</v>
+        <v>279.621592525288</v>
       </c>
       <c r="C30">
-        <v>3.7151910518131</v>
+        <v>3.11359408224593</v>
       </c>
       <c r="D30">
-        <v>5.25532021944261</v>
+        <v>2.73087834266135</v>
       </c>
       <c r="E30">
-        <v>15.4574572721962</v>
+        <v>11.7603042730509</v>
       </c>
       <c r="F30">
-        <v>0.837226152521261</v>
+        <v>0.186719669015815</v>
       </c>
       <c r="G30">
-        <v>3.0238539282215</v>
+        <v>4.27878102543492</v>
       </c>
       <c r="H30">
-        <v>4.51899413397843</v>
+        <v>4.13576607790631</v>
       </c>
       <c r="I30">
-        <v>2.74130952183063</v>
+        <v>1.36343109197726</v>
       </c>
       <c r="J30">
-        <v>20.7671709103474</v>
+        <v>14.1539474427352</v>
       </c>
       <c r="K30">
-        <v>8.04612880979635</v>
+        <v>3.91345464284976</v>
       </c>
       <c r="L30">
-        <v>27.1313843416462</v>
+        <v>35.4543652584417</v>
       </c>
       <c r="M30">
-        <v>6.61215371184875</v>
+        <v>8.521014437042989</v>
       </c>
       <c r="N30">
-        <v>12.0891449135664</v>
+        <v>11.6161311909367</v>
       </c>
       <c r="O30">
-        <v>453.989723363698</v>
+        <v>476.739753196964</v>
       </c>
       <c r="P30">
-        <v>4.37524040378128</v>
+        <v>5.9857387029693</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2485.72876547458</v>
+        <v>2389.32410713758</v>
       </c>
       <c r="C31">
-        <v>39.2113962089578</v>
+        <v>52.8212377907701</v>
       </c>
       <c r="D31">
-        <v>25.7370069923305</v>
+        <v>11.0044167757564</v>
       </c>
       <c r="E31">
-        <v>57.2654628999514</v>
+        <v>45.0522164859551</v>
       </c>
       <c r="F31">
-        <v>9.56080210884697</v>
+        <v>6.47309069704123</v>
       </c>
       <c r="G31">
-        <v>112.197398214698</v>
+        <v>74.485681448199</v>
       </c>
       <c r="H31">
-        <v>22.1686523322217</v>
+        <v>3.99923517079622</v>
       </c>
       <c r="I31">
-        <v>18.553168643759</v>
+        <v>15.1984064297403</v>
       </c>
       <c r="J31">
-        <v>38.2731507196383</v>
+        <v>22.5114922501493</v>
       </c>
       <c r="K31">
-        <v>20.247173775569</v>
+        <v>5.12210402470287</v>
       </c>
       <c r="L31">
-        <v>70.46014904861531</v>
+        <v>48.6063463470863</v>
       </c>
       <c r="M31">
-        <v>20.8310492210497</v>
+        <v>18.7467481080397</v>
       </c>
       <c r="N31">
-        <v>49.1563188805089</v>
+        <v>41.750709252209</v>
       </c>
       <c r="O31">
-        <v>2866.98432249728</v>
+        <v>3111.53513443938</v>
       </c>
       <c r="P31">
-        <v>13.9957460446814</v>
+        <v>15.016828116707</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>575.356262921791</v>
+        <v>544.363917987022</v>
       </c>
       <c r="C32">
-        <v>6.217262030872</v>
+        <v>3.47697370818683</v>
       </c>
       <c r="D32">
-        <v>1.40076442796494</v>
+        <v>0.242281079434342</v>
       </c>
       <c r="E32">
-        <v>5.33335515216928</v>
+        <v>4.64997499327174</v>
       </c>
       <c r="F32">
-        <v>21.8475897351153</v>
+        <v>19.0080070618109</v>
       </c>
       <c r="G32">
-        <v>1.88674392338135</v>
+        <v>1.05536295629042</v>
       </c>
       <c r="H32">
-        <v>0.425856027316756</v>
+        <v>1.4653953560062</v>
       </c>
       <c r="I32">
-        <v>3.35607895550181</v>
+        <v>1.57920071330623</v>
       </c>
       <c r="J32">
-        <v>4.28805437132124</v>
+        <v>2.16211453775024</v>
       </c>
       <c r="K32">
-        <v>2.02967906909206</v>
+        <v>2.49405875487147</v>
       </c>
       <c r="L32">
-        <v>13.347606212408</v>
+        <v>10.3003704551996</v>
       </c>
       <c r="M32">
-        <v>5.02905627751131</v>
+        <v>2.04205387892279</v>
       </c>
       <c r="N32">
-        <v>8.208931986550541</v>
+        <v>8.812885505237571</v>
       </c>
       <c r="O32">
-        <v>600.465429930311</v>
+        <v>649.513558319204</v>
       </c>
       <c r="P32">
-        <v>19.3941783677147</v>
+        <v>19.404206715267</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5677.3439770013</v>
+        <v>5727.62192212697</v>
       </c>
       <c r="C33">
-        <v>78.5769770097002</v>
+        <v>66.4077321778687</v>
       </c>
       <c r="D33">
-        <v>87.4498778070065</v>
+        <v>21.5805895538574</v>
       </c>
       <c r="E33">
-        <v>106.273080416518</v>
+        <v>66.718122631188</v>
       </c>
       <c r="F33">
-        <v>8.391866045906991</v>
+        <v>4.18321748889761</v>
       </c>
       <c r="G33">
-        <v>66.6620747947007</v>
+        <v>59.2395464114544</v>
       </c>
       <c r="H33">
-        <v>29.4763041508157</v>
+        <v>22.8801317585198</v>
       </c>
       <c r="I33">
-        <v>27.1334274933199</v>
+        <v>17.7022775333</v>
       </c>
       <c r="J33">
-        <v>91.49804268055441</v>
+        <v>81.2086404845887</v>
       </c>
       <c r="K33">
-        <v>99.0107360749968</v>
+        <v>59.0336448196831</v>
       </c>
       <c r="L33">
-        <v>110.197076282844</v>
+        <v>98.396132555151</v>
       </c>
       <c r="M33">
-        <v>70.0163118680983</v>
+        <v>53.5242956251583</v>
       </c>
       <c r="N33">
-        <v>94.493633822612</v>
+        <v>121.320263161004</v>
       </c>
       <c r="O33">
-        <v>6335.16460699165</v>
+        <v>6482.4595941969</v>
       </c>
       <c r="P33">
-        <v>73.3858822042649</v>
+        <v>82.3990382084053</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2312.93655615702</v>
+        <v>2349.3456344438</v>
       </c>
       <c r="C34">
-        <v>57.1162926208042</v>
+        <v>60.4854531393182</v>
       </c>
       <c r="D34">
-        <v>169.087301420254</v>
+        <v>94.7972609303783</v>
       </c>
       <c r="E34">
-        <v>81.84713903744679</v>
+        <v>44.4703276124903</v>
       </c>
       <c r="F34">
-        <v>6.67895516984937</v>
+        <v>5.01804867007684</v>
       </c>
       <c r="G34">
-        <v>51.6652478475186</v>
+        <v>32.3529316890867</v>
       </c>
       <c r="H34">
-        <v>35.0689736548272</v>
+        <v>39.048900307653</v>
       </c>
       <c r="I34">
-        <v>18.9167100302844</v>
+        <v>10.3697082566638</v>
       </c>
       <c r="J34">
-        <v>57.2445758439968</v>
+        <v>43.3417796362661</v>
       </c>
       <c r="K34">
-        <v>31.986958363202</v>
+        <v>7.20111347433508</v>
       </c>
       <c r="L34">
-        <v>81.48090450888491</v>
+        <v>92.381987806789</v>
       </c>
       <c r="M34">
-        <v>45.5775147471608</v>
+        <v>25.5931985212645</v>
       </c>
       <c r="N34">
-        <v>124.212679522395</v>
+        <v>115.651109109345</v>
       </c>
       <c r="O34">
-        <v>2652.56753188211</v>
+        <v>2788.1295033594</v>
       </c>
       <c r="P34">
-        <v>48.224953814341</v>
+        <v>47.8226694391149</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>166.702234377827</v>
+        <v>157.563183345396</v>
       </c>
       <c r="C35">
-        <v>6.26264446179672</v>
+        <v>6.275235191767</v>
       </c>
       <c r="D35">
-        <v>0.344662513262311</v>
+        <v>0.31127898080926</v>
       </c>
       <c r="E35">
-        <v>2.08855886688422</v>
+        <v>2.04176724841138</v>
       </c>
       <c r="F35">
-        <v>5.76100704632602</v>
+        <v>3.34844100779304</v>
       </c>
       <c r="G35">
-        <v>0.545715645998659</v>
+        <v>0.853556480623622</v>
       </c>
       <c r="H35">
-        <v>0.373384389367503</v>
+        <v>0.122947379776123</v>
       </c>
       <c r="I35">
-        <v>0.940012088861142</v>
+        <v>0.7581463623935349</v>
       </c>
       <c r="J35">
-        <v>2.49375364553928</v>
+        <v>2.67491744512143</v>
       </c>
       <c r="K35">
-        <v>5.30626246096069</v>
+        <v>4.29989257582589</v>
       </c>
       <c r="L35">
-        <v>1.85938481523197</v>
+        <v>2.37942872556512</v>
       </c>
       <c r="M35">
-        <v>2.3264719645206</v>
+        <v>1.86827802742255</v>
       </c>
       <c r="N35">
-        <v>2.14751888594069</v>
+        <v>3.11535970249183</v>
       </c>
       <c r="O35">
-        <v>216.435597151627</v>
+        <v>227.647861929276</v>
       </c>
       <c r="P35">
-        <v>36.03508130093</v>
+        <v>35.9588898142248</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3211.88259159407</v>
+        <v>3163.0570663517</v>
       </c>
       <c r="C36">
-        <v>72.69948234669521</v>
+        <v>46.1981877666396</v>
       </c>
       <c r="D36">
-        <v>23.302223345857</v>
+        <v>11.4922115973924</v>
       </c>
       <c r="E36">
-        <v>115.023603941554</v>
+        <v>111.905360661313</v>
       </c>
       <c r="F36">
-        <v>18.4769366873778</v>
+        <v>28.0342225699007</v>
       </c>
       <c r="G36">
-        <v>71.1927901541336</v>
+        <v>72.5168191411596</v>
       </c>
       <c r="H36">
-        <v>100.898645427302</v>
+        <v>73.6751340024919</v>
       </c>
       <c r="I36">
-        <v>42.5019134050717</v>
+        <v>33.1518728698755</v>
       </c>
       <c r="J36">
-        <v>239.666760253333</v>
+        <v>168.733105118118</v>
       </c>
       <c r="K36">
-        <v>118.956010721994</v>
+        <v>42.9184396704634</v>
       </c>
       <c r="L36">
-        <v>81.34617624836849</v>
+        <v>54.185423908456</v>
       </c>
       <c r="M36">
-        <v>228.465726759018</v>
+        <v>190.750236608982</v>
       </c>
       <c r="N36">
-        <v>85.7924569728437</v>
+        <v>81.7220100485242</v>
       </c>
       <c r="O36">
-        <v>3522.22191581215</v>
+        <v>3859.36497453429</v>
       </c>
       <c r="P36">
-        <v>47.0118462450268</v>
+        <v>36.1402273659587</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1045.96249324449</v>
+        <v>1024.16281205468</v>
       </c>
       <c r="C37">
-        <v>24.6337308196752</v>
+        <v>18.3577735560227</v>
       </c>
       <c r="D37">
-        <v>8.25304535995118</v>
+        <v>2.29573234276053</v>
       </c>
       <c r="E37">
-        <v>17.2422527568111</v>
+        <v>19.0000621368095</v>
       </c>
       <c r="F37">
-        <v>40.2722854560341</v>
+        <v>28.030527742899</v>
       </c>
       <c r="G37">
-        <v>7.08053010914616</v>
+        <v>5.75087915399891</v>
       </c>
       <c r="H37">
-        <v>14.8640628120323</v>
+        <v>20.5762872178385</v>
       </c>
       <c r="I37">
-        <v>10.0862854908322</v>
+        <v>6.67722068002074</v>
       </c>
       <c r="J37">
-        <v>32.218083411867</v>
+        <v>36.0101613901683</v>
       </c>
       <c r="K37">
-        <v>27.8779081356558</v>
+        <v>7.75219817478571</v>
       </c>
       <c r="L37">
-        <v>19.3775772389766</v>
+        <v>15.6739868462365</v>
       </c>
       <c r="M37">
-        <v>31.1138057555174</v>
+        <v>31.7950458040554</v>
       </c>
       <c r="N37">
-        <v>14.3275586383331</v>
+        <v>27.4080614404424</v>
       </c>
       <c r="O37">
-        <v>1088.78813610789</v>
+        <v>1130.27552730911</v>
       </c>
       <c r="P37">
-        <v>34.3098057056548</v>
+        <v>39.2821095087938</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1037.18017801872</v>
+        <v>1036.33195671828</v>
       </c>
       <c r="C38">
-        <v>18.8945121787111</v>
+        <v>25.3757890090485</v>
       </c>
       <c r="D38">
-        <v>8.89855111005369</v>
+        <v>6.41130273014168</v>
       </c>
       <c r="E38">
-        <v>73.44989226921371</v>
+        <v>42.5810535285969</v>
       </c>
       <c r="F38">
-        <v>2.68417554463012</v>
+        <v>1.3464395040395</v>
       </c>
       <c r="G38">
-        <v>5.40272113600374</v>
+        <v>5.64097677917219</v>
       </c>
       <c r="H38">
-        <v>5.13104843452247</v>
+        <v>1.85995306605805</v>
       </c>
       <c r="I38">
-        <v>5.97088199084344</v>
+        <v>1.25925113022118</v>
       </c>
       <c r="J38">
-        <v>28.3910862087948</v>
+        <v>30.1114295198291</v>
       </c>
       <c r="K38">
-        <v>13.7085948715668</v>
+        <v>2.27055345294251</v>
       </c>
       <c r="L38">
-        <v>65.0140995089027</v>
+        <v>73.2327808223048</v>
       </c>
       <c r="M38">
-        <v>19.0645022929597</v>
+        <v>18.5368093636009</v>
       </c>
       <c r="N38">
-        <v>24.0295870380529</v>
+        <v>41.8990072773224</v>
       </c>
       <c r="O38">
-        <v>1173.41385824573</v>
+        <v>1218.62585290572</v>
       </c>
       <c r="P38">
-        <v>59.6872524035954</v>
+        <v>41.6419852061147</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3801.61572066201</v>
+        <v>3605.42269704271</v>
       </c>
       <c r="C39">
-        <v>86.3642930588919</v>
+        <v>81.6144992342808</v>
       </c>
       <c r="D39">
-        <v>54.6858065531635</v>
+        <v>29.6038387745665</v>
       </c>
       <c r="E39">
-        <v>136.232613878806</v>
+        <v>146.313391228558</v>
       </c>
       <c r="F39">
-        <v>37.4455007230826</v>
+        <v>19.6579065416973</v>
       </c>
       <c r="G39">
-        <v>90.77151130419119</v>
+        <v>114.71853371618</v>
       </c>
       <c r="H39">
-        <v>51.9514677425672</v>
+        <v>44.4069655937874</v>
       </c>
       <c r="I39">
-        <v>48.9131220249329</v>
+        <v>26.6109553735008</v>
       </c>
       <c r="J39">
-        <v>219.980953170685</v>
+        <v>136.208614969603</v>
       </c>
       <c r="K39">
-        <v>68.4800158044078</v>
+        <v>48.3779015682214</v>
       </c>
       <c r="L39">
-        <v>92.9701489401661</v>
+        <v>81.17393424938641</v>
       </c>
       <c r="M39">
-        <v>63.6623119748923</v>
+        <v>56.6231705756563</v>
       </c>
       <c r="N39">
-        <v>90.83547764130501</v>
+        <v>102.025674190808</v>
       </c>
       <c r="O39">
-        <v>3850.4395472841</v>
+        <v>4195.94814593839</v>
       </c>
       <c r="P39">
-        <v>68.7727226382036</v>
+        <v>60.1289819340385</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>300.439892426509</v>
+        <v>288.48748532056</v>
       </c>
       <c r="C40">
-        <v>3.31415704818963</v>
+        <v>2.85725764061547</v>
       </c>
       <c r="D40">
-        <v>7.17564810053866</v>
+        <v>5.91002838891911</v>
       </c>
       <c r="E40">
-        <v>8.042874088246361</v>
+        <v>5.58380434645847</v>
       </c>
       <c r="F40">
-        <v>0.465064147959824</v>
+        <v>0.223481179586568</v>
       </c>
       <c r="G40">
-        <v>3.42577363522754</v>
+        <v>3.19488946642137</v>
       </c>
       <c r="H40">
-        <v>4.0410433689492</v>
+        <v>4.01660925302305</v>
       </c>
       <c r="I40">
-        <v>0.7327401700081651</v>
+        <v>1.70942085445549</v>
       </c>
       <c r="J40">
-        <v>11.9703053396091</v>
+        <v>9.38253385853014</v>
       </c>
       <c r="K40">
-        <v>3.47883448704542</v>
+        <v>1.34729679298589</v>
       </c>
       <c r="L40">
-        <v>10.6446861965283</v>
+        <v>11.1348271271243</v>
       </c>
       <c r="M40">
-        <v>4.79095844830029</v>
+        <v>3.78883581633171</v>
       </c>
       <c r="N40">
-        <v>19.0119128242098</v>
+        <v>15.7509676428322</v>
       </c>
       <c r="O40">
-        <v>346.307653154242</v>
+        <v>375.241785928628</v>
       </c>
       <c r="P40">
-        <v>2.36794764256903</v>
+        <v>3.8840600428959</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1236.73974981085</v>
+        <v>1253.56282672304</v>
       </c>
       <c r="C41">
-        <v>21.5314790106959</v>
+        <v>10.8484059348094</v>
       </c>
       <c r="D41">
-        <v>83.2897677194112</v>
+        <v>60.7821187317892</v>
       </c>
       <c r="E41">
-        <v>42.2952154888872</v>
+        <v>29.2009464163927</v>
       </c>
       <c r="F41">
-        <v>3.27234483048891</v>
+        <v>1.02491934928112</v>
       </c>
       <c r="G41">
-        <v>23.6302478181796</v>
+        <v>24.8186601225453</v>
       </c>
       <c r="H41">
-        <v>31.8288047550299</v>
+        <v>28.2371908361775</v>
       </c>
       <c r="I41">
-        <v>11.7144445192292</v>
+        <v>12.6059934384929</v>
       </c>
       <c r="J41">
-        <v>34.8955039121774</v>
+        <v>30.1145299672237</v>
       </c>
       <c r="K41">
-        <v>23.5925784857274</v>
+        <v>5.99360485805636</v>
       </c>
       <c r="L41">
-        <v>25.8154023640273</v>
+        <v>26.7205191913808</v>
       </c>
       <c r="M41">
-        <v>37.4374431703677</v>
+        <v>27.5050600442674</v>
       </c>
       <c r="N41">
-        <v>21.0756658068744</v>
+        <v>15.9593185895601</v>
       </c>
       <c r="O41">
-        <v>1267.74428469842</v>
+        <v>1336.73213123515</v>
       </c>
       <c r="P41">
-        <v>20.8691688205168</v>
+        <v>21.2112902294246</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>182.645028076827</v>
+        <v>158.165509460492</v>
       </c>
       <c r="C42">
-        <v>5.89353079199881</v>
+        <v>4.28933517172713</v>
       </c>
       <c r="D42">
-        <v>0.967983933028659</v>
+        <v>1.07573168385261</v>
       </c>
       <c r="E42">
-        <v>5.14580185665767</v>
+        <v>5.08493763274355</v>
       </c>
       <c r="F42">
-        <v>1.7236796953062</v>
+        <v>1.56695301154714</v>
       </c>
       <c r="G42">
-        <v>0.937032066932591</v>
+        <v>0.901111196219717</v>
       </c>
       <c r="H42">
-        <v>1.44814046707764</v>
+        <v>0.675840537177907</v>
       </c>
       <c r="I42">
-        <v>1.10740153364761</v>
+        <v>1.75771569071349</v>
       </c>
       <c r="J42">
-        <v>4.00298621465298</v>
+        <v>3.22262951607034</v>
       </c>
       <c r="K42">
-        <v>5.65767059852645</v>
+        <v>3.41794198804924</v>
       </c>
       <c r="L42">
-        <v>6.84838959566979</v>
+        <v>5.81912300157765</v>
       </c>
       <c r="M42">
-        <v>2.95059603503272</v>
+        <v>3.50472421309849</v>
       </c>
       <c r="N42">
-        <v>6.34797135339217</v>
+        <v>6.18297787336585</v>
       </c>
       <c r="O42">
-        <v>239.559490561867</v>
+        <v>259.278381191829</v>
       </c>
       <c r="P42">
-        <v>38.1114777391515</v>
+        <v>43.8802475824059</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1693.85380252688</v>
+        <v>1728.84968932551</v>
       </c>
       <c r="C43">
-        <v>44.9382386895151</v>
+        <v>29.7597682359187</v>
       </c>
       <c r="D43">
-        <v>41.0810164122255</v>
+        <v>22.154609668942</v>
       </c>
       <c r="E43">
-        <v>67.63130943904569</v>
+        <v>62.2706986567642</v>
       </c>
       <c r="F43">
-        <v>7.16475931394262</v>
+        <v>7.60167776139071</v>
       </c>
       <c r="G43">
-        <v>28.7961086344349</v>
+        <v>35.9922556597068</v>
       </c>
       <c r="H43">
-        <v>33.7489381446574</v>
+        <v>41.0585009959583</v>
       </c>
       <c r="I43">
-        <v>14.5420215366605</v>
+        <v>22.1399167999108</v>
       </c>
       <c r="J43">
-        <v>68.1048324069813</v>
+        <v>59.6409715091856</v>
       </c>
       <c r="K43">
-        <v>47.4111799431931</v>
+        <v>14.2241413100591</v>
       </c>
       <c r="L43">
-        <v>50.4713094895058</v>
+        <v>40.1150347101914</v>
       </c>
       <c r="M43">
-        <v>113.670683926629</v>
+        <v>109.240606454483</v>
       </c>
       <c r="N43">
-        <v>61.1030124211049</v>
+        <v>49.8424913189192</v>
       </c>
       <c r="O43">
-        <v>1860.13145209983</v>
+        <v>1887.64496176564</v>
       </c>
       <c r="P43">
-        <v>26.1818131755231</v>
+        <v>48.9896528763115</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5940.61117423292</v>
+        <v>5645.82970830821</v>
       </c>
       <c r="C44">
-        <v>104.567573700897</v>
+        <v>126.387775540873</v>
       </c>
       <c r="D44">
-        <v>32.6944785049017</v>
+        <v>17.8406369280643</v>
       </c>
       <c r="E44">
-        <v>100.611647013206</v>
+        <v>74.9090395162777</v>
       </c>
       <c r="F44">
-        <v>226.822803726608</v>
+        <v>199.660150188516</v>
       </c>
       <c r="G44">
-        <v>105.943612118294</v>
+        <v>99.6720561994097</v>
       </c>
       <c r="H44">
-        <v>56.9495126515757</v>
+        <v>30.9273708703435</v>
       </c>
       <c r="I44">
-        <v>41.9074280208629</v>
+        <v>42.272883327123</v>
       </c>
       <c r="J44">
-        <v>154.294984760713</v>
+        <v>98.521157024593</v>
       </c>
       <c r="K44">
-        <v>91.2351321065177</v>
+        <v>32.9910561913796</v>
       </c>
       <c r="L44">
-        <v>196.636354496371</v>
+        <v>129.103935724066</v>
       </c>
       <c r="M44">
-        <v>110.904070852254</v>
+        <v>65.56995330014421</v>
       </c>
       <c r="N44">
-        <v>90.1083133706142</v>
+        <v>84.7398671156686</v>
       </c>
       <c r="O44">
-        <v>7010.15644059045</v>
+        <v>7491.5257111595</v>
       </c>
       <c r="P44">
-        <v>123.677690485424</v>
+        <v>193.746307012778</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>546.938572052165</v>
+        <v>522.027611960633</v>
       </c>
       <c r="C45">
-        <v>13.682549677138</v>
+        <v>20.7846178503023</v>
       </c>
       <c r="D45">
-        <v>3.13188918275531</v>
+        <v>1.56394502320381</v>
       </c>
       <c r="E45">
-        <v>16.0469778987087</v>
+        <v>18.6717615171148</v>
       </c>
       <c r="F45">
-        <v>14.0527616060199</v>
+        <v>20.0970104402641</v>
       </c>
       <c r="G45">
-        <v>9.1467674163681</v>
+        <v>4.86526226273591</v>
       </c>
       <c r="H45">
-        <v>2.78801925233129</v>
+        <v>3.00646021149473</v>
       </c>
       <c r="I45">
-        <v>5.54471244564762</v>
+        <v>3.25726535011081</v>
       </c>
       <c r="J45">
-        <v>19.0990388211156</v>
+        <v>19.2996011648151</v>
       </c>
       <c r="K45">
-        <v>6.06151545286957</v>
+        <v>1.80795742628201</v>
       </c>
       <c r="L45">
-        <v>15.0458900406411</v>
+        <v>15.3293828498321</v>
       </c>
       <c r="M45">
-        <v>22.4507772106445</v>
+        <v>13.6153805641218</v>
       </c>
       <c r="N45">
-        <v>29.6051193435194</v>
+        <v>27.240960896172</v>
       </c>
       <c r="O45">
-        <v>767.030863203149</v>
+        <v>776.616814040054</v>
       </c>
       <c r="P45">
-        <v>8.253559278613111</v>
+        <v>16.832123142708</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>150.675739442469</v>
+        <v>136.204640742123</v>
       </c>
       <c r="C46">
-        <v>4.0252271407016</v>
+        <v>3.71782314650632</v>
       </c>
       <c r="D46">
-        <v>2.05945982938654</v>
+        <v>0.524995667426546</v>
       </c>
       <c r="E46">
-        <v>8.53580290841685</v>
+        <v>4.31802087009073</v>
       </c>
       <c r="F46">
-        <v>0.853074612654747</v>
+        <v>0.340921552282163</v>
       </c>
       <c r="G46">
-        <v>1.52590902234436</v>
+        <v>1.65281695083816</v>
       </c>
       <c r="H46">
-        <v>1.66013905999635</v>
+        <v>1.07968130618813</v>
       </c>
       <c r="I46">
-        <v>2.20740226897569</v>
+        <v>1.97211262588437</v>
       </c>
       <c r="J46">
-        <v>4.21244624878001</v>
+        <v>4.04270658077152</v>
       </c>
       <c r="K46">
-        <v>2.90615119104169</v>
+        <v>0.858769494320768</v>
       </c>
       <c r="L46">
-        <v>10.6068072010201</v>
+        <v>9.87526258762593</v>
       </c>
       <c r="M46">
-        <v>3.9542472449796</v>
+        <v>2.54445367097343</v>
       </c>
       <c r="N46">
-        <v>6.35068067307237</v>
+        <v>7.86557484630637</v>
       </c>
       <c r="O46">
-        <v>215.66509952406</v>
+        <v>235.997535647559</v>
       </c>
       <c r="P46">
-        <v>9.769611535522481</v>
+        <v>9.5929996104941</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1885.90306503418</v>
+        <v>1950.83354237393</v>
       </c>
       <c r="C47">
-        <v>46.2356736769149</v>
+        <v>36.4137836227536</v>
       </c>
       <c r="D47">
-        <v>42.3552085333472</v>
+        <v>16.5445081781177</v>
       </c>
       <c r="E47">
-        <v>66.874316339335</v>
+        <v>44.1558021120186</v>
       </c>
       <c r="F47">
-        <v>17.798848340913</v>
+        <v>4.07721458090895</v>
       </c>
       <c r="G47">
-        <v>26.6673621910755</v>
+        <v>25.1473667435031</v>
       </c>
       <c r="H47">
-        <v>20.6878826824745</v>
+        <v>6.28967169959845</v>
       </c>
       <c r="I47">
-        <v>13.738579072002</v>
+        <v>1.07643806978069</v>
       </c>
       <c r="J47">
-        <v>32.2354438053778</v>
+        <v>41.1647907225766</v>
       </c>
       <c r="K47">
-        <v>25.1447082544203</v>
+        <v>6.77429803889403</v>
       </c>
       <c r="L47">
-        <v>38.6693102900124</v>
+        <v>29.708302301018</v>
       </c>
       <c r="M47">
-        <v>70.20305564265431</v>
+        <v>54.5808749090041</v>
       </c>
       <c r="N47">
-        <v>47.2428176647149</v>
+        <v>25.9097251801593</v>
       </c>
       <c r="O47">
-        <v>2582.68360664236</v>
+        <v>2672.52719620097</v>
       </c>
       <c r="P47">
-        <v>32.3121188317146</v>
+        <v>26.0930819690013</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1733.85046712894</v>
+        <v>1688.12123134221</v>
       </c>
       <c r="C48">
-        <v>37.9309991341069</v>
+        <v>27.4466708305081</v>
       </c>
       <c r="D48">
-        <v>8.027423161558421</v>
+        <v>3.31472386822727</v>
       </c>
       <c r="E48">
-        <v>48.8881056092846</v>
+        <v>65.7538461757816</v>
       </c>
       <c r="F48">
-        <v>7.9344250836397</v>
+        <v>9.76985857582865</v>
       </c>
       <c r="G48">
-        <v>9.03261540663482</v>
+        <v>4.78254391416885</v>
       </c>
       <c r="H48">
-        <v>9.114979680859451</v>
+        <v>4.75113017673914</v>
       </c>
       <c r="I48">
-        <v>8.741114117169969</v>
+        <v>8.03149225590818</v>
       </c>
       <c r="J48">
-        <v>28.1402223289442</v>
+        <v>40.5779731379113</v>
       </c>
       <c r="K48">
-        <v>12.8646758870934</v>
+        <v>9.00310440657821</v>
       </c>
       <c r="L48">
-        <v>41.7421310056048</v>
+        <v>45.9288661970655</v>
       </c>
       <c r="M48">
-        <v>124.669135813821</v>
+        <v>113.466530611183</v>
       </c>
       <c r="N48">
-        <v>33.5620680300606</v>
+        <v>26.4594589486655</v>
       </c>
       <c r="O48">
-        <v>2047.93904670677</v>
+        <v>2097.56288329747</v>
       </c>
       <c r="P48">
-        <v>59.7042603098901</v>
+        <v>65.2028777606879</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>691.65424456299</v>
+        <v>710.823395285117</v>
       </c>
       <c r="C49">
-        <v>5.7691915550985</v>
+        <v>4.92142381948779</v>
       </c>
       <c r="D49">
-        <v>2.36588034091456</v>
+        <v>1.45042252379705</v>
       </c>
       <c r="E49">
-        <v>14.2696621681362</v>
+        <v>21.3163212176932</v>
       </c>
       <c r="F49">
-        <v>23.3900468780846</v>
+        <v>23.250613766993</v>
       </c>
       <c r="G49">
-        <v>17.0569542494958</v>
+        <v>13.3153239793055</v>
       </c>
       <c r="H49">
-        <v>5.75560116438759</v>
+        <v>7.16125800162818</v>
       </c>
       <c r="I49">
-        <v>4.08740100183186</v>
+        <v>3.14727560475839</v>
       </c>
       <c r="J49">
-        <v>18.0811554742308</v>
+        <v>17.7675288495534</v>
       </c>
       <c r="K49">
-        <v>5.35061317279322</v>
+        <v>1.91933118455603</v>
       </c>
       <c r="L49">
-        <v>3.02856569567673</v>
+        <v>0.611069617947485</v>
       </c>
       <c r="M49">
-        <v>6.46301656992907</v>
+        <v>2.58905317229188</v>
       </c>
       <c r="N49">
-        <v>5.26881860853985</v>
+        <v>4.7057744003577</v>
       </c>
       <c r="O49">
-        <v>512.19675176413</v>
+        <v>507.495737621754</v>
       </c>
       <c r="P49">
-        <v>8.39319642064163</v>
+        <v>5.84898643288371</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1406.95957654341</v>
+        <v>1263.75849563812</v>
       </c>
       <c r="C50">
-        <v>76.00182434760529</v>
+        <v>68.34344266971431</v>
       </c>
       <c r="D50">
-        <v>15.0092013961436</v>
+        <v>12.0740578524338</v>
       </c>
       <c r="E50">
-        <v>139.203536953329</v>
+        <v>137.956713543915</v>
       </c>
       <c r="F50">
-        <v>3.89463087244269</v>
+        <v>3.89449557183971</v>
       </c>
       <c r="G50">
-        <v>14.5407055747673</v>
+        <v>28.2531494492024</v>
       </c>
       <c r="H50">
-        <v>37.7911755092494</v>
+        <v>29.5363128794768</v>
       </c>
       <c r="I50">
-        <v>12.211535403378</v>
+        <v>6.25178324587706</v>
       </c>
       <c r="J50">
-        <v>97.5824196987388</v>
+        <v>84.56417629659759</v>
       </c>
       <c r="K50">
-        <v>76.4200453106161</v>
+        <v>47.6464382937291</v>
       </c>
       <c r="L50">
-        <v>50.3557663306389</v>
+        <v>56.5887934010022</v>
       </c>
       <c r="M50">
-        <v>57.0314712904139</v>
+        <v>43.0049390042592</v>
       </c>
       <c r="N50">
-        <v>61.6958982214804</v>
+        <v>54.5152080058071</v>
       </c>
       <c r="O50">
-        <v>1674.48003748694</v>
+        <v>1905.63999371996</v>
       </c>
       <c r="P50">
-        <v>104.231437976596</v>
+        <v>88.02173918978291</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>124.659464952935</v>
+        <v>119.247905261975</v>
       </c>
       <c r="C51">
-        <v>1.07945384635113</v>
+        <v>3.65511175544921</v>
       </c>
       <c r="D51">
-        <v>0.553643447799919</v>
+        <v>0.0222239457020188</v>
       </c>
       <c r="E51">
-        <v>2.52665045793152</v>
+        <v>2.02558234394402</v>
       </c>
       <c r="F51">
-        <v>25.06807489372</v>
+        <v>21.5526522935383</v>
       </c>
       <c r="G51">
-        <v>2.72887675515815</v>
+        <v>1.46496342034256</v>
       </c>
       <c r="H51">
-        <v>0.138410861949979</v>
+        <v>0.00805615852312668</v>
       </c>
       <c r="I51">
-        <v>0.719549217416861</v>
+        <v>0.599911882180973</v>
       </c>
       <c r="J51">
-        <v>1.5797388458805</v>
+        <v>0.647452004873291</v>
       </c>
       <c r="K51">
-        <v>0.636572090762435</v>
+        <v>0.29642795031293</v>
       </c>
       <c r="L51">
-        <v>0.387550413459943</v>
+        <v>0.398032248442336</v>
       </c>
       <c r="M51">
-        <v>0.60900779257991</v>
+        <v>0.412464958500113</v>
       </c>
       <c r="N51">
-        <v>0.968876033649859</v>
+        <v>0.420832295959317</v>
       </c>
       <c r="O51">
-        <v>176.0239423273</v>
+        <v>181.030927506625</v>
       </c>
       <c r="P51">
-        <v>12.1909775467032</v>
+        <v>17.4560799472139</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1481.35183755019</v>
+        <v>1477.27984651102</v>
       </c>
       <c r="C2">
-        <v>25.5775439785095</v>
+        <v>25.7169347589041</v>
       </c>
       <c r="D2">
-        <v>27.3899959849048</v>
+        <v>28.9495962499343</v>
       </c>
       <c r="E2">
-        <v>48.7692064084889</v>
+        <v>48.2685134503623</v>
       </c>
       <c r="F2">
-        <v>21.9395835669166</v>
+        <v>22.5528423589457</v>
       </c>
       <c r="G2">
-        <v>8.28342895814027</v>
+        <v>11.0438830362305</v>
       </c>
       <c r="H2">
-        <v>15.7598550118067</v>
+        <v>16.405901372966</v>
       </c>
       <c r="I2">
-        <v>16.0167606825814</v>
+        <v>14.2000596854229</v>
       </c>
       <c r="J2">
-        <v>76.5637918349106</v>
+        <v>72.32866146000831</v>
       </c>
       <c r="K2">
-        <v>11.8451544315991</v>
+        <v>13.4961134845698</v>
       </c>
       <c r="L2">
-        <v>40.0345131477083</v>
+        <v>42.688387106977</v>
       </c>
       <c r="M2">
-        <v>30.8573575718438</v>
+        <v>31.1714914532893</v>
       </c>
       <c r="N2">
-        <v>28.838660154008</v>
+        <v>27.4033929945134</v>
       </c>
       <c r="O2">
-        <v>1312.09968976912</v>
+        <v>1323.63333228007</v>
       </c>
       <c r="P2">
-        <v>20.6469680918245</v>
+        <v>20.8796733160032</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>121.946604729136</v>
+        <v>121.130186143323</v>
       </c>
       <c r="C3">
-        <v>3.8607924643888</v>
+        <v>3.1173559190697</v>
       </c>
       <c r="D3">
-        <v>0.19784054851878</v>
+        <v>0.216802735353226</v>
       </c>
       <c r="E3">
-        <v>1.51322838580455</v>
+        <v>1.0322853758637</v>
       </c>
       <c r="F3">
-        <v>6.31707532026583</v>
+        <v>6.52258021868483</v>
       </c>
       <c r="G3">
-        <v>0.0803256789997137</v>
+        <v>0.157355271935381</v>
       </c>
       <c r="H3">
-        <v>0.0120866354065271</v>
+        <v>0.00495530164477492</v>
       </c>
       <c r="I3">
-        <v>0.479624664484971</v>
+        <v>0.363566662838914</v>
       </c>
       <c r="J3">
-        <v>0.22565318926347</v>
+        <v>0.21082418121556</v>
       </c>
       <c r="K3">
-        <v>0.0168835411447503</v>
+        <v>0.108204388270703</v>
       </c>
       <c r="L3">
-        <v>0.106009083068725</v>
+        <v>0.07453072805937951</v>
       </c>
       <c r="M3">
-        <v>0.391235267411368</v>
+        <v>0.429213733772145</v>
       </c>
       <c r="N3">
-        <v>0.29906780453583</v>
+        <v>0.297541863258694</v>
       </c>
       <c r="O3">
-        <v>211.509901037104</v>
+        <v>208.932091507596</v>
       </c>
       <c r="P3">
-        <v>8.172449526458561</v>
+        <v>8.768303838499749</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1629.15454352506</v>
+        <v>1629.19540617142</v>
       </c>
       <c r="C4">
-        <v>3.42574401643446</v>
+        <v>5.79529812035829</v>
       </c>
       <c r="D4">
-        <v>3.80946198627452</v>
+        <v>2.84314719464641</v>
       </c>
       <c r="E4">
-        <v>24.7426745731622</v>
+        <v>18.9586336592437</v>
       </c>
       <c r="F4">
-        <v>11.4504944724365</v>
+        <v>10.3894995124898</v>
       </c>
       <c r="G4">
-        <v>5.10739428078659</v>
+        <v>5.65026828426459</v>
       </c>
       <c r="H4">
-        <v>11.8057327400144</v>
+        <v>10.6727754453444</v>
       </c>
       <c r="I4">
-        <v>12.3772234381508</v>
+        <v>10.44759573582</v>
       </c>
       <c r="J4">
-        <v>20.4862377026422</v>
+        <v>21.4335364097259</v>
       </c>
       <c r="K4">
-        <v>0.417504859051741</v>
+        <v>2.22074370782805</v>
       </c>
       <c r="L4">
-        <v>59.0988711256803</v>
+        <v>60.9642134989059</v>
       </c>
       <c r="M4">
-        <v>43.8790738895024</v>
+        <v>41.9262860605928</v>
       </c>
       <c r="N4">
-        <v>22.6783868452762</v>
+        <v>24.7732344151094</v>
       </c>
       <c r="O4">
-        <v>1968.67357742106</v>
+        <v>1982.42788131858</v>
       </c>
       <c r="P4">
-        <v>28.4525634105951</v>
+        <v>30.7505653028774</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>869.877084462773</v>
+        <v>871.453866226164</v>
       </c>
       <c r="C5">
-        <v>39.0582140301866</v>
+        <v>36.2698009994403</v>
       </c>
       <c r="D5">
-        <v>11.8684730081035</v>
+        <v>11.8048738874678</v>
       </c>
       <c r="E5">
-        <v>33.6029680518703</v>
+        <v>30.0917223264065</v>
       </c>
       <c r="F5">
-        <v>7.73759305200028</v>
+        <v>6.11481596773456</v>
       </c>
       <c r="G5">
-        <v>2.75203815190659</v>
+        <v>3.59121278192037</v>
       </c>
       <c r="H5">
-        <v>10.3421980740726</v>
+        <v>10.6024093792542</v>
       </c>
       <c r="I5">
-        <v>5.14517493888288</v>
+        <v>7.09761525592732</v>
       </c>
       <c r="J5">
-        <v>33.3128996405489</v>
+        <v>31.5426094309773</v>
       </c>
       <c r="K5">
-        <v>4.99131173688612</v>
+        <v>8.938707477761181</v>
       </c>
       <c r="L5">
-        <v>10.8071638593924</v>
+        <v>11.4495019946602</v>
       </c>
       <c r="M5">
-        <v>14.6036404723877</v>
+        <v>14.1550231464724</v>
       </c>
       <c r="N5">
-        <v>18.6494362756847</v>
+        <v>17.4658696252566</v>
       </c>
       <c r="O5">
-        <v>839.843502853439</v>
+        <v>843.825508340336</v>
       </c>
       <c r="P5">
-        <v>44.8982988622216</v>
+        <v>42.2274870562115</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9518.29903739393</v>
+        <v>9448.431405447929</v>
       </c>
       <c r="C6">
-        <v>180.269466148257</v>
+        <v>169.858805179921</v>
       </c>
       <c r="D6">
-        <v>27.8169426852929</v>
+        <v>45.1189408457615</v>
       </c>
       <c r="E6">
-        <v>143.058420538012</v>
+        <v>131.058009668261</v>
       </c>
       <c r="F6">
-        <v>37.8542706225705</v>
+        <v>37.6333932297289</v>
       </c>
       <c r="G6">
-        <v>106.300187330911</v>
+        <v>95.3680824316463</v>
       </c>
       <c r="H6">
-        <v>31.1807189440159</v>
+        <v>36.2018334716555</v>
       </c>
       <c r="I6">
-        <v>46.6770123750275</v>
+        <v>38.7876852824235</v>
       </c>
       <c r="J6">
-        <v>139.265009038748</v>
+        <v>132.543992368967</v>
       </c>
       <c r="K6">
-        <v>38.5139465315974</v>
+        <v>46.9480803526816</v>
       </c>
       <c r="L6">
-        <v>417.795285918302</v>
+        <v>400.707384686659</v>
       </c>
       <c r="M6">
-        <v>208.065297052238</v>
+        <v>210.237694673716</v>
       </c>
       <c r="N6">
-        <v>203.49432469924</v>
+        <v>211.072665112601</v>
       </c>
       <c r="O6">
-        <v>11721.6594248835</v>
+        <v>11785.5410797026</v>
       </c>
       <c r="P6">
-        <v>277.180309675182</v>
+        <v>269.943887461093</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1046.77957804677</v>
+        <v>1037.38558656898</v>
       </c>
       <c r="C7">
-        <v>39.3581832287194</v>
+        <v>38.3888788147947</v>
       </c>
       <c r="D7">
-        <v>3.0113479030833</v>
+        <v>2.83660425826817</v>
       </c>
       <c r="E7">
-        <v>20.1211749936682</v>
+        <v>17.6369096544629</v>
       </c>
       <c r="F7">
-        <v>17.5890881732082</v>
+        <v>17.321743300648</v>
       </c>
       <c r="G7">
-        <v>8.53728814319066</v>
+        <v>8.804936535495539</v>
       </c>
       <c r="H7">
-        <v>3.20240511662995</v>
+        <v>3.59227689648233</v>
       </c>
       <c r="I7">
-        <v>7.21017536574557</v>
+        <v>7.16320068316805</v>
       </c>
       <c r="J7">
-        <v>17.2819060063157</v>
+        <v>16.4369500402048</v>
       </c>
       <c r="K7">
-        <v>2.60764925497869</v>
+        <v>4.9387719222663</v>
       </c>
       <c r="L7">
-        <v>53.5629178336538</v>
+        <v>51.4391556992297</v>
       </c>
       <c r="M7">
-        <v>8.89633871183243</v>
+        <v>10.4618533943179</v>
       </c>
       <c r="N7">
-        <v>21.9833104497848</v>
+        <v>21.9020470407177</v>
       </c>
       <c r="O7">
-        <v>1764.89024983517</v>
+        <v>1778.23042581323</v>
       </c>
       <c r="P7">
-        <v>25.3801791157941</v>
+        <v>26.8569666664664</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>833.815318247911</v>
+        <v>832.11771798351</v>
       </c>
       <c r="C8">
-        <v>13.0724244578405</v>
+        <v>11.6792100678814</v>
       </c>
       <c r="D8">
-        <v>2.37189154325088</v>
+        <v>2.37301685166159</v>
       </c>
       <c r="E8">
-        <v>20.8840669564349</v>
+        <v>18.5258888007802</v>
       </c>
       <c r="F8">
-        <v>0.673189059512902</v>
+        <v>0.507734520660074</v>
       </c>
       <c r="G8">
-        <v>20.7021879703922</v>
+        <v>20.8090826800082</v>
       </c>
       <c r="H8">
-        <v>7.71797050200302</v>
+        <v>7.18736477076847</v>
       </c>
       <c r="I8">
-        <v>5.65083815304709</v>
+        <v>7.66681827316218</v>
       </c>
       <c r="J8">
-        <v>31.24506298746</v>
+        <v>33.0937644658329</v>
       </c>
       <c r="K8">
-        <v>13.1210905167136</v>
+        <v>14.4775011967941</v>
       </c>
       <c r="L8">
-        <v>46.712849776201</v>
+        <v>39.412555739771</v>
       </c>
       <c r="M8">
-        <v>38.9080171441185</v>
+        <v>38.6008960627282</v>
       </c>
       <c r="N8">
-        <v>22.0789045234272</v>
+        <v>24.1047076791154</v>
       </c>
       <c r="O8">
-        <v>1311.52468425208</v>
+        <v>1311.96497578598</v>
       </c>
       <c r="P8">
-        <v>3.17476378162738</v>
+        <v>3.59974813709682</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>221.985767136096</v>
+        <v>220.444195373679</v>
       </c>
       <c r="C9">
-        <v>6.28140617130937</v>
+        <v>6.35850038480206</v>
       </c>
       <c r="D9">
-        <v>1.74324247759374</v>
+        <v>2.15650428869158</v>
       </c>
       <c r="E9">
-        <v>3.01005478021402</v>
+        <v>2.99444917761164</v>
       </c>
       <c r="F9">
-        <v>0.716447284901429</v>
+        <v>0.922752473220036</v>
       </c>
       <c r="G9">
-        <v>15.4894514384011</v>
+        <v>15.7371960047269</v>
       </c>
       <c r="H9">
-        <v>2.76865428084517</v>
+        <v>2.5327769240292</v>
       </c>
       <c r="I9">
-        <v>0.531049289881134</v>
+        <v>0.592346664058763</v>
       </c>
       <c r="J9">
-        <v>5.75401944819344</v>
+        <v>4.59009184139122</v>
       </c>
       <c r="K9">
-        <v>0.36929627795218</v>
+        <v>1.07988350236751</v>
       </c>
       <c r="L9">
-        <v>3.39025829175066</v>
+        <v>3.03268868653396</v>
       </c>
       <c r="M9">
-        <v>4.91654948231418</v>
+        <v>4.95434699479526</v>
       </c>
       <c r="N9">
-        <v>3.00137711080492</v>
+        <v>2.99329921284146</v>
       </c>
       <c r="O9">
-        <v>296.455368378719</v>
+        <v>298.063484529031</v>
       </c>
       <c r="P9">
-        <v>4.44272081379455</v>
+        <v>4.26034010726263</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5614.85894408576</v>
+        <v>5578.18251500737</v>
       </c>
       <c r="C10">
-        <v>67.9768195345228</v>
+        <v>62.151905863145</v>
       </c>
       <c r="D10">
-        <v>9.974211540508639</v>
+        <v>11.1437036193651</v>
       </c>
       <c r="E10">
-        <v>36.7685663935562</v>
+        <v>35.0490566576811</v>
       </c>
       <c r="F10">
-        <v>4.83003023675832</v>
+        <v>5.25616396750921</v>
       </c>
       <c r="G10">
-        <v>33.4251420998431</v>
+        <v>26.6157571529492</v>
       </c>
       <c r="H10">
-        <v>17.2268595500079</v>
+        <v>18.0475889930702</v>
       </c>
       <c r="I10">
-        <v>31.229948286497</v>
+        <v>26.992296266897</v>
       </c>
       <c r="J10">
-        <v>48.0813575027707</v>
+        <v>46.980464413481</v>
       </c>
       <c r="K10">
-        <v>7.4291212291322</v>
+        <v>13.9195445706789</v>
       </c>
       <c r="L10">
-        <v>60.4382953774529</v>
+        <v>58.8341598095082</v>
       </c>
       <c r="M10">
-        <v>67.6926933284183</v>
+        <v>66.02700202944651</v>
       </c>
       <c r="N10">
-        <v>69.06643320043</v>
+        <v>70.3168167864324</v>
       </c>
       <c r="O10">
-        <v>6268.84843370874</v>
+        <v>6289.57415776705</v>
       </c>
       <c r="P10">
-        <v>62.1450172933304</v>
+        <v>62.6286723083998</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2328.20035263205</v>
+        <v>2329.50049015836</v>
       </c>
       <c r="C11">
-        <v>69.38731579991379</v>
+        <v>69.360143069852</v>
       </c>
       <c r="D11">
-        <v>121.383478882852</v>
+        <v>121.724024185781</v>
       </c>
       <c r="E11">
-        <v>61.6412413899958</v>
+        <v>63.4364062018432</v>
       </c>
       <c r="F11">
-        <v>6.23484532820466</v>
+        <v>6.31602615674055</v>
       </c>
       <c r="G11">
-        <v>22.678856229398</v>
+        <v>22.3686447895515</v>
       </c>
       <c r="H11">
-        <v>13.8404207034607</v>
+        <v>15.0871775442432</v>
       </c>
       <c r="I11">
-        <v>11.1792228665831</v>
+        <v>11.2402309961507</v>
       </c>
       <c r="J11">
-        <v>39.1039920178389</v>
+        <v>39.3591841651575</v>
       </c>
       <c r="K11">
-        <v>8.81332325874298</v>
+        <v>9.93761967992314</v>
       </c>
       <c r="L11">
-        <v>42.7679852535372</v>
+        <v>46.5609607971948</v>
       </c>
       <c r="M11">
-        <v>38.6392566360084</v>
+        <v>41.3229385605201</v>
       </c>
       <c r="N11">
-        <v>59.127858842946</v>
+        <v>55.3495554567638</v>
       </c>
       <c r="O11">
-        <v>2881.76375250178</v>
+        <v>2905.97707151802</v>
       </c>
       <c r="P11">
-        <v>44.5267612544363</v>
+        <v>45.0420074759393</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>332.637693237901</v>
+        <v>332.513393179691</v>
       </c>
       <c r="C12">
-        <v>4.68627576040229</v>
+        <v>5.19670496112921</v>
       </c>
       <c r="D12">
-        <v>0.140563026577932</v>
+        <v>0.408067428570131</v>
       </c>
       <c r="E12">
-        <v>1.91172703725556</v>
+        <v>1.40491359259485</v>
       </c>
       <c r="F12">
-        <v>0.800738828908277</v>
+        <v>0.635919338610192</v>
       </c>
       <c r="G12">
-        <v>0.773461352944703</v>
+        <v>0.43767622319172</v>
       </c>
       <c r="H12">
-        <v>0.0190844493663285</v>
+        <v>0.00449595148598636</v>
       </c>
       <c r="I12">
-        <v>0.886637086376138</v>
+        <v>0.656527676541955</v>
       </c>
       <c r="J12">
-        <v>1.63389550178496</v>
+        <v>1.50837020016999</v>
       </c>
       <c r="K12">
-        <v>0.205221003929914</v>
+        <v>0.186916529250243</v>
       </c>
       <c r="L12">
-        <v>0.527352260251434</v>
+        <v>0.312475460284511</v>
       </c>
       <c r="M12">
-        <v>2.86366369468175</v>
+        <v>2.826000591686</v>
       </c>
       <c r="N12">
-        <v>2.14089037225542</v>
+        <v>2.21986357546275</v>
       </c>
       <c r="O12">
-        <v>468.698646823387</v>
+        <v>467.090172353178</v>
       </c>
       <c r="P12">
-        <v>13.2153031164245</v>
+        <v>13.5702053111841</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>333.964936226058</v>
+        <v>334.312010183522</v>
       </c>
       <c r="C13">
-        <v>14.1080674473876</v>
+        <v>13.9907094433331</v>
       </c>
       <c r="D13">
-        <v>0.499819082610519</v>
+        <v>0.32238067910606</v>
       </c>
       <c r="E13">
-        <v>9.108253420949239</v>
+        <v>9.37254956363399</v>
       </c>
       <c r="F13">
-        <v>3.04927493545973</v>
+        <v>3.51936720531971</v>
       </c>
       <c r="G13">
-        <v>6.02658488429458</v>
+        <v>5.25690499422515</v>
       </c>
       <c r="H13">
-        <v>0.989929209337391</v>
+        <v>0.938780965257775</v>
       </c>
       <c r="I13">
-        <v>1.44125379939687</v>
+        <v>1.53771555235501</v>
       </c>
       <c r="J13">
-        <v>3.95834623621329</v>
+        <v>4.3030173091024</v>
       </c>
       <c r="K13">
-        <v>1.49902211709434</v>
+        <v>1.73279161250289</v>
       </c>
       <c r="L13">
-        <v>16.4441798458546</v>
+        <v>16.7308999334418</v>
       </c>
       <c r="M13">
-        <v>1.11520043739253</v>
+        <v>0.905229300311487</v>
       </c>
       <c r="N13">
-        <v>3.30618129090285</v>
+        <v>4.25327845523563</v>
       </c>
       <c r="O13">
-        <v>474.198601352687</v>
+        <v>479.103237880624</v>
       </c>
       <c r="P13">
-        <v>38.5181961637495</v>
+        <v>40.3883062837122</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3478.79887525083</v>
+        <v>3435.21572532924</v>
       </c>
       <c r="C14">
-        <v>114.342721645555</v>
+        <v>114.647312916981</v>
       </c>
       <c r="D14">
-        <v>9.071279048308201</v>
+        <v>10.2527307506307</v>
       </c>
       <c r="E14">
-        <v>78.50815370913421</v>
+        <v>72.4533816840182</v>
       </c>
       <c r="F14">
-        <v>18.2041972911838</v>
+        <v>16.9628179877946</v>
       </c>
       <c r="G14">
-        <v>55.0931761076799</v>
+        <v>64.0054468616398</v>
       </c>
       <c r="H14">
-        <v>37.9664699367</v>
+        <v>38.0914872359875</v>
       </c>
       <c r="I14">
-        <v>24.0873577147383</v>
+        <v>24.2086803424504</v>
       </c>
       <c r="J14">
-        <v>115.63052356729</v>
+        <v>115.473256947176</v>
       </c>
       <c r="K14">
-        <v>91.44933637755921</v>
+        <v>92.8198665081589</v>
       </c>
       <c r="L14">
-        <v>81.46094323483401</v>
+        <v>85.6964749077387</v>
       </c>
       <c r="M14">
-        <v>69.6546395143492</v>
+        <v>66.5970813549793</v>
       </c>
       <c r="N14">
-        <v>79.6064311757452</v>
+        <v>77.1019129946777</v>
       </c>
       <c r="O14">
-        <v>4204.74523490852</v>
+        <v>4233.74957916207</v>
       </c>
       <c r="P14">
-        <v>55.465427849476</v>
+        <v>58.7351284303371</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1605.52078509684</v>
+        <v>1619.39055799394</v>
       </c>
       <c r="C15">
-        <v>41.8412287303958</v>
+        <v>40.393848418607</v>
       </c>
       <c r="D15">
-        <v>6.03788430030531</v>
+        <v>7.74498971579716</v>
       </c>
       <c r="E15">
-        <v>70.18578723858791</v>
+        <v>58.8520886280091</v>
       </c>
       <c r="F15">
-        <v>19.888881869107</v>
+        <v>18.1221272071975</v>
       </c>
       <c r="G15">
-        <v>48.7063348125144</v>
+        <v>44.3764630390154</v>
       </c>
       <c r="H15">
-        <v>32.6416395928317</v>
+        <v>38.3586505779017</v>
       </c>
       <c r="I15">
-        <v>19.0241881329128</v>
+        <v>17.2916893486989</v>
       </c>
       <c r="J15">
-        <v>132.070968459875</v>
+        <v>125.005998990322</v>
       </c>
       <c r="K15">
-        <v>22.3015988764778</v>
+        <v>32.3932313096693</v>
       </c>
       <c r="L15">
-        <v>34.3871322838618</v>
+        <v>31.9453432399371</v>
       </c>
       <c r="M15">
-        <v>156.124073638237</v>
+        <v>151.700923008223</v>
       </c>
       <c r="N15">
-        <v>74.63649514913951</v>
+        <v>79.3361270378593</v>
       </c>
       <c r="O15">
-        <v>1965.59840211707</v>
+        <v>1963.27359239175</v>
       </c>
       <c r="P15">
-        <v>39.6719333679209</v>
+        <v>37.4842150305846</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>683.494855947582</v>
+        <v>675.9388619755709</v>
       </c>
       <c r="C16">
-        <v>57.7835309073704</v>
+        <v>58.3886859431285</v>
       </c>
       <c r="D16">
-        <v>4.18517534858114</v>
+        <v>4.61010509953841</v>
       </c>
       <c r="E16">
-        <v>24.2423451821994</v>
+        <v>22.6183250458097</v>
       </c>
       <c r="F16">
-        <v>2.05298663014342</v>
+        <v>2.43881129021487</v>
       </c>
       <c r="G16">
-        <v>16.7243403907725</v>
+        <v>15.1563494013722</v>
       </c>
       <c r="H16">
-        <v>11.1716114345808</v>
+        <v>11.5563441997064</v>
       </c>
       <c r="I16">
-        <v>6.34803825600793</v>
+        <v>6.52552260717794</v>
       </c>
       <c r="J16">
-        <v>45.2748248321034</v>
+        <v>41.8768232205423</v>
       </c>
       <c r="K16">
-        <v>37.4951787901935</v>
+        <v>41.3056978465208</v>
       </c>
       <c r="L16">
-        <v>17.9720074145265</v>
+        <v>18.8672117386327</v>
       </c>
       <c r="M16">
-        <v>20.8144652738543</v>
+        <v>22.1793586148194</v>
       </c>
       <c r="N16">
-        <v>28.7279687571279</v>
+        <v>26.7547785292954</v>
       </c>
       <c r="O16">
-        <v>1015.1737649663</v>
+        <v>1026.29208304456</v>
       </c>
       <c r="P16">
-        <v>64.7293793028975</v>
+        <v>68.24859611833131</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>632.4618925114691</v>
+        <v>636.3684881971481</v>
       </c>
       <c r="C17">
-        <v>16.2375165150798</v>
+        <v>18.002932199961</v>
       </c>
       <c r="D17">
-        <v>4.75205107197263</v>
+        <v>3.47037120048991</v>
       </c>
       <c r="E17">
-        <v>23.7203717261436</v>
+        <v>19.662365973924</v>
       </c>
       <c r="F17">
-        <v>11.2522095555309</v>
+        <v>10.8453644633417</v>
       </c>
       <c r="G17">
-        <v>5.23386383671947</v>
+        <v>5.70421949528339</v>
       </c>
       <c r="H17">
-        <v>6.06981312625906</v>
+        <v>7.7327884234614</v>
       </c>
       <c r="I17">
-        <v>6.56342054961397</v>
+        <v>5.77393523340536</v>
       </c>
       <c r="J17">
-        <v>18.7411208551104</v>
+        <v>17.0064144178127</v>
       </c>
       <c r="K17">
-        <v>5.32687918202077</v>
+        <v>7.43350424547389</v>
       </c>
       <c r="L17">
-        <v>11.9242748598556</v>
+        <v>9.395814588447911</v>
       </c>
       <c r="M17">
-        <v>57.2031979727278</v>
+        <v>58.1477016926473</v>
       </c>
       <c r="N17">
-        <v>12.2255396641104</v>
+        <v>10.4067687235996</v>
       </c>
       <c r="O17">
-        <v>980.529099660925</v>
+        <v>986.17271097871</v>
       </c>
       <c r="P17">
-        <v>46.0612926494468</v>
+        <v>44.8626608868993</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1263.80189440836</v>
+        <v>1260.00598916254</v>
       </c>
       <c r="C18">
-        <v>24.2329799273338</v>
+        <v>23.3864470567443</v>
       </c>
       <c r="D18">
-        <v>2.14551245506114</v>
+        <v>5.42079782742285</v>
       </c>
       <c r="E18">
-        <v>35.106485156682</v>
+        <v>30.2722599521282</v>
       </c>
       <c r="F18">
-        <v>33.2320826963856</v>
+        <v>32.4326971016318</v>
       </c>
       <c r="G18">
-        <v>23.3680848172489</v>
+        <v>23.3182541094183</v>
       </c>
       <c r="H18">
-        <v>15.1334673579805</v>
+        <v>12.8880902509816</v>
       </c>
       <c r="I18">
-        <v>5.71086272567152</v>
+        <v>4.42899245077953</v>
       </c>
       <c r="J18">
-        <v>29.0829978748098</v>
+        <v>25.5643822061168</v>
       </c>
       <c r="K18">
-        <v>10.9103874733025</v>
+        <v>13.5380369658807</v>
       </c>
       <c r="L18">
-        <v>27.5816978419902</v>
+        <v>23.9382604148637</v>
       </c>
       <c r="M18">
-        <v>56.0245642125883</v>
+        <v>59.6222315642219</v>
       </c>
       <c r="N18">
-        <v>17.8479744023889</v>
+        <v>20.2273156201366</v>
       </c>
       <c r="O18">
-        <v>1308.32256078649</v>
+        <v>1315.69864935599</v>
       </c>
       <c r="P18">
-        <v>44.4835462570652</v>
+        <v>50.8257996762026</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1378.55695884113</v>
+        <v>1355.91279025252</v>
       </c>
       <c r="C19">
-        <v>31.4072447443862</v>
+        <v>29.2241992256059</v>
       </c>
       <c r="D19">
-        <v>4.97822780927338</v>
+        <v>9.96549271897344</v>
       </c>
       <c r="E19">
-        <v>38.6907319256836</v>
+        <v>31.9330815768323</v>
       </c>
       <c r="F19">
-        <v>78.3954885357166</v>
+        <v>77.3985226707689</v>
       </c>
       <c r="G19">
-        <v>35.9054373036199</v>
+        <v>33.8326956021442</v>
       </c>
       <c r="H19">
-        <v>6.06949060162559</v>
+        <v>7.4690943454901</v>
       </c>
       <c r="I19">
-        <v>3.27104846652813</v>
+        <v>3.26585556910543</v>
       </c>
       <c r="J19">
-        <v>23.1067879646777</v>
+        <v>20.9671457199948</v>
       </c>
       <c r="K19">
-        <v>5.97296688798762</v>
+        <v>7.64506778002182</v>
       </c>
       <c r="L19">
-        <v>1.24867906335458</v>
+        <v>1.34164441637316</v>
       </c>
       <c r="M19">
-        <v>23.5199893484773</v>
+        <v>22.2183293739667</v>
       </c>
       <c r="N19">
-        <v>11.6600426324286</v>
+        <v>11.9343399080381</v>
       </c>
       <c r="O19">
-        <v>1364.27734554499</v>
+        <v>1350.66476958178</v>
       </c>
       <c r="P19">
-        <v>38.7811243165612</v>
+        <v>36.8844298427507</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>367.02639206742</v>
+        <v>362.684765653226</v>
       </c>
       <c r="C20">
-        <v>9.058406731287979</v>
+        <v>7.62634910419779</v>
       </c>
       <c r="D20">
-        <v>5.23553450341564</v>
+        <v>5.63236899879385</v>
       </c>
       <c r="E20">
-        <v>28.018949447838</v>
+        <v>27.8983471055727</v>
       </c>
       <c r="F20">
-        <v>0.98826434903988</v>
+        <v>0.867876084978372</v>
       </c>
       <c r="G20">
-        <v>2.20717004037781</v>
+        <v>2.32693803633953</v>
       </c>
       <c r="H20">
-        <v>1.00365100204351</v>
+        <v>0.916730841895002</v>
       </c>
       <c r="I20">
-        <v>1.63143418161241</v>
+        <v>1.74560475100568</v>
       </c>
       <c r="J20">
-        <v>4.33416670781746</v>
+        <v>4.10532548675693</v>
       </c>
       <c r="K20">
-        <v>0.8843954596863151</v>
+        <v>1.5264336508387</v>
       </c>
       <c r="L20">
-        <v>5.77122291794766</v>
+        <v>6.00179140009179</v>
       </c>
       <c r="M20">
-        <v>16.3268985835687</v>
+        <v>15.7386822064949</v>
       </c>
       <c r="N20">
-        <v>4.84596700225815</v>
+        <v>4.83237491042731</v>
       </c>
       <c r="O20">
-        <v>481.557859368069</v>
+        <v>482.589017465128</v>
       </c>
       <c r="P20">
-        <v>14.542188421598</v>
+        <v>15.5937574743266</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1449.5309850084</v>
+        <v>1439.2807662909</v>
       </c>
       <c r="C21">
-        <v>18.9513494790601</v>
+        <v>17.238791135015</v>
       </c>
       <c r="D21">
-        <v>1.65415690259206</v>
+        <v>2.07537653829921</v>
       </c>
       <c r="E21">
-        <v>20.8573879500457</v>
+        <v>17.3167247386583</v>
       </c>
       <c r="F21">
-        <v>3.73119349502189</v>
+        <v>3.00453932871442</v>
       </c>
       <c r="G21">
-        <v>14.3919323555147</v>
+        <v>15.5943683149691</v>
       </c>
       <c r="H21">
-        <v>4.29368897759267</v>
+        <v>3.7166665241809</v>
       </c>
       <c r="I21">
-        <v>11.4745867073268</v>
+        <v>9.369898699253801</v>
       </c>
       <c r="J21">
-        <v>23.3429519710339</v>
+        <v>22.009655648438</v>
       </c>
       <c r="K21">
-        <v>0.997330612200811</v>
+        <v>2.41959442796147</v>
       </c>
       <c r="L21">
-        <v>27.0243681870872</v>
+        <v>22.3322059194865</v>
       </c>
       <c r="M21">
-        <v>20.8159139631384</v>
+        <v>20.0164936072819</v>
       </c>
       <c r="N21">
-        <v>8.83392097785838</v>
+        <v>14.3832010267406</v>
       </c>
       <c r="O21">
-        <v>2056.55679593405</v>
+        <v>2060.61922964218</v>
       </c>
       <c r="P21">
-        <v>19.6696997453504</v>
+        <v>18.0326686454625</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1685.37093933961</v>
+        <v>1682.98613618463</v>
       </c>
       <c r="C22">
-        <v>16.4789852575042</v>
+        <v>15.4150853595279</v>
       </c>
       <c r="D22">
-        <v>10.9367661518632</v>
+        <v>12.3961958180899</v>
       </c>
       <c r="E22">
-        <v>41.4453607130125</v>
+        <v>35.3303815963365</v>
       </c>
       <c r="F22">
-        <v>2.64301201799093</v>
+        <v>2.15958051983804</v>
       </c>
       <c r="G22">
-        <v>23.6517298104608</v>
+        <v>23.4015527950361</v>
       </c>
       <c r="H22">
-        <v>12.8964386763652</v>
+        <v>12.5290856357908</v>
       </c>
       <c r="I22">
-        <v>12.8358891665098</v>
+        <v>9.427786092817611</v>
       </c>
       <c r="J22">
-        <v>34.1634769378682</v>
+        <v>34.8578821619445</v>
       </c>
       <c r="K22">
-        <v>5.32340374067549</v>
+        <v>8.05345220855445</v>
       </c>
       <c r="L22">
-        <v>97.1480274278513</v>
+        <v>86.50407558139879</v>
       </c>
       <c r="M22">
-        <v>13.2260220932184</v>
+        <v>14.6621653955988</v>
       </c>
       <c r="N22">
-        <v>49.5493166236558</v>
+        <v>50.0583926379625</v>
       </c>
       <c r="O22">
-        <v>2352.54446713344</v>
+        <v>2377.81186231392</v>
       </c>
       <c r="P22">
-        <v>10.4815098504312</v>
+        <v>11.3307001074677</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2835.02729080082</v>
+        <v>2821.00052970988</v>
       </c>
       <c r="C23">
-        <v>25.2882803912561</v>
+        <v>26.0968466619675</v>
       </c>
       <c r="D23">
-        <v>8.03151388156676</v>
+        <v>7.95762630653789</v>
       </c>
       <c r="E23">
-        <v>36.7662332242359</v>
+        <v>35.3686837050072</v>
       </c>
       <c r="F23">
-        <v>2.61322592760017</v>
+        <v>4.99072788192804</v>
       </c>
       <c r="G23">
-        <v>52.865355626675</v>
+        <v>50.8509281084197</v>
       </c>
       <c r="H23">
-        <v>43.7530157500439</v>
+        <v>48.2941437363464</v>
       </c>
       <c r="I23">
-        <v>8.13111698052481</v>
+        <v>11.9796108099688</v>
       </c>
       <c r="J23">
-        <v>117.033825154336</v>
+        <v>105.683113956445</v>
       </c>
       <c r="K23">
-        <v>58.8713231215139</v>
+        <v>71.7812325484992</v>
       </c>
       <c r="L23">
-        <v>24.2735031347997</v>
+        <v>30.8074603273833</v>
       </c>
       <c r="M23">
-        <v>473.795007227392</v>
+        <v>464.39804318059</v>
       </c>
       <c r="N23">
-        <v>72.6899600719869</v>
+        <v>74.33847102153101</v>
       </c>
       <c r="O23">
-        <v>3149.20299044611</v>
+        <v>3135.68419580259</v>
       </c>
       <c r="P23">
-        <v>37.5579600421806</v>
+        <v>40.5233121589579</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1104.77417387103</v>
+        <v>1107.87993631412</v>
       </c>
       <c r="C24">
-        <v>44.3195738217769</v>
+        <v>43.000478820493</v>
       </c>
       <c r="D24">
-        <v>5.23666494000184</v>
+        <v>5.67482026874472</v>
       </c>
       <c r="E24">
-        <v>49.5127217478938</v>
+        <v>46.4999917255744</v>
       </c>
       <c r="F24">
-        <v>9.293897162914311</v>
+        <v>9.54223133791503</v>
       </c>
       <c r="G24">
-        <v>25.703188294941</v>
+        <v>24.7695224125833</v>
       </c>
       <c r="H24">
-        <v>14.7955376319225</v>
+        <v>15.9764048774079</v>
       </c>
       <c r="I24">
-        <v>10.9501018567575</v>
+        <v>13.1259716816614</v>
       </c>
       <c r="J24">
-        <v>53.797557058878</v>
+        <v>45.5577260386094</v>
       </c>
       <c r="K24">
-        <v>19.5492972124805</v>
+        <v>26.3303185052662</v>
       </c>
       <c r="L24">
-        <v>68.478451096961</v>
+        <v>63.683774569746</v>
       </c>
       <c r="M24">
-        <v>20.2427079566938</v>
+        <v>19.9251448541827</v>
       </c>
       <c r="N24">
-        <v>59.1421605779492</v>
+        <v>63.3385089738743</v>
       </c>
       <c r="O24">
-        <v>1884.54403483442</v>
+        <v>1884.7322619184</v>
       </c>
       <c r="P24">
-        <v>90.3079684334523</v>
+        <v>85.5359035280468</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>907.7855218813101</v>
+        <v>909.567827096284</v>
       </c>
       <c r="C25">
-        <v>39.1666521701155</v>
+        <v>37.1031778650899</v>
       </c>
       <c r="D25">
-        <v>10.6843949782038</v>
+        <v>11.4497855274743</v>
       </c>
       <c r="E25">
-        <v>41.5398040655972</v>
+        <v>40.1692663441434</v>
       </c>
       <c r="F25">
-        <v>12.3943189313755</v>
+        <v>15.0954620959284</v>
       </c>
       <c r="G25">
-        <v>13.329267387373</v>
+        <v>10.5733770436423</v>
       </c>
       <c r="H25">
-        <v>9.69582660449688</v>
+        <v>9.029340574896951</v>
       </c>
       <c r="I25">
-        <v>6.83074409532732</v>
+        <v>6.41294472958699</v>
       </c>
       <c r="J25">
-        <v>9.247039087024261</v>
+        <v>9.179484015577129</v>
       </c>
       <c r="K25">
-        <v>3.45911343283484</v>
+        <v>6.71422546029175</v>
       </c>
       <c r="L25">
-        <v>13.6017317627532</v>
+        <v>12.4628318520975</v>
       </c>
       <c r="M25">
-        <v>37.1015082466575</v>
+        <v>34.0011326484767</v>
       </c>
       <c r="N25">
-        <v>38.2676030228737</v>
+        <v>41.6531453103504</v>
       </c>
       <c r="O25">
-        <v>768.0293303488</v>
+        <v>759.637525517457</v>
       </c>
       <c r="P25">
-        <v>28.9486875728637</v>
+        <v>33.4818143378929</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1457.3168685432</v>
+        <v>1468.34467594398</v>
       </c>
       <c r="C26">
-        <v>42.073558824559</v>
+        <v>47.303670858547</v>
       </c>
       <c r="D26">
-        <v>3.67066926026604</v>
+        <v>4.60037524694003</v>
       </c>
       <c r="E26">
-        <v>41.2403588098772</v>
+        <v>39.2191838783319</v>
       </c>
       <c r="F26">
-        <v>8.249349242022481</v>
+        <v>9.964098892677111</v>
       </c>
       <c r="G26">
-        <v>20.1943871598539</v>
+        <v>23.1046718305727</v>
       </c>
       <c r="H26">
-        <v>13.8204656239428</v>
+        <v>13.9392616579429</v>
       </c>
       <c r="I26">
-        <v>14.6011894012964</v>
+        <v>13.3101353351235</v>
       </c>
       <c r="J26">
-        <v>24.9743502703129</v>
+        <v>36.0139081621198</v>
       </c>
       <c r="K26">
-        <v>11.9338376682725</v>
+        <v>17.8158776427367</v>
       </c>
       <c r="L26">
-        <v>24.7354506133284</v>
+        <v>27.2993211243284</v>
       </c>
       <c r="M26">
-        <v>73.5951684559182</v>
+        <v>65.3899008271973</v>
       </c>
       <c r="N26">
-        <v>19.0759071347004</v>
+        <v>25.3369771024207</v>
       </c>
       <c r="O26">
-        <v>2127.20278103591</v>
+        <v>2091.86618583766</v>
       </c>
       <c r="P26">
-        <v>54.6848841344049</v>
+        <v>54.213804455378</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.339235437794</v>
+        <v>249.536900980756</v>
       </c>
       <c r="C27">
-        <v>0.978588239785505</v>
+        <v>2.01368903173212</v>
       </c>
       <c r="D27">
-        <v>2.28760708738875</v>
+        <v>1.50287220193327</v>
       </c>
       <c r="E27">
-        <v>9.839220314512341</v>
+        <v>8.93868896226879</v>
       </c>
       <c r="F27">
-        <v>4.66905510123432</v>
+        <v>4.58528257286338</v>
       </c>
       <c r="G27">
-        <v>0.295192011135588</v>
+        <v>0.373865721007867</v>
       </c>
       <c r="H27">
-        <v>0.236342424699853</v>
+        <v>0.135885330020456</v>
       </c>
       <c r="I27">
-        <v>1.91388326992244</v>
+        <v>2.27759151000947</v>
       </c>
       <c r="J27">
-        <v>2.87231056606095</v>
+        <v>2.61179237104244</v>
       </c>
       <c r="K27">
-        <v>0.202286752745601</v>
+        <v>0.393267147619696</v>
       </c>
       <c r="L27">
-        <v>1.85886902861017</v>
+        <v>1.44837937004138</v>
       </c>
       <c r="M27">
-        <v>0.387795738974486</v>
+        <v>0.462260075220087</v>
       </c>
       <c r="N27">
-        <v>3.29049716222572</v>
+        <v>3.24231268068283</v>
       </c>
       <c r="O27">
-        <v>327.460256224792</v>
+        <v>328.403583509819</v>
       </c>
       <c r="P27">
-        <v>40.4838165763531</v>
+        <v>37.9700631532381</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>377.79692662281</v>
+        <v>380.612231556019</v>
       </c>
       <c r="C28">
-        <v>26.1625258752041</v>
+        <v>27.3110973620729</v>
       </c>
       <c r="D28">
-        <v>1.7755682501291</v>
+        <v>1.90938679554937</v>
       </c>
       <c r="E28">
-        <v>6.75346929532877</v>
+        <v>6.21552407989521</v>
       </c>
       <c r="F28">
-        <v>1.37130300554381</v>
+        <v>1.28440159520183</v>
       </c>
       <c r="G28">
-        <v>3.50235782172186</v>
+        <v>3.36798918915048</v>
       </c>
       <c r="H28">
-        <v>8.426388800684601</v>
+        <v>7.89113316558247</v>
       </c>
       <c r="I28">
-        <v>2.75015206282523</v>
+        <v>2.91595086011017</v>
       </c>
       <c r="J28">
-        <v>20.1670456646329</v>
+        <v>18.9297001260111</v>
       </c>
       <c r="K28">
-        <v>7.28971669159056</v>
+        <v>7.78951538034203</v>
       </c>
       <c r="L28">
-        <v>11.2922232275069</v>
+        <v>12.0010626649217</v>
       </c>
       <c r="M28">
-        <v>8.46164059867473</v>
+        <v>7.73348954279938</v>
       </c>
       <c r="N28">
-        <v>7.93158943572382</v>
+        <v>9.00782622072675</v>
       </c>
       <c r="O28">
-        <v>635.372843089146</v>
+        <v>634.514912050207</v>
       </c>
       <c r="P28">
-        <v>77.06329958923391</v>
+        <v>75.5370849205374</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>547.046268149804</v>
+        <v>561.7102619394821</v>
       </c>
       <c r="C29">
-        <v>6.53786668255547</v>
+        <v>4.94465055898453</v>
       </c>
       <c r="D29">
-        <v>0.770964224206981</v>
+        <v>2.05261972042118</v>
       </c>
       <c r="E29">
-        <v>3.5728036042472</v>
+        <v>3.33841714113969</v>
       </c>
       <c r="F29">
-        <v>24.1467226522568</v>
+        <v>23.0283871989881</v>
       </c>
       <c r="G29">
-        <v>5.07846499853448</v>
+        <v>4.04049470212646</v>
       </c>
       <c r="H29">
-        <v>0.5960204340969411</v>
+        <v>0.641319915815601</v>
       </c>
       <c r="I29">
-        <v>0.867080995316784</v>
+        <v>0.918767952349102</v>
       </c>
       <c r="J29">
-        <v>3.80302328154159</v>
+        <v>3.85884609441891</v>
       </c>
       <c r="K29">
-        <v>0.783665923961465</v>
+        <v>1.12154391878081</v>
       </c>
       <c r="L29">
-        <v>2.75388092737616</v>
+        <v>2.38505443528309</v>
       </c>
       <c r="M29">
-        <v>2.56281259519266</v>
+        <v>2.79018987607058</v>
       </c>
       <c r="N29">
-        <v>8.531586459940749</v>
+        <v>8.619661905779729</v>
       </c>
       <c r="O29">
-        <v>904.0332293992479</v>
+        <v>901.06701427108</v>
       </c>
       <c r="P29">
-        <v>3.09996315690831</v>
+        <v>3.50360228120734</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>279.621592525288</v>
+        <v>276.184079184028</v>
       </c>
       <c r="C30">
-        <v>3.11359408224593</v>
+        <v>3.29109439854027</v>
       </c>
       <c r="D30">
-        <v>2.73087834266135</v>
+        <v>3.32594511669258</v>
       </c>
       <c r="E30">
-        <v>11.7603042730509</v>
+        <v>10.9206944536926</v>
       </c>
       <c r="F30">
-        <v>0.186719669015815</v>
+        <v>0.579450735792688</v>
       </c>
       <c r="G30">
-        <v>4.27878102543492</v>
+        <v>4.43137782254438</v>
       </c>
       <c r="H30">
-        <v>4.13576607790631</v>
+        <v>3.9571292381651</v>
       </c>
       <c r="I30">
-        <v>1.36343109197726</v>
+        <v>1.76125861527115</v>
       </c>
       <c r="J30">
-        <v>14.1539474427352</v>
+        <v>15.2104070585467</v>
       </c>
       <c r="K30">
-        <v>3.91345464284976</v>
+        <v>5.44344897009622</v>
       </c>
       <c r="L30">
-        <v>35.4543652584417</v>
+        <v>34.0040288233595</v>
       </c>
       <c r="M30">
-        <v>8.521014437042989</v>
+        <v>8.233718421066561</v>
       </c>
       <c r="N30">
-        <v>11.6161311909367</v>
+        <v>11.9049722752836</v>
       </c>
       <c r="O30">
-        <v>476.739753196964</v>
+        <v>478.307465089913</v>
       </c>
       <c r="P30">
-        <v>5.9857387029693</v>
+        <v>5.7265692542403</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2389.32410713758</v>
+        <v>2367.01765229664</v>
       </c>
       <c r="C31">
-        <v>52.8212377907701</v>
+        <v>49.0551283094703</v>
       </c>
       <c r="D31">
-        <v>11.0044167757564</v>
+        <v>19.0378055261378</v>
       </c>
       <c r="E31">
-        <v>45.0522164859551</v>
+        <v>37.5937186487613</v>
       </c>
       <c r="F31">
-        <v>6.47309069704123</v>
+        <v>6.5504405928813</v>
       </c>
       <c r="G31">
-        <v>74.485681448199</v>
+        <v>80.5416645842094</v>
       </c>
       <c r="H31">
-        <v>3.99923517079622</v>
+        <v>5.84527748192177</v>
       </c>
       <c r="I31">
-        <v>15.1984064297403</v>
+        <v>14.5573997132595</v>
       </c>
       <c r="J31">
-        <v>22.5114922501493</v>
+        <v>24.3227596050878</v>
       </c>
       <c r="K31">
-        <v>5.12210402470287</v>
+        <v>6.26374052210969</v>
       </c>
       <c r="L31">
-        <v>48.6063463470863</v>
+        <v>46.0683363660812</v>
       </c>
       <c r="M31">
-        <v>18.7467481080397</v>
+        <v>16.9564422128267</v>
       </c>
       <c r="N31">
-        <v>41.750709252209</v>
+        <v>49.2882988279473</v>
       </c>
       <c r="O31">
-        <v>3111.53513443938</v>
+        <v>3106.01688809588</v>
       </c>
       <c r="P31">
-        <v>15.016828116707</v>
+        <v>12.7795809408982</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>544.363917987022</v>
+        <v>555.367155205508</v>
       </c>
       <c r="C32">
-        <v>3.47697370818683</v>
+        <v>2.89254718172907</v>
       </c>
       <c r="D32">
-        <v>0.242281079434342</v>
+        <v>0.57874324807744</v>
       </c>
       <c r="E32">
-        <v>4.64997499327174</v>
+        <v>3.15710595755249</v>
       </c>
       <c r="F32">
-        <v>19.0080070618109</v>
+        <v>19.5092824282148</v>
       </c>
       <c r="G32">
-        <v>1.05536295629042</v>
+        <v>1.69257901247708</v>
       </c>
       <c r="H32">
-        <v>1.4653953560062</v>
+        <v>0.872872515164808</v>
       </c>
       <c r="I32">
-        <v>1.57920071330623</v>
+        <v>1.75686787935542</v>
       </c>
       <c r="J32">
-        <v>2.16211453775024</v>
+        <v>2.61501624364174</v>
       </c>
       <c r="K32">
-        <v>2.49405875487147</v>
+        <v>1.8979369791041</v>
       </c>
       <c r="L32">
-        <v>10.3003704551996</v>
+        <v>8.686266964734701</v>
       </c>
       <c r="M32">
-        <v>2.04205387892279</v>
+        <v>3.18072368661508</v>
       </c>
       <c r="N32">
-        <v>8.812885505237571</v>
+        <v>7.74189455755646</v>
       </c>
       <c r="O32">
-        <v>649.513558319204</v>
+        <v>642.9479127560101</v>
       </c>
       <c r="P32">
-        <v>19.404206715267</v>
+        <v>18.9388839943328</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5727.62192212697</v>
+        <v>5728.58656811772</v>
       </c>
       <c r="C33">
-        <v>66.4077321778687</v>
+        <v>67.79492665488441</v>
       </c>
       <c r="D33">
-        <v>21.5805895538574</v>
+        <v>24.9853515377243</v>
       </c>
       <c r="E33">
-        <v>66.718122631188</v>
+        <v>59.7136762762393</v>
       </c>
       <c r="F33">
-        <v>4.18321748889761</v>
+        <v>5.91028447697457</v>
       </c>
       <c r="G33">
-        <v>59.2395464114544</v>
+        <v>55.9380436928544</v>
       </c>
       <c r="H33">
-        <v>22.8801317585198</v>
+        <v>25.1299916949955</v>
       </c>
       <c r="I33">
-        <v>17.7022775333</v>
+        <v>19.2848653578533</v>
       </c>
       <c r="J33">
-        <v>81.2086404845887</v>
+        <v>77.6082017806998</v>
       </c>
       <c r="K33">
-        <v>59.0336448196831</v>
+        <v>59.5310892498305</v>
       </c>
       <c r="L33">
-        <v>98.396132555151</v>
+        <v>98.243092385765</v>
       </c>
       <c r="M33">
-        <v>53.5242956251583</v>
+        <v>48.2871508781094</v>
       </c>
       <c r="N33">
-        <v>121.320263161004</v>
+        <v>125.8356902658</v>
       </c>
       <c r="O33">
-        <v>6482.4595941969</v>
+        <v>6474.69966796741</v>
       </c>
       <c r="P33">
-        <v>82.3990382084053</v>
+        <v>76.0191371854728</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2349.3456344438</v>
+        <v>2348.73049172083</v>
       </c>
       <c r="C34">
-        <v>60.4854531393182</v>
+        <v>58.171820750246</v>
       </c>
       <c r="D34">
-        <v>94.7972609303783</v>
+        <v>92.4847876458127</v>
       </c>
       <c r="E34">
-        <v>44.4703276124903</v>
+        <v>41.3505370615726</v>
       </c>
       <c r="F34">
-        <v>5.01804867007684</v>
+        <v>5.65657661802908</v>
       </c>
       <c r="G34">
-        <v>32.3529316890867</v>
+        <v>34.3949720189874</v>
       </c>
       <c r="H34">
-        <v>39.048900307653</v>
+        <v>39.6754232775202</v>
       </c>
       <c r="I34">
-        <v>10.3697082566638</v>
+        <v>9.697053280620089</v>
       </c>
       <c r="J34">
-        <v>43.3417796362661</v>
+        <v>42.4125876512876</v>
       </c>
       <c r="K34">
-        <v>7.20111347433508</v>
+        <v>18.1308980793806</v>
       </c>
       <c r="L34">
-        <v>92.381987806789</v>
+        <v>89.9329796083361</v>
       </c>
       <c r="M34">
-        <v>25.5931985212645</v>
+        <v>32.6516218311299</v>
       </c>
       <c r="N34">
-        <v>115.651109109345</v>
+        <v>109.926463741289</v>
       </c>
       <c r="O34">
-        <v>2788.1295033594</v>
+        <v>2798.88218708379</v>
       </c>
       <c r="P34">
-        <v>47.8226694391149</v>
+        <v>50.3846826071223</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>157.563183345396</v>
+        <v>155.456417552311</v>
       </c>
       <c r="C35">
-        <v>6.275235191767</v>
+        <v>6.41561960888989</v>
       </c>
       <c r="D35">
-        <v>0.31127898080926</v>
+        <v>0.521850196959626</v>
       </c>
       <c r="E35">
-        <v>2.04176724841138</v>
+        <v>1.90562116662594</v>
       </c>
       <c r="F35">
-        <v>3.34844100779304</v>
+        <v>3.22393993025729</v>
       </c>
       <c r="G35">
-        <v>0.853556480623622</v>
+        <v>0.668714516334132</v>
       </c>
       <c r="H35">
-        <v>0.122947379776123</v>
+        <v>0.477534165599804</v>
       </c>
       <c r="I35">
-        <v>0.7581463623935349</v>
+        <v>0.713721077246629</v>
       </c>
       <c r="J35">
-        <v>2.67491744512143</v>
+        <v>2.69162315367557</v>
       </c>
       <c r="K35">
-        <v>4.29989257582589</v>
+        <v>4.18159906353834</v>
       </c>
       <c r="L35">
-        <v>2.37942872556512</v>
+        <v>2.51053849746016</v>
       </c>
       <c r="M35">
-        <v>1.86827802742255</v>
+        <v>1.68861154729564</v>
       </c>
       <c r="N35">
-        <v>3.11535970249183</v>
+        <v>2.94626242577479</v>
       </c>
       <c r="O35">
-        <v>227.647861929276</v>
+        <v>230.017768764572</v>
       </c>
       <c r="P35">
-        <v>35.9588898142248</v>
+        <v>36.1090592146258</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3163.0570663517</v>
+        <v>3168.74359050874</v>
       </c>
       <c r="C36">
-        <v>46.1981877666396</v>
+        <v>49.0280563193859</v>
       </c>
       <c r="D36">
-        <v>11.4922115973924</v>
+        <v>10.8234535248129</v>
       </c>
       <c r="E36">
-        <v>111.905360661313</v>
+        <v>101.243485779405</v>
       </c>
       <c r="F36">
-        <v>28.0342225699007</v>
+        <v>27.9819210499561</v>
       </c>
       <c r="G36">
-        <v>72.5168191411596</v>
+        <v>76.1863027323629</v>
       </c>
       <c r="H36">
-        <v>73.6751340024919</v>
+        <v>74.3480280570269</v>
       </c>
       <c r="I36">
-        <v>33.1518728698755</v>
+        <v>33.0336276935567</v>
       </c>
       <c r="J36">
-        <v>168.733105118118</v>
+        <v>176.994546499015</v>
       </c>
       <c r="K36">
-        <v>42.9184396704634</v>
+        <v>60.0746465638724</v>
       </c>
       <c r="L36">
-        <v>54.185423908456</v>
+        <v>54.8886545498938</v>
       </c>
       <c r="M36">
-        <v>190.750236608982</v>
+        <v>184.381510110822</v>
       </c>
       <c r="N36">
-        <v>81.7220100485242</v>
+        <v>82.0334897881658</v>
       </c>
       <c r="O36">
-        <v>3859.36497453429</v>
+        <v>3830.35397088337</v>
       </c>
       <c r="P36">
-        <v>36.1402273659587</v>
+        <v>43.2212757029802</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1024.16281205468</v>
+        <v>1031.36509622925</v>
       </c>
       <c r="C37">
-        <v>18.3577735560227</v>
+        <v>17.2989912204956</v>
       </c>
       <c r="D37">
-        <v>2.29573234276053</v>
+        <v>3.07043399845888</v>
       </c>
       <c r="E37">
-        <v>19.0000621368095</v>
+        <v>17.4356962171557</v>
       </c>
       <c r="F37">
-        <v>28.030527742899</v>
+        <v>28.258920890822</v>
       </c>
       <c r="G37">
-        <v>5.75087915399891</v>
+        <v>7.6441252662072</v>
       </c>
       <c r="H37">
-        <v>20.5762872178385</v>
+        <v>22.4508700009105</v>
       </c>
       <c r="I37">
-        <v>6.67722068002074</v>
+        <v>11.044990516318</v>
       </c>
       <c r="J37">
-        <v>36.0101613901683</v>
+        <v>33.6297627603472</v>
       </c>
       <c r="K37">
-        <v>7.75219817478571</v>
+        <v>13.9678470560696</v>
       </c>
       <c r="L37">
-        <v>15.6739868462365</v>
+        <v>16.3095837411978</v>
       </c>
       <c r="M37">
-        <v>31.7950458040554</v>
+        <v>30.1158041346121</v>
       </c>
       <c r="N37">
-        <v>27.4080614404424</v>
+        <v>22.5890499653858</v>
       </c>
       <c r="O37">
-        <v>1130.27552730911</v>
+        <v>1125.46883241546</v>
       </c>
       <c r="P37">
-        <v>39.2821095087938</v>
+        <v>38.6310243419995</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1036.33195671828</v>
+        <v>1026.85681498043</v>
       </c>
       <c r="C38">
-        <v>25.3757890090485</v>
+        <v>24.4972960347821</v>
       </c>
       <c r="D38">
-        <v>6.41130273014168</v>
+        <v>7.04725014262846</v>
       </c>
       <c r="E38">
-        <v>42.5810535285969</v>
+        <v>43.5187039318006</v>
       </c>
       <c r="F38">
-        <v>1.3464395040395</v>
+        <v>1.18160759731916</v>
       </c>
       <c r="G38">
-        <v>5.64097677917219</v>
+        <v>6.02189545575189</v>
       </c>
       <c r="H38">
-        <v>1.85995306605805</v>
+        <v>1.89356956881768</v>
       </c>
       <c r="I38">
-        <v>1.25925113022118</v>
+        <v>1.03209416043821</v>
       </c>
       <c r="J38">
-        <v>30.1114295198291</v>
+        <v>27.8483430185381</v>
       </c>
       <c r="K38">
-        <v>2.27055345294251</v>
+        <v>1.91803471087025</v>
       </c>
       <c r="L38">
-        <v>73.2327808223048</v>
+        <v>71.9886294638229</v>
       </c>
       <c r="M38">
-        <v>18.5368093636009</v>
+        <v>16.9358189048284</v>
       </c>
       <c r="N38">
-        <v>41.8990072773224</v>
+        <v>39.8389726270473</v>
       </c>
       <c r="O38">
-        <v>1218.62585290572</v>
+        <v>1226.1264737039</v>
       </c>
       <c r="P38">
-        <v>41.6419852061147</v>
+        <v>45.1058355998632</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3605.42269704271</v>
+        <v>3594.38271750834</v>
       </c>
       <c r="C39">
-        <v>81.6144992342808</v>
+        <v>80.8989569791835</v>
       </c>
       <c r="D39">
-        <v>29.6038387745665</v>
+        <v>34.1639330323999</v>
       </c>
       <c r="E39">
-        <v>146.313391228558</v>
+        <v>134.42009634121</v>
       </c>
       <c r="F39">
-        <v>19.6579065416973</v>
+        <v>24.1030228294208</v>
       </c>
       <c r="G39">
-        <v>114.71853371618</v>
+        <v>107.756071770437</v>
       </c>
       <c r="H39">
-        <v>44.4069655937874</v>
+        <v>40.9983547804946</v>
       </c>
       <c r="I39">
-        <v>26.6109553735008</v>
+        <v>26.4942332039738</v>
       </c>
       <c r="J39">
-        <v>136.208614969603</v>
+        <v>141.245840334872</v>
       </c>
       <c r="K39">
-        <v>48.3779015682214</v>
+        <v>54.8060026564996</v>
       </c>
       <c r="L39">
-        <v>81.17393424938641</v>
+        <v>83.8184800814135</v>
       </c>
       <c r="M39">
-        <v>56.6231705756563</v>
+        <v>58.235815375694</v>
       </c>
       <c r="N39">
-        <v>102.025674190808</v>
+        <v>104.810810725622</v>
       </c>
       <c r="O39">
-        <v>4195.94814593839</v>
+        <v>4211.98362330756</v>
       </c>
       <c r="P39">
-        <v>60.1289819340385</v>
+        <v>61.401225988389</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>288.48748532056</v>
+        <v>282.193745741949</v>
       </c>
       <c r="C40">
-        <v>2.85725764061547</v>
+        <v>2.91270368178683</v>
       </c>
       <c r="D40">
-        <v>5.91002838891911</v>
+        <v>6.04906121758005</v>
       </c>
       <c r="E40">
-        <v>5.58380434645847</v>
+        <v>4.30497851846838</v>
       </c>
       <c r="F40">
-        <v>0.223481179586568</v>
+        <v>0.218178256700045</v>
       </c>
       <c r="G40">
-        <v>3.19488946642137</v>
+        <v>3.77448147380527</v>
       </c>
       <c r="H40">
-        <v>4.01660925302305</v>
+        <v>3.51684676117276</v>
       </c>
       <c r="I40">
-        <v>1.70942085445549</v>
+        <v>1.83639445520007</v>
       </c>
       <c r="J40">
-        <v>9.38253385853014</v>
+        <v>8.800152372973381</v>
       </c>
       <c r="K40">
-        <v>1.34729679298589</v>
+        <v>1.71867555133462</v>
       </c>
       <c r="L40">
-        <v>11.1348271271243</v>
+        <v>10.3321233815686</v>
       </c>
       <c r="M40">
-        <v>3.78883581633171</v>
+        <v>3.79258041284812</v>
       </c>
       <c r="N40">
-        <v>15.7509676428322</v>
+        <v>17.2658774723786</v>
       </c>
       <c r="O40">
-        <v>375.241785928628</v>
+        <v>377.236158654005</v>
       </c>
       <c r="P40">
-        <v>3.8840600428959</v>
+        <v>3.41864467269282</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1253.56282672304</v>
+        <v>1261.44974470904</v>
       </c>
       <c r="C41">
-        <v>10.8484059348094</v>
+        <v>10.0989124417636</v>
       </c>
       <c r="D41">
-        <v>60.7821187317892</v>
+        <v>60.9752056770221</v>
       </c>
       <c r="E41">
-        <v>29.2009464163927</v>
+        <v>28.552337412832</v>
       </c>
       <c r="F41">
-        <v>1.02491934928112</v>
+        <v>0.839024207136418</v>
       </c>
       <c r="G41">
-        <v>24.8186601225453</v>
+        <v>24.0798351647596</v>
       </c>
       <c r="H41">
-        <v>28.2371908361775</v>
+        <v>28.0746119237133</v>
       </c>
       <c r="I41">
-        <v>12.6059934384929</v>
+        <v>12.1633011409577</v>
       </c>
       <c r="J41">
-        <v>30.1145299672237</v>
+        <v>36.2453571487729</v>
       </c>
       <c r="K41">
-        <v>5.99360485805636</v>
+        <v>9.76457514304588</v>
       </c>
       <c r="L41">
-        <v>26.7205191913808</v>
+        <v>26.5921857625011</v>
       </c>
       <c r="M41">
-        <v>27.5050600442674</v>
+        <v>26.0598368744718</v>
       </c>
       <c r="N41">
-        <v>15.9593185895601</v>
+        <v>17.1561347790628</v>
       </c>
       <c r="O41">
-        <v>1336.73213123515</v>
+        <v>1328.3572157736</v>
       </c>
       <c r="P41">
-        <v>21.2112902294246</v>
+        <v>20.9728741397632</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>158.165509460492</v>
+        <v>159.583343757312</v>
       </c>
       <c r="C42">
-        <v>4.28933517172713</v>
+        <v>4.77615129135695</v>
       </c>
       <c r="D42">
-        <v>1.07573168385261</v>
+        <v>1.08193082625912</v>
       </c>
       <c r="E42">
-        <v>5.08493763274355</v>
+        <v>4.93287100287788</v>
       </c>
       <c r="F42">
-        <v>1.56695301154714</v>
+        <v>1.85041336024919</v>
       </c>
       <c r="G42">
-        <v>0.901111196219717</v>
+        <v>1.30106081884546</v>
       </c>
       <c r="H42">
-        <v>0.675840537177907</v>
+        <v>0.709488922384385</v>
       </c>
       <c r="I42">
-        <v>1.75771569071349</v>
+        <v>1.72318456671774</v>
       </c>
       <c r="J42">
-        <v>3.22262951607034</v>
+        <v>3.43077178567736</v>
       </c>
       <c r="K42">
-        <v>3.41794198804924</v>
+        <v>3.27075611757259</v>
       </c>
       <c r="L42">
-        <v>5.81912300157765</v>
+        <v>5.68621680620375</v>
       </c>
       <c r="M42">
-        <v>3.50472421309849</v>
+        <v>3.08271490432112</v>
       </c>
       <c r="N42">
-        <v>6.18297787336585</v>
+        <v>6.65195380683222</v>
       </c>
       <c r="O42">
-        <v>259.278381191829</v>
+        <v>262.065210198067</v>
       </c>
       <c r="P42">
-        <v>43.8802475824059</v>
+        <v>43.674227665031</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1728.84968932551</v>
+        <v>1747.65985392429</v>
       </c>
       <c r="C43">
-        <v>29.7597682359187</v>
+        <v>28.2138396131152</v>
       </c>
       <c r="D43">
-        <v>22.154609668942</v>
+        <v>26.8645314519983</v>
       </c>
       <c r="E43">
-        <v>62.2706986567642</v>
+        <v>55.2381421048236</v>
       </c>
       <c r="F43">
-        <v>7.60167776139071</v>
+        <v>10.7613202862497</v>
       </c>
       <c r="G43">
-        <v>35.9922556597068</v>
+        <v>32.8561827621589</v>
       </c>
       <c r="H43">
-        <v>41.0585009959583</v>
+        <v>44.5350592191194</v>
       </c>
       <c r="I43">
-        <v>22.1399167999108</v>
+        <v>17.3662380045544</v>
       </c>
       <c r="J43">
-        <v>59.6409715091856</v>
+        <v>50.9542578041693</v>
       </c>
       <c r="K43">
-        <v>14.2241413100591</v>
+        <v>24.7011298530539</v>
       </c>
       <c r="L43">
-        <v>40.1150347101914</v>
+        <v>34.0595366472568</v>
       </c>
       <c r="M43">
-        <v>109.240606454483</v>
+        <v>104.556980216167</v>
       </c>
       <c r="N43">
-        <v>49.8424913189192</v>
+        <v>51.4022083476742</v>
       </c>
       <c r="O43">
-        <v>1887.64496176564</v>
+        <v>1887.43517238783</v>
       </c>
       <c r="P43">
-        <v>48.9896528763115</v>
+        <v>44.6901153487786</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5645.82970830821</v>
+        <v>5633.09992623812</v>
       </c>
       <c r="C44">
-        <v>126.387775540873</v>
+        <v>121.11348251737</v>
       </c>
       <c r="D44">
-        <v>17.8406369280643</v>
+        <v>23.0172106230019</v>
       </c>
       <c r="E44">
-        <v>74.9090395162777</v>
+        <v>69.7393649677237</v>
       </c>
       <c r="F44">
-        <v>199.660150188516</v>
+        <v>196.279750686758</v>
       </c>
       <c r="G44">
-        <v>99.6720561994097</v>
+        <v>108.978143204305</v>
       </c>
       <c r="H44">
-        <v>30.9273708703435</v>
+        <v>33.6088653758927</v>
       </c>
       <c r="I44">
-        <v>42.272883327123</v>
+        <v>42.6825763194896</v>
       </c>
       <c r="J44">
-        <v>98.521157024593</v>
+        <v>103.378810511333</v>
       </c>
       <c r="K44">
-        <v>32.9910561913796</v>
+        <v>38.9967143316632</v>
       </c>
       <c r="L44">
-        <v>129.103935724066</v>
+        <v>143.140138345824</v>
       </c>
       <c r="M44">
-        <v>65.56995330014421</v>
+        <v>71.44126826583801</v>
       </c>
       <c r="N44">
-        <v>84.7398671156686</v>
+        <v>83.7596589752074</v>
       </c>
       <c r="O44">
-        <v>7491.5257111595</v>
+        <v>7533.82704190258</v>
       </c>
       <c r="P44">
-        <v>193.746307012778</v>
+        <v>187.691963785809</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>522.027611960633</v>
+        <v>519.005271940987</v>
       </c>
       <c r="C45">
-        <v>20.7846178503023</v>
+        <v>18.5729853739678</v>
       </c>
       <c r="D45">
-        <v>1.56394502320381</v>
+        <v>1.38994488230724</v>
       </c>
       <c r="E45">
-        <v>18.6717615171148</v>
+        <v>14.4740171780494</v>
       </c>
       <c r="F45">
-        <v>20.0970104402641</v>
+        <v>20.2422904123052</v>
       </c>
       <c r="G45">
-        <v>4.86526226273591</v>
+        <v>5.30702999613392</v>
       </c>
       <c r="H45">
-        <v>3.00646021149473</v>
+        <v>1.9905939555177</v>
       </c>
       <c r="I45">
-        <v>3.25726535011081</v>
+        <v>4.20529670488367</v>
       </c>
       <c r="J45">
-        <v>19.2996011648151</v>
+        <v>21.786170399174</v>
       </c>
       <c r="K45">
-        <v>1.80795742628201</v>
+        <v>2.7158904508799</v>
       </c>
       <c r="L45">
-        <v>15.3293828498321</v>
+        <v>15.1843023961559</v>
       </c>
       <c r="M45">
-        <v>13.6153805641218</v>
+        <v>14.0534458975181</v>
       </c>
       <c r="N45">
-        <v>27.240960896172</v>
+        <v>26.3266372407154</v>
       </c>
       <c r="O45">
-        <v>776.616814040054</v>
+        <v>795.492856058326</v>
       </c>
       <c r="P45">
-        <v>16.832123142708</v>
+        <v>16.8145079678504</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>136.204640742123</v>
+        <v>137.946830116538</v>
       </c>
       <c r="C46">
-        <v>3.71782314650632</v>
+        <v>3.57772361726347</v>
       </c>
       <c r="D46">
-        <v>0.524995667426546</v>
+        <v>0.57234019227403</v>
       </c>
       <c r="E46">
-        <v>4.31802087009073</v>
+        <v>4.63789570878259</v>
       </c>
       <c r="F46">
-        <v>0.340921552282163</v>
+        <v>0.401493585803539</v>
       </c>
       <c r="G46">
-        <v>1.65281695083816</v>
+        <v>1.43433578517627</v>
       </c>
       <c r="H46">
-        <v>1.07968130618813</v>
+        <v>1.10593661706097</v>
       </c>
       <c r="I46">
-        <v>1.97211262588437</v>
+        <v>1.71570053542553</v>
       </c>
       <c r="J46">
-        <v>4.04270658077152</v>
+        <v>3.56519507107122</v>
       </c>
       <c r="K46">
-        <v>0.858769494320768</v>
+        <v>2.14006532308031</v>
       </c>
       <c r="L46">
-        <v>9.87526258762593</v>
+        <v>10.0354926336797</v>
       </c>
       <c r="M46">
-        <v>2.54445367097343</v>
+        <v>2.45978226748222</v>
       </c>
       <c r="N46">
-        <v>7.86557484630637</v>
+        <v>7.44405596582267</v>
       </c>
       <c r="O46">
-        <v>235.997535647559</v>
+        <v>238.114290472524</v>
       </c>
       <c r="P46">
-        <v>9.5929996104941</v>
+        <v>9.081621952766311</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1950.83354237393</v>
+        <v>1928.31748808229</v>
       </c>
       <c r="C47">
-        <v>36.4137836227536</v>
+        <v>39.8800839763384</v>
       </c>
       <c r="D47">
-        <v>16.5445081781177</v>
+        <v>18.0848478780322</v>
       </c>
       <c r="E47">
-        <v>44.1558021120186</v>
+        <v>43.4633303802939</v>
       </c>
       <c r="F47">
-        <v>4.07721458090895</v>
+        <v>4.88175943496017</v>
       </c>
       <c r="G47">
-        <v>25.1473667435031</v>
+        <v>23.5682688761993</v>
       </c>
       <c r="H47">
-        <v>6.28967169959845</v>
+        <v>7.83130144867219</v>
       </c>
       <c r="I47">
-        <v>1.07643806978069</v>
+        <v>2.6091749166262</v>
       </c>
       <c r="J47">
-        <v>41.1647907225766</v>
+        <v>35.8017222694158</v>
       </c>
       <c r="K47">
-        <v>6.77429803889403</v>
+        <v>7.96090780056188</v>
       </c>
       <c r="L47">
-        <v>29.708302301018</v>
+        <v>25.801316214798</v>
       </c>
       <c r="M47">
-        <v>54.5808749090041</v>
+        <v>54.54831099624</v>
       </c>
       <c r="N47">
-        <v>25.9097251801593</v>
+        <v>31.2452004431558</v>
       </c>
       <c r="O47">
-        <v>2672.52719620097</v>
+        <v>2696.54700711194</v>
       </c>
       <c r="P47">
-        <v>26.0930819690013</v>
+        <v>22.1356687336826</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1688.12123134221</v>
+        <v>1666.78661517749</v>
       </c>
       <c r="C48">
-        <v>27.4466708305081</v>
+        <v>29.1781560894032</v>
       </c>
       <c r="D48">
-        <v>3.31472386822727</v>
+        <v>6.04841005907536</v>
       </c>
       <c r="E48">
-        <v>65.7538461757816</v>
+        <v>60.5685997684966</v>
       </c>
       <c r="F48">
-        <v>9.76985857582865</v>
+        <v>8.22554008090545</v>
       </c>
       <c r="G48">
-        <v>4.78254391416885</v>
+        <v>5.72316915731416</v>
       </c>
       <c r="H48">
-        <v>4.75113017673914</v>
+        <v>5.0828939846188</v>
       </c>
       <c r="I48">
-        <v>8.03149225590818</v>
+        <v>7.99652368388552</v>
       </c>
       <c r="J48">
-        <v>40.5779731379113</v>
+        <v>37.2591772171143</v>
       </c>
       <c r="K48">
-        <v>9.00310440657821</v>
+        <v>10.2423850380807</v>
       </c>
       <c r="L48">
-        <v>45.9288661970655</v>
+        <v>41.2938792985062</v>
       </c>
       <c r="M48">
-        <v>113.466530611183</v>
+        <v>114.182496818751</v>
       </c>
       <c r="N48">
-        <v>26.4594589486655</v>
+        <v>31.3278085979287</v>
       </c>
       <c r="O48">
-        <v>2097.56288329747</v>
+        <v>2130.23194143973</v>
       </c>
       <c r="P48">
-        <v>65.2028777606879</v>
+        <v>65.8759520070079</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>710.823395285117</v>
+        <v>707.831534551232</v>
       </c>
       <c r="C49">
-        <v>4.92142381948779</v>
+        <v>5.05250827509191</v>
       </c>
       <c r="D49">
-        <v>1.45042252379705</v>
+        <v>1.46969540516762</v>
       </c>
       <c r="E49">
-        <v>21.3163212176932</v>
+        <v>19.6874234498457</v>
       </c>
       <c r="F49">
-        <v>23.250613766993</v>
+        <v>23.357774658047</v>
       </c>
       <c r="G49">
-        <v>13.3153239793055</v>
+        <v>13.1354471690312</v>
       </c>
       <c r="H49">
-        <v>7.16125800162818</v>
+        <v>5.91605642531211</v>
       </c>
       <c r="I49">
-        <v>3.14727560475839</v>
+        <v>4.31519143834184</v>
       </c>
       <c r="J49">
-        <v>17.7675288495534</v>
+        <v>17.4765084403396</v>
       </c>
       <c r="K49">
-        <v>1.91933118455603</v>
+        <v>3.32800206274054</v>
       </c>
       <c r="L49">
-        <v>0.611069617947485</v>
+        <v>0.802954663459058</v>
       </c>
       <c r="M49">
-        <v>2.58905317229188</v>
+        <v>3.24052259200612</v>
       </c>
       <c r="N49">
-        <v>4.7057744003577</v>
+        <v>5.04217654126924</v>
       </c>
       <c r="O49">
-        <v>507.495737621754</v>
+        <v>512.7964859932461</v>
       </c>
       <c r="P49">
-        <v>5.84898643288371</v>
+        <v>6.32936646130778</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1263.75849563812</v>
+        <v>1275.58321782473</v>
       </c>
       <c r="C50">
-        <v>68.34344266971431</v>
+        <v>63.7481261763599</v>
       </c>
       <c r="D50">
-        <v>12.0740578524338</v>
+        <v>9.468942672641051</v>
       </c>
       <c r="E50">
-        <v>137.956713543915</v>
+        <v>129.272698271766</v>
       </c>
       <c r="F50">
-        <v>3.89449557183971</v>
+        <v>2.54447395892133</v>
       </c>
       <c r="G50">
-        <v>28.2531494492024</v>
+        <v>25.7296420746817</v>
       </c>
       <c r="H50">
-        <v>29.5363128794768</v>
+        <v>33.2479248546979</v>
       </c>
       <c r="I50">
-        <v>6.25178324587706</v>
+        <v>5.92469519051326</v>
       </c>
       <c r="J50">
-        <v>84.56417629659759</v>
+        <v>83.1121761832883</v>
       </c>
       <c r="K50">
-        <v>47.6464382937291</v>
+        <v>59.4112310095858</v>
       </c>
       <c r="L50">
-        <v>56.5887934010022</v>
+        <v>56.9234875294468</v>
       </c>
       <c r="M50">
-        <v>43.0049390042592</v>
+        <v>43.1139251099824</v>
       </c>
       <c r="N50">
-        <v>54.5152080058071</v>
+        <v>53.2810204101098</v>
       </c>
       <c r="O50">
-        <v>1905.63999371996</v>
+        <v>1899.70494314113</v>
       </c>
       <c r="P50">
-        <v>88.02173918978291</v>
+        <v>81.07124754073691</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>119.247905261975</v>
+        <v>120.058506085092</v>
       </c>
       <c r="C51">
-        <v>3.65511175544921</v>
+        <v>2.96965317747141</v>
       </c>
       <c r="D51">
-        <v>0.0222239457020188</v>
+        <v>0.0065907629445356</v>
       </c>
       <c r="E51">
-        <v>2.02558234394402</v>
+        <v>1.75087987731257</v>
       </c>
       <c r="F51">
-        <v>21.5526522935383</v>
+        <v>22.0079222189456</v>
       </c>
       <c r="G51">
-        <v>1.46496342034256</v>
+        <v>1.53614032783075</v>
       </c>
       <c r="H51">
-        <v>0.00805615852312668</v>
+        <v>0.00407096337087169</v>
       </c>
       <c r="I51">
-        <v>0.599911882180973</v>
+        <v>0.662854899116864</v>
       </c>
       <c r="J51">
-        <v>0.647452004873291</v>
+        <v>0.984935636626402</v>
       </c>
       <c r="K51">
-        <v>0.29642795031293</v>
+        <v>0.5047321612649</v>
       </c>
       <c r="L51">
-        <v>0.398032248442336</v>
+        <v>0.397494838146496</v>
       </c>
       <c r="M51">
-        <v>0.412464958500113</v>
+        <v>0.330786791121453</v>
       </c>
       <c r="N51">
-        <v>0.420832295959317</v>
+        <v>0.512269285716617</v>
       </c>
       <c r="O51">
-        <v>181.030927506625</v>
+        <v>178.946365296373</v>
       </c>
       <c r="P51">
-        <v>17.4560799472139</v>
+        <v>18.0504369179129</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1477.27984651102</v>
+        <v>1354.07935568367</v>
       </c>
       <c r="C2">
-        <v>25.7169347589041</v>
+        <v>22.0601186438745</v>
       </c>
       <c r="D2">
-        <v>28.9495962499343</v>
+        <v>35.5265772462993</v>
       </c>
       <c r="E2">
-        <v>48.2685134503623</v>
+        <v>53.3626020577889</v>
       </c>
       <c r="F2">
-        <v>22.5528423589457</v>
+        <v>24.9916116878003</v>
       </c>
       <c r="G2">
-        <v>11.0438830362305</v>
+        <v>11.3147672378077</v>
       </c>
       <c r="H2">
-        <v>16.405901372966</v>
+        <v>19.6735762988781</v>
       </c>
       <c r="I2">
-        <v>14.2000596854229</v>
+        <v>13.2799739863353</v>
       </c>
       <c r="J2">
-        <v>72.32866146000831</v>
+        <v>76.4438691930189</v>
       </c>
       <c r="K2">
-        <v>13.4961134845698</v>
+        <v>16.6837408286076</v>
       </c>
       <c r="L2">
-        <v>42.688387106977</v>
+        <v>46.0695272025513</v>
       </c>
       <c r="M2">
-        <v>31.1714914532893</v>
+        <v>37.5515252888981</v>
       </c>
       <c r="N2">
-        <v>27.4033929945134</v>
+        <v>26.6782323787452</v>
       </c>
       <c r="O2">
-        <v>1323.63333228007</v>
+        <v>1425.49405499765</v>
       </c>
       <c r="P2">
-        <v>20.8796733160032</v>
+        <v>20.5004528298702</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>121.130186143323</v>
+        <v>99.73013973178939</v>
       </c>
       <c r="C3">
-        <v>3.1173559190697</v>
+        <v>3.36543431051305</v>
       </c>
       <c r="D3">
-        <v>0.216802735353226</v>
+        <v>0.263527945231239</v>
       </c>
       <c r="E3">
-        <v>1.0322853758637</v>
+        <v>0.779885995173497</v>
       </c>
       <c r="F3">
-        <v>6.52258021868483</v>
+        <v>6.65069920081498</v>
       </c>
       <c r="G3">
-        <v>0.157355271935381</v>
+        <v>0.182990288543882</v>
       </c>
       <c r="H3">
-        <v>0.00495530164477492</v>
+        <v>0.00609013738036758</v>
       </c>
       <c r="I3">
-        <v>0.363566662838914</v>
+        <v>0.547619370399638</v>
       </c>
       <c r="J3">
-        <v>0.21082418121556</v>
+        <v>0.217144893330067</v>
       </c>
       <c r="K3">
-        <v>0.108204388270703</v>
+        <v>0.0970616291720183</v>
       </c>
       <c r="L3">
-        <v>0.07453072805937951</v>
+        <v>0.00933168714196584</v>
       </c>
       <c r="M3">
-        <v>0.429213733772145</v>
+        <v>0.57018413583959</v>
       </c>
       <c r="N3">
-        <v>0.297541863258694</v>
+        <v>0.348948942581508</v>
       </c>
       <c r="O3">
-        <v>208.932091507596</v>
+        <v>232.891089519555</v>
       </c>
       <c r="P3">
-        <v>8.768303838499749</v>
+        <v>8.421822806959399</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1629.19540617142</v>
+        <v>1315.43790086208</v>
       </c>
       <c r="C4">
-        <v>5.79529812035829</v>
+        <v>5.53596384184402</v>
       </c>
       <c r="D4">
-        <v>2.84314719464641</v>
+        <v>2.53268885971512</v>
       </c>
       <c r="E4">
-        <v>18.9586336592437</v>
+        <v>21.1471798865084</v>
       </c>
       <c r="F4">
-        <v>10.3894995124898</v>
+        <v>9.84874326666111</v>
       </c>
       <c r="G4">
-        <v>5.65026828426459</v>
+        <v>6.4396377008689</v>
       </c>
       <c r="H4">
-        <v>10.6727754453444</v>
+        <v>11.7077640025356</v>
       </c>
       <c r="I4">
-        <v>10.44759573582</v>
+        <v>10.0393648355265</v>
       </c>
       <c r="J4">
-        <v>21.4335364097259</v>
+        <v>28.1672550187355</v>
       </c>
       <c r="K4">
-        <v>2.22074370782805</v>
+        <v>2.82370652389805</v>
       </c>
       <c r="L4">
-        <v>60.9642134989059</v>
+        <v>70.21508818763959</v>
       </c>
       <c r="M4">
-        <v>41.9262860605928</v>
+        <v>45.4196503458753</v>
       </c>
       <c r="N4">
-        <v>24.7732344151094</v>
+        <v>36.1394758309771</v>
       </c>
       <c r="O4">
-        <v>1982.42788131858</v>
+        <v>2257.09319481532</v>
       </c>
       <c r="P4">
-        <v>30.7505653028774</v>
+        <v>26.3780116290287</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>871.453866226164</v>
+        <v>728.657825371594</v>
       </c>
       <c r="C5">
-        <v>36.2698009994403</v>
+        <v>39.3817795167545</v>
       </c>
       <c r="D5">
-        <v>11.8048738874678</v>
+        <v>13.9938776780021</v>
       </c>
       <c r="E5">
-        <v>30.0917223264065</v>
+        <v>33.3003170104957</v>
       </c>
       <c r="F5">
-        <v>6.11481596773456</v>
+        <v>6.71203145001894</v>
       </c>
       <c r="G5">
-        <v>3.59121278192037</v>
+        <v>5.09349716111526</v>
       </c>
       <c r="H5">
-        <v>10.6024093792542</v>
+        <v>12.4104138109064</v>
       </c>
       <c r="I5">
-        <v>7.09761525592732</v>
+        <v>8.212226375351451</v>
       </c>
       <c r="J5">
-        <v>31.5426094309773</v>
+        <v>32.5402586684703</v>
       </c>
       <c r="K5">
-        <v>8.938707477761181</v>
+        <v>9.29384897208058</v>
       </c>
       <c r="L5">
-        <v>11.4495019946602</v>
+        <v>14.8595438772614</v>
       </c>
       <c r="M5">
-        <v>14.1550231464724</v>
+        <v>16.9885169646839</v>
       </c>
       <c r="N5">
-        <v>17.4658696252566</v>
+        <v>19.1149464306366</v>
       </c>
       <c r="O5">
-        <v>843.825508340336</v>
+        <v>969.709056741726</v>
       </c>
       <c r="P5">
-        <v>42.2274870562115</v>
+        <v>53.4082722567671</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>9448.431405447929</v>
+        <v>7789.39996844088</v>
       </c>
       <c r="C6">
-        <v>169.858805179921</v>
+        <v>227.830604385865</v>
       </c>
       <c r="D6">
-        <v>45.1189408457615</v>
+        <v>63.9251219593735</v>
       </c>
       <c r="E6">
-        <v>131.058009668261</v>
+        <v>157.756608451743</v>
       </c>
       <c r="F6">
-        <v>37.6333932297289</v>
+        <v>48.0635286484473</v>
       </c>
       <c r="G6">
-        <v>95.3680824316463</v>
+        <v>118.332942870248</v>
       </c>
       <c r="H6">
-        <v>36.2018334716555</v>
+        <v>48.6442842259621</v>
       </c>
       <c r="I6">
-        <v>38.7876852824235</v>
+        <v>46.70801687304</v>
       </c>
       <c r="J6">
-        <v>132.543992368967</v>
+        <v>165.495289553362</v>
       </c>
       <c r="K6">
-        <v>46.9480803526816</v>
+        <v>63.6459653677455</v>
       </c>
       <c r="L6">
-        <v>400.707384686659</v>
+        <v>488.52518675758</v>
       </c>
       <c r="M6">
-        <v>210.237694673716</v>
+        <v>251.03396381678</v>
       </c>
       <c r="N6">
-        <v>211.072665112601</v>
+        <v>259.078037746734</v>
       </c>
       <c r="O6">
-        <v>11785.5410797026</v>
+        <v>13016.7327605131</v>
       </c>
       <c r="P6">
-        <v>269.943887461093</v>
+        <v>315.628619181933</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>1037.38558656898</v>
+        <v>833.709488538582</v>
       </c>
       <c r="C7">
-        <v>38.3888788147947</v>
+        <v>41.1665304347198</v>
       </c>
       <c r="D7">
-        <v>2.83660425826817</v>
+        <v>3.725891243727</v>
       </c>
       <c r="E7">
-        <v>17.6369096544629</v>
+        <v>19.5197039751164</v>
       </c>
       <c r="F7">
-        <v>17.321743300648</v>
+        <v>18.0196280316711</v>
       </c>
       <c r="G7">
-        <v>8.804936535495539</v>
+        <v>10.9116580353424</v>
       </c>
       <c r="H7">
-        <v>3.59227689648233</v>
+        <v>3.78819598407699</v>
       </c>
       <c r="I7">
-        <v>7.16320068316805</v>
+        <v>7.56514098052387</v>
       </c>
       <c r="J7">
-        <v>16.4369500402048</v>
+        <v>17.0850820629957</v>
       </c>
       <c r="K7">
-        <v>4.9387719222663</v>
+        <v>5.42282009513416</v>
       </c>
       <c r="L7">
-        <v>51.4391556992297</v>
+        <v>61.6620700728108</v>
       </c>
       <c r="M7">
-        <v>10.4618533943179</v>
+        <v>12.7108970750884</v>
       </c>
       <c r="N7">
-        <v>21.9020470407177</v>
+        <v>24.1299534869369</v>
       </c>
       <c r="O7">
-        <v>1778.23042581323</v>
+        <v>1954.50155133537</v>
       </c>
       <c r="P7">
-        <v>26.8569666664664</v>
+        <v>26.0901921491952</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>832.11771798351</v>
+        <v>660.997321071041</v>
       </c>
       <c r="C8">
-        <v>11.6792100678814</v>
+        <v>11.6130830824393</v>
       </c>
       <c r="D8">
-        <v>2.37301685166159</v>
+        <v>2.28175917215593</v>
       </c>
       <c r="E8">
-        <v>18.5258888007802</v>
+        <v>21.7193307960674</v>
       </c>
       <c r="F8">
-        <v>0.507734520660074</v>
+        <v>0.555127803432361</v>
       </c>
       <c r="G8">
-        <v>20.8090826800082</v>
+        <v>25.0454324802121</v>
       </c>
       <c r="H8">
-        <v>7.18736477076847</v>
+        <v>7.79578874545761</v>
       </c>
       <c r="I8">
-        <v>7.66681827316218</v>
+        <v>8.68430615610184</v>
       </c>
       <c r="J8">
-        <v>33.0937644658329</v>
+        <v>40.0094740129213</v>
       </c>
       <c r="K8">
-        <v>14.4775011967941</v>
+        <v>15.8669493438627</v>
       </c>
       <c r="L8">
-        <v>39.412555739771</v>
+        <v>45.9292172832225</v>
       </c>
       <c r="M8">
-        <v>38.6008960627282</v>
+        <v>42.693802456378</v>
       </c>
       <c r="N8">
-        <v>24.1047076791154</v>
+        <v>28.113531302069</v>
       </c>
       <c r="O8">
-        <v>1311.96497578598</v>
+        <v>1449.78595609281</v>
       </c>
       <c r="P8">
-        <v>3.59974813709682</v>
+        <v>3.6963060043068</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>220.444195373679</v>
+        <v>172.00983176466</v>
       </c>
       <c r="C9">
-        <v>6.35850038480206</v>
+        <v>8.35918557420557</v>
       </c>
       <c r="D9">
-        <v>2.15650428869158</v>
+        <v>3.06729222513587</v>
       </c>
       <c r="E9">
-        <v>2.99444917761164</v>
+        <v>3.62730996792354</v>
       </c>
       <c r="F9">
-        <v>0.922752473220036</v>
+        <v>0.5814770890161291</v>
       </c>
       <c r="G9">
-        <v>15.7371960047269</v>
+        <v>18.4657544645678</v>
       </c>
       <c r="H9">
-        <v>2.5327769240292</v>
+        <v>3.0789918594024</v>
       </c>
       <c r="I9">
-        <v>0.592346664058763</v>
+        <v>0.729879269490459</v>
       </c>
       <c r="J9">
-        <v>4.59009184139122</v>
+        <v>5.66625241751141</v>
       </c>
       <c r="K9">
-        <v>1.07988350236751</v>
+        <v>1.49446989281692</v>
       </c>
       <c r="L9">
-        <v>3.03268868653396</v>
+        <v>3.50139719912052</v>
       </c>
       <c r="M9">
-        <v>4.95434699479526</v>
+        <v>5.11688737128558</v>
       </c>
       <c r="N9">
-        <v>2.99329921284146</v>
+        <v>3.70449390528932</v>
       </c>
       <c r="O9">
-        <v>298.063484529031</v>
+        <v>337.619285198048</v>
       </c>
       <c r="P9">
-        <v>4.26034010726263</v>
+        <v>5.27692461322824</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>5578.18251500737</v>
+        <v>4321.51529763588</v>
       </c>
       <c r="C10">
-        <v>62.151905863145</v>
+        <v>82.84743664499651</v>
       </c>
       <c r="D10">
-        <v>11.1437036193651</v>
+        <v>15.4591003686378</v>
       </c>
       <c r="E10">
-        <v>35.0490566576811</v>
+        <v>45.1514158666077</v>
       </c>
       <c r="F10">
-        <v>5.25616396750921</v>
+        <v>7.9097528524926</v>
       </c>
       <c r="G10">
-        <v>26.6157571529492</v>
+        <v>38.6963349485669</v>
       </c>
       <c r="H10">
-        <v>18.0475889930702</v>
+        <v>17.8283917059644</v>
       </c>
       <c r="I10">
-        <v>26.992296266897</v>
+        <v>30.173938070356</v>
       </c>
       <c r="J10">
-        <v>46.980464413481</v>
+        <v>61.828332745913</v>
       </c>
       <c r="K10">
-        <v>13.9195445706789</v>
+        <v>13.8218637459106</v>
       </c>
       <c r="L10">
-        <v>58.8341598095082</v>
+        <v>70.801767552397</v>
       </c>
       <c r="M10">
-        <v>66.02700202944651</v>
+        <v>73.7642181335698</v>
       </c>
       <c r="N10">
-        <v>70.3168167864324</v>
+        <v>83.2990848845868</v>
       </c>
       <c r="O10">
-        <v>6289.57415776705</v>
+        <v>7403.41589136573</v>
       </c>
       <c r="P10">
-        <v>62.6286723083998</v>
+        <v>63.2660821394059</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>2329.50049015836</v>
+        <v>1925.96490791236</v>
       </c>
       <c r="C11">
-        <v>69.360143069852</v>
+        <v>80.32890964280929</v>
       </c>
       <c r="D11">
-        <v>121.724024185781</v>
+        <v>130.636271225349</v>
       </c>
       <c r="E11">
-        <v>63.4364062018432</v>
+        <v>72.2349312006825</v>
       </c>
       <c r="F11">
-        <v>6.31602615674055</v>
+        <v>6.40556393236189</v>
       </c>
       <c r="G11">
-        <v>22.3686447895515</v>
+        <v>24.2640200670251</v>
       </c>
       <c r="H11">
-        <v>15.0871775442432</v>
+        <v>17.8089458162961</v>
       </c>
       <c r="I11">
-        <v>11.2402309961507</v>
+        <v>14.236935616761</v>
       </c>
       <c r="J11">
-        <v>39.3591841651575</v>
+        <v>37.5477854369413</v>
       </c>
       <c r="K11">
-        <v>9.93761967992314</v>
+        <v>11.9136386991951</v>
       </c>
       <c r="L11">
-        <v>46.5609607971948</v>
+        <v>54.3782058720925</v>
       </c>
       <c r="M11">
-        <v>41.3229385605201</v>
+        <v>41.4051540316404</v>
       </c>
       <c r="N11">
-        <v>55.3495554567638</v>
+        <v>60.8418997442091</v>
       </c>
       <c r="O11">
-        <v>2905.97707151802</v>
+        <v>3291.08096694393</v>
       </c>
       <c r="P11">
-        <v>45.0420074759393</v>
+        <v>48.5281305090253</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>332.513393179691</v>
+        <v>242.536430739427</v>
       </c>
       <c r="C12">
-        <v>5.19670496112921</v>
+        <v>5.64901597994461</v>
       </c>
       <c r="D12">
-        <v>0.408067428570131</v>
+        <v>0.560744025041228</v>
       </c>
       <c r="E12">
-        <v>1.40491359259485</v>
+        <v>1.79365313530781</v>
       </c>
       <c r="F12">
-        <v>0.635919338610192</v>
+        <v>0.993095993959354</v>
       </c>
       <c r="G12">
-        <v>0.43767622319172</v>
+        <v>0.28038437509741</v>
       </c>
       <c r="H12">
-        <v>0.00449595148598636</v>
+        <v>0.00514216914212623</v>
       </c>
       <c r="I12">
-        <v>0.656527676541955</v>
+        <v>0.863299076746694</v>
       </c>
       <c r="J12">
-        <v>1.50837020016999</v>
+        <v>1.88390459453069</v>
       </c>
       <c r="K12">
-        <v>0.186916529250243</v>
+        <v>0.0168860401215356</v>
       </c>
       <c r="L12">
-        <v>0.312475460284511</v>
+        <v>0.2067361329841</v>
       </c>
       <c r="M12">
-        <v>2.826000591686</v>
+        <v>3.61951612320807</v>
       </c>
       <c r="N12">
-        <v>2.21986357546275</v>
+        <v>3.39435267420351</v>
       </c>
       <c r="O12">
-        <v>467.090172353178</v>
+        <v>542.753571522003</v>
       </c>
       <c r="P12">
-        <v>13.5702053111841</v>
+        <v>18.5065164752642</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>334.312010183522</v>
+        <v>243.110110624442</v>
       </c>
       <c r="C13">
-        <v>13.9907094433331</v>
+        <v>14.8833582026144</v>
       </c>
       <c r="D13">
-        <v>0.32238067910606</v>
+        <v>0.440314818113321</v>
       </c>
       <c r="E13">
-        <v>9.37254956363399</v>
+        <v>10.2325623632435</v>
       </c>
       <c r="F13">
-        <v>3.51936720531971</v>
+        <v>3.07296961063031</v>
       </c>
       <c r="G13">
-        <v>5.25690499422515</v>
+        <v>4.85717689483382</v>
       </c>
       <c r="H13">
-        <v>0.938780965257775</v>
+        <v>1.14489843592474</v>
       </c>
       <c r="I13">
-        <v>1.53771555235501</v>
+        <v>1.96190356215117</v>
       </c>
       <c r="J13">
-        <v>4.3030173091024</v>
+        <v>5.71053738354222</v>
       </c>
       <c r="K13">
-        <v>1.73279161250289</v>
+        <v>2.17861424701827</v>
       </c>
       <c r="L13">
-        <v>16.7308999334418</v>
+        <v>19.0617044766323</v>
       </c>
       <c r="M13">
-        <v>0.905229300311487</v>
+        <v>0.495722249748989</v>
       </c>
       <c r="N13">
-        <v>4.25327845523563</v>
+        <v>5.04452869552085</v>
       </c>
       <c r="O13">
-        <v>479.103237880624</v>
+        <v>541.655960413231</v>
       </c>
       <c r="P13">
-        <v>40.3883062837122</v>
+        <v>43.016388039138</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>3435.21572532924</v>
+        <v>2714.77612676472</v>
       </c>
       <c r="C14">
-        <v>114.647312916981</v>
+        <v>128.498764233102</v>
       </c>
       <c r="D14">
-        <v>10.2527307506307</v>
+        <v>11.4071843662319</v>
       </c>
       <c r="E14">
-        <v>72.4533816840182</v>
+        <v>85.9375821548168</v>
       </c>
       <c r="F14">
-        <v>16.9628179877946</v>
+        <v>18.861885810367</v>
       </c>
       <c r="G14">
-        <v>64.0054468616398</v>
+        <v>74.7746406261036</v>
       </c>
       <c r="H14">
-        <v>38.0914872359875</v>
+        <v>38.1520728405266</v>
       </c>
       <c r="I14">
-        <v>24.2086803424504</v>
+        <v>27.3484671245343</v>
       </c>
       <c r="J14">
-        <v>115.473256947176</v>
+        <v>131.70671129456</v>
       </c>
       <c r="K14">
-        <v>92.8198665081589</v>
+        <v>115.695586567588</v>
       </c>
       <c r="L14">
-        <v>85.6964749077387</v>
+        <v>102.174583805885</v>
       </c>
       <c r="M14">
-        <v>66.5970813549793</v>
+        <v>71.216058979168</v>
       </c>
       <c r="N14">
-        <v>77.1019129946777</v>
+        <v>90.5295212984114</v>
       </c>
       <c r="O14">
-        <v>4233.74957916207</v>
+        <v>4830.20419762429</v>
       </c>
       <c r="P14">
-        <v>58.7351284303371</v>
+        <v>58.8806822871476</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1619.39055799394</v>
+        <v>1298.20669611369</v>
       </c>
       <c r="C15">
-        <v>40.393848418607</v>
+        <v>48.3508714303671</v>
       </c>
       <c r="D15">
-        <v>7.74498971579716</v>
+        <v>9.533556073436291</v>
       </c>
       <c r="E15">
-        <v>58.8520886280091</v>
+        <v>67.7720171581903</v>
       </c>
       <c r="F15">
-        <v>18.1221272071975</v>
+        <v>24.315645838025</v>
       </c>
       <c r="G15">
-        <v>44.3764630390154</v>
+        <v>48.7804960978887</v>
       </c>
       <c r="H15">
-        <v>38.3586505779017</v>
+        <v>40.2733989060078</v>
       </c>
       <c r="I15">
-        <v>17.2916893486989</v>
+        <v>20.6278448765779</v>
       </c>
       <c r="J15">
-        <v>125.005998990322</v>
+        <v>144.3038223367</v>
       </c>
       <c r="K15">
-        <v>32.3932313096693</v>
+        <v>35.1813854727427</v>
       </c>
       <c r="L15">
-        <v>31.9453432399371</v>
+        <v>38.9483300820636</v>
       </c>
       <c r="M15">
-        <v>151.700923008223</v>
+        <v>167.460412296821</v>
       </c>
       <c r="N15">
-        <v>79.3361270378593</v>
+        <v>88.50425778939081</v>
       </c>
       <c r="O15">
-        <v>1963.27359239175</v>
+        <v>2195.29044512706</v>
       </c>
       <c r="P15">
-        <v>37.4842150305846</v>
+        <v>45.7995846127595</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>675.9388619755709</v>
+        <v>487.721762388371</v>
       </c>
       <c r="C16">
-        <v>58.3886859431285</v>
+        <v>66.92261224223149</v>
       </c>
       <c r="D16">
-        <v>4.61010509953841</v>
+        <v>4.04932532191578</v>
       </c>
       <c r="E16">
-        <v>22.6183250458097</v>
+        <v>24.5448716413457</v>
       </c>
       <c r="F16">
-        <v>2.43881129021487</v>
+        <v>2.36556797472409</v>
       </c>
       <c r="G16">
-        <v>15.1563494013722</v>
+        <v>18.7965247640337</v>
       </c>
       <c r="H16">
-        <v>11.5563441997064</v>
+        <v>11.4963726049353</v>
       </c>
       <c r="I16">
-        <v>6.52552260717794</v>
+        <v>6.15861952871767</v>
       </c>
       <c r="J16">
-        <v>41.8768232205423</v>
+        <v>46.3794631050195</v>
       </c>
       <c r="K16">
-        <v>41.3056978465208</v>
+        <v>47.7805767721047</v>
       </c>
       <c r="L16">
-        <v>18.8672117386327</v>
+        <v>20.1143274227117</v>
       </c>
       <c r="M16">
-        <v>22.1793586148194</v>
+        <v>22.6466729724199</v>
       </c>
       <c r="N16">
-        <v>26.7547785292954</v>
+        <v>31.1107667226564</v>
       </c>
       <c r="O16">
-        <v>1026.29208304456</v>
+        <v>1178.76706588551</v>
       </c>
       <c r="P16">
-        <v>68.24859611833131</v>
+        <v>78.495948679954</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>636.3684881971481</v>
+        <v>491.33018584286</v>
       </c>
       <c r="C17">
-        <v>18.002932199961</v>
+        <v>18.4977078150381</v>
       </c>
       <c r="D17">
-        <v>3.47037120048991</v>
+        <v>2.22541074430532</v>
       </c>
       <c r="E17">
-        <v>19.662365973924</v>
+        <v>24.5258124063878</v>
       </c>
       <c r="F17">
-        <v>10.8453644633417</v>
+        <v>11.3784600837531</v>
       </c>
       <c r="G17">
-        <v>5.70421949528339</v>
+        <v>6.64908112062245</v>
       </c>
       <c r="H17">
-        <v>7.7327884234614</v>
+        <v>10.4685436688313</v>
       </c>
       <c r="I17">
-        <v>5.77393523340536</v>
+        <v>6.66328919876217</v>
       </c>
       <c r="J17">
-        <v>17.0064144178127</v>
+        <v>18.565308344307</v>
       </c>
       <c r="K17">
-        <v>7.43350424547389</v>
+        <v>9.4511141447238</v>
       </c>
       <c r="L17">
-        <v>9.395814588447911</v>
+        <v>11.5615439997881</v>
       </c>
       <c r="M17">
-        <v>58.1477016926473</v>
+        <v>68.1068383448998</v>
       </c>
       <c r="N17">
-        <v>10.4067687235996</v>
+        <v>12.0334292644638</v>
       </c>
       <c r="O17">
-        <v>986.17271097871</v>
+        <v>1091.59813613364</v>
       </c>
       <c r="P17">
-        <v>44.8626608868993</v>
+        <v>37.7284623341954</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1260.00598916254</v>
+        <v>1079.57123253228</v>
       </c>
       <c r="C18">
-        <v>23.3864470567443</v>
+        <v>29.7438566523347</v>
       </c>
       <c r="D18">
-        <v>5.42079782742285</v>
+        <v>7.76360026101389</v>
       </c>
       <c r="E18">
-        <v>30.2722599521282</v>
+        <v>36.4859652484114</v>
       </c>
       <c r="F18">
-        <v>32.4326971016318</v>
+        <v>36.6836716652692</v>
       </c>
       <c r="G18">
-        <v>23.3182541094183</v>
+        <v>23.1349171413276</v>
       </c>
       <c r="H18">
-        <v>12.8880902509816</v>
+        <v>13.4839186125695</v>
       </c>
       <c r="I18">
-        <v>4.42899245077953</v>
+        <v>3.57957991955569</v>
       </c>
       <c r="J18">
-        <v>25.5643822061168</v>
+        <v>30.024507487797</v>
       </c>
       <c r="K18">
-        <v>13.5380369658807</v>
+        <v>13.5404275307652</v>
       </c>
       <c r="L18">
-        <v>23.9382604148637</v>
+        <v>31.425234742164</v>
       </c>
       <c r="M18">
-        <v>59.6222315642219</v>
+        <v>63.7353203796933</v>
       </c>
       <c r="N18">
-        <v>20.2273156201366</v>
+        <v>20.4393647171447</v>
       </c>
       <c r="O18">
-        <v>1315.69864935599</v>
+        <v>1470.05843052998</v>
       </c>
       <c r="P18">
-        <v>50.8257996762026</v>
+        <v>60.5268599081929</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1355.91279025252</v>
+        <v>1178.33144451637</v>
       </c>
       <c r="C19">
-        <v>29.2241992256059</v>
+        <v>35.547135181344</v>
       </c>
       <c r="D19">
-        <v>9.96549271897344</v>
+        <v>10.3430648825373</v>
       </c>
       <c r="E19">
-        <v>31.9330815768323</v>
+        <v>34.0035364910647</v>
       </c>
       <c r="F19">
-        <v>77.3985226707689</v>
+        <v>89.896436105215</v>
       </c>
       <c r="G19">
-        <v>33.8326956021442</v>
+        <v>38.4661220492473</v>
       </c>
       <c r="H19">
-        <v>7.4690943454901</v>
+        <v>8.193232240426889</v>
       </c>
       <c r="I19">
-        <v>3.26585556910543</v>
+        <v>4.73255051700791</v>
       </c>
       <c r="J19">
-        <v>20.9671457199948</v>
+        <v>17.1082780937083</v>
       </c>
       <c r="K19">
-        <v>7.64506778002182</v>
+        <v>9.147179844271539</v>
       </c>
       <c r="L19">
-        <v>1.34164441637316</v>
+        <v>1.66763883239869</v>
       </c>
       <c r="M19">
-        <v>22.2183293739667</v>
+        <v>27.8986746072649</v>
       </c>
       <c r="N19">
-        <v>11.9343399080381</v>
+        <v>12.2625332080994</v>
       </c>
       <c r="O19">
-        <v>1350.66476958178</v>
+        <v>1496.64694383858</v>
       </c>
       <c r="P19">
-        <v>36.8844298427507</v>
+        <v>44.7219648809261</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>362.684765653226</v>
+        <v>283.159739077323</v>
       </c>
       <c r="C20">
-        <v>7.62634910419779</v>
+        <v>8.657186722691129</v>
       </c>
       <c r="D20">
-        <v>5.63236899879385</v>
+        <v>5.94111609905851</v>
       </c>
       <c r="E20">
-        <v>27.8983471055727</v>
+        <v>30.4588648119647</v>
       </c>
       <c r="F20">
-        <v>0.867876084978372</v>
+        <v>0.898672854969278</v>
       </c>
       <c r="G20">
-        <v>2.32693803633953</v>
+        <v>2.79793522019866</v>
       </c>
       <c r="H20">
-        <v>0.916730841895002</v>
+        <v>0.905201520278889</v>
       </c>
       <c r="I20">
-        <v>1.74560475100568</v>
+        <v>2.36364682431213</v>
       </c>
       <c r="J20">
-        <v>4.10532548675693</v>
+        <v>4.0536045536538</v>
       </c>
       <c r="K20">
-        <v>1.5264336508387</v>
+        <v>1.44253077476206</v>
       </c>
       <c r="L20">
-        <v>6.00179140009179</v>
+        <v>7.42424682333815</v>
       </c>
       <c r="M20">
-        <v>15.7386822064949</v>
+        <v>21.7895987145692</v>
       </c>
       <c r="N20">
-        <v>4.83237491042731</v>
+        <v>5.71951132563605</v>
       </c>
       <c r="O20">
-        <v>482.589017465128</v>
+        <v>551.280441364131</v>
       </c>
       <c r="P20">
-        <v>15.5937574743266</v>
+        <v>17.8511979267531</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1439.2807662909</v>
+        <v>1072.85266741778</v>
       </c>
       <c r="C21">
-        <v>17.238791135015</v>
+        <v>18.8888490486287</v>
       </c>
       <c r="D21">
-        <v>2.07537653829921</v>
+        <v>1.66284297714126</v>
       </c>
       <c r="E21">
-        <v>17.3167247386583</v>
+        <v>17.5387634857187</v>
       </c>
       <c r="F21">
-        <v>3.00453932871442</v>
+        <v>3.58943829939225</v>
       </c>
       <c r="G21">
-        <v>15.5943683149691</v>
+        <v>21.116408621823</v>
       </c>
       <c r="H21">
-        <v>3.7166665241809</v>
+        <v>4.14737739445084</v>
       </c>
       <c r="I21">
-        <v>9.369898699253801</v>
+        <v>12.1666120077032</v>
       </c>
       <c r="J21">
-        <v>22.009655648438</v>
+        <v>24.7201264157747</v>
       </c>
       <c r="K21">
-        <v>2.41959442796147</v>
+        <v>3.01095988298596</v>
       </c>
       <c r="L21">
-        <v>22.3322059194865</v>
+        <v>27.8729194619921</v>
       </c>
       <c r="M21">
-        <v>20.0164936072819</v>
+        <v>24.3604597535087</v>
       </c>
       <c r="N21">
-        <v>14.3832010267406</v>
+        <v>14.2534865926108</v>
       </c>
       <c r="O21">
-        <v>2060.61922964218</v>
+        <v>2365.19906580456</v>
       </c>
       <c r="P21">
-        <v>18.0326686454625</v>
+        <v>20.4632529658042</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1682.98613618463</v>
+        <v>1273.54130743851</v>
       </c>
       <c r="C22">
-        <v>15.4150853595279</v>
+        <v>19.5852931231321</v>
       </c>
       <c r="D22">
-        <v>12.3961958180899</v>
+        <v>17.9535635040443</v>
       </c>
       <c r="E22">
-        <v>35.3303815963365</v>
+        <v>42.6570128524245</v>
       </c>
       <c r="F22">
-        <v>2.15958051983804</v>
+        <v>2.38066676294705</v>
       </c>
       <c r="G22">
-        <v>23.4015527950361</v>
+        <v>29.452587602975</v>
       </c>
       <c r="H22">
-        <v>12.5290856357908</v>
+        <v>14.2939065999664</v>
       </c>
       <c r="I22">
-        <v>9.427786092817611</v>
+        <v>11.1602463642729</v>
       </c>
       <c r="J22">
-        <v>34.8578821619445</v>
+        <v>36.1358267685787</v>
       </c>
       <c r="K22">
-        <v>8.05345220855445</v>
+        <v>9.8886592371937</v>
       </c>
       <c r="L22">
-        <v>86.50407558139879</v>
+        <v>107.993750944736</v>
       </c>
       <c r="M22">
-        <v>14.6621653955988</v>
+        <v>15.8436494787606</v>
       </c>
       <c r="N22">
-        <v>50.0583926379625</v>
+        <v>60.1343283052604</v>
       </c>
       <c r="O22">
-        <v>2377.81186231392</v>
+        <v>2715.02802539281</v>
       </c>
       <c r="P22">
-        <v>11.3307001074677</v>
+        <v>11.2527446941848</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2821.00052970988</v>
+        <v>2388.15006474194</v>
       </c>
       <c r="C23">
-        <v>26.0968466619675</v>
+        <v>32.3065705801963</v>
       </c>
       <c r="D23">
-        <v>7.95762630653789</v>
+        <v>7.25580236774749</v>
       </c>
       <c r="E23">
-        <v>35.3686837050072</v>
+        <v>40.3451511270609</v>
       </c>
       <c r="F23">
-        <v>4.99072788192804</v>
+        <v>7.77300131972311</v>
       </c>
       <c r="G23">
-        <v>50.8509281084197</v>
+        <v>53.3922341879738</v>
       </c>
       <c r="H23">
-        <v>48.2941437363464</v>
+        <v>56.4836772843952</v>
       </c>
       <c r="I23">
-        <v>11.9796108099688</v>
+        <v>14.343580755991</v>
       </c>
       <c r="J23">
-        <v>105.683113956445</v>
+        <v>123.215737366789</v>
       </c>
       <c r="K23">
-        <v>71.7812325484992</v>
+        <v>79.7038259354909</v>
       </c>
       <c r="L23">
-        <v>30.8074603273833</v>
+        <v>33.7738169107277</v>
       </c>
       <c r="M23">
-        <v>464.39804318059</v>
+        <v>559.522694442179</v>
       </c>
       <c r="N23">
-        <v>74.33847102153101</v>
+        <v>82.56308793217789</v>
       </c>
       <c r="O23">
-        <v>3135.68419580259</v>
+        <v>3426.25343495777</v>
       </c>
       <c r="P23">
-        <v>40.5233121589579</v>
+        <v>43.5460374113642</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>1107.87993631412</v>
+        <v>842.174199417715</v>
       </c>
       <c r="C24">
-        <v>43.000478820493</v>
+        <v>44.5663991192519</v>
       </c>
       <c r="D24">
-        <v>5.67482026874472</v>
+        <v>6.2479660288524</v>
       </c>
       <c r="E24">
-        <v>46.4999917255744</v>
+        <v>52.2077200117713</v>
       </c>
       <c r="F24">
-        <v>9.54223133791503</v>
+        <v>10.4275221825398</v>
       </c>
       <c r="G24">
-        <v>24.7695224125833</v>
+        <v>28.3996227170544</v>
       </c>
       <c r="H24">
-        <v>15.9764048774079</v>
+        <v>18.352699017479</v>
       </c>
       <c r="I24">
-        <v>13.1259716816614</v>
+        <v>15.453209755552</v>
       </c>
       <c r="J24">
-        <v>45.5577260386094</v>
+        <v>53.535952151736</v>
       </c>
       <c r="K24">
-        <v>26.3303185052662</v>
+        <v>28.926252731442</v>
       </c>
       <c r="L24">
-        <v>63.683774569746</v>
+        <v>72.3977378159625</v>
       </c>
       <c r="M24">
-        <v>19.9251448541827</v>
+        <v>23.5533807823519</v>
       </c>
       <c r="N24">
-        <v>63.3385089738743</v>
+        <v>78.7062304053534</v>
       </c>
       <c r="O24">
-        <v>1884.7322619184</v>
+        <v>2091.33698261329</v>
       </c>
       <c r="P24">
-        <v>85.5359035280468</v>
+        <v>77.97544156871869</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>909.567827096284</v>
+        <v>776.8458041679</v>
       </c>
       <c r="C25">
-        <v>37.1031778650899</v>
+        <v>45.134593608662</v>
       </c>
       <c r="D25">
-        <v>11.4497855274743</v>
+        <v>12.6664618319351</v>
       </c>
       <c r="E25">
-        <v>40.1692663441434</v>
+        <v>46.4031845802798</v>
       </c>
       <c r="F25">
-        <v>15.0954620959284</v>
+        <v>15.2558570947275</v>
       </c>
       <c r="G25">
-        <v>10.5733770436423</v>
+        <v>13.9829152121356</v>
       </c>
       <c r="H25">
-        <v>9.029340574896951</v>
+        <v>9.219486388060521</v>
       </c>
       <c r="I25">
-        <v>6.41294472958699</v>
+        <v>6.17621390300851</v>
       </c>
       <c r="J25">
-        <v>9.179484015577129</v>
+        <v>10.2632532418899</v>
       </c>
       <c r="K25">
-        <v>6.71422546029175</v>
+        <v>8.636322392093369</v>
       </c>
       <c r="L25">
-        <v>12.4628318520975</v>
+        <v>13.3159984534289</v>
       </c>
       <c r="M25">
-        <v>34.0011326484767</v>
+        <v>41.1666273172795</v>
       </c>
       <c r="N25">
-        <v>41.6531453103504</v>
+        <v>35.5338820227006</v>
       </c>
       <c r="O25">
-        <v>759.637525517457</v>
+        <v>868.154823346781</v>
       </c>
       <c r="P25">
-        <v>33.4818143378929</v>
+        <v>41.6318159757139</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1468.34467594398</v>
+        <v>1164.16412842486</v>
       </c>
       <c r="C26">
-        <v>47.303670858547</v>
+        <v>54.4775219391637</v>
       </c>
       <c r="D26">
-        <v>4.60037524694003</v>
+        <v>3.59320610529149</v>
       </c>
       <c r="E26">
-        <v>39.2191838783319</v>
+        <v>39.6152128899641</v>
       </c>
       <c r="F26">
-        <v>9.964098892677111</v>
+        <v>10.2110661605723</v>
       </c>
       <c r="G26">
-        <v>23.1046718305727</v>
+        <v>29.8812677245095</v>
       </c>
       <c r="H26">
-        <v>13.9392616579429</v>
+        <v>13.4118926160621</v>
       </c>
       <c r="I26">
-        <v>13.3101353351235</v>
+        <v>14.7697859203507</v>
       </c>
       <c r="J26">
-        <v>36.0139081621198</v>
+        <v>39.9389668274676</v>
       </c>
       <c r="K26">
-        <v>17.8158776427367</v>
+        <v>15.5109766643901</v>
       </c>
       <c r="L26">
-        <v>27.2993211243284</v>
+        <v>28.3031182391921</v>
       </c>
       <c r="M26">
-        <v>65.3899008271973</v>
+        <v>71.07687730177671</v>
       </c>
       <c r="N26">
-        <v>25.3369771024207</v>
+        <v>24.4234840860264</v>
       </c>
       <c r="O26">
-        <v>2091.86618583766</v>
+        <v>2352.79282492649</v>
       </c>
       <c r="P26">
-        <v>54.213804455378</v>
+        <v>55.1179627556137</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>249.536900980756</v>
+        <v>193.821461990011</v>
       </c>
       <c r="C27">
-        <v>2.01368903173212</v>
+        <v>1.79641486479822</v>
       </c>
       <c r="D27">
-        <v>1.50287220193327</v>
+        <v>2.43014582572443</v>
       </c>
       <c r="E27">
-        <v>8.93868896226879</v>
+        <v>10.2870022987865</v>
       </c>
       <c r="F27">
-        <v>4.58528257286338</v>
+        <v>5.41935017053538</v>
       </c>
       <c r="G27">
-        <v>0.373865721007867</v>
+        <v>0.464654925621438</v>
       </c>
       <c r="H27">
-        <v>0.135885330020456</v>
+        <v>0.188215902284216</v>
       </c>
       <c r="I27">
-        <v>2.27759151000947</v>
+        <v>2.6435308079511</v>
       </c>
       <c r="J27">
-        <v>2.61179237104244</v>
+        <v>3.38958750924091</v>
       </c>
       <c r="K27">
-        <v>0.393267147619696</v>
+        <v>0.5074144419034891</v>
       </c>
       <c r="L27">
-        <v>1.44837937004138</v>
+        <v>1.79094933401423</v>
       </c>
       <c r="M27">
-        <v>0.462260075220087</v>
+        <v>0.546442098177114</v>
       </c>
       <c r="N27">
-        <v>3.24231268068283</v>
+        <v>3.14758867205664</v>
       </c>
       <c r="O27">
-        <v>328.403583509819</v>
+        <v>378.305069687088</v>
       </c>
       <c r="P27">
-        <v>37.9700631532381</v>
+        <v>38.5365419459979</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>380.612231556019</v>
+        <v>263.675070136081</v>
       </c>
       <c r="C28">
-        <v>27.3110973620729</v>
+        <v>31.8722862977696</v>
       </c>
       <c r="D28">
-        <v>1.90938679554937</v>
+        <v>1.85520902601903</v>
       </c>
       <c r="E28">
-        <v>6.21552407989521</v>
+        <v>7.46112084945833</v>
       </c>
       <c r="F28">
-        <v>1.28440159520183</v>
+        <v>1.03909980896209</v>
       </c>
       <c r="G28">
-        <v>3.36798918915048</v>
+        <v>4.35855220196238</v>
       </c>
       <c r="H28">
-        <v>7.89113316558247</v>
+        <v>7.98337563628205</v>
       </c>
       <c r="I28">
-        <v>2.91595086011017</v>
+        <v>3.38691439634757</v>
       </c>
       <c r="J28">
-        <v>18.9297001260111</v>
+        <v>19.195733916309</v>
       </c>
       <c r="K28">
-        <v>7.78951538034203</v>
+        <v>9.062642380666199</v>
       </c>
       <c r="L28">
-        <v>12.0010626649217</v>
+        <v>13.9506124042697</v>
       </c>
       <c r="M28">
-        <v>7.73348954279938</v>
+        <v>9.62429613741061</v>
       </c>
       <c r="N28">
-        <v>9.00782622072675</v>
+        <v>11.6320104087733</v>
       </c>
       <c r="O28">
-        <v>634.514912050207</v>
+        <v>735.3216530687211</v>
       </c>
       <c r="P28">
-        <v>75.5370849205374</v>
+        <v>61.9787544116328</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>561.7102619394821</v>
+        <v>439.534981989541</v>
       </c>
       <c r="C29">
-        <v>4.94465055898453</v>
+        <v>4.98778352557873</v>
       </c>
       <c r="D29">
-        <v>2.05261972042118</v>
+        <v>2.6187683237315</v>
       </c>
       <c r="E29">
-        <v>3.33841714113969</v>
+        <v>4.1478737036085</v>
       </c>
       <c r="F29">
-        <v>23.0283871989881</v>
+        <v>22.6407518020691</v>
       </c>
       <c r="G29">
-        <v>4.04049470212646</v>
+        <v>5.11203408623548</v>
       </c>
       <c r="H29">
-        <v>0.641319915815601</v>
+        <v>0.910599548927916</v>
       </c>
       <c r="I29">
-        <v>0.918767952349102</v>
+        <v>0.980098894525487</v>
       </c>
       <c r="J29">
-        <v>3.85884609441891</v>
+        <v>3.72958797845704</v>
       </c>
       <c r="K29">
-        <v>1.12154391878081</v>
+        <v>1.31187205735926</v>
       </c>
       <c r="L29">
-        <v>2.38505443528309</v>
+        <v>2.6443982213092</v>
       </c>
       <c r="M29">
-        <v>2.79018987607058</v>
+        <v>3.19993839472544</v>
       </c>
       <c r="N29">
-        <v>8.619661905779729</v>
+        <v>9.298148851274339</v>
       </c>
       <c r="O29">
-        <v>901.06701427108</v>
+        <v>1042.52312254555</v>
       </c>
       <c r="P29">
-        <v>3.50360228120734</v>
+        <v>4.41539131022352</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>276.184079184028</v>
+        <v>211.549522040153</v>
       </c>
       <c r="C30">
-        <v>3.29109439854027</v>
+        <v>3.70713142906465</v>
       </c>
       <c r="D30">
-        <v>3.32594511669258</v>
+        <v>3.77368793837523</v>
       </c>
       <c r="E30">
-        <v>10.9206944536926</v>
+        <v>11.1957101801926</v>
       </c>
       <c r="F30">
-        <v>0.579450735792688</v>
+        <v>0.83337483951979</v>
       </c>
       <c r="G30">
-        <v>4.43137782254438</v>
+        <v>5.15752526712126</v>
       </c>
       <c r="H30">
-        <v>3.9571292381651</v>
+        <v>4.67441256992195</v>
       </c>
       <c r="I30">
-        <v>1.76125861527115</v>
+        <v>1.97834865690582</v>
       </c>
       <c r="J30">
-        <v>15.2104070585467</v>
+        <v>17.2035716875666</v>
       </c>
       <c r="K30">
-        <v>5.44344897009622</v>
+        <v>6.82429927325944</v>
       </c>
       <c r="L30">
-        <v>34.0040288233595</v>
+        <v>41.0937571392069</v>
       </c>
       <c r="M30">
-        <v>8.233718421066561</v>
+        <v>10.251372131663</v>
       </c>
       <c r="N30">
-        <v>11.9049722752836</v>
+        <v>14.9606444885282</v>
       </c>
       <c r="O30">
-        <v>478.307465089913</v>
+        <v>517.449108090318</v>
       </c>
       <c r="P30">
-        <v>5.7265692542403</v>
+        <v>5.77739454086185</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>2367.01765229664</v>
+        <v>1805.72327731256</v>
       </c>
       <c r="C31">
-        <v>49.0551283094703</v>
+        <v>59.3488171891028</v>
       </c>
       <c r="D31">
-        <v>19.0378055261378</v>
+        <v>19.2936530182822</v>
       </c>
       <c r="E31">
-        <v>37.5937186487613</v>
+        <v>42.909568107264</v>
       </c>
       <c r="F31">
-        <v>6.5504405928813</v>
+        <v>3.04762448813437</v>
       </c>
       <c r="G31">
-        <v>80.5416645842094</v>
+        <v>92.8366387561199</v>
       </c>
       <c r="H31">
-        <v>5.84527748192177</v>
+        <v>6.68172068313592</v>
       </c>
       <c r="I31">
-        <v>14.5573997132595</v>
+        <v>17.2290627452263</v>
       </c>
       <c r="J31">
-        <v>24.3227596050878</v>
+        <v>30.9500262481067</v>
       </c>
       <c r="K31">
-        <v>6.26374052210969</v>
+        <v>8.686473014968859</v>
       </c>
       <c r="L31">
-        <v>46.0683363660812</v>
+        <v>60.5034278008437</v>
       </c>
       <c r="M31">
-        <v>16.9564422128267</v>
+        <v>20.8444387634095</v>
       </c>
       <c r="N31">
-        <v>49.2882988279473</v>
+        <v>53.012705340099</v>
       </c>
       <c r="O31">
-        <v>3106.01688809588</v>
+        <v>3598.43632065146</v>
       </c>
       <c r="P31">
-        <v>12.7795809408982</v>
+        <v>16.8766546365368</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>555.367155205508</v>
+        <v>457.568129983804</v>
       </c>
       <c r="C32">
-        <v>2.89254718172907</v>
+        <v>2.95448123073394</v>
       </c>
       <c r="D32">
-        <v>0.57874324807744</v>
+        <v>0.978672064456306</v>
       </c>
       <c r="E32">
-        <v>3.15710595755249</v>
+        <v>4.07332762155128</v>
       </c>
       <c r="F32">
-        <v>19.5092824282148</v>
+        <v>24.1178550326195</v>
       </c>
       <c r="G32">
-        <v>1.69257901247708</v>
+        <v>1.90009219473093</v>
       </c>
       <c r="H32">
-        <v>0.872872515164808</v>
+        <v>0.645673052575711</v>
       </c>
       <c r="I32">
-        <v>1.75686787935542</v>
+        <v>2.59575424409429</v>
       </c>
       <c r="J32">
-        <v>2.61501624364174</v>
+        <v>3.24058792764474</v>
       </c>
       <c r="K32">
-        <v>1.8979369791041</v>
+        <v>2.66145442027505</v>
       </c>
       <c r="L32">
-        <v>8.686266964734701</v>
+        <v>10.1265094470383</v>
       </c>
       <c r="M32">
-        <v>3.18072368661508</v>
+        <v>4.42543290314288</v>
       </c>
       <c r="N32">
-        <v>7.74189455755646</v>
+        <v>10.6564830927039</v>
       </c>
       <c r="O32">
-        <v>642.9479127560101</v>
+        <v>730.347812936134</v>
       </c>
       <c r="P32">
-        <v>18.9388839943328</v>
+        <v>18.3375690431804</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>5728.58656811772</v>
+        <v>4620.27947206477</v>
       </c>
       <c r="C33">
-        <v>67.79492665488441</v>
+        <v>81.99684760930499</v>
       </c>
       <c r="D33">
-        <v>24.9853515377243</v>
+        <v>30.1301115716251</v>
       </c>
       <c r="E33">
-        <v>59.7136762762393</v>
+        <v>70.5444053164677</v>
       </c>
       <c r="F33">
-        <v>5.91028447697457</v>
+        <v>6.38944494225729</v>
       </c>
       <c r="G33">
-        <v>55.9380436928544</v>
+        <v>64.2445061351287</v>
       </c>
       <c r="H33">
-        <v>25.1299916949955</v>
+        <v>29.4817148104931</v>
       </c>
       <c r="I33">
-        <v>19.2848653578533</v>
+        <v>24.6500498769034</v>
       </c>
       <c r="J33">
-        <v>77.6082017806998</v>
+        <v>96.46912079297781</v>
       </c>
       <c r="K33">
-        <v>59.5310892498305</v>
+        <v>64.8186324205347</v>
       </c>
       <c r="L33">
-        <v>98.243092385765</v>
+        <v>107.601818371468</v>
       </c>
       <c r="M33">
-        <v>48.2871508781094</v>
+        <v>54.6755379591622</v>
       </c>
       <c r="N33">
-        <v>125.8356902658</v>
+        <v>143.570222032644</v>
       </c>
       <c r="O33">
-        <v>6474.69966796741</v>
+        <v>7497.9455121453</v>
       </c>
       <c r="P33">
-        <v>76.0191371854728</v>
+        <v>58.9199357133553</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>2348.73049172083</v>
+        <v>1945.63131994285</v>
       </c>
       <c r="C34">
-        <v>58.171820750246</v>
+        <v>75.3793534473201</v>
       </c>
       <c r="D34">
-        <v>92.4847876458127</v>
+        <v>114.021550226293</v>
       </c>
       <c r="E34">
-        <v>41.3505370615726</v>
+        <v>46.8980766746978</v>
       </c>
       <c r="F34">
-        <v>5.65657661802908</v>
+        <v>5.79017738186876</v>
       </c>
       <c r="G34">
-        <v>34.3949720189874</v>
+        <v>42.4207551549182</v>
       </c>
       <c r="H34">
-        <v>39.6754232775202</v>
+        <v>48.6878158674241</v>
       </c>
       <c r="I34">
-        <v>9.697053280620089</v>
+        <v>12.3976895717945</v>
       </c>
       <c r="J34">
-        <v>42.4125876512876</v>
+        <v>42.9619531307628</v>
       </c>
       <c r="K34">
-        <v>18.1308980793806</v>
+        <v>22.0233960397442</v>
       </c>
       <c r="L34">
-        <v>89.9329796083361</v>
+        <v>105.7026509771</v>
       </c>
       <c r="M34">
-        <v>32.6516218311299</v>
+        <v>37.6060848382711</v>
       </c>
       <c r="N34">
-        <v>109.926463741289</v>
+        <v>128.69413897415</v>
       </c>
       <c r="O34">
-        <v>2798.88218708379</v>
+        <v>3110.90420582571</v>
       </c>
       <c r="P34">
-        <v>50.3846826071223</v>
+        <v>54.359112985608</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>155.456417552311</v>
+        <v>108.830556619528</v>
       </c>
       <c r="C35">
-        <v>6.41561960888989</v>
+        <v>7.02422852684115</v>
       </c>
       <c r="D35">
-        <v>0.521850196959626</v>
+        <v>0.5144280935761411</v>
       </c>
       <c r="E35">
-        <v>1.90562116662594</v>
+        <v>2.28078881008975</v>
       </c>
       <c r="F35">
-        <v>3.22393993025729</v>
+        <v>3.64188257753546</v>
       </c>
       <c r="G35">
-        <v>0.668714516334132</v>
+        <v>0.968386523529811</v>
       </c>
       <c r="H35">
-        <v>0.477534165599804</v>
+        <v>0.553546528967639</v>
       </c>
       <c r="I35">
-        <v>0.713721077246629</v>
+        <v>0.921073041578697</v>
       </c>
       <c r="J35">
-        <v>2.69162315367557</v>
+        <v>3.18018579924254</v>
       </c>
       <c r="K35">
-        <v>4.18159906353834</v>
+        <v>5.0643831641537</v>
       </c>
       <c r="L35">
-        <v>2.51053849746016</v>
+        <v>2.73326202649937</v>
       </c>
       <c r="M35">
-        <v>1.68861154729564</v>
+        <v>2.07949669076957</v>
       </c>
       <c r="N35">
-        <v>2.94626242577479</v>
+        <v>3.79985813014894</v>
       </c>
       <c r="O35">
-        <v>230.017768764572</v>
+        <v>268.587770467275</v>
       </c>
       <c r="P35">
-        <v>36.1090592146258</v>
+        <v>34.5554535675484</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>3168.74359050874</v>
+        <v>2631.94345033605</v>
       </c>
       <c r="C36">
-        <v>49.0280563193859</v>
+        <v>54.708728727911</v>
       </c>
       <c r="D36">
-        <v>10.8234535248129</v>
+        <v>10.9502892761084</v>
       </c>
       <c r="E36">
-        <v>101.243485779405</v>
+        <v>113.439973332639</v>
       </c>
       <c r="F36">
-        <v>27.9819210499561</v>
+        <v>35.225693817047</v>
       </c>
       <c r="G36">
-        <v>76.1863027323629</v>
+        <v>88.45586471169911</v>
       </c>
       <c r="H36">
-        <v>74.3480280570269</v>
+        <v>80.0068473864247</v>
       </c>
       <c r="I36">
-        <v>33.0336276935567</v>
+        <v>40.2627008668309</v>
       </c>
       <c r="J36">
-        <v>176.994546499015</v>
+        <v>206.92162859469</v>
       </c>
       <c r="K36">
-        <v>60.0746465638724</v>
+        <v>63.2913952105098</v>
       </c>
       <c r="L36">
-        <v>54.8886545498938</v>
+        <v>65.5771217391501</v>
       </c>
       <c r="M36">
-        <v>184.381510110822</v>
+        <v>201.837893623651</v>
       </c>
       <c r="N36">
-        <v>82.0334897881658</v>
+        <v>88.57019647820739</v>
       </c>
       <c r="O36">
-        <v>3830.35397088337</v>
+        <v>4241.2945981941</v>
       </c>
       <c r="P36">
-        <v>43.2212757029802</v>
+        <v>48.9796106301168</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>1031.36509622925</v>
+        <v>830.225575266471</v>
       </c>
       <c r="C37">
-        <v>17.2989912204956</v>
+        <v>21.8083078661277</v>
       </c>
       <c r="D37">
-        <v>3.07043399845888</v>
+        <v>2.61832204990855</v>
       </c>
       <c r="E37">
-        <v>17.4356962171557</v>
+        <v>18.930825255011</v>
       </c>
       <c r="F37">
-        <v>28.258920890822</v>
+        <v>28.1746797682117</v>
       </c>
       <c r="G37">
-        <v>7.6441252662072</v>
+        <v>8.5259418835854</v>
       </c>
       <c r="H37">
-        <v>22.4508700009105</v>
+        <v>27.0459143229287</v>
       </c>
       <c r="I37">
-        <v>11.044990516318</v>
+        <v>11.9219172782166</v>
       </c>
       <c r="J37">
-        <v>33.6297627603472</v>
+        <v>39.2642031894935</v>
       </c>
       <c r="K37">
-        <v>13.9678470560696</v>
+        <v>17.2321692363153</v>
       </c>
       <c r="L37">
-        <v>16.3095837411978</v>
+        <v>20.296007210153</v>
       </c>
       <c r="M37">
-        <v>30.1158041346121</v>
+        <v>40.0327815102675</v>
       </c>
       <c r="N37">
-        <v>22.5890499653858</v>
+        <v>24.7053811167676</v>
       </c>
       <c r="O37">
-        <v>1125.46883241546</v>
+        <v>1288.71528671995</v>
       </c>
       <c r="P37">
-        <v>38.6310243419995</v>
+        <v>42.2764017441443</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>1026.85681498043</v>
+        <v>805.002971257861</v>
       </c>
       <c r="C38">
-        <v>24.4972960347821</v>
+        <v>25.2721615950487</v>
       </c>
       <c r="D38">
-        <v>7.04725014262846</v>
+        <v>8.152644899527751</v>
       </c>
       <c r="E38">
-        <v>43.5187039318006</v>
+        <v>49.5319971753221</v>
       </c>
       <c r="F38">
-        <v>1.18160759731916</v>
+        <v>1.52187259318837</v>
       </c>
       <c r="G38">
-        <v>6.02189545575189</v>
+        <v>7.37678964572127</v>
       </c>
       <c r="H38">
-        <v>1.89356956881768</v>
+        <v>2.40342757119527</v>
       </c>
       <c r="I38">
-        <v>1.03209416043821</v>
+        <v>1.09130472945998</v>
       </c>
       <c r="J38">
-        <v>27.8483430185381</v>
+        <v>37.1459268312455</v>
       </c>
       <c r="K38">
-        <v>1.91803471087025</v>
+        <v>2.919484871706</v>
       </c>
       <c r="L38">
-        <v>71.9886294638229</v>
+        <v>83.1735464362191</v>
       </c>
       <c r="M38">
-        <v>16.9358189048284</v>
+        <v>19.2533001131474</v>
       </c>
       <c r="N38">
-        <v>39.8389726270473</v>
+        <v>42.0840533988463</v>
       </c>
       <c r="O38">
-        <v>1226.1264737039</v>
+        <v>1412.48165468118</v>
       </c>
       <c r="P38">
-        <v>45.1058355998632</v>
+        <v>55.1718537420117</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>3594.38271750834</v>
+        <v>2842.24864450403</v>
       </c>
       <c r="C39">
-        <v>80.8989569791835</v>
+        <v>96.0188687186982</v>
       </c>
       <c r="D39">
-        <v>34.1639330323999</v>
+        <v>36.3193271455831</v>
       </c>
       <c r="E39">
-        <v>134.42009634121</v>
+        <v>140.630236767508</v>
       </c>
       <c r="F39">
-        <v>24.1030228294208</v>
+        <v>29.6489335493113</v>
       </c>
       <c r="G39">
-        <v>107.756071770437</v>
+        <v>130.503581936625</v>
       </c>
       <c r="H39">
-        <v>40.9983547804946</v>
+        <v>49.0721952471468</v>
       </c>
       <c r="I39">
-        <v>26.4942332039738</v>
+        <v>29.2104117692741</v>
       </c>
       <c r="J39">
-        <v>141.245840334872</v>
+        <v>159.514048470452</v>
       </c>
       <c r="K39">
-        <v>54.8060026564996</v>
+        <v>66.84142523768919</v>
       </c>
       <c r="L39">
-        <v>83.8184800814135</v>
+        <v>102.79847810646</v>
       </c>
       <c r="M39">
-        <v>58.235815375694</v>
+        <v>73.29474950565741</v>
       </c>
       <c r="N39">
-        <v>104.810810725622</v>
+        <v>122.775138831093</v>
       </c>
       <c r="O39">
-        <v>4211.98362330756</v>
+        <v>4809.12603680997</v>
       </c>
       <c r="P39">
-        <v>61.401225988389</v>
+        <v>57.1456659797493</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>282.193745741949</v>
+        <v>220.72655433052</v>
       </c>
       <c r="C40">
-        <v>2.91270368178683</v>
+        <v>2.63392991050898</v>
       </c>
       <c r="D40">
-        <v>6.04906121758005</v>
+        <v>7.39521943343771</v>
       </c>
       <c r="E40">
-        <v>4.30497851846838</v>
+        <v>4.22976694027124</v>
       </c>
       <c r="F40">
-        <v>0.218178256700045</v>
+        <v>0.404385894617696</v>
       </c>
       <c r="G40">
-        <v>3.77448147380527</v>
+        <v>3.95657046193755</v>
       </c>
       <c r="H40">
-        <v>3.51684676117276</v>
+        <v>3.90784572821653</v>
       </c>
       <c r="I40">
-        <v>1.83639445520007</v>
+        <v>2.09991535374327</v>
       </c>
       <c r="J40">
-        <v>8.800152372973381</v>
+        <v>10.0974684915524</v>
       </c>
       <c r="K40">
-        <v>1.71867555133462</v>
+        <v>2.09726388377016</v>
       </c>
       <c r="L40">
-        <v>10.3321233815686</v>
+        <v>12.5630657217374</v>
       </c>
       <c r="M40">
-        <v>3.79258041284812</v>
+        <v>3.6974404511781</v>
       </c>
       <c r="N40">
-        <v>17.2658774723786</v>
+        <v>20.7358520899823</v>
       </c>
       <c r="O40">
-        <v>377.236158654005</v>
+        <v>422.432667305886</v>
       </c>
       <c r="P40">
-        <v>3.41864467269282</v>
+        <v>4.88794298272957</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1261.44974470904</v>
+        <v>1059.90320229817</v>
       </c>
       <c r="C41">
-        <v>10.0989124417636</v>
+        <v>13.0795098630195</v>
       </c>
       <c r="D41">
-        <v>60.9752056770221</v>
+        <v>71.4853037365131</v>
       </c>
       <c r="E41">
-        <v>28.552337412832</v>
+        <v>29.7561992194075</v>
       </c>
       <c r="F41">
-        <v>0.839024207136418</v>
+        <v>1.09035533717865</v>
       </c>
       <c r="G41">
-        <v>24.0798351647596</v>
+        <v>25.0765431913394</v>
       </c>
       <c r="H41">
-        <v>28.0746119237133</v>
+        <v>31.1190593154835</v>
       </c>
       <c r="I41">
-        <v>12.1633011409577</v>
+        <v>11.4741612733444</v>
       </c>
       <c r="J41">
-        <v>36.2453571487729</v>
+        <v>39.8432252852011</v>
       </c>
       <c r="K41">
-        <v>9.76457514304588</v>
+        <v>10.1541777152622</v>
       </c>
       <c r="L41">
-        <v>26.5921857625011</v>
+        <v>29.8898540329107</v>
       </c>
       <c r="M41">
-        <v>26.0598368744718</v>
+        <v>28.5563903046944</v>
       </c>
       <c r="N41">
-        <v>17.1561347790628</v>
+        <v>17.9555515200724</v>
       </c>
       <c r="O41">
-        <v>1328.3572157736</v>
+        <v>1496.631221662</v>
       </c>
       <c r="P41">
-        <v>20.9728741397632</v>
+        <v>21.6882515400247</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>159.583343757312</v>
+        <v>107.872120685188</v>
       </c>
       <c r="C42">
-        <v>4.77615129135695</v>
+        <v>5.87204911562248</v>
       </c>
       <c r="D42">
-        <v>1.08193082625912</v>
+        <v>1.68681001478609</v>
       </c>
       <c r="E42">
-        <v>4.93287100287788</v>
+        <v>6.00689433573189</v>
       </c>
       <c r="F42">
-        <v>1.85041336024919</v>
+        <v>2.29427573676393</v>
       </c>
       <c r="G42">
-        <v>1.30106081884546</v>
+        <v>1.66363091927496</v>
       </c>
       <c r="H42">
-        <v>0.709488922384385</v>
+        <v>0.737762597684493</v>
       </c>
       <c r="I42">
-        <v>1.72318456671774</v>
+        <v>1.66154542989654</v>
       </c>
       <c r="J42">
-        <v>3.43077178567736</v>
+        <v>3.99546244399492</v>
       </c>
       <c r="K42">
-        <v>3.27075611757259</v>
+        <v>3.96660484295222</v>
       </c>
       <c r="L42">
-        <v>5.68621680620375</v>
+        <v>6.30265967533238</v>
       </c>
       <c r="M42">
-        <v>3.08271490432112</v>
+        <v>3.98822269064207</v>
       </c>
       <c r="N42">
-        <v>6.65195380683222</v>
+        <v>7.91959836964166</v>
       </c>
       <c r="O42">
-        <v>262.065210198067</v>
+        <v>307.755761872831</v>
       </c>
       <c r="P42">
-        <v>43.674227665031</v>
+        <v>42.2468066173485</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1747.65985392429</v>
+        <v>1552.53666380096</v>
       </c>
       <c r="C43">
-        <v>28.2138396131152</v>
+        <v>36.9270188326834</v>
       </c>
       <c r="D43">
-        <v>26.8645314519983</v>
+        <v>23.8098211030987</v>
       </c>
       <c r="E43">
-        <v>55.2381421048236</v>
+        <v>72.00226459723</v>
       </c>
       <c r="F43">
-        <v>10.7613202862497</v>
+        <v>8.391072792995169</v>
       </c>
       <c r="G43">
-        <v>32.8561827621589</v>
+        <v>38.8893031329382</v>
       </c>
       <c r="H43">
-        <v>44.5350592191194</v>
+        <v>45.7919817906834</v>
       </c>
       <c r="I43">
-        <v>17.3662380045544</v>
+        <v>20.6757606707237</v>
       </c>
       <c r="J43">
-        <v>50.9542578041693</v>
+        <v>59.3139077155549</v>
       </c>
       <c r="K43">
-        <v>24.7011298530539</v>
+        <v>25.7917957506354</v>
       </c>
       <c r="L43">
-        <v>34.0595366472568</v>
+        <v>34.0841775696784</v>
       </c>
       <c r="M43">
-        <v>104.556980216167</v>
+        <v>110.270461704926</v>
       </c>
       <c r="N43">
-        <v>51.4022083476742</v>
+        <v>57.371525503185</v>
       </c>
       <c r="O43">
-        <v>1887.43517238783</v>
+        <v>2054.0951173522</v>
       </c>
       <c r="P43">
-        <v>44.6901153487786</v>
+        <v>54.4652127287894</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>5633.09992623812</v>
+        <v>4720.88648445846</v>
       </c>
       <c r="C44">
-        <v>121.11348251737</v>
+        <v>139.176925520821</v>
       </c>
       <c r="D44">
-        <v>23.0172106230019</v>
+        <v>26.0047553437487</v>
       </c>
       <c r="E44">
-        <v>69.7393649677237</v>
+        <v>85.9802903691651</v>
       </c>
       <c r="F44">
-        <v>196.279750686758</v>
+        <v>217.282392906645</v>
       </c>
       <c r="G44">
-        <v>108.978143204305</v>
+        <v>127.574795179535</v>
       </c>
       <c r="H44">
-        <v>33.6088653758927</v>
+        <v>40.6581323756315</v>
       </c>
       <c r="I44">
-        <v>42.6825763194896</v>
+        <v>51.7477106578539</v>
       </c>
       <c r="J44">
-        <v>103.378810511333</v>
+        <v>118.163731340134</v>
       </c>
       <c r="K44">
-        <v>38.9967143316632</v>
+        <v>44.1292511899385</v>
       </c>
       <c r="L44">
-        <v>143.140138345824</v>
+        <v>170.554137825095</v>
       </c>
       <c r="M44">
-        <v>71.44126826583801</v>
+        <v>80.9936061791428</v>
       </c>
       <c r="N44">
-        <v>83.7596589752074</v>
+        <v>97.97615930791601</v>
       </c>
       <c r="O44">
-        <v>7533.82704190258</v>
+        <v>8330.041048888161</v>
       </c>
       <c r="P44">
-        <v>187.691963785809</v>
+        <v>167.26147518664</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>519.005271940987</v>
+        <v>421.303226656111</v>
       </c>
       <c r="C45">
-        <v>18.5729853739678</v>
+        <v>18.042217881802</v>
       </c>
       <c r="D45">
-        <v>1.38994488230724</v>
+        <v>2.2786116887836</v>
       </c>
       <c r="E45">
-        <v>14.4740171780494</v>
+        <v>17.6325266914385</v>
       </c>
       <c r="F45">
-        <v>20.2422904123052</v>
+        <v>18.8320192551681</v>
       </c>
       <c r="G45">
-        <v>5.30702999613392</v>
+        <v>6.01106056040342</v>
       </c>
       <c r="H45">
-        <v>1.9905939555177</v>
+        <v>2.55986512366604</v>
       </c>
       <c r="I45">
-        <v>4.20529670488367</v>
+        <v>4.14382109232581</v>
       </c>
       <c r="J45">
-        <v>21.786170399174</v>
+        <v>21.404795266134</v>
       </c>
       <c r="K45">
-        <v>2.7158904508799</v>
+        <v>3.31457293188667</v>
       </c>
       <c r="L45">
-        <v>15.1843023961559</v>
+        <v>17.8737236135097</v>
       </c>
       <c r="M45">
-        <v>14.0534458975181</v>
+        <v>15.0596646208523</v>
       </c>
       <c r="N45">
-        <v>26.3266372407154</v>
+        <v>29.8233331287367</v>
       </c>
       <c r="O45">
-        <v>795.492856058326</v>
+        <v>852.63023698657</v>
       </c>
       <c r="P45">
-        <v>16.8145079678504</v>
+        <v>18.4756469819768</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>137.946830116538</v>
+        <v>99.8999090574854</v>
       </c>
       <c r="C46">
-        <v>3.57772361726347</v>
+        <v>3.70011957567033</v>
       </c>
       <c r="D46">
-        <v>0.57234019227403</v>
+        <v>0.5363295458448371</v>
       </c>
       <c r="E46">
-        <v>4.63789570878259</v>
+        <v>4.67369253191776</v>
       </c>
       <c r="F46">
-        <v>0.401493585803539</v>
+        <v>0.505408457812409</v>
       </c>
       <c r="G46">
-        <v>1.43433578517627</v>
+        <v>1.76616514412518</v>
       </c>
       <c r="H46">
-        <v>1.10593661706097</v>
+        <v>1.12246894290414</v>
       </c>
       <c r="I46">
-        <v>1.71570053542553</v>
+        <v>1.75500187292497</v>
       </c>
       <c r="J46">
-        <v>3.56519507107122</v>
+        <v>4.70694332751317</v>
       </c>
       <c r="K46">
-        <v>2.14006532308031</v>
+        <v>2.84345129693635</v>
       </c>
       <c r="L46">
-        <v>10.0354926336797</v>
+        <v>13.2390481190446</v>
       </c>
       <c r="M46">
-        <v>2.45978226748222</v>
+        <v>2.92495973845582</v>
       </c>
       <c r="N46">
-        <v>7.44405596582267</v>
+        <v>10.1116204241185</v>
       </c>
       <c r="O46">
-        <v>238.114290472524</v>
+        <v>267.807896607411</v>
       </c>
       <c r="P46">
-        <v>9.081621952766311</v>
+        <v>8.65107452313122</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1928.31748808229</v>
+        <v>1605.30934386662</v>
       </c>
       <c r="C47">
-        <v>39.8800839763384</v>
+        <v>39.1100207797839</v>
       </c>
       <c r="D47">
-        <v>18.0848478780322</v>
+        <v>16.7090114155014</v>
       </c>
       <c r="E47">
-        <v>43.4633303802939</v>
+        <v>51.7344447979146</v>
       </c>
       <c r="F47">
-        <v>4.88175943496017</v>
+        <v>4.79836543952871</v>
       </c>
       <c r="G47">
-        <v>23.5682688761993</v>
+        <v>23.0316186802318</v>
       </c>
       <c r="H47">
-        <v>7.83130144867219</v>
+        <v>8.51400967654634</v>
       </c>
       <c r="I47">
-        <v>2.6091749166262</v>
+        <v>2.58138506092889</v>
       </c>
       <c r="J47">
-        <v>35.8017222694158</v>
+        <v>32.9407313338291</v>
       </c>
       <c r="K47">
-        <v>7.96090780056188</v>
+        <v>10.0489576915967</v>
       </c>
       <c r="L47">
-        <v>25.801316214798</v>
+        <v>32.1308192677535</v>
       </c>
       <c r="M47">
-        <v>54.54831099624</v>
+        <v>65.9753210366864</v>
       </c>
       <c r="N47">
-        <v>31.2452004431558</v>
+        <v>35.1300196657389</v>
       </c>
       <c r="O47">
-        <v>2696.54700711194</v>
+        <v>2984.64846411166</v>
       </c>
       <c r="P47">
-        <v>22.1356687336826</v>
+        <v>22.3030047450437</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1666.78661517749</v>
+        <v>1317.53356653986</v>
       </c>
       <c r="C48">
-        <v>29.1781560894032</v>
+        <v>31.9478515568926</v>
       </c>
       <c r="D48">
-        <v>6.04841005907536</v>
+        <v>7.64085453403195</v>
       </c>
       <c r="E48">
-        <v>60.5685997684966</v>
+        <v>69.69458269329181</v>
       </c>
       <c r="F48">
-        <v>8.22554008090545</v>
+        <v>11.635110720951</v>
       </c>
       <c r="G48">
-        <v>5.72316915731416</v>
+        <v>7.01809824798448</v>
       </c>
       <c r="H48">
-        <v>5.0828939846188</v>
+        <v>4.95902286885499</v>
       </c>
       <c r="I48">
-        <v>7.99652368388552</v>
+        <v>9.83483841334305</v>
       </c>
       <c r="J48">
-        <v>37.2591772171143</v>
+        <v>43.0219128372834</v>
       </c>
       <c r="K48">
-        <v>10.2423850380807</v>
+        <v>12.4472574958497</v>
       </c>
       <c r="L48">
-        <v>41.2938792985062</v>
+        <v>50.3679111417042</v>
       </c>
       <c r="M48">
-        <v>114.182496818751</v>
+        <v>137.724409587555</v>
       </c>
       <c r="N48">
-        <v>31.3278085979287</v>
+        <v>38.685010712148</v>
       </c>
       <c r="O48">
-        <v>2130.23194143973</v>
+        <v>2409.49423027787</v>
       </c>
       <c r="P48">
-        <v>65.8759520070079</v>
+        <v>77.3711687052148</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>707.831534551232</v>
+        <v>643.528969757965</v>
       </c>
       <c r="C49">
-        <v>5.05250827509191</v>
+        <v>5.33071290232924</v>
       </c>
       <c r="D49">
-        <v>1.46969540516762</v>
+        <v>1.78818312629215</v>
       </c>
       <c r="E49">
-        <v>19.6874234498457</v>
+        <v>23.8497616405004</v>
       </c>
       <c r="F49">
-        <v>23.357774658047</v>
+        <v>24.2251960517125</v>
       </c>
       <c r="G49">
-        <v>13.1354471690312</v>
+        <v>15.6846037115634</v>
       </c>
       <c r="H49">
-        <v>5.91605642531211</v>
+        <v>6.71037245388935</v>
       </c>
       <c r="I49">
-        <v>4.31519143834184</v>
+        <v>5.36826956861596</v>
       </c>
       <c r="J49">
-        <v>17.4765084403396</v>
+        <v>20.7203521528514</v>
       </c>
       <c r="K49">
-        <v>3.32800206274054</v>
+        <v>2.4010836673844</v>
       </c>
       <c r="L49">
-        <v>0.802954663459058</v>
+        <v>0.903864370459097</v>
       </c>
       <c r="M49">
-        <v>3.24052259200612</v>
+        <v>4.41688450867161</v>
       </c>
       <c r="N49">
-        <v>5.04217654126924</v>
+        <v>5.58888973009512</v>
       </c>
       <c r="O49">
-        <v>512.7964859932461</v>
+        <v>569.6301550595611</v>
       </c>
       <c r="P49">
-        <v>6.32936646130778</v>
+        <v>8.20591784449393</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>1275.58321782473</v>
+        <v>945.194495969798</v>
       </c>
       <c r="C50">
-        <v>63.7481261763599</v>
+        <v>69.97549968468979</v>
       </c>
       <c r="D50">
-        <v>9.468942672641051</v>
+        <v>12.890113021409</v>
       </c>
       <c r="E50">
-        <v>129.272698271766</v>
+        <v>146.220326797945</v>
       </c>
       <c r="F50">
-        <v>2.54447395892133</v>
+        <v>2.99565872615323</v>
       </c>
       <c r="G50">
-        <v>25.7296420746817</v>
+        <v>32.9551033524644</v>
       </c>
       <c r="H50">
-        <v>33.2479248546979</v>
+        <v>38.4038739174076</v>
       </c>
       <c r="I50">
-        <v>5.92469519051326</v>
+        <v>7.09578067481361</v>
       </c>
       <c r="J50">
-        <v>83.1121761832883</v>
+        <v>96.5328006520155</v>
       </c>
       <c r="K50">
-        <v>59.4112310095858</v>
+        <v>64.05301809650069</v>
       </c>
       <c r="L50">
-        <v>56.9234875294468</v>
+        <v>65.3527412423685</v>
       </c>
       <c r="M50">
-        <v>43.1139251099824</v>
+        <v>50.5196517316078</v>
       </c>
       <c r="N50">
-        <v>53.2810204101098</v>
+        <v>59.4293185205942</v>
       </c>
       <c r="O50">
-        <v>1899.70494314113</v>
+        <v>2152.79677269673</v>
       </c>
       <c r="P50">
-        <v>81.07124754073691</v>
+        <v>75.8978381150354</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>120.058506085092</v>
+        <v>91.393344334248</v>
       </c>
       <c r="C51">
-        <v>2.96965317747141</v>
+        <v>4.36291564048639</v>
       </c>
       <c r="D51">
-        <v>0.0065907629445356</v>
+        <v>0.009533728344341699</v>
       </c>
       <c r="E51">
-        <v>1.75087987731257</v>
+        <v>1.4296196330765</v>
       </c>
       <c r="F51">
-        <v>22.0079222189456</v>
+        <v>22.9838424671106</v>
       </c>
       <c r="G51">
-        <v>1.53614032783075</v>
+        <v>1.67072442276835</v>
       </c>
       <c r="H51">
-        <v>0.00407096337087169</v>
+        <v>0.00683495791713864</v>
       </c>
       <c r="I51">
-        <v>0.662854899116864</v>
+        <v>0.736993693915083</v>
       </c>
       <c r="J51">
-        <v>0.984935636626402</v>
+        <v>0.861438184253792</v>
       </c>
       <c r="K51">
-        <v>0.5047321612649</v>
+        <v>0.561582193440194</v>
       </c>
       <c r="L51">
-        <v>0.397494838146496</v>
+        <v>0.370610681951947</v>
       </c>
       <c r="M51">
-        <v>0.330786791121453</v>
+        <v>0.252908877090665</v>
       </c>
       <c r="N51">
-        <v>0.512269285716617</v>
+        <v>0.863324085676783</v>
       </c>
       <c r="O51">
-        <v>178.946365296373</v>
+        <v>205.638524744902</v>
       </c>
       <c r="P51">
-        <v>18.0504369179129</v>
+        <v>17.904868423833</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -446,49 +446,49 @@
         </is>
       </c>
       <c r="B2">
-        <v>1354.07935568367</v>
+        <v>1356.11763083119</v>
       </c>
       <c r="C2">
-        <v>22.0601186438745</v>
+        <v>22.6787468617853</v>
       </c>
       <c r="D2">
-        <v>35.5265772462993</v>
+        <v>37.2582492847134</v>
       </c>
       <c r="E2">
-        <v>53.3626020577889</v>
+        <v>55.9766362070219</v>
       </c>
       <c r="F2">
-        <v>24.9916116878003</v>
+        <v>25.4107268576188</v>
       </c>
       <c r="G2">
-        <v>11.3147672378077</v>
+        <v>11.3270015026603</v>
       </c>
       <c r="H2">
-        <v>19.6735762988781</v>
+        <v>20.3251346671017</v>
       </c>
       <c r="I2">
-        <v>13.2799739863353</v>
+        <v>13.4269734437143</v>
       </c>
       <c r="J2">
-        <v>76.4438691930189</v>
+        <v>76.82903838361</v>
       </c>
       <c r="K2">
-        <v>16.6837408286076</v>
+        <v>16.7865619085967</v>
       </c>
       <c r="L2">
-        <v>46.0695272025513</v>
+        <v>45.8957091675247</v>
       </c>
       <c r="M2">
-        <v>37.5515252888981</v>
+        <v>37.3879369072192</v>
       </c>
       <c r="N2">
-        <v>26.6782323787452</v>
+        <v>27.0307967014019</v>
       </c>
       <c r="O2">
-        <v>1425.49405499765</v>
+        <v>1416.79774737469</v>
       </c>
       <c r="P2">
-        <v>20.5004528298702</v>
+        <v>21.5603066486981</v>
       </c>
     </row>
     <row r="3">
@@ -498,49 +498,49 @@
         </is>
       </c>
       <c r="B3">
-        <v>99.73013973178939</v>
+        <v>99.9074123769301</v>
       </c>
       <c r="C3">
-        <v>3.36543431051305</v>
+        <v>3.37778826244608</v>
       </c>
       <c r="D3">
-        <v>0.263527945231239</v>
+        <v>0.266916503754149</v>
       </c>
       <c r="E3">
-        <v>0.779885995173497</v>
+        <v>0.821650070267645</v>
       </c>
       <c r="F3">
-        <v>6.65069920081498</v>
+        <v>6.47395978890829</v>
       </c>
       <c r="G3">
-        <v>0.182990288543882</v>
+        <v>0.166657390029269</v>
       </c>
       <c r="H3">
-        <v>0.00609013738036758</v>
+        <v>0.00535542208698641</v>
       </c>
       <c r="I3">
-        <v>0.547619370399638</v>
+        <v>0.540996892135415</v>
       </c>
       <c r="J3">
-        <v>0.217144893330067</v>
+        <v>0.217032660655743</v>
       </c>
       <c r="K3">
-        <v>0.0970616291720183</v>
+        <v>0.0971543963681254</v>
       </c>
       <c r="L3">
-        <v>0.00933168714196584</v>
+        <v>0.00925004449508317</v>
       </c>
       <c r="M3">
-        <v>0.57018413583959</v>
+        <v>0.569668879631651</v>
       </c>
       <c r="N3">
-        <v>0.348948942581508</v>
+        <v>0.351676744986986</v>
       </c>
       <c r="O3">
-        <v>232.891089519555</v>
+        <v>232.519173759136</v>
       </c>
       <c r="P3">
-        <v>8.421822806959399</v>
+        <v>9.101075834073161</v>
       </c>
     </row>
     <row r="4">
@@ -550,49 +550,49 @@
         </is>
       </c>
       <c r="B4">
-        <v>1315.43790086208</v>
+        <v>1315.48370518895</v>
       </c>
       <c r="C4">
-        <v>5.53596384184402</v>
+        <v>5.56286934200627</v>
       </c>
       <c r="D4">
-        <v>2.53268885971512</v>
+        <v>2.51238468060172</v>
       </c>
       <c r="E4">
-        <v>21.1471798865084</v>
+        <v>21.1463400353931</v>
       </c>
       <c r="F4">
-        <v>9.84874326666111</v>
+        <v>10.9044202915606</v>
       </c>
       <c r="G4">
-        <v>6.4396377008689</v>
+        <v>6.39563901790484</v>
       </c>
       <c r="H4">
-        <v>11.7077640025356</v>
+        <v>11.6761615502729</v>
       </c>
       <c r="I4">
-        <v>10.0393648355265</v>
+        <v>9.99234590629915</v>
       </c>
       <c r="J4">
-        <v>28.1672550187355</v>
+        <v>28.1357740156197</v>
       </c>
       <c r="K4">
-        <v>2.82370652389805</v>
+        <v>2.81325780025594</v>
       </c>
       <c r="L4">
-        <v>70.21508818763959</v>
+        <v>68.98109545592421</v>
       </c>
       <c r="M4">
-        <v>45.4196503458753</v>
+        <v>44.7803232984019</v>
       </c>
       <c r="N4">
-        <v>36.1394758309771</v>
+        <v>36.0115713950835</v>
       </c>
       <c r="O4">
-        <v>2257.09319481532</v>
+        <v>2253.22909507598</v>
       </c>
       <c r="P4">
-        <v>26.3780116290287</v>
+        <v>28.069625966905</v>
       </c>
     </row>
     <row r="5">
@@ -602,49 +602,49 @@
         </is>
       </c>
       <c r="B5">
-        <v>728.657825371594</v>
+        <v>730.013743306485</v>
       </c>
       <c r="C5">
-        <v>39.3817795167545</v>
+        <v>40.3428639546651</v>
       </c>
       <c r="D5">
-        <v>13.9938776780021</v>
+        <v>14.7488126086924</v>
       </c>
       <c r="E5">
-        <v>33.3003170104957</v>
+        <v>34.8111206499448</v>
       </c>
       <c r="F5">
-        <v>6.71203145001894</v>
+        <v>6.96106316940327</v>
       </c>
       <c r="G5">
-        <v>5.09349716111526</v>
+        <v>5.14807454945419</v>
       </c>
       <c r="H5">
-        <v>12.4104138109064</v>
+        <v>12.6988646113437</v>
       </c>
       <c r="I5">
-        <v>8.212226375351451</v>
+        <v>8.34491396693584</v>
       </c>
       <c r="J5">
-        <v>32.5402586684703</v>
+        <v>33.2724665381194</v>
       </c>
       <c r="K5">
-        <v>9.29384897208058</v>
+        <v>9.48747208690232</v>
       </c>
       <c r="L5">
-        <v>14.8595438772614</v>
+        <v>15.0749926786124</v>
       </c>
       <c r="M5">
-        <v>16.9885169646839</v>
+        <v>17.3259110657457</v>
       </c>
       <c r="N5">
-        <v>19.1149464306366</v>
+        <v>19.6169257581145</v>
       </c>
       <c r="O5">
-        <v>969.709056741726</v>
+        <v>959.344327711702</v>
       </c>
       <c r="P5">
-        <v>53.4082722567671</v>
+        <v>58.1340267780119</v>
       </c>
     </row>
     <row r="6">
@@ -654,49 +654,49 @@
         </is>
       </c>
       <c r="B6">
-        <v>7789.39996844088</v>
+        <v>7792.88867818328</v>
       </c>
       <c r="C6">
-        <v>227.830604385865</v>
+        <v>228.88543755849</v>
       </c>
       <c r="D6">
-        <v>63.9251219593735</v>
+        <v>63.9254831163112</v>
       </c>
       <c r="E6">
-        <v>157.756608451743</v>
+        <v>158.056261707014</v>
       </c>
       <c r="F6">
-        <v>48.0635286484473</v>
+        <v>48.1815031189982</v>
       </c>
       <c r="G6">
-        <v>118.332942870248</v>
+        <v>118.269476888431</v>
       </c>
       <c r="H6">
-        <v>48.6442842259621</v>
+        <v>48.588120783086</v>
       </c>
       <c r="I6">
-        <v>46.70801687304</v>
+        <v>46.632173813131</v>
       </c>
       <c r="J6">
-        <v>165.495289553362</v>
+        <v>165.184429894375</v>
       </c>
       <c r="K6">
-        <v>63.6459653677455</v>
+        <v>63.452626505606</v>
       </c>
       <c r="L6">
-        <v>488.52518675758</v>
+        <v>486.667412696575</v>
       </c>
       <c r="M6">
-        <v>251.03396381678</v>
+        <v>250.286744387706</v>
       </c>
       <c r="N6">
-        <v>259.078037746734</v>
+        <v>258.707646062389</v>
       </c>
       <c r="O6">
-        <v>13016.7327605131</v>
+        <v>12999.8754595947</v>
       </c>
       <c r="P6">
-        <v>315.628619181933</v>
+        <v>330.231267443683</v>
       </c>
     </row>
     <row r="7">
@@ -706,49 +706,49 @@
         </is>
       </c>
       <c r="B7">
-        <v>833.709488538582</v>
+        <v>833.914851434493</v>
       </c>
       <c r="C7">
-        <v>41.1665304347198</v>
+        <v>41.8646851384239</v>
       </c>
       <c r="D7">
-        <v>3.725891243727</v>
+        <v>3.68291770780365</v>
       </c>
       <c r="E7">
-        <v>19.5197039751164</v>
+        <v>19.3620799351112</v>
       </c>
       <c r="F7">
-        <v>18.0196280316711</v>
+        <v>18.7148977449949</v>
       </c>
       <c r="G7">
-        <v>10.9116580353424</v>
+        <v>10.7545762528889</v>
       </c>
       <c r="H7">
-        <v>3.78819598407699</v>
+        <v>3.73250101035715</v>
       </c>
       <c r="I7">
-        <v>7.56514098052387</v>
+        <v>7.64302747941603</v>
       </c>
       <c r="J7">
-        <v>17.0850820629957</v>
+        <v>16.9405462156113</v>
       </c>
       <c r="K7">
-        <v>5.42282009513416</v>
+        <v>5.38823184079693</v>
       </c>
       <c r="L7">
-        <v>61.6620700728108</v>
+        <v>60.7992622891248</v>
       </c>
       <c r="M7">
-        <v>12.7108970750884</v>
+        <v>12.4866278254035</v>
       </c>
       <c r="N7">
-        <v>24.1299534869369</v>
+        <v>23.8008987245865</v>
       </c>
       <c r="O7">
-        <v>1954.50155133537</v>
+        <v>1948.59937238315</v>
       </c>
       <c r="P7">
-        <v>26.0901921491952</v>
+        <v>29.2804225853336</v>
       </c>
     </row>
     <row r="8">
@@ -758,49 +758,49 @@
         </is>
       </c>
       <c r="B8">
-        <v>660.997321071041</v>
+        <v>660.917449283761</v>
       </c>
       <c r="C8">
-        <v>11.6130830824393</v>
+        <v>11.6398416529759</v>
       </c>
       <c r="D8">
-        <v>2.28175917215593</v>
+        <v>2.26665602458526</v>
       </c>
       <c r="E8">
-        <v>21.7193307960674</v>
+        <v>21.7940725649727</v>
       </c>
       <c r="F8">
-        <v>0.555127803432361</v>
+        <v>0.555852299542929</v>
       </c>
       <c r="G8">
-        <v>25.0454324802121</v>
+        <v>24.9434362235027</v>
       </c>
       <c r="H8">
-        <v>7.79578874545761</v>
+        <v>7.77692141481785</v>
       </c>
       <c r="I8">
-        <v>8.68430615610184</v>
+        <v>8.70590930250305</v>
       </c>
       <c r="J8">
-        <v>40.0094740129213</v>
+        <v>39.9671799491285</v>
       </c>
       <c r="K8">
-        <v>15.8669493438627</v>
+        <v>15.8630169268933</v>
       </c>
       <c r="L8">
-        <v>45.9292172832225</v>
+        <v>45.8440625998259</v>
       </c>
       <c r="M8">
-        <v>42.693802456378</v>
+        <v>42.7645891061771</v>
       </c>
       <c r="N8">
-        <v>28.113531302069</v>
+        <v>28.1103945025687</v>
       </c>
       <c r="O8">
-        <v>1449.78595609281</v>
+        <v>1449.576598526</v>
       </c>
       <c r="P8">
-        <v>3.6963060043068</v>
+        <v>3.7400802376775</v>
       </c>
     </row>
     <row r="9">
@@ -810,49 +810,49 @@
         </is>
       </c>
       <c r="B9">
-        <v>172.00983176466</v>
+        <v>171.981708368759</v>
       </c>
       <c r="C9">
-        <v>8.35918557420557</v>
+        <v>8.48046460072889</v>
       </c>
       <c r="D9">
-        <v>3.06729222513587</v>
+        <v>3.0610448806254</v>
       </c>
       <c r="E9">
-        <v>3.62730996792354</v>
+        <v>3.63522973122466</v>
       </c>
       <c r="F9">
-        <v>0.5814770890161291</v>
+        <v>0.594378587947235</v>
       </c>
       <c r="G9">
-        <v>18.4657544645678</v>
+        <v>18.1422792195804</v>
       </c>
       <c r="H9">
-        <v>3.0789918594024</v>
+        <v>3.05054324294778</v>
       </c>
       <c r="I9">
-        <v>0.729879269490459</v>
+        <v>0.731870443212513</v>
       </c>
       <c r="J9">
-        <v>5.66625241751141</v>
+        <v>5.6372684802412</v>
       </c>
       <c r="K9">
-        <v>1.49446989281692</v>
+        <v>1.48958478278075</v>
       </c>
       <c r="L9">
-        <v>3.50139719912052</v>
+        <v>3.47296804115507</v>
       </c>
       <c r="M9">
-        <v>5.11688737128558</v>
+        <v>4.79782389201525</v>
       </c>
       <c r="N9">
-        <v>3.70449390528932</v>
+        <v>3.71690556034754</v>
       </c>
       <c r="O9">
-        <v>337.619285198048</v>
+        <v>337.959668227063</v>
       </c>
       <c r="P9">
-        <v>5.27692461322824</v>
+        <v>5.48804693445981</v>
       </c>
     </row>
     <row r="10">
@@ -862,49 +862,49 @@
         </is>
       </c>
       <c r="B10">
-        <v>4321.51529763588</v>
+        <v>4321.14291942101</v>
       </c>
       <c r="C10">
-        <v>82.84743664499651</v>
+        <v>83.59562160453341</v>
       </c>
       <c r="D10">
-        <v>15.4591003686378</v>
+        <v>15.4689604574585</v>
       </c>
       <c r="E10">
-        <v>45.1514158666077</v>
+        <v>45.2819697381612</v>
       </c>
       <c r="F10">
-        <v>7.9097528524926</v>
+        <v>7.96022453109383</v>
       </c>
       <c r="G10">
-        <v>38.6963349485669</v>
+        <v>38.7581808486135</v>
       </c>
       <c r="H10">
-        <v>17.8283917059644</v>
+        <v>17.8381255835223</v>
       </c>
       <c r="I10">
-        <v>30.173938070356</v>
+        <v>30.2632557472305</v>
       </c>
       <c r="J10">
-        <v>61.828332745913</v>
+        <v>61.9526775163651</v>
       </c>
       <c r="K10">
-        <v>13.8218637459106</v>
+        <v>13.8303802819641</v>
       </c>
       <c r="L10">
-        <v>70.801767552397</v>
+        <v>70.7435566863234</v>
       </c>
       <c r="M10">
-        <v>73.7642181335698</v>
+        <v>73.9389696769062</v>
       </c>
       <c r="N10">
-        <v>83.2990848845868</v>
+        <v>83.2769920477994</v>
       </c>
       <c r="O10">
-        <v>7403.41589136573</v>
+        <v>7396.91350549938</v>
       </c>
       <c r="P10">
-        <v>63.2660821394059</v>
+        <v>64.45432509936531</v>
       </c>
     </row>
     <row r="11">
@@ -914,49 +914,49 @@
         </is>
       </c>
       <c r="B11">
-        <v>1925.96490791236</v>
+        <v>1926.07679297526</v>
       </c>
       <c r="C11">
-        <v>80.32890964280929</v>
+        <v>81.4438864389823</v>
       </c>
       <c r="D11">
-        <v>130.636271225349</v>
+        <v>136.367617303522</v>
       </c>
       <c r="E11">
-        <v>72.2349312006825</v>
+        <v>73.191009110821</v>
       </c>
       <c r="F11">
-        <v>6.40556393236189</v>
+        <v>6.48887200548529</v>
       </c>
       <c r="G11">
-        <v>24.2640200670251</v>
+        <v>24.5868213666742</v>
       </c>
       <c r="H11">
-        <v>17.8089458162961</v>
+        <v>18.1277198137145</v>
       </c>
       <c r="I11">
-        <v>14.236935616761</v>
+        <v>14.3204054884322</v>
       </c>
       <c r="J11">
-        <v>37.5477854369413</v>
+        <v>37.890913135226</v>
       </c>
       <c r="K11">
-        <v>11.9136386991951</v>
+        <v>12.0470894103502</v>
       </c>
       <c r="L11">
-        <v>54.3782058720925</v>
+        <v>54.1168597320767</v>
       </c>
       <c r="M11">
-        <v>41.4051540316404</v>
+        <v>42.219127183648</v>
       </c>
       <c r="N11">
-        <v>60.8418997442091</v>
+        <v>61.0595569762205</v>
       </c>
       <c r="O11">
-        <v>3291.08096694393</v>
+        <v>3279.27306809249</v>
       </c>
       <c r="P11">
-        <v>48.5281305090253</v>
+        <v>50.3080272370457</v>
       </c>
     </row>
     <row r="12">
@@ -966,49 +966,49 @@
         </is>
       </c>
       <c r="B12">
-        <v>242.536430739427</v>
+        <v>242.544200935077</v>
       </c>
       <c r="C12">
-        <v>5.64901597994461</v>
+        <v>5.75361198178699</v>
       </c>
       <c r="D12">
-        <v>0.560744025041228</v>
+        <v>0.558017433414046</v>
       </c>
       <c r="E12">
-        <v>1.79365313530781</v>
+        <v>1.78665744526313</v>
       </c>
       <c r="F12">
-        <v>0.993095993959354</v>
+        <v>0.991570028711362</v>
       </c>
       <c r="G12">
-        <v>0.28038437509741</v>
+        <v>0.280296532223172</v>
       </c>
       <c r="H12">
-        <v>0.00514216914212623</v>
+        <v>0.00568140649264357</v>
       </c>
       <c r="I12">
-        <v>0.863299076746694</v>
+        <v>0.860855808809353</v>
       </c>
       <c r="J12">
-        <v>1.88390459453069</v>
+        <v>1.87411818236279</v>
       </c>
       <c r="K12">
-        <v>0.0168860401215356</v>
+        <v>0.0161456170733467</v>
       </c>
       <c r="L12">
-        <v>0.2067361329841</v>
+        <v>0.206245737690204</v>
       </c>
       <c r="M12">
-        <v>3.61951612320807</v>
+        <v>3.56892016127435</v>
       </c>
       <c r="N12">
-        <v>3.39435267420351</v>
+        <v>3.3879484137542</v>
       </c>
       <c r="O12">
-        <v>542.753571522003</v>
+        <v>542.031981748518</v>
       </c>
       <c r="P12">
-        <v>18.5065164752642</v>
+        <v>19.3206595856702</v>
       </c>
     </row>
     <row r="13">
@@ -1018,49 +1018,49 @@
         </is>
       </c>
       <c r="B13">
-        <v>243.110110624442</v>
+        <v>243.748176981003</v>
       </c>
       <c r="C13">
-        <v>14.8833582026144</v>
+        <v>15.2299326785655</v>
       </c>
       <c r="D13">
-        <v>0.440314818113321</v>
+        <v>0.437133285575239</v>
       </c>
       <c r="E13">
-        <v>10.2325623632435</v>
+        <v>10.4507544501778</v>
       </c>
       <c r="F13">
-        <v>3.07296961063031</v>
+        <v>3.34406455816838</v>
       </c>
       <c r="G13">
-        <v>4.85717689483382</v>
+        <v>5.15267711888842</v>
       </c>
       <c r="H13">
-        <v>1.14489843592474</v>
+        <v>1.15304564582521</v>
       </c>
       <c r="I13">
-        <v>1.96190356215117</v>
+        <v>1.95181192261728</v>
       </c>
       <c r="J13">
-        <v>5.71053738354222</v>
+        <v>5.77807556316218</v>
       </c>
       <c r="K13">
-        <v>2.17861424701827</v>
+        <v>2.13227931704923</v>
       </c>
       <c r="L13">
-        <v>19.0617044766323</v>
+        <v>17.4480695205661</v>
       </c>
       <c r="M13">
-        <v>0.495722249748989</v>
+        <v>0.492874276923485</v>
       </c>
       <c r="N13">
-        <v>5.04452869552085</v>
+        <v>4.99561081466305</v>
       </c>
       <c r="O13">
-        <v>541.655960413231</v>
+        <v>537.96515429625</v>
       </c>
       <c r="P13">
-        <v>43.016388039138</v>
+        <v>47.7266320532243</v>
       </c>
     </row>
     <row r="14">
@@ -1070,49 +1070,49 @@
         </is>
       </c>
       <c r="B14">
-        <v>2714.77612676472</v>
+        <v>2714.30631796951</v>
       </c>
       <c r="C14">
-        <v>128.498764233102</v>
+        <v>129.483242645844</v>
       </c>
       <c r="D14">
-        <v>11.4071843662319</v>
+        <v>11.4332873254415</v>
       </c>
       <c r="E14">
-        <v>85.9375821548168</v>
+        <v>86.46999743489531</v>
       </c>
       <c r="F14">
-        <v>18.861885810367</v>
+        <v>19.3426665455119</v>
       </c>
       <c r="G14">
-        <v>74.7746406261036</v>
+        <v>74.8482220821675</v>
       </c>
       <c r="H14">
-        <v>38.1520728405266</v>
+        <v>38.6955814951581</v>
       </c>
       <c r="I14">
-        <v>27.3484671245343</v>
+        <v>27.8250733581519</v>
       </c>
       <c r="J14">
-        <v>131.70671129456</v>
+        <v>134.259492509084</v>
       </c>
       <c r="K14">
-        <v>115.695586567588</v>
+        <v>118.883431442747</v>
       </c>
       <c r="L14">
-        <v>102.174583805885</v>
+        <v>102.143122781384</v>
       </c>
       <c r="M14">
-        <v>71.216058979168</v>
+        <v>72.9558735577193</v>
       </c>
       <c r="N14">
-        <v>90.5295212984114</v>
+        <v>90.91568774521799</v>
       </c>
       <c r="O14">
-        <v>4830.20419762429</v>
+        <v>4809.65725506431</v>
       </c>
       <c r="P14">
-        <v>58.8806822871476</v>
+        <v>67.0247576702866</v>
       </c>
     </row>
     <row r="15">
@@ -1122,49 +1122,49 @@
         </is>
       </c>
       <c r="B15">
-        <v>1298.20669611369</v>
+        <v>1298.17765836976</v>
       </c>
       <c r="C15">
-        <v>48.3508714303671</v>
+        <v>48.5984617465831</v>
       </c>
       <c r="D15">
-        <v>9.533556073436291</v>
+        <v>9.62654267910839</v>
       </c>
       <c r="E15">
-        <v>67.7720171581903</v>
+        <v>69.078091290481</v>
       </c>
       <c r="F15">
-        <v>24.315645838025</v>
+        <v>24.9047973726184</v>
       </c>
       <c r="G15">
-        <v>48.7804960978887</v>
+        <v>48.4504712719038</v>
       </c>
       <c r="H15">
-        <v>40.2733989060078</v>
+        <v>41.1340134019298</v>
       </c>
       <c r="I15">
-        <v>20.6278448765779</v>
+        <v>20.9467137646503</v>
       </c>
       <c r="J15">
-        <v>144.3038223367</v>
+        <v>147.039675891067</v>
       </c>
       <c r="K15">
-        <v>35.1813854727427</v>
+        <v>35.7910798642998</v>
       </c>
       <c r="L15">
-        <v>38.9483300820636</v>
+        <v>39.5763155319413</v>
       </c>
       <c r="M15">
-        <v>167.460412296821</v>
+        <v>171.878483858226</v>
       </c>
       <c r="N15">
-        <v>88.50425778939081</v>
+        <v>91.1687822227247</v>
       </c>
       <c r="O15">
-        <v>2195.29044512706</v>
+        <v>2181.92248378271</v>
       </c>
       <c r="P15">
-        <v>45.7995846127595</v>
+        <v>46.5547314949195</v>
       </c>
     </row>
     <row r="16">
@@ -1174,49 +1174,49 @@
         </is>
       </c>
       <c r="B16">
-        <v>487.721762388371</v>
+        <v>487.262768414556</v>
       </c>
       <c r="C16">
-        <v>66.92261224223149</v>
+        <v>67.3787313386392</v>
       </c>
       <c r="D16">
-        <v>4.04932532191578</v>
+        <v>4.19202643347089</v>
       </c>
       <c r="E16">
-        <v>24.5448716413457</v>
+        <v>24.7902872313458</v>
       </c>
       <c r="F16">
-        <v>2.36556797472409</v>
+        <v>2.66942593053333</v>
       </c>
       <c r="G16">
-        <v>18.7965247640337</v>
+        <v>18.9822187407658</v>
       </c>
       <c r="H16">
-        <v>11.4963726049353</v>
+        <v>11.8055716911911</v>
       </c>
       <c r="I16">
-        <v>6.15861952871767</v>
+        <v>6.45877563174429</v>
       </c>
       <c r="J16">
-        <v>46.3794631050195</v>
+        <v>47.8846693610163</v>
       </c>
       <c r="K16">
-        <v>47.7805767721047</v>
+        <v>49.1154337383063</v>
       </c>
       <c r="L16">
-        <v>20.1143274227117</v>
+        <v>20.1116574984117</v>
       </c>
       <c r="M16">
-        <v>22.6466729724199</v>
+        <v>23.3684407938828</v>
       </c>
       <c r="N16">
-        <v>31.1107667226564</v>
+        <v>31.5084510782653</v>
       </c>
       <c r="O16">
-        <v>1178.76706588551</v>
+        <v>1166.60431211077</v>
       </c>
       <c r="P16">
-        <v>78.495948679954</v>
+        <v>86.58597647733591</v>
       </c>
     </row>
     <row r="17">
@@ -1226,49 +1226,49 @@
         </is>
       </c>
       <c r="B17">
-        <v>491.33018584286</v>
+        <v>491.266214762277</v>
       </c>
       <c r="C17">
-        <v>18.4977078150381</v>
+        <v>18.2932993957963</v>
       </c>
       <c r="D17">
-        <v>2.22541074430532</v>
+        <v>2.18124490372079</v>
       </c>
       <c r="E17">
-        <v>24.5258124063878</v>
+        <v>24.3419982873488</v>
       </c>
       <c r="F17">
-        <v>11.3784600837531</v>
+        <v>12.2545570199177</v>
       </c>
       <c r="G17">
-        <v>6.64908112062245</v>
+        <v>6.69845821485784</v>
       </c>
       <c r="H17">
-        <v>10.4685436688313</v>
+        <v>10.8548159488946</v>
       </c>
       <c r="I17">
-        <v>6.66328919876217</v>
+        <v>6.81660582033051</v>
       </c>
       <c r="J17">
-        <v>18.565308344307</v>
+        <v>18.9099503321829</v>
       </c>
       <c r="K17">
-        <v>9.4511141447238</v>
+        <v>9.469793766223861</v>
       </c>
       <c r="L17">
-        <v>11.5615439997881</v>
+        <v>11.3927930426543</v>
       </c>
       <c r="M17">
-        <v>68.1068383448998</v>
+        <v>65.89150682548331</v>
       </c>
       <c r="N17">
-        <v>12.0334292644638</v>
+        <v>11.9409164702819</v>
       </c>
       <c r="O17">
-        <v>1091.59813613364</v>
+        <v>1085.33930594863</v>
       </c>
       <c r="P17">
-        <v>37.7284623341954</v>
+        <v>45.8684334339473</v>
       </c>
     </row>
     <row r="18">
@@ -1278,49 +1278,49 @@
         </is>
       </c>
       <c r="B18">
-        <v>1079.57123253228</v>
+        <v>1079.86971881444</v>
       </c>
       <c r="C18">
-        <v>29.7438566523347</v>
+        <v>29.8707385080348</v>
       </c>
       <c r="D18">
-        <v>7.76360026101389</v>
+        <v>7.80953619694119</v>
       </c>
       <c r="E18">
-        <v>36.4859652484114</v>
+        <v>36.5105163426721</v>
       </c>
       <c r="F18">
-        <v>36.6836716652692</v>
+        <v>37.4699320680034</v>
       </c>
       <c r="G18">
-        <v>23.1349171413276</v>
+        <v>23.1617087710439</v>
       </c>
       <c r="H18">
-        <v>13.4839186125695</v>
+        <v>13.4488765283062</v>
       </c>
       <c r="I18">
-        <v>3.57957991955569</v>
+        <v>3.54548006045046</v>
       </c>
       <c r="J18">
-        <v>30.024507487797</v>
+        <v>30.049874222257</v>
       </c>
       <c r="K18">
-        <v>13.5404275307652</v>
+        <v>13.5068893672215</v>
       </c>
       <c r="L18">
-        <v>31.425234742164</v>
+        <v>31.3236791781593</v>
       </c>
       <c r="M18">
-        <v>63.7353203796933</v>
+        <v>63.4671093150241</v>
       </c>
       <c r="N18">
-        <v>20.4393647171447</v>
+        <v>20.3564154530187</v>
       </c>
       <c r="O18">
-        <v>1470.05843052998</v>
+        <v>1469.24748105359</v>
       </c>
       <c r="P18">
-        <v>60.5268599081929</v>
+        <v>60.9574387923333</v>
       </c>
     </row>
     <row r="19">
@@ -1330,49 +1330,49 @@
         </is>
       </c>
       <c r="B19">
-        <v>1178.33144451637</v>
+        <v>1177.23512880827</v>
       </c>
       <c r="C19">
-        <v>35.547135181344</v>
+        <v>35.8962888440646</v>
       </c>
       <c r="D19">
-        <v>10.3430648825373</v>
+        <v>10.742615369349</v>
       </c>
       <c r="E19">
-        <v>34.0035364910647</v>
+        <v>36.4452413575876</v>
       </c>
       <c r="F19">
-        <v>89.896436105215</v>
+        <v>89.9996716719824</v>
       </c>
       <c r="G19">
-        <v>38.4661220492473</v>
+        <v>38.5176656884272</v>
       </c>
       <c r="H19">
-        <v>8.193232240426889</v>
+        <v>8.191550457331299</v>
       </c>
       <c r="I19">
-        <v>4.73255051700791</v>
+        <v>4.7451712907299</v>
       </c>
       <c r="J19">
-        <v>17.1082780937083</v>
+        <v>17.2734194619017</v>
       </c>
       <c r="K19">
-        <v>9.147179844271539</v>
+        <v>9.287643628340151</v>
       </c>
       <c r="L19">
-        <v>1.66763883239869</v>
+        <v>1.66955571780019</v>
       </c>
       <c r="M19">
-        <v>27.8986746072649</v>
+        <v>27.5374189192335</v>
       </c>
       <c r="N19">
-        <v>12.2625332080994</v>
+        <v>12.3862046107743</v>
       </c>
       <c r="O19">
-        <v>1496.64694383858</v>
+        <v>1491.73311334152</v>
       </c>
       <c r="P19">
-        <v>44.7219648809261</v>
+        <v>47.0261646904734</v>
       </c>
     </row>
     <row r="20">
@@ -1382,49 +1382,49 @@
         </is>
       </c>
       <c r="B20">
-        <v>283.159739077323</v>
+        <v>284.302022090572</v>
       </c>
       <c r="C20">
-        <v>8.657186722691129</v>
+        <v>8.67043350820089</v>
       </c>
       <c r="D20">
-        <v>5.94111609905851</v>
+        <v>6.13658603073538</v>
       </c>
       <c r="E20">
-        <v>30.4588648119647</v>
+        <v>32.7193366693469</v>
       </c>
       <c r="F20">
-        <v>0.898672854969278</v>
+        <v>0.928989102938611</v>
       </c>
       <c r="G20">
-        <v>2.79793522019866</v>
+        <v>2.79258797077717</v>
       </c>
       <c r="H20">
-        <v>0.905201520278889</v>
+        <v>0.92239722227383</v>
       </c>
       <c r="I20">
-        <v>2.36364682431213</v>
+        <v>2.3334443139839</v>
       </c>
       <c r="J20">
-        <v>4.0536045536538</v>
+        <v>3.94869025488281</v>
       </c>
       <c r="K20">
-        <v>1.44253077476206</v>
+        <v>1.36655300538651</v>
       </c>
       <c r="L20">
-        <v>7.42424682333815</v>
+        <v>7.21874049588018</v>
       </c>
       <c r="M20">
-        <v>21.7895987145692</v>
+        <v>20.1521816051413</v>
       </c>
       <c r="N20">
-        <v>5.71951132563605</v>
+        <v>5.75692562445642</v>
       </c>
       <c r="O20">
-        <v>551.280441364131</v>
+        <v>548.9936964594129</v>
       </c>
       <c r="P20">
-        <v>17.8511979267531</v>
+        <v>19.3234557435219</v>
       </c>
     </row>
     <row r="21">
@@ -1434,49 +1434,49 @@
         </is>
       </c>
       <c r="B21">
-        <v>1072.85266741778</v>
+        <v>1072.4084558367</v>
       </c>
       <c r="C21">
-        <v>18.8888490486287</v>
+        <v>19.1863499249207</v>
       </c>
       <c r="D21">
-        <v>1.66284297714126</v>
+        <v>1.72667247665219</v>
       </c>
       <c r="E21">
-        <v>17.5387634857187</v>
+        <v>17.6987760438346</v>
       </c>
       <c r="F21">
-        <v>3.58943829939225</v>
+        <v>3.64143158805451</v>
       </c>
       <c r="G21">
-        <v>21.116408621823</v>
+        <v>21.1340739746053</v>
       </c>
       <c r="H21">
-        <v>4.14737739445084</v>
+        <v>4.17104931667865</v>
       </c>
       <c r="I21">
-        <v>12.1666120077032</v>
+        <v>12.2165078251532</v>
       </c>
       <c r="J21">
-        <v>24.7201264157747</v>
+        <v>25.0061574741267</v>
       </c>
       <c r="K21">
-        <v>3.01095988298596</v>
+        <v>3.01316769274506</v>
       </c>
       <c r="L21">
-        <v>27.8729194619921</v>
+        <v>27.8947726588556</v>
       </c>
       <c r="M21">
-        <v>24.3604597535087</v>
+        <v>24.3924115156331</v>
       </c>
       <c r="N21">
-        <v>14.2534865926108</v>
+        <v>14.3001860195697</v>
       </c>
       <c r="O21">
-        <v>2365.19906580456</v>
+        <v>2361.97842099657</v>
       </c>
       <c r="P21">
-        <v>20.4632529658042</v>
+        <v>21.3460914880159</v>
       </c>
     </row>
     <row r="22">
@@ -1486,49 +1486,49 @@
         </is>
       </c>
       <c r="B22">
-        <v>1273.54130743851</v>
+        <v>1273.36196335379</v>
       </c>
       <c r="C22">
-        <v>19.5852931231321</v>
+        <v>19.679072442297</v>
       </c>
       <c r="D22">
-        <v>17.9535635040443</v>
+        <v>18.0012736180769</v>
       </c>
       <c r="E22">
-        <v>42.6570128524245</v>
+        <v>43.1589904306933</v>
       </c>
       <c r="F22">
-        <v>2.38066676294705</v>
+        <v>2.39238462179823</v>
       </c>
       <c r="G22">
-        <v>29.452587602975</v>
+        <v>29.4814062575721</v>
       </c>
       <c r="H22">
-        <v>14.2939065999664</v>
+        <v>14.3901995288116</v>
       </c>
       <c r="I22">
-        <v>11.1602463642729</v>
+        <v>11.2420671976346</v>
       </c>
       <c r="J22">
-        <v>36.1358267685787</v>
+        <v>36.4413490896603</v>
       </c>
       <c r="K22">
-        <v>9.8886592371937</v>
+        <v>9.922022103234401</v>
       </c>
       <c r="L22">
-        <v>107.993750944736</v>
+        <v>107.720858763513</v>
       </c>
       <c r="M22">
-        <v>15.8436494787606</v>
+        <v>15.8065139881855</v>
       </c>
       <c r="N22">
-        <v>60.1343283052604</v>
+        <v>60.3788290936793</v>
       </c>
       <c r="O22">
-        <v>2715.02802539281</v>
+        <v>2712.56081104144</v>
       </c>
       <c r="P22">
-        <v>11.2527446941848</v>
+        <v>11.8996401573925</v>
       </c>
     </row>
     <row r="23">
@@ -1538,49 +1538,49 @@
         </is>
       </c>
       <c r="B23">
-        <v>2388.15006474194</v>
+        <v>2391.0112430051</v>
       </c>
       <c r="C23">
-        <v>32.3065705801963</v>
+        <v>32.9852691505828</v>
       </c>
       <c r="D23">
-        <v>7.25580236774749</v>
+        <v>7.31899520250847</v>
       </c>
       <c r="E23">
-        <v>40.3451511270609</v>
+        <v>41.2791557710332</v>
       </c>
       <c r="F23">
-        <v>7.77300131972311</v>
+        <v>8.46589080433583</v>
       </c>
       <c r="G23">
-        <v>53.3922341879738</v>
+        <v>53.2147880521891</v>
       </c>
       <c r="H23">
-        <v>56.4836772843952</v>
+        <v>56.6693160016495</v>
       </c>
       <c r="I23">
-        <v>14.343580755991</v>
+        <v>14.4208438833354</v>
       </c>
       <c r="J23">
-        <v>123.215737366789</v>
+        <v>123.179302528227</v>
       </c>
       <c r="K23">
-        <v>79.7038259354909</v>
+        <v>79.6875510592387</v>
       </c>
       <c r="L23">
-        <v>33.7738169107277</v>
+        <v>33.6682549703068</v>
       </c>
       <c r="M23">
-        <v>559.522694442179</v>
+        <v>550.368759014286</v>
       </c>
       <c r="N23">
-        <v>82.56308793217789</v>
+        <v>82.31566412979829</v>
       </c>
       <c r="O23">
-        <v>3426.25343495777</v>
+        <v>3421.05651400578</v>
       </c>
       <c r="P23">
-        <v>43.5460374113642</v>
+        <v>50.0959366610105</v>
       </c>
     </row>
     <row r="24">
@@ -1590,49 +1590,49 @@
         </is>
       </c>
       <c r="B24">
-        <v>842.174199417715</v>
+        <v>841.058726834571</v>
       </c>
       <c r="C24">
-        <v>44.5663991192519</v>
+        <v>47.1298175284033</v>
       </c>
       <c r="D24">
-        <v>6.2479660288524</v>
+        <v>6.68078205090774</v>
       </c>
       <c r="E24">
-        <v>52.2077200117713</v>
+        <v>51.7621227788683</v>
       </c>
       <c r="F24">
-        <v>10.4275221825398</v>
+        <v>11.048935142919</v>
       </c>
       <c r="G24">
-        <v>28.3996227170544</v>
+        <v>28.1291730803242</v>
       </c>
       <c r="H24">
-        <v>18.352699017479</v>
+        <v>18.400394580927</v>
       </c>
       <c r="I24">
-        <v>15.453209755552</v>
+        <v>15.4581627451574</v>
       </c>
       <c r="J24">
-        <v>53.535952151736</v>
+        <v>54.4566829151462</v>
       </c>
       <c r="K24">
-        <v>28.926252731442</v>
+        <v>29.1663473959813</v>
       </c>
       <c r="L24">
-        <v>72.3977378159625</v>
+        <v>70.55853773178021</v>
       </c>
       <c r="M24">
-        <v>23.5533807823519</v>
+        <v>23.8566536765517</v>
       </c>
       <c r="N24">
-        <v>78.7062304053534</v>
+        <v>77.48546803980651</v>
       </c>
       <c r="O24">
-        <v>2091.33698261329</v>
+        <v>2064.63796472357</v>
       </c>
       <c r="P24">
-        <v>77.97544156871869</v>
+        <v>104.07246286506</v>
       </c>
     </row>
     <row r="25">
@@ -1642,49 +1642,49 @@
         </is>
       </c>
       <c r="B25">
-        <v>776.8458041679</v>
+        <v>776.516846079066</v>
       </c>
       <c r="C25">
-        <v>45.134593608662</v>
+        <v>46.4771206642128</v>
       </c>
       <c r="D25">
-        <v>12.6664618319351</v>
+        <v>13.2958971994107</v>
       </c>
       <c r="E25">
-        <v>46.4031845802798</v>
+        <v>47.7822405078348</v>
       </c>
       <c r="F25">
-        <v>15.2558570947275</v>
+        <v>15.3623014992884</v>
       </c>
       <c r="G25">
-        <v>13.9829152121356</v>
+        <v>14.1197740748552</v>
       </c>
       <c r="H25">
-        <v>9.219486388060521</v>
+        <v>9.68207802039638</v>
       </c>
       <c r="I25">
-        <v>6.17621390300851</v>
+        <v>6.33789942780794</v>
       </c>
       <c r="J25">
-        <v>10.2632532418899</v>
+        <v>10.7003668331615</v>
       </c>
       <c r="K25">
-        <v>8.636322392093369</v>
+        <v>8.87211258996733</v>
       </c>
       <c r="L25">
-        <v>13.3159984534289</v>
+        <v>13.7601529388883</v>
       </c>
       <c r="M25">
-        <v>41.1666273172795</v>
+        <v>41.0418174699533</v>
       </c>
       <c r="N25">
-        <v>35.5338820227006</v>
+        <v>37.484768067781</v>
       </c>
       <c r="O25">
-        <v>868.154823346781</v>
+        <v>860.237574274894</v>
       </c>
       <c r="P25">
-        <v>41.6318159757139</v>
+        <v>44.0547347798621</v>
       </c>
     </row>
     <row r="26">
@@ -1694,49 +1694,49 @@
         </is>
       </c>
       <c r="B26">
-        <v>1164.16412842486</v>
+        <v>1164.17710584174</v>
       </c>
       <c r="C26">
-        <v>54.4775219391637</v>
+        <v>56.2582270351522</v>
       </c>
       <c r="D26">
-        <v>3.59320610529149</v>
+        <v>3.69608212145632</v>
       </c>
       <c r="E26">
-        <v>39.6152128899641</v>
+        <v>40.7534707537237</v>
       </c>
       <c r="F26">
-        <v>10.2110661605723</v>
+        <v>10.7985716347619</v>
       </c>
       <c r="G26">
-        <v>29.8812677245095</v>
+        <v>29.6194184942021</v>
       </c>
       <c r="H26">
-        <v>13.4118926160621</v>
+        <v>13.7286981066766</v>
       </c>
       <c r="I26">
-        <v>14.7697859203507</v>
+        <v>15.1180702565419</v>
       </c>
       <c r="J26">
-        <v>39.9389668274676</v>
+        <v>40.5707942259862</v>
       </c>
       <c r="K26">
-        <v>15.5109766643901</v>
+        <v>15.6428416166995</v>
       </c>
       <c r="L26">
-        <v>28.3031182391921</v>
+        <v>28.8857823767082</v>
       </c>
       <c r="M26">
-        <v>71.07687730177671</v>
+        <v>71.43742123407129</v>
       </c>
       <c r="N26">
-        <v>24.4234840860264</v>
+        <v>24.901958094179</v>
       </c>
       <c r="O26">
-        <v>2352.79282492649</v>
+        <v>2337.22164392887</v>
       </c>
       <c r="P26">
-        <v>55.1179627556137</v>
+        <v>62.9303865094919</v>
       </c>
     </row>
     <row r="27">
@@ -1746,49 +1746,49 @@
         </is>
       </c>
       <c r="B27">
-        <v>193.821461990011</v>
+        <v>193.97374552247</v>
       </c>
       <c r="C27">
-        <v>1.79641486479822</v>
+        <v>1.84682257736442</v>
       </c>
       <c r="D27">
-        <v>2.43014582572443</v>
+        <v>2.49907032990771</v>
       </c>
       <c r="E27">
-        <v>10.2870022987865</v>
+        <v>10.2815433400833</v>
       </c>
       <c r="F27">
-        <v>5.41935017053538</v>
+        <v>5.61241987995777</v>
       </c>
       <c r="G27">
-        <v>0.464654925621438</v>
+        <v>0.451630062296056</v>
       </c>
       <c r="H27">
-        <v>0.188215902284216</v>
+        <v>0.18499993558565</v>
       </c>
       <c r="I27">
-        <v>2.6435308079511</v>
+        <v>2.69575395029015</v>
       </c>
       <c r="J27">
-        <v>3.38958750924091</v>
+        <v>3.39134263697358</v>
       </c>
       <c r="K27">
-        <v>0.5074144419034891</v>
+        <v>0.499262424316107</v>
       </c>
       <c r="L27">
-        <v>1.79094933401423</v>
+        <v>1.71603995340399</v>
       </c>
       <c r="M27">
-        <v>0.546442098177114</v>
+        <v>0.540243193982819</v>
       </c>
       <c r="N27">
-        <v>3.14758867205664</v>
+        <v>3.09714750731092</v>
       </c>
       <c r="O27">
-        <v>378.305069687088</v>
+        <v>373.416553863637</v>
       </c>
       <c r="P27">
-        <v>38.5365419459979</v>
+        <v>44.7178629265058</v>
       </c>
     </row>
     <row r="28">
@@ -1798,49 +1798,49 @@
         </is>
       </c>
       <c r="B28">
-        <v>263.675070136081</v>
+        <v>261.748151972269</v>
       </c>
       <c r="C28">
-        <v>31.8722862977696</v>
+        <v>31.9210014309605</v>
       </c>
       <c r="D28">
-        <v>1.85520902601903</v>
+        <v>1.83765842624314</v>
       </c>
       <c r="E28">
-        <v>7.46112084945833</v>
+        <v>7.24340330764751</v>
       </c>
       <c r="F28">
-        <v>1.03909980896209</v>
+        <v>1.09835591744428</v>
       </c>
       <c r="G28">
-        <v>4.35855220196238</v>
+        <v>4.23027301280364</v>
       </c>
       <c r="H28">
-        <v>7.98337563628205</v>
+        <v>8.210001200131799</v>
       </c>
       <c r="I28">
-        <v>3.38691439634757</v>
+        <v>3.31868096516296</v>
       </c>
       <c r="J28">
-        <v>19.195733916309</v>
+        <v>19.8960668423159</v>
       </c>
       <c r="K28">
-        <v>9.062642380666199</v>
+        <v>9.294493217374191</v>
       </c>
       <c r="L28">
-        <v>13.9506124042697</v>
+        <v>13.3217104237279</v>
       </c>
       <c r="M28">
-        <v>9.62429613741061</v>
+        <v>9.871554709439881</v>
       </c>
       <c r="N28">
-        <v>11.6320104087733</v>
+        <v>11.4889648072595</v>
       </c>
       <c r="O28">
-        <v>735.3216530687211</v>
+        <v>718.075726421705</v>
       </c>
       <c r="P28">
-        <v>61.9787544116328</v>
+        <v>83.57747976602801</v>
       </c>
     </row>
     <row r="29">
@@ -1850,49 +1850,49 @@
         </is>
       </c>
       <c r="B29">
-        <v>439.534981989541</v>
+        <v>438.990833904169</v>
       </c>
       <c r="C29">
-        <v>4.98778352557873</v>
+        <v>5.03899741930929</v>
       </c>
       <c r="D29">
-        <v>2.6187683237315</v>
+        <v>2.61055000071936</v>
       </c>
       <c r="E29">
-        <v>4.1478737036085</v>
+        <v>4.1318187228694</v>
       </c>
       <c r="F29">
-        <v>22.6407518020691</v>
+        <v>25.7082583859056</v>
       </c>
       <c r="G29">
-        <v>5.11203408623548</v>
+        <v>5.08392851953957</v>
       </c>
       <c r="H29">
-        <v>0.910599548927916</v>
+        <v>0.897598687308089</v>
       </c>
       <c r="I29">
-        <v>0.980098894525487</v>
+        <v>1.1026532851754</v>
       </c>
       <c r="J29">
-        <v>3.72958797845704</v>
+        <v>3.71864633699883</v>
       </c>
       <c r="K29">
-        <v>1.31187205735926</v>
+        <v>1.29809469594653</v>
       </c>
       <c r="L29">
-        <v>2.6443982213092</v>
+        <v>2.62762597539076</v>
       </c>
       <c r="M29">
-        <v>3.19993839472544</v>
+        <v>3.17821339589957</v>
       </c>
       <c r="N29">
-        <v>9.298148851274339</v>
+        <v>9.253014126144061</v>
       </c>
       <c r="O29">
-        <v>1042.52312254555</v>
+        <v>1038.81188617331</v>
       </c>
       <c r="P29">
-        <v>4.41539131022352</v>
+        <v>4.7235051622026</v>
       </c>
     </row>
     <row r="30">
@@ -1902,49 +1902,49 @@
         </is>
       </c>
       <c r="B30">
-        <v>211.549522040153</v>
+        <v>211.433450736421</v>
       </c>
       <c r="C30">
-        <v>3.70713142906465</v>
+        <v>3.69175933907415</v>
       </c>
       <c r="D30">
-        <v>3.77368793837523</v>
+        <v>3.80397862330476</v>
       </c>
       <c r="E30">
-        <v>11.1957101801926</v>
+        <v>11.446028379048</v>
       </c>
       <c r="F30">
-        <v>0.83337483951979</v>
+        <v>0.83405254148119</v>
       </c>
       <c r="G30">
-        <v>5.15752526712126</v>
+        <v>5.13029373963564</v>
       </c>
       <c r="H30">
-        <v>4.67441256992195</v>
+        <v>4.65145724115836</v>
       </c>
       <c r="I30">
-        <v>1.97834865690582</v>
+        <v>1.95120170283944</v>
       </c>
       <c r="J30">
-        <v>17.2035716875666</v>
+        <v>17.1357201208396</v>
       </c>
       <c r="K30">
-        <v>6.82429927325944</v>
+        <v>6.78207946277932</v>
       </c>
       <c r="L30">
-        <v>41.0937571392069</v>
+        <v>40.0920948906329</v>
       </c>
       <c r="M30">
-        <v>10.251372131663</v>
+        <v>10.1213234435179</v>
       </c>
       <c r="N30">
-        <v>14.9606444885282</v>
+        <v>14.967304504343</v>
       </c>
       <c r="O30">
-        <v>517.449108090318</v>
+        <v>517.666264660133</v>
       </c>
       <c r="P30">
-        <v>5.77739454086185</v>
+        <v>6.18992353390185</v>
       </c>
     </row>
     <row r="31">
@@ -1954,49 +1954,49 @@
         </is>
       </c>
       <c r="B31">
-        <v>1805.72327731256</v>
+        <v>1805.58438367989</v>
       </c>
       <c r="C31">
-        <v>59.3488171891028</v>
+        <v>59.3959290743543</v>
       </c>
       <c r="D31">
-        <v>19.2936530182822</v>
+        <v>19.2518015294579</v>
       </c>
       <c r="E31">
-        <v>42.909568107264</v>
+        <v>42.9412155803713</v>
       </c>
       <c r="F31">
-        <v>3.04762448813437</v>
+        <v>3.12432172352587</v>
       </c>
       <c r="G31">
-        <v>92.8366387561199</v>
+        <v>92.8622217608258</v>
       </c>
       <c r="H31">
-        <v>6.68172068313592</v>
+        <v>6.73912271517159</v>
       </c>
       <c r="I31">
-        <v>17.2290627452263</v>
+        <v>17.4497693578129</v>
       </c>
       <c r="J31">
-        <v>30.9500262481067</v>
+        <v>30.9754527938318</v>
       </c>
       <c r="K31">
-        <v>8.686473014968859</v>
+        <v>8.685966943215</v>
       </c>
       <c r="L31">
-        <v>60.5034278008437</v>
+        <v>60.4021753204875</v>
       </c>
       <c r="M31">
-        <v>20.8444387634095</v>
+        <v>20.8349424691509</v>
       </c>
       <c r="N31">
-        <v>53.012705340099</v>
+        <v>53.0167648541088</v>
       </c>
       <c r="O31">
-        <v>3598.43632065146</v>
+        <v>3596.36893023936</v>
       </c>
       <c r="P31">
-        <v>16.8766546365368</v>
+        <v>17.3702352339656</v>
       </c>
     </row>
     <row r="32">
@@ -2006,49 +2006,49 @@
         </is>
       </c>
       <c r="B32">
-        <v>457.568129983804</v>
+        <v>457.763992900914</v>
       </c>
       <c r="C32">
-        <v>2.95448123073394</v>
+        <v>2.98204255397109</v>
       </c>
       <c r="D32">
-        <v>0.978672064456306</v>
+        <v>0.977814279745861</v>
       </c>
       <c r="E32">
-        <v>4.07332762155128</v>
+        <v>4.18196047991207</v>
       </c>
       <c r="F32">
-        <v>24.1178550326195</v>
+        <v>24.7271402186554</v>
       </c>
       <c r="G32">
-        <v>1.90009219473093</v>
+        <v>1.91161345607924</v>
       </c>
       <c r="H32">
-        <v>0.645673052575711</v>
+        <v>0.658191135325634</v>
       </c>
       <c r="I32">
-        <v>2.59575424409429</v>
+        <v>2.60099124491499</v>
       </c>
       <c r="J32">
-        <v>3.24058792764474</v>
+        <v>3.20577454948543</v>
       </c>
       <c r="K32">
-        <v>2.66145442027505</v>
+        <v>2.63447319431411</v>
       </c>
       <c r="L32">
-        <v>10.1265094470383</v>
+        <v>9.731832789062359</v>
       </c>
       <c r="M32">
-        <v>4.42543290314288</v>
+        <v>4.38204206122786</v>
       </c>
       <c r="N32">
-        <v>10.6564830927039</v>
+        <v>10.6495656548714</v>
       </c>
       <c r="O32">
-        <v>730.347812936134</v>
+        <v>728.769002141869</v>
       </c>
       <c r="P32">
-        <v>18.3375690431804</v>
+        <v>20.4329259236535</v>
       </c>
     </row>
     <row r="33">
@@ -2058,49 +2058,49 @@
         </is>
       </c>
       <c r="B33">
-        <v>4620.27947206477</v>
+        <v>4617.25102320871</v>
       </c>
       <c r="C33">
-        <v>81.99684760930499</v>
+        <v>83.02690360881461</v>
       </c>
       <c r="D33">
-        <v>30.1301115716251</v>
+        <v>29.9153144538221</v>
       </c>
       <c r="E33">
-        <v>70.5444053164677</v>
+        <v>71.5634146165813</v>
       </c>
       <c r="F33">
-        <v>6.38944494225729</v>
+        <v>6.40701812392191</v>
       </c>
       <c r="G33">
-        <v>64.2445061351287</v>
+        <v>65.5499520764557</v>
       </c>
       <c r="H33">
-        <v>29.4817148104931</v>
+        <v>30.2266801268793</v>
       </c>
       <c r="I33">
-        <v>24.6500498769034</v>
+        <v>25.2211926875844</v>
       </c>
       <c r="J33">
-        <v>96.46912079297781</v>
+        <v>100.431519682223</v>
       </c>
       <c r="K33">
-        <v>64.8186324205347</v>
+        <v>67.3975645586341</v>
       </c>
       <c r="L33">
-        <v>107.601818371468</v>
+        <v>110.269567211571</v>
       </c>
       <c r="M33">
-        <v>54.6755379591622</v>
+        <v>56.9739550702577</v>
       </c>
       <c r="N33">
-        <v>143.570222032644</v>
+        <v>146.29138006719</v>
       </c>
       <c r="O33">
-        <v>7497.9455121453</v>
+        <v>7463.60862335877</v>
       </c>
       <c r="P33">
-        <v>58.9199357133553</v>
+        <v>72.4689978369981</v>
       </c>
     </row>
     <row r="34">
@@ -2110,49 +2110,49 @@
         </is>
       </c>
       <c r="B34">
-        <v>1945.63131994285</v>
+        <v>1946.97575003931</v>
       </c>
       <c r="C34">
-        <v>75.3793534473201</v>
+        <v>75.8004460253414</v>
       </c>
       <c r="D34">
-        <v>114.021550226293</v>
+        <v>116.414769067657</v>
       </c>
       <c r="E34">
-        <v>46.8980766746978</v>
+        <v>47.2027712124875</v>
       </c>
       <c r="F34">
-        <v>5.79017738186876</v>
+        <v>6.01045685525461</v>
       </c>
       <c r="G34">
-        <v>42.4207551549182</v>
+        <v>42.3828134116548</v>
       </c>
       <c r="H34">
-        <v>48.6878158674241</v>
+        <v>48.6375879768005</v>
       </c>
       <c r="I34">
-        <v>12.3976895717945</v>
+        <v>12.4060457356401</v>
       </c>
       <c r="J34">
-        <v>42.9619531307628</v>
+        <v>43.0621997924207</v>
       </c>
       <c r="K34">
-        <v>22.0233960397442</v>
+        <v>21.9552078477682</v>
       </c>
       <c r="L34">
-        <v>105.7026509771</v>
+        <v>105.78214241667</v>
       </c>
       <c r="M34">
-        <v>37.6060848382711</v>
+        <v>37.4932361414618</v>
       </c>
       <c r="N34">
-        <v>128.69413897415</v>
+        <v>130.173160647106</v>
       </c>
       <c r="O34">
-        <v>3110.90420582571</v>
+        <v>3105.15541131975</v>
       </c>
       <c r="P34">
-        <v>54.359112985608</v>
+        <v>55.8049769535201</v>
       </c>
     </row>
     <row r="35">
@@ -2162,49 +2162,49 @@
         </is>
       </c>
       <c r="B35">
-        <v>108.830556619528</v>
+        <v>109.431341485985</v>
       </c>
       <c r="C35">
-        <v>7.02422852684115</v>
+        <v>7.10010978028422</v>
       </c>
       <c r="D35">
-        <v>0.5144280935761411</v>
+        <v>0.504923709328481</v>
       </c>
       <c r="E35">
-        <v>2.28078881008975</v>
+        <v>2.21751151640938</v>
       </c>
       <c r="F35">
-        <v>3.64188257753546</v>
+        <v>3.86643866893487</v>
       </c>
       <c r="G35">
-        <v>0.968386523529811</v>
+        <v>0.926706171644117</v>
       </c>
       <c r="H35">
-        <v>0.553546528967639</v>
+        <v>0.537488977794835</v>
       </c>
       <c r="I35">
-        <v>0.921073041578697</v>
+        <v>0.897128842182794</v>
       </c>
       <c r="J35">
-        <v>3.18018579924254</v>
+        <v>3.15204770152738</v>
       </c>
       <c r="K35">
-        <v>5.0643831641537</v>
+        <v>5.04948952548548</v>
       </c>
       <c r="L35">
-        <v>2.73326202649937</v>
+        <v>2.60508396023422</v>
       </c>
       <c r="M35">
-        <v>2.07949669076957</v>
+        <v>2.07442927136669</v>
       </c>
       <c r="N35">
-        <v>3.79985813014894</v>
+        <v>3.68829977290378</v>
       </c>
       <c r="O35">
-        <v>268.587770467275</v>
+        <v>261.629426194634</v>
       </c>
       <c r="P35">
-        <v>34.5554535675484</v>
+        <v>42.4890644471924</v>
       </c>
     </row>
     <row r="36">
@@ -2214,49 +2214,49 @@
         </is>
       </c>
       <c r="B36">
-        <v>2631.94345033605</v>
+        <v>2632.28343782096</v>
       </c>
       <c r="C36">
-        <v>54.708728727911</v>
+        <v>55.1561694075077</v>
       </c>
       <c r="D36">
-        <v>10.9502892761084</v>
+        <v>11.097631488408</v>
       </c>
       <c r="E36">
-        <v>113.439973332639</v>
+        <v>114.553320275946</v>
       </c>
       <c r="F36">
-        <v>35.225693817047</v>
+        <v>36.2234920326454</v>
       </c>
       <c r="G36">
-        <v>88.45586471169911</v>
+        <v>88.89650824067419</v>
       </c>
       <c r="H36">
-        <v>80.0068473864247</v>
+        <v>82.13263358171319</v>
       </c>
       <c r="I36">
-        <v>40.2627008668309</v>
+        <v>40.8592693260661</v>
       </c>
       <c r="J36">
-        <v>206.92162859469</v>
+        <v>210.532572455923</v>
       </c>
       <c r="K36">
-        <v>63.2913952105098</v>
+        <v>64.2574766712988</v>
       </c>
       <c r="L36">
-        <v>65.5771217391501</v>
+        <v>66.01697576505281</v>
       </c>
       <c r="M36">
-        <v>201.837893623651</v>
+        <v>205.796903904679</v>
       </c>
       <c r="N36">
-        <v>88.57019647820739</v>
+        <v>89.54266691848861</v>
       </c>
       <c r="O36">
-        <v>4241.2945981941</v>
+        <v>4224.86838265487</v>
       </c>
       <c r="P36">
-        <v>48.9796106301168</v>
+        <v>50.1453612449573</v>
       </c>
     </row>
     <row r="37">
@@ -2266,49 +2266,49 @@
         </is>
       </c>
       <c r="B37">
-        <v>830.225575266471</v>
+        <v>832.949539772543</v>
       </c>
       <c r="C37">
-        <v>21.8083078661277</v>
+        <v>22.6884612490059</v>
       </c>
       <c r="D37">
-        <v>2.61832204990855</v>
+        <v>2.7450135211986</v>
       </c>
       <c r="E37">
-        <v>18.930825255011</v>
+        <v>19.2932016308822</v>
       </c>
       <c r="F37">
-        <v>28.1746797682117</v>
+        <v>28.9152358473472</v>
       </c>
       <c r="G37">
-        <v>8.5259418835854</v>
+        <v>8.472274633821151</v>
       </c>
       <c r="H37">
-        <v>27.0459143229287</v>
+        <v>27.6383054725809</v>
       </c>
       <c r="I37">
-        <v>11.9219172782166</v>
+        <v>12.3762459482404</v>
       </c>
       <c r="J37">
-        <v>39.2642031894935</v>
+        <v>39.7584996238607</v>
       </c>
       <c r="K37">
-        <v>17.2321692363153</v>
+        <v>17.2581501260241</v>
       </c>
       <c r="L37">
-        <v>20.296007210153</v>
+        <v>20.1445254343376</v>
       </c>
       <c r="M37">
-        <v>40.0327815102675</v>
+        <v>39.8802944824853</v>
       </c>
       <c r="N37">
-        <v>24.7053811167676</v>
+        <v>24.9440992289437</v>
       </c>
       <c r="O37">
-        <v>1288.71528671995</v>
+        <v>1279.0959984884</v>
       </c>
       <c r="P37">
-        <v>42.2764017441443</v>
+        <v>46.998458945449</v>
       </c>
     </row>
     <row r="38">
@@ -2318,49 +2318,49 @@
         </is>
       </c>
       <c r="B38">
-        <v>805.002971257861</v>
+        <v>806.118719736096</v>
       </c>
       <c r="C38">
-        <v>25.2721615950487</v>
+        <v>25.9470848119069</v>
       </c>
       <c r="D38">
-        <v>8.152644899527751</v>
+        <v>8.07964914997318</v>
       </c>
       <c r="E38">
-        <v>49.5319971753221</v>
+        <v>50.836069947567</v>
       </c>
       <c r="F38">
-        <v>1.52187259318837</v>
+        <v>1.53041193606095</v>
       </c>
       <c r="G38">
-        <v>7.37678964572127</v>
+        <v>7.38077110625028</v>
       </c>
       <c r="H38">
-        <v>2.40342757119527</v>
+        <v>2.38753833353246</v>
       </c>
       <c r="I38">
-        <v>1.09130472945998</v>
+        <v>1.12105246008327</v>
       </c>
       <c r="J38">
-        <v>37.1459268312455</v>
+        <v>37.1569643427509</v>
       </c>
       <c r="K38">
-        <v>2.919484871706</v>
+        <v>2.90733100675227</v>
       </c>
       <c r="L38">
-        <v>83.1735464362191</v>
+        <v>80.843486112718</v>
       </c>
       <c r="M38">
-        <v>19.2533001131474</v>
+        <v>19.0127250001178</v>
       </c>
       <c r="N38">
-        <v>42.0840533988463</v>
+        <v>41.9139739226026</v>
       </c>
       <c r="O38">
-        <v>1412.48165468118</v>
+        <v>1408.79864227329</v>
       </c>
       <c r="P38">
-        <v>55.1718537420117</v>
+        <v>59.2180675642126</v>
       </c>
     </row>
     <row r="39">
@@ -2370,49 +2370,49 @@
         </is>
       </c>
       <c r="B39">
-        <v>2842.24864450403</v>
+        <v>2843.96444697063</v>
       </c>
       <c r="C39">
-        <v>96.0188687186982</v>
+        <v>96.9773362677854</v>
       </c>
       <c r="D39">
-        <v>36.3193271455831</v>
+        <v>37.4689369253928</v>
       </c>
       <c r="E39">
-        <v>140.630236767508</v>
+        <v>147.312775457298</v>
       </c>
       <c r="F39">
-        <v>29.6489335493113</v>
+        <v>31.1969568565747</v>
       </c>
       <c r="G39">
-        <v>130.503581936625</v>
+        <v>129.493148116302</v>
       </c>
       <c r="H39">
-        <v>49.0721952471468</v>
+        <v>50.6651397618256</v>
       </c>
       <c r="I39">
-        <v>29.2104117692741</v>
+        <v>30.1754577739806</v>
       </c>
       <c r="J39">
-        <v>159.514048470452</v>
+        <v>165.132898684816</v>
       </c>
       <c r="K39">
-        <v>66.84142523768919</v>
+        <v>69.3638911417283</v>
       </c>
       <c r="L39">
-        <v>102.79847810646</v>
+        <v>103.516280151616</v>
       </c>
       <c r="M39">
-        <v>73.29474950565741</v>
+        <v>75.2051655266648</v>
       </c>
       <c r="N39">
-        <v>122.775138831093</v>
+        <v>125.847119488426</v>
       </c>
       <c r="O39">
-        <v>4809.12603680997</v>
+        <v>4776.03754237665</v>
       </c>
       <c r="P39">
-        <v>57.1456659797493</v>
+        <v>64.1075198667328</v>
       </c>
     </row>
     <row r="40">
@@ -2422,49 +2422,49 @@
         </is>
       </c>
       <c r="B40">
-        <v>220.72655433052</v>
+        <v>220.682555300502</v>
       </c>
       <c r="C40">
-        <v>2.63392991050898</v>
+        <v>2.6321550570719</v>
       </c>
       <c r="D40">
-        <v>7.39521943343771</v>
+        <v>7.39939957530513</v>
       </c>
       <c r="E40">
-        <v>4.22976694027124</v>
+        <v>4.22809024432494</v>
       </c>
       <c r="F40">
-        <v>0.404385894617696</v>
+        <v>0.403065639473728</v>
       </c>
       <c r="G40">
-        <v>3.95657046193755</v>
+        <v>3.99333550792471</v>
       </c>
       <c r="H40">
-        <v>3.90784572821653</v>
+        <v>3.94200889275447</v>
       </c>
       <c r="I40">
-        <v>2.09991535374327</v>
+        <v>2.10119858298835</v>
       </c>
       <c r="J40">
-        <v>10.0974684915524</v>
+        <v>10.0941239536641</v>
       </c>
       <c r="K40">
-        <v>2.09726388377016</v>
+        <v>2.09734075829344</v>
       </c>
       <c r="L40">
-        <v>12.5630657217374</v>
+        <v>12.5545590580729</v>
       </c>
       <c r="M40">
-        <v>3.6974404511781</v>
+        <v>3.68916801394997</v>
       </c>
       <c r="N40">
-        <v>20.7358520899823</v>
+        <v>20.6964646187184</v>
       </c>
       <c r="O40">
-        <v>422.432667305886</v>
+        <v>422.368920137358</v>
       </c>
       <c r="P40">
-        <v>4.88794298272957</v>
+        <v>4.92287683937353</v>
       </c>
     </row>
     <row r="41">
@@ -2474,49 +2474,49 @@
         </is>
       </c>
       <c r="B41">
-        <v>1059.90320229817</v>
+        <v>1060.46027966248</v>
       </c>
       <c r="C41">
-        <v>13.0795098630195</v>
+        <v>13.4609652350162</v>
       </c>
       <c r="D41">
-        <v>71.4853037365131</v>
+        <v>74.6870932354953</v>
       </c>
       <c r="E41">
-        <v>29.7561992194075</v>
+        <v>30.0484106675591</v>
       </c>
       <c r="F41">
-        <v>1.09035533717865</v>
+        <v>1.08648853925555</v>
       </c>
       <c r="G41">
-        <v>25.0765431913394</v>
+        <v>25.3108383367027</v>
       </c>
       <c r="H41">
-        <v>31.1190593154835</v>
+        <v>31.4902721541702</v>
       </c>
       <c r="I41">
-        <v>11.4741612733444</v>
+        <v>11.7482775916045</v>
       </c>
       <c r="J41">
-        <v>39.8432252852011</v>
+        <v>40.1234428359122</v>
       </c>
       <c r="K41">
-        <v>10.1541777152622</v>
+        <v>10.154597282593</v>
       </c>
       <c r="L41">
-        <v>29.8898540329107</v>
+        <v>29.7504615922878</v>
       </c>
       <c r="M41">
-        <v>28.5563903046944</v>
+        <v>28.6473384162012</v>
       </c>
       <c r="N41">
-        <v>17.9555515200724</v>
+        <v>17.9280919962521</v>
       </c>
       <c r="O41">
-        <v>1496.631221662</v>
+        <v>1490.95349858868</v>
       </c>
       <c r="P41">
-        <v>21.6882515400247</v>
+        <v>22.3557085671582</v>
       </c>
     </row>
     <row r="42">
@@ -2526,49 +2526,49 @@
         </is>
       </c>
       <c r="B42">
-        <v>107.872120685188</v>
+        <v>107.299137829409</v>
       </c>
       <c r="C42">
-        <v>5.87204911562248</v>
+        <v>5.93151982629805</v>
       </c>
       <c r="D42">
-        <v>1.68681001478609</v>
+        <v>1.65103749050619</v>
       </c>
       <c r="E42">
-        <v>6.00689433573189</v>
+        <v>5.77882888683453</v>
       </c>
       <c r="F42">
-        <v>2.29427573676393</v>
+        <v>2.21280218717568</v>
       </c>
       <c r="G42">
-        <v>1.66363091927496</v>
+        <v>1.65245417911399</v>
       </c>
       <c r="H42">
-        <v>0.737762597684493</v>
+        <v>0.705229301707243</v>
       </c>
       <c r="I42">
-        <v>1.66154542989654</v>
+        <v>1.59031385262847</v>
       </c>
       <c r="J42">
-        <v>3.99546244399492</v>
+        <v>3.94629980775135</v>
       </c>
       <c r="K42">
-        <v>3.96660484295222</v>
+        <v>4.00154621693797</v>
       </c>
       <c r="L42">
-        <v>6.30265967533238</v>
+        <v>5.74192886419647</v>
       </c>
       <c r="M42">
-        <v>3.98822269064207</v>
+        <v>4.06677448336177</v>
       </c>
       <c r="N42">
-        <v>7.91959836964166</v>
+        <v>7.67170886802899</v>
       </c>
       <c r="O42">
-        <v>307.755761872831</v>
+        <v>301.088629868148</v>
       </c>
       <c r="P42">
-        <v>42.2468066173485</v>
+        <v>52.2567472585166</v>
       </c>
     </row>
     <row r="43">
@@ -2578,49 +2578,49 @@
         </is>
       </c>
       <c r="B43">
-        <v>1552.53666380096</v>
+        <v>1552.40916090374</v>
       </c>
       <c r="C43">
-        <v>36.9270188326834</v>
+        <v>36.7706600860185</v>
       </c>
       <c r="D43">
-        <v>23.8098211030987</v>
+        <v>25.3701234801644</v>
       </c>
       <c r="E43">
-        <v>72.00226459723</v>
+        <v>72.1522234218219</v>
       </c>
       <c r="F43">
-        <v>8.391072792995169</v>
+        <v>8.73867017346773</v>
       </c>
       <c r="G43">
-        <v>38.8893031329382</v>
+        <v>39.3054867364498</v>
       </c>
       <c r="H43">
-        <v>45.7919817906834</v>
+        <v>46.9557805241697</v>
       </c>
       <c r="I43">
-        <v>20.6757606707237</v>
+        <v>21.3360477565729</v>
       </c>
       <c r="J43">
-        <v>59.3139077155549</v>
+        <v>60.8313041398211</v>
       </c>
       <c r="K43">
-        <v>25.7917957506354</v>
+        <v>26.7222621368268</v>
       </c>
       <c r="L43">
-        <v>34.0841775696784</v>
+        <v>34.6481031473867</v>
       </c>
       <c r="M43">
-        <v>110.270461704926</v>
+        <v>114.026829953284</v>
       </c>
       <c r="N43">
-        <v>57.371525503185</v>
+        <v>58.1580979965863</v>
       </c>
       <c r="O43">
-        <v>2054.0951173522</v>
+        <v>2041.70865813478</v>
       </c>
       <c r="P43">
-        <v>54.4652127287894</v>
+        <v>55.5379609888603</v>
       </c>
     </row>
     <row r="44">
@@ -2630,49 +2630,49 @@
         </is>
       </c>
       <c r="B44">
-        <v>4720.88648445846</v>
+        <v>4726.49978028044</v>
       </c>
       <c r="C44">
-        <v>139.176925520821</v>
+        <v>141.958720967585</v>
       </c>
       <c r="D44">
-        <v>26.0047553437487</v>
+        <v>26.0997087136164</v>
       </c>
       <c r="E44">
-        <v>85.9802903691651</v>
+        <v>86.4755546534908</v>
       </c>
       <c r="F44">
-        <v>217.282392906645</v>
+        <v>219.256480689546</v>
       </c>
       <c r="G44">
-        <v>127.574795179535</v>
+        <v>127.708780937404</v>
       </c>
       <c r="H44">
-        <v>40.6581323756315</v>
+        <v>40.9828783035161</v>
       </c>
       <c r="I44">
-        <v>51.7477106578539</v>
+        <v>52.2531050871702</v>
       </c>
       <c r="J44">
-        <v>118.163731340134</v>
+        <v>118.989219197939</v>
       </c>
       <c r="K44">
-        <v>44.1292511899385</v>
+        <v>44.2745720587877</v>
       </c>
       <c r="L44">
-        <v>170.554137825095</v>
+        <v>167.346434712732</v>
       </c>
       <c r="M44">
-        <v>80.9936061791428</v>
+        <v>81.3532724687929</v>
       </c>
       <c r="N44">
-        <v>97.97615930791601</v>
+        <v>97.8344038514138</v>
       </c>
       <c r="O44">
-        <v>8330.041048888161</v>
+        <v>8305.94222680808</v>
       </c>
       <c r="P44">
-        <v>167.26147518664</v>
+        <v>182.372921059884</v>
       </c>
     </row>
     <row r="45">
@@ -2682,49 +2682,49 @@
         </is>
       </c>
       <c r="B45">
-        <v>421.303226656111</v>
+        <v>422.204604654836</v>
       </c>
       <c r="C45">
-        <v>18.042217881802</v>
+        <v>18.1456104505053</v>
       </c>
       <c r="D45">
-        <v>2.2786116887836</v>
+        <v>2.25707082244073</v>
       </c>
       <c r="E45">
-        <v>17.6325266914385</v>
+        <v>17.4755523402369</v>
       </c>
       <c r="F45">
-        <v>18.8320192551681</v>
+        <v>21.1195107386981</v>
       </c>
       <c r="G45">
-        <v>6.01106056040342</v>
+        <v>5.96328405737517</v>
       </c>
       <c r="H45">
-        <v>2.55986512366604</v>
+        <v>2.5642721640958</v>
       </c>
       <c r="I45">
-        <v>4.14382109232581</v>
+        <v>4.23570514888006</v>
       </c>
       <c r="J45">
-        <v>21.404795266134</v>
+        <v>21.516779000149</v>
       </c>
       <c r="K45">
-        <v>3.31457293188667</v>
+        <v>3.30146840642562</v>
       </c>
       <c r="L45">
-        <v>17.8737236135097</v>
+        <v>17.624903839247</v>
       </c>
       <c r="M45">
-        <v>15.0596646208523</v>
+        <v>15.1015961218535</v>
       </c>
       <c r="N45">
-        <v>29.8233331287367</v>
+        <v>29.4515019146601</v>
       </c>
       <c r="O45">
-        <v>852.63023698657</v>
+        <v>847.406730078505</v>
       </c>
       <c r="P45">
-        <v>18.4756469819768</v>
+        <v>20.9961458742394</v>
       </c>
     </row>
     <row r="46">
@@ -2734,49 +2734,49 @@
         </is>
       </c>
       <c r="B46">
-        <v>99.8999090574854</v>
+        <v>100.058462359818</v>
       </c>
       <c r="C46">
-        <v>3.70011957567033</v>
+        <v>3.87049031929244</v>
       </c>
       <c r="D46">
-        <v>0.5363295458448371</v>
+        <v>0.541747078420336</v>
       </c>
       <c r="E46">
-        <v>4.67369253191776</v>
+        <v>4.77761266946854</v>
       </c>
       <c r="F46">
-        <v>0.505408457812409</v>
+        <v>0.5077621346602</v>
       </c>
       <c r="G46">
-        <v>1.76616514412518</v>
+        <v>1.74130383648026</v>
       </c>
       <c r="H46">
-        <v>1.12246894290414</v>
+        <v>1.13641235526378</v>
       </c>
       <c r="I46">
-        <v>1.75500187292497</v>
+        <v>1.72699813258841</v>
       </c>
       <c r="J46">
-        <v>4.70694332751317</v>
+        <v>4.67079329143546</v>
       </c>
       <c r="K46">
-        <v>2.84345129693635</v>
+        <v>2.83028655069692</v>
       </c>
       <c r="L46">
-        <v>13.2390481190446</v>
+        <v>12.0950559869306</v>
       </c>
       <c r="M46">
-        <v>2.92495973845582</v>
+        <v>2.81733509806023</v>
       </c>
       <c r="N46">
-        <v>10.1116204241185</v>
+        <v>10.1799173665308</v>
       </c>
       <c r="O46">
-        <v>267.807896607411</v>
+        <v>267.654067614587</v>
       </c>
       <c r="P46">
-        <v>8.65107452313122</v>
+        <v>9.84931050374168</v>
       </c>
     </row>
     <row r="47">
@@ -2786,49 +2786,49 @@
         </is>
       </c>
       <c r="B47">
-        <v>1605.30934386662</v>
+        <v>1607.0233557608</v>
       </c>
       <c r="C47">
-        <v>39.1100207797839</v>
+        <v>40.3363746034818</v>
       </c>
       <c r="D47">
-        <v>16.7090114155014</v>
+        <v>17.4313324732319</v>
       </c>
       <c r="E47">
-        <v>51.7344447979146</v>
+        <v>52.503826071475</v>
       </c>
       <c r="F47">
-        <v>4.79836543952871</v>
+        <v>5.10832329347511</v>
       </c>
       <c r="G47">
-        <v>23.0316186802318</v>
+        <v>23.3536970241313</v>
       </c>
       <c r="H47">
-        <v>8.51400967654634</v>
+        <v>8.716231332145851</v>
       </c>
       <c r="I47">
-        <v>2.58138506092889</v>
+        <v>2.67507991859417</v>
       </c>
       <c r="J47">
-        <v>32.9407313338291</v>
+        <v>33.4517153027432</v>
       </c>
       <c r="K47">
-        <v>10.0489576915967</v>
+        <v>10.0060755598735</v>
       </c>
       <c r="L47">
-        <v>32.1308192677535</v>
+        <v>32.2895760200544</v>
       </c>
       <c r="M47">
-        <v>65.9753210366864</v>
+        <v>65.2849586016135</v>
       </c>
       <c r="N47">
-        <v>35.1300196657389</v>
+        <v>35.443843080573</v>
       </c>
       <c r="O47">
-        <v>2984.64846411166</v>
+        <v>2977.08869484945</v>
       </c>
       <c r="P47">
-        <v>22.3030047450437</v>
+        <v>23.2354458522936</v>
       </c>
     </row>
     <row r="48">
@@ -2838,49 +2838,49 @@
         </is>
       </c>
       <c r="B48">
-        <v>1317.53356653986</v>
+        <v>1319.30882019989</v>
       </c>
       <c r="C48">
-        <v>31.9478515568926</v>
+        <v>32.151024388519</v>
       </c>
       <c r="D48">
-        <v>7.64085453403195</v>
+        <v>7.58754520816728</v>
       </c>
       <c r="E48">
-        <v>69.69458269329181</v>
+        <v>71.6650630569123</v>
       </c>
       <c r="F48">
-        <v>11.635110720951</v>
+        <v>11.772383716193</v>
       </c>
       <c r="G48">
-        <v>7.01809824798448</v>
+        <v>6.99666180595461</v>
       </c>
       <c r="H48">
-        <v>4.95902286885499</v>
+        <v>4.91225464153186</v>
       </c>
       <c r="I48">
-        <v>9.83483841334305</v>
+        <v>10.071212596156</v>
       </c>
       <c r="J48">
-        <v>43.0219128372834</v>
+        <v>42.6478657499702</v>
       </c>
       <c r="K48">
-        <v>12.4472574958497</v>
+        <v>12.3458456413387</v>
       </c>
       <c r="L48">
-        <v>50.3679111417042</v>
+        <v>49.8867710175913</v>
       </c>
       <c r="M48">
-        <v>137.724409587555</v>
+        <v>132.787068307649</v>
       </c>
       <c r="N48">
-        <v>38.685010712148</v>
+        <v>38.6586898074089</v>
       </c>
       <c r="O48">
-        <v>2409.49423027787</v>
+        <v>2406.61800140062</v>
       </c>
       <c r="P48">
-        <v>77.3711687052148</v>
+        <v>82.2548012374622</v>
       </c>
     </row>
     <row r="49">
@@ -2890,49 +2890,49 @@
         </is>
       </c>
       <c r="B49">
-        <v>643.528969757965</v>
+        <v>643.710434231568</v>
       </c>
       <c r="C49">
-        <v>5.33071290232924</v>
+        <v>5.34513407975981</v>
       </c>
       <c r="D49">
-        <v>1.78818312629215</v>
+        <v>1.80644862278489</v>
       </c>
       <c r="E49">
-        <v>23.8497616405004</v>
+        <v>23.9872543270506</v>
       </c>
       <c r="F49">
-        <v>24.2251960517125</v>
+        <v>24.7415112838698</v>
       </c>
       <c r="G49">
-        <v>15.6846037115634</v>
+        <v>15.4541786160385</v>
       </c>
       <c r="H49">
-        <v>6.71037245388935</v>
+        <v>6.69498333833085</v>
       </c>
       <c r="I49">
-        <v>5.36826956861596</v>
+        <v>5.26759953456945</v>
       </c>
       <c r="J49">
-        <v>20.7203521528514</v>
+        <v>20.4836273060552</v>
       </c>
       <c r="K49">
-        <v>2.4010836673844</v>
+        <v>2.38192595899634</v>
       </c>
       <c r="L49">
-        <v>0.903864370459097</v>
+        <v>0.902653038196925</v>
       </c>
       <c r="M49">
-        <v>4.41688450867161</v>
+        <v>4.42941924846729</v>
       </c>
       <c r="N49">
-        <v>5.58888973009512</v>
+        <v>5.5817418658092</v>
       </c>
       <c r="O49">
-        <v>569.6301550595611</v>
+        <v>569.577187662097</v>
       </c>
       <c r="P49">
-        <v>8.20591784449393</v>
+        <v>8.249946963794971</v>
       </c>
     </row>
     <row r="50">
@@ -2942,49 +2942,49 @@
         </is>
       </c>
       <c r="B50">
-        <v>945.194495969798</v>
+        <v>946.423530202644</v>
       </c>
       <c r="C50">
-        <v>69.97549968468979</v>
+        <v>73.48026319609789</v>
       </c>
       <c r="D50">
-        <v>12.890113021409</v>
+        <v>13.2070268160984</v>
       </c>
       <c r="E50">
-        <v>146.220326797945</v>
+        <v>147.583585579451</v>
       </c>
       <c r="F50">
-        <v>2.99565872615323</v>
+        <v>2.99019834521355</v>
       </c>
       <c r="G50">
-        <v>32.9551033524644</v>
+        <v>32.4453286120968</v>
       </c>
       <c r="H50">
-        <v>38.4038739174076</v>
+        <v>38.4345373232633</v>
       </c>
       <c r="I50">
-        <v>7.09578067481361</v>
+        <v>7.35831426182817</v>
       </c>
       <c r="J50">
-        <v>96.5328006520155</v>
+        <v>96.74254686935331</v>
       </c>
       <c r="K50">
-        <v>64.05301809650069</v>
+        <v>64.2555744403187</v>
       </c>
       <c r="L50">
-        <v>65.3527412423685</v>
+        <v>64.2778917299799</v>
       </c>
       <c r="M50">
-        <v>50.5196517316078</v>
+        <v>50.1610184166005</v>
       </c>
       <c r="N50">
-        <v>59.4293185205942</v>
+        <v>59.4029382190469</v>
       </c>
       <c r="O50">
-        <v>2152.79677269673</v>
+        <v>2131.20200275277</v>
       </c>
       <c r="P50">
-        <v>75.8978381150354</v>
+        <v>94.2993269146387</v>
       </c>
     </row>
     <row r="51">
@@ -2994,49 +2994,49 @@
         </is>
       </c>
       <c r="B51">
-        <v>91.393344334248</v>
+        <v>91.2265709409217</v>
       </c>
       <c r="C51">
-        <v>4.36291564048639</v>
+        <v>4.295244653594</v>
       </c>
       <c r="D51">
-        <v>0.009533728344341699</v>
+        <v>0.0102665881705759</v>
       </c>
       <c r="E51">
-        <v>1.4296196330765</v>
+        <v>1.43048685564643</v>
       </c>
       <c r="F51">
-        <v>22.9838424671106</v>
+        <v>23.737269536347</v>
       </c>
       <c r="G51">
-        <v>1.67072442276835</v>
+        <v>1.6453355003672</v>
       </c>
       <c r="H51">
-        <v>0.00683495791713864</v>
+        <v>0.00651084436986047</v>
       </c>
       <c r="I51">
-        <v>0.736993693915083</v>
+        <v>0.738476584594139</v>
       </c>
       <c r="J51">
-        <v>0.861438184253792</v>
+        <v>0.829072719641581</v>
       </c>
       <c r="K51">
-        <v>0.561582193440194</v>
+        <v>0.561353658581125</v>
       </c>
       <c r="L51">
-        <v>0.370610681951947</v>
+        <v>0.372262604729344</v>
       </c>
       <c r="M51">
-        <v>0.252908877090665</v>
+        <v>0.248006499721538</v>
       </c>
       <c r="N51">
-        <v>0.863324085676783</v>
+        <v>0.852219425102509</v>
       </c>
       <c r="O51">
-        <v>205.638524744902</v>
+        <v>204.365024501513</v>
       </c>
       <c r="P51">
-        <v>17.904868423833</v>
+        <v>19.9847801934837</v>
       </c>
     </row>
     <row r="52">

--- a/1-Data-Codes/2-Final_Data/L_2004.xlsx
+++ b/1-Data-Codes/2-Final_Data/L_2004.xlsx
@@ -580,7 +580,7 @@
         <v>2.81325780025594</v>
       </c>
       <c r="L4">
-        <v>68.98109545592421</v>
+        <v>68.9810954559242</v>
       </c>
       <c r="M4">
         <v>44.7803232984019</v>
@@ -1079,7 +1079,7 @@
         <v>11.4332873254415</v>
       </c>
       <c r="E14">
-        <v>86.46999743489531</v>
+        <v>86.4699974348953</v>
       </c>
       <c r="F14">
         <v>19.3426665455119</v>
@@ -1216,7 +1216,7 @@
         <v>1166.60431211077</v>
       </c>
       <c r="P16">
-        <v>86.58597647733591</v>
+        <v>86.5859764773359</v>
       </c>
     </row>
     <row r="17">
@@ -1253,13 +1253,13 @@
         <v>18.9099503321829</v>
       </c>
       <c r="K17">
-        <v>9.469793766223861</v>
+        <v>9.46979376622386</v>
       </c>
       <c r="L17">
         <v>11.3927930426543</v>
       </c>
       <c r="M17">
-        <v>65.89150682548331</v>
+        <v>65.8915068254833</v>
       </c>
       <c r="N17">
         <v>11.9409164702819</v>
@@ -1779,7 +1779,7 @@
         <v>1.71603995340399</v>
       </c>
       <c r="M27">
-        <v>0.540243193982819</v>
+        <v>0.5402431939828189</v>
       </c>
       <c r="N27">
         <v>3.09714750731092</v>
@@ -2177,7 +2177,7 @@
         <v>3.86643866893487</v>
       </c>
       <c r="G35">
-        <v>0.926706171644117</v>
+        <v>0.9267061716441169</v>
       </c>
       <c r="H35">
         <v>0.537488977794835</v>
@@ -2266,7 +2266,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>832.949539772543</v>
+        <v>832.9495397725429</v>
       </c>
       <c r="C37">
         <v>22.6884612490059</v>
@@ -2663,7 +2663,7 @@
         <v>167.346434712732</v>
       </c>
       <c r="M44">
-        <v>81.3532724687929</v>
+        <v>81.35327246879289</v>
       </c>
       <c r="N44">
         <v>97.8344038514138</v>
@@ -2966,7 +2966,7 @@
         <v>7.35831426182817</v>
       </c>
       <c r="J50">
-        <v>96.74254686935331</v>
+        <v>96.7425468693533</v>
       </c>
       <c r="K50">
         <v>64.2555744403187</v>
@@ -3229,7 +3229,7 @@
         <v>56.6154411647658</v>
       </c>
       <c r="K55">
-        <v>65.4887300696354</v>
+        <v>65.48873006963539</v>
       </c>
       <c r="L55">
         <v>32.7925894310398</v>
@@ -3321,7 +3321,7 @@
         <v>178.439740637179</v>
       </c>
       <c r="G57">
-        <v>99.47017687726761</v>
+        <v>99.4701768772676</v>
       </c>
       <c r="H57">
         <v>122.555421995356</v>
@@ -4624,7 +4624,7 @@
         <v>713.50039443638</v>
       </c>
       <c r="H82">
-        <v>885.6169017902161</v>
+        <v>885.616901790216</v>
       </c>
       <c r="I82">
         <v>648.348525670263</v>
